--- a/South Korea K League 1/South Korea K League 1.xlsx
+++ b/South Korea K League 1/South Korea K League 1.xlsx
@@ -11293,7 +11293,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>3271187</v>
+        <v>3271190</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11305,76 +11305,76 @@
         <v>44409.33333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K122">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="L122">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M122">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="N122">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O122">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P122">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Q122">
         <v>0</v>
       </c>
       <c r="R122">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S122">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T122">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V122">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X122">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA122">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC122">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11382,7 +11382,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>3271190</v>
+        <v>3271187</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11394,76 +11394,76 @@
         <v>44409.33333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H123">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K123">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="L123">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M123">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="N123">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O123">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P123">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q123">
         <v>0</v>
       </c>
       <c r="R123">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S123">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U123">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V123">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB123">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -20371,7 +20371,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>4252701</v>
+        <v>4253808</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20383,73 +20383,73 @@
         <v>44534.125</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G224" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H224">
+        <v>2</v>
+      </c>
+      <c r="I224">
         <v>1</v>
       </c>
-      <c r="I224">
-        <v>2</v>
-      </c>
       <c r="J224" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K224">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L224">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M224">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N224">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O224">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P224">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q224">
         <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S224">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T224">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U224">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V224">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA224">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC224">
         <v>-1</v>
@@ -20549,7 +20549,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>4253808</v>
+        <v>4252701</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20561,73 +20561,73 @@
         <v>44534.125</v>
       </c>
       <c r="F226" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G226" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K226">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L226">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M226">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N226">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O226">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P226">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q226">
         <v>-0.25</v>
       </c>
       <c r="R226">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S226">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T226">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U226">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V226">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W226">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z226">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA226">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB226">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC226">
         <v>-1</v>
@@ -20638,7 +20638,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>4252697</v>
+        <v>4252698</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20650,10 +20650,10 @@
         <v>44535.125</v>
       </c>
       <c r="F227" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G227" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H227">
         <v>2</v>
@@ -20665,34 +20665,34 @@
         <v>44</v>
       </c>
       <c r="K227">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="L227">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M227">
+        <v>4.5</v>
+      </c>
+      <c r="N227">
+        <v>1.666</v>
+      </c>
+      <c r="O227">
         <v>4</v>
       </c>
-      <c r="N227">
-        <v>2.25</v>
-      </c>
-      <c r="O227">
-        <v>3.3</v>
-      </c>
       <c r="P227">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q227">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R227">
+        <v>1.825</v>
+      </c>
+      <c r="S227">
         <v>2.025</v>
       </c>
-      <c r="S227">
-        <v>1.825</v>
-      </c>
       <c r="T227">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U227">
         <v>1.975</v>
@@ -20701,7 +20701,7 @@
         <v>1.875</v>
       </c>
       <c r="W227">
-        <v>1.25</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X227">
         <v>-1</v>
@@ -20710,7 +20710,7 @@
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA227">
         <v>-1</v>
@@ -20816,7 +20816,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>4252698</v>
+        <v>4252697</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20828,10 +20828,10 @@
         <v>44535.125</v>
       </c>
       <c r="F229" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G229" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H229">
         <v>2</v>
@@ -20843,34 +20843,34 @@
         <v>44</v>
       </c>
       <c r="K229">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L229">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M229">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="N229">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O229">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P229">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q229">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R229">
+        <v>2.025</v>
+      </c>
+      <c r="S229">
         <v>1.825</v>
       </c>
-      <c r="S229">
-        <v>2.025</v>
-      </c>
       <c r="T229">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
         <v>1.975</v>
@@ -20879,7 +20879,7 @@
         <v>1.875</v>
       </c>
       <c r="W229">
-        <v>0.6659999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20888,7 +20888,7 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA229">
         <v>-1</v>
@@ -20994,7 +20994,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>4589476</v>
+        <v>4589477</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21006,40 +21006,40 @@
         <v>44611.1875</v>
       </c>
       <c r="F231" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G231" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H231">
+        <v>1</v>
+      </c>
+      <c r="I231">
         <v>0</v>
       </c>
-      <c r="I231">
-        <v>2</v>
-      </c>
       <c r="J231" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K231">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="L231">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M231">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="N231">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="O231">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P231">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="Q231">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R231">
         <v>1.875</v>
@@ -21048,34 +21048,34 @@
         <v>1.975</v>
       </c>
       <c r="T231">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U231">
+        <v>1.9</v>
+      </c>
+      <c r="V231">
         <v>1.95</v>
       </c>
-      <c r="V231">
-        <v>1.9</v>
-      </c>
       <c r="W231">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA231">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC231">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21083,7 +21083,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>4589477</v>
+        <v>4589476</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21095,40 +21095,40 @@
         <v>44611.1875</v>
       </c>
       <c r="F232" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G232" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232">
+        <v>2</v>
+      </c>
+      <c r="J232" t="s">
+        <v>46</v>
+      </c>
+      <c r="K232">
+        <v>2.05</v>
+      </c>
+      <c r="L232">
+        <v>3.25</v>
+      </c>
+      <c r="M232">
+        <v>3.6</v>
+      </c>
+      <c r="N232">
+        <v>2.625</v>
+      </c>
+      <c r="O232">
+        <v>3.1</v>
+      </c>
+      <c r="P232">
+        <v>2.7</v>
+      </c>
+      <c r="Q232">
         <v>0</v>
-      </c>
-      <c r="J232" t="s">
-        <v>44</v>
-      </c>
-      <c r="K232">
-        <v>3.25</v>
-      </c>
-      <c r="L232">
-        <v>3</v>
-      </c>
-      <c r="M232">
-        <v>2.375</v>
-      </c>
-      <c r="N232">
-        <v>3.5</v>
-      </c>
-      <c r="O232">
-        <v>2.9</v>
-      </c>
-      <c r="P232">
-        <v>2.3</v>
-      </c>
-      <c r="Q232">
-        <v>0.25</v>
       </c>
       <c r="R232">
         <v>1.875</v>
@@ -21137,34 +21137,34 @@
         <v>1.975</v>
       </c>
       <c r="T232">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U232">
+        <v>1.95</v>
+      </c>
+      <c r="V232">
         <v>1.9</v>
       </c>
-      <c r="V232">
-        <v>1.95</v>
-      </c>
       <c r="W232">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z232">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC232">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21439,7 +21439,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>4589481</v>
+        <v>4589482</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21451,76 +21451,76 @@
         <v>44618.08333333334</v>
       </c>
       <c r="F236" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G236" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H236">
         <v>1</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J236" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K236">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="L236">
         <v>3.2</v>
       </c>
       <c r="M236">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="N236">
+        <v>3.6</v>
+      </c>
+      <c r="O236">
         <v>3.1</v>
       </c>
-      <c r="O236">
-        <v>2.875</v>
-      </c>
       <c r="P236">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q236">
+        <v>0.25</v>
+      </c>
+      <c r="R236">
+        <v>2.05</v>
+      </c>
+      <c r="S236">
+        <v>1.8</v>
+      </c>
+      <c r="T236">
+        <v>2</v>
+      </c>
+      <c r="U236">
+        <v>1.775</v>
+      </c>
+      <c r="V236">
+        <v>2.1</v>
+      </c>
+      <c r="W236">
+        <v>-1</v>
+      </c>
+      <c r="X236">
+        <v>2.1</v>
+      </c>
+      <c r="Y236">
+        <v>-1</v>
+      </c>
+      <c r="Z236">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA236">
+        <v>-0.5</v>
+      </c>
+      <c r="AB236">
         <v>0</v>
       </c>
-      <c r="R236">
-        <v>2.1</v>
-      </c>
-      <c r="S236">
-        <v>1.775</v>
-      </c>
-      <c r="T236">
-        <v>2.25</v>
-      </c>
-      <c r="U236">
-        <v>2.1</v>
-      </c>
-      <c r="V236">
-        <v>1.775</v>
-      </c>
-      <c r="W236">
-        <v>2.1</v>
-      </c>
-      <c r="X236">
-        <v>-1</v>
-      </c>
-      <c r="Y236">
-        <v>-1</v>
-      </c>
-      <c r="Z236">
-        <v>1.1</v>
-      </c>
-      <c r="AA236">
-        <v>-1</v>
-      </c>
-      <c r="AB236">
-        <v>-1</v>
-      </c>
       <c r="AC236">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21528,7 +21528,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>4589482</v>
+        <v>4589481</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21540,76 +21540,76 @@
         <v>44618.08333333334</v>
       </c>
       <c r="F237" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G237" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H237">
         <v>1</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K237">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="L237">
         <v>3.2</v>
       </c>
       <c r="M237">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N237">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O237">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P237">
+        <v>2.45</v>
+      </c>
+      <c r="Q237">
+        <v>0</v>
+      </c>
+      <c r="R237">
         <v>2.1</v>
       </c>
-      <c r="Q237">
-        <v>0.25</v>
-      </c>
-      <c r="R237">
-        <v>2.05</v>
-      </c>
       <c r="S237">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T237">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U237">
+        <v>2.1</v>
+      </c>
+      <c r="V237">
         <v>1.775</v>
       </c>
-      <c r="V237">
+      <c r="W237">
         <v>2.1</v>
       </c>
-      <c r="W237">
-        <v>-1</v>
-      </c>
       <c r="X237">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>0.5249999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AA237">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC237">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -22863,7 +22863,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>4589366</v>
+        <v>4589496</v>
       </c>
       <c r="C252" t="s">
         <v>28</v>
@@ -22875,76 +22875,76 @@
         <v>44626.1875</v>
       </c>
       <c r="F252" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G252" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H252">
         <v>0</v>
       </c>
       <c r="I252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J252" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K252">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L252">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M252">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="N252">
-        <v>3.1</v>
+        <v>1.833</v>
       </c>
       <c r="O252">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P252">
-        <v>2.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q252">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R252">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S252">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T252">
         <v>2.25</v>
       </c>
       <c r="U252">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V252">
-        <v>1.75</v>
+        <v>1.775</v>
       </c>
       <c r="W252">
         <v>-1</v>
       </c>
       <c r="X252">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y252">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z252">
         <v>-1</v>
       </c>
       <c r="AA252">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB252">
         <v>-1</v>
       </c>
       <c r="AC252">
-        <v>0.75</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="253" spans="1:29">
@@ -22952,7 +22952,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>4589496</v>
+        <v>4589366</v>
       </c>
       <c r="C253" t="s">
         <v>28</v>
@@ -22964,76 +22964,76 @@
         <v>44626.1875</v>
       </c>
       <c r="F253" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G253" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H253">
         <v>0</v>
       </c>
       <c r="I253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K253">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L253">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M253">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="N253">
-        <v>1.833</v>
+        <v>3.1</v>
       </c>
       <c r="O253">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P253">
-        <v>4.2</v>
+        <v>2.25</v>
       </c>
       <c r="Q253">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R253">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S253">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T253">
         <v>2.25</v>
       </c>
       <c r="U253">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V253">
-        <v>1.775</v>
+        <v>1.75</v>
       </c>
       <c r="W253">
         <v>-1</v>
       </c>
       <c r="X253">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y253">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z253">
         <v>-1</v>
       </c>
       <c r="AA253">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB253">
         <v>-1</v>
       </c>
       <c r="AC253">
-        <v>0.7749999999999999</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="254" spans="1:29">
@@ -24109,7 +24109,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>4589506</v>
+        <v>4589507</v>
       </c>
       <c r="C266" t="s">
         <v>28</v>
@@ -24121,40 +24121,40 @@
         <v>44653.08333333334</v>
       </c>
       <c r="F266" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G266" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I266">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J266" t="s">
         <v>45</v>
       </c>
       <c r="K266">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="L266">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M266">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="N266">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="O266">
         <v>3.25</v>
       </c>
       <c r="P266">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q266">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R266">
         <v>2.025</v>
@@ -24163,13 +24163,13 @@
         <v>1.825</v>
       </c>
       <c r="T266">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U266">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V266">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W266">
         <v>-1</v>
@@ -24181,16 +24181,16 @@
         <v>-1</v>
       </c>
       <c r="Z266">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA266">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB266">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC266">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="267" spans="1:29">
@@ -24198,7 +24198,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>4589507</v>
+        <v>4589506</v>
       </c>
       <c r="C267" t="s">
         <v>28</v>
@@ -24210,40 +24210,40 @@
         <v>44653.08333333334</v>
       </c>
       <c r="F267" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G267" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J267" t="s">
         <v>45</v>
       </c>
       <c r="K267">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="L267">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M267">
+        <v>3.1</v>
+      </c>
+      <c r="N267">
         <v>1.95</v>
-      </c>
-      <c r="N267">
-        <v>3.4</v>
       </c>
       <c r="O267">
         <v>3.25</v>
       </c>
       <c r="P267">
-        <v>2.05</v>
+        <v>3.8</v>
       </c>
       <c r="Q267">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R267">
         <v>2.025</v>
@@ -24252,13 +24252,13 @@
         <v>1.825</v>
       </c>
       <c r="T267">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U267">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V267">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W267">
         <v>-1</v>
@@ -24270,16 +24270,16 @@
         <v>-1</v>
       </c>
       <c r="Z267">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA267">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB267">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC267">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="268" spans="1:29">
@@ -25711,7 +25711,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>4589521</v>
+        <v>4589372</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25723,76 +25723,76 @@
         <v>44686.08333333334</v>
       </c>
       <c r="F284" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G284" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H284">
         <v>1</v>
       </c>
       <c r="I284">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J284" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K284">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="L284">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M284">
+        <v>5</v>
+      </c>
+      <c r="N284">
+        <v>1.909</v>
+      </c>
+      <c r="O284">
+        <v>3.4</v>
+      </c>
+      <c r="P284">
+        <v>3.8</v>
+      </c>
+      <c r="Q284">
+        <v>-0.5</v>
+      </c>
+      <c r="R284">
+        <v>1.95</v>
+      </c>
+      <c r="S284">
+        <v>1.9</v>
+      </c>
+      <c r="T284">
         <v>2.25</v>
       </c>
-      <c r="N284">
-        <v>4.2</v>
-      </c>
-      <c r="O284">
-        <v>3.2</v>
-      </c>
-      <c r="P284">
-        <v>1.95</v>
-      </c>
-      <c r="Q284">
-        <v>0.5</v>
-      </c>
-      <c r="R284">
-        <v>1.875</v>
-      </c>
-      <c r="S284">
-        <v>1.975</v>
-      </c>
-      <c r="T284">
-        <v>2</v>
-      </c>
       <c r="U284">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V284">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W284">
         <v>-1</v>
       </c>
       <c r="X284">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y284">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z284">
         <v>-1</v>
       </c>
       <c r="AA284">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB284">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC284">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25800,7 +25800,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>4589372</v>
+        <v>4589521</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25812,76 +25812,76 @@
         <v>44686.08333333334</v>
       </c>
       <c r="F285" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G285" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H285">
         <v>1</v>
       </c>
       <c r="I285">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J285" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K285">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="L285">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M285">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="N285">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="O285">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P285">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q285">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R285">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S285">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T285">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U285">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V285">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W285">
         <v>-1</v>
       </c>
       <c r="X285">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y285">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z285">
         <v>-1</v>
       </c>
       <c r="AA285">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB285">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC285">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -27669,7 +27669,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>4589539</v>
+        <v>4589538</v>
       </c>
       <c r="C306" t="s">
         <v>28</v>
@@ -27681,76 +27681,76 @@
         <v>44699.3125</v>
       </c>
       <c r="F306" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G306" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J306" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K306">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="L306">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M306">
+        <v>2.7</v>
+      </c>
+      <c r="N306">
         <v>2.3</v>
-      </c>
-      <c r="N306">
-        <v>2.625</v>
       </c>
       <c r="O306">
         <v>3.1</v>
       </c>
       <c r="P306">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q306">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R306">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S306">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T306">
         <v>2.25</v>
       </c>
       <c r="U306">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V306">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W306">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X306">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y306">
         <v>-1</v>
       </c>
       <c r="Z306">
+        <v>-0.5</v>
+      </c>
+      <c r="AA306">
+        <v>0.4</v>
+      </c>
+      <c r="AB306">
         <v>0.95</v>
       </c>
-      <c r="AA306">
-        <v>-1</v>
-      </c>
-      <c r="AB306">
-        <v>-1</v>
-      </c>
       <c r="AC306">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="307" spans="1:29">
@@ -27758,7 +27758,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>4589538</v>
+        <v>4589539</v>
       </c>
       <c r="C307" t="s">
         <v>28</v>
@@ -27770,76 +27770,76 @@
         <v>44699.3125</v>
       </c>
       <c r="F307" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G307" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J307" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K307">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="L307">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M307">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="N307">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O307">
         <v>3.1</v>
       </c>
       <c r="P307">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="Q307">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R307">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S307">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T307">
         <v>2.25</v>
       </c>
       <c r="U307">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V307">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W307">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X307">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y307">
         <v>-1</v>
       </c>
       <c r="Z307">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA307">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB307">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC307">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="308" spans="1:29">
@@ -29538,7 +29538,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>4589556</v>
+        <v>4589555</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29550,58 +29550,58 @@
         <v>44733.3125</v>
       </c>
       <c r="F327" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G327" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J327" t="s">
         <v>44</v>
       </c>
       <c r="K327">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L327">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M327">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N327">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="O327">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P327">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="Q327">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R327">
+        <v>1.775</v>
+      </c>
+      <c r="S327">
+        <v>2.1</v>
+      </c>
+      <c r="T327">
+        <v>2.25</v>
+      </c>
+      <c r="U327">
         <v>1.8</v>
       </c>
-      <c r="S327">
+      <c r="V327">
         <v>2.05</v>
       </c>
-      <c r="T327">
-        <v>2.5</v>
-      </c>
-      <c r="U327">
-        <v>2.025</v>
-      </c>
-      <c r="V327">
-        <v>1.825</v>
-      </c>
       <c r="W327">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="X327">
         <v>-1</v>
@@ -29610,16 +29610,16 @@
         <v>-1</v>
       </c>
       <c r="Z327">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA327">
         <v>-1</v>
       </c>
       <c r="AB327">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC327">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -29627,7 +29627,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>4589555</v>
+        <v>4589556</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29639,58 +29639,58 @@
         <v>44733.3125</v>
       </c>
       <c r="F328" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G328" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H328">
+        <v>2</v>
+      </c>
+      <c r="I328">
         <v>1</v>
-      </c>
-      <c r="I328">
-        <v>0</v>
       </c>
       <c r="J328" t="s">
         <v>44</v>
       </c>
       <c r="K328">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L328">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M328">
+        <v>2.15</v>
+      </c>
+      <c r="N328">
+        <v>3.5</v>
+      </c>
+      <c r="O328">
+        <v>3.4</v>
+      </c>
+      <c r="P328">
+        <v>1.95</v>
+      </c>
+      <c r="Q328">
+        <v>0.5</v>
+      </c>
+      <c r="R328">
+        <v>1.8</v>
+      </c>
+      <c r="S328">
+        <v>2.05</v>
+      </c>
+      <c r="T328">
         <v>2.5</v>
       </c>
-      <c r="N328">
-        <v>2.45</v>
-      </c>
-      <c r="O328">
-        <v>3</v>
-      </c>
-      <c r="P328">
-        <v>2.875</v>
-      </c>
-      <c r="Q328">
-        <v>0</v>
-      </c>
-      <c r="R328">
-        <v>1.775</v>
-      </c>
-      <c r="S328">
-        <v>2.1</v>
-      </c>
-      <c r="T328">
-        <v>2.25</v>
-      </c>
       <c r="U328">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V328">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W328">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="X328">
         <v>-1</v>
@@ -29699,16 +29699,16 @@
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA328">
         <v>-1</v>
       </c>
       <c r="AB328">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC328">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29805,7 +29805,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>4589557</v>
+        <v>4589558</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29817,73 +29817,73 @@
         <v>44734.3125</v>
       </c>
       <c r="F330" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G330" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H330">
+        <v>4</v>
+      </c>
+      <c r="I330">
         <v>1</v>
       </c>
-      <c r="I330">
-        <v>2</v>
-      </c>
       <c r="J330" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K330">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="L330">
         <v>3.2</v>
       </c>
       <c r="M330">
+        <v>3.8</v>
+      </c>
+      <c r="N330">
+        <v>2.6</v>
+      </c>
+      <c r="O330">
+        <v>3</v>
+      </c>
+      <c r="P330">
+        <v>2.7</v>
+      </c>
+      <c r="Q330">
+        <v>0</v>
+      </c>
+      <c r="R330">
+        <v>1.875</v>
+      </c>
+      <c r="S330">
+        <v>1.975</v>
+      </c>
+      <c r="T330">
+        <v>2.25</v>
+      </c>
+      <c r="U330">
         <v>2.1</v>
       </c>
-      <c r="N330">
-        <v>3.6</v>
-      </c>
-      <c r="O330">
-        <v>3.2</v>
-      </c>
-      <c r="P330">
-        <v>2</v>
-      </c>
-      <c r="Q330">
-        <v>0.25</v>
-      </c>
-      <c r="R330">
-        <v>2.025</v>
-      </c>
-      <c r="S330">
-        <v>1.825</v>
-      </c>
-      <c r="T330">
-        <v>2.5</v>
-      </c>
-      <c r="U330">
-        <v>2</v>
-      </c>
       <c r="V330">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W330">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X330">
         <v>-1</v>
       </c>
       <c r="Y330">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z330">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA330">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB330">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AC330">
         <v>-1</v>
@@ -29894,7 +29894,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>4589558</v>
+        <v>4589557</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29906,73 +29906,73 @@
         <v>44734.3125</v>
       </c>
       <c r="F331" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G331" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H331">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I331">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J331" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K331">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="L331">
         <v>3.2</v>
       </c>
       <c r="M331">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="N331">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="O331">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P331">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="Q331">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R331">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S331">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T331">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U331">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V331">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W331">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X331">
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z331">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA331">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB331">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AC331">
         <v>-1</v>
@@ -30606,7 +30606,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>4589381</v>
+        <v>4589565</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30618,76 +30618,76 @@
         <v>44744.29166666666</v>
       </c>
       <c r="F339" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G339" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J339" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K339">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L339">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M339">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="N339">
         <v>3.1</v>
       </c>
       <c r="O339">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P339">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q339">
         <v>0.25</v>
       </c>
       <c r="R339">
+        <v>1.85</v>
+      </c>
+      <c r="S339">
+        <v>2</v>
+      </c>
+      <c r="T339">
+        <v>2.5</v>
+      </c>
+      <c r="U339">
         <v>1.975</v>
       </c>
-      <c r="S339">
+      <c r="V339">
         <v>1.875</v>
       </c>
-      <c r="T339">
-        <v>2.75</v>
-      </c>
-      <c r="U339">
-        <v>2</v>
-      </c>
-      <c r="V339">
-        <v>1.85</v>
-      </c>
       <c r="W339">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X339">
         <v>-1</v>
       </c>
       <c r="Y339">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z339">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA339">
+        <v>-1</v>
+      </c>
+      <c r="AB339">
+        <v>-1</v>
+      </c>
+      <c r="AC339">
         <v>0.875</v>
-      </c>
-      <c r="AB339">
-        <v>0.5</v>
-      </c>
-      <c r="AC339">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="340" spans="1:29">
@@ -30695,7 +30695,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>4589565</v>
+        <v>4589381</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30707,76 +30707,76 @@
         <v>44744.29166666666</v>
       </c>
       <c r="F340" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G340" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J340" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K340">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L340">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M340">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="N340">
         <v>3.1</v>
       </c>
       <c r="O340">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P340">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q340">
         <v>0.25</v>
       </c>
       <c r="R340">
+        <v>1.975</v>
+      </c>
+      <c r="S340">
+        <v>1.875</v>
+      </c>
+      <c r="T340">
+        <v>2.75</v>
+      </c>
+      <c r="U340">
+        <v>2</v>
+      </c>
+      <c r="V340">
         <v>1.85</v>
       </c>
-      <c r="S340">
-        <v>2</v>
-      </c>
-      <c r="T340">
-        <v>2.5</v>
-      </c>
-      <c r="U340">
-        <v>1.975</v>
-      </c>
-      <c r="V340">
-        <v>1.875</v>
-      </c>
       <c r="W340">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X340">
         <v>-1</v>
       </c>
       <c r="Y340">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z340">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA340">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB340">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC340">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -31941,7 +31941,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>4589576</v>
+        <v>4589577</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31953,58 +31953,58 @@
         <v>44752.29166666666</v>
       </c>
       <c r="F354" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G354" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H354">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I354">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J354" t="s">
         <v>44</v>
       </c>
       <c r="K354">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="L354">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M354">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N354">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="O354">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P354">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q354">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R354">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S354">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T354">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U354">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V354">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W354">
-        <v>1.55</v>
+        <v>0.833</v>
       </c>
       <c r="X354">
         <v>-1</v>
@@ -32013,16 +32013,16 @@
         <v>-1</v>
       </c>
       <c r="Z354">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA354">
         <v>-1</v>
       </c>
       <c r="AB354">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC354">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -32030,7 +32030,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>4589577</v>
+        <v>4589576</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32042,58 +32042,58 @@
         <v>44752.29166666666</v>
       </c>
       <c r="F355" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G355" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I355">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J355" t="s">
         <v>44</v>
       </c>
       <c r="K355">
+        <v>2.875</v>
+      </c>
+      <c r="L355">
+        <v>3.25</v>
+      </c>
+      <c r="M355">
+        <v>2.375</v>
+      </c>
+      <c r="N355">
+        <v>2.55</v>
+      </c>
+      <c r="O355">
+        <v>3.2</v>
+      </c>
+      <c r="P355">
+        <v>2.625</v>
+      </c>
+      <c r="Q355">
+        <v>0</v>
+      </c>
+      <c r="R355">
         <v>1.85</v>
       </c>
-      <c r="L355">
-        <v>3.3</v>
-      </c>
-      <c r="M355">
-        <v>4</v>
-      </c>
-      <c r="N355">
-        <v>1.833</v>
-      </c>
-      <c r="O355">
-        <v>3.3</v>
-      </c>
-      <c r="P355">
-        <v>4.2</v>
-      </c>
-      <c r="Q355">
-        <v>-0.5</v>
-      </c>
-      <c r="R355">
-        <v>1.925</v>
-      </c>
       <c r="S355">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T355">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U355">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V355">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W355">
-        <v>0.833</v>
+        <v>1.55</v>
       </c>
       <c r="X355">
         <v>-1</v>
@@ -32102,16 +32102,16 @@
         <v>-1</v>
       </c>
       <c r="Z355">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA355">
         <v>-1</v>
       </c>
       <c r="AB355">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC355">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -32653,7 +32653,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>4589592</v>
+        <v>4589624</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32665,76 +32665,76 @@
         <v>44772.29166666666</v>
       </c>
       <c r="F362" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G362" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H362">
+        <v>2</v>
+      </c>
+      <c r="I362">
+        <v>1</v>
+      </c>
+      <c r="J362" t="s">
+        <v>44</v>
+      </c>
+      <c r="K362">
+        <v>1.666</v>
+      </c>
+      <c r="L362">
+        <v>3.75</v>
+      </c>
+      <c r="M362">
+        <v>4.75</v>
+      </c>
+      <c r="N362">
+        <v>1.571</v>
+      </c>
+      <c r="O362">
+        <v>4.2</v>
+      </c>
+      <c r="P362">
+        <v>5</v>
+      </c>
+      <c r="Q362">
+        <v>-1</v>
+      </c>
+      <c r="R362">
+        <v>2.05</v>
+      </c>
+      <c r="S362">
+        <v>1.8</v>
+      </c>
+      <c r="T362">
+        <v>2.75</v>
+      </c>
+      <c r="U362">
+        <v>1.975</v>
+      </c>
+      <c r="V362">
+        <v>1.875</v>
+      </c>
+      <c r="W362">
+        <v>0.571</v>
+      </c>
+      <c r="X362">
+        <v>-1</v>
+      </c>
+      <c r="Y362">
+        <v>-1</v>
+      </c>
+      <c r="Z362">
         <v>0</v>
       </c>
-      <c r="I362">
-        <v>0</v>
-      </c>
-      <c r="J362" t="s">
-        <v>45</v>
-      </c>
-      <c r="K362">
-        <v>2.375</v>
-      </c>
-      <c r="L362">
-        <v>3.2</v>
-      </c>
-      <c r="M362">
-        <v>2.9</v>
-      </c>
-      <c r="N362">
-        <v>2.4</v>
-      </c>
-      <c r="O362">
-        <v>3.2</v>
-      </c>
-      <c r="P362">
-        <v>2.9</v>
-      </c>
-      <c r="Q362">
-        <v>-0.25</v>
-      </c>
-      <c r="R362">
-        <v>2.075</v>
-      </c>
-      <c r="S362">
-        <v>1.725</v>
-      </c>
-      <c r="T362">
-        <v>2.25</v>
-      </c>
-      <c r="U362">
-        <v>1.925</v>
-      </c>
-      <c r="V362">
-        <v>1.925</v>
-      </c>
-      <c r="W362">
-        <v>-1</v>
-      </c>
-      <c r="X362">
-        <v>2.2</v>
-      </c>
-      <c r="Y362">
-        <v>-1</v>
-      </c>
-      <c r="Z362">
+      <c r="AA362">
+        <v>-0</v>
+      </c>
+      <c r="AB362">
+        <v>0.4875</v>
+      </c>
+      <c r="AC362">
         <v>-0.5</v>
-      </c>
-      <c r="AA362">
-        <v>0.3625</v>
-      </c>
-      <c r="AB362">
-        <v>-1</v>
-      </c>
-      <c r="AC362">
-        <v>0.925</v>
       </c>
     </row>
     <row r="363" spans="1:29">
@@ -32742,7 +32742,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>4589624</v>
+        <v>4589387</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32754,58 +32754,58 @@
         <v>44772.29166666666</v>
       </c>
       <c r="F363" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G363" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J363" t="s">
         <v>44</v>
       </c>
       <c r="K363">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L363">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M363">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N363">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O363">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P363">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q363">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R363">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S363">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T363">
         <v>2.75</v>
       </c>
       <c r="U363">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V363">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W363">
-        <v>0.571</v>
+        <v>1.2</v>
       </c>
       <c r="X363">
         <v>-1</v>
@@ -32814,16 +32814,16 @@
         <v>-1</v>
       </c>
       <c r="Z363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA363">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB363">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC363">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:29">
@@ -32831,7 +32831,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>4589387</v>
+        <v>4589592</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32843,76 +32843,76 @@
         <v>44772.29166666666</v>
       </c>
       <c r="F364" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G364" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364">
         <v>0</v>
       </c>
       <c r="J364" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K364">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L364">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M364">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N364">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O364">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P364">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q364">
         <v>-0.25</v>
       </c>
       <c r="R364">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="S364">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T364">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U364">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V364">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W364">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X364">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y364">
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA364">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB364">
         <v>-1</v>
       </c>
       <c r="AC364">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -36480,7 +36480,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>4589616</v>
+        <v>4589617</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36492,76 +36492,76 @@
         <v>44810.3125</v>
       </c>
       <c r="F405" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G405" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H405">
+        <v>1</v>
+      </c>
+      <c r="I405">
         <v>0</v>
       </c>
-      <c r="I405">
-        <v>1</v>
-      </c>
       <c r="J405" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K405">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="L405">
         <v>3.5</v>
       </c>
       <c r="M405">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N405">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="O405">
         <v>3.5</v>
       </c>
       <c r="P405">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q405">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R405">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S405">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T405">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U405">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V405">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W405">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X405">
         <v>-1</v>
       </c>
       <c r="Y405">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z405">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA405">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB405">
         <v>-1</v>
       </c>
       <c r="AC405">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="406" spans="1:29">
@@ -36569,7 +36569,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>4589617</v>
+        <v>4589616</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36581,76 +36581,76 @@
         <v>44810.3125</v>
       </c>
       <c r="F406" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G406" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H406">
+        <v>0</v>
+      </c>
+      <c r="I406">
         <v>1</v>
       </c>
-      <c r="I406">
-        <v>0</v>
-      </c>
       <c r="J406" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K406">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="L406">
         <v>3.5</v>
       </c>
       <c r="M406">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N406">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="O406">
         <v>3.5</v>
       </c>
       <c r="P406">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q406">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R406">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S406">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T406">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U406">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V406">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W406">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X406">
         <v>-1</v>
       </c>
       <c r="Y406">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z406">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA406">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB406">
         <v>-1</v>
       </c>
       <c r="AC406">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -37548,7 +37548,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>4733621</v>
+        <v>4734917</v>
       </c>
       <c r="C417" t="s">
         <v>28</v>
@@ -37560,76 +37560,76 @@
         <v>44817.3125</v>
       </c>
       <c r="F417" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G417" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I417">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J417" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K417">
         <v>2.1</v>
       </c>
       <c r="L417">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M417">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N417">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O417">
         <v>3.5</v>
       </c>
       <c r="P417">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q417">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R417">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S417">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T417">
         <v>2.5</v>
       </c>
       <c r="U417">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V417">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W417">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X417">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y417">
         <v>-1</v>
       </c>
       <c r="Z417">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA417">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB417">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC417">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="418" spans="1:29">
@@ -37637,7 +37637,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>4734917</v>
+        <v>4733621</v>
       </c>
       <c r="C418" t="s">
         <v>28</v>
@@ -37649,76 +37649,76 @@
         <v>44817.3125</v>
       </c>
       <c r="F418" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G418" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J418" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K418">
         <v>2.1</v>
       </c>
       <c r="L418">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M418">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N418">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O418">
         <v>3.5</v>
       </c>
       <c r="P418">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q418">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R418">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S418">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T418">
         <v>2.5</v>
       </c>
       <c r="U418">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V418">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W418">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X418">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y418">
         <v>-1</v>
       </c>
       <c r="Z418">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA418">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB418">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC418">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="419" spans="1:29">
@@ -37993,7 +37993,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>4742626</v>
+        <v>4742625</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38005,73 +38005,73 @@
         <v>44822.125</v>
       </c>
       <c r="F422" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G422" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H422">
         <v>2</v>
       </c>
       <c r="I422">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J422" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K422">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="L422">
         <v>3.25</v>
       </c>
       <c r="M422">
+        <v>2</v>
+      </c>
+      <c r="N422">
+        <v>3.1</v>
+      </c>
+      <c r="O422">
+        <v>3.3</v>
+      </c>
+      <c r="P422">
+        <v>2.05</v>
+      </c>
+      <c r="Q422">
+        <v>0.25</v>
+      </c>
+      <c r="R422">
+        <v>1.975</v>
+      </c>
+      <c r="S422">
+        <v>1.875</v>
+      </c>
+      <c r="T422">
         <v>2.5</v>
       </c>
-      <c r="N422">
-        <v>2.55</v>
-      </c>
-      <c r="O422">
-        <v>3.1</v>
-      </c>
-      <c r="P422">
-        <v>2.55</v>
-      </c>
-      <c r="Q422">
-        <v>0</v>
-      </c>
-      <c r="R422">
+      <c r="U422">
+        <v>1.9</v>
+      </c>
+      <c r="V422">
         <v>1.95</v>
       </c>
-      <c r="S422">
-        <v>1.9</v>
-      </c>
-      <c r="T422">
-        <v>2.25</v>
-      </c>
-      <c r="U422">
-        <v>1.925</v>
-      </c>
-      <c r="V422">
-        <v>1.925</v>
-      </c>
       <c r="W422">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X422">
         <v>-1</v>
       </c>
       <c r="Y422">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z422">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA422">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB422">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC422">
         <v>-1</v>
@@ -38082,7 +38082,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>4742625</v>
+        <v>4742626</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38094,73 +38094,73 @@
         <v>44822.125</v>
       </c>
       <c r="F423" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G423" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H423">
         <v>2</v>
       </c>
       <c r="I423">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J423" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K423">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="L423">
         <v>3.25</v>
       </c>
       <c r="M423">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N423">
+        <v>2.55</v>
+      </c>
+      <c r="O423">
         <v>3.1</v>
       </c>
-      <c r="O423">
-        <v>3.3</v>
-      </c>
       <c r="P423">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="Q423">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R423">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S423">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T423">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U423">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V423">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W423">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X423">
         <v>-1</v>
       </c>
       <c r="Y423">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z423">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA423">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB423">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC423">
         <v>-1</v>
@@ -38171,7 +38171,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>4743104</v>
+        <v>4743103</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38183,67 +38183,67 @@
         <v>44822.125</v>
       </c>
       <c r="F424" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G424" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H424">
         <v>1</v>
       </c>
       <c r="I424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J424" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K424">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L424">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M424">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="N424">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="O424">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P424">
-        <v>2.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q424">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R424">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S424">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T424">
         <v>2.5</v>
       </c>
       <c r="U424">
+        <v>1.9</v>
+      </c>
+      <c r="V424">
         <v>1.95</v>
       </c>
-      <c r="V424">
-        <v>1.9</v>
-      </c>
       <c r="W424">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X424">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y424">
         <v>-1</v>
       </c>
       <c r="Z424">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA424">
         <v>-1</v>
@@ -38252,7 +38252,7 @@
         <v>-1</v>
       </c>
       <c r="AC424">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38260,7 +38260,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>4743103</v>
+        <v>4742624</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38272,67 +38272,67 @@
         <v>44822.125</v>
       </c>
       <c r="F425" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G425" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I425">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J425" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K425">
-        <v>4.5</v>
+        <v>1.533</v>
       </c>
       <c r="L425">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M425">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="N425">
-        <v>4</v>
+        <v>1.65</v>
       </c>
       <c r="O425">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P425">
-        <v>1.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q425">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R425">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S425">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T425">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U425">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V425">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W425">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X425">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y425">
         <v>-1</v>
       </c>
       <c r="Z425">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA425">
         <v>-1</v>
@@ -38341,7 +38341,7 @@
         <v>-1</v>
       </c>
       <c r="AC425">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -38349,7 +38349,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>4742624</v>
+        <v>4743115</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -38361,13 +38361,13 @@
         <v>44822.125</v>
       </c>
       <c r="F426" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G426" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I426">
         <v>0</v>
@@ -38376,43 +38376,43 @@
         <v>44</v>
       </c>
       <c r="K426">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="L426">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M426">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="N426">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O426">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P426">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q426">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R426">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S426">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T426">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U426">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V426">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W426">
-        <v>0.6499999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X426">
         <v>-1</v>
@@ -38421,16 +38421,16 @@
         <v>-1</v>
       </c>
       <c r="Z426">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA426">
         <v>-1</v>
       </c>
       <c r="AB426">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC426">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="427" spans="1:29">
@@ -38438,7 +38438,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>4743115</v>
+        <v>4743104</v>
       </c>
       <c r="C427" t="s">
         <v>28</v>
@@ -38450,13 +38450,13 @@
         <v>44822.125</v>
       </c>
       <c r="F427" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G427" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H427">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I427">
         <v>0</v>
@@ -38465,31 +38465,31 @@
         <v>44</v>
       </c>
       <c r="K427">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L427">
         <v>3.25</v>
       </c>
       <c r="M427">
+        <v>2.6</v>
+      </c>
+      <c r="N427">
         <v>2.25</v>
       </c>
-      <c r="N427">
-        <v>2.5</v>
-      </c>
       <c r="O427">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P427">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q427">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R427">
+        <v>1.975</v>
+      </c>
+      <c r="S427">
         <v>1.875</v>
-      </c>
-      <c r="S427">
-        <v>1.975</v>
       </c>
       <c r="T427">
         <v>2.5</v>
@@ -38501,7 +38501,7 @@
         <v>1.9</v>
       </c>
       <c r="W427">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="X427">
         <v>-1</v>
@@ -38510,16 +38510,16 @@
         <v>-1</v>
       </c>
       <c r="Z427">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA427">
         <v>-1</v>
       </c>
       <c r="AB427">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC427">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="428" spans="1:29">
@@ -40663,7 +40663,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>5656532</v>
+        <v>5656531</v>
       </c>
       <c r="C452" t="s">
         <v>28</v>
@@ -40675,55 +40675,55 @@
         <v>44856.125</v>
       </c>
       <c r="F452" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G452" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J452" t="s">
         <v>46</v>
       </c>
       <c r="K452">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L452">
         <v>3.25</v>
       </c>
       <c r="M452">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N452">
+        <v>3.1</v>
+      </c>
+      <c r="O452">
         <v>3.4</v>
       </c>
-      <c r="O452">
-        <v>3.3</v>
-      </c>
       <c r="P452">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q452">
         <v>0.25</v>
       </c>
       <c r="R452">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S452">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T452">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U452">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V452">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W452">
         <v>-1</v>
@@ -40732,19 +40732,19 @@
         <v>-1</v>
       </c>
       <c r="Y452">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="Z452">
         <v>-1</v>
       </c>
       <c r="AA452">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB452">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC452">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="453" spans="1:29">
@@ -40752,7 +40752,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>5656531</v>
+        <v>5656549</v>
       </c>
       <c r="C453" t="s">
         <v>28</v>
@@ -40764,76 +40764,76 @@
         <v>44856.125</v>
       </c>
       <c r="F453" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G453" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I453">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J453" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K453">
         <v>3</v>
       </c>
       <c r="L453">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M453">
+        <v>2.15</v>
+      </c>
+      <c r="N453">
         <v>2.25</v>
-      </c>
-      <c r="N453">
-        <v>3.1</v>
       </c>
       <c r="O453">
         <v>3.4</v>
       </c>
       <c r="P453">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="Q453">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R453">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S453">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T453">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U453">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V453">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W453">
         <v>-1</v>
       </c>
       <c r="X453">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y453">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z453">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA453">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AB453">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC453">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="454" spans="1:29">
@@ -40841,7 +40841,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>5656549</v>
+        <v>5656532</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40853,73 +40853,73 @@
         <v>44856.125</v>
       </c>
       <c r="F454" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G454" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H454">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I454">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J454" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K454">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L454">
+        <v>3.25</v>
+      </c>
+      <c r="M454">
+        <v>2.5</v>
+      </c>
+      <c r="N454">
         <v>3.4</v>
       </c>
-      <c r="M454">
-        <v>2.15</v>
-      </c>
-      <c r="N454">
-        <v>2.25</v>
-      </c>
       <c r="O454">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P454">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="Q454">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R454">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S454">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T454">
         <v>2.5</v>
       </c>
       <c r="U454">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V454">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W454">
         <v>-1</v>
       </c>
       <c r="X454">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y454">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z454">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA454">
-        <v>0.425</v>
+        <v>0.8</v>
       </c>
       <c r="AB454">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC454">
         <v>-1</v>
@@ -40930,7 +40930,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>5656551</v>
+        <v>5656533</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40942,58 +40942,58 @@
         <v>44857.125</v>
       </c>
       <c r="F455" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G455" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I455">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J455" t="s">
         <v>44</v>
       </c>
       <c r="K455">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L455">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M455">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N455">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O455">
         <v>3.4</v>
       </c>
       <c r="P455">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q455">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R455">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S455">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T455">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U455">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V455">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W455">
-        <v>1.1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X455">
         <v>-1</v>
@@ -41002,16 +41002,16 @@
         <v>-1</v>
       </c>
       <c r="Z455">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AA455">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB455">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC455">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:29">
@@ -41108,7 +41108,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>5656533</v>
+        <v>5656551</v>
       </c>
       <c r="C457" t="s">
         <v>28</v>
@@ -41120,58 +41120,58 @@
         <v>44857.125</v>
       </c>
       <c r="F457" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G457" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H457">
+        <v>2</v>
+      </c>
+      <c r="I457">
         <v>1</v>
-      </c>
-      <c r="I457">
-        <v>0</v>
       </c>
       <c r="J457" t="s">
         <v>44</v>
       </c>
       <c r="K457">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L457">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M457">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N457">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O457">
         <v>3.4</v>
       </c>
       <c r="P457">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q457">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R457">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S457">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T457">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U457">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V457">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W457">
-        <v>0.7270000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X457">
         <v>-1</v>
@@ -41180,16 +41180,16 @@
         <v>-1</v>
       </c>
       <c r="Z457">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA457">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB457">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC457">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="458" spans="1:29">
@@ -41731,7 +41731,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>6149804</v>
+        <v>6149805</v>
       </c>
       <c r="C464" t="s">
         <v>28</v>
@@ -41743,73 +41743,73 @@
         <v>44989.08333333334</v>
       </c>
       <c r="F464" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G464" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H464">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I464">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J464" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K464">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L464">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M464">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="N464">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O464">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P464">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="Q464">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R464">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S464">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T464">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U464">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V464">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W464">
         <v>-1</v>
       </c>
       <c r="X464">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y464">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z464">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA464">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB464">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC464">
         <v>-1</v>
@@ -41820,7 +41820,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>6149805</v>
+        <v>6149804</v>
       </c>
       <c r="C465" t="s">
         <v>28</v>
@@ -41832,73 +41832,73 @@
         <v>44989.08333333334</v>
       </c>
       <c r="F465" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G465" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H465">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I465">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J465" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K465">
+        <v>2.3</v>
+      </c>
+      <c r="L465">
         <v>3.2</v>
       </c>
-      <c r="L465">
-        <v>3.3</v>
-      </c>
       <c r="M465">
+        <v>2.875</v>
+      </c>
+      <c r="N465">
+        <v>2.3</v>
+      </c>
+      <c r="O465">
+        <v>3.2</v>
+      </c>
+      <c r="P465">
+        <v>2.875</v>
+      </c>
+      <c r="Q465">
+        <v>-0.25</v>
+      </c>
+      <c r="R465">
         <v>2.1</v>
       </c>
-      <c r="N465">
-        <v>3.25</v>
-      </c>
-      <c r="O465">
-        <v>3.4</v>
-      </c>
-      <c r="P465">
-        <v>2.1</v>
-      </c>
-      <c r="Q465">
-        <v>0.25</v>
-      </c>
-      <c r="R465">
-        <v>1.95</v>
-      </c>
       <c r="S465">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T465">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U465">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V465">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W465">
         <v>-1</v>
       </c>
       <c r="X465">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y465">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z465">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA465">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB465">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC465">
         <v>-1</v>
@@ -45647,7 +45647,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>6149828</v>
+        <v>6149829</v>
       </c>
       <c r="C508" t="s">
         <v>28</v>
@@ -45659,76 +45659,76 @@
         <v>45042.29166666666</v>
       </c>
       <c r="F508" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G508" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H508">
+        <v>3</v>
+      </c>
+      <c r="I508">
+        <v>2</v>
+      </c>
+      <c r="J508" t="s">
+        <v>44</v>
+      </c>
+      <c r="K508">
+        <v>3.1</v>
+      </c>
+      <c r="L508">
+        <v>3</v>
+      </c>
+      <c r="M508">
+        <v>2.4</v>
+      </c>
+      <c r="N508">
+        <v>2.9</v>
+      </c>
+      <c r="O508">
+        <v>3.1</v>
+      </c>
+      <c r="P508">
+        <v>2.55</v>
+      </c>
+      <c r="Q508">
         <v>0</v>
       </c>
-      <c r="I508">
-        <v>1</v>
-      </c>
-      <c r="J508" t="s">
-        <v>46</v>
-      </c>
-      <c r="K508">
-        <v>2.5</v>
-      </c>
-      <c r="L508">
-        <v>3.1</v>
-      </c>
-      <c r="M508">
-        <v>2.875</v>
-      </c>
-      <c r="N508">
-        <v>2.2</v>
-      </c>
-      <c r="O508">
-        <v>3.4</v>
-      </c>
-      <c r="P508">
-        <v>3.1</v>
-      </c>
-      <c r="Q508">
-        <v>-0.25</v>
-      </c>
       <c r="R508">
+        <v>2.1</v>
+      </c>
+      <c r="S508">
+        <v>1.775</v>
+      </c>
+      <c r="T508">
+        <v>2</v>
+      </c>
+      <c r="U508">
+        <v>1.8</v>
+      </c>
+      <c r="V508">
+        <v>2.05</v>
+      </c>
+      <c r="W508">
         <v>1.9</v>
       </c>
-      <c r="S508">
-        <v>1.95</v>
-      </c>
-      <c r="T508">
-        <v>2.5</v>
-      </c>
-      <c r="U508">
-        <v>1.95</v>
-      </c>
-      <c r="V508">
-        <v>1.9</v>
-      </c>
-      <c r="W508">
-        <v>-1</v>
-      </c>
       <c r="X508">
         <v>-1</v>
       </c>
       <c r="Y508">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z508">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA508">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB508">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC508">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="509" spans="1:29">
@@ -45736,7 +45736,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>6149829</v>
+        <v>6149828</v>
       </c>
       <c r="C509" t="s">
         <v>28</v>
@@ -45748,76 +45748,76 @@
         <v>45042.29166666666</v>
       </c>
       <c r="F509" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G509" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H509">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J509" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K509">
+        <v>2.5</v>
+      </c>
+      <c r="L509">
         <v>3.1</v>
       </c>
-      <c r="L509">
-        <v>3</v>
-      </c>
       <c r="M509">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="N509">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O509">
+        <v>3.4</v>
+      </c>
+      <c r="P509">
         <v>3.1</v>
       </c>
-      <c r="P509">
-        <v>2.55</v>
-      </c>
       <c r="Q509">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R509">
+        <v>1.9</v>
+      </c>
+      <c r="S509">
+        <v>1.95</v>
+      </c>
+      <c r="T509">
+        <v>2.5</v>
+      </c>
+      <c r="U509">
+        <v>1.95</v>
+      </c>
+      <c r="V509">
+        <v>1.9</v>
+      </c>
+      <c r="W509">
+        <v>-1</v>
+      </c>
+      <c r="X509">
+        <v>-1</v>
+      </c>
+      <c r="Y509">
         <v>2.1</v>
       </c>
-      <c r="S509">
-        <v>1.775</v>
-      </c>
-      <c r="T509">
-        <v>2</v>
-      </c>
-      <c r="U509">
-        <v>1.8</v>
-      </c>
-      <c r="V509">
-        <v>2.05</v>
-      </c>
-      <c r="W509">
-        <v>1.9</v>
-      </c>
-      <c r="X509">
-        <v>-1</v>
-      </c>
-      <c r="Y509">
-        <v>-1</v>
-      </c>
       <c r="Z509">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA509">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB509">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC509">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="510" spans="1:29">
@@ -47338,7 +47338,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>6149371</v>
+        <v>6149839</v>
       </c>
       <c r="C527" t="s">
         <v>28</v>
@@ -47350,76 +47350,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F527" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G527" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H527">
+        <v>2</v>
+      </c>
+      <c r="I527">
+        <v>1</v>
+      </c>
+      <c r="J527" t="s">
+        <v>44</v>
+      </c>
+      <c r="K527">
+        <v>2</v>
+      </c>
+      <c r="L527">
+        <v>3.4</v>
+      </c>
+      <c r="M527">
+        <v>3.4</v>
+      </c>
+      <c r="N527">
+        <v>2.1</v>
+      </c>
+      <c r="O527">
+        <v>3.5</v>
+      </c>
+      <c r="P527">
+        <v>3.4</v>
+      </c>
+      <c r="Q527">
+        <v>-0.25</v>
+      </c>
+      <c r="R527">
+        <v>1.8</v>
+      </c>
+      <c r="S527">
+        <v>2.05</v>
+      </c>
+      <c r="T527">
+        <v>3</v>
+      </c>
+      <c r="U527">
+        <v>2.025</v>
+      </c>
+      <c r="V527">
+        <v>1.825</v>
+      </c>
+      <c r="W527">
+        <v>1.1</v>
+      </c>
+      <c r="X527">
+        <v>-1</v>
+      </c>
+      <c r="Y527">
+        <v>-1</v>
+      </c>
+      <c r="Z527">
+        <v>0.8</v>
+      </c>
+      <c r="AA527">
+        <v>-1</v>
+      </c>
+      <c r="AB527">
         <v>0</v>
       </c>
-      <c r="I527">
-        <v>3</v>
-      </c>
-      <c r="J527" t="s">
-        <v>46</v>
-      </c>
-      <c r="K527">
-        <v>3.1</v>
-      </c>
-      <c r="L527">
-        <v>3</v>
-      </c>
-      <c r="M527">
-        <v>2.2</v>
-      </c>
-      <c r="N527">
-        <v>3</v>
-      </c>
-      <c r="O527">
-        <v>3</v>
-      </c>
-      <c r="P527">
-        <v>2.375</v>
-      </c>
-      <c r="Q527">
-        <v>0.25</v>
-      </c>
-      <c r="R527">
-        <v>1.775</v>
-      </c>
-      <c r="S527">
-        <v>2.1</v>
-      </c>
-      <c r="T527">
-        <v>2</v>
-      </c>
-      <c r="U527">
-        <v>1.8</v>
-      </c>
-      <c r="V527">
-        <v>2.05</v>
-      </c>
-      <c r="W527">
-        <v>-1</v>
-      </c>
-      <c r="X527">
-        <v>-1</v>
-      </c>
-      <c r="Y527">
-        <v>1.375</v>
-      </c>
-      <c r="Z527">
-        <v>-1</v>
-      </c>
-      <c r="AA527">
-        <v>1.1</v>
-      </c>
-      <c r="AB527">
-        <v>0.8</v>
-      </c>
       <c r="AC527">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="528" spans="1:29">
@@ -47516,7 +47516,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>6149839</v>
+        <v>6149371</v>
       </c>
       <c r="C529" t="s">
         <v>28</v>
@@ -47528,76 +47528,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F529" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G529" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J529" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K529">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L529">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M529">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N529">
+        <v>3</v>
+      </c>
+      <c r="O529">
+        <v>3</v>
+      </c>
+      <c r="P529">
+        <v>2.375</v>
+      </c>
+      <c r="Q529">
+        <v>0.25</v>
+      </c>
+      <c r="R529">
+        <v>1.775</v>
+      </c>
+      <c r="S529">
         <v>2.1</v>
       </c>
-      <c r="O529">
-        <v>3.5</v>
-      </c>
-      <c r="P529">
-        <v>3.4</v>
-      </c>
-      <c r="Q529">
-        <v>-0.25</v>
-      </c>
-      <c r="R529">
+      <c r="T529">
+        <v>2</v>
+      </c>
+      <c r="U529">
         <v>1.8</v>
       </c>
-      <c r="S529">
+      <c r="V529">
         <v>2.05</v>
       </c>
-      <c r="T529">
-        <v>3</v>
-      </c>
-      <c r="U529">
-        <v>2.025</v>
-      </c>
-      <c r="V529">
-        <v>1.825</v>
-      </c>
       <c r="W529">
+        <v>-1</v>
+      </c>
+      <c r="X529">
+        <v>-1</v>
+      </c>
+      <c r="Y529">
+        <v>1.375</v>
+      </c>
+      <c r="Z529">
+        <v>-1</v>
+      </c>
+      <c r="AA529">
         <v>1.1</v>
       </c>
-      <c r="X529">
-        <v>-1</v>
-      </c>
-      <c r="Y529">
-        <v>-1</v>
-      </c>
-      <c r="Z529">
+      <c r="AB529">
         <v>0.8</v>
       </c>
-      <c r="AA529">
-        <v>-1</v>
-      </c>
-      <c r="AB529">
-        <v>0</v>
-      </c>
       <c r="AC529">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="530" spans="1:29">
@@ -51877,7 +51877,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>6149414</v>
+        <v>6149867</v>
       </c>
       <c r="C578" t="s">
         <v>28</v>
@@ -51889,76 +51889,76 @@
         <v>45114.3125</v>
       </c>
       <c r="F578" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G578" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H578">
         <v>1</v>
       </c>
       <c r="I578">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J578" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K578">
+        <v>2.75</v>
+      </c>
+      <c r="L578">
+        <v>3.1</v>
+      </c>
+      <c r="M578">
+        <v>2.5</v>
+      </c>
+      <c r="N578">
+        <v>3.3</v>
+      </c>
+      <c r="O578">
+        <v>3.1</v>
+      </c>
+      <c r="P578">
+        <v>2.2</v>
+      </c>
+      <c r="Q578">
+        <v>0.25</v>
+      </c>
+      <c r="R578">
+        <v>1.95</v>
+      </c>
+      <c r="S578">
+        <v>1.9</v>
+      </c>
+      <c r="T578">
+        <v>2.25</v>
+      </c>
+      <c r="U578">
+        <v>2</v>
+      </c>
+      <c r="V578">
+        <v>1.85</v>
+      </c>
+      <c r="W578">
+        <v>-1</v>
+      </c>
+      <c r="X578">
         <v>2.1</v>
       </c>
-      <c r="L578">
-        <v>3.4</v>
-      </c>
-      <c r="M578">
-        <v>3.2</v>
-      </c>
-      <c r="N578">
-        <v>2.3</v>
-      </c>
-      <c r="O578">
-        <v>3.3</v>
-      </c>
-      <c r="P578">
-        <v>3</v>
-      </c>
-      <c r="Q578">
-        <v>-0.25</v>
-      </c>
-      <c r="R578">
-        <v>2.05</v>
-      </c>
-      <c r="S578">
-        <v>1.8</v>
-      </c>
-      <c r="T578">
-        <v>2.5</v>
-      </c>
-      <c r="U578">
-        <v>1.9</v>
-      </c>
-      <c r="V578">
-        <v>1.95</v>
-      </c>
-      <c r="W578">
-        <v>-1</v>
-      </c>
-      <c r="X578">
-        <v>-1</v>
-      </c>
       <c r="Y578">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z578">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA578">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB578">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC578">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="579" spans="1:29">
@@ -51966,7 +51966,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>6149867</v>
+        <v>6149414</v>
       </c>
       <c r="C579" t="s">
         <v>28</v>
@@ -51978,76 +51978,76 @@
         <v>45114.3125</v>
       </c>
       <c r="F579" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G579" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H579">
         <v>1</v>
       </c>
       <c r="I579">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J579" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K579">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L579">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M579">
+        <v>3.2</v>
+      </c>
+      <c r="N579">
+        <v>2.3</v>
+      </c>
+      <c r="O579">
+        <v>3.3</v>
+      </c>
+      <c r="P579">
+        <v>3</v>
+      </c>
+      <c r="Q579">
+        <v>-0.25</v>
+      </c>
+      <c r="R579">
+        <v>2.05</v>
+      </c>
+      <c r="S579">
+        <v>1.8</v>
+      </c>
+      <c r="T579">
         <v>2.5</v>
       </c>
-      <c r="N579">
-        <v>3.3</v>
-      </c>
-      <c r="O579">
-        <v>3.1</v>
-      </c>
-      <c r="P579">
-        <v>2.2</v>
-      </c>
-      <c r="Q579">
-        <v>0.25</v>
-      </c>
-      <c r="R579">
+      <c r="U579">
+        <v>1.9</v>
+      </c>
+      <c r="V579">
         <v>1.95</v>
       </c>
-      <c r="S579">
-        <v>1.9</v>
-      </c>
-      <c r="T579">
-        <v>2.25</v>
-      </c>
-      <c r="U579">
-        <v>2</v>
-      </c>
-      <c r="V579">
-        <v>1.85</v>
-      </c>
       <c r="W579">
         <v>-1</v>
       </c>
       <c r="X579">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y579">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z579">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA579">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB579">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC579">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="580" spans="1:29">
@@ -52678,7 +52678,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>6149872</v>
+        <v>6149381</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52690,73 +52690,73 @@
         <v>45119.3125</v>
       </c>
       <c r="F587" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G587" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H587">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I587">
         <v>2</v>
       </c>
       <c r="J587" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K587">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="L587">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M587">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="N587">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="O587">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P587">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q587">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R587">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S587">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T587">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U587">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V587">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W587">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X587">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y587">
         <v>-1</v>
       </c>
       <c r="Z587">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AA587">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB587">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC587">
         <v>-1</v>
@@ -52767,7 +52767,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>6149871</v>
+        <v>6149872</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52779,76 +52779,76 @@
         <v>45119.3125</v>
       </c>
       <c r="F588" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G588" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I588">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J588" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K588">
+        <v>1.55</v>
+      </c>
+      <c r="L588">
+        <v>3.75</v>
+      </c>
+      <c r="M588">
+        <v>5.25</v>
+      </c>
+      <c r="N588">
+        <v>1.55</v>
+      </c>
+      <c r="O588">
         <v>4</v>
       </c>
-      <c r="L588">
-        <v>3.3</v>
-      </c>
-      <c r="M588">
-        <v>1.909</v>
-      </c>
-      <c r="N588">
-        <v>4.5</v>
-      </c>
-      <c r="O588">
-        <v>3.3</v>
-      </c>
       <c r="P588">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="Q588">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R588">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S588">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T588">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U588">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V588">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W588">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X588">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y588">
         <v>-1</v>
       </c>
       <c r="Z588">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA588">
         <v>-1</v>
       </c>
       <c r="AB588">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC588">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -52856,7 +52856,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>6149381</v>
+        <v>6149871</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52868,55 +52868,55 @@
         <v>45119.3125</v>
       </c>
       <c r="F589" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G589" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I589">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J589" t="s">
         <v>45</v>
       </c>
       <c r="K589">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L589">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M589">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N589">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="O589">
         <v>3.3</v>
       </c>
       <c r="P589">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="Q589">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R589">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S589">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T589">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U589">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V589">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W589">
         <v>-1</v>
@@ -52928,16 +52928,16 @@
         <v>-1</v>
       </c>
       <c r="Z589">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AA589">
+        <v>-1</v>
+      </c>
+      <c r="AB589">
         <v>-0.5</v>
       </c>
-      <c r="AB589">
-        <v>1</v>
-      </c>
       <c r="AC589">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -53479,7 +53479,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>6149383</v>
+        <v>6149486</v>
       </c>
       <c r="C596" t="s">
         <v>28</v>
@@ -53491,10 +53491,10 @@
         <v>45128.3125</v>
       </c>
       <c r="F596" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G596" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H596">
         <v>2</v>
@@ -53506,43 +53506,43 @@
         <v>44</v>
       </c>
       <c r="K596">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="L596">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M596">
+        <v>4.75</v>
+      </c>
+      <c r="N596">
+        <v>1.65</v>
+      </c>
+      <c r="O596">
+        <v>4</v>
+      </c>
+      <c r="P596">
+        <v>4.75</v>
+      </c>
+      <c r="Q596">
+        <v>-0.75</v>
+      </c>
+      <c r="R596">
+        <v>1.825</v>
+      </c>
+      <c r="S596">
+        <v>2.025</v>
+      </c>
+      <c r="T596">
         <v>3</v>
       </c>
-      <c r="N596">
-        <v>2.4</v>
-      </c>
-      <c r="O596">
-        <v>3.2</v>
-      </c>
-      <c r="P596">
-        <v>2.8</v>
-      </c>
-      <c r="Q596">
-        <v>-0.25</v>
-      </c>
-      <c r="R596">
-        <v>2.05</v>
-      </c>
-      <c r="S596">
-        <v>1.75</v>
-      </c>
-      <c r="T596">
-        <v>2.5</v>
-      </c>
       <c r="U596">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V596">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W596">
-        <v>1.4</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X596">
         <v>-1</v>
@@ -53551,16 +53551,16 @@
         <v>-1</v>
       </c>
       <c r="Z596">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AA596">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB596">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC596">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="597" spans="1:29">
@@ -53568,7 +53568,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>6149486</v>
+        <v>6149383</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53580,10 +53580,10 @@
         <v>45128.3125</v>
       </c>
       <c r="F597" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G597" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H597">
         <v>2</v>
@@ -53595,43 +53595,43 @@
         <v>44</v>
       </c>
       <c r="K597">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L597">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M597">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N597">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O597">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P597">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q597">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R597">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S597">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T597">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U597">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V597">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W597">
-        <v>0.6499999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="X597">
         <v>-1</v>
@@ -53640,16 +53640,16 @@
         <v>-1</v>
       </c>
       <c r="Z597">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
       <c r="AA597">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB597">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC597">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="598" spans="1:29">
@@ -53746,7 +53746,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>6149877</v>
+        <v>6149878</v>
       </c>
       <c r="C599" t="s">
         <v>28</v>
@@ -53758,40 +53758,40 @@
         <v>45129.3125</v>
       </c>
       <c r="F599" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G599" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H599">
+        <v>0</v>
+      </c>
+      <c r="I599">
         <v>1</v>
-      </c>
-      <c r="I599">
-        <v>2</v>
       </c>
       <c r="J599" t="s">
         <v>46</v>
       </c>
       <c r="K599">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L599">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M599">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N599">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O599">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P599">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q599">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R599">
         <v>2</v>
@@ -53800,7 +53800,7 @@
         <v>1.85</v>
       </c>
       <c r="T599">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U599">
         <v>1.8</v>
@@ -53815,7 +53815,7 @@
         <v>-1</v>
       </c>
       <c r="Y599">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="Z599">
         <v>-1</v>
@@ -53824,10 +53824,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB599">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC599">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="600" spans="1:29">
@@ -53835,7 +53835,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>6149878</v>
+        <v>6149877</v>
       </c>
       <c r="C600" t="s">
         <v>28</v>
@@ -53847,40 +53847,40 @@
         <v>45129.3125</v>
       </c>
       <c r="F600" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G600" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I600">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J600" t="s">
         <v>46</v>
       </c>
       <c r="K600">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L600">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M600">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N600">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="O600">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P600">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q600">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R600">
         <v>2</v>
@@ -53889,7 +53889,7 @@
         <v>1.85</v>
       </c>
       <c r="T600">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U600">
         <v>1.8</v>
@@ -53904,7 +53904,7 @@
         <v>-1</v>
       </c>
       <c r="Y600">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="Z600">
         <v>-1</v>
@@ -53913,10 +53913,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB600">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC600">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="601" spans="1:29">
@@ -54013,7 +54013,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>6149880</v>
+        <v>6149879</v>
       </c>
       <c r="C602" t="s">
         <v>28</v>
@@ -54025,73 +54025,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F602" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G602" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I602">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J602" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K602">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L602">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M602">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N602">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O602">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P602">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q602">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R602">
+        <v>1.9</v>
+      </c>
+      <c r="S602">
         <v>1.95</v>
-      </c>
-      <c r="S602">
-        <v>1.9</v>
       </c>
       <c r="T602">
         <v>2.25</v>
       </c>
       <c r="U602">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V602">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W602">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X602">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y602">
         <v>-1</v>
       </c>
       <c r="Z602">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA602">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB602">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC602">
         <v>-1</v>
@@ -54102,7 +54102,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>6149879</v>
+        <v>6149880</v>
       </c>
       <c r="C603" t="s">
         <v>28</v>
@@ -54114,73 +54114,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F603" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G603" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H603">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I603">
+        <v>2</v>
+      </c>
+      <c r="J603" t="s">
+        <v>45</v>
+      </c>
+      <c r="K603">
+        <v>2.5</v>
+      </c>
+      <c r="L603">
+        <v>3.2</v>
+      </c>
+      <c r="M603">
+        <v>2.8</v>
+      </c>
+      <c r="N603">
+        <v>2.625</v>
+      </c>
+      <c r="O603">
+        <v>3.3</v>
+      </c>
+      <c r="P603">
+        <v>2.6</v>
+      </c>
+      <c r="Q603">
         <v>0</v>
       </c>
-      <c r="J603" t="s">
-        <v>44</v>
-      </c>
-      <c r="K603">
-        <v>2.15</v>
-      </c>
-      <c r="L603">
-        <v>3.3</v>
-      </c>
-      <c r="M603">
-        <v>3.4</v>
-      </c>
-      <c r="N603">
-        <v>2.2</v>
-      </c>
-      <c r="O603">
-        <v>3</v>
-      </c>
-      <c r="P603">
-        <v>3.6</v>
-      </c>
-      <c r="Q603">
-        <v>-0.25</v>
-      </c>
       <c r="R603">
+        <v>1.95</v>
+      </c>
+      <c r="S603">
         <v>1.9</v>
-      </c>
-      <c r="S603">
-        <v>1.95</v>
       </c>
       <c r="T603">
         <v>2.25</v>
       </c>
       <c r="U603">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V603">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W603">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X603">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y603">
         <v>-1</v>
       </c>
       <c r="Z603">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA603">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB603">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC603">
         <v>-1</v>
@@ -57751,7 +57751,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>6353260</v>
+        <v>6353261</v>
       </c>
       <c r="C644" t="s">
         <v>28</v>
@@ -57763,76 +57763,76 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F644" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G644" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I644">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J644" t="s">
         <v>45</v>
       </c>
       <c r="K644">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="L644">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M644">
+        <v>2</v>
+      </c>
+      <c r="N644">
+        <v>3.75</v>
+      </c>
+      <c r="O644">
+        <v>3.8</v>
+      </c>
+      <c r="P644">
+        <v>1.85</v>
+      </c>
+      <c r="Q644">
+        <v>0.5</v>
+      </c>
+      <c r="R644">
+        <v>2.025</v>
+      </c>
+      <c r="S644">
+        <v>1.825</v>
+      </c>
+      <c r="T644">
+        <v>2.75</v>
+      </c>
+      <c r="U644">
+        <v>1.825</v>
+      </c>
+      <c r="V644">
+        <v>2.025</v>
+      </c>
+      <c r="W644">
+        <v>-1</v>
+      </c>
+      <c r="X644">
         <v>2.8</v>
       </c>
-      <c r="N644">
-        <v>2.55</v>
-      </c>
-      <c r="O644">
-        <v>3.4</v>
-      </c>
-      <c r="P644">
-        <v>2.625</v>
-      </c>
-      <c r="Q644">
-        <v>0</v>
-      </c>
-      <c r="R644">
-        <v>1.825</v>
-      </c>
-      <c r="S644">
-        <v>2.025</v>
-      </c>
-      <c r="T644">
-        <v>2.5</v>
-      </c>
-      <c r="U644">
-        <v>2.025</v>
-      </c>
-      <c r="V644">
-        <v>1.825</v>
-      </c>
-      <c r="W644">
-        <v>-1</v>
-      </c>
-      <c r="X644">
-        <v>2.4</v>
-      </c>
       <c r="Y644">
         <v>-1</v>
       </c>
       <c r="Z644">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA644">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB644">
         <v>-1</v>
       </c>
       <c r="AC644">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="645" spans="1:29">
@@ -57840,7 +57840,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>6353261</v>
+        <v>6353260</v>
       </c>
       <c r="C645" t="s">
         <v>28</v>
@@ -57852,76 +57852,76 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F645" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G645" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I645">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J645" t="s">
         <v>45</v>
       </c>
       <c r="K645">
+        <v>2.375</v>
+      </c>
+      <c r="L645">
+        <v>3.5</v>
+      </c>
+      <c r="M645">
+        <v>2.8</v>
+      </c>
+      <c r="N645">
+        <v>2.55</v>
+      </c>
+      <c r="O645">
         <v>3.4</v>
       </c>
-      <c r="L645">
-        <v>3.6</v>
-      </c>
-      <c r="M645">
-        <v>2</v>
-      </c>
-      <c r="N645">
-        <v>3.75</v>
-      </c>
-      <c r="O645">
-        <v>3.8</v>
-      </c>
       <c r="P645">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q645">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R645">
+        <v>1.825</v>
+      </c>
+      <c r="S645">
         <v>2.025</v>
       </c>
-      <c r="S645">
+      <c r="T645">
+        <v>2.5</v>
+      </c>
+      <c r="U645">
+        <v>2.025</v>
+      </c>
+      <c r="V645">
         <v>1.825</v>
       </c>
-      <c r="T645">
-        <v>2.75</v>
-      </c>
-      <c r="U645">
-        <v>1.825</v>
-      </c>
-      <c r="V645">
-        <v>2.025</v>
-      </c>
       <c r="W645">
         <v>-1</v>
       </c>
       <c r="X645">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y645">
         <v>-1</v>
       </c>
       <c r="Z645">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA645">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB645">
         <v>-1</v>
       </c>
       <c r="AC645">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="646" spans="1:29">
@@ -59442,7 +59442,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>7334079</v>
+        <v>7333490</v>
       </c>
       <c r="C663" t="s">
         <v>28</v>
@@ -59454,76 +59454,76 @@
         <v>45227.1875</v>
       </c>
       <c r="F663" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G663" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I663">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J663" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K663">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L663">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M663">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="N663">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="O663">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P663">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q663">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R663">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S663">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T663">
         <v>2.25</v>
       </c>
       <c r="U663">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V663">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W663">
         <v>-1</v>
       </c>
       <c r="X663">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y663">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z663">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA663">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB663">
         <v>-0.5</v>
       </c>
       <c r="AC663">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="664" spans="1:29">
@@ -59531,7 +59531,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>7333490</v>
+        <v>7334079</v>
       </c>
       <c r="C664" t="s">
         <v>28</v>
@@ -59543,76 +59543,76 @@
         <v>45227.1875</v>
       </c>
       <c r="F664" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G664" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H664">
+        <v>1</v>
+      </c>
+      <c r="I664">
+        <v>1</v>
+      </c>
+      <c r="J664" t="s">
+        <v>45</v>
+      </c>
+      <c r="K664">
+        <v>2.625</v>
+      </c>
+      <c r="L664">
+        <v>3.2</v>
+      </c>
+      <c r="M664">
+        <v>2.7</v>
+      </c>
+      <c r="N664">
+        <v>2.8</v>
+      </c>
+      <c r="O664">
+        <v>3.1</v>
+      </c>
+      <c r="P664">
+        <v>2.6</v>
+      </c>
+      <c r="Q664">
         <v>0</v>
       </c>
-      <c r="I664">
-        <v>2</v>
-      </c>
-      <c r="J664" t="s">
-        <v>46</v>
-      </c>
-      <c r="K664">
-        <v>2.15</v>
-      </c>
-      <c r="L664">
-        <v>3.25</v>
-      </c>
-      <c r="M664">
-        <v>3.4</v>
-      </c>
-      <c r="N664">
-        <v>1.6</v>
-      </c>
-      <c r="O664">
-        <v>3.75</v>
-      </c>
-      <c r="P664">
-        <v>5.75</v>
-      </c>
-      <c r="Q664">
-        <v>-0.75</v>
-      </c>
       <c r="R664">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S664">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T664">
         <v>2.25</v>
       </c>
       <c r="U664">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V664">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W664">
         <v>-1</v>
       </c>
       <c r="X664">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y664">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z664">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA664">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB664">
         <v>-0.5</v>
       </c>
       <c r="AC664">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="665" spans="1:29">
@@ -60688,7 +60688,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>7334085</v>
+        <v>7333496</v>
       </c>
       <c r="C677" t="s">
         <v>28</v>
@@ -60700,76 +60700,76 @@
         <v>45255.1875</v>
       </c>
       <c r="F677" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G677" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H677">
+        <v>1</v>
+      </c>
+      <c r="I677">
         <v>0</v>
       </c>
-      <c r="I677">
-        <v>1</v>
-      </c>
       <c r="J677" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K677">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L677">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M677">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N677">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O677">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P677">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q677">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R677">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S677">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T677">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U677">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V677">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W677">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X677">
         <v>-1</v>
       </c>
       <c r="Y677">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z677">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA677">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB677">
         <v>-1</v>
       </c>
       <c r="AC677">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="678" spans="1:29">
@@ -60777,7 +60777,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>7334086</v>
+        <v>7334085</v>
       </c>
       <c r="C678" t="s">
         <v>28</v>
@@ -60789,76 +60789,76 @@
         <v>45255.1875</v>
       </c>
       <c r="F678" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G678" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J678" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K678">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="L678">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M678">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N678">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O678">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P678">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q678">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R678">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S678">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T678">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U678">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V678">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W678">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X678">
         <v>-1</v>
       </c>
       <c r="Y678">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z678">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA678">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB678">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC678">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="679" spans="1:29">
@@ -60866,7 +60866,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>7333496</v>
+        <v>7334086</v>
       </c>
       <c r="C679" t="s">
         <v>28</v>
@@ -60878,13 +60878,13 @@
         <v>45255.1875</v>
       </c>
       <c r="F679" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G679" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I679">
         <v>0</v>
@@ -60893,16 +60893,16 @@
         <v>44</v>
       </c>
       <c r="K679">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L679">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M679">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N679">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O679">
         <v>3.3</v>
@@ -60911,25 +60911,25 @@
         <v>3.6</v>
       </c>
       <c r="Q679">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R679">
+        <v>2.05</v>
+      </c>
+      <c r="S679">
         <v>1.8</v>
-      </c>
-      <c r="S679">
-        <v>2.05</v>
       </c>
       <c r="T679">
         <v>2.25</v>
       </c>
       <c r="U679">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V679">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W679">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="X679">
         <v>-1</v>
@@ -60938,16 +60938,16 @@
         <v>-1</v>
       </c>
       <c r="Z679">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA679">
         <v>-1</v>
       </c>
       <c r="AB679">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC679">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="680" spans="1:29">
@@ -60955,7 +60955,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>7334089</v>
+        <v>7334088</v>
       </c>
       <c r="C680" t="s">
         <v>28</v>
@@ -60967,61 +60967,61 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F680" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G680" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H680">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I680">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J680" t="s">
         <v>45</v>
       </c>
       <c r="K680">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="L680">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M680">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="N680">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O680">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P680">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q680">
         <v>-0.25</v>
       </c>
       <c r="R680">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S680">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T680">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U680">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V680">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W680">
         <v>-1</v>
       </c>
       <c r="X680">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y680">
         <v>-1</v>
@@ -61030,13 +61030,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA680">
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="AB680">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC680">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="681" spans="1:29">
@@ -61044,7 +61044,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>7334088</v>
+        <v>7334090</v>
       </c>
       <c r="C681" t="s">
         <v>28</v>
@@ -61056,76 +61056,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F681" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G681" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J681" t="s">
         <v>45</v>
       </c>
       <c r="K681">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L681">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M681">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N681">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O681">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P681">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q681">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R681">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S681">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T681">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U681">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V681">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W681">
         <v>-1</v>
       </c>
       <c r="X681">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="Y681">
         <v>-1</v>
       </c>
       <c r="Z681">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA681">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB681">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC681">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:29">
@@ -61133,7 +61133,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>7334090</v>
+        <v>7334089</v>
       </c>
       <c r="C682" t="s">
         <v>28</v>
@@ -61145,49 +61145,49 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F682" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G682" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I682">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J682" t="s">
         <v>45</v>
       </c>
       <c r="K682">
+        <v>2.35</v>
+      </c>
+      <c r="L682">
+        <v>3.75</v>
+      </c>
+      <c r="M682">
+        <v>2.7</v>
+      </c>
+      <c r="N682">
         <v>2.4</v>
       </c>
-      <c r="L682">
-        <v>3.3</v>
-      </c>
-      <c r="M682">
+      <c r="O682">
+        <v>3.5</v>
+      </c>
+      <c r="P682">
         <v>2.875</v>
       </c>
-      <c r="N682">
-        <v>2.5</v>
-      </c>
-      <c r="O682">
-        <v>3.25</v>
-      </c>
-      <c r="P682">
-        <v>2.8</v>
-      </c>
       <c r="Q682">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R682">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S682">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T682">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U682">
         <v>1.85</v>
@@ -61199,16 +61199,16 @@
         <v>-1</v>
       </c>
       <c r="X682">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Y682">
         <v>-1</v>
       </c>
       <c r="Z682">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA682">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB682">
         <v>-1</v>
@@ -61311,7 +61311,7 @@
         <v>682</v>
       </c>
       <c r="B684">
-        <v>7333499</v>
+        <v>7333497</v>
       </c>
       <c r="C684" t="s">
         <v>28</v>
@@ -61323,58 +61323,58 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F684" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G684" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I684">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J684" t="s">
         <v>44</v>
       </c>
       <c r="K684">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L684">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M684">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N684">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O684">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P684">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="Q684">
         <v>0</v>
       </c>
       <c r="R684">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S684">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T684">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U684">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V684">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W684">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="X684">
         <v>-1</v>
@@ -61383,16 +61383,16 @@
         <v>-1</v>
       </c>
       <c r="Z684">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AA684">
         <v>-1</v>
       </c>
       <c r="AB684">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC684">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="685" spans="1:29">
@@ -61400,7 +61400,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>7333497</v>
+        <v>7333499</v>
       </c>
       <c r="C685" t="s">
         <v>28</v>
@@ -61412,58 +61412,58 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F685" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G685" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H685">
+        <v>2</v>
+      </c>
+      <c r="I685">
         <v>1</v>
-      </c>
-      <c r="I685">
-        <v>0</v>
       </c>
       <c r="J685" t="s">
         <v>44</v>
       </c>
       <c r="K685">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L685">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M685">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N685">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O685">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P685">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q685">
         <v>0</v>
       </c>
       <c r="R685">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S685">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T685">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U685">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V685">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W685">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="X685">
         <v>-1</v>
@@ -61472,16 +61472,16 @@
         <v>-1</v>
       </c>
       <c r="Z685">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AA685">
         <v>-1</v>
       </c>
       <c r="AB685">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC685">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/South Korea K League 1/South Korea K League 1.xlsx
+++ b/South Korea K League 1/South Korea K League 1.xlsx
@@ -29538,7 +29538,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>4589555</v>
+        <v>4589556</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29550,58 +29550,58 @@
         <v>44733.3125</v>
       </c>
       <c r="F327" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G327" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H327">
+        <v>2</v>
+      </c>
+      <c r="I327">
         <v>1</v>
-      </c>
-      <c r="I327">
-        <v>0</v>
       </c>
       <c r="J327" t="s">
         <v>44</v>
       </c>
       <c r="K327">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L327">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M327">
+        <v>2.15</v>
+      </c>
+      <c r="N327">
+        <v>3.5</v>
+      </c>
+      <c r="O327">
+        <v>3.4</v>
+      </c>
+      <c r="P327">
+        <v>1.95</v>
+      </c>
+      <c r="Q327">
+        <v>0.5</v>
+      </c>
+      <c r="R327">
+        <v>1.8</v>
+      </c>
+      <c r="S327">
+        <v>2.05</v>
+      </c>
+      <c r="T327">
         <v>2.5</v>
       </c>
-      <c r="N327">
-        <v>2.45</v>
-      </c>
-      <c r="O327">
-        <v>3</v>
-      </c>
-      <c r="P327">
-        <v>2.875</v>
-      </c>
-      <c r="Q327">
-        <v>0</v>
-      </c>
-      <c r="R327">
-        <v>1.775</v>
-      </c>
-      <c r="S327">
-        <v>2.1</v>
-      </c>
-      <c r="T327">
-        <v>2.25</v>
-      </c>
       <c r="U327">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V327">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W327">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="X327">
         <v>-1</v>
@@ -29610,16 +29610,16 @@
         <v>-1</v>
       </c>
       <c r="Z327">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA327">
         <v>-1</v>
       </c>
       <c r="AB327">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC327">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -29627,7 +29627,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>4589556</v>
+        <v>4589555</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29639,58 +29639,58 @@
         <v>44733.3125</v>
       </c>
       <c r="F328" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G328" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328" t="s">
         <v>44</v>
       </c>
       <c r="K328">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L328">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M328">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N328">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="O328">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P328">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="Q328">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R328">
+        <v>1.775</v>
+      </c>
+      <c r="S328">
+        <v>2.1</v>
+      </c>
+      <c r="T328">
+        <v>2.25</v>
+      </c>
+      <c r="U328">
         <v>1.8</v>
       </c>
-      <c r="S328">
+      <c r="V328">
         <v>2.05</v>
       </c>
-      <c r="T328">
-        <v>2.5</v>
-      </c>
-      <c r="U328">
-        <v>2.025</v>
-      </c>
-      <c r="V328">
-        <v>1.825</v>
-      </c>
       <c r="W328">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="X328">
         <v>-1</v>
@@ -29699,16 +29699,16 @@
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA328">
         <v>-1</v>
       </c>
       <c r="AB328">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC328">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -31051,7 +31051,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>4589569</v>
+        <v>4589570</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31063,73 +31063,73 @@
         <v>44747.29166666666</v>
       </c>
       <c r="F344" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G344" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I344">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J344" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K344">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L344">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M344">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="N344">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="O344">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P344">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="Q344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R344">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S344">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T344">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U344">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V344">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W344">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X344">
         <v>-1</v>
       </c>
       <c r="Y344">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z344">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA344">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB344">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC344">
         <v>-1</v>
@@ -31140,7 +31140,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>4589570</v>
+        <v>4589569</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31152,73 +31152,73 @@
         <v>44747.29166666666</v>
       </c>
       <c r="F345" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G345" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H345">
+        <v>1</v>
+      </c>
+      <c r="I345">
         <v>4</v>
       </c>
-      <c r="I345">
-        <v>0</v>
-      </c>
       <c r="J345" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K345">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L345">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M345">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="N345">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="O345">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P345">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="Q345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R345">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S345">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T345">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U345">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V345">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W345">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X345">
         <v>-1</v>
       </c>
       <c r="Y345">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z345">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA345">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB345">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC345">
         <v>-1</v>
@@ -32653,7 +32653,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>4589624</v>
+        <v>4589387</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32665,58 +32665,58 @@
         <v>44772.29166666666</v>
       </c>
       <c r="F362" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G362" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J362" t="s">
         <v>44</v>
       </c>
       <c r="K362">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L362">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M362">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N362">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O362">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P362">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q362">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R362">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S362">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T362">
         <v>2.75</v>
       </c>
       <c r="U362">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V362">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W362">
-        <v>0.571</v>
+        <v>1.2</v>
       </c>
       <c r="X362">
         <v>-1</v>
@@ -32725,16 +32725,16 @@
         <v>-1</v>
       </c>
       <c r="Z362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA362">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB362">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC362">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:29">
@@ -32742,7 +32742,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>4589387</v>
+        <v>4589624</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32754,58 +32754,58 @@
         <v>44772.29166666666</v>
       </c>
       <c r="F363" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G363" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H363">
+        <v>2</v>
+      </c>
+      <c r="I363">
         <v>1</v>
-      </c>
-      <c r="I363">
-        <v>0</v>
       </c>
       <c r="J363" t="s">
         <v>44</v>
       </c>
       <c r="K363">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L363">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M363">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N363">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O363">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P363">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q363">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R363">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S363">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T363">
         <v>2.75</v>
       </c>
       <c r="U363">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V363">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W363">
-        <v>1.2</v>
+        <v>0.571</v>
       </c>
       <c r="X363">
         <v>-1</v>
@@ -32814,16 +32814,16 @@
         <v>-1</v>
       </c>
       <c r="Z363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA363">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB363">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC363">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="364" spans="1:29">
@@ -33543,7 +33543,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>4589388</v>
+        <v>4589600</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33555,49 +33555,49 @@
         <v>44776.3125</v>
       </c>
       <c r="F372" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G372" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I372">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J372" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K372">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="L372">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M372">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N372">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O372">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P372">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="Q372">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R372">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S372">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T372">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U372">
         <v>1.925</v>
@@ -33606,19 +33606,19 @@
         <v>1.925</v>
       </c>
       <c r="W372">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X372">
         <v>-1</v>
       </c>
       <c r="Y372">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z372">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA372">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB372">
         <v>0.925</v>
@@ -33632,7 +33632,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>4589600</v>
+        <v>4589388</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33644,49 +33644,49 @@
         <v>44776.3125</v>
       </c>
       <c r="F373" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G373" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H373">
+        <v>2</v>
+      </c>
+      <c r="I373">
         <v>1</v>
       </c>
-      <c r="I373">
-        <v>2</v>
-      </c>
       <c r="J373" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K373">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="L373">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M373">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N373">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O373">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P373">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q373">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R373">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S373">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T373">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U373">
         <v>1.925</v>
@@ -33695,19 +33695,19 @@
         <v>1.925</v>
       </c>
       <c r="W373">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X373">
         <v>-1</v>
       </c>
       <c r="Y373">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z373">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA373">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB373">
         <v>0.925</v>
@@ -39862,7 +39862,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>5656527</v>
+        <v>5656544</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39874,49 +39874,49 @@
         <v>44846.3125</v>
       </c>
       <c r="F443" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G443" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H443">
         <v>1</v>
       </c>
       <c r="I443">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J443" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K443">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L443">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M443">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N443">
+        <v>2.15</v>
+      </c>
+      <c r="O443">
+        <v>3.3</v>
+      </c>
+      <c r="P443">
+        <v>3.2</v>
+      </c>
+      <c r="Q443">
+        <v>-0.25</v>
+      </c>
+      <c r="R443">
+        <v>1.9</v>
+      </c>
+      <c r="S443">
+        <v>1.95</v>
+      </c>
+      <c r="T443">
         <v>2.5</v>
-      </c>
-      <c r="O443">
-        <v>3.1</v>
-      </c>
-      <c r="P443">
-        <v>2.75</v>
-      </c>
-      <c r="Q443">
-        <v>0</v>
-      </c>
-      <c r="R443">
-        <v>1.8</v>
-      </c>
-      <c r="S443">
-        <v>2.05</v>
-      </c>
-      <c r="T443">
-        <v>2.25</v>
       </c>
       <c r="U443">
         <v>1.975</v>
@@ -39928,22 +39928,22 @@
         <v>-1</v>
       </c>
       <c r="X443">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y443">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z443">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA443">
-        <v>1.05</v>
+        <v>0.475</v>
       </c>
       <c r="AB443">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC443">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="444" spans="1:29">
@@ -40040,7 +40040,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>5656544</v>
+        <v>5656527</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -40052,49 +40052,49 @@
         <v>44846.3125</v>
       </c>
       <c r="F445" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G445" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H445">
         <v>1</v>
       </c>
       <c r="I445">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J445" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K445">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L445">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M445">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N445">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O445">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P445">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q445">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R445">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S445">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T445">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U445">
         <v>1.975</v>
@@ -40106,22 +40106,22 @@
         <v>-1</v>
       </c>
       <c r="X445">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y445">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z445">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA445">
-        <v>0.475</v>
+        <v>1.05</v>
       </c>
       <c r="AB445">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC445">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446" spans="1:29">
@@ -40663,7 +40663,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>5656531</v>
+        <v>5656532</v>
       </c>
       <c r="C452" t="s">
         <v>28</v>
@@ -40675,55 +40675,55 @@
         <v>44856.125</v>
       </c>
       <c r="F452" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G452" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I452">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J452" t="s">
         <v>46</v>
       </c>
       <c r="K452">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L452">
         <v>3.25</v>
       </c>
       <c r="M452">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N452">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O452">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P452">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="Q452">
         <v>0.25</v>
       </c>
       <c r="R452">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S452">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T452">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U452">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V452">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W452">
         <v>-1</v>
@@ -40732,19 +40732,19 @@
         <v>-1</v>
       </c>
       <c r="Y452">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="Z452">
         <v>-1</v>
       </c>
       <c r="AA452">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB452">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC452">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="453" spans="1:29">
@@ -40841,7 +40841,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>5656532</v>
+        <v>5656531</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40853,55 +40853,55 @@
         <v>44856.125</v>
       </c>
       <c r="F454" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G454" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H454">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I454">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J454" t="s">
         <v>46</v>
       </c>
       <c r="K454">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L454">
         <v>3.25</v>
       </c>
       <c r="M454">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N454">
+        <v>3.1</v>
+      </c>
+      <c r="O454">
         <v>3.4</v>
       </c>
-      <c r="O454">
-        <v>3.3</v>
-      </c>
       <c r="P454">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q454">
         <v>0.25</v>
       </c>
       <c r="R454">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S454">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T454">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U454">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V454">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W454">
         <v>-1</v>
@@ -40910,19 +40910,19 @@
         <v>-1</v>
       </c>
       <c r="Y454">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="Z454">
         <v>-1</v>
       </c>
       <c r="AA454">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB454">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC454">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="455" spans="1:29">
@@ -40930,7 +40930,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>5656533</v>
+        <v>5656551</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40942,58 +40942,58 @@
         <v>44857.125</v>
       </c>
       <c r="F455" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G455" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H455">
+        <v>2</v>
+      </c>
+      <c r="I455">
         <v>1</v>
-      </c>
-      <c r="I455">
-        <v>0</v>
       </c>
       <c r="J455" t="s">
         <v>44</v>
       </c>
       <c r="K455">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L455">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M455">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N455">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O455">
         <v>3.4</v>
       </c>
       <c r="P455">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q455">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R455">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S455">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T455">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U455">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V455">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W455">
-        <v>0.7270000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X455">
         <v>-1</v>
@@ -41002,16 +41002,16 @@
         <v>-1</v>
       </c>
       <c r="Z455">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA455">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB455">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC455">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="456" spans="1:29">
@@ -41108,7 +41108,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>5656551</v>
+        <v>5656533</v>
       </c>
       <c r="C457" t="s">
         <v>28</v>
@@ -41120,58 +41120,58 @@
         <v>44857.125</v>
       </c>
       <c r="F457" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G457" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J457" t="s">
         <v>44</v>
       </c>
       <c r="K457">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L457">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M457">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N457">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O457">
         <v>3.4</v>
       </c>
       <c r="P457">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q457">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R457">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S457">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T457">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U457">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V457">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W457">
-        <v>1.1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X457">
         <v>-1</v>
@@ -41180,16 +41180,16 @@
         <v>-1</v>
       </c>
       <c r="Z457">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AA457">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB457">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC457">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:29">
@@ -45024,7 +45024,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>6149473</v>
+        <v>6149402</v>
       </c>
       <c r="C501" t="s">
         <v>28</v>
@@ -45036,76 +45036,76 @@
         <v>45038.1875</v>
       </c>
       <c r="F501" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G501" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I501">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J501" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K501">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L501">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M501">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="N501">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O501">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P501">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q501">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R501">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S501">
+        <v>2.05</v>
+      </c>
+      <c r="T501">
+        <v>2.5</v>
+      </c>
+      <c r="U501">
         <v>1.85</v>
       </c>
-      <c r="T501">
-        <v>2.25</v>
-      </c>
-      <c r="U501">
-        <v>1.95</v>
-      </c>
       <c r="V501">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W501">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X501">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y501">
         <v>-1</v>
       </c>
       <c r="Z501">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA501">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB501">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC501">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:29">
@@ -45113,7 +45113,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>6149402</v>
+        <v>6149473</v>
       </c>
       <c r="C502" t="s">
         <v>28</v>
@@ -45125,76 +45125,76 @@
         <v>45038.1875</v>
       </c>
       <c r="F502" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G502" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I502">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J502" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K502">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L502">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M502">
+        <v>3.8</v>
+      </c>
+      <c r="N502">
+        <v>2</v>
+      </c>
+      <c r="O502">
         <v>3.1</v>
       </c>
-      <c r="N502">
-        <v>2.5</v>
-      </c>
-      <c r="O502">
-        <v>3.4</v>
-      </c>
       <c r="P502">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q502">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R502">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S502">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T502">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U502">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V502">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W502">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X502">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y502">
         <v>-1</v>
       </c>
       <c r="Z502">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA502">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB502">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC502">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="503" spans="1:29">
@@ -45647,7 +45647,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>6149829</v>
+        <v>6149828</v>
       </c>
       <c r="C508" t="s">
         <v>28</v>
@@ -45659,76 +45659,76 @@
         <v>45042.29166666666</v>
       </c>
       <c r="F508" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G508" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H508">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I508">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J508" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K508">
+        <v>2.5</v>
+      </c>
+      <c r="L508">
         <v>3.1</v>
       </c>
-      <c r="L508">
-        <v>3</v>
-      </c>
       <c r="M508">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="N508">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O508">
+        <v>3.4</v>
+      </c>
+      <c r="P508">
         <v>3.1</v>
       </c>
-      <c r="P508">
-        <v>2.55</v>
-      </c>
       <c r="Q508">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R508">
+        <v>1.9</v>
+      </c>
+      <c r="S508">
+        <v>1.95</v>
+      </c>
+      <c r="T508">
+        <v>2.5</v>
+      </c>
+      <c r="U508">
+        <v>1.95</v>
+      </c>
+      <c r="V508">
+        <v>1.9</v>
+      </c>
+      <c r="W508">
+        <v>-1</v>
+      </c>
+      <c r="X508">
+        <v>-1</v>
+      </c>
+      <c r="Y508">
         <v>2.1</v>
       </c>
-      <c r="S508">
-        <v>1.775</v>
-      </c>
-      <c r="T508">
-        <v>2</v>
-      </c>
-      <c r="U508">
-        <v>1.8</v>
-      </c>
-      <c r="V508">
-        <v>2.05</v>
-      </c>
-      <c r="W508">
-        <v>1.9</v>
-      </c>
-      <c r="X508">
-        <v>-1</v>
-      </c>
-      <c r="Y508">
-        <v>-1</v>
-      </c>
       <c r="Z508">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA508">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB508">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC508">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="509" spans="1:29">
@@ -45736,7 +45736,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>6149828</v>
+        <v>6149829</v>
       </c>
       <c r="C509" t="s">
         <v>28</v>
@@ -45748,76 +45748,76 @@
         <v>45042.29166666666</v>
       </c>
       <c r="F509" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G509" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H509">
+        <v>3</v>
+      </c>
+      <c r="I509">
+        <v>2</v>
+      </c>
+      <c r="J509" t="s">
+        <v>44</v>
+      </c>
+      <c r="K509">
+        <v>3.1</v>
+      </c>
+      <c r="L509">
+        <v>3</v>
+      </c>
+      <c r="M509">
+        <v>2.4</v>
+      </c>
+      <c r="N509">
+        <v>2.9</v>
+      </c>
+      <c r="O509">
+        <v>3.1</v>
+      </c>
+      <c r="P509">
+        <v>2.55</v>
+      </c>
+      <c r="Q509">
         <v>0</v>
       </c>
-      <c r="I509">
-        <v>1</v>
-      </c>
-      <c r="J509" t="s">
-        <v>46</v>
-      </c>
-      <c r="K509">
-        <v>2.5</v>
-      </c>
-      <c r="L509">
-        <v>3.1</v>
-      </c>
-      <c r="M509">
-        <v>2.875</v>
-      </c>
-      <c r="N509">
-        <v>2.2</v>
-      </c>
-      <c r="O509">
-        <v>3.4</v>
-      </c>
-      <c r="P509">
-        <v>3.1</v>
-      </c>
-      <c r="Q509">
-        <v>-0.25</v>
-      </c>
       <c r="R509">
+        <v>2.1</v>
+      </c>
+      <c r="S509">
+        <v>1.775</v>
+      </c>
+      <c r="T509">
+        <v>2</v>
+      </c>
+      <c r="U509">
+        <v>1.8</v>
+      </c>
+      <c r="V509">
+        <v>2.05</v>
+      </c>
+      <c r="W509">
         <v>1.9</v>
       </c>
-      <c r="S509">
-        <v>1.95</v>
-      </c>
-      <c r="T509">
-        <v>2.5</v>
-      </c>
-      <c r="U509">
-        <v>1.95</v>
-      </c>
-      <c r="V509">
-        <v>1.9</v>
-      </c>
-      <c r="W509">
-        <v>-1</v>
-      </c>
       <c r="X509">
         <v>-1</v>
       </c>
       <c r="Y509">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z509">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA509">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB509">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC509">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="510" spans="1:29">
@@ -46537,7 +46537,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>6149370</v>
+        <v>6149405</v>
       </c>
       <c r="C518" t="s">
         <v>28</v>
@@ -46549,76 +46549,76 @@
         <v>45051.08333333334</v>
       </c>
       <c r="F518" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G518" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J518" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K518">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L518">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M518">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N518">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="O518">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P518">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q518">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R518">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S518">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T518">
         <v>2.5</v>
       </c>
       <c r="U518">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V518">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W518">
         <v>-1</v>
       </c>
       <c r="X518">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y518">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z518">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA518">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB518">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC518">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="519" spans="1:29">
@@ -46626,7 +46626,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>6149405</v>
+        <v>6149370</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -46638,76 +46638,76 @@
         <v>45051.08333333334</v>
       </c>
       <c r="F519" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G519" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I519">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J519" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K519">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L519">
+        <v>3.25</v>
+      </c>
+      <c r="M519">
+        <v>2.5</v>
+      </c>
+      <c r="N519">
+        <v>2.1</v>
+      </c>
+      <c r="O519">
         <v>3.4</v>
       </c>
-      <c r="M519">
-        <v>1.85</v>
-      </c>
-      <c r="N519">
-        <v>3.5</v>
-      </c>
-      <c r="O519">
-        <v>3.5</v>
-      </c>
       <c r="P519">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q519">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R519">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S519">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T519">
         <v>2.5</v>
       </c>
       <c r="U519">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V519">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W519">
         <v>-1</v>
       </c>
       <c r="X519">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y519">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z519">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA519">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB519">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC519">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="520" spans="1:29">
@@ -61222,7 +61222,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>7333498</v>
+        <v>7333499</v>
       </c>
       <c r="C683" t="s">
         <v>28</v>
@@ -61234,76 +61234,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F683" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G683" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H683">
+        <v>2</v>
+      </c>
+      <c r="I683">
+        <v>1</v>
+      </c>
+      <c r="J683" t="s">
+        <v>44</v>
+      </c>
+      <c r="K683">
+        <v>2.55</v>
+      </c>
+      <c r="L683">
+        <v>3.3</v>
+      </c>
+      <c r="M683">
+        <v>2.7</v>
+      </c>
+      <c r="N683">
+        <v>2.8</v>
+      </c>
+      <c r="O683">
+        <v>3.3</v>
+      </c>
+      <c r="P683">
+        <v>2.45</v>
+      </c>
+      <c r="Q683">
         <v>0</v>
       </c>
-      <c r="I683">
-        <v>0</v>
-      </c>
-      <c r="J683" t="s">
-        <v>45</v>
-      </c>
-      <c r="K683">
-        <v>2</v>
-      </c>
-      <c r="L683">
-        <v>3.4</v>
-      </c>
-      <c r="M683">
-        <v>3.3</v>
-      </c>
-      <c r="N683">
+      <c r="R683">
+        <v>2.1</v>
+      </c>
+      <c r="S683">
+        <v>1.775</v>
+      </c>
+      <c r="T683">
+        <v>2.25</v>
+      </c>
+      <c r="U683">
+        <v>1.875</v>
+      </c>
+      <c r="V683">
+        <v>1.975</v>
+      </c>
+      <c r="W683">
         <v>1.8</v>
       </c>
-      <c r="O683">
-        <v>3.5</v>
-      </c>
-      <c r="P683">
-        <v>4</v>
-      </c>
-      <c r="Q683">
-        <v>-0.5</v>
-      </c>
-      <c r="R683">
-        <v>1.8</v>
-      </c>
-      <c r="S683">
-        <v>2.05</v>
-      </c>
-      <c r="T683">
-        <v>2.5</v>
-      </c>
-      <c r="U683">
-        <v>2.025</v>
-      </c>
-      <c r="V683">
-        <v>1.825</v>
-      </c>
-      <c r="W683">
-        <v>-1</v>
-      </c>
       <c r="X683">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y683">
         <v>-1</v>
       </c>
       <c r="Z683">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA683">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB683">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC683">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="684" spans="1:29">
@@ -61400,7 +61400,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>7333499</v>
+        <v>7333498</v>
       </c>
       <c r="C685" t="s">
         <v>28</v>
@@ -61412,76 +61412,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F685" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G685" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J685" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K685">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L685">
+        <v>3.4</v>
+      </c>
+      <c r="M685">
         <v>3.3</v>
       </c>
-      <c r="M685">
-        <v>2.7</v>
-      </c>
       <c r="N685">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="O685">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P685">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q685">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R685">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S685">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T685">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U685">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V685">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W685">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X685">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y685">
         <v>-1</v>
       </c>
       <c r="Z685">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA685">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB685">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC685">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
   </sheetData>

--- a/South Korea K League 1/South Korea K League 1.xlsx
+++ b/South Korea K League 1/South Korea K League 1.xlsx
@@ -29538,7 +29538,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>4589556</v>
+        <v>4589555</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29550,58 +29550,58 @@
         <v>44733.3125</v>
       </c>
       <c r="F327" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G327" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J327" t="s">
         <v>44</v>
       </c>
       <c r="K327">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L327">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M327">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N327">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="O327">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P327">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="Q327">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R327">
+        <v>1.775</v>
+      </c>
+      <c r="S327">
+        <v>2.1</v>
+      </c>
+      <c r="T327">
+        <v>2.25</v>
+      </c>
+      <c r="U327">
         <v>1.8</v>
       </c>
-      <c r="S327">
+      <c r="V327">
         <v>2.05</v>
       </c>
-      <c r="T327">
-        <v>2.5</v>
-      </c>
-      <c r="U327">
-        <v>2.025</v>
-      </c>
-      <c r="V327">
-        <v>1.825</v>
-      </c>
       <c r="W327">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="X327">
         <v>-1</v>
@@ -29610,16 +29610,16 @@
         <v>-1</v>
       </c>
       <c r="Z327">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA327">
         <v>-1</v>
       </c>
       <c r="AB327">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC327">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -29627,7 +29627,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>4589555</v>
+        <v>4589556</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29639,58 +29639,58 @@
         <v>44733.3125</v>
       </c>
       <c r="F328" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G328" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H328">
+        <v>2</v>
+      </c>
+      <c r="I328">
         <v>1</v>
-      </c>
-      <c r="I328">
-        <v>0</v>
       </c>
       <c r="J328" t="s">
         <v>44</v>
       </c>
       <c r="K328">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L328">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M328">
+        <v>2.15</v>
+      </c>
+      <c r="N328">
+        <v>3.5</v>
+      </c>
+      <c r="O328">
+        <v>3.4</v>
+      </c>
+      <c r="P328">
+        <v>1.95</v>
+      </c>
+      <c r="Q328">
+        <v>0.5</v>
+      </c>
+      <c r="R328">
+        <v>1.8</v>
+      </c>
+      <c r="S328">
+        <v>2.05</v>
+      </c>
+      <c r="T328">
         <v>2.5</v>
       </c>
-      <c r="N328">
-        <v>2.45</v>
-      </c>
-      <c r="O328">
-        <v>3</v>
-      </c>
-      <c r="P328">
-        <v>2.875</v>
-      </c>
-      <c r="Q328">
-        <v>0</v>
-      </c>
-      <c r="R328">
-        <v>1.775</v>
-      </c>
-      <c r="S328">
-        <v>2.1</v>
-      </c>
-      <c r="T328">
-        <v>2.25</v>
-      </c>
       <c r="U328">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V328">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W328">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="X328">
         <v>-1</v>
@@ -29699,16 +29699,16 @@
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA328">
         <v>-1</v>
       </c>
       <c r="AB328">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC328">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -30606,7 +30606,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>4589565</v>
+        <v>4589381</v>
       </c>
       <c r="C339" t="s">
         <v>28</v>
@@ -30618,76 +30618,76 @@
         <v>44744.29166666666</v>
       </c>
       <c r="F339" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G339" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J339" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K339">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="L339">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M339">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="N339">
         <v>3.1</v>
       </c>
       <c r="O339">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P339">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q339">
         <v>0.25</v>
       </c>
       <c r="R339">
+        <v>1.975</v>
+      </c>
+      <c r="S339">
+        <v>1.875</v>
+      </c>
+      <c r="T339">
+        <v>2.75</v>
+      </c>
+      <c r="U339">
+        <v>2</v>
+      </c>
+      <c r="V339">
         <v>1.85</v>
       </c>
-      <c r="S339">
-        <v>2</v>
-      </c>
-      <c r="T339">
-        <v>2.5</v>
-      </c>
-      <c r="U339">
-        <v>1.975</v>
-      </c>
-      <c r="V339">
-        <v>1.875</v>
-      </c>
       <c r="W339">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X339">
         <v>-1</v>
       </c>
       <c r="Y339">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z339">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA339">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB339">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AC339">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="340" spans="1:29">
@@ -30695,7 +30695,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>4589381</v>
+        <v>4589565</v>
       </c>
       <c r="C340" t="s">
         <v>28</v>
@@ -30707,76 +30707,76 @@
         <v>44744.29166666666</v>
       </c>
       <c r="F340" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G340" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I340">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J340" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K340">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="L340">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M340">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="N340">
         <v>3.1</v>
       </c>
       <c r="O340">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P340">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q340">
         <v>0.25</v>
       </c>
       <c r="R340">
+        <v>1.85</v>
+      </c>
+      <c r="S340">
+        <v>2</v>
+      </c>
+      <c r="T340">
+        <v>2.5</v>
+      </c>
+      <c r="U340">
         <v>1.975</v>
       </c>
-      <c r="S340">
+      <c r="V340">
         <v>1.875</v>
       </c>
-      <c r="T340">
-        <v>2.75</v>
-      </c>
-      <c r="U340">
-        <v>2</v>
-      </c>
-      <c r="V340">
-        <v>1.85</v>
-      </c>
       <c r="W340">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X340">
         <v>-1</v>
       </c>
       <c r="Y340">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z340">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA340">
+        <v>-1</v>
+      </c>
+      <c r="AB340">
+        <v>-1</v>
+      </c>
+      <c r="AC340">
         <v>0.875</v>
-      </c>
-      <c r="AB340">
-        <v>0.5</v>
-      </c>
-      <c r="AC340">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="341" spans="1:29">
@@ -31051,7 +31051,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>4589570</v>
+        <v>4589569</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31063,73 +31063,73 @@
         <v>44747.29166666666</v>
       </c>
       <c r="F344" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G344" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H344">
+        <v>1</v>
+      </c>
+      <c r="I344">
         <v>4</v>
       </c>
-      <c r="I344">
-        <v>0</v>
-      </c>
       <c r="J344" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K344">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L344">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M344">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="N344">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="O344">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P344">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="Q344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R344">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S344">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T344">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U344">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V344">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W344">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X344">
         <v>-1</v>
       </c>
       <c r="Y344">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z344">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA344">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB344">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC344">
         <v>-1</v>
@@ -31140,7 +31140,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>4589569</v>
+        <v>4589570</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31152,73 +31152,73 @@
         <v>44747.29166666666</v>
       </c>
       <c r="F345" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G345" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I345">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J345" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K345">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L345">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M345">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="N345">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="O345">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P345">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="Q345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R345">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S345">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T345">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U345">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V345">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W345">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X345">
         <v>-1</v>
       </c>
       <c r="Y345">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z345">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA345">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB345">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC345">
         <v>-1</v>
@@ -31585,7 +31585,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>4589574</v>
+        <v>4589573</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31597,10 +31597,10 @@
         <v>44750.3125</v>
       </c>
       <c r="F350" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G350" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H350">
         <v>3</v>
@@ -31612,43 +31612,43 @@
         <v>44</v>
       </c>
       <c r="K350">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="L350">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M350">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N350">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="O350">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P350">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q350">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R350">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S350">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T350">
         <v>2.5</v>
       </c>
       <c r="U350">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V350">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W350">
-        <v>1.55</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X350">
         <v>-1</v>
@@ -31657,13 +31657,13 @@
         <v>-1</v>
       </c>
       <c r="Z350">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA350">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB350">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC350">
         <v>-1</v>
@@ -31674,7 +31674,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>4589573</v>
+        <v>4589574</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31686,10 +31686,10 @@
         <v>44750.3125</v>
       </c>
       <c r="F351" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G351" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H351">
         <v>3</v>
@@ -31701,43 +31701,43 @@
         <v>44</v>
       </c>
       <c r="K351">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="L351">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M351">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N351">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="O351">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P351">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q351">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R351">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S351">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T351">
         <v>2.5</v>
       </c>
       <c r="U351">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V351">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W351">
-        <v>0.6000000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="X351">
         <v>-1</v>
@@ -31746,13 +31746,13 @@
         <v>-1</v>
       </c>
       <c r="Z351">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA351">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB351">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC351">
         <v>-1</v>
@@ -32653,7 +32653,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>4589387</v>
+        <v>4589592</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32665,76 +32665,76 @@
         <v>44772.29166666666</v>
       </c>
       <c r="F362" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G362" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I362">
         <v>0</v>
       </c>
       <c r="J362" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K362">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L362">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M362">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N362">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O362">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P362">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q362">
         <v>-0.25</v>
       </c>
       <c r="R362">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="S362">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T362">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U362">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V362">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W362">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X362">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y362">
         <v>-1</v>
       </c>
       <c r="Z362">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA362">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB362">
         <v>-1</v>
       </c>
       <c r="AC362">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="363" spans="1:29">
@@ -32831,7 +32831,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>4589592</v>
+        <v>4589387</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32843,76 +32843,76 @@
         <v>44772.29166666666</v>
       </c>
       <c r="F364" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G364" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I364">
         <v>0</v>
       </c>
       <c r="J364" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K364">
-        <v>2.375</v>
+        <v>2</v>
       </c>
       <c r="L364">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M364">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="N364">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="O364">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P364">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q364">
         <v>-0.25</v>
       </c>
       <c r="R364">
-        <v>2.075</v>
+        <v>2</v>
       </c>
       <c r="S364">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="T364">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U364">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V364">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W364">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X364">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y364">
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA364">
-        <v>0.3625</v>
+        <v>-1</v>
       </c>
       <c r="AB364">
         <v>-1</v>
       </c>
       <c r="AC364">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -35590,7 +35590,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>4589585</v>
+        <v>4589583</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35602,46 +35602,46 @@
         <v>44801.29166666666</v>
       </c>
       <c r="F395" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G395" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J395" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K395">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="L395">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M395">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N395">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O395">
         <v>3.3</v>
       </c>
       <c r="P395">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q395">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R395">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S395">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T395">
         <v>2.75</v>
@@ -35653,25 +35653,25 @@
         <v>1.825</v>
       </c>
       <c r="W395">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X395">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y395">
         <v>-1</v>
       </c>
       <c r="Z395">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA395">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB395">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC395">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="396" spans="1:29">
@@ -35679,7 +35679,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>4589583</v>
+        <v>4589585</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35691,46 +35691,46 @@
         <v>44801.29166666666</v>
       </c>
       <c r="F396" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G396" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J396" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K396">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L396">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M396">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N396">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O396">
         <v>3.3</v>
       </c>
       <c r="P396">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q396">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R396">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S396">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T396">
         <v>2.75</v>
@@ -35742,25 +35742,25 @@
         <v>1.825</v>
       </c>
       <c r="W396">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X396">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y396">
         <v>-1</v>
       </c>
       <c r="Z396">
+        <v>0.8</v>
+      </c>
+      <c r="AA396">
+        <v>-1</v>
+      </c>
+      <c r="AB396">
+        <v>0.5125</v>
+      </c>
+      <c r="AC396">
         <v>-0.5</v>
-      </c>
-      <c r="AA396">
-        <v>0.425</v>
-      </c>
-      <c r="AB396">
-        <v>-1</v>
-      </c>
-      <c r="AC396">
-        <v>0.825</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -39862,7 +39862,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>5656544</v>
+        <v>5656527</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39874,49 +39874,49 @@
         <v>44846.3125</v>
       </c>
       <c r="F443" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G443" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H443">
         <v>1</v>
       </c>
       <c r="I443">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J443" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K443">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L443">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M443">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N443">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O443">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P443">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q443">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R443">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S443">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T443">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U443">
         <v>1.975</v>
@@ -39928,22 +39928,22 @@
         <v>-1</v>
       </c>
       <c r="X443">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y443">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z443">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA443">
-        <v>0.475</v>
+        <v>1.05</v>
       </c>
       <c r="AB443">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC443">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="444" spans="1:29">
@@ -40040,7 +40040,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>5656527</v>
+        <v>5656544</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -40052,49 +40052,49 @@
         <v>44846.3125</v>
       </c>
       <c r="F445" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G445" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H445">
         <v>1</v>
       </c>
       <c r="I445">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J445" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K445">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L445">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M445">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N445">
+        <v>2.15</v>
+      </c>
+      <c r="O445">
+        <v>3.3</v>
+      </c>
+      <c r="P445">
+        <v>3.2</v>
+      </c>
+      <c r="Q445">
+        <v>-0.25</v>
+      </c>
+      <c r="R445">
+        <v>1.9</v>
+      </c>
+      <c r="S445">
+        <v>1.95</v>
+      </c>
+      <c r="T445">
         <v>2.5</v>
-      </c>
-      <c r="O445">
-        <v>3.1</v>
-      </c>
-      <c r="P445">
-        <v>2.75</v>
-      </c>
-      <c r="Q445">
-        <v>0</v>
-      </c>
-      <c r="R445">
-        <v>1.8</v>
-      </c>
-      <c r="S445">
-        <v>2.05</v>
-      </c>
-      <c r="T445">
-        <v>2.25</v>
       </c>
       <c r="U445">
         <v>1.975</v>
@@ -40106,22 +40106,22 @@
         <v>-1</v>
       </c>
       <c r="X445">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y445">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z445">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA445">
-        <v>1.05</v>
+        <v>0.475</v>
       </c>
       <c r="AB445">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC445">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="446" spans="1:29">
@@ -45024,7 +45024,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>6149402</v>
+        <v>6149473</v>
       </c>
       <c r="C501" t="s">
         <v>28</v>
@@ -45036,76 +45036,76 @@
         <v>45038.1875</v>
       </c>
       <c r="F501" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G501" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I501">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J501" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K501">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L501">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M501">
+        <v>3.8</v>
+      </c>
+      <c r="N501">
+        <v>2</v>
+      </c>
+      <c r="O501">
         <v>3.1</v>
       </c>
-      <c r="N501">
-        <v>2.5</v>
-      </c>
-      <c r="O501">
-        <v>3.4</v>
-      </c>
       <c r="P501">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q501">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R501">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S501">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T501">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U501">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V501">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W501">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X501">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y501">
         <v>-1</v>
       </c>
       <c r="Z501">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA501">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB501">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC501">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="502" spans="1:29">
@@ -45113,7 +45113,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>6149473</v>
+        <v>6149402</v>
       </c>
       <c r="C502" t="s">
         <v>28</v>
@@ -45125,76 +45125,76 @@
         <v>45038.1875</v>
       </c>
       <c r="F502" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G502" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I502">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J502" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K502">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L502">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M502">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="N502">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O502">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P502">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q502">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R502">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S502">
+        <v>2.05</v>
+      </c>
+      <c r="T502">
+        <v>2.5</v>
+      </c>
+      <c r="U502">
         <v>1.85</v>
       </c>
-      <c r="T502">
-        <v>2.25</v>
-      </c>
-      <c r="U502">
-        <v>1.95</v>
-      </c>
       <c r="V502">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W502">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X502">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y502">
         <v>-1</v>
       </c>
       <c r="Z502">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA502">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB502">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC502">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:29">
@@ -45647,7 +45647,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>6149828</v>
+        <v>6149829</v>
       </c>
       <c r="C508" t="s">
         <v>28</v>
@@ -45659,76 +45659,76 @@
         <v>45042.29166666666</v>
       </c>
       <c r="F508" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G508" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H508">
+        <v>3</v>
+      </c>
+      <c r="I508">
+        <v>2</v>
+      </c>
+      <c r="J508" t="s">
+        <v>44</v>
+      </c>
+      <c r="K508">
+        <v>3.1</v>
+      </c>
+      <c r="L508">
+        <v>3</v>
+      </c>
+      <c r="M508">
+        <v>2.4</v>
+      </c>
+      <c r="N508">
+        <v>2.9</v>
+      </c>
+      <c r="O508">
+        <v>3.1</v>
+      </c>
+      <c r="P508">
+        <v>2.55</v>
+      </c>
+      <c r="Q508">
         <v>0</v>
       </c>
-      <c r="I508">
-        <v>1</v>
-      </c>
-      <c r="J508" t="s">
-        <v>46</v>
-      </c>
-      <c r="K508">
-        <v>2.5</v>
-      </c>
-      <c r="L508">
-        <v>3.1</v>
-      </c>
-      <c r="M508">
-        <v>2.875</v>
-      </c>
-      <c r="N508">
-        <v>2.2</v>
-      </c>
-      <c r="O508">
-        <v>3.4</v>
-      </c>
-      <c r="P508">
-        <v>3.1</v>
-      </c>
-      <c r="Q508">
-        <v>-0.25</v>
-      </c>
       <c r="R508">
+        <v>2.1</v>
+      </c>
+      <c r="S508">
+        <v>1.775</v>
+      </c>
+      <c r="T508">
+        <v>2</v>
+      </c>
+      <c r="U508">
+        <v>1.8</v>
+      </c>
+      <c r="V508">
+        <v>2.05</v>
+      </c>
+      <c r="W508">
         <v>1.9</v>
       </c>
-      <c r="S508">
-        <v>1.95</v>
-      </c>
-      <c r="T508">
-        <v>2.5</v>
-      </c>
-      <c r="U508">
-        <v>1.95</v>
-      </c>
-      <c r="V508">
-        <v>1.9</v>
-      </c>
-      <c r="W508">
-        <v>-1</v>
-      </c>
       <c r="X508">
         <v>-1</v>
       </c>
       <c r="Y508">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z508">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA508">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB508">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC508">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="509" spans="1:29">
@@ -45736,7 +45736,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>6149829</v>
+        <v>6149828</v>
       </c>
       <c r="C509" t="s">
         <v>28</v>
@@ -45748,76 +45748,76 @@
         <v>45042.29166666666</v>
       </c>
       <c r="F509" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G509" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H509">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I509">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J509" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K509">
+        <v>2.5</v>
+      </c>
+      <c r="L509">
         <v>3.1</v>
       </c>
-      <c r="L509">
-        <v>3</v>
-      </c>
       <c r="M509">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="N509">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O509">
+        <v>3.4</v>
+      </c>
+      <c r="P509">
         <v>3.1</v>
       </c>
-      <c r="P509">
-        <v>2.55</v>
-      </c>
       <c r="Q509">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R509">
+        <v>1.9</v>
+      </c>
+      <c r="S509">
+        <v>1.95</v>
+      </c>
+      <c r="T509">
+        <v>2.5</v>
+      </c>
+      <c r="U509">
+        <v>1.95</v>
+      </c>
+      <c r="V509">
+        <v>1.9</v>
+      </c>
+      <c r="W509">
+        <v>-1</v>
+      </c>
+      <c r="X509">
+        <v>-1</v>
+      </c>
+      <c r="Y509">
         <v>2.1</v>
       </c>
-      <c r="S509">
-        <v>1.775</v>
-      </c>
-      <c r="T509">
-        <v>2</v>
-      </c>
-      <c r="U509">
-        <v>1.8</v>
-      </c>
-      <c r="V509">
-        <v>2.05</v>
-      </c>
-      <c r="W509">
-        <v>1.9</v>
-      </c>
-      <c r="X509">
-        <v>-1</v>
-      </c>
-      <c r="Y509">
-        <v>-1</v>
-      </c>
       <c r="Z509">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA509">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB509">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC509">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="510" spans="1:29">
@@ -45825,7 +45825,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>6149368</v>
+        <v>6149403</v>
       </c>
       <c r="C510" t="s">
         <v>28</v>
@@ -45837,76 +45837,76 @@
         <v>45042.3125</v>
       </c>
       <c r="F510" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G510" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H510">
         <v>1</v>
       </c>
       <c r="I510">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J510" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K510">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L510">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M510">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N510">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O510">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P510">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q510">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R510">
+        <v>1.825</v>
+      </c>
+      <c r="S510">
+        <v>2.025</v>
+      </c>
+      <c r="T510">
+        <v>2.75</v>
+      </c>
+      <c r="U510">
+        <v>2</v>
+      </c>
+      <c r="V510">
         <v>1.85</v>
       </c>
-      <c r="S510">
-        <v>2</v>
-      </c>
-      <c r="T510">
-        <v>2.5</v>
-      </c>
-      <c r="U510">
-        <v>1.9</v>
-      </c>
-      <c r="V510">
-        <v>1.95</v>
-      </c>
       <c r="W510">
         <v>-1</v>
       </c>
       <c r="X510">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y510">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z510">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA510">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB510">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC510">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="511" spans="1:29">
@@ -45914,7 +45914,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>6149403</v>
+        <v>6149368</v>
       </c>
       <c r="C511" t="s">
         <v>28</v>
@@ -45926,76 +45926,76 @@
         <v>45042.3125</v>
       </c>
       <c r="F511" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G511" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H511">
         <v>1</v>
       </c>
       <c r="I511">
+        <v>2</v>
+      </c>
+      <c r="J511" t="s">
+        <v>46</v>
+      </c>
+      <c r="K511">
+        <v>1.8</v>
+      </c>
+      <c r="L511">
+        <v>3.6</v>
+      </c>
+      <c r="M511">
+        <v>4</v>
+      </c>
+      <c r="N511">
+        <v>1.833</v>
+      </c>
+      <c r="O511">
+        <v>3.5</v>
+      </c>
+      <c r="P511">
+        <v>4</v>
+      </c>
+      <c r="Q511">
+        <v>-0.5</v>
+      </c>
+      <c r="R511">
+        <v>1.85</v>
+      </c>
+      <c r="S511">
+        <v>2</v>
+      </c>
+      <c r="T511">
+        <v>2.5</v>
+      </c>
+      <c r="U511">
+        <v>1.9</v>
+      </c>
+      <c r="V511">
+        <v>1.95</v>
+      </c>
+      <c r="W511">
+        <v>-1</v>
+      </c>
+      <c r="X511">
+        <v>-1</v>
+      </c>
+      <c r="Y511">
+        <v>3</v>
+      </c>
+      <c r="Z511">
+        <v>-1</v>
+      </c>
+      <c r="AA511">
         <v>1</v>
       </c>
-      <c r="J511" t="s">
-        <v>45</v>
-      </c>
-      <c r="K511">
-        <v>2.55</v>
-      </c>
-      <c r="L511">
-        <v>3.3</v>
-      </c>
-      <c r="M511">
-        <v>2.625</v>
-      </c>
-      <c r="N511">
-        <v>2.45</v>
-      </c>
-      <c r="O511">
-        <v>3.3</v>
-      </c>
-      <c r="P511">
-        <v>2.7</v>
-      </c>
-      <c r="Q511">
-        <v>0</v>
-      </c>
-      <c r="R511">
-        <v>1.825</v>
-      </c>
-      <c r="S511">
-        <v>2.025</v>
-      </c>
-      <c r="T511">
-        <v>2.75</v>
-      </c>
-      <c r="U511">
-        <v>2</v>
-      </c>
-      <c r="V511">
-        <v>1.85</v>
-      </c>
-      <c r="W511">
-        <v>-1</v>
-      </c>
-      <c r="X511">
-        <v>2.3</v>
-      </c>
-      <c r="Y511">
-        <v>-1</v>
-      </c>
-      <c r="Z511">
-        <v>0</v>
-      </c>
-      <c r="AA511">
-        <v>-0</v>
-      </c>
       <c r="AB511">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC511">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="512" spans="1:29">
@@ -46537,7 +46537,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>6149405</v>
+        <v>6149370</v>
       </c>
       <c r="C518" t="s">
         <v>28</v>
@@ -46549,76 +46549,76 @@
         <v>45051.08333333334</v>
       </c>
       <c r="F518" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G518" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I518">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J518" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K518">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L518">
+        <v>3.25</v>
+      </c>
+      <c r="M518">
+        <v>2.5</v>
+      </c>
+      <c r="N518">
+        <v>2.1</v>
+      </c>
+      <c r="O518">
         <v>3.4</v>
       </c>
-      <c r="M518">
-        <v>1.85</v>
-      </c>
-      <c r="N518">
-        <v>3.5</v>
-      </c>
-      <c r="O518">
-        <v>3.5</v>
-      </c>
       <c r="P518">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q518">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R518">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S518">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T518">
         <v>2.5</v>
       </c>
       <c r="U518">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V518">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W518">
         <v>-1</v>
       </c>
       <c r="X518">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y518">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z518">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA518">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB518">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC518">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="519" spans="1:29">
@@ -46626,7 +46626,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>6149370</v>
+        <v>6149405</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -46638,76 +46638,76 @@
         <v>45051.08333333334</v>
       </c>
       <c r="F519" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G519" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H519">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I519">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J519" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K519">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L519">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M519">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N519">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="O519">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P519">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q519">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R519">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S519">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T519">
         <v>2.5</v>
       </c>
       <c r="U519">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V519">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W519">
         <v>-1</v>
       </c>
       <c r="X519">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y519">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z519">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA519">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB519">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC519">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="520" spans="1:29">
@@ -60688,7 +60688,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>7333496</v>
+        <v>7334085</v>
       </c>
       <c r="C677" t="s">
         <v>28</v>
@@ -60700,76 +60700,76 @@
         <v>45255.1875</v>
       </c>
       <c r="F677" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G677" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H677">
+        <v>0</v>
+      </c>
+      <c r="I677">
         <v>1</v>
       </c>
-      <c r="I677">
-        <v>0</v>
-      </c>
       <c r="J677" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K677">
+        <v>1.65</v>
+      </c>
+      <c r="L677">
+        <v>4</v>
+      </c>
+      <c r="M677">
+        <v>5</v>
+      </c>
+      <c r="N677">
+        <v>1.727</v>
+      </c>
+      <c r="O677">
+        <v>3.8</v>
+      </c>
+      <c r="P677">
+        <v>4.2</v>
+      </c>
+      <c r="Q677">
+        <v>-0.75</v>
+      </c>
+      <c r="R677">
+        <v>2</v>
+      </c>
+      <c r="S677">
         <v>1.85</v>
       </c>
-      <c r="L677">
-        <v>3.4</v>
-      </c>
-      <c r="M677">
-        <v>3.6</v>
-      </c>
-      <c r="N677">
-        <v>2.1</v>
-      </c>
-      <c r="O677">
-        <v>3.3</v>
-      </c>
-      <c r="P677">
-        <v>3.6</v>
-      </c>
-      <c r="Q677">
-        <v>-0.25</v>
-      </c>
-      <c r="R677">
-        <v>1.8</v>
-      </c>
-      <c r="S677">
-        <v>2.05</v>
-      </c>
       <c r="T677">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U677">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V677">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W677">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X677">
         <v>-1</v>
       </c>
       <c r="Y677">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z677">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA677">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB677">
         <v>-1</v>
       </c>
       <c r="AC677">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="678" spans="1:29">
@@ -60777,7 +60777,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>7334085</v>
+        <v>7334086</v>
       </c>
       <c r="C678" t="s">
         <v>28</v>
@@ -60789,76 +60789,76 @@
         <v>45255.1875</v>
       </c>
       <c r="F678" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G678" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H678">
+        <v>2</v>
+      </c>
+      <c r="I678">
         <v>0</v>
       </c>
-      <c r="I678">
-        <v>1</v>
-      </c>
       <c r="J678" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K678">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="L678">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M678">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="N678">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O678">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P678">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q678">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R678">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S678">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T678">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U678">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V678">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W678">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X678">
         <v>-1</v>
       </c>
       <c r="Y678">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z678">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA678">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB678">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC678">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="679" spans="1:29">
@@ -60866,7 +60866,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>7334086</v>
+        <v>7333496</v>
       </c>
       <c r="C679" t="s">
         <v>28</v>
@@ -60878,13 +60878,13 @@
         <v>45255.1875</v>
       </c>
       <c r="F679" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G679" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I679">
         <v>0</v>
@@ -60893,16 +60893,16 @@
         <v>44</v>
       </c>
       <c r="K679">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L679">
+        <v>3.4</v>
+      </c>
+      <c r="M679">
         <v>3.6</v>
       </c>
-      <c r="M679">
-        <v>3.3</v>
-      </c>
       <c r="N679">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O679">
         <v>3.3</v>
@@ -60911,25 +60911,25 @@
         <v>3.6</v>
       </c>
       <c r="Q679">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R679">
+        <v>1.8</v>
+      </c>
+      <c r="S679">
         <v>2.05</v>
-      </c>
-      <c r="S679">
-        <v>1.8</v>
       </c>
       <c r="T679">
         <v>2.25</v>
       </c>
       <c r="U679">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V679">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W679">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="X679">
         <v>-1</v>
@@ -60938,16 +60938,16 @@
         <v>-1</v>
       </c>
       <c r="Z679">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA679">
         <v>-1</v>
       </c>
       <c r="AB679">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC679">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="680" spans="1:29">
@@ -60955,7 +60955,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>7334088</v>
+        <v>7334090</v>
       </c>
       <c r="C680" t="s">
         <v>28</v>
@@ -60967,76 +60967,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F680" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G680" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J680" t="s">
         <v>45</v>
       </c>
       <c r="K680">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L680">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M680">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N680">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O680">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P680">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q680">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R680">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S680">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T680">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U680">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V680">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W680">
         <v>-1</v>
       </c>
       <c r="X680">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="Y680">
         <v>-1</v>
       </c>
       <c r="Z680">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA680">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB680">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC680">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="1:29">
@@ -61044,7 +61044,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>7334090</v>
+        <v>7334089</v>
       </c>
       <c r="C681" t="s">
         <v>28</v>
@@ -61056,49 +61056,49 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F681" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G681" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I681">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J681" t="s">
         <v>45</v>
       </c>
       <c r="K681">
+        <v>2.35</v>
+      </c>
+      <c r="L681">
+        <v>3.75</v>
+      </c>
+      <c r="M681">
+        <v>2.7</v>
+      </c>
+      <c r="N681">
         <v>2.4</v>
       </c>
-      <c r="L681">
-        <v>3.3</v>
-      </c>
-      <c r="M681">
+      <c r="O681">
+        <v>3.5</v>
+      </c>
+      <c r="P681">
         <v>2.875</v>
       </c>
-      <c r="N681">
-        <v>2.5</v>
-      </c>
-      <c r="O681">
-        <v>3.25</v>
-      </c>
-      <c r="P681">
-        <v>2.8</v>
-      </c>
       <c r="Q681">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R681">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S681">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T681">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U681">
         <v>1.85</v>
@@ -61110,16 +61110,16 @@
         <v>-1</v>
       </c>
       <c r="X681">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Y681">
         <v>-1</v>
       </c>
       <c r="Z681">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA681">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB681">
         <v>-1</v>
@@ -61133,7 +61133,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>7334089</v>
+        <v>7334088</v>
       </c>
       <c r="C682" t="s">
         <v>28</v>
@@ -61145,61 +61145,61 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F682" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G682" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H682">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I682">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J682" t="s">
         <v>45</v>
       </c>
       <c r="K682">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="L682">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M682">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="N682">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O682">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P682">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q682">
         <v>-0.25</v>
       </c>
       <c r="R682">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S682">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T682">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U682">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V682">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W682">
         <v>-1</v>
       </c>
       <c r="X682">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y682">
         <v>-1</v>
@@ -61208,13 +61208,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA682">
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="AB682">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC682">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="683" spans="1:29">
@@ -61222,7 +61222,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>7333499</v>
+        <v>7333498</v>
       </c>
       <c r="C683" t="s">
         <v>28</v>
@@ -61234,76 +61234,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F683" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G683" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J683" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K683">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L683">
+        <v>3.4</v>
+      </c>
+      <c r="M683">
         <v>3.3</v>
       </c>
-      <c r="M683">
-        <v>2.7</v>
-      </c>
       <c r="N683">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="O683">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P683">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q683">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R683">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S683">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T683">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U683">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V683">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W683">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X683">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y683">
         <v>-1</v>
       </c>
       <c r="Z683">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA683">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB683">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC683">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="684" spans="1:29">
@@ -61400,7 +61400,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>7333498</v>
+        <v>7333499</v>
       </c>
       <c r="C685" t="s">
         <v>28</v>
@@ -61412,76 +61412,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F685" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G685" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H685">
+        <v>2</v>
+      </c>
+      <c r="I685">
+        <v>1</v>
+      </c>
+      <c r="J685" t="s">
+        <v>44</v>
+      </c>
+      <c r="K685">
+        <v>2.55</v>
+      </c>
+      <c r="L685">
+        <v>3.3</v>
+      </c>
+      <c r="M685">
+        <v>2.7</v>
+      </c>
+      <c r="N685">
+        <v>2.8</v>
+      </c>
+      <c r="O685">
+        <v>3.3</v>
+      </c>
+      <c r="P685">
+        <v>2.45</v>
+      </c>
+      <c r="Q685">
         <v>0</v>
       </c>
-      <c r="I685">
-        <v>0</v>
-      </c>
-      <c r="J685" t="s">
-        <v>45</v>
-      </c>
-      <c r="K685">
-        <v>2</v>
-      </c>
-      <c r="L685">
-        <v>3.4</v>
-      </c>
-      <c r="M685">
-        <v>3.3</v>
-      </c>
-      <c r="N685">
+      <c r="R685">
+        <v>2.1</v>
+      </c>
+      <c r="S685">
+        <v>1.775</v>
+      </c>
+      <c r="T685">
+        <v>2.25</v>
+      </c>
+      <c r="U685">
+        <v>1.875</v>
+      </c>
+      <c r="V685">
+        <v>1.975</v>
+      </c>
+      <c r="W685">
         <v>1.8</v>
       </c>
-      <c r="O685">
-        <v>3.5</v>
-      </c>
-      <c r="P685">
-        <v>4</v>
-      </c>
-      <c r="Q685">
-        <v>-0.5</v>
-      </c>
-      <c r="R685">
-        <v>1.8</v>
-      </c>
-      <c r="S685">
-        <v>2.05</v>
-      </c>
-      <c r="T685">
-        <v>2.5</v>
-      </c>
-      <c r="U685">
-        <v>2.025</v>
-      </c>
-      <c r="V685">
-        <v>1.825</v>
-      </c>
-      <c r="W685">
-        <v>-1</v>
-      </c>
       <c r="X685">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y685">
         <v>-1</v>
       </c>
       <c r="Z685">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA685">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB685">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC685">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/South Korea K League 1/South Korea K League 1.xlsx
+++ b/South Korea K League 1/South Korea K League 1.xlsx
@@ -29538,7 +29538,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>4589555</v>
+        <v>4589556</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29550,58 +29550,58 @@
         <v>44733.3125</v>
       </c>
       <c r="F327" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G327" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H327">
+        <v>2</v>
+      </c>
+      <c r="I327">
         <v>1</v>
-      </c>
-      <c r="I327">
-        <v>0</v>
       </c>
       <c r="J327" t="s">
         <v>44</v>
       </c>
       <c r="K327">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L327">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M327">
+        <v>2.15</v>
+      </c>
+      <c r="N327">
+        <v>3.5</v>
+      </c>
+      <c r="O327">
+        <v>3.4</v>
+      </c>
+      <c r="P327">
+        <v>1.95</v>
+      </c>
+      <c r="Q327">
+        <v>0.5</v>
+      </c>
+      <c r="R327">
+        <v>1.8</v>
+      </c>
+      <c r="S327">
+        <v>2.05</v>
+      </c>
+      <c r="T327">
         <v>2.5</v>
       </c>
-      <c r="N327">
-        <v>2.45</v>
-      </c>
-      <c r="O327">
-        <v>3</v>
-      </c>
-      <c r="P327">
-        <v>2.875</v>
-      </c>
-      <c r="Q327">
-        <v>0</v>
-      </c>
-      <c r="R327">
-        <v>1.775</v>
-      </c>
-      <c r="S327">
-        <v>2.1</v>
-      </c>
-      <c r="T327">
-        <v>2.25</v>
-      </c>
       <c r="U327">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V327">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W327">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="X327">
         <v>-1</v>
@@ -29610,16 +29610,16 @@
         <v>-1</v>
       </c>
       <c r="Z327">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA327">
         <v>-1</v>
       </c>
       <c r="AB327">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC327">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -29627,7 +29627,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>4589556</v>
+        <v>4589555</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29639,58 +29639,58 @@
         <v>44733.3125</v>
       </c>
       <c r="F328" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G328" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328" t="s">
         <v>44</v>
       </c>
       <c r="K328">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L328">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M328">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N328">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="O328">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P328">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="Q328">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R328">
+        <v>1.775</v>
+      </c>
+      <c r="S328">
+        <v>2.1</v>
+      </c>
+      <c r="T328">
+        <v>2.25</v>
+      </c>
+      <c r="U328">
         <v>1.8</v>
       </c>
-      <c r="S328">
+      <c r="V328">
         <v>2.05</v>
       </c>
-      <c r="T328">
-        <v>2.5</v>
-      </c>
-      <c r="U328">
-        <v>2.025</v>
-      </c>
-      <c r="V328">
-        <v>1.825</v>
-      </c>
       <c r="W328">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="X328">
         <v>-1</v>
@@ -29699,16 +29699,16 @@
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA328">
         <v>-1</v>
       </c>
       <c r="AB328">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC328">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -31941,7 +31941,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>4589577</v>
+        <v>4589576</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31953,58 +31953,58 @@
         <v>44752.29166666666</v>
       </c>
       <c r="F354" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G354" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I354">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J354" t="s">
         <v>44</v>
       </c>
       <c r="K354">
+        <v>2.875</v>
+      </c>
+      <c r="L354">
+        <v>3.25</v>
+      </c>
+      <c r="M354">
+        <v>2.375</v>
+      </c>
+      <c r="N354">
+        <v>2.55</v>
+      </c>
+      <c r="O354">
+        <v>3.2</v>
+      </c>
+      <c r="P354">
+        <v>2.625</v>
+      </c>
+      <c r="Q354">
+        <v>0</v>
+      </c>
+      <c r="R354">
         <v>1.85</v>
       </c>
-      <c r="L354">
-        <v>3.3</v>
-      </c>
-      <c r="M354">
-        <v>4</v>
-      </c>
-      <c r="N354">
-        <v>1.833</v>
-      </c>
-      <c r="O354">
-        <v>3.3</v>
-      </c>
-      <c r="P354">
-        <v>4.2</v>
-      </c>
-      <c r="Q354">
-        <v>-0.5</v>
-      </c>
-      <c r="R354">
-        <v>1.925</v>
-      </c>
       <c r="S354">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T354">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U354">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V354">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W354">
-        <v>0.833</v>
+        <v>1.55</v>
       </c>
       <c r="X354">
         <v>-1</v>
@@ -32013,16 +32013,16 @@
         <v>-1</v>
       </c>
       <c r="Z354">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA354">
         <v>-1</v>
       </c>
       <c r="AB354">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC354">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -32030,7 +32030,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>4589576</v>
+        <v>4589577</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32042,58 +32042,58 @@
         <v>44752.29166666666</v>
       </c>
       <c r="F355" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G355" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H355">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I355">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J355" t="s">
         <v>44</v>
       </c>
       <c r="K355">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="L355">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M355">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N355">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="O355">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P355">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q355">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R355">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S355">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T355">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U355">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V355">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W355">
-        <v>1.55</v>
+        <v>0.833</v>
       </c>
       <c r="X355">
         <v>-1</v>
@@ -32102,16 +32102,16 @@
         <v>-1</v>
       </c>
       <c r="Z355">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA355">
         <v>-1</v>
       </c>
       <c r="AB355">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC355">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -32653,7 +32653,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>4589592</v>
+        <v>4589624</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32665,76 +32665,76 @@
         <v>44772.29166666666</v>
       </c>
       <c r="F362" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G362" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H362">
+        <v>2</v>
+      </c>
+      <c r="I362">
+        <v>1</v>
+      </c>
+      <c r="J362" t="s">
+        <v>44</v>
+      </c>
+      <c r="K362">
+        <v>1.666</v>
+      </c>
+      <c r="L362">
+        <v>3.75</v>
+      </c>
+      <c r="M362">
+        <v>4.75</v>
+      </c>
+      <c r="N362">
+        <v>1.571</v>
+      </c>
+      <c r="O362">
+        <v>4.2</v>
+      </c>
+      <c r="P362">
+        <v>5</v>
+      </c>
+      <c r="Q362">
+        <v>-1</v>
+      </c>
+      <c r="R362">
+        <v>2.05</v>
+      </c>
+      <c r="S362">
+        <v>1.8</v>
+      </c>
+      <c r="T362">
+        <v>2.75</v>
+      </c>
+      <c r="U362">
+        <v>1.975</v>
+      </c>
+      <c r="V362">
+        <v>1.875</v>
+      </c>
+      <c r="W362">
+        <v>0.571</v>
+      </c>
+      <c r="X362">
+        <v>-1</v>
+      </c>
+      <c r="Y362">
+        <v>-1</v>
+      </c>
+      <c r="Z362">
         <v>0</v>
       </c>
-      <c r="I362">
-        <v>0</v>
-      </c>
-      <c r="J362" t="s">
-        <v>45</v>
-      </c>
-      <c r="K362">
-        <v>2.375</v>
-      </c>
-      <c r="L362">
-        <v>3.2</v>
-      </c>
-      <c r="M362">
-        <v>2.9</v>
-      </c>
-      <c r="N362">
-        <v>2.4</v>
-      </c>
-      <c r="O362">
-        <v>3.2</v>
-      </c>
-      <c r="P362">
-        <v>2.9</v>
-      </c>
-      <c r="Q362">
-        <v>-0.25</v>
-      </c>
-      <c r="R362">
-        <v>2.075</v>
-      </c>
-      <c r="S362">
-        <v>1.725</v>
-      </c>
-      <c r="T362">
-        <v>2.25</v>
-      </c>
-      <c r="U362">
-        <v>1.925</v>
-      </c>
-      <c r="V362">
-        <v>1.925</v>
-      </c>
-      <c r="W362">
-        <v>-1</v>
-      </c>
-      <c r="X362">
-        <v>2.2</v>
-      </c>
-      <c r="Y362">
-        <v>-1</v>
-      </c>
-      <c r="Z362">
+      <c r="AA362">
+        <v>-0</v>
+      </c>
+      <c r="AB362">
+        <v>0.4875</v>
+      </c>
+      <c r="AC362">
         <v>-0.5</v>
-      </c>
-      <c r="AA362">
-        <v>0.3625</v>
-      </c>
-      <c r="AB362">
-        <v>-1</v>
-      </c>
-      <c r="AC362">
-        <v>0.925</v>
       </c>
     </row>
     <row r="363" spans="1:29">
@@ -32742,7 +32742,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>4589624</v>
+        <v>4589387</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32754,58 +32754,58 @@
         <v>44772.29166666666</v>
       </c>
       <c r="F363" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G363" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J363" t="s">
         <v>44</v>
       </c>
       <c r="K363">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L363">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M363">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N363">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O363">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P363">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q363">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R363">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S363">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T363">
         <v>2.75</v>
       </c>
       <c r="U363">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V363">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W363">
-        <v>0.571</v>
+        <v>1.2</v>
       </c>
       <c r="X363">
         <v>-1</v>
@@ -32814,16 +32814,16 @@
         <v>-1</v>
       </c>
       <c r="Z363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA363">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB363">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC363">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:29">
@@ -32831,7 +32831,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>4589387</v>
+        <v>4589592</v>
       </c>
       <c r="C364" t="s">
         <v>28</v>
@@ -32843,76 +32843,76 @@
         <v>44772.29166666666</v>
       </c>
       <c r="F364" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G364" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H364">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I364">
         <v>0</v>
       </c>
       <c r="J364" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K364">
-        <v>2</v>
+        <v>2.375</v>
       </c>
       <c r="L364">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M364">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N364">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="O364">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P364">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q364">
         <v>-0.25</v>
       </c>
       <c r="R364">
-        <v>2</v>
+        <v>2.075</v>
       </c>
       <c r="S364">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="T364">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U364">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V364">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W364">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X364">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y364">
         <v>-1</v>
       </c>
       <c r="Z364">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA364">
-        <v>-1</v>
+        <v>0.3625</v>
       </c>
       <c r="AB364">
         <v>-1</v>
       </c>
       <c r="AC364">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="365" spans="1:29">
@@ -33543,7 +33543,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>4589600</v>
+        <v>4589388</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33555,49 +33555,49 @@
         <v>44776.3125</v>
       </c>
       <c r="F372" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G372" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H372">
+        <v>2</v>
+      </c>
+      <c r="I372">
         <v>1</v>
       </c>
-      <c r="I372">
-        <v>2</v>
-      </c>
       <c r="J372" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K372">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="L372">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M372">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N372">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O372">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P372">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q372">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R372">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S372">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T372">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U372">
         <v>1.925</v>
@@ -33606,19 +33606,19 @@
         <v>1.925</v>
       </c>
       <c r="W372">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X372">
         <v>-1</v>
       </c>
       <c r="Y372">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z372">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA372">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB372">
         <v>0.925</v>
@@ -33632,7 +33632,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>4589388</v>
+        <v>4589600</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33644,49 +33644,49 @@
         <v>44776.3125</v>
       </c>
       <c r="F373" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G373" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J373" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K373">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="L373">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M373">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N373">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O373">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P373">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="Q373">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R373">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S373">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T373">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U373">
         <v>1.925</v>
@@ -33695,19 +33695,19 @@
         <v>1.925</v>
       </c>
       <c r="W373">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X373">
         <v>-1</v>
       </c>
       <c r="Y373">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z373">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA373">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB373">
         <v>0.925</v>
@@ -35590,7 +35590,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>4589583</v>
+        <v>4589585</v>
       </c>
       <c r="C395" t="s">
         <v>28</v>
@@ -35602,46 +35602,46 @@
         <v>44801.29166666666</v>
       </c>
       <c r="F395" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G395" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J395" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K395">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="L395">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M395">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="N395">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O395">
         <v>3.3</v>
       </c>
       <c r="P395">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="Q395">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R395">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S395">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T395">
         <v>2.75</v>
@@ -35653,25 +35653,25 @@
         <v>1.825</v>
       </c>
       <c r="W395">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="X395">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y395">
         <v>-1</v>
       </c>
       <c r="Z395">
+        <v>0.8</v>
+      </c>
+      <c r="AA395">
+        <v>-1</v>
+      </c>
+      <c r="AB395">
+        <v>0.5125</v>
+      </c>
+      <c r="AC395">
         <v>-0.5</v>
-      </c>
-      <c r="AA395">
-        <v>0.425</v>
-      </c>
-      <c r="AB395">
-        <v>-1</v>
-      </c>
-      <c r="AC395">
-        <v>0.825</v>
       </c>
     </row>
     <row r="396" spans="1:29">
@@ -35679,7 +35679,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>4589585</v>
+        <v>4589583</v>
       </c>
       <c r="C396" t="s">
         <v>28</v>
@@ -35691,46 +35691,46 @@
         <v>44801.29166666666</v>
       </c>
       <c r="F396" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G396" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J396" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K396">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="L396">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M396">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="N396">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O396">
         <v>3.3</v>
       </c>
       <c r="P396">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q396">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R396">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S396">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T396">
         <v>2.75</v>
@@ -35742,25 +35742,25 @@
         <v>1.825</v>
       </c>
       <c r="W396">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="X396">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y396">
         <v>-1</v>
       </c>
       <c r="Z396">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA396">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB396">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AC396">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="397" spans="1:29">
@@ -36480,7 +36480,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>4589617</v>
+        <v>4589616</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36492,76 +36492,76 @@
         <v>44810.3125</v>
       </c>
       <c r="F405" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G405" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H405">
+        <v>0</v>
+      </c>
+      <c r="I405">
         <v>1</v>
       </c>
-      <c r="I405">
-        <v>0</v>
-      </c>
       <c r="J405" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K405">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="L405">
         <v>3.5</v>
       </c>
       <c r="M405">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N405">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="O405">
         <v>3.5</v>
       </c>
       <c r="P405">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q405">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R405">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S405">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T405">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U405">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V405">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W405">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X405">
         <v>-1</v>
       </c>
       <c r="Y405">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z405">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA405">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB405">
         <v>-1</v>
       </c>
       <c r="AC405">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="406" spans="1:29">
@@ -36569,7 +36569,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>4589616</v>
+        <v>4589617</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36581,76 +36581,76 @@
         <v>44810.3125</v>
       </c>
       <c r="F406" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G406" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H406">
+        <v>1</v>
+      </c>
+      <c r="I406">
         <v>0</v>
       </c>
-      <c r="I406">
-        <v>1</v>
-      </c>
       <c r="J406" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K406">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="L406">
         <v>3.5</v>
       </c>
       <c r="M406">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N406">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="O406">
         <v>3.5</v>
       </c>
       <c r="P406">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q406">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R406">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S406">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T406">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U406">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V406">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W406">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X406">
         <v>-1</v>
       </c>
       <c r="Y406">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z406">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA406">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB406">
         <v>-1</v>
       </c>
       <c r="AC406">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -37548,7 +37548,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>4734917</v>
+        <v>4733621</v>
       </c>
       <c r="C417" t="s">
         <v>28</v>
@@ -37560,76 +37560,76 @@
         <v>44817.3125</v>
       </c>
       <c r="F417" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G417" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J417" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K417">
         <v>2.1</v>
       </c>
       <c r="L417">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M417">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N417">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O417">
         <v>3.5</v>
       </c>
       <c r="P417">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q417">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R417">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S417">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T417">
         <v>2.5</v>
       </c>
       <c r="U417">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V417">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W417">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X417">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y417">
         <v>-1</v>
       </c>
       <c r="Z417">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA417">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB417">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC417">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="418" spans="1:29">
@@ -37637,7 +37637,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>4733621</v>
+        <v>4734917</v>
       </c>
       <c r="C418" t="s">
         <v>28</v>
@@ -37649,76 +37649,76 @@
         <v>44817.3125</v>
       </c>
       <c r="F418" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G418" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I418">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J418" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K418">
         <v>2.1</v>
       </c>
       <c r="L418">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M418">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N418">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O418">
         <v>3.5</v>
       </c>
       <c r="P418">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q418">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R418">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S418">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T418">
         <v>2.5</v>
       </c>
       <c r="U418">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V418">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W418">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X418">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y418">
         <v>-1</v>
       </c>
       <c r="Z418">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA418">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB418">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC418">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="419" spans="1:29">
@@ -37993,7 +37993,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>4742625</v>
+        <v>4742626</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38005,73 +38005,73 @@
         <v>44822.125</v>
       </c>
       <c r="F422" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G422" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H422">
         <v>2</v>
       </c>
       <c r="I422">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J422" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K422">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="L422">
         <v>3.25</v>
       </c>
       <c r="M422">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N422">
+        <v>2.55</v>
+      </c>
+      <c r="O422">
         <v>3.1</v>
       </c>
-      <c r="O422">
-        <v>3.3</v>
-      </c>
       <c r="P422">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="Q422">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R422">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S422">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T422">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U422">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V422">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W422">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X422">
         <v>-1</v>
       </c>
       <c r="Y422">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z422">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA422">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB422">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC422">
         <v>-1</v>
@@ -38082,7 +38082,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>4742626</v>
+        <v>4742625</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38094,73 +38094,73 @@
         <v>44822.125</v>
       </c>
       <c r="F423" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G423" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H423">
         <v>2</v>
       </c>
       <c r="I423">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J423" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K423">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="L423">
         <v>3.25</v>
       </c>
       <c r="M423">
+        <v>2</v>
+      </c>
+      <c r="N423">
+        <v>3.1</v>
+      </c>
+      <c r="O423">
+        <v>3.3</v>
+      </c>
+      <c r="P423">
+        <v>2.05</v>
+      </c>
+      <c r="Q423">
+        <v>0.25</v>
+      </c>
+      <c r="R423">
+        <v>1.975</v>
+      </c>
+      <c r="S423">
+        <v>1.875</v>
+      </c>
+      <c r="T423">
         <v>2.5</v>
       </c>
-      <c r="N423">
-        <v>2.55</v>
-      </c>
-      <c r="O423">
-        <v>3.1</v>
-      </c>
-      <c r="P423">
-        <v>2.55</v>
-      </c>
-      <c r="Q423">
-        <v>0</v>
-      </c>
-      <c r="R423">
+      <c r="U423">
+        <v>1.9</v>
+      </c>
+      <c r="V423">
         <v>1.95</v>
       </c>
-      <c r="S423">
-        <v>1.9</v>
-      </c>
-      <c r="T423">
-        <v>2.25</v>
-      </c>
-      <c r="U423">
-        <v>1.925</v>
-      </c>
-      <c r="V423">
-        <v>1.925</v>
-      </c>
       <c r="W423">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X423">
         <v>-1</v>
       </c>
       <c r="Y423">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z423">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA423">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB423">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC423">
         <v>-1</v>
@@ -38171,7 +38171,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>4743103</v>
+        <v>4743115</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38183,76 +38183,76 @@
         <v>44822.125</v>
       </c>
       <c r="F424" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G424" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I424">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J424" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K424">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="L424">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M424">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N424">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O424">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P424">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q424">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R424">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S424">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T424">
         <v>2.5</v>
       </c>
       <c r="U424">
+        <v>1.95</v>
+      </c>
+      <c r="V424">
         <v>1.9</v>
       </c>
-      <c r="V424">
-        <v>1.95</v>
-      </c>
       <c r="W424">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X424">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y424">
         <v>-1</v>
       </c>
       <c r="Z424">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA424">
         <v>-1</v>
       </c>
       <c r="AB424">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC424">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38260,7 +38260,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>4742624</v>
+        <v>4743104</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38272,13 +38272,13 @@
         <v>44822.125</v>
       </c>
       <c r="F425" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G425" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I425">
         <v>0</v>
@@ -38287,43 +38287,43 @@
         <v>44</v>
       </c>
       <c r="K425">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="L425">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M425">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N425">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O425">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P425">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q425">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R425">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S425">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T425">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U425">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V425">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W425">
-        <v>0.6499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X425">
         <v>-1</v>
@@ -38332,7 +38332,7 @@
         <v>-1</v>
       </c>
       <c r="Z425">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA425">
         <v>-1</v>
@@ -38341,7 +38341,7 @@
         <v>-1</v>
       </c>
       <c r="AC425">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -38349,7 +38349,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>4743115</v>
+        <v>4743103</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -38361,76 +38361,76 @@
         <v>44822.125</v>
       </c>
       <c r="F426" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G426" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H426">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I426">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J426" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K426">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="L426">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M426">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N426">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="O426">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P426">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q426">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R426">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S426">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T426">
         <v>2.5</v>
       </c>
       <c r="U426">
+        <v>1.9</v>
+      </c>
+      <c r="V426">
         <v>1.95</v>
       </c>
-      <c r="V426">
-        <v>1.9</v>
-      </c>
       <c r="W426">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X426">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y426">
         <v>-1</v>
       </c>
       <c r="Z426">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA426">
         <v>-1</v>
       </c>
       <c r="AB426">
+        <v>-1</v>
+      </c>
+      <c r="AC426">
         <v>0.95</v>
-      </c>
-      <c r="AC426">
-        <v>-1</v>
       </c>
     </row>
     <row r="427" spans="1:29">
@@ -38438,7 +38438,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>4743104</v>
+        <v>4742624</v>
       </c>
       <c r="C427" t="s">
         <v>28</v>
@@ -38450,13 +38450,13 @@
         <v>44822.125</v>
       </c>
       <c r="F427" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G427" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I427">
         <v>0</v>
@@ -38465,43 +38465,43 @@
         <v>44</v>
       </c>
       <c r="K427">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="L427">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M427">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N427">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O427">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P427">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q427">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R427">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S427">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T427">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U427">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V427">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W427">
-        <v>1.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X427">
         <v>-1</v>
@@ -38510,7 +38510,7 @@
         <v>-1</v>
       </c>
       <c r="Z427">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA427">
         <v>-1</v>
@@ -38519,7 +38519,7 @@
         <v>-1</v>
       </c>
       <c r="AC427">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="428" spans="1:29">
@@ -40752,7 +40752,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>5656549</v>
+        <v>5656531</v>
       </c>
       <c r="C453" t="s">
         <v>28</v>
@@ -40764,76 +40764,76 @@
         <v>44856.125</v>
       </c>
       <c r="F453" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G453" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H453">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I453">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J453" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K453">
         <v>3</v>
       </c>
       <c r="L453">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M453">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="N453">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="O453">
         <v>3.4</v>
       </c>
       <c r="P453">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="Q453">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R453">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S453">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T453">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U453">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V453">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W453">
         <v>-1</v>
       </c>
       <c r="X453">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y453">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z453">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA453">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB453">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC453">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="454" spans="1:29">
@@ -40841,7 +40841,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>5656531</v>
+        <v>5656549</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40853,76 +40853,76 @@
         <v>44856.125</v>
       </c>
       <c r="F454" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G454" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I454">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J454" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K454">
         <v>3</v>
       </c>
       <c r="L454">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M454">
+        <v>2.15</v>
+      </c>
+      <c r="N454">
         <v>2.25</v>
-      </c>
-      <c r="N454">
-        <v>3.1</v>
       </c>
       <c r="O454">
         <v>3.4</v>
       </c>
       <c r="P454">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="Q454">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R454">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S454">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T454">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U454">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V454">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W454">
         <v>-1</v>
       </c>
       <c r="X454">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y454">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z454">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA454">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AB454">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC454">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="455" spans="1:29">
@@ -40930,7 +40930,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>5656551</v>
+        <v>5656533</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40942,58 +40942,58 @@
         <v>44857.125</v>
       </c>
       <c r="F455" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G455" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I455">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J455" t="s">
         <v>44</v>
       </c>
       <c r="K455">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L455">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M455">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N455">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O455">
         <v>3.4</v>
       </c>
       <c r="P455">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q455">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R455">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S455">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T455">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U455">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V455">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W455">
-        <v>1.1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X455">
         <v>-1</v>
@@ -41002,16 +41002,16 @@
         <v>-1</v>
       </c>
       <c r="Z455">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AA455">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB455">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC455">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:29">
@@ -41108,7 +41108,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>5656533</v>
+        <v>5656551</v>
       </c>
       <c r="C457" t="s">
         <v>28</v>
@@ -41120,58 +41120,58 @@
         <v>44857.125</v>
       </c>
       <c r="F457" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G457" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H457">
+        <v>2</v>
+      </c>
+      <c r="I457">
         <v>1</v>
-      </c>
-      <c r="I457">
-        <v>0</v>
       </c>
       <c r="J457" t="s">
         <v>44</v>
       </c>
       <c r="K457">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L457">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M457">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N457">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O457">
         <v>3.4</v>
       </c>
       <c r="P457">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q457">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R457">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S457">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T457">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U457">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V457">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W457">
-        <v>0.7270000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X457">
         <v>-1</v>
@@ -41180,16 +41180,16 @@
         <v>-1</v>
       </c>
       <c r="Z457">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA457">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB457">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC457">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="458" spans="1:29">
@@ -45469,7 +45469,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>6149474</v>
+        <v>6149827</v>
       </c>
       <c r="C506" t="s">
         <v>28</v>
@@ -45481,76 +45481,76 @@
         <v>45041.3125</v>
       </c>
       <c r="F506" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G506" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H506">
+        <v>1</v>
+      </c>
+      <c r="I506">
         <v>0</v>
       </c>
-      <c r="I506">
-        <v>1</v>
-      </c>
       <c r="J506" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K506">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="L506">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M506">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N506">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="O506">
         <v>3.75</v>
       </c>
       <c r="P506">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q506">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R506">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S506">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T506">
         <v>2.5</v>
       </c>
       <c r="U506">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V506">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W506">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X506">
         <v>-1</v>
       </c>
       <c r="Y506">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z506">
+        <v>0.4875</v>
+      </c>
+      <c r="AA506">
         <v>-0.5</v>
       </c>
-      <c r="AA506">
-        <v>0.475</v>
-      </c>
       <c r="AB506">
         <v>-1</v>
       </c>
       <c r="AC506">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="507" spans="1:29">
@@ -45558,7 +45558,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>6149827</v>
+        <v>6149474</v>
       </c>
       <c r="C507" t="s">
         <v>28</v>
@@ -45570,76 +45570,76 @@
         <v>45041.3125</v>
       </c>
       <c r="F507" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G507" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H507">
+        <v>0</v>
+      </c>
+      <c r="I507">
         <v>1</v>
       </c>
-      <c r="I507">
-        <v>0</v>
-      </c>
       <c r="J507" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K507">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="L507">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M507">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N507">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O507">
         <v>3.75</v>
       </c>
       <c r="P507">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q507">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R507">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S507">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T507">
         <v>2.5</v>
       </c>
       <c r="U507">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V507">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W507">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X507">
         <v>-1</v>
       </c>
       <c r="Y507">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z507">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA507">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB507">
         <v>-1</v>
       </c>
       <c r="AC507">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="508" spans="1:29">
@@ -45825,7 +45825,7 @@
         <v>508</v>
       </c>
       <c r="B510">
-        <v>6149403</v>
+        <v>6149368</v>
       </c>
       <c r="C510" t="s">
         <v>28</v>
@@ -45837,76 +45837,76 @@
         <v>45042.3125</v>
       </c>
       <c r="F510" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G510" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H510">
         <v>1</v>
       </c>
       <c r="I510">
+        <v>2</v>
+      </c>
+      <c r="J510" t="s">
+        <v>46</v>
+      </c>
+      <c r="K510">
+        <v>1.8</v>
+      </c>
+      <c r="L510">
+        <v>3.6</v>
+      </c>
+      <c r="M510">
+        <v>4</v>
+      </c>
+      <c r="N510">
+        <v>1.833</v>
+      </c>
+      <c r="O510">
+        <v>3.5</v>
+      </c>
+      <c r="P510">
+        <v>4</v>
+      </c>
+      <c r="Q510">
+        <v>-0.5</v>
+      </c>
+      <c r="R510">
+        <v>1.85</v>
+      </c>
+      <c r="S510">
+        <v>2</v>
+      </c>
+      <c r="T510">
+        <v>2.5</v>
+      </c>
+      <c r="U510">
+        <v>1.9</v>
+      </c>
+      <c r="V510">
+        <v>1.95</v>
+      </c>
+      <c r="W510">
+        <v>-1</v>
+      </c>
+      <c r="X510">
+        <v>-1</v>
+      </c>
+      <c r="Y510">
+        <v>3</v>
+      </c>
+      <c r="Z510">
+        <v>-1</v>
+      </c>
+      <c r="AA510">
         <v>1</v>
       </c>
-      <c r="J510" t="s">
-        <v>45</v>
-      </c>
-      <c r="K510">
-        <v>2.55</v>
-      </c>
-      <c r="L510">
-        <v>3.3</v>
-      </c>
-      <c r="M510">
-        <v>2.625</v>
-      </c>
-      <c r="N510">
-        <v>2.45</v>
-      </c>
-      <c r="O510">
-        <v>3.3</v>
-      </c>
-      <c r="P510">
-        <v>2.7</v>
-      </c>
-      <c r="Q510">
-        <v>0</v>
-      </c>
-      <c r="R510">
-        <v>1.825</v>
-      </c>
-      <c r="S510">
-        <v>2.025</v>
-      </c>
-      <c r="T510">
-        <v>2.75</v>
-      </c>
-      <c r="U510">
-        <v>2</v>
-      </c>
-      <c r="V510">
-        <v>1.85</v>
-      </c>
-      <c r="W510">
-        <v>-1</v>
-      </c>
-      <c r="X510">
-        <v>2.3</v>
-      </c>
-      <c r="Y510">
-        <v>-1</v>
-      </c>
-      <c r="Z510">
-        <v>0</v>
-      </c>
-      <c r="AA510">
-        <v>-0</v>
-      </c>
       <c r="AB510">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC510">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="511" spans="1:29">
@@ -45914,7 +45914,7 @@
         <v>509</v>
       </c>
       <c r="B511">
-        <v>6149368</v>
+        <v>6149403</v>
       </c>
       <c r="C511" t="s">
         <v>28</v>
@@ -45926,76 +45926,76 @@
         <v>45042.3125</v>
       </c>
       <c r="F511" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G511" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H511">
         <v>1</v>
       </c>
       <c r="I511">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J511" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K511">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L511">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M511">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N511">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O511">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P511">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q511">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R511">
+        <v>1.825</v>
+      </c>
+      <c r="S511">
+        <v>2.025</v>
+      </c>
+      <c r="T511">
+        <v>2.75</v>
+      </c>
+      <c r="U511">
+        <v>2</v>
+      </c>
+      <c r="V511">
         <v>1.85</v>
       </c>
-      <c r="S511">
-        <v>2</v>
-      </c>
-      <c r="T511">
-        <v>2.5</v>
-      </c>
-      <c r="U511">
-        <v>1.9</v>
-      </c>
-      <c r="V511">
-        <v>1.95</v>
-      </c>
       <c r="W511">
         <v>-1</v>
       </c>
       <c r="X511">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y511">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z511">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA511">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB511">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC511">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="512" spans="1:29">
@@ -52767,7 +52767,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>6149872</v>
+        <v>6149871</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52779,76 +52779,76 @@
         <v>45119.3125</v>
       </c>
       <c r="F588" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G588" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H588">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I588">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J588" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K588">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="L588">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M588">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="N588">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="O588">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P588">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="Q588">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R588">
+        <v>2.025</v>
+      </c>
+      <c r="S588">
+        <v>1.825</v>
+      </c>
+      <c r="T588">
+        <v>2.25</v>
+      </c>
+      <c r="U588">
         <v>1.925</v>
       </c>
-      <c r="S588">
+      <c r="V588">
         <v>1.925</v>
       </c>
-      <c r="T588">
-        <v>3</v>
-      </c>
-      <c r="U588">
-        <v>1.9</v>
-      </c>
-      <c r="V588">
-        <v>1.95</v>
-      </c>
       <c r="W588">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X588">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y588">
         <v>-1</v>
       </c>
       <c r="Z588">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA588">
         <v>-1</v>
       </c>
       <c r="AB588">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC588">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -52856,7 +52856,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>6149871</v>
+        <v>6149872</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52868,76 +52868,76 @@
         <v>45119.3125</v>
       </c>
       <c r="F589" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G589" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H589">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I589">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J589" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K589">
+        <v>1.55</v>
+      </c>
+      <c r="L589">
+        <v>3.75</v>
+      </c>
+      <c r="M589">
+        <v>5.25</v>
+      </c>
+      <c r="N589">
+        <v>1.55</v>
+      </c>
+      <c r="O589">
         <v>4</v>
       </c>
-      <c r="L589">
-        <v>3.3</v>
-      </c>
-      <c r="M589">
-        <v>1.909</v>
-      </c>
-      <c r="N589">
-        <v>4.5</v>
-      </c>
-      <c r="O589">
-        <v>3.3</v>
-      </c>
       <c r="P589">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="Q589">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R589">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S589">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T589">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U589">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V589">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W589">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X589">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y589">
         <v>-1</v>
       </c>
       <c r="Z589">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA589">
         <v>-1</v>
       </c>
       <c r="AB589">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC589">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -53479,7 +53479,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>6149486</v>
+        <v>6149383</v>
       </c>
       <c r="C596" t="s">
         <v>28</v>
@@ -53491,10 +53491,10 @@
         <v>45128.3125</v>
       </c>
       <c r="F596" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G596" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H596">
         <v>2</v>
@@ -53506,43 +53506,43 @@
         <v>44</v>
       </c>
       <c r="K596">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L596">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M596">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N596">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O596">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P596">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q596">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R596">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S596">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T596">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U596">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V596">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W596">
-        <v>0.6499999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="X596">
         <v>-1</v>
@@ -53551,16 +53551,16 @@
         <v>-1</v>
       </c>
       <c r="Z596">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
       <c r="AA596">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB596">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC596">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="597" spans="1:29">
@@ -53568,7 +53568,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>6149383</v>
+        <v>6149486</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53580,10 +53580,10 @@
         <v>45128.3125</v>
       </c>
       <c r="F597" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G597" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H597">
         <v>2</v>
@@ -53595,43 +53595,43 @@
         <v>44</v>
       </c>
       <c r="K597">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="L597">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M597">
+        <v>4.75</v>
+      </c>
+      <c r="N597">
+        <v>1.65</v>
+      </c>
+      <c r="O597">
+        <v>4</v>
+      </c>
+      <c r="P597">
+        <v>4.75</v>
+      </c>
+      <c r="Q597">
+        <v>-0.75</v>
+      </c>
+      <c r="R597">
+        <v>1.825</v>
+      </c>
+      <c r="S597">
+        <v>2.025</v>
+      </c>
+      <c r="T597">
         <v>3</v>
       </c>
-      <c r="N597">
-        <v>2.4</v>
-      </c>
-      <c r="O597">
-        <v>3.2</v>
-      </c>
-      <c r="P597">
-        <v>2.8</v>
-      </c>
-      <c r="Q597">
-        <v>-0.25</v>
-      </c>
-      <c r="R597">
-        <v>2.05</v>
-      </c>
-      <c r="S597">
-        <v>1.75</v>
-      </c>
-      <c r="T597">
-        <v>2.5</v>
-      </c>
       <c r="U597">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V597">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W597">
-        <v>1.4</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X597">
         <v>-1</v>
@@ -53640,16 +53640,16 @@
         <v>-1</v>
       </c>
       <c r="Z597">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AA597">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB597">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC597">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="598" spans="1:29">
@@ -60955,7 +60955,7 @@
         <v>678</v>
       </c>
       <c r="B680">
-        <v>7334090</v>
+        <v>7334088</v>
       </c>
       <c r="C680" t="s">
         <v>28</v>
@@ -60967,76 +60967,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F680" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G680" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J680" t="s">
         <v>45</v>
       </c>
       <c r="K680">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L680">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M680">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N680">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="O680">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P680">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q680">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R680">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S680">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T680">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U680">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V680">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W680">
         <v>-1</v>
       </c>
       <c r="X680">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="Y680">
         <v>-1</v>
       </c>
       <c r="Z680">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA680">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB680">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC680">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="681" spans="1:29">
@@ -61044,7 +61044,7 @@
         <v>679</v>
       </c>
       <c r="B681">
-        <v>7334089</v>
+        <v>7334090</v>
       </c>
       <c r="C681" t="s">
         <v>28</v>
@@ -61056,49 +61056,49 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F681" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G681" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H681">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I681">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J681" t="s">
         <v>45</v>
       </c>
       <c r="K681">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="L681">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M681">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="N681">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O681">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P681">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q681">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R681">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S681">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="T681">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U681">
         <v>1.85</v>
@@ -61110,16 +61110,16 @@
         <v>-1</v>
       </c>
       <c r="X681">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Y681">
         <v>-1</v>
       </c>
       <c r="Z681">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA681">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB681">
         <v>-1</v>
@@ -61133,7 +61133,7 @@
         <v>680</v>
       </c>
       <c r="B682">
-        <v>7334088</v>
+        <v>7334089</v>
       </c>
       <c r="C682" t="s">
         <v>28</v>
@@ -61145,61 +61145,61 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F682" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G682" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I682">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J682" t="s">
         <v>45</v>
       </c>
       <c r="K682">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="L682">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M682">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="N682">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O682">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P682">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q682">
         <v>-0.25</v>
       </c>
       <c r="R682">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S682">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T682">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U682">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V682">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W682">
         <v>-1</v>
       </c>
       <c r="X682">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y682">
         <v>-1</v>
@@ -61208,13 +61208,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA682">
-        <v>0.4875</v>
+        <v>0.375</v>
       </c>
       <c r="AB682">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC682">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:29">

--- a/South Korea K League 1/South Korea K League 1.xlsx
+++ b/South Korea K League 1/South Korea K League 1.xlsx
@@ -37548,7 +37548,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>4733621</v>
+        <v>4734917</v>
       </c>
       <c r="C417" t="s">
         <v>28</v>
@@ -37560,76 +37560,76 @@
         <v>44817.3125</v>
       </c>
       <c r="F417" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G417" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I417">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J417" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K417">
         <v>2.1</v>
       </c>
       <c r="L417">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M417">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N417">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O417">
         <v>3.5</v>
       </c>
       <c r="P417">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q417">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R417">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S417">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T417">
         <v>2.5</v>
       </c>
       <c r="U417">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V417">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W417">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X417">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y417">
         <v>-1</v>
       </c>
       <c r="Z417">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA417">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB417">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC417">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="418" spans="1:29">
@@ -37637,7 +37637,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>4734917</v>
+        <v>4733621</v>
       </c>
       <c r="C418" t="s">
         <v>28</v>
@@ -37649,76 +37649,76 @@
         <v>44817.3125</v>
       </c>
       <c r="F418" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G418" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I418">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J418" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K418">
         <v>2.1</v>
       </c>
       <c r="L418">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M418">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N418">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O418">
         <v>3.5</v>
       </c>
       <c r="P418">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q418">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R418">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S418">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T418">
         <v>2.5</v>
       </c>
       <c r="U418">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V418">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W418">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X418">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y418">
         <v>-1</v>
       </c>
       <c r="Z418">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA418">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB418">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC418">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="419" spans="1:29">
@@ -38171,7 +38171,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>4743115</v>
+        <v>4743103</v>
       </c>
       <c r="C424" t="s">
         <v>28</v>
@@ -38183,76 +38183,76 @@
         <v>44822.125</v>
       </c>
       <c r="F424" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G424" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H424">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I424">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J424" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K424">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="L424">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M424">
-        <v>2.25</v>
+        <v>1.666</v>
       </c>
       <c r="N424">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="O424">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P424">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q424">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R424">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S424">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T424">
         <v>2.5</v>
       </c>
       <c r="U424">
+        <v>1.9</v>
+      </c>
+      <c r="V424">
         <v>1.95</v>
       </c>
-      <c r="V424">
-        <v>1.9</v>
-      </c>
       <c r="W424">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X424">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y424">
         <v>-1</v>
       </c>
       <c r="Z424">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AA424">
         <v>-1</v>
       </c>
       <c r="AB424">
+        <v>-1</v>
+      </c>
+      <c r="AC424">
         <v>0.95</v>
-      </c>
-      <c r="AC424">
-        <v>-1</v>
       </c>
     </row>
     <row r="425" spans="1:29">
@@ -38260,7 +38260,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>4743104</v>
+        <v>4742624</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38272,13 +38272,13 @@
         <v>44822.125</v>
       </c>
       <c r="F425" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G425" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I425">
         <v>0</v>
@@ -38287,43 +38287,43 @@
         <v>44</v>
       </c>
       <c r="K425">
-        <v>2.4</v>
+        <v>1.533</v>
       </c>
       <c r="L425">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M425">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N425">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="O425">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P425">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q425">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R425">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S425">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T425">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U425">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V425">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W425">
-        <v>1.25</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X425">
         <v>-1</v>
@@ -38332,7 +38332,7 @@
         <v>-1</v>
       </c>
       <c r="Z425">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA425">
         <v>-1</v>
@@ -38341,7 +38341,7 @@
         <v>-1</v>
       </c>
       <c r="AC425">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -38349,7 +38349,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>4743103</v>
+        <v>4743115</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -38361,76 +38361,76 @@
         <v>44822.125</v>
       </c>
       <c r="F426" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G426" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I426">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J426" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K426">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="L426">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M426">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="N426">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O426">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P426">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q426">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R426">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S426">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T426">
         <v>2.5</v>
       </c>
       <c r="U426">
+        <v>1.95</v>
+      </c>
+      <c r="V426">
         <v>1.9</v>
       </c>
-      <c r="V426">
-        <v>1.95</v>
-      </c>
       <c r="W426">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X426">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y426">
         <v>-1</v>
       </c>
       <c r="Z426">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA426">
         <v>-1</v>
       </c>
       <c r="AB426">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC426">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="427" spans="1:29">
@@ -38438,7 +38438,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>4742624</v>
+        <v>4743104</v>
       </c>
       <c r="C427" t="s">
         <v>28</v>
@@ -38450,13 +38450,13 @@
         <v>44822.125</v>
       </c>
       <c r="F427" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G427" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427">
         <v>0</v>
@@ -38465,43 +38465,43 @@
         <v>44</v>
       </c>
       <c r="K427">
-        <v>1.533</v>
+        <v>2.4</v>
       </c>
       <c r="L427">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M427">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N427">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O427">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P427">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="Q427">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R427">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S427">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T427">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U427">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V427">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W427">
-        <v>0.6499999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="X427">
         <v>-1</v>
@@ -38510,7 +38510,7 @@
         <v>-1</v>
       </c>
       <c r="Z427">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA427">
         <v>-1</v>
@@ -38519,7 +38519,7 @@
         <v>-1</v>
       </c>
       <c r="AC427">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="428" spans="1:29">
@@ -45469,7 +45469,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>6149827</v>
+        <v>6149474</v>
       </c>
       <c r="C506" t="s">
         <v>28</v>
@@ -45481,76 +45481,76 @@
         <v>45041.3125</v>
       </c>
       <c r="F506" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G506" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H506">
+        <v>0</v>
+      </c>
+      <c r="I506">
         <v>1</v>
       </c>
-      <c r="I506">
-        <v>0</v>
-      </c>
       <c r="J506" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K506">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="L506">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M506">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N506">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O506">
         <v>3.75</v>
       </c>
       <c r="P506">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q506">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R506">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S506">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T506">
         <v>2.5</v>
       </c>
       <c r="U506">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V506">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W506">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X506">
         <v>-1</v>
       </c>
       <c r="Y506">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z506">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA506">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB506">
         <v>-1</v>
       </c>
       <c r="AC506">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="507" spans="1:29">
@@ -45558,7 +45558,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>6149474</v>
+        <v>6149827</v>
       </c>
       <c r="C507" t="s">
         <v>28</v>
@@ -45570,76 +45570,76 @@
         <v>45041.3125</v>
       </c>
       <c r="F507" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G507" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H507">
+        <v>1</v>
+      </c>
+      <c r="I507">
         <v>0</v>
       </c>
-      <c r="I507">
-        <v>1</v>
-      </c>
       <c r="J507" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K507">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="L507">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M507">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N507">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="O507">
         <v>3.75</v>
       </c>
       <c r="P507">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q507">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R507">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S507">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T507">
         <v>2.5</v>
       </c>
       <c r="U507">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V507">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W507">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X507">
         <v>-1</v>
       </c>
       <c r="Y507">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z507">
+        <v>0.4875</v>
+      </c>
+      <c r="AA507">
         <v>-0.5</v>
       </c>
-      <c r="AA507">
-        <v>0.475</v>
-      </c>
       <c r="AB507">
         <v>-1</v>
       </c>
       <c r="AC507">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="508" spans="1:29">
@@ -47338,7 +47338,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>6149839</v>
+        <v>6149371</v>
       </c>
       <c r="C527" t="s">
         <v>28</v>
@@ -47350,76 +47350,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F527" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G527" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J527" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K527">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L527">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M527">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N527">
+        <v>3</v>
+      </c>
+      <c r="O527">
+        <v>3</v>
+      </c>
+      <c r="P527">
+        <v>2.375</v>
+      </c>
+      <c r="Q527">
+        <v>0.25</v>
+      </c>
+      <c r="R527">
+        <v>1.775</v>
+      </c>
+      <c r="S527">
         <v>2.1</v>
       </c>
-      <c r="O527">
-        <v>3.5</v>
-      </c>
-      <c r="P527">
-        <v>3.4</v>
-      </c>
-      <c r="Q527">
-        <v>-0.25</v>
-      </c>
-      <c r="R527">
+      <c r="T527">
+        <v>2</v>
+      </c>
+      <c r="U527">
         <v>1.8</v>
       </c>
-      <c r="S527">
+      <c r="V527">
         <v>2.05</v>
       </c>
-      <c r="T527">
-        <v>3</v>
-      </c>
-      <c r="U527">
-        <v>2.025</v>
-      </c>
-      <c r="V527">
-        <v>1.825</v>
-      </c>
       <c r="W527">
+        <v>-1</v>
+      </c>
+      <c r="X527">
+        <v>-1</v>
+      </c>
+      <c r="Y527">
+        <v>1.375</v>
+      </c>
+      <c r="Z527">
+        <v>-1</v>
+      </c>
+      <c r="AA527">
         <v>1.1</v>
       </c>
-      <c r="X527">
-        <v>-1</v>
-      </c>
-      <c r="Y527">
-        <v>-1</v>
-      </c>
-      <c r="Z527">
+      <c r="AB527">
         <v>0.8</v>
       </c>
-      <c r="AA527">
-        <v>-1</v>
-      </c>
-      <c r="AB527">
-        <v>0</v>
-      </c>
       <c r="AC527">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="528" spans="1:29">
@@ -47516,7 +47516,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>6149371</v>
+        <v>6149839</v>
       </c>
       <c r="C529" t="s">
         <v>28</v>
@@ -47528,76 +47528,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F529" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G529" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H529">
+        <v>2</v>
+      </c>
+      <c r="I529">
+        <v>1</v>
+      </c>
+      <c r="J529" t="s">
+        <v>44</v>
+      </c>
+      <c r="K529">
+        <v>2</v>
+      </c>
+      <c r="L529">
+        <v>3.4</v>
+      </c>
+      <c r="M529">
+        <v>3.4</v>
+      </c>
+      <c r="N529">
+        <v>2.1</v>
+      </c>
+      <c r="O529">
+        <v>3.5</v>
+      </c>
+      <c r="P529">
+        <v>3.4</v>
+      </c>
+      <c r="Q529">
+        <v>-0.25</v>
+      </c>
+      <c r="R529">
+        <v>1.8</v>
+      </c>
+      <c r="S529">
+        <v>2.05</v>
+      </c>
+      <c r="T529">
+        <v>3</v>
+      </c>
+      <c r="U529">
+        <v>2.025</v>
+      </c>
+      <c r="V529">
+        <v>1.825</v>
+      </c>
+      <c r="W529">
+        <v>1.1</v>
+      </c>
+      <c r="X529">
+        <v>-1</v>
+      </c>
+      <c r="Y529">
+        <v>-1</v>
+      </c>
+      <c r="Z529">
+        <v>0.8</v>
+      </c>
+      <c r="AA529">
+        <v>-1</v>
+      </c>
+      <c r="AB529">
         <v>0</v>
       </c>
-      <c r="I529">
-        <v>3</v>
-      </c>
-      <c r="J529" t="s">
-        <v>46</v>
-      </c>
-      <c r="K529">
-        <v>3.1</v>
-      </c>
-      <c r="L529">
-        <v>3</v>
-      </c>
-      <c r="M529">
-        <v>2.2</v>
-      </c>
-      <c r="N529">
-        <v>3</v>
-      </c>
-      <c r="O529">
-        <v>3</v>
-      </c>
-      <c r="P529">
-        <v>2.375</v>
-      </c>
-      <c r="Q529">
-        <v>0.25</v>
-      </c>
-      <c r="R529">
-        <v>1.775</v>
-      </c>
-      <c r="S529">
-        <v>2.1</v>
-      </c>
-      <c r="T529">
-        <v>2</v>
-      </c>
-      <c r="U529">
-        <v>1.8</v>
-      </c>
-      <c r="V529">
-        <v>2.05</v>
-      </c>
-      <c r="W529">
-        <v>-1</v>
-      </c>
-      <c r="X529">
-        <v>-1</v>
-      </c>
-      <c r="Y529">
-        <v>1.375</v>
-      </c>
-      <c r="Z529">
-        <v>-1</v>
-      </c>
-      <c r="AA529">
-        <v>1.1</v>
-      </c>
-      <c r="AB529">
-        <v>0.8</v>
-      </c>
       <c r="AC529">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="530" spans="1:29">
@@ -51877,7 +51877,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>6149867</v>
+        <v>6149414</v>
       </c>
       <c r="C578" t="s">
         <v>28</v>
@@ -51889,76 +51889,76 @@
         <v>45114.3125</v>
       </c>
       <c r="F578" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G578" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H578">
         <v>1</v>
       </c>
       <c r="I578">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J578" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K578">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L578">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M578">
+        <v>3.2</v>
+      </c>
+      <c r="N578">
+        <v>2.3</v>
+      </c>
+      <c r="O578">
+        <v>3.3</v>
+      </c>
+      <c r="P578">
+        <v>3</v>
+      </c>
+      <c r="Q578">
+        <v>-0.25</v>
+      </c>
+      <c r="R578">
+        <v>2.05</v>
+      </c>
+      <c r="S578">
+        <v>1.8</v>
+      </c>
+      <c r="T578">
         <v>2.5</v>
       </c>
-      <c r="N578">
-        <v>3.3</v>
-      </c>
-      <c r="O578">
-        <v>3.1</v>
-      </c>
-      <c r="P578">
-        <v>2.2</v>
-      </c>
-      <c r="Q578">
-        <v>0.25</v>
-      </c>
-      <c r="R578">
+      <c r="U578">
+        <v>1.9</v>
+      </c>
+      <c r="V578">
         <v>1.95</v>
       </c>
-      <c r="S578">
-        <v>1.9</v>
-      </c>
-      <c r="T578">
-        <v>2.25</v>
-      </c>
-      <c r="U578">
-        <v>2</v>
-      </c>
-      <c r="V578">
-        <v>1.85</v>
-      </c>
       <c r="W578">
         <v>-1</v>
       </c>
       <c r="X578">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y578">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z578">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA578">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB578">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC578">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="579" spans="1:29">
@@ -51966,7 +51966,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>6149414</v>
+        <v>6149867</v>
       </c>
       <c r="C579" t="s">
         <v>28</v>
@@ -51978,76 +51978,76 @@
         <v>45114.3125</v>
       </c>
       <c r="F579" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G579" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H579">
         <v>1</v>
       </c>
       <c r="I579">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J579" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K579">
+        <v>2.75</v>
+      </c>
+      <c r="L579">
+        <v>3.1</v>
+      </c>
+      <c r="M579">
+        <v>2.5</v>
+      </c>
+      <c r="N579">
+        <v>3.3</v>
+      </c>
+      <c r="O579">
+        <v>3.1</v>
+      </c>
+      <c r="P579">
+        <v>2.2</v>
+      </c>
+      <c r="Q579">
+        <v>0.25</v>
+      </c>
+      <c r="R579">
+        <v>1.95</v>
+      </c>
+      <c r="S579">
+        <v>1.9</v>
+      </c>
+      <c r="T579">
+        <v>2.25</v>
+      </c>
+      <c r="U579">
+        <v>2</v>
+      </c>
+      <c r="V579">
+        <v>1.85</v>
+      </c>
+      <c r="W579">
+        <v>-1</v>
+      </c>
+      <c r="X579">
         <v>2.1</v>
       </c>
-      <c r="L579">
-        <v>3.4</v>
-      </c>
-      <c r="M579">
-        <v>3.2</v>
-      </c>
-      <c r="N579">
-        <v>2.3</v>
-      </c>
-      <c r="O579">
-        <v>3.3</v>
-      </c>
-      <c r="P579">
-        <v>3</v>
-      </c>
-      <c r="Q579">
-        <v>-0.25</v>
-      </c>
-      <c r="R579">
-        <v>2.05</v>
-      </c>
-      <c r="S579">
-        <v>1.8</v>
-      </c>
-      <c r="T579">
-        <v>2.5</v>
-      </c>
-      <c r="U579">
-        <v>1.9</v>
-      </c>
-      <c r="V579">
-        <v>1.95</v>
-      </c>
-      <c r="W579">
-        <v>-1</v>
-      </c>
-      <c r="X579">
-        <v>-1</v>
-      </c>
       <c r="Y579">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z579">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA579">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB579">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC579">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="580" spans="1:29">
@@ -52678,7 +52678,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>6149381</v>
+        <v>6149872</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52690,73 +52690,73 @@
         <v>45119.3125</v>
       </c>
       <c r="F587" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G587" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I587">
         <v>2</v>
       </c>
       <c r="J587" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K587">
-        <v>3.4</v>
+        <v>1.55</v>
       </c>
       <c r="L587">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M587">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="N587">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="O587">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P587">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q587">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R587">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S587">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T587">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U587">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V587">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W587">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X587">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y587">
         <v>-1</v>
       </c>
       <c r="Z587">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AA587">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB587">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC587">
         <v>-1</v>
@@ -52856,7 +52856,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>6149872</v>
+        <v>6149381</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52868,73 +52868,73 @@
         <v>45119.3125</v>
       </c>
       <c r="F589" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G589" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H589">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I589">
         <v>2</v>
       </c>
       <c r="J589" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K589">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="L589">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M589">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="N589">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="O589">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P589">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q589">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R589">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S589">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T589">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U589">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V589">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W589">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X589">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y589">
         <v>-1</v>
       </c>
       <c r="Z589">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AA589">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB589">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC589">
         <v>-1</v>
@@ -53746,7 +53746,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>6149878</v>
+        <v>6149877</v>
       </c>
       <c r="C599" t="s">
         <v>28</v>
@@ -53758,40 +53758,40 @@
         <v>45129.3125</v>
       </c>
       <c r="F599" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G599" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I599">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J599" t="s">
         <v>46</v>
       </c>
       <c r="K599">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L599">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M599">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N599">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="O599">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P599">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q599">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R599">
         <v>2</v>
@@ -53800,7 +53800,7 @@
         <v>1.85</v>
       </c>
       <c r="T599">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U599">
         <v>1.8</v>
@@ -53815,7 +53815,7 @@
         <v>-1</v>
       </c>
       <c r="Y599">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="Z599">
         <v>-1</v>
@@ -53824,10 +53824,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB599">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC599">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="600" spans="1:29">
@@ -53835,7 +53835,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>6149877</v>
+        <v>6149878</v>
       </c>
       <c r="C600" t="s">
         <v>28</v>
@@ -53847,40 +53847,40 @@
         <v>45129.3125</v>
       </c>
       <c r="F600" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G600" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H600">
+        <v>0</v>
+      </c>
+      <c r="I600">
         <v>1</v>
-      </c>
-      <c r="I600">
-        <v>2</v>
       </c>
       <c r="J600" t="s">
         <v>46</v>
       </c>
       <c r="K600">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L600">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M600">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N600">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O600">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P600">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q600">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R600">
         <v>2</v>
@@ -53889,7 +53889,7 @@
         <v>1.85</v>
       </c>
       <c r="T600">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U600">
         <v>1.8</v>
@@ -53904,7 +53904,7 @@
         <v>-1</v>
       </c>
       <c r="Y600">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="Z600">
         <v>-1</v>
@@ -53913,10 +53913,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB600">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC600">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="601" spans="1:29">
@@ -54013,7 +54013,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>6149879</v>
+        <v>6149880</v>
       </c>
       <c r="C602" t="s">
         <v>28</v>
@@ -54025,73 +54025,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F602" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G602" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H602">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I602">
+        <v>2</v>
+      </c>
+      <c r="J602" t="s">
+        <v>45</v>
+      </c>
+      <c r="K602">
+        <v>2.5</v>
+      </c>
+      <c r="L602">
+        <v>3.2</v>
+      </c>
+      <c r="M602">
+        <v>2.8</v>
+      </c>
+      <c r="N602">
+        <v>2.625</v>
+      </c>
+      <c r="O602">
+        <v>3.3</v>
+      </c>
+      <c r="P602">
+        <v>2.6</v>
+      </c>
+      <c r="Q602">
         <v>0</v>
       </c>
-      <c r="J602" t="s">
-        <v>44</v>
-      </c>
-      <c r="K602">
-        <v>2.15</v>
-      </c>
-      <c r="L602">
-        <v>3.3</v>
-      </c>
-      <c r="M602">
-        <v>3.4</v>
-      </c>
-      <c r="N602">
-        <v>2.2</v>
-      </c>
-      <c r="O602">
-        <v>3</v>
-      </c>
-      <c r="P602">
-        <v>3.6</v>
-      </c>
-      <c r="Q602">
-        <v>-0.25</v>
-      </c>
       <c r="R602">
+        <v>1.95</v>
+      </c>
+      <c r="S602">
         <v>1.9</v>
-      </c>
-      <c r="S602">
-        <v>1.95</v>
       </c>
       <c r="T602">
         <v>2.25</v>
       </c>
       <c r="U602">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V602">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W602">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X602">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y602">
         <v>-1</v>
       </c>
       <c r="Z602">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA602">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB602">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC602">
         <v>-1</v>
@@ -54102,7 +54102,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>6149880</v>
+        <v>6149879</v>
       </c>
       <c r="C603" t="s">
         <v>28</v>
@@ -54114,73 +54114,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F603" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G603" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I603">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J603" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K603">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L603">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M603">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N603">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O603">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P603">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q603">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R603">
+        <v>1.9</v>
+      </c>
+      <c r="S603">
         <v>1.95</v>
-      </c>
-      <c r="S603">
-        <v>1.9</v>
       </c>
       <c r="T603">
         <v>2.25</v>
       </c>
       <c r="U603">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V603">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W603">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X603">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y603">
         <v>-1</v>
       </c>
       <c r="Z603">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA603">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB603">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC603">
         <v>-1</v>
@@ -57751,7 +57751,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>6353261</v>
+        <v>6353260</v>
       </c>
       <c r="C644" t="s">
         <v>28</v>
@@ -57763,76 +57763,76 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F644" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G644" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I644">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J644" t="s">
         <v>45</v>
       </c>
       <c r="K644">
+        <v>2.375</v>
+      </c>
+      <c r="L644">
+        <v>3.5</v>
+      </c>
+      <c r="M644">
+        <v>2.8</v>
+      </c>
+      <c r="N644">
+        <v>2.55</v>
+      </c>
+      <c r="O644">
         <v>3.4</v>
       </c>
-      <c r="L644">
-        <v>3.6</v>
-      </c>
-      <c r="M644">
-        <v>2</v>
-      </c>
-      <c r="N644">
-        <v>3.75</v>
-      </c>
-      <c r="O644">
-        <v>3.8</v>
-      </c>
       <c r="P644">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q644">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R644">
+        <v>1.825</v>
+      </c>
+      <c r="S644">
         <v>2.025</v>
       </c>
-      <c r="S644">
+      <c r="T644">
+        <v>2.5</v>
+      </c>
+      <c r="U644">
+        <v>2.025</v>
+      </c>
+      <c r="V644">
         <v>1.825</v>
       </c>
-      <c r="T644">
-        <v>2.75</v>
-      </c>
-      <c r="U644">
-        <v>1.825</v>
-      </c>
-      <c r="V644">
-        <v>2.025</v>
-      </c>
       <c r="W644">
         <v>-1</v>
       </c>
       <c r="X644">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y644">
         <v>-1</v>
       </c>
       <c r="Z644">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA644">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB644">
         <v>-1</v>
       </c>
       <c r="AC644">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="645" spans="1:29">
@@ -57840,7 +57840,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>6353260</v>
+        <v>6353261</v>
       </c>
       <c r="C645" t="s">
         <v>28</v>
@@ -57852,76 +57852,76 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F645" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G645" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I645">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J645" t="s">
         <v>45</v>
       </c>
       <c r="K645">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="L645">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M645">
+        <v>2</v>
+      </c>
+      <c r="N645">
+        <v>3.75</v>
+      </c>
+      <c r="O645">
+        <v>3.8</v>
+      </c>
+      <c r="P645">
+        <v>1.85</v>
+      </c>
+      <c r="Q645">
+        <v>0.5</v>
+      </c>
+      <c r="R645">
+        <v>2.025</v>
+      </c>
+      <c r="S645">
+        <v>1.825</v>
+      </c>
+      <c r="T645">
+        <v>2.75</v>
+      </c>
+      <c r="U645">
+        <v>1.825</v>
+      </c>
+      <c r="V645">
+        <v>2.025</v>
+      </c>
+      <c r="W645">
+        <v>-1</v>
+      </c>
+      <c r="X645">
         <v>2.8</v>
       </c>
-      <c r="N645">
-        <v>2.55</v>
-      </c>
-      <c r="O645">
-        <v>3.4</v>
-      </c>
-      <c r="P645">
-        <v>2.625</v>
-      </c>
-      <c r="Q645">
-        <v>0</v>
-      </c>
-      <c r="R645">
-        <v>1.825</v>
-      </c>
-      <c r="S645">
-        <v>2.025</v>
-      </c>
-      <c r="T645">
-        <v>2.5</v>
-      </c>
-      <c r="U645">
-        <v>2.025</v>
-      </c>
-      <c r="V645">
-        <v>1.825</v>
-      </c>
-      <c r="W645">
-        <v>-1</v>
-      </c>
-      <c r="X645">
-        <v>2.4</v>
-      </c>
       <c r="Y645">
         <v>-1</v>
       </c>
       <c r="Z645">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA645">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB645">
         <v>-1</v>
       </c>
       <c r="AC645">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="646" spans="1:29">
@@ -59442,7 +59442,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>7333490</v>
+        <v>7334079</v>
       </c>
       <c r="C663" t="s">
         <v>28</v>
@@ -59454,76 +59454,76 @@
         <v>45227.1875</v>
       </c>
       <c r="F663" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G663" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H663">
+        <v>1</v>
+      </c>
+      <c r="I663">
+        <v>1</v>
+      </c>
+      <c r="J663" t="s">
+        <v>45</v>
+      </c>
+      <c r="K663">
+        <v>2.625</v>
+      </c>
+      <c r="L663">
+        <v>3.2</v>
+      </c>
+      <c r="M663">
+        <v>2.7</v>
+      </c>
+      <c r="N663">
+        <v>2.8</v>
+      </c>
+      <c r="O663">
+        <v>3.1</v>
+      </c>
+      <c r="P663">
+        <v>2.6</v>
+      </c>
+      <c r="Q663">
         <v>0</v>
       </c>
-      <c r="I663">
-        <v>2</v>
-      </c>
-      <c r="J663" t="s">
-        <v>46</v>
-      </c>
-      <c r="K663">
-        <v>2.15</v>
-      </c>
-      <c r="L663">
-        <v>3.25</v>
-      </c>
-      <c r="M663">
-        <v>3.4</v>
-      </c>
-      <c r="N663">
-        <v>1.6</v>
-      </c>
-      <c r="O663">
-        <v>3.75</v>
-      </c>
-      <c r="P663">
-        <v>5.75</v>
-      </c>
-      <c r="Q663">
-        <v>-0.75</v>
-      </c>
       <c r="R663">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S663">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T663">
         <v>2.25</v>
       </c>
       <c r="U663">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V663">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W663">
         <v>-1</v>
       </c>
       <c r="X663">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y663">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z663">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA663">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB663">
         <v>-0.5</v>
       </c>
       <c r="AC663">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="664" spans="1:29">
@@ -59531,7 +59531,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>7334079</v>
+        <v>7333490</v>
       </c>
       <c r="C664" t="s">
         <v>28</v>
@@ -59543,76 +59543,76 @@
         <v>45227.1875</v>
       </c>
       <c r="F664" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G664" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I664">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J664" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K664">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L664">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M664">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="N664">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="O664">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P664">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q664">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R664">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S664">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T664">
         <v>2.25</v>
       </c>
       <c r="U664">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V664">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W664">
         <v>-1</v>
       </c>
       <c r="X664">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y664">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z664">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA664">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB664">
         <v>-0.5</v>
       </c>
       <c r="AC664">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="665" spans="1:29">

--- a/South Korea K League 1/South Korea K League 1.xlsx
+++ b/South Korea K League 1/South Korea K League 1.xlsx
@@ -20371,7 +20371,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>4253808</v>
+        <v>4252701</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20383,73 +20383,73 @@
         <v>44534.125</v>
       </c>
       <c r="F224" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G224" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K224">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L224">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M224">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N224">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O224">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P224">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q224">
         <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S224">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T224">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U224">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V224">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W224">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z224">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB224">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC224">
         <v>-1</v>
@@ -20549,7 +20549,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>4252701</v>
+        <v>4253808</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20561,73 +20561,73 @@
         <v>44534.125</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G226" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H226">
+        <v>2</v>
+      </c>
+      <c r="I226">
         <v>1</v>
       </c>
-      <c r="I226">
-        <v>2</v>
-      </c>
       <c r="J226" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K226">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L226">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M226">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N226">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O226">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="P226">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q226">
         <v>-0.25</v>
       </c>
       <c r="R226">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S226">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T226">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U226">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V226">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W226">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X226">
         <v>-1</v>
       </c>
       <c r="Y226">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA226">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB226">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC226">
         <v>-1</v>
@@ -20994,7 +20994,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>4589477</v>
+        <v>4589476</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21006,40 +21006,40 @@
         <v>44611.1875</v>
       </c>
       <c r="F231" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G231" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231">
+        <v>2</v>
+      </c>
+      <c r="J231" t="s">
+        <v>46</v>
+      </c>
+      <c r="K231">
+        <v>2.05</v>
+      </c>
+      <c r="L231">
+        <v>3.25</v>
+      </c>
+      <c r="M231">
+        <v>3.6</v>
+      </c>
+      <c r="N231">
+        <v>2.625</v>
+      </c>
+      <c r="O231">
+        <v>3.1</v>
+      </c>
+      <c r="P231">
+        <v>2.7</v>
+      </c>
+      <c r="Q231">
         <v>0</v>
-      </c>
-      <c r="J231" t="s">
-        <v>44</v>
-      </c>
-      <c r="K231">
-        <v>3.25</v>
-      </c>
-      <c r="L231">
-        <v>3</v>
-      </c>
-      <c r="M231">
-        <v>2.375</v>
-      </c>
-      <c r="N231">
-        <v>3.5</v>
-      </c>
-      <c r="O231">
-        <v>2.9</v>
-      </c>
-      <c r="P231">
-        <v>2.3</v>
-      </c>
-      <c r="Q231">
-        <v>0.25</v>
       </c>
       <c r="R231">
         <v>1.875</v>
@@ -21048,34 +21048,34 @@
         <v>1.975</v>
       </c>
       <c r="T231">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U231">
+        <v>1.95</v>
+      </c>
+      <c r="V231">
         <v>1.9</v>
       </c>
-      <c r="V231">
-        <v>1.95</v>
-      </c>
       <c r="W231">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z231">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC231">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21083,7 +21083,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>4589476</v>
+        <v>4589477</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21095,40 +21095,40 @@
         <v>44611.1875</v>
       </c>
       <c r="F232" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G232" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H232">
+        <v>1</v>
+      </c>
+      <c r="I232">
         <v>0</v>
       </c>
-      <c r="I232">
-        <v>2</v>
-      </c>
       <c r="J232" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K232">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="L232">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M232">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="N232">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="O232">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P232">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="Q232">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R232">
         <v>1.875</v>
@@ -21137,34 +21137,34 @@
         <v>1.975</v>
       </c>
       <c r="T232">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U232">
+        <v>1.9</v>
+      </c>
+      <c r="V232">
         <v>1.95</v>
       </c>
-      <c r="V232">
-        <v>1.9</v>
-      </c>
       <c r="W232">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA232">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB232">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC232">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21172,7 +21172,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>4589479</v>
+        <v>4589478</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21184,49 +21184,49 @@
         <v>44612.08333333334</v>
       </c>
       <c r="F233" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G233" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J233" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K233">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="L233">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M233">
+        <v>2.75</v>
+      </c>
+      <c r="N233">
+        <v>2.25</v>
+      </c>
+      <c r="O233">
         <v>3.2</v>
       </c>
-      <c r="N233">
-        <v>2.4</v>
-      </c>
-      <c r="O233">
-        <v>2.8</v>
-      </c>
       <c r="P233">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q233">
         <v>-0.25</v>
       </c>
       <c r="R233">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S233">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T233">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U233">
         <v>1.825</v>
@@ -21235,25 +21235,25 @@
         <v>2.025</v>
       </c>
       <c r="W233">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X233">
         <v>-1</v>
       </c>
       <c r="Y233">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z233">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA233">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB233">
-        <v>0.4125</v>
+        <v>0.825</v>
       </c>
       <c r="AC233">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21261,7 +21261,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>4589478</v>
+        <v>4589479</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21273,49 +21273,49 @@
         <v>44612.08333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G234" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H234">
+        <v>2</v>
+      </c>
+      <c r="I234">
         <v>0</v>
       </c>
-      <c r="I234">
+      <c r="J234" t="s">
+        <v>44</v>
+      </c>
+      <c r="K234">
+        <v>2.375</v>
+      </c>
+      <c r="L234">
         <v>3</v>
       </c>
-      <c r="J234" t="s">
-        <v>46</v>
-      </c>
-      <c r="K234">
-        <v>2.625</v>
-      </c>
-      <c r="L234">
+      <c r="M234">
         <v>3.2</v>
       </c>
-      <c r="M234">
-        <v>2.75</v>
-      </c>
       <c r="N234">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O234">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P234">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q234">
         <v>-0.25</v>
       </c>
       <c r="R234">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S234">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T234">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U234">
         <v>1.825</v>
@@ -21324,25 +21324,25 @@
         <v>2.025</v>
       </c>
       <c r="W234">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X234">
         <v>-1</v>
       </c>
       <c r="Y234">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z234">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA234">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB234">
-        <v>0.825</v>
+        <v>0.4125</v>
       </c>
       <c r="AC234">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21439,7 +21439,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>4589482</v>
+        <v>4589481</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21451,76 +21451,76 @@
         <v>44618.08333333334</v>
       </c>
       <c r="F236" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G236" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H236">
         <v>1</v>
       </c>
       <c r="I236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K236">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="L236">
         <v>3.2</v>
       </c>
       <c r="M236">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N236">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O236">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P236">
+        <v>2.45</v>
+      </c>
+      <c r="Q236">
+        <v>0</v>
+      </c>
+      <c r="R236">
         <v>2.1</v>
       </c>
-      <c r="Q236">
-        <v>0.25</v>
-      </c>
-      <c r="R236">
-        <v>2.05</v>
-      </c>
       <c r="S236">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T236">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U236">
+        <v>2.1</v>
+      </c>
+      <c r="V236">
         <v>1.775</v>
       </c>
-      <c r="V236">
+      <c r="W236">
         <v>2.1</v>
       </c>
-      <c r="W236">
-        <v>-1</v>
-      </c>
       <c r="X236">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y236">
         <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0.5249999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="AA236">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC236">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21528,7 +21528,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>4589481</v>
+        <v>4589482</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21540,76 +21540,76 @@
         <v>44618.08333333334</v>
       </c>
       <c r="F237" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G237" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H237">
         <v>1</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K237">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="L237">
         <v>3.2</v>
       </c>
       <c r="M237">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="N237">
+        <v>3.6</v>
+      </c>
+      <c r="O237">
         <v>3.1</v>
       </c>
-      <c r="O237">
-        <v>2.875</v>
-      </c>
       <c r="P237">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q237">
+        <v>0.25</v>
+      </c>
+      <c r="R237">
+        <v>2.05</v>
+      </c>
+      <c r="S237">
+        <v>1.8</v>
+      </c>
+      <c r="T237">
+        <v>2</v>
+      </c>
+      <c r="U237">
+        <v>1.775</v>
+      </c>
+      <c r="V237">
+        <v>2.1</v>
+      </c>
+      <c r="W237">
+        <v>-1</v>
+      </c>
+      <c r="X237">
+        <v>2.1</v>
+      </c>
+      <c r="Y237">
+        <v>-1</v>
+      </c>
+      <c r="Z237">
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AA237">
+        <v>-0.5</v>
+      </c>
+      <c r="AB237">
         <v>0</v>
       </c>
-      <c r="R237">
-        <v>2.1</v>
-      </c>
-      <c r="S237">
-        <v>1.775</v>
-      </c>
-      <c r="T237">
-        <v>2.25</v>
-      </c>
-      <c r="U237">
-        <v>2.1</v>
-      </c>
-      <c r="V237">
-        <v>1.775</v>
-      </c>
-      <c r="W237">
-        <v>2.1</v>
-      </c>
-      <c r="X237">
-        <v>-1</v>
-      </c>
-      <c r="Y237">
-        <v>-1</v>
-      </c>
-      <c r="Z237">
-        <v>1.1</v>
-      </c>
-      <c r="AA237">
-        <v>-1</v>
-      </c>
-      <c r="AB237">
-        <v>-1</v>
-      </c>
       <c r="AC237">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21617,7 +21617,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>4589484</v>
+        <v>4589483</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21629,76 +21629,76 @@
         <v>44618.1875</v>
       </c>
       <c r="F238" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G238" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H238">
         <v>0</v>
       </c>
       <c r="I238">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K238">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="L238">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M238">
-        <v>1.833</v>
+        <v>3.6</v>
       </c>
       <c r="N238">
-        <v>5.5</v>
+        <v>2.2</v>
       </c>
       <c r="O238">
         <v>3.2</v>
       </c>
       <c r="P238">
-        <v>1.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q238">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R238">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S238">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T238">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U238">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V238">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y238">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA238">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
       <c r="AB238">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC238">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21706,7 +21706,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>4589483</v>
+        <v>4589484</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21718,76 +21718,76 @@
         <v>44618.1875</v>
       </c>
       <c r="F239" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G239" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H239">
         <v>0</v>
       </c>
       <c r="I239">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K239">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="L239">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M239">
-        <v>3.6</v>
+        <v>1.833</v>
       </c>
       <c r="N239">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="O239">
         <v>3.2</v>
       </c>
       <c r="P239">
-        <v>3.4</v>
+        <v>1.75</v>
       </c>
       <c r="Q239">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R239">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S239">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T239">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U239">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V239">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W239">
         <v>-1</v>
       </c>
       <c r="X239">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z239">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA239">
-        <v>0.475</v>
+        <v>0.8</v>
       </c>
       <c r="AB239">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC239">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -25711,7 +25711,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>4589372</v>
+        <v>4589521</v>
       </c>
       <c r="C284" t="s">
         <v>28</v>
@@ -25723,76 +25723,76 @@
         <v>44686.08333333334</v>
       </c>
       <c r="F284" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G284" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H284">
         <v>1</v>
       </c>
       <c r="I284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J284" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K284">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="L284">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M284">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="N284">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="O284">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P284">
-        <v>3.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q284">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R284">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S284">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T284">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U284">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V284">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W284">
         <v>-1</v>
       </c>
       <c r="X284">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y284">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z284">
         <v>-1</v>
       </c>
       <c r="AA284">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB284">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC284">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="285" spans="1:29">
@@ -25800,7 +25800,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>4589521</v>
+        <v>4589372</v>
       </c>
       <c r="C285" t="s">
         <v>28</v>
@@ -25812,76 +25812,76 @@
         <v>44686.08333333334</v>
       </c>
       <c r="F285" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G285" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H285">
         <v>1</v>
       </c>
       <c r="I285">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J285" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K285">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="L285">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M285">
+        <v>5</v>
+      </c>
+      <c r="N285">
+        <v>1.909</v>
+      </c>
+      <c r="O285">
+        <v>3.4</v>
+      </c>
+      <c r="P285">
+        <v>3.8</v>
+      </c>
+      <c r="Q285">
+        <v>-0.5</v>
+      </c>
+      <c r="R285">
+        <v>1.95</v>
+      </c>
+      <c r="S285">
+        <v>1.9</v>
+      </c>
+      <c r="T285">
         <v>2.25</v>
       </c>
-      <c r="N285">
-        <v>4.2</v>
-      </c>
-      <c r="O285">
-        <v>3.2</v>
-      </c>
-      <c r="P285">
-        <v>1.95</v>
-      </c>
-      <c r="Q285">
-        <v>0.5</v>
-      </c>
-      <c r="R285">
-        <v>1.875</v>
-      </c>
-      <c r="S285">
-        <v>1.975</v>
-      </c>
-      <c r="T285">
-        <v>2</v>
-      </c>
       <c r="U285">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V285">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W285">
         <v>-1</v>
       </c>
       <c r="X285">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y285">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z285">
         <v>-1</v>
       </c>
       <c r="AA285">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB285">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC285">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="286" spans="1:29">
@@ -26067,7 +26067,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>4589525</v>
+        <v>4589524</v>
       </c>
       <c r="C288" t="s">
         <v>28</v>
@@ -26079,76 +26079,76 @@
         <v>44686.29166666666</v>
       </c>
       <c r="F288" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G288" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I288">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J288" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K288">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L288">
         <v>3</v>
       </c>
       <c r="M288">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="N288">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="O288">
         <v>3.2</v>
       </c>
       <c r="P288">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q288">
         <v>-0.25</v>
       </c>
       <c r="R288">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S288">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T288">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U288">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V288">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W288">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X288">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y288">
         <v>-1</v>
       </c>
       <c r="Z288">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA288">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB288">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC288">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:29">
@@ -26156,7 +26156,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>4589524</v>
+        <v>4589525</v>
       </c>
       <c r="C289" t="s">
         <v>28</v>
@@ -26168,76 +26168,76 @@
         <v>44686.29166666666</v>
       </c>
       <c r="F289" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G289" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J289" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K289">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L289">
         <v>3</v>
       </c>
       <c r="M289">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="N289">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O289">
         <v>3.2</v>
       </c>
       <c r="P289">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q289">
         <v>-0.25</v>
       </c>
       <c r="R289">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S289">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T289">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U289">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V289">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W289">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X289">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y289">
         <v>-1</v>
       </c>
       <c r="Z289">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA289">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB289">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC289">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="290" spans="1:29">
@@ -26423,7 +26423,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>4589527</v>
+        <v>4589373</v>
       </c>
       <c r="C292" t="s">
         <v>28</v>
@@ -26435,76 +26435,76 @@
         <v>44689.1875</v>
       </c>
       <c r="F292" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G292" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H292">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292">
         <v>1</v>
       </c>
       <c r="J292" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K292">
+        <v>3.4</v>
+      </c>
+      <c r="L292">
+        <v>3</v>
+      </c>
+      <c r="M292">
+        <v>2.3</v>
+      </c>
+      <c r="N292">
+        <v>3.2</v>
+      </c>
+      <c r="O292">
+        <v>3.1</v>
+      </c>
+      <c r="P292">
         <v>2.375</v>
       </c>
-      <c r="L292">
-        <v>3.1</v>
-      </c>
-      <c r="M292">
-        <v>3.25</v>
-      </c>
-      <c r="N292">
-        <v>2</v>
-      </c>
-      <c r="O292">
-        <v>3.4</v>
-      </c>
-      <c r="P292">
-        <v>3.8</v>
-      </c>
       <c r="Q292">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R292">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S292">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T292">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U292">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V292">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W292">
+        <v>-1</v>
+      </c>
+      <c r="X292">
+        <v>-1</v>
+      </c>
+      <c r="Y292">
+        <v>1.375</v>
+      </c>
+      <c r="Z292">
+        <v>-1</v>
+      </c>
+      <c r="AA292">
         <v>1</v>
       </c>
-      <c r="X292">
-        <v>-1</v>
-      </c>
-      <c r="Y292">
-        <v>-1</v>
-      </c>
-      <c r="Z292">
-        <v>1.05</v>
-      </c>
-      <c r="AA292">
-        <v>-1</v>
-      </c>
       <c r="AB292">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC292">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="293" spans="1:29">
@@ -26512,7 +26512,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>4589373</v>
+        <v>4589527</v>
       </c>
       <c r="C293" t="s">
         <v>28</v>
@@ -26524,76 +26524,76 @@
         <v>44689.1875</v>
       </c>
       <c r="F293" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G293" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I293">
         <v>1</v>
       </c>
       <c r="J293" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K293">
+        <v>2.375</v>
+      </c>
+      <c r="L293">
+        <v>3.1</v>
+      </c>
+      <c r="M293">
+        <v>3.25</v>
+      </c>
+      <c r="N293">
+        <v>2</v>
+      </c>
+      <c r="O293">
         <v>3.4</v>
       </c>
-      <c r="L293">
-        <v>3</v>
-      </c>
-      <c r="M293">
-        <v>2.3</v>
-      </c>
-      <c r="N293">
-        <v>3.2</v>
-      </c>
-      <c r="O293">
-        <v>3.1</v>
-      </c>
       <c r="P293">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="Q293">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R293">
+        <v>2.05</v>
+      </c>
+      <c r="S293">
+        <v>1.8</v>
+      </c>
+      <c r="T293">
+        <v>2.5</v>
+      </c>
+      <c r="U293">
         <v>1.85</v>
       </c>
-      <c r="S293">
-        <v>2</v>
-      </c>
-      <c r="T293">
-        <v>2.25</v>
-      </c>
-      <c r="U293">
-        <v>1.925</v>
-      </c>
       <c r="V293">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W293">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X293">
         <v>-1</v>
       </c>
       <c r="Y293">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z293">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA293">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB293">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC293">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="294" spans="1:29">
@@ -26868,7 +26868,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>4589532</v>
+        <v>4589531</v>
       </c>
       <c r="C297" t="s">
         <v>28</v>
@@ -26880,49 +26880,49 @@
         <v>44695.29166666666</v>
       </c>
       <c r="F297" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G297" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I297">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J297" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K297">
+        <v>1.75</v>
+      </c>
+      <c r="L297">
+        <v>3.3</v>
+      </c>
+      <c r="M297">
+        <v>5.25</v>
+      </c>
+      <c r="N297">
+        <v>1.6</v>
+      </c>
+      <c r="O297">
+        <v>3.75</v>
+      </c>
+      <c r="P297">
+        <v>6.5</v>
+      </c>
+      <c r="Q297">
+        <v>-0.75</v>
+      </c>
+      <c r="R297">
+        <v>1.8</v>
+      </c>
+      <c r="S297">
         <v>2.05</v>
       </c>
-      <c r="L297">
-        <v>3.2</v>
-      </c>
-      <c r="M297">
-        <v>3.8</v>
-      </c>
-      <c r="N297">
-        <v>2.375</v>
-      </c>
-      <c r="O297">
-        <v>2.875</v>
-      </c>
-      <c r="P297">
-        <v>3.4</v>
-      </c>
-      <c r="Q297">
-        <v>-0.25</v>
-      </c>
-      <c r="R297">
-        <v>1.975</v>
-      </c>
-      <c r="S297">
-        <v>1.875</v>
-      </c>
       <c r="T297">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U297">
         <v>1.9</v>
@@ -26931,25 +26931,25 @@
         <v>1.95</v>
       </c>
       <c r="W297">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X297">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y297">
         <v>-1</v>
       </c>
       <c r="Z297">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA297">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB297">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC297">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="298" spans="1:29">
@@ -26957,7 +26957,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>4589531</v>
+        <v>4589532</v>
       </c>
       <c r="C298" t="s">
         <v>28</v>
@@ -26969,49 +26969,49 @@
         <v>44695.29166666666</v>
       </c>
       <c r="F298" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G298" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J298" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K298">
+        <v>2.05</v>
+      </c>
+      <c r="L298">
+        <v>3.2</v>
+      </c>
+      <c r="M298">
+        <v>3.8</v>
+      </c>
+      <c r="N298">
+        <v>2.375</v>
+      </c>
+      <c r="O298">
+        <v>2.875</v>
+      </c>
+      <c r="P298">
+        <v>3.4</v>
+      </c>
+      <c r="Q298">
+        <v>-0.25</v>
+      </c>
+      <c r="R298">
+        <v>1.975</v>
+      </c>
+      <c r="S298">
+        <v>1.875</v>
+      </c>
+      <c r="T298">
         <v>1.75</v>
-      </c>
-      <c r="L298">
-        <v>3.3</v>
-      </c>
-      <c r="M298">
-        <v>5.25</v>
-      </c>
-      <c r="N298">
-        <v>1.6</v>
-      </c>
-      <c r="O298">
-        <v>3.75</v>
-      </c>
-      <c r="P298">
-        <v>6.5</v>
-      </c>
-      <c r="Q298">
-        <v>-0.75</v>
-      </c>
-      <c r="R298">
-        <v>1.8</v>
-      </c>
-      <c r="S298">
-        <v>2.05</v>
-      </c>
-      <c r="T298">
-        <v>2.25</v>
       </c>
       <c r="U298">
         <v>1.9</v>
@@ -27020,25 +27020,25 @@
         <v>1.95</v>
       </c>
       <c r="W298">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X298">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y298">
         <v>-1</v>
       </c>
       <c r="Z298">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA298">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB298">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC298">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="299" spans="1:29">
@@ -29538,7 +29538,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>4589556</v>
+        <v>4589555</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29550,58 +29550,58 @@
         <v>44733.3125</v>
       </c>
       <c r="F327" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G327" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J327" t="s">
         <v>44</v>
       </c>
       <c r="K327">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L327">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M327">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N327">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="O327">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P327">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="Q327">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R327">
+        <v>1.775</v>
+      </c>
+      <c r="S327">
+        <v>2.1</v>
+      </c>
+      <c r="T327">
+        <v>2.25</v>
+      </c>
+      <c r="U327">
         <v>1.8</v>
       </c>
-      <c r="S327">
+      <c r="V327">
         <v>2.05</v>
       </c>
-      <c r="T327">
-        <v>2.5</v>
-      </c>
-      <c r="U327">
-        <v>2.025</v>
-      </c>
-      <c r="V327">
-        <v>1.825</v>
-      </c>
       <c r="W327">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="X327">
         <v>-1</v>
@@ -29610,16 +29610,16 @@
         <v>-1</v>
       </c>
       <c r="Z327">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA327">
         <v>-1</v>
       </c>
       <c r="AB327">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC327">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -29627,7 +29627,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>4589555</v>
+        <v>4589556</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29639,58 +29639,58 @@
         <v>44733.3125</v>
       </c>
       <c r="F328" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G328" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H328">
+        <v>2</v>
+      </c>
+      <c r="I328">
         <v>1</v>
-      </c>
-      <c r="I328">
-        <v>0</v>
       </c>
       <c r="J328" t="s">
         <v>44</v>
       </c>
       <c r="K328">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L328">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M328">
+        <v>2.15</v>
+      </c>
+      <c r="N328">
+        <v>3.5</v>
+      </c>
+      <c r="O328">
+        <v>3.4</v>
+      </c>
+      <c r="P328">
+        <v>1.95</v>
+      </c>
+      <c r="Q328">
+        <v>0.5</v>
+      </c>
+      <c r="R328">
+        <v>1.8</v>
+      </c>
+      <c r="S328">
+        <v>2.05</v>
+      </c>
+      <c r="T328">
         <v>2.5</v>
       </c>
-      <c r="N328">
-        <v>2.45</v>
-      </c>
-      <c r="O328">
-        <v>3</v>
-      </c>
-      <c r="P328">
-        <v>2.875</v>
-      </c>
-      <c r="Q328">
-        <v>0</v>
-      </c>
-      <c r="R328">
-        <v>1.775</v>
-      </c>
-      <c r="S328">
-        <v>2.1</v>
-      </c>
-      <c r="T328">
-        <v>2.25</v>
-      </c>
       <c r="U328">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V328">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W328">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="X328">
         <v>-1</v>
@@ -29699,16 +29699,16 @@
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA328">
         <v>-1</v>
       </c>
       <c r="AB328">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC328">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -31051,7 +31051,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>4589569</v>
+        <v>4589570</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31063,73 +31063,73 @@
         <v>44747.29166666666</v>
       </c>
       <c r="F344" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G344" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I344">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J344" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K344">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L344">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M344">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="N344">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="O344">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P344">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="Q344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R344">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S344">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T344">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U344">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V344">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W344">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X344">
         <v>-1</v>
       </c>
       <c r="Y344">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z344">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA344">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB344">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC344">
         <v>-1</v>
@@ -31140,7 +31140,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>4589570</v>
+        <v>4589569</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31152,73 +31152,73 @@
         <v>44747.29166666666</v>
       </c>
       <c r="F345" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G345" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H345">
+        <v>1</v>
+      </c>
+      <c r="I345">
         <v>4</v>
       </c>
-      <c r="I345">
-        <v>0</v>
-      </c>
       <c r="J345" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K345">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L345">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M345">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="N345">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="O345">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P345">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="Q345">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R345">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S345">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T345">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U345">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V345">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W345">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X345">
         <v>-1</v>
       </c>
       <c r="Y345">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z345">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA345">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB345">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC345">
         <v>-1</v>
@@ -31585,7 +31585,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>4589573</v>
+        <v>4589574</v>
       </c>
       <c r="C350" t="s">
         <v>28</v>
@@ -31597,10 +31597,10 @@
         <v>44750.3125</v>
       </c>
       <c r="F350" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G350" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H350">
         <v>3</v>
@@ -31612,43 +31612,43 @@
         <v>44</v>
       </c>
       <c r="K350">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="L350">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M350">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N350">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="O350">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P350">
-        <v>5.5</v>
+        <v>2.7</v>
       </c>
       <c r="Q350">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R350">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S350">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T350">
         <v>2.5</v>
       </c>
       <c r="U350">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V350">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W350">
-        <v>0.6000000000000001</v>
+        <v>1.55</v>
       </c>
       <c r="X350">
         <v>-1</v>
@@ -31657,13 +31657,13 @@
         <v>-1</v>
       </c>
       <c r="Z350">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA350">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB350">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC350">
         <v>-1</v>
@@ -31674,7 +31674,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>4589574</v>
+        <v>4589573</v>
       </c>
       <c r="C351" t="s">
         <v>28</v>
@@ -31686,10 +31686,10 @@
         <v>44750.3125</v>
       </c>
       <c r="F351" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G351" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H351">
         <v>3</v>
@@ -31701,43 +31701,43 @@
         <v>44</v>
       </c>
       <c r="K351">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="L351">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M351">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="N351">
-        <v>2.55</v>
+        <v>1.6</v>
       </c>
       <c r="O351">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P351">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="Q351">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R351">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S351">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T351">
         <v>2.5</v>
       </c>
       <c r="U351">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V351">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W351">
-        <v>1.55</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X351">
         <v>-1</v>
@@ -31746,13 +31746,13 @@
         <v>-1</v>
       </c>
       <c r="Z351">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA351">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB351">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC351">
         <v>-1</v>
@@ -31941,7 +31941,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>4589576</v>
+        <v>4589577</v>
       </c>
       <c r="C354" t="s">
         <v>28</v>
@@ -31953,58 +31953,58 @@
         <v>44752.29166666666</v>
       </c>
       <c r="F354" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G354" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H354">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I354">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J354" t="s">
         <v>44</v>
       </c>
       <c r="K354">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="L354">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M354">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N354">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="O354">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P354">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q354">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R354">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S354">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T354">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U354">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V354">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W354">
-        <v>1.55</v>
+        <v>0.833</v>
       </c>
       <c r="X354">
         <v>-1</v>
@@ -32013,16 +32013,16 @@
         <v>-1</v>
       </c>
       <c r="Z354">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA354">
         <v>-1</v>
       </c>
       <c r="AB354">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC354">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="355" spans="1:29">
@@ -32030,7 +32030,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>4589577</v>
+        <v>4589576</v>
       </c>
       <c r="C355" t="s">
         <v>28</v>
@@ -32042,58 +32042,58 @@
         <v>44752.29166666666</v>
       </c>
       <c r="F355" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G355" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I355">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J355" t="s">
         <v>44</v>
       </c>
       <c r="K355">
+        <v>2.875</v>
+      </c>
+      <c r="L355">
+        <v>3.25</v>
+      </c>
+      <c r="M355">
+        <v>2.375</v>
+      </c>
+      <c r="N355">
+        <v>2.55</v>
+      </c>
+      <c r="O355">
+        <v>3.2</v>
+      </c>
+      <c r="P355">
+        <v>2.625</v>
+      </c>
+      <c r="Q355">
+        <v>0</v>
+      </c>
+      <c r="R355">
         <v>1.85</v>
       </c>
-      <c r="L355">
-        <v>3.3</v>
-      </c>
-      <c r="M355">
-        <v>4</v>
-      </c>
-      <c r="N355">
-        <v>1.833</v>
-      </c>
-      <c r="O355">
-        <v>3.3</v>
-      </c>
-      <c r="P355">
-        <v>4.2</v>
-      </c>
-      <c r="Q355">
-        <v>-0.5</v>
-      </c>
-      <c r="R355">
-        <v>1.925</v>
-      </c>
       <c r="S355">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T355">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U355">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V355">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W355">
-        <v>0.833</v>
+        <v>1.55</v>
       </c>
       <c r="X355">
         <v>-1</v>
@@ -32102,16 +32102,16 @@
         <v>-1</v>
       </c>
       <c r="Z355">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA355">
         <v>-1</v>
       </c>
       <c r="AB355">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC355">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="356" spans="1:29">
@@ -32119,7 +32119,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>4589578</v>
+        <v>4589384</v>
       </c>
       <c r="C356" t="s">
         <v>28</v>
@@ -32131,58 +32131,58 @@
         <v>44758.25</v>
       </c>
       <c r="F356" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G356" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I356">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J356" t="s">
         <v>44</v>
       </c>
       <c r="K356">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="L356">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M356">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="N356">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="O356">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="P356">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="Q356">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R356">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S356">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T356">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U356">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V356">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W356">
-        <v>0.6659999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X356">
         <v>-1</v>
@@ -32191,13 +32191,13 @@
         <v>-1</v>
       </c>
       <c r="Z356">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA356">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB356">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC356">
         <v>-1</v>
@@ -32297,7 +32297,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>4589384</v>
+        <v>4589578</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32309,58 +32309,58 @@
         <v>44758.25</v>
       </c>
       <c r="F358" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G358" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H358">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I358">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J358" t="s">
         <v>44</v>
       </c>
       <c r="K358">
-        <v>1.533</v>
+        <v>1.666</v>
       </c>
       <c r="L358">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M358">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="N358">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="O358">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P358">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Q358">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R358">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S358">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T358">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U358">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V358">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W358">
-        <v>0.5</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X358">
         <v>-1</v>
@@ -32369,13 +32369,13 @@
         <v>-1</v>
       </c>
       <c r="Z358">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA358">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB358">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC358">
         <v>-1</v>
@@ -32653,7 +32653,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>4589624</v>
+        <v>4589387</v>
       </c>
       <c r="C362" t="s">
         <v>28</v>
@@ -32665,58 +32665,58 @@
         <v>44772.29166666666</v>
       </c>
       <c r="F362" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G362" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I362">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J362" t="s">
         <v>44</v>
       </c>
       <c r="K362">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="L362">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M362">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="N362">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="O362">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P362">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q362">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R362">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S362">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T362">
         <v>2.75</v>
       </c>
       <c r="U362">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V362">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W362">
-        <v>0.571</v>
+        <v>1.2</v>
       </c>
       <c r="X362">
         <v>-1</v>
@@ -32725,16 +32725,16 @@
         <v>-1</v>
       </c>
       <c r="Z362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA362">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB362">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC362">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:29">
@@ -32742,7 +32742,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>4589387</v>
+        <v>4589624</v>
       </c>
       <c r="C363" t="s">
         <v>28</v>
@@ -32754,58 +32754,58 @@
         <v>44772.29166666666</v>
       </c>
       <c r="F363" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G363" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H363">
+        <v>2</v>
+      </c>
+      <c r="I363">
         <v>1</v>
-      </c>
-      <c r="I363">
-        <v>0</v>
       </c>
       <c r="J363" t="s">
         <v>44</v>
       </c>
       <c r="K363">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L363">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M363">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="N363">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="O363">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P363">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q363">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R363">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S363">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T363">
         <v>2.75</v>
       </c>
       <c r="U363">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V363">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W363">
-        <v>1.2</v>
+        <v>0.571</v>
       </c>
       <c r="X363">
         <v>-1</v>
@@ -32814,16 +32814,16 @@
         <v>-1</v>
       </c>
       <c r="Z363">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA363">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB363">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC363">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="364" spans="1:29">
@@ -33543,7 +33543,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>4589388</v>
+        <v>4589600</v>
       </c>
       <c r="C372" t="s">
         <v>28</v>
@@ -33555,49 +33555,49 @@
         <v>44776.3125</v>
       </c>
       <c r="F372" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G372" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I372">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J372" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K372">
-        <v>3.5</v>
+        <v>2.15</v>
       </c>
       <c r="L372">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M372">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="N372">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="O372">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P372">
-        <v>2.875</v>
+        <v>4.5</v>
       </c>
       <c r="Q372">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R372">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S372">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T372">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U372">
         <v>1.925</v>
@@ -33606,19 +33606,19 @@
         <v>1.925</v>
       </c>
       <c r="W372">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X372">
         <v>-1</v>
       </c>
       <c r="Y372">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z372">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA372">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB372">
         <v>0.925</v>
@@ -33632,7 +33632,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>4589600</v>
+        <v>4589388</v>
       </c>
       <c r="C373" t="s">
         <v>28</v>
@@ -33644,49 +33644,49 @@
         <v>44776.3125</v>
       </c>
       <c r="F373" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G373" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H373">
+        <v>2</v>
+      </c>
+      <c r="I373">
         <v>1</v>
       </c>
-      <c r="I373">
-        <v>2</v>
-      </c>
       <c r="J373" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K373">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="L373">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M373">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="N373">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O373">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P373">
-        <v>4.5</v>
+        <v>2.875</v>
       </c>
       <c r="Q373">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R373">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S373">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T373">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U373">
         <v>1.925</v>
@@ -33695,19 +33695,19 @@
         <v>1.925</v>
       </c>
       <c r="W373">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X373">
         <v>-1</v>
       </c>
       <c r="Y373">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z373">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA373">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB373">
         <v>0.925</v>
@@ -37993,7 +37993,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>4742626</v>
+        <v>4742625</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38005,73 +38005,73 @@
         <v>44822.125</v>
       </c>
       <c r="F422" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G422" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H422">
         <v>2</v>
       </c>
       <c r="I422">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J422" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K422">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="L422">
         <v>3.25</v>
       </c>
       <c r="M422">
+        <v>2</v>
+      </c>
+      <c r="N422">
+        <v>3.1</v>
+      </c>
+      <c r="O422">
+        <v>3.3</v>
+      </c>
+      <c r="P422">
+        <v>2.05</v>
+      </c>
+      <c r="Q422">
+        <v>0.25</v>
+      </c>
+      <c r="R422">
+        <v>1.975</v>
+      </c>
+      <c r="S422">
+        <v>1.875</v>
+      </c>
+      <c r="T422">
         <v>2.5</v>
       </c>
-      <c r="N422">
-        <v>2.55</v>
-      </c>
-      <c r="O422">
-        <v>3.1</v>
-      </c>
-      <c r="P422">
-        <v>2.55</v>
-      </c>
-      <c r="Q422">
-        <v>0</v>
-      </c>
-      <c r="R422">
+      <c r="U422">
+        <v>1.9</v>
+      </c>
+      <c r="V422">
         <v>1.95</v>
       </c>
-      <c r="S422">
-        <v>1.9</v>
-      </c>
-      <c r="T422">
-        <v>2.25</v>
-      </c>
-      <c r="U422">
-        <v>1.925</v>
-      </c>
-      <c r="V422">
-        <v>1.925</v>
-      </c>
       <c r="W422">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X422">
         <v>-1</v>
       </c>
       <c r="Y422">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z422">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA422">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB422">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC422">
         <v>-1</v>
@@ -38082,7 +38082,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>4742625</v>
+        <v>4742626</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38094,73 +38094,73 @@
         <v>44822.125</v>
       </c>
       <c r="F423" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G423" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H423">
         <v>2</v>
       </c>
       <c r="I423">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J423" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K423">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="L423">
         <v>3.25</v>
       </c>
       <c r="M423">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N423">
+        <v>2.55</v>
+      </c>
+      <c r="O423">
         <v>3.1</v>
       </c>
-      <c r="O423">
-        <v>3.3</v>
-      </c>
       <c r="P423">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="Q423">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R423">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S423">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T423">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U423">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V423">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W423">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X423">
         <v>-1</v>
       </c>
       <c r="Y423">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z423">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA423">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB423">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC423">
         <v>-1</v>
@@ -39862,7 +39862,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>5656527</v>
+        <v>5656544</v>
       </c>
       <c r="C443" t="s">
         <v>28</v>
@@ -39874,49 +39874,49 @@
         <v>44846.3125</v>
       </c>
       <c r="F443" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G443" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H443">
         <v>1</v>
       </c>
       <c r="I443">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J443" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K443">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="L443">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M443">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N443">
+        <v>2.15</v>
+      </c>
+      <c r="O443">
+        <v>3.3</v>
+      </c>
+      <c r="P443">
+        <v>3.2</v>
+      </c>
+      <c r="Q443">
+        <v>-0.25</v>
+      </c>
+      <c r="R443">
+        <v>1.9</v>
+      </c>
+      <c r="S443">
+        <v>1.95</v>
+      </c>
+      <c r="T443">
         <v>2.5</v>
-      </c>
-      <c r="O443">
-        <v>3.1</v>
-      </c>
-      <c r="P443">
-        <v>2.75</v>
-      </c>
-      <c r="Q443">
-        <v>0</v>
-      </c>
-      <c r="R443">
-        <v>1.8</v>
-      </c>
-      <c r="S443">
-        <v>2.05</v>
-      </c>
-      <c r="T443">
-        <v>2.25</v>
       </c>
       <c r="U443">
         <v>1.975</v>
@@ -39928,22 +39928,22 @@
         <v>-1</v>
       </c>
       <c r="X443">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y443">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z443">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA443">
-        <v>1.05</v>
+        <v>0.475</v>
       </c>
       <c r="AB443">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC443">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="444" spans="1:29">
@@ -40040,7 +40040,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>5656544</v>
+        <v>5656527</v>
       </c>
       <c r="C445" t="s">
         <v>28</v>
@@ -40052,49 +40052,49 @@
         <v>44846.3125</v>
       </c>
       <c r="F445" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G445" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H445">
         <v>1</v>
       </c>
       <c r="I445">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J445" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K445">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L445">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M445">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="N445">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O445">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P445">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q445">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R445">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S445">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T445">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U445">
         <v>1.975</v>
@@ -40106,22 +40106,22 @@
         <v>-1</v>
       </c>
       <c r="X445">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y445">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z445">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA445">
-        <v>0.475</v>
+        <v>1.05</v>
       </c>
       <c r="AB445">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC445">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="446" spans="1:29">
@@ -40752,7 +40752,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>5656531</v>
+        <v>5656549</v>
       </c>
       <c r="C453" t="s">
         <v>28</v>
@@ -40764,76 +40764,76 @@
         <v>44856.125</v>
       </c>
       <c r="F453" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G453" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I453">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J453" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K453">
         <v>3</v>
       </c>
       <c r="L453">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M453">
+        <v>2.15</v>
+      </c>
+      <c r="N453">
         <v>2.25</v>
-      </c>
-      <c r="N453">
-        <v>3.1</v>
       </c>
       <c r="O453">
         <v>3.4</v>
       </c>
       <c r="P453">
-        <v>2.15</v>
+        <v>2.875</v>
       </c>
       <c r="Q453">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R453">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S453">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T453">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U453">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V453">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W453">
         <v>-1</v>
       </c>
       <c r="X453">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y453">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z453">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA453">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AB453">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC453">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="454" spans="1:29">
@@ -40841,7 +40841,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>5656549</v>
+        <v>5656531</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40853,76 +40853,76 @@
         <v>44856.125</v>
       </c>
       <c r="F454" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G454" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H454">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I454">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J454" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K454">
         <v>3</v>
       </c>
       <c r="L454">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M454">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="N454">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="O454">
         <v>3.4</v>
       </c>
       <c r="P454">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="Q454">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R454">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S454">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T454">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U454">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V454">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W454">
         <v>-1</v>
       </c>
       <c r="X454">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y454">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z454">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA454">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB454">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC454">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="455" spans="1:29">
@@ -45469,7 +45469,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>6149474</v>
+        <v>6149827</v>
       </c>
       <c r="C506" t="s">
         <v>28</v>
@@ -45481,76 +45481,76 @@
         <v>45041.3125</v>
       </c>
       <c r="F506" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G506" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H506">
+        <v>1</v>
+      </c>
+      <c r="I506">
         <v>0</v>
       </c>
-      <c r="I506">
-        <v>1</v>
-      </c>
       <c r="J506" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K506">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="L506">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M506">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N506">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="O506">
         <v>3.75</v>
       </c>
       <c r="P506">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q506">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R506">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S506">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T506">
         <v>2.5</v>
       </c>
       <c r="U506">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V506">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W506">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X506">
         <v>-1</v>
       </c>
       <c r="Y506">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z506">
+        <v>0.4875</v>
+      </c>
+      <c r="AA506">
         <v>-0.5</v>
       </c>
-      <c r="AA506">
-        <v>0.475</v>
-      </c>
       <c r="AB506">
         <v>-1</v>
       </c>
       <c r="AC506">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="507" spans="1:29">
@@ -45558,7 +45558,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>6149827</v>
+        <v>6149474</v>
       </c>
       <c r="C507" t="s">
         <v>28</v>
@@ -45570,76 +45570,76 @@
         <v>45041.3125</v>
       </c>
       <c r="F507" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G507" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H507">
+        <v>0</v>
+      </c>
+      <c r="I507">
         <v>1</v>
       </c>
-      <c r="I507">
-        <v>0</v>
-      </c>
       <c r="J507" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K507">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="L507">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M507">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N507">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O507">
         <v>3.75</v>
       </c>
       <c r="P507">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q507">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R507">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S507">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T507">
         <v>2.5</v>
       </c>
       <c r="U507">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V507">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W507">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X507">
         <v>-1</v>
       </c>
       <c r="Y507">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z507">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA507">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB507">
         <v>-1</v>
       </c>
       <c r="AC507">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="508" spans="1:29">
@@ -46537,7 +46537,7 @@
         <v>516</v>
       </c>
       <c r="B518">
-        <v>6149370</v>
+        <v>6149405</v>
       </c>
       <c r="C518" t="s">
         <v>28</v>
@@ -46549,76 +46549,76 @@
         <v>45051.08333333334</v>
       </c>
       <c r="F518" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G518" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H518">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I518">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J518" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K518">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L518">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M518">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N518">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="O518">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P518">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q518">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R518">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S518">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T518">
         <v>2.5</v>
       </c>
       <c r="U518">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V518">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W518">
         <v>-1</v>
       </c>
       <c r="X518">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y518">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z518">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA518">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB518">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC518">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="519" spans="1:29">
@@ -46626,7 +46626,7 @@
         <v>517</v>
       </c>
       <c r="B519">
-        <v>6149405</v>
+        <v>6149370</v>
       </c>
       <c r="C519" t="s">
         <v>28</v>
@@ -46638,76 +46638,76 @@
         <v>45051.08333333334</v>
       </c>
       <c r="F519" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G519" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I519">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J519" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K519">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L519">
+        <v>3.25</v>
+      </c>
+      <c r="M519">
+        <v>2.5</v>
+      </c>
+      <c r="N519">
+        <v>2.1</v>
+      </c>
+      <c r="O519">
         <v>3.4</v>
       </c>
-      <c r="M519">
-        <v>1.85</v>
-      </c>
-      <c r="N519">
-        <v>3.5</v>
-      </c>
-      <c r="O519">
-        <v>3.5</v>
-      </c>
       <c r="P519">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q519">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R519">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S519">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T519">
         <v>2.5</v>
       </c>
       <c r="U519">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V519">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W519">
         <v>-1</v>
       </c>
       <c r="X519">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y519">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z519">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA519">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB519">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC519">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="520" spans="1:29">
@@ -47338,7 +47338,7 @@
         <v>525</v>
       </c>
       <c r="B527">
-        <v>6149371</v>
+        <v>6149839</v>
       </c>
       <c r="C527" t="s">
         <v>28</v>
@@ -47350,76 +47350,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F527" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G527" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H527">
+        <v>2</v>
+      </c>
+      <c r="I527">
+        <v>1</v>
+      </c>
+      <c r="J527" t="s">
+        <v>44</v>
+      </c>
+      <c r="K527">
+        <v>2</v>
+      </c>
+      <c r="L527">
+        <v>3.4</v>
+      </c>
+      <c r="M527">
+        <v>3.4</v>
+      </c>
+      <c r="N527">
+        <v>2.1</v>
+      </c>
+      <c r="O527">
+        <v>3.5</v>
+      </c>
+      <c r="P527">
+        <v>3.4</v>
+      </c>
+      <c r="Q527">
+        <v>-0.25</v>
+      </c>
+      <c r="R527">
+        <v>1.8</v>
+      </c>
+      <c r="S527">
+        <v>2.05</v>
+      </c>
+      <c r="T527">
+        <v>3</v>
+      </c>
+      <c r="U527">
+        <v>2.025</v>
+      </c>
+      <c r="V527">
+        <v>1.825</v>
+      </c>
+      <c r="W527">
+        <v>1.1</v>
+      </c>
+      <c r="X527">
+        <v>-1</v>
+      </c>
+      <c r="Y527">
+        <v>-1</v>
+      </c>
+      <c r="Z527">
+        <v>0.8</v>
+      </c>
+      <c r="AA527">
+        <v>-1</v>
+      </c>
+      <c r="AB527">
         <v>0</v>
       </c>
-      <c r="I527">
-        <v>3</v>
-      </c>
-      <c r="J527" t="s">
-        <v>46</v>
-      </c>
-      <c r="K527">
-        <v>3.1</v>
-      </c>
-      <c r="L527">
-        <v>3</v>
-      </c>
-      <c r="M527">
-        <v>2.2</v>
-      </c>
-      <c r="N527">
-        <v>3</v>
-      </c>
-      <c r="O527">
-        <v>3</v>
-      </c>
-      <c r="P527">
-        <v>2.375</v>
-      </c>
-      <c r="Q527">
-        <v>0.25</v>
-      </c>
-      <c r="R527">
-        <v>1.775</v>
-      </c>
-      <c r="S527">
-        <v>2.1</v>
-      </c>
-      <c r="T527">
-        <v>2</v>
-      </c>
-      <c r="U527">
-        <v>1.8</v>
-      </c>
-      <c r="V527">
-        <v>2.05</v>
-      </c>
-      <c r="W527">
-        <v>-1</v>
-      </c>
-      <c r="X527">
-        <v>-1</v>
-      </c>
-      <c r="Y527">
-        <v>1.375</v>
-      </c>
-      <c r="Z527">
-        <v>-1</v>
-      </c>
-      <c r="AA527">
-        <v>1.1</v>
-      </c>
-      <c r="AB527">
-        <v>0.8</v>
-      </c>
       <c r="AC527">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="528" spans="1:29">
@@ -47516,7 +47516,7 @@
         <v>527</v>
       </c>
       <c r="B529">
-        <v>6149839</v>
+        <v>6149371</v>
       </c>
       <c r="C529" t="s">
         <v>28</v>
@@ -47528,76 +47528,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F529" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G529" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J529" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K529">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L529">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M529">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N529">
+        <v>3</v>
+      </c>
+      <c r="O529">
+        <v>3</v>
+      </c>
+      <c r="P529">
+        <v>2.375</v>
+      </c>
+      <c r="Q529">
+        <v>0.25</v>
+      </c>
+      <c r="R529">
+        <v>1.775</v>
+      </c>
+      <c r="S529">
         <v>2.1</v>
       </c>
-      <c r="O529">
-        <v>3.5</v>
-      </c>
-      <c r="P529">
-        <v>3.4</v>
-      </c>
-      <c r="Q529">
-        <v>-0.25</v>
-      </c>
-      <c r="R529">
+      <c r="T529">
+        <v>2</v>
+      </c>
+      <c r="U529">
         <v>1.8</v>
       </c>
-      <c r="S529">
+      <c r="V529">
         <v>2.05</v>
       </c>
-      <c r="T529">
-        <v>3</v>
-      </c>
-      <c r="U529">
-        <v>2.025</v>
-      </c>
-      <c r="V529">
-        <v>1.825</v>
-      </c>
       <c r="W529">
+        <v>-1</v>
+      </c>
+      <c r="X529">
+        <v>-1</v>
+      </c>
+      <c r="Y529">
+        <v>1.375</v>
+      </c>
+      <c r="Z529">
+        <v>-1</v>
+      </c>
+      <c r="AA529">
         <v>1.1</v>
       </c>
-      <c r="X529">
-        <v>-1</v>
-      </c>
-      <c r="Y529">
-        <v>-1</v>
-      </c>
-      <c r="Z529">
+      <c r="AB529">
         <v>0.8</v>
       </c>
-      <c r="AA529">
-        <v>-1</v>
-      </c>
-      <c r="AB529">
-        <v>0</v>
-      </c>
       <c r="AC529">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="530" spans="1:29">
@@ -51877,7 +51877,7 @@
         <v>576</v>
       </c>
       <c r="B578">
-        <v>6149414</v>
+        <v>6149867</v>
       </c>
       <c r="C578" t="s">
         <v>28</v>
@@ -51889,76 +51889,76 @@
         <v>45114.3125</v>
       </c>
       <c r="F578" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G578" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H578">
         <v>1</v>
       </c>
       <c r="I578">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J578" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K578">
+        <v>2.75</v>
+      </c>
+      <c r="L578">
+        <v>3.1</v>
+      </c>
+      <c r="M578">
+        <v>2.5</v>
+      </c>
+      <c r="N578">
+        <v>3.3</v>
+      </c>
+      <c r="O578">
+        <v>3.1</v>
+      </c>
+      <c r="P578">
+        <v>2.2</v>
+      </c>
+      <c r="Q578">
+        <v>0.25</v>
+      </c>
+      <c r="R578">
+        <v>1.95</v>
+      </c>
+      <c r="S578">
+        <v>1.9</v>
+      </c>
+      <c r="T578">
+        <v>2.25</v>
+      </c>
+      <c r="U578">
+        <v>2</v>
+      </c>
+      <c r="V578">
+        <v>1.85</v>
+      </c>
+      <c r="W578">
+        <v>-1</v>
+      </c>
+      <c r="X578">
         <v>2.1</v>
       </c>
-      <c r="L578">
-        <v>3.4</v>
-      </c>
-      <c r="M578">
-        <v>3.2</v>
-      </c>
-      <c r="N578">
-        <v>2.3</v>
-      </c>
-      <c r="O578">
-        <v>3.3</v>
-      </c>
-      <c r="P578">
-        <v>3</v>
-      </c>
-      <c r="Q578">
-        <v>-0.25</v>
-      </c>
-      <c r="R578">
-        <v>2.05</v>
-      </c>
-      <c r="S578">
-        <v>1.8</v>
-      </c>
-      <c r="T578">
-        <v>2.5</v>
-      </c>
-      <c r="U578">
-        <v>1.9</v>
-      </c>
-      <c r="V578">
-        <v>1.95</v>
-      </c>
-      <c r="W578">
-        <v>-1</v>
-      </c>
-      <c r="X578">
-        <v>-1</v>
-      </c>
       <c r="Y578">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z578">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA578">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB578">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC578">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="579" spans="1:29">
@@ -51966,7 +51966,7 @@
         <v>577</v>
       </c>
       <c r="B579">
-        <v>6149867</v>
+        <v>6149414</v>
       </c>
       <c r="C579" t="s">
         <v>28</v>
@@ -51978,76 +51978,76 @@
         <v>45114.3125</v>
       </c>
       <c r="F579" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G579" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H579">
         <v>1</v>
       </c>
       <c r="I579">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J579" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K579">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L579">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M579">
+        <v>3.2</v>
+      </c>
+      <c r="N579">
+        <v>2.3</v>
+      </c>
+      <c r="O579">
+        <v>3.3</v>
+      </c>
+      <c r="P579">
+        <v>3</v>
+      </c>
+      <c r="Q579">
+        <v>-0.25</v>
+      </c>
+      <c r="R579">
+        <v>2.05</v>
+      </c>
+      <c r="S579">
+        <v>1.8</v>
+      </c>
+      <c r="T579">
         <v>2.5</v>
       </c>
-      <c r="N579">
-        <v>3.3</v>
-      </c>
-      <c r="O579">
-        <v>3.1</v>
-      </c>
-      <c r="P579">
-        <v>2.2</v>
-      </c>
-      <c r="Q579">
-        <v>0.25</v>
-      </c>
-      <c r="R579">
+      <c r="U579">
+        <v>1.9</v>
+      </c>
+      <c r="V579">
         <v>1.95</v>
       </c>
-      <c r="S579">
-        <v>1.9</v>
-      </c>
-      <c r="T579">
-        <v>2.25</v>
-      </c>
-      <c r="U579">
-        <v>2</v>
-      </c>
-      <c r="V579">
-        <v>1.85</v>
-      </c>
       <c r="W579">
         <v>-1</v>
       </c>
       <c r="X579">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y579">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z579">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA579">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB579">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC579">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="580" spans="1:29">
@@ -52678,7 +52678,7 @@
         <v>585</v>
       </c>
       <c r="B587">
-        <v>6149872</v>
+        <v>6149381</v>
       </c>
       <c r="C587" t="s">
         <v>28</v>
@@ -52690,73 +52690,73 @@
         <v>45119.3125</v>
       </c>
       <c r="F587" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G587" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H587">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I587">
         <v>2</v>
       </c>
       <c r="J587" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K587">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="L587">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M587">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="N587">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="O587">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P587">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q587">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R587">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S587">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T587">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U587">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V587">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W587">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X587">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y587">
         <v>-1</v>
       </c>
       <c r="Z587">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AA587">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB587">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC587">
         <v>-1</v>
@@ -52767,7 +52767,7 @@
         <v>586</v>
       </c>
       <c r="B588">
-        <v>6149871</v>
+        <v>6149872</v>
       </c>
       <c r="C588" t="s">
         <v>28</v>
@@ -52779,76 +52779,76 @@
         <v>45119.3125</v>
       </c>
       <c r="F588" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G588" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I588">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J588" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K588">
+        <v>1.55</v>
+      </c>
+      <c r="L588">
+        <v>3.75</v>
+      </c>
+      <c r="M588">
+        <v>5.25</v>
+      </c>
+      <c r="N588">
+        <v>1.55</v>
+      </c>
+      <c r="O588">
         <v>4</v>
       </c>
-      <c r="L588">
-        <v>3.3</v>
-      </c>
-      <c r="M588">
-        <v>1.909</v>
-      </c>
-      <c r="N588">
-        <v>4.5</v>
-      </c>
-      <c r="O588">
-        <v>3.3</v>
-      </c>
       <c r="P588">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="Q588">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R588">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S588">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T588">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U588">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V588">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W588">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X588">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y588">
         <v>-1</v>
       </c>
       <c r="Z588">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA588">
         <v>-1</v>
       </c>
       <c r="AB588">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC588">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="589" spans="1:29">
@@ -52856,7 +52856,7 @@
         <v>587</v>
       </c>
       <c r="B589">
-        <v>6149381</v>
+        <v>6149871</v>
       </c>
       <c r="C589" t="s">
         <v>28</v>
@@ -52868,55 +52868,55 @@
         <v>45119.3125</v>
       </c>
       <c r="F589" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G589" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I589">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J589" t="s">
         <v>45</v>
       </c>
       <c r="K589">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L589">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M589">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N589">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="O589">
         <v>3.3</v>
       </c>
       <c r="P589">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="Q589">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R589">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S589">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T589">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U589">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V589">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W589">
         <v>-1</v>
@@ -52928,16 +52928,16 @@
         <v>-1</v>
       </c>
       <c r="Z589">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AA589">
+        <v>-1</v>
+      </c>
+      <c r="AB589">
         <v>-0.5</v>
       </c>
-      <c r="AB589">
-        <v>1</v>
-      </c>
       <c r="AC589">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="590" spans="1:29">
@@ -53479,7 +53479,7 @@
         <v>594</v>
       </c>
       <c r="B596">
-        <v>6149383</v>
+        <v>6149486</v>
       </c>
       <c r="C596" t="s">
         <v>28</v>
@@ -53491,10 +53491,10 @@
         <v>45128.3125</v>
       </c>
       <c r="F596" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G596" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H596">
         <v>2</v>
@@ -53506,43 +53506,43 @@
         <v>44</v>
       </c>
       <c r="K596">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="L596">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M596">
+        <v>4.75</v>
+      </c>
+      <c r="N596">
+        <v>1.65</v>
+      </c>
+      <c r="O596">
+        <v>4</v>
+      </c>
+      <c r="P596">
+        <v>4.75</v>
+      </c>
+      <c r="Q596">
+        <v>-0.75</v>
+      </c>
+      <c r="R596">
+        <v>1.825</v>
+      </c>
+      <c r="S596">
+        <v>2.025</v>
+      </c>
+      <c r="T596">
         <v>3</v>
       </c>
-      <c r="N596">
-        <v>2.4</v>
-      </c>
-      <c r="O596">
-        <v>3.2</v>
-      </c>
-      <c r="P596">
-        <v>2.8</v>
-      </c>
-      <c r="Q596">
-        <v>-0.25</v>
-      </c>
-      <c r="R596">
-        <v>2.05</v>
-      </c>
-      <c r="S596">
-        <v>1.75</v>
-      </c>
-      <c r="T596">
-        <v>2.5</v>
-      </c>
       <c r="U596">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V596">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W596">
-        <v>1.4</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X596">
         <v>-1</v>
@@ -53551,16 +53551,16 @@
         <v>-1</v>
       </c>
       <c r="Z596">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AA596">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB596">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC596">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="597" spans="1:29">
@@ -53568,7 +53568,7 @@
         <v>595</v>
       </c>
       <c r="B597">
-        <v>6149486</v>
+        <v>6149383</v>
       </c>
       <c r="C597" t="s">
         <v>28</v>
@@ -53580,10 +53580,10 @@
         <v>45128.3125</v>
       </c>
       <c r="F597" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G597" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H597">
         <v>2</v>
@@ -53595,43 +53595,43 @@
         <v>44</v>
       </c>
       <c r="K597">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L597">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M597">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N597">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O597">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P597">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q597">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R597">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S597">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T597">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U597">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V597">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W597">
-        <v>0.6499999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="X597">
         <v>-1</v>
@@ -53640,16 +53640,16 @@
         <v>-1</v>
       </c>
       <c r="Z597">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
       <c r="AA597">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB597">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC597">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="598" spans="1:29">
@@ -53746,7 +53746,7 @@
         <v>597</v>
       </c>
       <c r="B599">
-        <v>6149877</v>
+        <v>6149878</v>
       </c>
       <c r="C599" t="s">
         <v>28</v>
@@ -53758,40 +53758,40 @@
         <v>45129.3125</v>
       </c>
       <c r="F599" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G599" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H599">
+        <v>0</v>
+      </c>
+      <c r="I599">
         <v>1</v>
-      </c>
-      <c r="I599">
-        <v>2</v>
       </c>
       <c r="J599" t="s">
         <v>46</v>
       </c>
       <c r="K599">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L599">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M599">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N599">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O599">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P599">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q599">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R599">
         <v>2</v>
@@ -53800,7 +53800,7 @@
         <v>1.85</v>
       </c>
       <c r="T599">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U599">
         <v>1.8</v>
@@ -53815,7 +53815,7 @@
         <v>-1</v>
       </c>
       <c r="Y599">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="Z599">
         <v>-1</v>
@@ -53824,10 +53824,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB599">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC599">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="600" spans="1:29">
@@ -53835,7 +53835,7 @@
         <v>598</v>
       </c>
       <c r="B600">
-        <v>6149878</v>
+        <v>6149877</v>
       </c>
       <c r="C600" t="s">
         <v>28</v>
@@ -53847,40 +53847,40 @@
         <v>45129.3125</v>
       </c>
       <c r="F600" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G600" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I600">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J600" t="s">
         <v>46</v>
       </c>
       <c r="K600">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L600">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M600">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N600">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="O600">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P600">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q600">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R600">
         <v>2</v>
@@ -53889,7 +53889,7 @@
         <v>1.85</v>
       </c>
       <c r="T600">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U600">
         <v>1.8</v>
@@ -53904,7 +53904,7 @@
         <v>-1</v>
       </c>
       <c r="Y600">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="Z600">
         <v>-1</v>
@@ -53913,10 +53913,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB600">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC600">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="601" spans="1:29">
@@ -54013,7 +54013,7 @@
         <v>600</v>
       </c>
       <c r="B602">
-        <v>6149880</v>
+        <v>6149879</v>
       </c>
       <c r="C602" t="s">
         <v>28</v>
@@ -54025,73 +54025,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F602" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G602" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I602">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J602" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K602">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L602">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M602">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N602">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O602">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P602">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q602">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R602">
+        <v>1.9</v>
+      </c>
+      <c r="S602">
         <v>1.95</v>
-      </c>
-      <c r="S602">
-        <v>1.9</v>
       </c>
       <c r="T602">
         <v>2.25</v>
       </c>
       <c r="U602">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V602">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W602">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X602">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y602">
         <v>-1</v>
       </c>
       <c r="Z602">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA602">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB602">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC602">
         <v>-1</v>
@@ -54102,7 +54102,7 @@
         <v>601</v>
       </c>
       <c r="B603">
-        <v>6149879</v>
+        <v>6149880</v>
       </c>
       <c r="C603" t="s">
         <v>28</v>
@@ -54114,73 +54114,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F603" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G603" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H603">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I603">
+        <v>2</v>
+      </c>
+      <c r="J603" t="s">
+        <v>45</v>
+      </c>
+      <c r="K603">
+        <v>2.5</v>
+      </c>
+      <c r="L603">
+        <v>3.2</v>
+      </c>
+      <c r="M603">
+        <v>2.8</v>
+      </c>
+      <c r="N603">
+        <v>2.625</v>
+      </c>
+      <c r="O603">
+        <v>3.3</v>
+      </c>
+      <c r="P603">
+        <v>2.6</v>
+      </c>
+      <c r="Q603">
         <v>0</v>
       </c>
-      <c r="J603" t="s">
-        <v>44</v>
-      </c>
-      <c r="K603">
-        <v>2.15</v>
-      </c>
-      <c r="L603">
-        <v>3.3</v>
-      </c>
-      <c r="M603">
-        <v>3.4</v>
-      </c>
-      <c r="N603">
-        <v>2.2</v>
-      </c>
-      <c r="O603">
-        <v>3</v>
-      </c>
-      <c r="P603">
-        <v>3.6</v>
-      </c>
-      <c r="Q603">
-        <v>-0.25</v>
-      </c>
       <c r="R603">
+        <v>1.95</v>
+      </c>
+      <c r="S603">
         <v>1.9</v>
-      </c>
-      <c r="S603">
-        <v>1.95</v>
       </c>
       <c r="T603">
         <v>2.25</v>
       </c>
       <c r="U603">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V603">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W603">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X603">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y603">
         <v>-1</v>
       </c>
       <c r="Z603">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA603">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB603">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC603">
         <v>-1</v>
@@ -57751,7 +57751,7 @@
         <v>642</v>
       </c>
       <c r="B644">
-        <v>6353260</v>
+        <v>6353261</v>
       </c>
       <c r="C644" t="s">
         <v>28</v>
@@ -57763,76 +57763,76 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F644" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G644" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I644">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J644" t="s">
         <v>45</v>
       </c>
       <c r="K644">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="L644">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M644">
+        <v>2</v>
+      </c>
+      <c r="N644">
+        <v>3.75</v>
+      </c>
+      <c r="O644">
+        <v>3.8</v>
+      </c>
+      <c r="P644">
+        <v>1.85</v>
+      </c>
+      <c r="Q644">
+        <v>0.5</v>
+      </c>
+      <c r="R644">
+        <v>2.025</v>
+      </c>
+      <c r="S644">
+        <v>1.825</v>
+      </c>
+      <c r="T644">
+        <v>2.75</v>
+      </c>
+      <c r="U644">
+        <v>1.825</v>
+      </c>
+      <c r="V644">
+        <v>2.025</v>
+      </c>
+      <c r="W644">
+        <v>-1</v>
+      </c>
+      <c r="X644">
         <v>2.8</v>
       </c>
-      <c r="N644">
-        <v>2.55</v>
-      </c>
-      <c r="O644">
-        <v>3.4</v>
-      </c>
-      <c r="P644">
-        <v>2.625</v>
-      </c>
-      <c r="Q644">
-        <v>0</v>
-      </c>
-      <c r="R644">
-        <v>1.825</v>
-      </c>
-      <c r="S644">
-        <v>2.025</v>
-      </c>
-      <c r="T644">
-        <v>2.5</v>
-      </c>
-      <c r="U644">
-        <v>2.025</v>
-      </c>
-      <c r="V644">
-        <v>1.825</v>
-      </c>
-      <c r="W644">
-        <v>-1</v>
-      </c>
-      <c r="X644">
-        <v>2.4</v>
-      </c>
       <c r="Y644">
         <v>-1</v>
       </c>
       <c r="Z644">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA644">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB644">
         <v>-1</v>
       </c>
       <c r="AC644">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="645" spans="1:29">
@@ -57840,7 +57840,7 @@
         <v>643</v>
       </c>
       <c r="B645">
-        <v>6353261</v>
+        <v>6353260</v>
       </c>
       <c r="C645" t="s">
         <v>28</v>
@@ -57852,76 +57852,76 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F645" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G645" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I645">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J645" t="s">
         <v>45</v>
       </c>
       <c r="K645">
+        <v>2.375</v>
+      </c>
+      <c r="L645">
+        <v>3.5</v>
+      </c>
+      <c r="M645">
+        <v>2.8</v>
+      </c>
+      <c r="N645">
+        <v>2.55</v>
+      </c>
+      <c r="O645">
         <v>3.4</v>
       </c>
-      <c r="L645">
-        <v>3.6</v>
-      </c>
-      <c r="M645">
-        <v>2</v>
-      </c>
-      <c r="N645">
-        <v>3.75</v>
-      </c>
-      <c r="O645">
-        <v>3.8</v>
-      </c>
       <c r="P645">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q645">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R645">
+        <v>1.825</v>
+      </c>
+      <c r="S645">
         <v>2.025</v>
       </c>
-      <c r="S645">
+      <c r="T645">
+        <v>2.5</v>
+      </c>
+      <c r="U645">
+        <v>2.025</v>
+      </c>
+      <c r="V645">
         <v>1.825</v>
       </c>
-      <c r="T645">
-        <v>2.75</v>
-      </c>
-      <c r="U645">
-        <v>1.825</v>
-      </c>
-      <c r="V645">
-        <v>2.025</v>
-      </c>
       <c r="W645">
         <v>-1</v>
       </c>
       <c r="X645">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y645">
         <v>-1</v>
       </c>
       <c r="Z645">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA645">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB645">
         <v>-1</v>
       </c>
       <c r="AC645">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="646" spans="1:29">
@@ -59442,7 +59442,7 @@
         <v>661</v>
       </c>
       <c r="B663">
-        <v>7334079</v>
+        <v>7333490</v>
       </c>
       <c r="C663" t="s">
         <v>28</v>
@@ -59454,76 +59454,76 @@
         <v>45227.1875</v>
       </c>
       <c r="F663" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G663" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I663">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J663" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K663">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L663">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M663">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="N663">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="O663">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P663">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q663">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R663">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S663">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T663">
         <v>2.25</v>
       </c>
       <c r="U663">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V663">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W663">
         <v>-1</v>
       </c>
       <c r="X663">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y663">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z663">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA663">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB663">
         <v>-0.5</v>
       </c>
       <c r="AC663">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="664" spans="1:29">
@@ -59531,7 +59531,7 @@
         <v>662</v>
       </c>
       <c r="B664">
-        <v>7333490</v>
+        <v>7334079</v>
       </c>
       <c r="C664" t="s">
         <v>28</v>
@@ -59543,76 +59543,76 @@
         <v>45227.1875</v>
       </c>
       <c r="F664" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G664" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H664">
+        <v>1</v>
+      </c>
+      <c r="I664">
+        <v>1</v>
+      </c>
+      <c r="J664" t="s">
+        <v>45</v>
+      </c>
+      <c r="K664">
+        <v>2.625</v>
+      </c>
+      <c r="L664">
+        <v>3.2</v>
+      </c>
+      <c r="M664">
+        <v>2.7</v>
+      </c>
+      <c r="N664">
+        <v>2.8</v>
+      </c>
+      <c r="O664">
+        <v>3.1</v>
+      </c>
+      <c r="P664">
+        <v>2.6</v>
+      </c>
+      <c r="Q664">
         <v>0</v>
       </c>
-      <c r="I664">
-        <v>2</v>
-      </c>
-      <c r="J664" t="s">
-        <v>46</v>
-      </c>
-      <c r="K664">
-        <v>2.15</v>
-      </c>
-      <c r="L664">
-        <v>3.25</v>
-      </c>
-      <c r="M664">
-        <v>3.4</v>
-      </c>
-      <c r="N664">
-        <v>1.6</v>
-      </c>
-      <c r="O664">
-        <v>3.75</v>
-      </c>
-      <c r="P664">
-        <v>5.75</v>
-      </c>
-      <c r="Q664">
-        <v>-0.75</v>
-      </c>
       <c r="R664">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S664">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T664">
         <v>2.25</v>
       </c>
       <c r="U664">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V664">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W664">
         <v>-1</v>
       </c>
       <c r="X664">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y664">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z664">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA664">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB664">
         <v>-0.5</v>
       </c>
       <c r="AC664">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="665" spans="1:29">
@@ -60688,7 +60688,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>7334085</v>
+        <v>7333496</v>
       </c>
       <c r="C677" t="s">
         <v>28</v>
@@ -60700,76 +60700,76 @@
         <v>45255.1875</v>
       </c>
       <c r="F677" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G677" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H677">
+        <v>1</v>
+      </c>
+      <c r="I677">
         <v>0</v>
       </c>
-      <c r="I677">
-        <v>1</v>
-      </c>
       <c r="J677" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K677">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L677">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M677">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N677">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O677">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P677">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q677">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R677">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S677">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T677">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U677">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V677">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W677">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X677">
         <v>-1</v>
       </c>
       <c r="Y677">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z677">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA677">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB677">
         <v>-1</v>
       </c>
       <c r="AC677">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="678" spans="1:29">
@@ -60777,7 +60777,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>7334086</v>
+        <v>7334085</v>
       </c>
       <c r="C678" t="s">
         <v>28</v>
@@ -60789,76 +60789,76 @@
         <v>45255.1875</v>
       </c>
       <c r="F678" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G678" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J678" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K678">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="L678">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M678">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N678">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O678">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P678">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q678">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R678">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S678">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T678">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U678">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V678">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W678">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X678">
         <v>-1</v>
       </c>
       <c r="Y678">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z678">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA678">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB678">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC678">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="679" spans="1:29">
@@ -60866,7 +60866,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>7333496</v>
+        <v>7334086</v>
       </c>
       <c r="C679" t="s">
         <v>28</v>
@@ -60878,13 +60878,13 @@
         <v>45255.1875</v>
       </c>
       <c r="F679" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G679" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I679">
         <v>0</v>
@@ -60893,16 +60893,16 @@
         <v>44</v>
       </c>
       <c r="K679">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L679">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M679">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N679">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O679">
         <v>3.3</v>
@@ -60911,25 +60911,25 @@
         <v>3.6</v>
       </c>
       <c r="Q679">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R679">
+        <v>2.05</v>
+      </c>
+      <c r="S679">
         <v>1.8</v>
-      </c>
-      <c r="S679">
-        <v>2.05</v>
       </c>
       <c r="T679">
         <v>2.25</v>
       </c>
       <c r="U679">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V679">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W679">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="X679">
         <v>-1</v>
@@ -60938,16 +60938,16 @@
         <v>-1</v>
       </c>
       <c r="Z679">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA679">
         <v>-1</v>
       </c>
       <c r="AB679">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC679">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="680" spans="1:29">

--- a/South Korea K League 1/South Korea K League 1.xlsx
+++ b/South Korea K League 1/South Korea K League 1.xlsx
@@ -29538,7 +29538,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>4589555</v>
+        <v>4589556</v>
       </c>
       <c r="C327" t="s">
         <v>28</v>
@@ -29550,58 +29550,58 @@
         <v>44733.3125</v>
       </c>
       <c r="F327" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G327" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H327">
+        <v>2</v>
+      </c>
+      <c r="I327">
         <v>1</v>
-      </c>
-      <c r="I327">
-        <v>0</v>
       </c>
       <c r="J327" t="s">
         <v>44</v>
       </c>
       <c r="K327">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="L327">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M327">
+        <v>2.15</v>
+      </c>
+      <c r="N327">
+        <v>3.5</v>
+      </c>
+      <c r="O327">
+        <v>3.4</v>
+      </c>
+      <c r="P327">
+        <v>1.95</v>
+      </c>
+      <c r="Q327">
+        <v>0.5</v>
+      </c>
+      <c r="R327">
+        <v>1.8</v>
+      </c>
+      <c r="S327">
+        <v>2.05</v>
+      </c>
+      <c r="T327">
         <v>2.5</v>
       </c>
-      <c r="N327">
-        <v>2.45</v>
-      </c>
-      <c r="O327">
-        <v>3</v>
-      </c>
-      <c r="P327">
-        <v>2.875</v>
-      </c>
-      <c r="Q327">
-        <v>0</v>
-      </c>
-      <c r="R327">
-        <v>1.775</v>
-      </c>
-      <c r="S327">
-        <v>2.1</v>
-      </c>
-      <c r="T327">
-        <v>2.25</v>
-      </c>
       <c r="U327">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V327">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W327">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="X327">
         <v>-1</v>
@@ -29610,16 +29610,16 @@
         <v>-1</v>
       </c>
       <c r="Z327">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AA327">
         <v>-1</v>
       </c>
       <c r="AB327">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC327">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -29627,7 +29627,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>4589556</v>
+        <v>4589555</v>
       </c>
       <c r="C328" t="s">
         <v>28</v>
@@ -29639,58 +29639,58 @@
         <v>44733.3125</v>
       </c>
       <c r="F328" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G328" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328" t="s">
         <v>44</v>
       </c>
       <c r="K328">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="L328">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M328">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="N328">
-        <v>3.5</v>
+        <v>2.45</v>
       </c>
       <c r="O328">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P328">
-        <v>1.95</v>
+        <v>2.875</v>
       </c>
       <c r="Q328">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R328">
+        <v>1.775</v>
+      </c>
+      <c r="S328">
+        <v>2.1</v>
+      </c>
+      <c r="T328">
+        <v>2.25</v>
+      </c>
+      <c r="U328">
         <v>1.8</v>
       </c>
-      <c r="S328">
+      <c r="V328">
         <v>2.05</v>
       </c>
-      <c r="T328">
-        <v>2.5</v>
-      </c>
-      <c r="U328">
-        <v>2.025</v>
-      </c>
-      <c r="V328">
-        <v>1.825</v>
-      </c>
       <c r="W328">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="X328">
         <v>-1</v>
@@ -29699,16 +29699,16 @@
         <v>-1</v>
       </c>
       <c r="Z328">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA328">
         <v>-1</v>
       </c>
       <c r="AB328">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC328">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="329" spans="1:29">
@@ -29805,7 +29805,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>4589558</v>
+        <v>4589557</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29817,73 +29817,73 @@
         <v>44734.3125</v>
       </c>
       <c r="F330" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G330" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H330">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I330">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J330" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K330">
-        <v>1.909</v>
+        <v>3.25</v>
       </c>
       <c r="L330">
         <v>3.2</v>
       </c>
       <c r="M330">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="N330">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="O330">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P330">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="Q330">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R330">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S330">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T330">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U330">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V330">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W330">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X330">
         <v>-1</v>
       </c>
       <c r="Y330">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z330">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA330">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB330">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AC330">
         <v>-1</v>
@@ -29894,7 +29894,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>4589557</v>
+        <v>4589558</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29906,73 +29906,73 @@
         <v>44734.3125</v>
       </c>
       <c r="F331" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G331" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H331">
+        <v>4</v>
+      </c>
+      <c r="I331">
         <v>1</v>
       </c>
-      <c r="I331">
-        <v>2</v>
-      </c>
       <c r="J331" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K331">
-        <v>3.25</v>
+        <v>1.909</v>
       </c>
       <c r="L331">
         <v>3.2</v>
       </c>
       <c r="M331">
+        <v>3.8</v>
+      </c>
+      <c r="N331">
+        <v>2.6</v>
+      </c>
+      <c r="O331">
+        <v>3</v>
+      </c>
+      <c r="P331">
+        <v>2.7</v>
+      </c>
+      <c r="Q331">
+        <v>0</v>
+      </c>
+      <c r="R331">
+        <v>1.875</v>
+      </c>
+      <c r="S331">
+        <v>1.975</v>
+      </c>
+      <c r="T331">
+        <v>2.25</v>
+      </c>
+      <c r="U331">
         <v>2.1</v>
       </c>
-      <c r="N331">
-        <v>3.6</v>
-      </c>
-      <c r="O331">
-        <v>3.2</v>
-      </c>
-      <c r="P331">
-        <v>2</v>
-      </c>
-      <c r="Q331">
-        <v>0.25</v>
-      </c>
-      <c r="R331">
-        <v>2.025</v>
-      </c>
-      <c r="S331">
-        <v>1.825</v>
-      </c>
-      <c r="T331">
-        <v>2.5</v>
-      </c>
-      <c r="U331">
-        <v>2</v>
-      </c>
       <c r="V331">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W331">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X331">
         <v>-1</v>
       </c>
       <c r="Y331">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z331">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA331">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB331">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AC331">
         <v>-1</v>
@@ -31051,7 +31051,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>4589570</v>
+        <v>4589569</v>
       </c>
       <c r="C344" t="s">
         <v>28</v>
@@ -31063,73 +31063,73 @@
         <v>44747.29166666666</v>
       </c>
       <c r="F344" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G344" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H344">
+        <v>1</v>
+      </c>
+      <c r="I344">
         <v>4</v>
       </c>
-      <c r="I344">
-        <v>0</v>
-      </c>
       <c r="J344" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K344">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L344">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M344">
-        <v>2.55</v>
+        <v>1.75</v>
       </c>
       <c r="N344">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="O344">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P344">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="Q344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R344">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S344">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T344">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U344">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V344">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="W344">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X344">
         <v>-1</v>
       </c>
       <c r="Y344">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z344">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA344">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB344">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AC344">
         <v>-1</v>
@@ -31140,7 +31140,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>4589569</v>
+        <v>4589570</v>
       </c>
       <c r="C345" t="s">
         <v>28</v>
@@ -31152,73 +31152,73 @@
         <v>44747.29166666666</v>
       </c>
       <c r="F345" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G345" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I345">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J345" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K345">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L345">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M345">
-        <v>1.75</v>
+        <v>2.55</v>
       </c>
       <c r="N345">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="O345">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P345">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="Q345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R345">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S345">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T345">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U345">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V345">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="W345">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X345">
         <v>-1</v>
       </c>
       <c r="Y345">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z345">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA345">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB345">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AC345">
         <v>-1</v>
@@ -32208,7 +32208,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>4589579</v>
+        <v>4589578</v>
       </c>
       <c r="C357" t="s">
         <v>28</v>
@@ -32220,76 +32220,76 @@
         <v>44758.25</v>
       </c>
       <c r="F357" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G357" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357">
         <v>1</v>
       </c>
       <c r="J357" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K357">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="L357">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M357">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="N357">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O357">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P357">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q357">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R357">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S357">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T357">
         <v>2.5</v>
       </c>
       <c r="U357">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V357">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W357">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X357">
         <v>-1</v>
       </c>
       <c r="Y357">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z357">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA357">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB357">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC357">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="358" spans="1:29">
@@ -32297,7 +32297,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>4589578</v>
+        <v>4589579</v>
       </c>
       <c r="C358" t="s">
         <v>28</v>
@@ -32309,76 +32309,76 @@
         <v>44758.25</v>
       </c>
       <c r="F358" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G358" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358">
         <v>1</v>
       </c>
       <c r="J358" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K358">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L358">
+        <v>3.4</v>
+      </c>
+      <c r="M358">
+        <v>3.8</v>
+      </c>
+      <c r="N358">
+        <v>1.95</v>
+      </c>
+      <c r="O358">
+        <v>3.5</v>
+      </c>
+      <c r="P358">
         <v>3.75</v>
       </c>
-      <c r="M358">
-        <v>5</v>
-      </c>
-      <c r="N358">
-        <v>1.666</v>
-      </c>
-      <c r="O358">
-        <v>3.75</v>
-      </c>
-      <c r="P358">
-        <v>5</v>
-      </c>
       <c r="Q358">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R358">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S358">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T358">
         <v>2.5</v>
       </c>
       <c r="U358">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V358">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W358">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X358">
         <v>-1</v>
       </c>
       <c r="Y358">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z358">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA358">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB358">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC358">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="359" spans="1:29">
@@ -36480,7 +36480,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>4589616</v>
+        <v>4589617</v>
       </c>
       <c r="C405" t="s">
         <v>28</v>
@@ -36492,76 +36492,76 @@
         <v>44810.3125</v>
       </c>
       <c r="F405" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G405" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H405">
+        <v>1</v>
+      </c>
+      <c r="I405">
         <v>0</v>
       </c>
-      <c r="I405">
-        <v>1</v>
-      </c>
       <c r="J405" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K405">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="L405">
         <v>3.5</v>
       </c>
       <c r="M405">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="N405">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="O405">
         <v>3.5</v>
       </c>
       <c r="P405">
-        <v>3.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q405">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R405">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S405">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T405">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U405">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V405">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W405">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X405">
         <v>-1</v>
       </c>
       <c r="Y405">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z405">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA405">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB405">
         <v>-1</v>
       </c>
       <c r="AC405">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="406" spans="1:29">
@@ -36569,7 +36569,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>4589617</v>
+        <v>4589616</v>
       </c>
       <c r="C406" t="s">
         <v>28</v>
@@ -36581,76 +36581,76 @@
         <v>44810.3125</v>
       </c>
       <c r="F406" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G406" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H406">
+        <v>0</v>
+      </c>
+      <c r="I406">
         <v>1</v>
       </c>
-      <c r="I406">
-        <v>0</v>
-      </c>
       <c r="J406" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K406">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="L406">
         <v>3.5</v>
       </c>
       <c r="M406">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N406">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="O406">
         <v>3.5</v>
       </c>
       <c r="P406">
-        <v>2.45</v>
+        <v>3.8</v>
       </c>
       <c r="Q406">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R406">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S406">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T406">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U406">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V406">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W406">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X406">
         <v>-1</v>
       </c>
       <c r="Y406">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z406">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA406">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB406">
         <v>-1</v>
       </c>
       <c r="AC406">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="407" spans="1:29">
@@ -36925,7 +36925,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>4711371</v>
+        <v>4708418</v>
       </c>
       <c r="C410" t="s">
         <v>28</v>
@@ -36937,16 +36937,16 @@
         <v>44814.08333333334</v>
       </c>
       <c r="F410" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G410" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J410" t="s">
         <v>46</v>
@@ -36961,31 +36961,31 @@
         <v>2.2</v>
       </c>
       <c r="N410">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O410">
         <v>3.5</v>
       </c>
       <c r="P410">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="Q410">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R410">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S410">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T410">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U410">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V410">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W410">
         <v>-1</v>
@@ -36994,19 +36994,19 @@
         <v>-1</v>
       </c>
       <c r="Y410">
-        <v>1.45</v>
+        <v>1.15</v>
       </c>
       <c r="Z410">
         <v>-1</v>
       </c>
       <c r="AA410">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB410">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC410">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="411" spans="1:29">
@@ -37014,7 +37014,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>4708418</v>
+        <v>4711371</v>
       </c>
       <c r="C411" t="s">
         <v>28</v>
@@ -37026,16 +37026,16 @@
         <v>44814.08333333334</v>
       </c>
       <c r="F411" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G411" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I411">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J411" t="s">
         <v>46</v>
@@ -37050,31 +37050,31 @@
         <v>2.2</v>
       </c>
       <c r="N411">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O411">
         <v>3.5</v>
       </c>
       <c r="P411">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="Q411">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R411">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S411">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T411">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U411">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V411">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W411">
         <v>-1</v>
@@ -37083,19 +37083,19 @@
         <v>-1</v>
       </c>
       <c r="Y411">
-        <v>1.15</v>
+        <v>1.45</v>
       </c>
       <c r="Z411">
         <v>-1</v>
       </c>
       <c r="AA411">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB411">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="AC411">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="412" spans="1:29">
@@ -37548,7 +37548,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>4734917</v>
+        <v>4733621</v>
       </c>
       <c r="C417" t="s">
         <v>28</v>
@@ -37560,76 +37560,76 @@
         <v>44817.3125</v>
       </c>
       <c r="F417" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G417" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I417">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J417" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K417">
         <v>2.1</v>
       </c>
       <c r="L417">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M417">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="N417">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O417">
         <v>3.5</v>
       </c>
       <c r="P417">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q417">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R417">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S417">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T417">
         <v>2.5</v>
       </c>
       <c r="U417">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V417">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W417">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X417">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y417">
         <v>-1</v>
       </c>
       <c r="Z417">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA417">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB417">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC417">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="418" spans="1:29">
@@ -37637,7 +37637,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>4733621</v>
+        <v>4734917</v>
       </c>
       <c r="C418" t="s">
         <v>28</v>
@@ -37649,76 +37649,76 @@
         <v>44817.3125</v>
       </c>
       <c r="F418" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G418" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I418">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J418" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K418">
         <v>2.1</v>
       </c>
       <c r="L418">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M418">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="N418">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="O418">
         <v>3.5</v>
       </c>
       <c r="P418">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q418">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R418">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S418">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T418">
         <v>2.5</v>
       </c>
       <c r="U418">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V418">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W418">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X418">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y418">
         <v>-1</v>
       </c>
       <c r="Z418">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA418">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB418">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC418">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="419" spans="1:29">
@@ -37993,7 +37993,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>4742625</v>
+        <v>4742626</v>
       </c>
       <c r="C422" t="s">
         <v>28</v>
@@ -38005,73 +38005,73 @@
         <v>44822.125</v>
       </c>
       <c r="F422" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G422" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H422">
         <v>2</v>
       </c>
       <c r="I422">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J422" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K422">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="L422">
         <v>3.25</v>
       </c>
       <c r="M422">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N422">
+        <v>2.55</v>
+      </c>
+      <c r="O422">
         <v>3.1</v>
       </c>
-      <c r="O422">
-        <v>3.3</v>
-      </c>
       <c r="P422">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="Q422">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R422">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S422">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T422">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U422">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V422">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W422">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="X422">
         <v>-1</v>
       </c>
       <c r="Y422">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z422">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA422">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB422">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC422">
         <v>-1</v>
@@ -38082,7 +38082,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>4742626</v>
+        <v>4742625</v>
       </c>
       <c r="C423" t="s">
         <v>28</v>
@@ -38094,73 +38094,73 @@
         <v>44822.125</v>
       </c>
       <c r="F423" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G423" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H423">
         <v>2</v>
       </c>
       <c r="I423">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J423" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K423">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="L423">
         <v>3.25</v>
       </c>
       <c r="M423">
+        <v>2</v>
+      </c>
+      <c r="N423">
+        <v>3.1</v>
+      </c>
+      <c r="O423">
+        <v>3.3</v>
+      </c>
+      <c r="P423">
+        <v>2.05</v>
+      </c>
+      <c r="Q423">
+        <v>0.25</v>
+      </c>
+      <c r="R423">
+        <v>1.975</v>
+      </c>
+      <c r="S423">
+        <v>1.875</v>
+      </c>
+      <c r="T423">
         <v>2.5</v>
       </c>
-      <c r="N423">
-        <v>2.55</v>
-      </c>
-      <c r="O423">
-        <v>3.1</v>
-      </c>
-      <c r="P423">
-        <v>2.55</v>
-      </c>
-      <c r="Q423">
-        <v>0</v>
-      </c>
-      <c r="R423">
+      <c r="U423">
+        <v>1.9</v>
+      </c>
+      <c r="V423">
         <v>1.95</v>
       </c>
-      <c r="S423">
-        <v>1.9</v>
-      </c>
-      <c r="T423">
-        <v>2.25</v>
-      </c>
-      <c r="U423">
-        <v>1.925</v>
-      </c>
-      <c r="V423">
-        <v>1.925</v>
-      </c>
       <c r="W423">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="X423">
         <v>-1</v>
       </c>
       <c r="Y423">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z423">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA423">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB423">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC423">
         <v>-1</v>
@@ -38260,7 +38260,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>4742624</v>
+        <v>4743115</v>
       </c>
       <c r="C425" t="s">
         <v>28</v>
@@ -38272,13 +38272,13 @@
         <v>44822.125</v>
       </c>
       <c r="F425" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G425" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I425">
         <v>0</v>
@@ -38287,43 +38287,43 @@
         <v>44</v>
       </c>
       <c r="K425">
-        <v>1.533</v>
+        <v>2.75</v>
       </c>
       <c r="L425">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M425">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="N425">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O425">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="P425">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q425">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R425">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S425">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T425">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U425">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V425">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W425">
-        <v>0.6499999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="X425">
         <v>-1</v>
@@ -38332,16 +38332,16 @@
         <v>-1</v>
       </c>
       <c r="Z425">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA425">
         <v>-1</v>
       </c>
       <c r="AB425">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC425">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="426" spans="1:29">
@@ -38349,7 +38349,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>4743115</v>
+        <v>4742624</v>
       </c>
       <c r="C426" t="s">
         <v>28</v>
@@ -38361,13 +38361,13 @@
         <v>44822.125</v>
       </c>
       <c r="F426" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G426" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H426">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I426">
         <v>0</v>
@@ -38376,43 +38376,43 @@
         <v>44</v>
       </c>
       <c r="K426">
+        <v>1.533</v>
+      </c>
+      <c r="L426">
+        <v>4</v>
+      </c>
+      <c r="M426">
+        <v>5</v>
+      </c>
+      <c r="N426">
+        <v>1.65</v>
+      </c>
+      <c r="O426">
+        <v>3.75</v>
+      </c>
+      <c r="P426">
+        <v>4.333</v>
+      </c>
+      <c r="Q426">
+        <v>-0.75</v>
+      </c>
+      <c r="R426">
+        <v>1.925</v>
+      </c>
+      <c r="S426">
+        <v>1.925</v>
+      </c>
+      <c r="T426">
         <v>2.75</v>
       </c>
-      <c r="L426">
-        <v>3.25</v>
-      </c>
-      <c r="M426">
-        <v>2.25</v>
-      </c>
-      <c r="N426">
-        <v>2.5</v>
-      </c>
-      <c r="O426">
-        <v>3.2</v>
-      </c>
-      <c r="P426">
-        <v>2.5</v>
-      </c>
-      <c r="Q426">
-        <v>0</v>
-      </c>
-      <c r="R426">
-        <v>1.875</v>
-      </c>
-      <c r="S426">
-        <v>1.975</v>
-      </c>
-      <c r="T426">
-        <v>2.5</v>
-      </c>
       <c r="U426">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V426">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W426">
-        <v>1.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X426">
         <v>-1</v>
@@ -38421,16 +38421,16 @@
         <v>-1</v>
       </c>
       <c r="Z426">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA426">
         <v>-1</v>
       </c>
       <c r="AB426">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC426">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="427" spans="1:29">
@@ -40663,7 +40663,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>5656532</v>
+        <v>5656531</v>
       </c>
       <c r="C452" t="s">
         <v>28</v>
@@ -40675,55 +40675,55 @@
         <v>44856.125</v>
       </c>
       <c r="F452" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G452" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H452">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I452">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J452" t="s">
         <v>46</v>
       </c>
       <c r="K452">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="L452">
         <v>3.25</v>
       </c>
       <c r="M452">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="N452">
+        <v>3.1</v>
+      </c>
+      <c r="O452">
         <v>3.4</v>
       </c>
-      <c r="O452">
-        <v>3.3</v>
-      </c>
       <c r="P452">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q452">
         <v>0.25</v>
       </c>
       <c r="R452">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S452">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T452">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U452">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V452">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W452">
         <v>-1</v>
@@ -40732,19 +40732,19 @@
         <v>-1</v>
       </c>
       <c r="Y452">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="Z452">
         <v>-1</v>
       </c>
       <c r="AA452">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB452">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC452">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="453" spans="1:29">
@@ -40841,7 +40841,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>5656531</v>
+        <v>5656532</v>
       </c>
       <c r="C454" t="s">
         <v>28</v>
@@ -40853,55 +40853,55 @@
         <v>44856.125</v>
       </c>
       <c r="F454" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G454" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I454">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J454" t="s">
         <v>46</v>
       </c>
       <c r="K454">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="L454">
         <v>3.25</v>
       </c>
       <c r="M454">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="N454">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="O454">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P454">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="Q454">
         <v>0.25</v>
       </c>
       <c r="R454">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S454">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T454">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U454">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V454">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W454">
         <v>-1</v>
@@ -40910,19 +40910,19 @@
         <v>-1</v>
       </c>
       <c r="Y454">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="Z454">
         <v>-1</v>
       </c>
       <c r="AA454">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB454">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC454">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="455" spans="1:29">
@@ -40930,7 +40930,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>5656533</v>
+        <v>5656551</v>
       </c>
       <c r="C455" t="s">
         <v>28</v>
@@ -40942,58 +40942,58 @@
         <v>44857.125</v>
       </c>
       <c r="F455" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G455" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H455">
+        <v>2</v>
+      </c>
+      <c r="I455">
         <v>1</v>
-      </c>
-      <c r="I455">
-        <v>0</v>
       </c>
       <c r="J455" t="s">
         <v>44</v>
       </c>
       <c r="K455">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L455">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M455">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N455">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O455">
         <v>3.4</v>
       </c>
       <c r="P455">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q455">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R455">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S455">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T455">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U455">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V455">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W455">
-        <v>0.7270000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="X455">
         <v>-1</v>
@@ -41002,16 +41002,16 @@
         <v>-1</v>
       </c>
       <c r="Z455">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA455">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB455">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC455">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="456" spans="1:29">
@@ -41108,7 +41108,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>5656551</v>
+        <v>5656533</v>
       </c>
       <c r="C457" t="s">
         <v>28</v>
@@ -41120,58 +41120,58 @@
         <v>44857.125</v>
       </c>
       <c r="F457" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G457" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I457">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J457" t="s">
         <v>44</v>
       </c>
       <c r="K457">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L457">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M457">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N457">
-        <v>2.1</v>
+        <v>1.727</v>
       </c>
       <c r="O457">
         <v>3.4</v>
       </c>
       <c r="P457">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q457">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R457">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S457">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T457">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U457">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V457">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W457">
-        <v>1.1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X457">
         <v>-1</v>
@@ -41180,16 +41180,16 @@
         <v>-1</v>
       </c>
       <c r="Z457">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AA457">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB457">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC457">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:29">
@@ -45024,7 +45024,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>6149473</v>
+        <v>6149402</v>
       </c>
       <c r="C501" t="s">
         <v>28</v>
@@ -45036,76 +45036,76 @@
         <v>45038.1875</v>
       </c>
       <c r="F501" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G501" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I501">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J501" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K501">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L501">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M501">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="N501">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O501">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P501">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q501">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R501">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S501">
+        <v>2.05</v>
+      </c>
+      <c r="T501">
+        <v>2.5</v>
+      </c>
+      <c r="U501">
         <v>1.85</v>
       </c>
-      <c r="T501">
-        <v>2.25</v>
-      </c>
-      <c r="U501">
-        <v>1.95</v>
-      </c>
       <c r="V501">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W501">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X501">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y501">
         <v>-1</v>
       </c>
       <c r="Z501">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA501">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB501">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC501">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:29">
@@ -45113,7 +45113,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>6149402</v>
+        <v>6149473</v>
       </c>
       <c r="C502" t="s">
         <v>28</v>
@@ -45125,76 +45125,76 @@
         <v>45038.1875</v>
       </c>
       <c r="F502" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G502" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I502">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J502" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K502">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L502">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M502">
+        <v>3.8</v>
+      </c>
+      <c r="N502">
+        <v>2</v>
+      </c>
+      <c r="O502">
         <v>3.1</v>
       </c>
-      <c r="N502">
-        <v>2.5</v>
-      </c>
-      <c r="O502">
-        <v>3.4</v>
-      </c>
       <c r="P502">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q502">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R502">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S502">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T502">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U502">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V502">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W502">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X502">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y502">
         <v>-1</v>
       </c>
       <c r="Z502">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA502">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB502">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC502">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="503" spans="1:29">
@@ -45469,7 +45469,7 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>6149827</v>
+        <v>6149474</v>
       </c>
       <c r="C506" t="s">
         <v>28</v>
@@ -45481,76 +45481,76 @@
         <v>45041.3125</v>
       </c>
       <c r="F506" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G506" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H506">
+        <v>0</v>
+      </c>
+      <c r="I506">
         <v>1</v>
       </c>
-      <c r="I506">
-        <v>0</v>
-      </c>
       <c r="J506" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K506">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="L506">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M506">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N506">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O506">
         <v>3.75</v>
       </c>
       <c r="P506">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q506">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R506">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S506">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T506">
         <v>2.5</v>
       </c>
       <c r="U506">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V506">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W506">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X506">
         <v>-1</v>
       </c>
       <c r="Y506">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z506">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA506">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB506">
         <v>-1</v>
       </c>
       <c r="AC506">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="507" spans="1:29">
@@ -45558,7 +45558,7 @@
         <v>505</v>
       </c>
       <c r="B507">
-        <v>6149474</v>
+        <v>6149827</v>
       </c>
       <c r="C507" t="s">
         <v>28</v>
@@ -45570,76 +45570,76 @@
         <v>45041.3125</v>
       </c>
       <c r="F507" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G507" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H507">
+        <v>1</v>
+      </c>
+      <c r="I507">
         <v>0</v>
       </c>
-      <c r="I507">
-        <v>1</v>
-      </c>
       <c r="J507" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K507">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="L507">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M507">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N507">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="O507">
         <v>3.75</v>
       </c>
       <c r="P507">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q507">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R507">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S507">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T507">
         <v>2.5</v>
       </c>
       <c r="U507">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V507">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W507">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X507">
         <v>-1</v>
       </c>
       <c r="Y507">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z507">
+        <v>0.4875</v>
+      </c>
+      <c r="AA507">
         <v>-0.5</v>
       </c>
-      <c r="AA507">
-        <v>0.475</v>
-      </c>
       <c r="AB507">
         <v>-1</v>
       </c>
       <c r="AC507">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="508" spans="1:29">
@@ -45647,7 +45647,7 @@
         <v>506</v>
       </c>
       <c r="B508">
-        <v>6149829</v>
+        <v>6149828</v>
       </c>
       <c r="C508" t="s">
         <v>28</v>
@@ -45659,76 +45659,76 @@
         <v>45042.29166666666</v>
       </c>
       <c r="F508" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G508" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H508">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I508">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J508" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K508">
+        <v>2.5</v>
+      </c>
+      <c r="L508">
         <v>3.1</v>
       </c>
-      <c r="L508">
-        <v>3</v>
-      </c>
       <c r="M508">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="N508">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O508">
+        <v>3.4</v>
+      </c>
+      <c r="P508">
         <v>3.1</v>
       </c>
-      <c r="P508">
-        <v>2.55</v>
-      </c>
       <c r="Q508">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R508">
+        <v>1.9</v>
+      </c>
+      <c r="S508">
+        <v>1.95</v>
+      </c>
+      <c r="T508">
+        <v>2.5</v>
+      </c>
+      <c r="U508">
+        <v>1.95</v>
+      </c>
+      <c r="V508">
+        <v>1.9</v>
+      </c>
+      <c r="W508">
+        <v>-1</v>
+      </c>
+      <c r="X508">
+        <v>-1</v>
+      </c>
+      <c r="Y508">
         <v>2.1</v>
       </c>
-      <c r="S508">
-        <v>1.775</v>
-      </c>
-      <c r="T508">
-        <v>2</v>
-      </c>
-      <c r="U508">
-        <v>1.8</v>
-      </c>
-      <c r="V508">
-        <v>2.05</v>
-      </c>
-      <c r="W508">
-        <v>1.9</v>
-      </c>
-      <c r="X508">
-        <v>-1</v>
-      </c>
-      <c r="Y508">
-        <v>-1</v>
-      </c>
       <c r="Z508">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA508">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB508">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC508">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="509" spans="1:29">
@@ -45736,7 +45736,7 @@
         <v>507</v>
       </c>
       <c r="B509">
-        <v>6149828</v>
+        <v>6149829</v>
       </c>
       <c r="C509" t="s">
         <v>28</v>
@@ -45748,76 +45748,76 @@
         <v>45042.29166666666</v>
       </c>
       <c r="F509" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G509" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H509">
+        <v>3</v>
+      </c>
+      <c r="I509">
+        <v>2</v>
+      </c>
+      <c r="J509" t="s">
+        <v>44</v>
+      </c>
+      <c r="K509">
+        <v>3.1</v>
+      </c>
+      <c r="L509">
+        <v>3</v>
+      </c>
+      <c r="M509">
+        <v>2.4</v>
+      </c>
+      <c r="N509">
+        <v>2.9</v>
+      </c>
+      <c r="O509">
+        <v>3.1</v>
+      </c>
+      <c r="P509">
+        <v>2.55</v>
+      </c>
+      <c r="Q509">
         <v>0</v>
       </c>
-      <c r="I509">
-        <v>1</v>
-      </c>
-      <c r="J509" t="s">
-        <v>46</v>
-      </c>
-      <c r="K509">
-        <v>2.5</v>
-      </c>
-      <c r="L509">
-        <v>3.1</v>
-      </c>
-      <c r="M509">
-        <v>2.875</v>
-      </c>
-      <c r="N509">
-        <v>2.2</v>
-      </c>
-      <c r="O509">
-        <v>3.4</v>
-      </c>
-      <c r="P509">
-        <v>3.1</v>
-      </c>
-      <c r="Q509">
-        <v>-0.25</v>
-      </c>
       <c r="R509">
+        <v>2.1</v>
+      </c>
+      <c r="S509">
+        <v>1.775</v>
+      </c>
+      <c r="T509">
+        <v>2</v>
+      </c>
+      <c r="U509">
+        <v>1.8</v>
+      </c>
+      <c r="V509">
+        <v>2.05</v>
+      </c>
+      <c r="W509">
         <v>1.9</v>
       </c>
-      <c r="S509">
-        <v>1.95</v>
-      </c>
-      <c r="T509">
-        <v>2.5</v>
-      </c>
-      <c r="U509">
-        <v>1.95</v>
-      </c>
-      <c r="V509">
-        <v>1.9</v>
-      </c>
-      <c r="W509">
-        <v>-1</v>
-      </c>
       <c r="X509">
         <v>-1</v>
       </c>
       <c r="Y509">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z509">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA509">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB509">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC509">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="510" spans="1:29">
@@ -58463,7 +58463,7 @@
         <v>650</v>
       </c>
       <c r="B652">
-        <v>6387791</v>
+        <v>6384418</v>
       </c>
       <c r="C652" t="s">
         <v>28</v>
@@ -58475,76 +58475,76 @@
         <v>45207.125</v>
       </c>
       <c r="F652" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G652" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H652">
+        <v>1</v>
+      </c>
+      <c r="I652">
         <v>0</v>
       </c>
-      <c r="I652">
-        <v>2</v>
-      </c>
       <c r="J652" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K652">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L652">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M652">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N652">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O652">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P652">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q652">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R652">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S652">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T652">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U652">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V652">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W652">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X652">
         <v>-1</v>
       </c>
       <c r="Y652">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z652">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA652">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB652">
         <v>-1</v>
       </c>
       <c r="AC652">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="653" spans="1:29">
@@ -58552,7 +58552,7 @@
         <v>651</v>
       </c>
       <c r="B653">
-        <v>6384127</v>
+        <v>6387791</v>
       </c>
       <c r="C653" t="s">
         <v>28</v>
@@ -58564,76 +58564,76 @@
         <v>45207.125</v>
       </c>
       <c r="F653" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G653" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H653">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I653">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J653" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K653">
         <v>2.375</v>
       </c>
       <c r="L653">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M653">
         <v>2.875</v>
       </c>
       <c r="N653">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="O653">
         <v>3.3</v>
       </c>
       <c r="P653">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="Q653">
         <v>0</v>
       </c>
       <c r="R653">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S653">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T653">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U653">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V653">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W653">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X653">
         <v>-1</v>
       </c>
       <c r="Y653">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z653">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA653">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB653">
         <v>-1</v>
       </c>
       <c r="AC653">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:29">
@@ -58641,7 +58641,7 @@
         <v>652</v>
       </c>
       <c r="B654">
-        <v>6388625</v>
+        <v>6384127</v>
       </c>
       <c r="C654" t="s">
         <v>28</v>
@@ -58653,76 +58653,76 @@
         <v>45207.125</v>
       </c>
       <c r="F654" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G654" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I654">
         <v>0</v>
       </c>
       <c r="J654" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K654">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="L654">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M654">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N654">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O654">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P654">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q654">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R654">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S654">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T654">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U654">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V654">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W654">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X654">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y654">
         <v>-1</v>
       </c>
       <c r="Z654">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA654">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB654">
         <v>-1</v>
       </c>
       <c r="AC654">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="655" spans="1:29">
@@ -58730,7 +58730,7 @@
         <v>653</v>
       </c>
       <c r="B655">
-        <v>6384418</v>
+        <v>6388625</v>
       </c>
       <c r="C655" t="s">
         <v>28</v>
@@ -58742,76 +58742,76 @@
         <v>45207.125</v>
       </c>
       <c r="F655" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G655" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H655">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I655">
         <v>0</v>
       </c>
       <c r="J655" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K655">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L655">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M655">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N655">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O655">
         <v>3.4</v>
       </c>
       <c r="P655">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q655">
         <v>-0.5</v>
       </c>
       <c r="R655">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S655">
+        <v>1.825</v>
+      </c>
+      <c r="T655">
+        <v>2.5</v>
+      </c>
+      <c r="U655">
+        <v>2</v>
+      </c>
+      <c r="V655">
         <v>1.85</v>
       </c>
-      <c r="T655">
-        <v>2.25</v>
-      </c>
-      <c r="U655">
-        <v>1.925</v>
-      </c>
-      <c r="V655">
-        <v>1.925</v>
-      </c>
       <c r="W655">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X655">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y655">
         <v>-1</v>
       </c>
       <c r="Z655">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA655">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB655">
         <v>-1</v>
       </c>
       <c r="AC655">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="656" spans="1:29">
@@ -60510,7 +60510,7 @@
         <v>673</v>
       </c>
       <c r="B675">
-        <v>7334087</v>
+        <v>7333495</v>
       </c>
       <c r="C675" t="s">
         <v>28</v>
@@ -60522,76 +60522,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F675" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G675" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H675">
+        <v>2</v>
+      </c>
+      <c r="I675">
         <v>0</v>
       </c>
-      <c r="I675">
-        <v>2</v>
-      </c>
       <c r="J675" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K675">
         <v>2.05</v>
       </c>
       <c r="L675">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M675">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N675">
         <v>2.05</v>
       </c>
       <c r="O675">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P675">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q675">
         <v>-0.25</v>
       </c>
       <c r="R675">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S675">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T675">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U675">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V675">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W675">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X675">
         <v>-1</v>
       </c>
       <c r="Y675">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z675">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA675">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB675">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC675">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="676" spans="1:29">
@@ -60599,7 +60599,7 @@
         <v>674</v>
       </c>
       <c r="B676">
-        <v>7333495</v>
+        <v>7334087</v>
       </c>
       <c r="C676" t="s">
         <v>28</v>
@@ -60611,76 +60611,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F676" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G676" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J676" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K676">
         <v>2.05</v>
       </c>
       <c r="L676">
+        <v>3.75</v>
+      </c>
+      <c r="M676">
         <v>3.25</v>
-      </c>
-      <c r="M676">
-        <v>3.2</v>
       </c>
       <c r="N676">
         <v>2.05</v>
       </c>
       <c r="O676">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P676">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q676">
         <v>-0.25</v>
       </c>
       <c r="R676">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S676">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T676">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U676">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V676">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W676">
+        <v>-1</v>
+      </c>
+      <c r="X676">
+        <v>-1</v>
+      </c>
+      <c r="Y676">
+        <v>2.3</v>
+      </c>
+      <c r="Z676">
+        <v>-1</v>
+      </c>
+      <c r="AA676">
         <v>1.05</v>
       </c>
-      <c r="X676">
-        <v>-1</v>
-      </c>
-      <c r="Y676">
-        <v>-1</v>
-      </c>
-      <c r="Z676">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA676">
-        <v>-1</v>
-      </c>
       <c r="AB676">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC676">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="677" spans="1:29">
@@ -60688,7 +60688,7 @@
         <v>675</v>
       </c>
       <c r="B677">
-        <v>7333496</v>
+        <v>7334085</v>
       </c>
       <c r="C677" t="s">
         <v>28</v>
@@ -60700,76 +60700,76 @@
         <v>45255.1875</v>
       </c>
       <c r="F677" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G677" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H677">
+        <v>0</v>
+      </c>
+      <c r="I677">
         <v>1</v>
       </c>
-      <c r="I677">
-        <v>0</v>
-      </c>
       <c r="J677" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K677">
+        <v>1.65</v>
+      </c>
+      <c r="L677">
+        <v>4</v>
+      </c>
+      <c r="M677">
+        <v>5</v>
+      </c>
+      <c r="N677">
+        <v>1.727</v>
+      </c>
+      <c r="O677">
+        <v>3.8</v>
+      </c>
+      <c r="P677">
+        <v>4.2</v>
+      </c>
+      <c r="Q677">
+        <v>-0.75</v>
+      </c>
+      <c r="R677">
+        <v>2</v>
+      </c>
+      <c r="S677">
         <v>1.85</v>
       </c>
-      <c r="L677">
-        <v>3.4</v>
-      </c>
-      <c r="M677">
-        <v>3.6</v>
-      </c>
-      <c r="N677">
-        <v>2.1</v>
-      </c>
-      <c r="O677">
-        <v>3.3</v>
-      </c>
-      <c r="P677">
-        <v>3.6</v>
-      </c>
-      <c r="Q677">
-        <v>-0.25</v>
-      </c>
-      <c r="R677">
-        <v>1.8</v>
-      </c>
-      <c r="S677">
-        <v>2.05</v>
-      </c>
       <c r="T677">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U677">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V677">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W677">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X677">
         <v>-1</v>
       </c>
       <c r="Y677">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z677">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA677">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB677">
         <v>-1</v>
       </c>
       <c r="AC677">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="678" spans="1:29">
@@ -60777,7 +60777,7 @@
         <v>676</v>
       </c>
       <c r="B678">
-        <v>7334085</v>
+        <v>7334086</v>
       </c>
       <c r="C678" t="s">
         <v>28</v>
@@ -60789,76 +60789,76 @@
         <v>45255.1875</v>
       </c>
       <c r="F678" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G678" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H678">
+        <v>2</v>
+      </c>
+      <c r="I678">
         <v>0</v>
       </c>
-      <c r="I678">
-        <v>1</v>
-      </c>
       <c r="J678" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K678">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="L678">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M678">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="N678">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O678">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P678">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q678">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R678">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S678">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T678">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U678">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V678">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W678">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X678">
         <v>-1</v>
       </c>
       <c r="Y678">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z678">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA678">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB678">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC678">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="679" spans="1:29">
@@ -60866,7 +60866,7 @@
         <v>677</v>
       </c>
       <c r="B679">
-        <v>7334086</v>
+        <v>7333496</v>
       </c>
       <c r="C679" t="s">
         <v>28</v>
@@ -60878,13 +60878,13 @@
         <v>45255.1875</v>
       </c>
       <c r="F679" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G679" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I679">
         <v>0</v>
@@ -60893,16 +60893,16 @@
         <v>44</v>
       </c>
       <c r="K679">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L679">
+        <v>3.4</v>
+      </c>
+      <c r="M679">
         <v>3.6</v>
       </c>
-      <c r="M679">
-        <v>3.3</v>
-      </c>
       <c r="N679">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O679">
         <v>3.3</v>
@@ -60911,25 +60911,25 @@
         <v>3.6</v>
       </c>
       <c r="Q679">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R679">
+        <v>1.8</v>
+      </c>
+      <c r="S679">
         <v>2.05</v>
-      </c>
-      <c r="S679">
-        <v>1.8</v>
       </c>
       <c r="T679">
         <v>2.25</v>
       </c>
       <c r="U679">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V679">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W679">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="X679">
         <v>-1</v>
@@ -60938,16 +60938,16 @@
         <v>-1</v>
       </c>
       <c r="Z679">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA679">
         <v>-1</v>
       </c>
       <c r="AB679">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC679">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="680" spans="1:29">
@@ -61222,7 +61222,7 @@
         <v>681</v>
       </c>
       <c r="B683">
-        <v>7333498</v>
+        <v>7333499</v>
       </c>
       <c r="C683" t="s">
         <v>28</v>
@@ -61234,76 +61234,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F683" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G683" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H683">
+        <v>2</v>
+      </c>
+      <c r="I683">
+        <v>1</v>
+      </c>
+      <c r="J683" t="s">
+        <v>44</v>
+      </c>
+      <c r="K683">
+        <v>2.55</v>
+      </c>
+      <c r="L683">
+        <v>3.3</v>
+      </c>
+      <c r="M683">
+        <v>2.7</v>
+      </c>
+      <c r="N683">
+        <v>2.8</v>
+      </c>
+      <c r="O683">
+        <v>3.3</v>
+      </c>
+      <c r="P683">
+        <v>2.45</v>
+      </c>
+      <c r="Q683">
         <v>0</v>
       </c>
-      <c r="I683">
-        <v>0</v>
-      </c>
-      <c r="J683" t="s">
-        <v>45</v>
-      </c>
-      <c r="K683">
-        <v>2</v>
-      </c>
-      <c r="L683">
-        <v>3.4</v>
-      </c>
-      <c r="M683">
-        <v>3.3</v>
-      </c>
-      <c r="N683">
+      <c r="R683">
+        <v>2.1</v>
+      </c>
+      <c r="S683">
+        <v>1.775</v>
+      </c>
+      <c r="T683">
+        <v>2.25</v>
+      </c>
+      <c r="U683">
+        <v>1.875</v>
+      </c>
+      <c r="V683">
+        <v>1.975</v>
+      </c>
+      <c r="W683">
         <v>1.8</v>
       </c>
-      <c r="O683">
-        <v>3.5</v>
-      </c>
-      <c r="P683">
-        <v>4</v>
-      </c>
-      <c r="Q683">
-        <v>-0.5</v>
-      </c>
-      <c r="R683">
-        <v>1.8</v>
-      </c>
-      <c r="S683">
-        <v>2.05</v>
-      </c>
-      <c r="T683">
-        <v>2.5</v>
-      </c>
-      <c r="U683">
-        <v>2.025</v>
-      </c>
-      <c r="V683">
-        <v>1.825</v>
-      </c>
-      <c r="W683">
-        <v>-1</v>
-      </c>
       <c r="X683">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y683">
         <v>-1</v>
       </c>
       <c r="Z683">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA683">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB683">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC683">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="684" spans="1:29">
@@ -61400,7 +61400,7 @@
         <v>683</v>
       </c>
       <c r="B685">
-        <v>7333499</v>
+        <v>7333498</v>
       </c>
       <c r="C685" t="s">
         <v>28</v>
@@ -61412,76 +61412,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F685" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G685" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J685" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K685">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L685">
+        <v>3.4</v>
+      </c>
+      <c r="M685">
         <v>3.3</v>
       </c>
-      <c r="M685">
-        <v>2.7</v>
-      </c>
       <c r="N685">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="O685">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P685">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q685">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R685">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S685">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T685">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U685">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V685">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W685">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X685">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y685">
         <v>-1</v>
       </c>
       <c r="Z685">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA685">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB685">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC685">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
   </sheetData>

--- a/South Korea K League 1/South Korea K League 1.xlsx
+++ b/South Korea K League 1/South Korea K League 1.xlsx
@@ -106,10 +106,10 @@
     <t>Ulsan Hyundai</t>
   </si>
   <si>
-    <t>FC Seoul</t>
+    <t>Suwon Bluewings</t>
   </si>
   <si>
-    <t>Suwon Bluewings</t>
+    <t>FC Seoul</t>
   </si>
   <si>
     <t>Jeju United</t>
@@ -130,10 +130,10 @@
     <t>Daegu FC</t>
   </si>
   <si>
-    <t>Jeonbuk Motors</t>
+    <t>Gangwon FC</t>
   </si>
   <si>
-    <t>Gangwon FC</t>
+    <t>Jeonbuk Motors</t>
   </si>
   <si>
     <t>Gwangju FC</t>
@@ -619,7 +619,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6149800</v>
+        <v>6149801</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,43 +708,43 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>2.15</v>
       </c>
       <c r="L3">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M3">
         <v>3.4</v>
       </c>
       <c r="N3">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O3">
         <v>3.1</v>
       </c>
       <c r="P3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q3">
         <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T3">
         <v>2</v>
@@ -756,25 +756,25 @@
         <v>2.05</v>
       </c>
       <c r="W3">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6149801</v>
+        <v>6149800</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,43 +797,43 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
         <v>2.15</v>
       </c>
       <c r="L4">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M4">
         <v>3.4</v>
       </c>
       <c r="N4">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O4">
         <v>3.1</v>
       </c>
       <c r="P4">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q4">
         <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
         <v>2</v>
@@ -845,25 +845,25 @@
         <v>2.05</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6149361</v>
+        <v>6149467</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1420,43 +1420,43 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="N11">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="O11">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P11">
-        <v>5.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T11">
         <v>2.25</v>
@@ -1471,22 +1471,22 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6149467</v>
+        <v>6149361</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,43 +1509,43 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12">
+        <v>1.85</v>
+      </c>
+      <c r="L12">
+        <v>3.3</v>
+      </c>
+      <c r="M12">
         <v>4</v>
       </c>
-      <c r="L12">
-        <v>3.6</v>
-      </c>
-      <c r="M12">
-        <v>1.8</v>
-      </c>
       <c r="N12">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="O12">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P12">
-        <v>1.833</v>
+        <v>5.5</v>
       </c>
       <c r="Q12">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S12">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T12">
         <v>2.25</v>
@@ -1560,22 +1560,22 @@
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y12">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1598,7 +1598,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1862,7 +1862,7 @@
         <v>44996.1875</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
         <v>37</v>
@@ -1951,7 +1951,7 @@
         <v>44997.08333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>29</v>
@@ -2040,7 +2040,7 @@
         <v>44997.1875</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
         <v>40</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6149810</v>
+        <v>6149811</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L20">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M20">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="N20">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="O20">
         <v>3.1</v>
       </c>
       <c r="P20">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
+        <v>2.025</v>
+      </c>
+      <c r="V20">
+        <v>1.825</v>
+      </c>
+      <c r="W20">
         <v>1.75</v>
       </c>
-      <c r="V20">
-        <v>2.05</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
       <c r="X20">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6149811</v>
+        <v>6149810</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,76 +2307,76 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L21">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M21">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N21">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="O21">
         <v>3.1</v>
       </c>
       <c r="P21">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q21">
+        <v>-0.5</v>
+      </c>
+      <c r="R21">
+        <v>1.875</v>
+      </c>
+      <c r="S21">
+        <v>1.975</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>1.75</v>
+      </c>
+      <c r="V21">
+        <v>2.05</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
+        <v>2.1</v>
+      </c>
+      <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB21">
         <v>0</v>
       </c>
-      <c r="R21">
-        <v>2.075</v>
-      </c>
-      <c r="S21">
-        <v>1.725</v>
-      </c>
-      <c r="T21">
-        <v>2.25</v>
-      </c>
-      <c r="U21">
-        <v>2.025</v>
-      </c>
-      <c r="V21">
-        <v>1.825</v>
-      </c>
-      <c r="W21">
-        <v>1.75</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
-      <c r="Z21">
-        <v>1.075</v>
-      </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
-      <c r="AB21">
-        <v>1.025</v>
-      </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2399,7 +2399,7 @@
         <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2485,7 +2485,7 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>34</v>
@@ -2577,7 +2577,7 @@
         <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2752,7 +2752,7 @@
         <v>45017.08333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -3022,7 +3022,7 @@
         <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -3197,10 +3197,10 @@
         <v>45018.1875</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3289,7 +3289,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3375,7 +3375,7 @@
         <v>45024.1875</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -3642,7 +3642,7 @@
         <v>45025.1875</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
         <v>35</v>
@@ -3731,7 +3731,7 @@
         <v>45025.29166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
         <v>32</v>
@@ -3820,7 +3820,7 @@
         <v>45031.08333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
         <v>32</v>
@@ -3912,7 +3912,7 @@
         <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4001,7 +4001,7 @@
         <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
         <v>35</v>
@@ -4354,10 +4354,10 @@
         <v>45038.08333333334</v>
       </c>
       <c r="F44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s">
         <v>30</v>
-      </c>
-      <c r="G44" t="s">
-        <v>31</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4713,7 +4713,7 @@
         <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4980,7 +4980,7 @@
         <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5066,10 +5066,10 @@
         <v>45042.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6149403</v>
+        <v>6149368</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45042.3125</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K54">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L54">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N54">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O54">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6149368</v>
+        <v>6149403</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45042.3125</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K55">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L55">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M55">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N55">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P55">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q55">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R55">
+        <v>1.825</v>
+      </c>
+      <c r="S55">
+        <v>2.025</v>
+      </c>
+      <c r="T55">
+        <v>2.75</v>
+      </c>
+      <c r="U55">
+        <v>2</v>
+      </c>
+      <c r="V55">
         <v>1.85</v>
       </c>
-      <c r="S55">
-        <v>2</v>
-      </c>
-      <c r="T55">
-        <v>2.5</v>
-      </c>
-      <c r="U55">
-        <v>1.9</v>
-      </c>
-      <c r="V55">
-        <v>1.95</v>
-      </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y55">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB55">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5425,7 +5425,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5511,10 +5511,10 @@
         <v>45045.1875</v>
       </c>
       <c r="F57" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" t="s">
         <v>38</v>
-      </c>
-      <c r="G57" t="s">
-        <v>39</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5778,7 +5778,7 @@
         <v>45046.1875</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
         <v>37</v>
@@ -5956,10 +5956,10 @@
         <v>45051.08333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6137,7 +6137,7 @@
         <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6315,7 +6315,7 @@
         <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6493,7 +6493,7 @@
         <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6149406</v>
+        <v>6149837</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,40 +6579,40 @@
         <v>45055.3125</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K69">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L69">
         <v>3.2</v>
       </c>
       <c r="M69">
+        <v>3.1</v>
+      </c>
+      <c r="N69">
         <v>2.15</v>
       </c>
-      <c r="N69">
-        <v>3.25</v>
-      </c>
       <c r="O69">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P69">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
         <v>1.925</v>
@@ -6624,31 +6624,31 @@
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X69">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC69">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6149837</v>
+        <v>6149406</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,40 +6668,40 @@
         <v>45055.3125</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L70">
         <v>3.2</v>
       </c>
       <c r="M70">
+        <v>2.15</v>
+      </c>
+      <c r="N70">
+        <v>3.25</v>
+      </c>
+      <c r="O70">
         <v>3.1</v>
       </c>
-      <c r="N70">
+      <c r="P70">
         <v>2.15</v>
       </c>
-      <c r="O70">
-        <v>3.2</v>
-      </c>
-      <c r="P70">
-        <v>3.2</v>
-      </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
         <v>1.925</v>
@@ -6713,31 +6713,31 @@
         <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W70">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6149371</v>
+        <v>6149838</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72">
         <v>0</v>
       </c>
-      <c r="I72">
-        <v>3</v>
-      </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K72">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L72">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M72">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N72">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P72">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T72">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6149838</v>
+        <v>6149371</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K73">
+        <v>3.1</v>
+      </c>
+      <c r="L73">
+        <v>3</v>
+      </c>
+      <c r="M73">
         <v>2.2</v>
       </c>
-      <c r="L73">
-        <v>3.2</v>
-      </c>
-      <c r="M73">
-        <v>3.2</v>
-      </c>
       <c r="N73">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O73">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P73">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S73">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T73">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U73">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V73">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W73">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB73">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC73">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7202,10 +7202,10 @@
         <v>45059.29166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -7383,7 +7383,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7647,7 +7647,7 @@
         <v>45066.25</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -7825,7 +7825,7 @@
         <v>45067.1875</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
         <v>33</v>
@@ -7914,7 +7914,7 @@
         <v>45067.25</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
         <v>29</v>
@@ -8003,7 +8003,7 @@
         <v>45067.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
         <v>36</v>
@@ -8095,7 +8095,7 @@
         <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8270,10 +8270,10 @@
         <v>45074.1875</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8540,7 +8540,7 @@
         <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8626,7 +8626,7 @@
         <v>45080.1875</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
         <v>29</v>
@@ -8715,7 +8715,7 @@
         <v>45080.25</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
         <v>36</v>
@@ -8807,7 +8807,7 @@
         <v>32</v>
       </c>
       <c r="G94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -9074,7 +9074,7 @@
         <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6149854</v>
+        <v>6149376</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,58 +9338,58 @@
         <v>45084.29166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>41</v>
       </c>
       <c r="K100">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L100">
+        <v>3.5</v>
+      </c>
+      <c r="M100">
+        <v>4.2</v>
+      </c>
+      <c r="N100">
+        <v>2.05</v>
+      </c>
+      <c r="O100">
+        <v>3.3</v>
+      </c>
+      <c r="P100">
         <v>3.4</v>
       </c>
-      <c r="M100">
-        <v>3.8</v>
-      </c>
-      <c r="N100">
+      <c r="Q100">
+        <v>-0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.825</v>
+      </c>
+      <c r="S100">
+        <v>2.025</v>
+      </c>
+      <c r="T100">
+        <v>2.25</v>
+      </c>
+      <c r="U100">
         <v>1.85</v>
       </c>
-      <c r="O100">
-        <v>3.6</v>
-      </c>
-      <c r="P100">
-        <v>4.2</v>
-      </c>
-      <c r="Q100">
-        <v>-0.5</v>
-      </c>
-      <c r="R100">
-        <v>1.9</v>
-      </c>
-      <c r="S100">
-        <v>1.95</v>
-      </c>
-      <c r="T100">
-        <v>2.5</v>
-      </c>
-      <c r="U100">
-        <v>2.025</v>
-      </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9398,16 +9398,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6149376</v>
+        <v>6149854</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,58 +9427,58 @@
         <v>45084.29166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
         <v>41</v>
       </c>
       <c r="K101">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
+        <v>3.8</v>
+      </c>
+      <c r="N101">
+        <v>1.85</v>
+      </c>
+      <c r="O101">
+        <v>3.6</v>
+      </c>
+      <c r="P101">
         <v>4.2</v>
       </c>
-      <c r="N101">
-        <v>2.05</v>
-      </c>
-      <c r="O101">
-        <v>3.3</v>
-      </c>
-      <c r="P101">
-        <v>3.4</v>
-      </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
+        <v>1.9</v>
+      </c>
+      <c r="S101">
+        <v>1.95</v>
+      </c>
+      <c r="T101">
+        <v>2.5</v>
+      </c>
+      <c r="U101">
+        <v>2.025</v>
+      </c>
+      <c r="V101">
         <v>1.825</v>
       </c>
-      <c r="S101">
-        <v>2.025</v>
-      </c>
-      <c r="T101">
-        <v>2.25</v>
-      </c>
-      <c r="U101">
-        <v>1.85</v>
-      </c>
-      <c r="V101">
-        <v>2</v>
-      </c>
       <c r="W101">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9487,16 +9487,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC101">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6149855</v>
+        <v>6149856</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,76 +9516,76 @@
         <v>45084.3125</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K102">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L102">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M102">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="N102">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O102">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P102">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V102">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z102">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC102">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6149856</v>
+        <v>6149855</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45084.3125</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L103">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="N103">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P103">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
+        <v>2.025</v>
+      </c>
+      <c r="T103">
+        <v>2.25</v>
+      </c>
+      <c r="U103">
+        <v>1.825</v>
+      </c>
+      <c r="V103">
+        <v>2.025</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
         <v>2.1</v>
       </c>
-      <c r="T103">
-        <v>2.5</v>
-      </c>
-      <c r="U103">
-        <v>1.95</v>
-      </c>
-      <c r="V103">
-        <v>1.9</v>
-      </c>
-      <c r="W103">
-        <v>-1</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
       <c r="Y103">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA103">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9961,10 +9961,10 @@
         <v>45088.1875</v>
       </c>
       <c r="F107" t="s">
+        <v>38</v>
+      </c>
+      <c r="G107" t="s">
         <v>39</v>
-      </c>
-      <c r="G107" t="s">
-        <v>38</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10050,7 +10050,7 @@
         <v>45088.25</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>33</v>
@@ -10139,7 +10139,7 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
         <v>35</v>
@@ -10228,10 +10228,10 @@
         <v>45101.1875</v>
       </c>
       <c r="F110" t="s">
+        <v>30</v>
+      </c>
+      <c r="G110" t="s">
         <v>31</v>
-      </c>
-      <c r="G110" t="s">
-        <v>30</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10409,7 +10409,7 @@
         <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10676,7 +10676,7 @@
         <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10762,7 +10762,7 @@
         <v>45108.25</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
         <v>32</v>
@@ -10854,7 +10854,7 @@
         <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10940,7 +10940,7 @@
         <v>45108.3125</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
         <v>34</v>
@@ -11210,7 +11210,7 @@
         <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6149414</v>
+        <v>6149867</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,76 +11296,76 @@
         <v>45114.3125</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K122">
+        <v>2.75</v>
+      </c>
+      <c r="L122">
+        <v>3.1</v>
+      </c>
+      <c r="M122">
+        <v>2.5</v>
+      </c>
+      <c r="N122">
+        <v>3.3</v>
+      </c>
+      <c r="O122">
+        <v>3.1</v>
+      </c>
+      <c r="P122">
+        <v>2.2</v>
+      </c>
+      <c r="Q122">
+        <v>0.25</v>
+      </c>
+      <c r="R122">
+        <v>1.95</v>
+      </c>
+      <c r="S122">
+        <v>1.9</v>
+      </c>
+      <c r="T122">
+        <v>2.25</v>
+      </c>
+      <c r="U122">
+        <v>2</v>
+      </c>
+      <c r="V122">
+        <v>1.85</v>
+      </c>
+      <c r="W122">
+        <v>-1</v>
+      </c>
+      <c r="X122">
         <v>2.1</v>
       </c>
-      <c r="L122">
-        <v>3.4</v>
-      </c>
-      <c r="M122">
-        <v>3.2</v>
-      </c>
-      <c r="N122">
-        <v>2.3</v>
-      </c>
-      <c r="O122">
-        <v>3.3</v>
-      </c>
-      <c r="P122">
-        <v>3</v>
-      </c>
-      <c r="Q122">
-        <v>-0.25</v>
-      </c>
-      <c r="R122">
-        <v>2.05</v>
-      </c>
-      <c r="S122">
-        <v>1.8</v>
-      </c>
-      <c r="T122">
-        <v>2.5</v>
-      </c>
-      <c r="U122">
-        <v>1.9</v>
-      </c>
-      <c r="V122">
-        <v>1.95</v>
-      </c>
-      <c r="W122">
-        <v>-1</v>
-      </c>
-      <c r="X122">
-        <v>-1</v>
-      </c>
       <c r="Y122">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA122">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB122">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6149867</v>
+        <v>6149414</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,76 +11385,76 @@
         <v>45114.3125</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H123">
         <v>1</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K123">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L123">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
+        <v>3.2</v>
+      </c>
+      <c r="N123">
+        <v>2.3</v>
+      </c>
+      <c r="O123">
+        <v>3.3</v>
+      </c>
+      <c r="P123">
+        <v>3</v>
+      </c>
+      <c r="Q123">
+        <v>-0.25</v>
+      </c>
+      <c r="R123">
+        <v>2.05</v>
+      </c>
+      <c r="S123">
+        <v>1.8</v>
+      </c>
+      <c r="T123">
         <v>2.5</v>
       </c>
-      <c r="N123">
-        <v>3.3</v>
-      </c>
-      <c r="O123">
-        <v>3.1</v>
-      </c>
-      <c r="P123">
-        <v>2.2</v>
-      </c>
-      <c r="Q123">
-        <v>0.25</v>
-      </c>
-      <c r="R123">
+      <c r="U123">
+        <v>1.9</v>
+      </c>
+      <c r="V123">
         <v>1.95</v>
       </c>
-      <c r="S123">
-        <v>1.9</v>
-      </c>
-      <c r="T123">
-        <v>2.25</v>
-      </c>
-      <c r="U123">
-        <v>2</v>
-      </c>
-      <c r="V123">
-        <v>1.85</v>
-      </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z123">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB123">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC123">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11652,10 +11652,10 @@
         <v>45115.3125</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11744,7 +11744,7 @@
         <v>34</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -11833,7 +11833,7 @@
         <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6149872</v>
+        <v>6149381</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,73 +12097,73 @@
         <v>45119.3125</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H131">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I131">
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K131">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M131">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="N131">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="O131">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q131">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB131">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6149381</v>
+        <v>6149871</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,55 +12186,55 @@
         <v>45119.3125</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
         <v>43</v>
       </c>
       <c r="K132">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L132">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M132">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N132">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="O132">
         <v>3.3</v>
       </c>
       <c r="P132">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S132">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12246,16 +12246,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AA132">
+        <v>-1</v>
+      </c>
+      <c r="AB132">
         <v>-0.5</v>
       </c>
-      <c r="AB132">
-        <v>1</v>
-      </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6149871</v>
+        <v>6149872</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,73 +12278,73 @@
         <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K133">
+        <v>1.55</v>
+      </c>
+      <c r="L133">
+        <v>3.75</v>
+      </c>
+      <c r="M133">
+        <v>5.25</v>
+      </c>
+      <c r="N133">
+        <v>1.55</v>
+      </c>
+      <c r="O133">
         <v>4</v>
       </c>
-      <c r="L133">
-        <v>3.3</v>
-      </c>
-      <c r="M133">
-        <v>1.909</v>
-      </c>
-      <c r="N133">
-        <v>4.5</v>
-      </c>
-      <c r="O133">
-        <v>3.3</v>
-      </c>
       <c r="P133">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R133">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X133">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA133">
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC133">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
         <v>29</v>
@@ -12453,10 +12453,10 @@
         <v>45122.3125</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12631,7 +12631,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G137" t="s">
         <v>36</v>
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6149383</v>
+        <v>6149486</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,10 +12898,10 @@
         <v>45128.3125</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -12913,43 +12913,43 @@
         <v>41</v>
       </c>
       <c r="K140">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="L140">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M140">
+        <v>4.75</v>
+      </c>
+      <c r="N140">
+        <v>1.65</v>
+      </c>
+      <c r="O140">
+        <v>4</v>
+      </c>
+      <c r="P140">
+        <v>4.75</v>
+      </c>
+      <c r="Q140">
+        <v>-0.75</v>
+      </c>
+      <c r="R140">
+        <v>1.825</v>
+      </c>
+      <c r="S140">
+        <v>2.025</v>
+      </c>
+      <c r="T140">
         <v>3</v>
       </c>
-      <c r="N140">
-        <v>2.4</v>
-      </c>
-      <c r="O140">
-        <v>3.2</v>
-      </c>
-      <c r="P140">
-        <v>2.8</v>
-      </c>
-      <c r="Q140">
-        <v>-0.25</v>
-      </c>
-      <c r="R140">
-        <v>2.05</v>
-      </c>
-      <c r="S140">
-        <v>1.75</v>
-      </c>
-      <c r="T140">
-        <v>2.5</v>
-      </c>
       <c r="U140">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W140">
-        <v>1.4</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12958,16 +12958,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6149486</v>
+        <v>6149383</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,10 +12987,10 @@
         <v>45128.3125</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13002,43 +13002,43 @@
         <v>41</v>
       </c>
       <c r="K141">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M141">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N141">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O141">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P141">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T141">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
-        <v>0.6499999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13047,16 +13047,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
       <c r="AA141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC141">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13153,7 +13153,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6149878</v>
+        <v>6149877</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13165,40 +13165,40 @@
         <v>45129.3125</v>
       </c>
       <c r="F143" t="s">
+        <v>38</v>
+      </c>
+      <c r="G143" t="s">
         <v>30</v>
       </c>
-      <c r="G143" t="s">
-        <v>35</v>
-      </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
         <v>42</v>
       </c>
       <c r="K143">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L143">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N143">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="O143">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P143">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R143">
         <v>2</v>
@@ -13207,7 +13207,7 @@
         <v>1.85</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U143">
         <v>1.8</v>
@@ -13222,7 +13222,7 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="Z143">
         <v>-1</v>
@@ -13231,10 +13231,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC143">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13242,7 +13242,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6149877</v>
+        <v>6149878</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13254,40 +13254,40 @@
         <v>45129.3125</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
         <v>42</v>
       </c>
       <c r="K144">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L144">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M144">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N144">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O144">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P144">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
         <v>2</v>
@@ -13296,7 +13296,7 @@
         <v>1.85</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
         <v>1.8</v>
@@ -13311,7 +13311,7 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="Z144">
         <v>-1</v>
@@ -13320,10 +13320,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13432,7 +13432,7 @@
         <v>45142.3125</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G146" t="s">
         <v>33</v>
@@ -13610,7 +13610,7 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G148" t="s">
         <v>36</v>
@@ -13788,7 +13788,7 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G150" t="s">
         <v>35</v>
@@ -13880,7 +13880,7 @@
         <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13966,10 +13966,10 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14055,7 +14055,7 @@
         <v>45150.3125</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G153" t="s">
         <v>29</v>
@@ -14236,7 +14236,7 @@
         <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -14589,7 +14589,7 @@
         <v>45156.3125</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
         <v>32</v>
@@ -14678,7 +14678,7 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G160" t="s">
         <v>36</v>
@@ -14770,7 +14770,7 @@
         <v>29</v>
       </c>
       <c r="G161" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14856,7 +14856,7 @@
         <v>45157.3125</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G162" t="s">
         <v>37</v>
@@ -15123,7 +15123,7 @@
         <v>45163.3125</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G165" t="s">
         <v>34</v>
@@ -15301,7 +15301,7 @@
         <v>45164.3125</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G167" t="s">
         <v>33</v>
@@ -15390,7 +15390,7 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
         <v>29</v>
@@ -15482,7 +15482,7 @@
         <v>40</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H169">
         <v>4</v>
@@ -15660,7 +15660,7 @@
         <v>37</v>
       </c>
       <c r="G171" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15746,10 +15746,10 @@
         <v>45171.1875</v>
       </c>
       <c r="F172" t="s">
+        <v>30</v>
+      </c>
+      <c r="G172" t="s">
         <v>31</v>
-      </c>
-      <c r="G172" t="s">
-        <v>30</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -16016,7 +16016,7 @@
         <v>32</v>
       </c>
       <c r="G175" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16090,7 +16090,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6149898</v>
+        <v>6149389</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16102,73 +16102,73 @@
         <v>45185.08333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K176">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="L176">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M176">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="N176">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="O176">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P176">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R176">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T176">
         <v>2.5</v>
       </c>
       <c r="U176">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V176">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z176">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB176">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16179,7 +16179,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6149389</v>
+        <v>6149898</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16191,73 +16191,73 @@
         <v>45185.08333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K177">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="L177">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M177">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="N177">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P177">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q177">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T177">
         <v>2.5</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16458,7 +16458,7 @@
         <v>45186.08333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
         <v>40</v>
@@ -16547,7 +16547,7 @@
         <v>45186.1875</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16639,7 +16639,7 @@
         <v>34</v>
       </c>
       <c r="G182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H182">
         <v>3</v>
@@ -16728,7 +16728,7 @@
         <v>32</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16802,7 +16802,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6323586</v>
+        <v>6323587</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16814,76 +16814,76 @@
         <v>45193.08333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G184" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
         <v>42</v>
       </c>
       <c r="K184">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M184">
+        <v>2.45</v>
+      </c>
+      <c r="N184">
+        <v>2.6</v>
+      </c>
+      <c r="O184">
+        <v>3.3</v>
+      </c>
+      <c r="P184">
+        <v>2.7</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <v>1.875</v>
+      </c>
+      <c r="S184">
+        <v>1.975</v>
+      </c>
+      <c r="T184">
+        <v>2.25</v>
+      </c>
+      <c r="U184">
+        <v>1.975</v>
+      </c>
+      <c r="V184">
+        <v>1.875</v>
+      </c>
+      <c r="W184">
+        <v>-1</v>
+      </c>
+      <c r="X184">
+        <v>-1</v>
+      </c>
+      <c r="Y184">
         <v>1.7</v>
       </c>
-      <c r="N184">
-        <v>4.75</v>
-      </c>
-      <c r="O184">
-        <v>4</v>
-      </c>
-      <c r="P184">
-        <v>1.666</v>
-      </c>
-      <c r="Q184">
-        <v>0.75</v>
-      </c>
-      <c r="R184">
-        <v>2.025</v>
-      </c>
-      <c r="S184">
-        <v>1.825</v>
-      </c>
-      <c r="T184">
-        <v>3.25</v>
-      </c>
-      <c r="U184">
-        <v>2.05</v>
-      </c>
-      <c r="V184">
-        <v>1.8</v>
-      </c>
-      <c r="W184">
-        <v>-1</v>
-      </c>
-      <c r="X184">
-        <v>-1</v>
-      </c>
-      <c r="Y184">
-        <v>0.6659999999999999</v>
-      </c>
       <c r="Z184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB184">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16891,7 +16891,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6323587</v>
+        <v>6323586</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16903,55 +16903,55 @@
         <v>45193.08333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J185" t="s">
         <v>42</v>
       </c>
       <c r="K185">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="L185">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M185">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="N185">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O185">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P185">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q185">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R185">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W185">
         <v>-1</v>
@@ -16960,19 +16960,19 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1.7</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA185">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC185">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16992,7 +16992,7 @@
         <v>45193.1875</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G186" t="s">
         <v>35</v>
@@ -17158,7 +17158,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6353260</v>
+        <v>6353261</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17170,76 +17170,76 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>43</v>
       </c>
       <c r="K188">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="L188">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M188">
+        <v>2</v>
+      </c>
+      <c r="N188">
+        <v>3.75</v>
+      </c>
+      <c r="O188">
+        <v>3.8</v>
+      </c>
+      <c r="P188">
+        <v>1.85</v>
+      </c>
+      <c r="Q188">
+        <v>0.5</v>
+      </c>
+      <c r="R188">
+        <v>2.025</v>
+      </c>
+      <c r="S188">
+        <v>1.825</v>
+      </c>
+      <c r="T188">
+        <v>2.75</v>
+      </c>
+      <c r="U188">
+        <v>1.825</v>
+      </c>
+      <c r="V188">
+        <v>2.025</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
         <v>2.8</v>
       </c>
-      <c r="N188">
-        <v>2.55</v>
-      </c>
-      <c r="O188">
-        <v>3.4</v>
-      </c>
-      <c r="P188">
-        <v>2.625</v>
-      </c>
-      <c r="Q188">
-        <v>0</v>
-      </c>
-      <c r="R188">
-        <v>1.825</v>
-      </c>
-      <c r="S188">
-        <v>2.025</v>
-      </c>
-      <c r="T188">
-        <v>2.5</v>
-      </c>
-      <c r="U188">
-        <v>2.025</v>
-      </c>
-      <c r="V188">
-        <v>1.825</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>2.4</v>
-      </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA188">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17247,7 +17247,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6353261</v>
+        <v>6353260</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17259,76 +17259,76 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
         <v>43</v>
       </c>
       <c r="K189">
+        <v>2.375</v>
+      </c>
+      <c r="L189">
+        <v>3.5</v>
+      </c>
+      <c r="M189">
+        <v>2.8</v>
+      </c>
+      <c r="N189">
+        <v>2.55</v>
+      </c>
+      <c r="O189">
         <v>3.4</v>
       </c>
-      <c r="L189">
-        <v>3.6</v>
-      </c>
-      <c r="M189">
-        <v>2</v>
-      </c>
-      <c r="N189">
-        <v>3.75</v>
-      </c>
-      <c r="O189">
-        <v>3.8</v>
-      </c>
       <c r="P189">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q189">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R189">
+        <v>1.825</v>
+      </c>
+      <c r="S189">
         <v>2.025</v>
       </c>
-      <c r="S189">
+      <c r="T189">
+        <v>2.5</v>
+      </c>
+      <c r="U189">
+        <v>2.025</v>
+      </c>
+      <c r="V189">
         <v>1.825</v>
       </c>
-      <c r="T189">
-        <v>2.75</v>
-      </c>
-      <c r="U189">
-        <v>1.825</v>
-      </c>
-      <c r="V189">
-        <v>2.025</v>
-      </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17348,7 +17348,7 @@
         <v>45199.1875</v>
       </c>
       <c r="F190" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G190" t="s">
         <v>37</v>
@@ -17440,7 +17440,7 @@
         <v>35</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H191">
         <v>2</v>
@@ -17526,7 +17526,7 @@
         <v>45200.08333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G192" t="s">
         <v>34</v>
@@ -17692,7 +17692,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6384125</v>
+        <v>6384418</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17704,76 +17704,76 @@
         <v>45207.125</v>
       </c>
       <c r="F194" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G194" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K194">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L194">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M194">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N194">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O194">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P194">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q194">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R194">
+        <v>2</v>
+      </c>
+      <c r="S194">
         <v>1.85</v>
       </c>
-      <c r="S194">
-        <v>2</v>
-      </c>
       <c r="T194">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U194">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V194">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X194">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA194">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17781,7 +17781,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6388625</v>
+        <v>6387791</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17793,76 +17793,76 @@
         <v>45207.125</v>
       </c>
       <c r="F195" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G195" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H195">
         <v>0</v>
       </c>
       <c r="I195">
+        <v>2</v>
+      </c>
+      <c r="J195" t="s">
+        <v>42</v>
+      </c>
+      <c r="K195">
+        <v>2.375</v>
+      </c>
+      <c r="L195">
+        <v>3.3</v>
+      </c>
+      <c r="M195">
+        <v>2.875</v>
+      </c>
+      <c r="N195">
+        <v>2.4</v>
+      </c>
+      <c r="O195">
+        <v>3.3</v>
+      </c>
+      <c r="P195">
+        <v>2.8</v>
+      </c>
+      <c r="Q195">
         <v>0</v>
       </c>
-      <c r="J195" t="s">
-        <v>43</v>
-      </c>
-      <c r="K195">
-        <v>1.75</v>
-      </c>
-      <c r="L195">
-        <v>3.75</v>
-      </c>
-      <c r="M195">
-        <v>4.333</v>
-      </c>
-      <c r="N195">
-        <v>2</v>
-      </c>
-      <c r="O195">
-        <v>3.4</v>
-      </c>
-      <c r="P195">
-        <v>3.5</v>
-      </c>
-      <c r="Q195">
-        <v>-0.5</v>
-      </c>
       <c r="R195">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S195">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T195">
         <v>2.5</v>
       </c>
       <c r="U195">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V195">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z195">
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.825</v>
+        <v>1.1</v>
       </c>
       <c r="AB195">
         <v>-1</v>
       </c>
       <c r="AC195">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17870,7 +17870,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6387791</v>
+        <v>6384126</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17885,73 +17885,73 @@
         <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196">
         <v>0</v>
       </c>
-      <c r="I196">
-        <v>2</v>
-      </c>
       <c r="J196" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K196">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L196">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M196">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="N196">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O196">
         <v>3.3</v>
       </c>
       <c r="P196">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q196">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R196">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S196">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T196">
         <v>2.5</v>
       </c>
       <c r="U196">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA196">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17959,7 +17959,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6384418</v>
+        <v>6384127</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17971,10 +17971,10 @@
         <v>45207.125</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G197" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -17986,43 +17986,43 @@
         <v>41</v>
       </c>
       <c r="K197">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L197">
         <v>3.4</v>
       </c>
       <c r="M197">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N197">
+        <v>2.6</v>
+      </c>
+      <c r="O197">
+        <v>3.3</v>
+      </c>
+      <c r="P197">
+        <v>2.625</v>
+      </c>
+      <c r="Q197">
+        <v>0</v>
+      </c>
+      <c r="R197">
+        <v>1.9</v>
+      </c>
+      <c r="S197">
         <v>1.95</v>
       </c>
-      <c r="O197">
-        <v>3.4</v>
-      </c>
-      <c r="P197">
-        <v>4</v>
-      </c>
-      <c r="Q197">
-        <v>-0.5</v>
-      </c>
-      <c r="R197">
-        <v>2</v>
-      </c>
-      <c r="S197">
-        <v>1.85</v>
-      </c>
       <c r="T197">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V197">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W197">
-        <v>0.95</v>
+        <v>1.6</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18031,7 +18031,7 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA197">
         <v>-1</v>
@@ -18040,7 +18040,7 @@
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18048,7 +18048,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6384127</v>
+        <v>6388625</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18060,76 +18060,76 @@
         <v>45207.125</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198">
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K198">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="L198">
+        <v>3.75</v>
+      </c>
+      <c r="M198">
+        <v>4.333</v>
+      </c>
+      <c r="N198">
+        <v>2</v>
+      </c>
+      <c r="O198">
         <v>3.4</v>
       </c>
-      <c r="M198">
-        <v>2.875</v>
-      </c>
-      <c r="N198">
-        <v>2.6</v>
-      </c>
-      <c r="O198">
-        <v>3.3</v>
-      </c>
       <c r="P198">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="Q198">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R198">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S198">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U198">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V198">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W198">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB198">
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18137,7 +18137,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6384126</v>
+        <v>6384125</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18149,76 +18149,76 @@
         <v>45207.125</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G199" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K199">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="L199">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M199">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="N199">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="O199">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P199">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="Q199">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R199">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S199">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T199">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U199">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V199">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W199">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC199">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18419,7 +18419,7 @@
         <v>37</v>
       </c>
       <c r="G202" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18493,7 +18493,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7334076</v>
+        <v>7334077</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18505,76 +18505,76 @@
         <v>45221.08333333334</v>
       </c>
       <c r="F203" t="s">
+        <v>32</v>
+      </c>
+      <c r="G203" t="s">
         <v>30</v>
       </c>
-      <c r="G203" t="s">
-        <v>39</v>
-      </c>
       <c r="H203">
         <v>2</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
         <v>41</v>
       </c>
       <c r="K203">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L203">
         <v>3.5</v>
       </c>
       <c r="M203">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N203">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O203">
         <v>3.5</v>
       </c>
       <c r="P203">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q203">
         <v>-0.5</v>
       </c>
       <c r="R203">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S203">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U203">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V203">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W203">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X203">
+        <v>-1</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA203">
+        <v>-1</v>
+      </c>
+      <c r="AB203">
+        <v>-1</v>
+      </c>
+      <c r="AC203">
         <v>0.8</v>
-      </c>
-      <c r="X203">
-        <v>-1</v>
-      </c>
-      <c r="Y203">
-        <v>-1</v>
-      </c>
-      <c r="Z203">
-        <v>0.875</v>
-      </c>
-      <c r="AA203">
-        <v>-1</v>
-      </c>
-      <c r="AB203">
-        <v>0.825</v>
-      </c>
-      <c r="AC203">
-        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18582,7 +18582,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7334077</v>
+        <v>7334076</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18594,58 +18594,58 @@
         <v>45221.08333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G204" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
         <v>41</v>
       </c>
       <c r="K204">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L204">
         <v>3.5</v>
       </c>
       <c r="M204">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N204">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O204">
         <v>3.5</v>
       </c>
       <c r="P204">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q204">
         <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S204">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T204">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U204">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V204">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W204">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18654,16 +18654,16 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA204">
         <v>-1</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC204">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18772,7 +18772,7 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G206" t="s">
         <v>33</v>
@@ -18849,7 +18849,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7334079</v>
+        <v>7333490</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18861,76 +18861,76 @@
         <v>45227.1875</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G207" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K207">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L207">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M207">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="N207">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="O207">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P207">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q207">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R207">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S207">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T207">
         <v>2.25</v>
       </c>
       <c r="U207">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V207">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB207">
         <v>-0.5</v>
       </c>
       <c r="AC207">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18938,7 +18938,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7333490</v>
+        <v>7334079</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18950,76 +18950,76 @@
         <v>45227.1875</v>
       </c>
       <c r="F208" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G208" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208" t="s">
+        <v>43</v>
+      </c>
+      <c r="K208">
+        <v>2.625</v>
+      </c>
+      <c r="L208">
+        <v>3.2</v>
+      </c>
+      <c r="M208">
+        <v>2.7</v>
+      </c>
+      <c r="N208">
+        <v>2.8</v>
+      </c>
+      <c r="O208">
+        <v>3.1</v>
+      </c>
+      <c r="P208">
+        <v>2.6</v>
+      </c>
+      <c r="Q208">
         <v>0</v>
       </c>
-      <c r="I208">
-        <v>2</v>
-      </c>
-      <c r="J208" t="s">
-        <v>42</v>
-      </c>
-      <c r="K208">
-        <v>2.15</v>
-      </c>
-      <c r="L208">
-        <v>3.25</v>
-      </c>
-      <c r="M208">
-        <v>3.4</v>
-      </c>
-      <c r="N208">
-        <v>1.6</v>
-      </c>
-      <c r="O208">
-        <v>3.75</v>
-      </c>
-      <c r="P208">
-        <v>5.75</v>
-      </c>
-      <c r="Q208">
-        <v>-0.75</v>
-      </c>
       <c r="R208">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S208">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T208">
         <v>2.25</v>
       </c>
       <c r="U208">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V208">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y208">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA208">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB208">
         <v>-0.5</v>
       </c>
       <c r="AC208">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19027,7 +19027,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7334080</v>
+        <v>7333491</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19039,76 +19039,76 @@
         <v>45228.08333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G209" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H209">
         <v>2</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K209">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L209">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M209">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N209">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="O209">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P209">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="Q209">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R209">
+        <v>1.925</v>
+      </c>
+      <c r="S209">
+        <v>1.925</v>
+      </c>
+      <c r="T209">
+        <v>2.5</v>
+      </c>
+      <c r="U209">
+        <v>1.975</v>
+      </c>
+      <c r="V209">
         <v>1.875</v>
       </c>
-      <c r="S209">
-        <v>1.975</v>
-      </c>
-      <c r="T209">
-        <v>2.75</v>
-      </c>
-      <c r="U209">
-        <v>2</v>
-      </c>
-      <c r="V209">
-        <v>1.85</v>
-      </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X209">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA209">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19116,7 +19116,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7333491</v>
+        <v>7334080</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19128,76 +19128,76 @@
         <v>45228.08333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G210" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H210">
         <v>2</v>
       </c>
       <c r="I210">
+        <v>2</v>
+      </c>
+      <c r="J210" t="s">
+        <v>43</v>
+      </c>
+      <c r="K210">
+        <v>2.625</v>
+      </c>
+      <c r="L210">
+        <v>3.4</v>
+      </c>
+      <c r="M210">
+        <v>2.55</v>
+      </c>
+      <c r="N210">
+        <v>2.6</v>
+      </c>
+      <c r="O210">
+        <v>3.4</v>
+      </c>
+      <c r="P210">
+        <v>2.6</v>
+      </c>
+      <c r="Q210">
         <v>0</v>
       </c>
-      <c r="J210" t="s">
-        <v>41</v>
-      </c>
-      <c r="K210">
-        <v>1.909</v>
-      </c>
-      <c r="L210">
-        <v>3.5</v>
-      </c>
-      <c r="M210">
-        <v>4</v>
-      </c>
-      <c r="N210">
-        <v>1.727</v>
-      </c>
-      <c r="O210">
-        <v>3.75</v>
-      </c>
-      <c r="P210">
-        <v>5</v>
-      </c>
-      <c r="Q210">
-        <v>-0.75</v>
-      </c>
       <c r="R210">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S210">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U210">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V210">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W210">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC210">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19220,7 +19220,7 @@
         <v>36</v>
       </c>
       <c r="G211" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19309,7 +19309,7 @@
         <v>34</v>
       </c>
       <c r="G212" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -19383,7 +19383,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7334083</v>
+        <v>7334075</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19395,76 +19395,76 @@
         <v>45241.1875</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G213" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
         <v>43</v>
       </c>
       <c r="K213">
+        <v>2.625</v>
+      </c>
+      <c r="L213">
+        <v>3.2</v>
+      </c>
+      <c r="M213">
         <v>2.7</v>
       </c>
-      <c r="L213">
-        <v>3.3</v>
-      </c>
-      <c r="M213">
-        <v>2.55</v>
-      </c>
       <c r="N213">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O213">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P213">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="Q213">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R213">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S213">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T213">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V213">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA213">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC213">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19472,7 +19472,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7334075</v>
+        <v>7334083</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19484,76 +19484,76 @@
         <v>45241.1875</v>
       </c>
       <c r="F214" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
         <v>43</v>
       </c>
       <c r="K214">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L214">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M214">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N214">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O214">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P214">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R214">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S214">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T214">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U214">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA214">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB214">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19561,7 +19561,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7334084</v>
+        <v>7333492</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19573,76 +19573,76 @@
         <v>45242.08333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G215" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K215">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L215">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M215">
+        <v>2.6</v>
+      </c>
+      <c r="N215">
         <v>3.2</v>
       </c>
-      <c r="N215">
-        <v>2.55</v>
-      </c>
       <c r="O215">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P215">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q215">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S215">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T215">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y215">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA215">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB215">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19650,7 +19650,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7333492</v>
+        <v>7334084</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19662,76 +19662,76 @@
         <v>45242.08333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K216">
+        <v>2.15</v>
+      </c>
+      <c r="L216">
+        <v>3.5</v>
+      </c>
+      <c r="M216">
+        <v>3.2</v>
+      </c>
+      <c r="N216">
+        <v>2.55</v>
+      </c>
+      <c r="O216">
+        <v>3.4</v>
+      </c>
+      <c r="P216">
+        <v>2.625</v>
+      </c>
+      <c r="Q216">
+        <v>0</v>
+      </c>
+      <c r="R216">
+        <v>1.875</v>
+      </c>
+      <c r="S216">
+        <v>1.975</v>
+      </c>
+      <c r="T216">
         <v>2.75</v>
       </c>
-      <c r="L216">
-        <v>3.2</v>
-      </c>
-      <c r="M216">
-        <v>2.6</v>
-      </c>
-      <c r="N216">
-        <v>3.2</v>
-      </c>
-      <c r="O216">
-        <v>3.25</v>
-      </c>
-      <c r="P216">
-        <v>2.25</v>
-      </c>
-      <c r="Q216">
-        <v>0.25</v>
-      </c>
-      <c r="R216">
-        <v>1.85</v>
-      </c>
-      <c r="S216">
-        <v>2</v>
-      </c>
-      <c r="T216">
-        <v>2.25</v>
-      </c>
       <c r="U216">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V216">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z216">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB216">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC216">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19917,7 +19917,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7334087</v>
+        <v>7333495</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19929,76 +19929,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G219" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H219">
+        <v>2</v>
+      </c>
+      <c r="I219">
         <v>0</v>
       </c>
-      <c r="I219">
-        <v>2</v>
-      </c>
       <c r="J219" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K219">
         <v>2.05</v>
       </c>
       <c r="L219">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M219">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N219">
         <v>2.05</v>
       </c>
       <c r="O219">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P219">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q219">
         <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S219">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T219">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U219">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V219">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W219">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA219">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC219">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20006,7 +20006,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7333495</v>
+        <v>7334087</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20018,76 +20018,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G220" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K220">
         <v>2.05</v>
       </c>
       <c r="L220">
+        <v>3.75</v>
+      </c>
+      <c r="M220">
         <v>3.25</v>
-      </c>
-      <c r="M220">
-        <v>3.2</v>
       </c>
       <c r="N220">
         <v>2.05</v>
       </c>
       <c r="O220">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P220">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q220">
         <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S220">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T220">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V220">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W220">
+        <v>-1</v>
+      </c>
+      <c r="X220">
+        <v>-1</v>
+      </c>
+      <c r="Y220">
+        <v>2.3</v>
+      </c>
+      <c r="Z220">
+        <v>-1</v>
+      </c>
+      <c r="AA220">
         <v>1.05</v>
       </c>
-      <c r="X220">
-        <v>-1</v>
-      </c>
-      <c r="Y220">
-        <v>-1</v>
-      </c>
-      <c r="Z220">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA220">
-        <v>-1</v>
-      </c>
       <c r="AB220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20095,7 +20095,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7334086</v>
+        <v>7334085</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20107,76 +20107,76 @@
         <v>45255.1875</v>
       </c>
       <c r="F221" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G221" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K221">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="L221">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M221">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N221">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O221">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P221">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q221">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R221">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S221">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T221">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V221">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W221">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z221">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20184,7 +20184,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7334085</v>
+        <v>7334086</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20196,76 +20196,76 @@
         <v>45255.1875</v>
       </c>
       <c r="F222" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G222" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H222">
+        <v>2</v>
+      </c>
+      <c r="I222">
         <v>0</v>
       </c>
-      <c r="I222">
-        <v>1</v>
-      </c>
       <c r="J222" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K222">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M222">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="N222">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O222">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P222">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q222">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R222">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S222">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T222">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U222">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V222">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA222">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC222">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20463,10 +20463,10 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G225" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -20555,7 +20555,7 @@
         <v>34</v>
       </c>
       <c r="G226" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H226">
         <v>2</v>
@@ -20718,7 +20718,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7333499</v>
+        <v>7333497</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20730,58 +20730,58 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G228" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" t="s">
         <v>41</v>
       </c>
       <c r="K228">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L228">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M228">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N228">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O228">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P228">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="Q228">
         <v>0</v>
       </c>
       <c r="R228">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S228">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T228">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V228">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W228">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="X228">
         <v>-1</v>
@@ -20790,16 +20790,16 @@
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20807,7 +20807,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7333497</v>
+        <v>7333499</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20819,58 +20819,58 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G229" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
         <v>41</v>
       </c>
       <c r="K229">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L229">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M229">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N229">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O229">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P229">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q229">
         <v>0</v>
       </c>
       <c r="R229">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S229">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T229">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V229">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W229">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20879,16 +20879,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC229">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/South Korea K League 1/South Korea K League 1.xlsx
+++ b/South Korea K League 1/South Korea K League 1.xlsx
@@ -130,10 +130,10 @@
     <t>Daegu FC</t>
   </si>
   <si>
-    <t>Gangwon FC</t>
+    <t>Jeonbuk Motors</t>
   </si>
   <si>
-    <t>Jeonbuk Motors</t>
+    <t>Gangwon FC</t>
   </si>
   <si>
     <t>Gwangju FC</t>
@@ -619,7 +619,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6149467</v>
+        <v>6149361</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1420,43 +1420,43 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11">
+        <v>1.85</v>
+      </c>
+      <c r="L11">
+        <v>3.3</v>
+      </c>
+      <c r="M11">
         <v>4</v>
       </c>
-      <c r="L11">
-        <v>3.6</v>
-      </c>
-      <c r="M11">
-        <v>1.8</v>
-      </c>
       <c r="N11">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="O11">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P11">
-        <v>1.833</v>
+        <v>5.5</v>
       </c>
       <c r="Q11">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S11">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T11">
         <v>2.25</v>
@@ -1471,22 +1471,22 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y11">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6149361</v>
+        <v>6149467</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,43 +1509,43 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="L12">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="N12">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="O12">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P12">
-        <v>5.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S12">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T12">
         <v>2.25</v>
@@ -1560,22 +1560,22 @@
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>44996.1875</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
         <v>37</v>
@@ -2040,7 +2040,7 @@
         <v>44997.1875</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
         <v>40</v>
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6149813</v>
+        <v>6149363</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R23">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
+        <v>2.025</v>
+      </c>
+      <c r="V23">
         <v>1.825</v>
       </c>
-      <c r="V23">
-        <v>2.025</v>
-      </c>
       <c r="W23">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
+        <v>-1</v>
+      </c>
+      <c r="AC23">
         <v>0.825</v>
-      </c>
-      <c r="AC23">
-        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6149363</v>
+        <v>6149813</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
+        <v>1.825</v>
+      </c>
+      <c r="V24">
         <v>2.025</v>
       </c>
-      <c r="V24">
-        <v>1.825</v>
-      </c>
       <c r="W24">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>45017.08333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -3200,7 +3200,7 @@
         <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3642,7 +3642,7 @@
         <v>45025.1875</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
         <v>35</v>
@@ -3731,7 +3731,7 @@
         <v>45025.29166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
         <v>32</v>
@@ -4001,7 +4001,7 @@
         <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
         <v>35</v>
@@ -4713,7 +4713,7 @@
         <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6149474</v>
+        <v>6149827</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,76 +4888,76 @@
         <v>45041.3125</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
         <v>0</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K50">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="L50">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N50">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="O50">
         <v>3.75</v>
       </c>
       <c r="P50">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q50">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R50">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T50">
         <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
+        <v>0.4875</v>
+      </c>
+      <c r="AA50">
         <v>-0.5</v>
       </c>
-      <c r="AA50">
-        <v>0.475</v>
-      </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6149827</v>
+        <v>6149474</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,76 +4977,76 @@
         <v>45041.3125</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K51">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M51">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O51">
         <v>3.75</v>
       </c>
       <c r="P51">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q51">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S51">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W51">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z51">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6149829</v>
+        <v>6149828</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,76 +5066,76 @@
         <v>45042.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K52">
+        <v>2.5</v>
+      </c>
+      <c r="L52">
         <v>3.1</v>
       </c>
-      <c r="L52">
-        <v>3</v>
-      </c>
       <c r="M52">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="N52">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O52">
+        <v>3.4</v>
+      </c>
+      <c r="P52">
         <v>3.1</v>
       </c>
-      <c r="P52">
-        <v>2.55</v>
-      </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
+        <v>1.9</v>
+      </c>
+      <c r="S52">
+        <v>1.95</v>
+      </c>
+      <c r="T52">
+        <v>2.5</v>
+      </c>
+      <c r="U52">
+        <v>1.95</v>
+      </c>
+      <c r="V52">
+        <v>1.9</v>
+      </c>
+      <c r="W52">
+        <v>-1</v>
+      </c>
+      <c r="X52">
+        <v>-1</v>
+      </c>
+      <c r="Y52">
         <v>2.1</v>
       </c>
-      <c r="S52">
-        <v>1.775</v>
-      </c>
-      <c r="T52">
-        <v>2</v>
-      </c>
-      <c r="U52">
-        <v>1.8</v>
-      </c>
-      <c r="V52">
-        <v>2.05</v>
-      </c>
-      <c r="W52">
-        <v>1.9</v>
-      </c>
-      <c r="X52">
-        <v>-1</v>
-      </c>
-      <c r="Y52">
-        <v>-1</v>
-      </c>
       <c r="Z52">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB52">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6149828</v>
+        <v>6149829</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,76 +5155,76 @@
         <v>45042.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53" t="s">
+        <v>41</v>
+      </c>
+      <c r="K53">
+        <v>3.1</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>2.4</v>
+      </c>
+      <c r="N53">
+        <v>2.9</v>
+      </c>
+      <c r="O53">
+        <v>3.1</v>
+      </c>
+      <c r="P53">
+        <v>2.55</v>
+      </c>
+      <c r="Q53">
         <v>0</v>
       </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53" t="s">
-        <v>42</v>
-      </c>
-      <c r="K53">
-        <v>2.5</v>
-      </c>
-      <c r="L53">
-        <v>3.1</v>
-      </c>
-      <c r="M53">
-        <v>2.875</v>
-      </c>
-      <c r="N53">
-        <v>2.2</v>
-      </c>
-      <c r="O53">
-        <v>3.4</v>
-      </c>
-      <c r="P53">
-        <v>3.1</v>
-      </c>
-      <c r="Q53">
-        <v>-0.25</v>
-      </c>
       <c r="R53">
+        <v>2.1</v>
+      </c>
+      <c r="S53">
+        <v>1.775</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="U53">
+        <v>1.8</v>
+      </c>
+      <c r="V53">
+        <v>2.05</v>
+      </c>
+      <c r="W53">
         <v>1.9</v>
       </c>
-      <c r="S53">
-        <v>1.95</v>
-      </c>
-      <c r="T53">
-        <v>2.5</v>
-      </c>
-      <c r="U53">
-        <v>1.95</v>
-      </c>
-      <c r="V53">
-        <v>1.9</v>
-      </c>
-      <c r="W53">
-        <v>-1</v>
-      </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6149368</v>
+        <v>6149403</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45042.3125</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K54">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L54">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M54">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N54">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R54">
+        <v>1.825</v>
+      </c>
+      <c r="S54">
+        <v>2.025</v>
+      </c>
+      <c r="T54">
+        <v>2.75</v>
+      </c>
+      <c r="U54">
+        <v>2</v>
+      </c>
+      <c r="V54">
         <v>1.85</v>
       </c>
-      <c r="S54">
-        <v>2</v>
-      </c>
-      <c r="T54">
-        <v>2.5</v>
-      </c>
-      <c r="U54">
-        <v>1.9</v>
-      </c>
-      <c r="V54">
-        <v>1.95</v>
-      </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y54">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6149403</v>
+        <v>6149368</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45042.3125</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K55">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L55">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M55">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N55">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O55">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P55">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R55">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T55">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5511,10 +5511,10 @@
         <v>45045.1875</v>
       </c>
       <c r="F57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" t="s">
         <v>39</v>
-      </c>
-      <c r="G57" t="s">
-        <v>38</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6149370</v>
+        <v>6149405</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45051.08333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K62">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L62">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M62">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N62">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="O62">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R62">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S62">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6149405</v>
+        <v>6149370</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,76 +6045,76 @@
         <v>45051.08333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L63">
+        <v>3.25</v>
+      </c>
+      <c r="M63">
+        <v>2.5</v>
+      </c>
+      <c r="N63">
+        <v>2.1</v>
+      </c>
+      <c r="O63">
         <v>3.4</v>
       </c>
-      <c r="M63">
-        <v>1.85</v>
-      </c>
-      <c r="N63">
-        <v>3.5</v>
-      </c>
-      <c r="O63">
-        <v>3.5</v>
-      </c>
       <c r="P63">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T63">
         <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V63">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y63">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6315,7 +6315,7 @@
         <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6493,7 +6493,7 @@
         <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6938,7 +6938,7 @@
         <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7202,7 +7202,7 @@
         <v>45059.29166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
         <v>30</v>
@@ -7383,7 +7383,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7825,7 +7825,7 @@
         <v>45067.1875</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
         <v>33</v>
@@ -8003,7 +8003,7 @@
         <v>45067.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
         <v>36</v>
@@ -8273,7 +8273,7 @@
         <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8540,7 +8540,7 @@
         <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8626,7 +8626,7 @@
         <v>45080.1875</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
         <v>29</v>
@@ -8807,7 +8807,7 @@
         <v>32</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -9338,7 +9338,7 @@
         <v>45084.29166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9516,7 +9516,7 @@
         <v>45084.3125</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
         <v>34</v>
@@ -9961,10 +9961,10 @@
         <v>45088.1875</v>
       </c>
       <c r="F107" t="s">
+        <v>39</v>
+      </c>
+      <c r="G107" t="s">
         <v>38</v>
-      </c>
-      <c r="G107" t="s">
-        <v>39</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10409,7 +10409,7 @@
         <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10676,7 +10676,7 @@
         <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10762,7 +10762,7 @@
         <v>45108.25</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
         <v>32</v>
@@ -11210,7 +11210,7 @@
         <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6149867</v>
+        <v>6149414</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,76 +11296,76 @@
         <v>45114.3125</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K122">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L122">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
+        <v>3.2</v>
+      </c>
+      <c r="N122">
+        <v>2.3</v>
+      </c>
+      <c r="O122">
+        <v>3.3</v>
+      </c>
+      <c r="P122">
+        <v>3</v>
+      </c>
+      <c r="Q122">
+        <v>-0.25</v>
+      </c>
+      <c r="R122">
+        <v>2.05</v>
+      </c>
+      <c r="S122">
+        <v>1.8</v>
+      </c>
+      <c r="T122">
         <v>2.5</v>
       </c>
-      <c r="N122">
-        <v>3.3</v>
-      </c>
-      <c r="O122">
-        <v>3.1</v>
-      </c>
-      <c r="P122">
-        <v>2.2</v>
-      </c>
-      <c r="Q122">
-        <v>0.25</v>
-      </c>
-      <c r="R122">
+      <c r="U122">
+        <v>1.9</v>
+      </c>
+      <c r="V122">
         <v>1.95</v>
       </c>
-      <c r="S122">
-        <v>1.9</v>
-      </c>
-      <c r="T122">
-        <v>2.25</v>
-      </c>
-      <c r="U122">
-        <v>2</v>
-      </c>
-      <c r="V122">
-        <v>1.85</v>
-      </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z122">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB122">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC122">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6149414</v>
+        <v>6149867</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,76 +11385,76 @@
         <v>45114.3125</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H123">
         <v>1</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K123">
+        <v>2.75</v>
+      </c>
+      <c r="L123">
+        <v>3.1</v>
+      </c>
+      <c r="M123">
+        <v>2.5</v>
+      </c>
+      <c r="N123">
+        <v>3.3</v>
+      </c>
+      <c r="O123">
+        <v>3.1</v>
+      </c>
+      <c r="P123">
+        <v>2.2</v>
+      </c>
+      <c r="Q123">
+        <v>0.25</v>
+      </c>
+      <c r="R123">
+        <v>1.95</v>
+      </c>
+      <c r="S123">
+        <v>1.9</v>
+      </c>
+      <c r="T123">
+        <v>2.25</v>
+      </c>
+      <c r="U123">
+        <v>2</v>
+      </c>
+      <c r="V123">
+        <v>1.85</v>
+      </c>
+      <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
         <v>2.1</v>
       </c>
-      <c r="L123">
-        <v>3.4</v>
-      </c>
-      <c r="M123">
-        <v>3.2</v>
-      </c>
-      <c r="N123">
-        <v>2.3</v>
-      </c>
-      <c r="O123">
-        <v>3.3</v>
-      </c>
-      <c r="P123">
-        <v>3</v>
-      </c>
-      <c r="Q123">
-        <v>-0.25</v>
-      </c>
-      <c r="R123">
-        <v>2.05</v>
-      </c>
-      <c r="S123">
-        <v>1.8</v>
-      </c>
-      <c r="T123">
-        <v>2.5</v>
-      </c>
-      <c r="U123">
-        <v>1.9</v>
-      </c>
-      <c r="V123">
-        <v>1.95</v>
-      </c>
-      <c r="W123">
-        <v>-1</v>
-      </c>
-      <c r="X123">
-        <v>-1</v>
-      </c>
       <c r="Y123">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA123">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB123">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>45115.3125</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
         <v>31</v>
@@ -11833,7 +11833,7 @@
         <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -12100,7 +12100,7 @@
         <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12453,7 +12453,7 @@
         <v>45122.3125</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
         <v>31</v>
@@ -12631,7 +12631,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G137" t="s">
         <v>36</v>
@@ -12990,7 +12990,7 @@
         <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13165,7 +13165,7 @@
         <v>45129.3125</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G143" t="s">
         <v>30</v>
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6149880</v>
+        <v>6149879</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,73 +13432,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K146">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L146">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M146">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N146">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O146">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P146">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
+        <v>1.9</v>
+      </c>
+      <c r="S146">
         <v>1.95</v>
-      </c>
-      <c r="S146">
-        <v>1.9</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V146">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X146">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6149879</v>
+        <v>6149880</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,73 +13521,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147" t="s">
+        <v>43</v>
+      </c>
+      <c r="K147">
+        <v>2.5</v>
+      </c>
+      <c r="L147">
+        <v>3.2</v>
+      </c>
+      <c r="M147">
+        <v>2.8</v>
+      </c>
+      <c r="N147">
+        <v>2.625</v>
+      </c>
+      <c r="O147">
+        <v>3.3</v>
+      </c>
+      <c r="P147">
+        <v>2.6</v>
+      </c>
+      <c r="Q147">
         <v>0</v>
       </c>
-      <c r="J147" t="s">
-        <v>41</v>
-      </c>
-      <c r="K147">
-        <v>2.15</v>
-      </c>
-      <c r="L147">
-        <v>3.3</v>
-      </c>
-      <c r="M147">
-        <v>3.4</v>
-      </c>
-      <c r="N147">
-        <v>2.2</v>
-      </c>
-      <c r="O147">
-        <v>3</v>
-      </c>
-      <c r="P147">
-        <v>3.6</v>
-      </c>
-      <c r="Q147">
-        <v>-0.25</v>
-      </c>
       <c r="R147">
+        <v>1.95</v>
+      </c>
+      <c r="S147">
         <v>1.9</v>
-      </c>
-      <c r="S147">
-        <v>1.95</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W147">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13788,7 +13788,7 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
         <v>35</v>
@@ -13880,7 +13880,7 @@
         <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13966,7 +13966,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
         <v>30</v>
@@ -14055,7 +14055,7 @@
         <v>45150.3125</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
         <v>29</v>
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6149887</v>
+        <v>6149886</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,76 +14500,76 @@
         <v>45156.3125</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K158">
+        <v>2.9</v>
+      </c>
+      <c r="L158">
+        <v>3.25</v>
+      </c>
+      <c r="M158">
+        <v>2.2</v>
+      </c>
+      <c r="N158">
+        <v>2.75</v>
+      </c>
+      <c r="O158">
+        <v>3.2</v>
+      </c>
+      <c r="P158">
         <v>2.375</v>
-      </c>
-      <c r="L158">
-        <v>3</v>
-      </c>
-      <c r="M158">
-        <v>2.8</v>
-      </c>
-      <c r="N158">
-        <v>2.625</v>
-      </c>
-      <c r="O158">
-        <v>3</v>
-      </c>
-      <c r="P158">
-        <v>2.7</v>
       </c>
       <c r="Q158">
         <v>0</v>
       </c>
       <c r="R158">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S158">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T158">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V158">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X158">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA158">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6149886</v>
+        <v>6149887</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,76 +14589,76 @@
         <v>45156.3125</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K159">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="L159">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M159">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N159">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O159">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P159">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="Q159">
         <v>0</v>
       </c>
       <c r="R159">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S159">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U159">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V159">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W159">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC159">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14678,7 +14678,7 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
         <v>36</v>
@@ -14770,7 +14770,7 @@
         <v>29</v>
       </c>
       <c r="G161" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -15123,7 +15123,7 @@
         <v>45163.3125</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
         <v>34</v>
@@ -15301,7 +15301,7 @@
         <v>45164.3125</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G167" t="s">
         <v>33</v>
@@ -15660,7 +15660,7 @@
         <v>37</v>
       </c>
       <c r="G171" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -16016,7 +16016,7 @@
         <v>32</v>
       </c>
       <c r="G175" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16090,7 +16090,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6149389</v>
+        <v>6149898</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16102,73 +16102,73 @@
         <v>45185.08333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K176">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="L176">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M176">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="N176">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P176">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q176">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S176">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T176">
         <v>2.5</v>
       </c>
       <c r="U176">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V176">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA176">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16179,7 +16179,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6149898</v>
+        <v>6149389</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16191,73 +16191,73 @@
         <v>45185.08333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J177" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K177">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="L177">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M177">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="N177">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="O177">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R177">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
         <v>2.5</v>
       </c>
       <c r="U177">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V177">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z177">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB177">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16802,7 +16802,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6323587</v>
+        <v>6323586</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16814,55 +16814,55 @@
         <v>45193.08333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G184" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J184" t="s">
         <v>42</v>
       </c>
       <c r="K184">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="L184">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M184">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="N184">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O184">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P184">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S184">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T184">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U184">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V184">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W184">
         <v>-1</v>
@@ -16871,19 +16871,19 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1.7</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA184">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC184">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16891,7 +16891,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6323586</v>
+        <v>6323587</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16903,76 +16903,76 @@
         <v>45193.08333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G185" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
         <v>42</v>
       </c>
       <c r="K185">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="L185">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M185">
+        <v>2.45</v>
+      </c>
+      <c r="N185">
+        <v>2.6</v>
+      </c>
+      <c r="O185">
+        <v>3.3</v>
+      </c>
+      <c r="P185">
+        <v>2.7</v>
+      </c>
+      <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185">
+        <v>1.875</v>
+      </c>
+      <c r="S185">
+        <v>1.975</v>
+      </c>
+      <c r="T185">
+        <v>2.25</v>
+      </c>
+      <c r="U185">
+        <v>1.975</v>
+      </c>
+      <c r="V185">
+        <v>1.875</v>
+      </c>
+      <c r="W185">
+        <v>-1</v>
+      </c>
+      <c r="X185">
+        <v>-1</v>
+      </c>
+      <c r="Y185">
         <v>1.7</v>
       </c>
-      <c r="N185">
-        <v>4.75</v>
-      </c>
-      <c r="O185">
-        <v>4</v>
-      </c>
-      <c r="P185">
-        <v>1.666</v>
-      </c>
-      <c r="Q185">
-        <v>0.75</v>
-      </c>
-      <c r="R185">
-        <v>2.025</v>
-      </c>
-      <c r="S185">
-        <v>1.825</v>
-      </c>
-      <c r="T185">
-        <v>3.25</v>
-      </c>
-      <c r="U185">
-        <v>2.05</v>
-      </c>
-      <c r="V185">
-        <v>1.8</v>
-      </c>
-      <c r="W185">
-        <v>-1</v>
-      </c>
-      <c r="X185">
-        <v>-1</v>
-      </c>
-      <c r="Y185">
-        <v>0.6659999999999999</v>
-      </c>
       <c r="Z185">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB185">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16992,7 +16992,7 @@
         <v>45193.1875</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G186" t="s">
         <v>35</v>
@@ -17158,7 +17158,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6353261</v>
+        <v>6353260</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17170,76 +17170,76 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>43</v>
       </c>
       <c r="K188">
+        <v>2.375</v>
+      </c>
+      <c r="L188">
+        <v>3.5</v>
+      </c>
+      <c r="M188">
+        <v>2.8</v>
+      </c>
+      <c r="N188">
+        <v>2.55</v>
+      </c>
+      <c r="O188">
         <v>3.4</v>
       </c>
-      <c r="L188">
-        <v>3.6</v>
-      </c>
-      <c r="M188">
-        <v>2</v>
-      </c>
-      <c r="N188">
-        <v>3.75</v>
-      </c>
-      <c r="O188">
-        <v>3.8</v>
-      </c>
       <c r="P188">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q188">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R188">
+        <v>1.825</v>
+      </c>
+      <c r="S188">
         <v>2.025</v>
       </c>
-      <c r="S188">
+      <c r="T188">
+        <v>2.5</v>
+      </c>
+      <c r="U188">
+        <v>2.025</v>
+      </c>
+      <c r="V188">
         <v>1.825</v>
       </c>
-      <c r="T188">
-        <v>2.75</v>
-      </c>
-      <c r="U188">
-        <v>1.825</v>
-      </c>
-      <c r="V188">
-        <v>2.025</v>
-      </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17247,7 +17247,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6353260</v>
+        <v>6353261</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17259,76 +17259,76 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>43</v>
       </c>
       <c r="K189">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="L189">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M189">
+        <v>2</v>
+      </c>
+      <c r="N189">
+        <v>3.75</v>
+      </c>
+      <c r="O189">
+        <v>3.8</v>
+      </c>
+      <c r="P189">
+        <v>1.85</v>
+      </c>
+      <c r="Q189">
+        <v>0.5</v>
+      </c>
+      <c r="R189">
+        <v>2.025</v>
+      </c>
+      <c r="S189">
+        <v>1.825</v>
+      </c>
+      <c r="T189">
+        <v>2.75</v>
+      </c>
+      <c r="U189">
+        <v>1.825</v>
+      </c>
+      <c r="V189">
+        <v>2.025</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
         <v>2.8</v>
       </c>
-      <c r="N189">
-        <v>2.55</v>
-      </c>
-      <c r="O189">
-        <v>3.4</v>
-      </c>
-      <c r="P189">
-        <v>2.625</v>
-      </c>
-      <c r="Q189">
-        <v>0</v>
-      </c>
-      <c r="R189">
-        <v>1.825</v>
-      </c>
-      <c r="S189">
-        <v>2.025</v>
-      </c>
-      <c r="T189">
-        <v>2.5</v>
-      </c>
-      <c r="U189">
-        <v>2.025</v>
-      </c>
-      <c r="V189">
-        <v>1.825</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>2.4</v>
-      </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA189">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17348,7 +17348,7 @@
         <v>45199.1875</v>
       </c>
       <c r="F190" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G190" t="s">
         <v>37</v>
@@ -17526,7 +17526,7 @@
         <v>45200.08333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G192" t="s">
         <v>34</v>
@@ -17692,7 +17692,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6384418</v>
+        <v>6388625</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17704,76 +17704,76 @@
         <v>45207.125</v>
       </c>
       <c r="F194" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G194" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194">
         <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K194">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L194">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M194">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N194">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O194">
         <v>3.4</v>
       </c>
       <c r="P194">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q194">
         <v>-0.5</v>
       </c>
       <c r="R194">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S194">
+        <v>1.825</v>
+      </c>
+      <c r="T194">
+        <v>2.5</v>
+      </c>
+      <c r="U194">
+        <v>2</v>
+      </c>
+      <c r="V194">
         <v>1.85</v>
       </c>
-      <c r="T194">
-        <v>2.25</v>
-      </c>
-      <c r="U194">
-        <v>1.925</v>
-      </c>
-      <c r="V194">
-        <v>1.925</v>
-      </c>
       <c r="W194">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17781,7 +17781,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6387791</v>
+        <v>6384127</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17793,76 +17793,76 @@
         <v>45207.125</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G195" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H195">
+        <v>1</v>
+      </c>
+      <c r="I195">
         <v>0</v>
       </c>
-      <c r="I195">
-        <v>2</v>
-      </c>
       <c r="J195" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K195">
         <v>2.375</v>
       </c>
       <c r="L195">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M195">
         <v>2.875</v>
       </c>
       <c r="N195">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O195">
         <v>3.3</v>
       </c>
       <c r="P195">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q195">
         <v>0</v>
       </c>
       <c r="R195">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S195">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U195">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V195">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA195">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
         <v>-1</v>
       </c>
       <c r="AC195">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17870,7 +17870,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6384126</v>
+        <v>6384125</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17882,76 +17882,76 @@
         <v>45207.125</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G196" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K196">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="L196">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M196">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="N196">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="O196">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P196">
-        <v>1.95</v>
+        <v>5.25</v>
       </c>
       <c r="Q196">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R196">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S196">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T196">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="V196">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W196">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC196">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17959,7 +17959,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6384127</v>
+        <v>6384126</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17971,10 +17971,10 @@
         <v>45207.125</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G197" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -17986,43 +17986,43 @@
         <v>41</v>
       </c>
       <c r="K197">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L197">
         <v>3.4</v>
       </c>
       <c r="M197">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="N197">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O197">
         <v>3.3</v>
       </c>
       <c r="P197">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="Q197">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R197">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S197">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T197">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U197">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V197">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W197">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18031,7 +18031,7 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA197">
         <v>-1</v>
@@ -18040,7 +18040,7 @@
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18048,7 +18048,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6388625</v>
+        <v>6387791</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18060,76 +18060,76 @@
         <v>45207.125</v>
       </c>
       <c r="F198" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G198" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H198">
         <v>0</v>
       </c>
       <c r="I198">
+        <v>2</v>
+      </c>
+      <c r="J198" t="s">
+        <v>42</v>
+      </c>
+      <c r="K198">
+        <v>2.375</v>
+      </c>
+      <c r="L198">
+        <v>3.3</v>
+      </c>
+      <c r="M198">
+        <v>2.875</v>
+      </c>
+      <c r="N198">
+        <v>2.4</v>
+      </c>
+      <c r="O198">
+        <v>3.3</v>
+      </c>
+      <c r="P198">
+        <v>2.8</v>
+      </c>
+      <c r="Q198">
         <v>0</v>
       </c>
-      <c r="J198" t="s">
-        <v>43</v>
-      </c>
-      <c r="K198">
-        <v>1.75</v>
-      </c>
-      <c r="L198">
-        <v>3.75</v>
-      </c>
-      <c r="M198">
-        <v>4.333</v>
-      </c>
-      <c r="N198">
-        <v>2</v>
-      </c>
-      <c r="O198">
-        <v>3.4</v>
-      </c>
-      <c r="P198">
-        <v>3.5</v>
-      </c>
-      <c r="Q198">
-        <v>-0.5</v>
-      </c>
       <c r="R198">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S198">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T198">
         <v>2.5</v>
       </c>
       <c r="U198">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V198">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W198">
         <v>-1</v>
       </c>
       <c r="X198">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z198">
         <v>-1</v>
       </c>
       <c r="AA198">
-        <v>0.825</v>
+        <v>1.1</v>
       </c>
       <c r="AB198">
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18137,7 +18137,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6384125</v>
+        <v>6384418</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18149,76 +18149,76 @@
         <v>45207.125</v>
       </c>
       <c r="F199" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K199">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L199">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M199">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N199">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O199">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P199">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q199">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
+        <v>2</v>
+      </c>
+      <c r="S199">
         <v>1.85</v>
       </c>
-      <c r="S199">
-        <v>2</v>
-      </c>
       <c r="T199">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U199">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V199">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X199">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA199">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18419,7 +18419,7 @@
         <v>37</v>
       </c>
       <c r="G202" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18597,7 +18597,7 @@
         <v>31</v>
       </c>
       <c r="G204" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -18772,7 +18772,7 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G206" t="s">
         <v>33</v>
@@ -18950,7 +18950,7 @@
         <v>45227.1875</v>
       </c>
       <c r="F208" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G208" t="s">
         <v>32</v>
@@ -19309,7 +19309,7 @@
         <v>34</v>
       </c>
       <c r="G212" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -19561,7 +19561,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7333492</v>
+        <v>7334084</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19573,76 +19573,76 @@
         <v>45242.08333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G215" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J215" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K215">
+        <v>2.15</v>
+      </c>
+      <c r="L215">
+        <v>3.5</v>
+      </c>
+      <c r="M215">
+        <v>3.2</v>
+      </c>
+      <c r="N215">
+        <v>2.55</v>
+      </c>
+      <c r="O215">
+        <v>3.4</v>
+      </c>
+      <c r="P215">
+        <v>2.625</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <v>1.875</v>
+      </c>
+      <c r="S215">
+        <v>1.975</v>
+      </c>
+      <c r="T215">
         <v>2.75</v>
       </c>
-      <c r="L215">
-        <v>3.2</v>
-      </c>
-      <c r="M215">
-        <v>2.6</v>
-      </c>
-      <c r="N215">
-        <v>3.2</v>
-      </c>
-      <c r="O215">
-        <v>3.25</v>
-      </c>
-      <c r="P215">
-        <v>2.25</v>
-      </c>
-      <c r="Q215">
-        <v>0.25</v>
-      </c>
-      <c r="R215">
-        <v>1.85</v>
-      </c>
-      <c r="S215">
-        <v>2</v>
-      </c>
-      <c r="T215">
-        <v>2.25</v>
-      </c>
       <c r="U215">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z215">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB215">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC215">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19650,7 +19650,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7334084</v>
+        <v>7333492</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19662,76 +19662,76 @@
         <v>45242.08333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G216" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K216">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L216">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M216">
+        <v>2.6</v>
+      </c>
+      <c r="N216">
         <v>3.2</v>
       </c>
-      <c r="N216">
-        <v>2.55</v>
-      </c>
       <c r="O216">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P216">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q216">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S216">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T216">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U216">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y216">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA216">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB216">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19929,7 +19929,7 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G219" t="s">
         <v>40</v>
@@ -20196,7 +20196,7 @@
         <v>45255.1875</v>
       </c>
       <c r="F222" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G222" t="s">
         <v>36</v>
@@ -20362,7 +20362,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7334089</v>
+        <v>7334088</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20374,61 +20374,61 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F224" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G224" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J224" t="s">
         <v>43</v>
       </c>
       <c r="K224">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="L224">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M224">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="N224">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O224">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P224">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q224">
         <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S224">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T224">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U224">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V224">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y224">
         <v>-1</v>
@@ -20437,13 +20437,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA224">
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC224">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20466,7 +20466,7 @@
         <v>30</v>
       </c>
       <c r="G225" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -20540,7 +20540,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7334088</v>
+        <v>7334089</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20552,61 +20552,61 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G226" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J226" t="s">
         <v>43</v>
       </c>
       <c r="K226">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="L226">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M226">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="N226">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O226">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P226">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q226">
         <v>-0.25</v>
       </c>
       <c r="R226">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S226">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T226">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U226">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V226">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y226">
         <v>-1</v>
@@ -20615,13 +20615,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA226">
-        <v>0.4875</v>
+        <v>0.375</v>
       </c>
       <c r="AB226">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20733,7 +20733,7 @@
         <v>29</v>
       </c>
       <c r="G228" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H228">
         <v>1</v>

--- a/South Korea K League 1/South Korea K League 1.xlsx
+++ b/South Korea K League 1/South Korea K League 1.xlsx
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6149362</v>
+        <v>6149809</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,13 +2040,13 @@
         <v>44997.1875</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2055,43 +2055,43 @@
         <v>41</v>
       </c>
       <c r="K18">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="L18">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M18">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="N18">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T18">
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W18">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2100,16 +2100,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6149809</v>
+        <v>6149362</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,13 +2129,13 @@
         <v>44997.1875</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2144,43 +2144,43 @@
         <v>41</v>
       </c>
       <c r="K19">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="L19">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M19">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="N19">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O19">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P19">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2189,16 +2189,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC19">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6149363</v>
+        <v>6149813</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U23">
+        <v>1.825</v>
+      </c>
+      <c r="V23">
         <v>2.025</v>
       </c>
-      <c r="V23">
-        <v>1.825</v>
-      </c>
       <c r="W23">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6149813</v>
+        <v>6149363</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L24">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R24">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S24">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
+        <v>2.025</v>
+      </c>
+      <c r="V24">
         <v>1.825</v>
       </c>
-      <c r="V24">
-        <v>2.025</v>
-      </c>
       <c r="W24">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA24">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
+        <v>-1</v>
+      </c>
+      <c r="AC24">
         <v>0.825</v>
-      </c>
-      <c r="AC24">
-        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6149402</v>
+        <v>6149473</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45038.1875</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L45">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
+        <v>3.8</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
         <v>3.1</v>
       </c>
-      <c r="N45">
-        <v>2.5</v>
-      </c>
-      <c r="O45">
-        <v>3.4</v>
-      </c>
       <c r="P45">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6149473</v>
+        <v>6149402</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,76 +4532,76 @@
         <v>45038.1875</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K46">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L46">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M46">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O46">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q46">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S46">
+        <v>2.05</v>
+      </c>
+      <c r="T46">
+        <v>2.5</v>
+      </c>
+      <c r="U46">
         <v>1.85</v>
       </c>
-      <c r="T46">
-        <v>2.25</v>
-      </c>
-      <c r="U46">
-        <v>1.95</v>
-      </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X46">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6149839</v>
+        <v>6149838</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,58 +6757,58 @@
         <v>45056.3125</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H71">
         <v>2</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
         <v>41</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L71">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N71">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O71">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P71">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q71">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T71">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W71">
-        <v>1.1</v>
+        <v>1.45</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6817,16 +6817,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC71">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6149838</v>
+        <v>6149371</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K72">
+        <v>3.1</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72">
         <v>2.2</v>
       </c>
-      <c r="L72">
-        <v>3.2</v>
-      </c>
-      <c r="M72">
-        <v>3.2</v>
-      </c>
       <c r="N72">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O72">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P72">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S72">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T72">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U72">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V72">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W72">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB72">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC72">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6149371</v>
+        <v>6149839</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>41</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>3.4</v>
+      </c>
+      <c r="M73">
+        <v>3.4</v>
+      </c>
+      <c r="N73">
+        <v>2.1</v>
+      </c>
+      <c r="O73">
+        <v>3.5</v>
+      </c>
+      <c r="P73">
+        <v>3.4</v>
+      </c>
+      <c r="Q73">
+        <v>-0.25</v>
+      </c>
+      <c r="R73">
+        <v>1.8</v>
+      </c>
+      <c r="S73">
+        <v>2.05</v>
+      </c>
+      <c r="T73">
+        <v>3</v>
+      </c>
+      <c r="U73">
+        <v>2.025</v>
+      </c>
+      <c r="V73">
+        <v>1.825</v>
+      </c>
+      <c r="W73">
+        <v>1.1</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
+        <v>0.8</v>
+      </c>
+      <c r="AA73">
+        <v>-1</v>
+      </c>
+      <c r="AB73">
         <v>0</v>
       </c>
-      <c r="I73">
-        <v>3</v>
-      </c>
-      <c r="J73" t="s">
-        <v>42</v>
-      </c>
-      <c r="K73">
-        <v>3.1</v>
-      </c>
-      <c r="L73">
-        <v>3</v>
-      </c>
-      <c r="M73">
-        <v>2.2</v>
-      </c>
-      <c r="N73">
-        <v>3</v>
-      </c>
-      <c r="O73">
-        <v>3</v>
-      </c>
-      <c r="P73">
-        <v>2.375</v>
-      </c>
-      <c r="Q73">
-        <v>0.25</v>
-      </c>
-      <c r="R73">
-        <v>1.775</v>
-      </c>
-      <c r="S73">
-        <v>2.1</v>
-      </c>
-      <c r="T73">
-        <v>2</v>
-      </c>
-      <c r="U73">
-        <v>1.8</v>
-      </c>
-      <c r="V73">
-        <v>2.05</v>
-      </c>
-      <c r="W73">
-        <v>-1</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>1.375</v>
-      </c>
-      <c r="Z73">
-        <v>-1</v>
-      </c>
-      <c r="AA73">
-        <v>1.1</v>
-      </c>
-      <c r="AB73">
-        <v>0.8</v>
-      </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6149376</v>
+        <v>6149854</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,58 +9338,58 @@
         <v>45084.29166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>41</v>
       </c>
       <c r="K100">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M100">
+        <v>3.8</v>
+      </c>
+      <c r="N100">
+        <v>1.85</v>
+      </c>
+      <c r="O100">
+        <v>3.6</v>
+      </c>
+      <c r="P100">
         <v>4.2</v>
       </c>
-      <c r="N100">
-        <v>2.05</v>
-      </c>
-      <c r="O100">
-        <v>3.3</v>
-      </c>
-      <c r="P100">
-        <v>3.4</v>
-      </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
+        <v>1.9</v>
+      </c>
+      <c r="S100">
+        <v>1.95</v>
+      </c>
+      <c r="T100">
+        <v>2.5</v>
+      </c>
+      <c r="U100">
+        <v>2.025</v>
+      </c>
+      <c r="V100">
         <v>1.825</v>
       </c>
-      <c r="S100">
-        <v>2.025</v>
-      </c>
-      <c r="T100">
-        <v>2.25</v>
-      </c>
-      <c r="U100">
-        <v>1.85</v>
-      </c>
-      <c r="V100">
-        <v>2</v>
-      </c>
       <c r="W100">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9398,16 +9398,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6149854</v>
+        <v>6149376</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,58 +9427,58 @@
         <v>45084.29166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>41</v>
       </c>
       <c r="K101">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L101">
+        <v>3.5</v>
+      </c>
+      <c r="M101">
+        <v>4.2</v>
+      </c>
+      <c r="N101">
+        <v>2.05</v>
+      </c>
+      <c r="O101">
+        <v>3.3</v>
+      </c>
+      <c r="P101">
         <v>3.4</v>
       </c>
-      <c r="M101">
-        <v>3.8</v>
-      </c>
-      <c r="N101">
+      <c r="Q101">
+        <v>-0.25</v>
+      </c>
+      <c r="R101">
+        <v>1.825</v>
+      </c>
+      <c r="S101">
+        <v>2.025</v>
+      </c>
+      <c r="T101">
+        <v>2.25</v>
+      </c>
+      <c r="U101">
         <v>1.85</v>
       </c>
-      <c r="O101">
-        <v>3.6</v>
-      </c>
-      <c r="P101">
-        <v>4.2</v>
-      </c>
-      <c r="Q101">
-        <v>-0.5</v>
-      </c>
-      <c r="R101">
-        <v>1.9</v>
-      </c>
-      <c r="S101">
-        <v>1.95</v>
-      </c>
-      <c r="T101">
-        <v>2.5</v>
-      </c>
-      <c r="U101">
-        <v>2.025</v>
-      </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W101">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9487,16 +9487,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6149856</v>
+        <v>6149855</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,76 +9516,76 @@
         <v>45084.3125</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K102">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L102">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M102">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="N102">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O102">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P102">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S102">
+        <v>2.025</v>
+      </c>
+      <c r="T102">
+        <v>2.25</v>
+      </c>
+      <c r="U102">
+        <v>1.825</v>
+      </c>
+      <c r="V102">
+        <v>2.025</v>
+      </c>
+      <c r="W102">
+        <v>-1</v>
+      </c>
+      <c r="X102">
         <v>2.1</v>
       </c>
-      <c r="T102">
-        <v>2.5</v>
-      </c>
-      <c r="U102">
-        <v>1.95</v>
-      </c>
-      <c r="V102">
-        <v>1.9</v>
-      </c>
-      <c r="W102">
-        <v>-1</v>
-      </c>
-      <c r="X102">
-        <v>-1</v>
-      </c>
       <c r="Y102">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA102">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6149855</v>
+        <v>6149856</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45084.3125</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K103">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="N103">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O103">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V103">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z103">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC103">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6149414</v>
+        <v>6149867</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,76 +11296,76 @@
         <v>45114.3125</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K122">
+        <v>2.75</v>
+      </c>
+      <c r="L122">
+        <v>3.1</v>
+      </c>
+      <c r="M122">
+        <v>2.5</v>
+      </c>
+      <c r="N122">
+        <v>3.3</v>
+      </c>
+      <c r="O122">
+        <v>3.1</v>
+      </c>
+      <c r="P122">
+        <v>2.2</v>
+      </c>
+      <c r="Q122">
+        <v>0.25</v>
+      </c>
+      <c r="R122">
+        <v>1.95</v>
+      </c>
+      <c r="S122">
+        <v>1.9</v>
+      </c>
+      <c r="T122">
+        <v>2.25</v>
+      </c>
+      <c r="U122">
+        <v>2</v>
+      </c>
+      <c r="V122">
+        <v>1.85</v>
+      </c>
+      <c r="W122">
+        <v>-1</v>
+      </c>
+      <c r="X122">
         <v>2.1</v>
       </c>
-      <c r="L122">
-        <v>3.4</v>
-      </c>
-      <c r="M122">
-        <v>3.2</v>
-      </c>
-      <c r="N122">
-        <v>2.3</v>
-      </c>
-      <c r="O122">
-        <v>3.3</v>
-      </c>
-      <c r="P122">
-        <v>3</v>
-      </c>
-      <c r="Q122">
-        <v>-0.25</v>
-      </c>
-      <c r="R122">
-        <v>2.05</v>
-      </c>
-      <c r="S122">
-        <v>1.8</v>
-      </c>
-      <c r="T122">
-        <v>2.5</v>
-      </c>
-      <c r="U122">
-        <v>1.9</v>
-      </c>
-      <c r="V122">
-        <v>1.95</v>
-      </c>
-      <c r="W122">
-        <v>-1</v>
-      </c>
-      <c r="X122">
-        <v>-1</v>
-      </c>
       <c r="Y122">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA122">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB122">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6149867</v>
+        <v>6149414</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,76 +11385,76 @@
         <v>45114.3125</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H123">
         <v>1</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K123">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L123">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
+        <v>3.2</v>
+      </c>
+      <c r="N123">
+        <v>2.3</v>
+      </c>
+      <c r="O123">
+        <v>3.3</v>
+      </c>
+      <c r="P123">
+        <v>3</v>
+      </c>
+      <c r="Q123">
+        <v>-0.25</v>
+      </c>
+      <c r="R123">
+        <v>2.05</v>
+      </c>
+      <c r="S123">
+        <v>1.8</v>
+      </c>
+      <c r="T123">
         <v>2.5</v>
       </c>
-      <c r="N123">
-        <v>3.3</v>
-      </c>
-      <c r="O123">
-        <v>3.1</v>
-      </c>
-      <c r="P123">
-        <v>2.2</v>
-      </c>
-      <c r="Q123">
-        <v>0.25</v>
-      </c>
-      <c r="R123">
+      <c r="U123">
+        <v>1.9</v>
+      </c>
+      <c r="V123">
         <v>1.95</v>
       </c>
-      <c r="S123">
-        <v>1.9</v>
-      </c>
-      <c r="T123">
-        <v>2.25</v>
-      </c>
-      <c r="U123">
-        <v>2</v>
-      </c>
-      <c r="V123">
-        <v>1.85</v>
-      </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z123">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB123">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC123">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6149381</v>
+        <v>6149871</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,55 +12097,55 @@
         <v>45119.3125</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
         <v>43</v>
       </c>
       <c r="K131">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L131">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M131">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N131">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="O131">
         <v>3.3</v>
       </c>
       <c r="P131">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S131">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12157,16 +12157,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AA131">
+        <v>-1</v>
+      </c>
+      <c r="AB131">
         <v>-0.5</v>
       </c>
-      <c r="AB131">
-        <v>1</v>
-      </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6149871</v>
+        <v>6149381</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,55 +12186,55 @@
         <v>45119.3125</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
         <v>43</v>
       </c>
       <c r="K132">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L132">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M132">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="N132">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="O132">
         <v>3.3</v>
       </c>
       <c r="P132">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T132">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12246,16 +12246,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB132">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC132">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -17692,7 +17692,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6388625</v>
+        <v>6387791</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17704,76 +17704,76 @@
         <v>45207.125</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G194" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H194">
         <v>0</v>
       </c>
       <c r="I194">
+        <v>2</v>
+      </c>
+      <c r="J194" t="s">
+        <v>42</v>
+      </c>
+      <c r="K194">
+        <v>2.375</v>
+      </c>
+      <c r="L194">
+        <v>3.3</v>
+      </c>
+      <c r="M194">
+        <v>2.875</v>
+      </c>
+      <c r="N194">
+        <v>2.4</v>
+      </c>
+      <c r="O194">
+        <v>3.3</v>
+      </c>
+      <c r="P194">
+        <v>2.8</v>
+      </c>
+      <c r="Q194">
         <v>0</v>
       </c>
-      <c r="J194" t="s">
-        <v>43</v>
-      </c>
-      <c r="K194">
-        <v>1.75</v>
-      </c>
-      <c r="L194">
-        <v>3.75</v>
-      </c>
-      <c r="M194">
-        <v>4.333</v>
-      </c>
-      <c r="N194">
-        <v>2</v>
-      </c>
-      <c r="O194">
-        <v>3.4</v>
-      </c>
-      <c r="P194">
-        <v>3.5</v>
-      </c>
-      <c r="Q194">
-        <v>-0.5</v>
-      </c>
       <c r="R194">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S194">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T194">
         <v>2.5</v>
       </c>
       <c r="U194">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V194">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W194">
         <v>-1</v>
       </c>
       <c r="X194">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z194">
         <v>-1</v>
       </c>
       <c r="AA194">
-        <v>0.825</v>
+        <v>1.1</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17781,7 +17781,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6384127</v>
+        <v>6384125</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17793,76 +17793,76 @@
         <v>45207.125</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K195">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L195">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M195">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N195">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O195">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P195">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="Q195">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R195">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S195">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T195">
         <v>2.75</v>
       </c>
       <c r="U195">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V195">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W195">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X195">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC195">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17870,7 +17870,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6384125</v>
+        <v>6384126</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17882,76 +17882,76 @@
         <v>45207.125</v>
       </c>
       <c r="F196" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K196">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="L196">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M196">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N196">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="O196">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P196">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q196">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R196">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S196">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T196">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V196">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X196">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA196">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC196">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17959,7 +17959,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6384126</v>
+        <v>6384127</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17971,10 +17971,10 @@
         <v>45207.125</v>
       </c>
       <c r="F197" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G197" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -17986,43 +17986,43 @@
         <v>41</v>
       </c>
       <c r="K197">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="L197">
         <v>3.4</v>
       </c>
       <c r="M197">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="N197">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="O197">
         <v>3.3</v>
       </c>
       <c r="P197">
+        <v>2.625</v>
+      </c>
+      <c r="Q197">
+        <v>0</v>
+      </c>
+      <c r="R197">
+        <v>1.9</v>
+      </c>
+      <c r="S197">
         <v>1.95</v>
       </c>
-      <c r="Q197">
-        <v>0.5</v>
-      </c>
-      <c r="R197">
+      <c r="T197">
+        <v>2.75</v>
+      </c>
+      <c r="U197">
+        <v>1.975</v>
+      </c>
+      <c r="V197">
         <v>1.875</v>
       </c>
-      <c r="S197">
-        <v>1.975</v>
-      </c>
-      <c r="T197">
-        <v>2.5</v>
-      </c>
-      <c r="U197">
-        <v>2.1</v>
-      </c>
-      <c r="V197">
-        <v>1.775</v>
-      </c>
       <c r="W197">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18031,16 +18031,16 @@
         <v>-1</v>
       </c>
       <c r="Z197">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA197">
+        <v>-1</v>
+      </c>
+      <c r="AB197">
+        <v>-1</v>
+      </c>
+      <c r="AC197">
         <v>0.875</v>
-      </c>
-      <c r="AA197">
-        <v>-1</v>
-      </c>
-      <c r="AB197">
-        <v>-1</v>
-      </c>
-      <c r="AC197">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18048,7 +18048,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6387791</v>
+        <v>6384418</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18060,76 +18060,76 @@
         <v>45207.125</v>
       </c>
       <c r="F198" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G198" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H198">
+        <v>1</v>
+      </c>
+      <c r="I198">
         <v>0</v>
       </c>
-      <c r="I198">
-        <v>2</v>
-      </c>
       <c r="J198" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K198">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L198">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M198">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N198">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O198">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P198">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q198">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R198">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S198">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T198">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U198">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V198">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA198">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18137,7 +18137,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6384418</v>
+        <v>6388625</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18149,76 +18149,76 @@
         <v>45207.125</v>
       </c>
       <c r="F199" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G199" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199">
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K199">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L199">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M199">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N199">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O199">
         <v>3.4</v>
       </c>
       <c r="P199">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q199">
         <v>-0.5</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S199">
+        <v>1.825</v>
+      </c>
+      <c r="T199">
+        <v>2.5</v>
+      </c>
+      <c r="U199">
+        <v>2</v>
+      </c>
+      <c r="V199">
         <v>1.85</v>
       </c>
-      <c r="T199">
-        <v>2.25</v>
-      </c>
-      <c r="U199">
-        <v>1.925</v>
-      </c>
-      <c r="V199">
-        <v>1.925</v>
-      </c>
       <c r="W199">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18493,7 +18493,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7334077</v>
+        <v>7334076</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18505,58 +18505,58 @@
         <v>45221.08333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G203" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H203">
         <v>2</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
         <v>41</v>
       </c>
       <c r="K203">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L203">
         <v>3.5</v>
       </c>
       <c r="M203">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N203">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O203">
         <v>3.5</v>
       </c>
       <c r="P203">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q203">
         <v>-0.5</v>
       </c>
       <c r="R203">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S203">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T203">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U203">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V203">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W203">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18565,16 +18565,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA203">
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC203">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18582,7 +18582,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7334076</v>
+        <v>7334077</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18594,76 +18594,76 @@
         <v>45221.08333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G204" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
         <v>41</v>
       </c>
       <c r="K204">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L204">
         <v>3.5</v>
       </c>
       <c r="M204">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N204">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O204">
         <v>3.5</v>
       </c>
       <c r="P204">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q204">
         <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S204">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T204">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U204">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V204">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W204">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X204">
+        <v>-1</v>
+      </c>
+      <c r="Y204">
+        <v>-1</v>
+      </c>
+      <c r="Z204">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA204">
+        <v>-1</v>
+      </c>
+      <c r="AB204">
+        <v>-1</v>
+      </c>
+      <c r="AC204">
         <v>0.8</v>
-      </c>
-      <c r="X204">
-        <v>-1</v>
-      </c>
-      <c r="Y204">
-        <v>-1</v>
-      </c>
-      <c r="Z204">
-        <v>0.875</v>
-      </c>
-      <c r="AA204">
-        <v>-1</v>
-      </c>
-      <c r="AB204">
-        <v>0.825</v>
-      </c>
-      <c r="AC204">
-        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -19027,7 +19027,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7333491</v>
+        <v>7334080</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19039,76 +19039,76 @@
         <v>45228.08333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G209" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H209">
         <v>2</v>
       </c>
       <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209" t="s">
+        <v>43</v>
+      </c>
+      <c r="K209">
+        <v>2.625</v>
+      </c>
+      <c r="L209">
+        <v>3.4</v>
+      </c>
+      <c r="M209">
+        <v>2.55</v>
+      </c>
+      <c r="N209">
+        <v>2.6</v>
+      </c>
+      <c r="O209">
+        <v>3.4</v>
+      </c>
+      <c r="P209">
+        <v>2.6</v>
+      </c>
+      <c r="Q209">
         <v>0</v>
       </c>
-      <c r="J209" t="s">
-        <v>41</v>
-      </c>
-      <c r="K209">
-        <v>1.909</v>
-      </c>
-      <c r="L209">
-        <v>3.5</v>
-      </c>
-      <c r="M209">
-        <v>4</v>
-      </c>
-      <c r="N209">
-        <v>1.727</v>
-      </c>
-      <c r="O209">
-        <v>3.75</v>
-      </c>
-      <c r="P209">
-        <v>5</v>
-      </c>
-      <c r="Q209">
-        <v>-0.75</v>
-      </c>
       <c r="R209">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S209">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T209">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U209">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V209">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W209">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC209">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19116,7 +19116,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7334080</v>
+        <v>7333491</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19128,76 +19128,76 @@
         <v>45228.08333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G210" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H210">
         <v>2</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K210">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L210">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M210">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N210">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="O210">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P210">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="Q210">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R210">
+        <v>1.925</v>
+      </c>
+      <c r="S210">
+        <v>1.925</v>
+      </c>
+      <c r="T210">
+        <v>2.5</v>
+      </c>
+      <c r="U210">
+        <v>1.975</v>
+      </c>
+      <c r="V210">
         <v>1.875</v>
       </c>
-      <c r="S210">
-        <v>1.975</v>
-      </c>
-      <c r="T210">
-        <v>2.75</v>
-      </c>
-      <c r="U210">
-        <v>2</v>
-      </c>
-      <c r="V210">
-        <v>1.85</v>
-      </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X210">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA210">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19561,7 +19561,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7334084</v>
+        <v>7333492</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19573,76 +19573,76 @@
         <v>45242.08333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G215" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K215">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L215">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M215">
+        <v>2.6</v>
+      </c>
+      <c r="N215">
         <v>3.2</v>
       </c>
-      <c r="N215">
-        <v>2.55</v>
-      </c>
       <c r="O215">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P215">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q215">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S215">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T215">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y215">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA215">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB215">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19650,7 +19650,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7333492</v>
+        <v>7334084</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19662,76 +19662,76 @@
         <v>45242.08333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K216">
+        <v>2.15</v>
+      </c>
+      <c r="L216">
+        <v>3.5</v>
+      </c>
+      <c r="M216">
+        <v>3.2</v>
+      </c>
+      <c r="N216">
+        <v>2.55</v>
+      </c>
+      <c r="O216">
+        <v>3.4</v>
+      </c>
+      <c r="P216">
+        <v>2.625</v>
+      </c>
+      <c r="Q216">
+        <v>0</v>
+      </c>
+      <c r="R216">
+        <v>1.875</v>
+      </c>
+      <c r="S216">
+        <v>1.975</v>
+      </c>
+      <c r="T216">
         <v>2.75</v>
       </c>
-      <c r="L216">
-        <v>3.2</v>
-      </c>
-      <c r="M216">
-        <v>2.6</v>
-      </c>
-      <c r="N216">
-        <v>3.2</v>
-      </c>
-      <c r="O216">
-        <v>3.25</v>
-      </c>
-      <c r="P216">
-        <v>2.25</v>
-      </c>
-      <c r="Q216">
-        <v>0.25</v>
-      </c>
-      <c r="R216">
-        <v>1.85</v>
-      </c>
-      <c r="S216">
-        <v>2</v>
-      </c>
-      <c r="T216">
-        <v>2.25</v>
-      </c>
       <c r="U216">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V216">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z216">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB216">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC216">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19917,7 +19917,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7333495</v>
+        <v>7334087</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19929,76 +19929,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G219" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K219">
         <v>2.05</v>
       </c>
       <c r="L219">
+        <v>3.75</v>
+      </c>
+      <c r="M219">
         <v>3.25</v>
-      </c>
-      <c r="M219">
-        <v>3.2</v>
       </c>
       <c r="N219">
         <v>2.05</v>
       </c>
       <c r="O219">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P219">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q219">
         <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S219">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T219">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U219">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V219">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W219">
+        <v>-1</v>
+      </c>
+      <c r="X219">
+        <v>-1</v>
+      </c>
+      <c r="Y219">
+        <v>2.3</v>
+      </c>
+      <c r="Z219">
+        <v>-1</v>
+      </c>
+      <c r="AA219">
         <v>1.05</v>
       </c>
-      <c r="X219">
-        <v>-1</v>
-      </c>
-      <c r="Y219">
-        <v>-1</v>
-      </c>
-      <c r="Z219">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA219">
-        <v>-1</v>
-      </c>
       <c r="AB219">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20006,7 +20006,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7334087</v>
+        <v>7333495</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20018,76 +20018,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G220" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H220">
+        <v>2</v>
+      </c>
+      <c r="I220">
         <v>0</v>
       </c>
-      <c r="I220">
-        <v>2</v>
-      </c>
       <c r="J220" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K220">
         <v>2.05</v>
       </c>
       <c r="L220">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M220">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N220">
         <v>2.05</v>
       </c>
       <c r="O220">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P220">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q220">
         <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S220">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T220">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U220">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V220">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA220">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC220">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20095,7 +20095,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7334085</v>
+        <v>7333496</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20107,76 +20107,76 @@
         <v>45255.1875</v>
       </c>
       <c r="F221" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G221" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221">
         <v>0</v>
       </c>
-      <c r="I221">
-        <v>1</v>
-      </c>
       <c r="J221" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K221">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L221">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N221">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O221">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P221">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q221">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S221">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V221">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA221">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
         <v>-1</v>
       </c>
       <c r="AC221">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20184,7 +20184,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7334086</v>
+        <v>7334085</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20196,76 +20196,76 @@
         <v>45255.1875</v>
       </c>
       <c r="F222" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G222" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K222">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="L222">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M222">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N222">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O222">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P222">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q222">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R222">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S222">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T222">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U222">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V222">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W222">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z222">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20273,7 +20273,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7333496</v>
+        <v>7334086</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20285,13 +20285,13 @@
         <v>45255.1875</v>
       </c>
       <c r="F223" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G223" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -20300,16 +20300,16 @@
         <v>41</v>
       </c>
       <c r="K223">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L223">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M223">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N223">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O223">
         <v>3.3</v>
@@ -20318,25 +20318,25 @@
         <v>3.6</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
+        <v>2.05</v>
+      </c>
+      <c r="S223">
         <v>1.8</v>
-      </c>
-      <c r="S223">
-        <v>2.05</v>
       </c>
       <c r="T223">
         <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V223">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W223">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -20345,16 +20345,16 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA223">
         <v>-1</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC223">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20362,7 +20362,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7334088</v>
+        <v>7334090</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20374,76 +20374,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F224" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G224" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
         <v>43</v>
       </c>
       <c r="K224">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L224">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M224">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N224">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O224">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P224">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q224">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R224">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S224">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T224">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U224">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V224">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA224">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB224">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20451,7 +20451,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7334090</v>
+        <v>7334089</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20463,49 +20463,49 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G225" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" t="s">
         <v>43</v>
       </c>
       <c r="K225">
+        <v>2.35</v>
+      </c>
+      <c r="L225">
+        <v>3.75</v>
+      </c>
+      <c r="M225">
+        <v>2.7</v>
+      </c>
+      <c r="N225">
         <v>2.4</v>
       </c>
-      <c r="L225">
-        <v>3.3</v>
-      </c>
-      <c r="M225">
+      <c r="O225">
+        <v>3.5</v>
+      </c>
+      <c r="P225">
         <v>2.875</v>
       </c>
-      <c r="N225">
-        <v>2.5</v>
-      </c>
-      <c r="O225">
-        <v>3.25</v>
-      </c>
-      <c r="P225">
-        <v>2.8</v>
-      </c>
       <c r="Q225">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R225">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S225">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T225">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U225">
         <v>1.85</v>
@@ -20517,16 +20517,16 @@
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA225">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB225">
         <v>-1</v>
@@ -20540,7 +20540,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7334089</v>
+        <v>7334088</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20552,61 +20552,61 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G226" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
         <v>43</v>
       </c>
       <c r="K226">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="L226">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M226">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="N226">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O226">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P226">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q226">
         <v>-0.25</v>
       </c>
       <c r="R226">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S226">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T226">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U226">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V226">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y226">
         <v>-1</v>
@@ -20615,13 +20615,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA226">
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC226">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20629,7 +20629,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7333498</v>
+        <v>7333497</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20641,76 +20641,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F227" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G227" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I227">
         <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K227">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L227">
+        <v>3.5</v>
+      </c>
+      <c r="M227">
+        <v>2.9</v>
+      </c>
+      <c r="N227">
+        <v>2.6</v>
+      </c>
+      <c r="O227">
         <v>3.4</v>
       </c>
-      <c r="M227">
-        <v>3.3</v>
-      </c>
-      <c r="N227">
-        <v>1.8</v>
-      </c>
-      <c r="O227">
-        <v>3.5</v>
-      </c>
       <c r="P227">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q227">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R227">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S227">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T227">
         <v>2.5</v>
       </c>
       <c r="U227">
+        <v>1.825</v>
+      </c>
+      <c r="V227">
         <v>2.025</v>
       </c>
-      <c r="V227">
-        <v>1.825</v>
-      </c>
       <c r="W227">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X227">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA227">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
         <v>-1</v>
       </c>
       <c r="AC227">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20718,7 +20718,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7333497</v>
+        <v>7333499</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20730,58 +20730,58 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G228" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
         <v>41</v>
       </c>
       <c r="K228">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L228">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M228">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N228">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O228">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P228">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q228">
         <v>0</v>
       </c>
       <c r="R228">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S228">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T228">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U228">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V228">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W228">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="X228">
         <v>-1</v>
@@ -20790,16 +20790,16 @@
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC228">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20807,7 +20807,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7333499</v>
+        <v>7333498</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20819,76 +20819,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G229" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K229">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L229">
+        <v>3.4</v>
+      </c>
+      <c r="M229">
         <v>3.3</v>
       </c>
-      <c r="M229">
-        <v>2.7</v>
-      </c>
       <c r="N229">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="O229">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P229">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R229">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S229">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V229">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W229">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB229">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
   </sheetData>

--- a/South Korea K League 1/South Korea K League 1.xlsx
+++ b/South Korea K League 1/South Korea K League 1.xlsx
@@ -106,10 +106,10 @@
     <t>Ulsan Hyundai</t>
   </si>
   <si>
-    <t>Suwon Bluewings</t>
+    <t>FC Seoul</t>
   </si>
   <si>
-    <t>FC Seoul</t>
+    <t>Suwon Bluewings</t>
   </si>
   <si>
     <t>Jeju United</t>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6149801</v>
+        <v>6149800</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,43 +708,43 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>2.15</v>
       </c>
       <c r="L3">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M3">
         <v>3.4</v>
       </c>
       <c r="N3">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O3">
         <v>3.1</v>
       </c>
       <c r="P3">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q3">
         <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
         <v>2</v>
@@ -756,25 +756,25 @@
         <v>2.05</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC3">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6149800</v>
+        <v>6149801</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,43 +797,43 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>2.15</v>
       </c>
       <c r="L4">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M4">
         <v>3.4</v>
       </c>
       <c r="N4">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O4">
         <v>3.1</v>
       </c>
       <c r="P4">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q4">
         <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T4">
         <v>2</v>
@@ -845,25 +845,25 @@
         <v>2.05</v>
       </c>
       <c r="W4">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1598,7 +1598,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6149808</v>
+        <v>6149807</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,37 +1684,37 @@
         <v>44996.08333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="L14">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N14">
         <v>3.6</v>
       </c>
       <c r="O14">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P14">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q14">
         <v>0.25</v>
@@ -1723,10 +1723,10 @@
         <v>2.05</v>
       </c>
       <c r="S14">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
         <v>1.925</v>
@@ -1735,25 +1735,25 @@
         <v>1.925</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X14">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.5249999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC14">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6149807</v>
+        <v>6149808</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,37 +1773,37 @@
         <v>44996.08333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="L15">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N15">
         <v>3.6</v>
       </c>
       <c r="O15">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q15">
         <v>0.25</v>
@@ -1812,10 +1812,10 @@
         <v>2.05</v>
       </c>
       <c r="S15">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T15">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
         <v>1.925</v>
@@ -1824,25 +1824,25 @@
         <v>1.925</v>
       </c>
       <c r="W15">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1.05</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
         <v>0.925</v>
-      </c>
-      <c r="AC15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>44997.08333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>29</v>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6149809</v>
+        <v>6149362</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,13 +2040,13 @@
         <v>44997.1875</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2055,43 +2055,43 @@
         <v>41</v>
       </c>
       <c r="K18">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="L18">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M18">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="N18">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O18">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S18">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T18">
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2100,16 +2100,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6149362</v>
+        <v>6149809</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,13 +2129,13 @@
         <v>44997.1875</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2144,43 +2144,43 @@
         <v>41</v>
       </c>
       <c r="K19">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="L19">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M19">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="N19">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O19">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S19">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W19">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2189,16 +2189,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6149811</v>
+        <v>6149810</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L20">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M20">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N20">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="O20">
         <v>3.1</v>
       </c>
       <c r="P20">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q20">
+        <v>-0.5</v>
+      </c>
+      <c r="R20">
+        <v>1.875</v>
+      </c>
+      <c r="S20">
+        <v>1.975</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>1.75</v>
+      </c>
+      <c r="V20">
+        <v>2.05</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
+        <v>2.1</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB20">
         <v>0</v>
       </c>
-      <c r="R20">
-        <v>2.075</v>
-      </c>
-      <c r="S20">
-        <v>1.725</v>
-      </c>
-      <c r="T20">
-        <v>2.25</v>
-      </c>
-      <c r="U20">
-        <v>2.025</v>
-      </c>
-      <c r="V20">
-        <v>1.825</v>
-      </c>
-      <c r="W20">
-        <v>1.75</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
-      <c r="Z20">
-        <v>1.075</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>1.025</v>
-      </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6149810</v>
+        <v>6149811</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,76 +2307,76 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L21">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M21">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="N21">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="O21">
         <v>3.1</v>
       </c>
       <c r="P21">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
+        <v>2.025</v>
+      </c>
+      <c r="V21">
+        <v>1.825</v>
+      </c>
+      <c r="W21">
         <v>1.75</v>
       </c>
-      <c r="V21">
-        <v>2.05</v>
-      </c>
-      <c r="W21">
-        <v>-1</v>
-      </c>
       <c r="X21">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC21">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2399,7 +2399,7 @@
         <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6149813</v>
+        <v>6149363</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R23">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
+        <v>2.025</v>
+      </c>
+      <c r="V23">
         <v>1.825</v>
       </c>
-      <c r="V23">
-        <v>2.025</v>
-      </c>
       <c r="W23">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
+        <v>-1</v>
+      </c>
+      <c r="AC23">
         <v>0.825</v>
-      </c>
-      <c r="AC23">
-        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6149363</v>
+        <v>6149813</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
+        <v>1.825</v>
+      </c>
+      <c r="V24">
         <v>2.025</v>
       </c>
-      <c r="V24">
-        <v>1.825</v>
-      </c>
       <c r="W24">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6149814</v>
+        <v>6149398</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,19 +2841,19 @@
         <v>45017.1875</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K27">
         <v>2.2</v>
@@ -2865,52 +2865,52 @@
         <v>3.1</v>
       </c>
       <c r="N27">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="O27">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P27">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
+        <v>1.9</v>
+      </c>
+      <c r="V27">
         <v>1.95</v>
       </c>
-      <c r="V27">
-        <v>1.9</v>
-      </c>
       <c r="W27">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6149398</v>
+        <v>6149814</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,19 +2930,19 @@
         <v>45017.1875</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28">
         <v>2.2</v>
@@ -2954,52 +2954,52 @@
         <v>3.1</v>
       </c>
       <c r="N28">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O28">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S28">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
+        <v>1.95</v>
+      </c>
+      <c r="V28">
         <v>1.9</v>
       </c>
-      <c r="V28">
-        <v>1.95</v>
-      </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X28">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
+        <v>1.025</v>
+      </c>
+      <c r="AA28">
+        <v>-1</v>
+      </c>
+      <c r="AB28">
         <v>-0.5</v>
       </c>
-      <c r="AA28">
-        <v>0.4625</v>
-      </c>
-      <c r="AB28">
-        <v>-1</v>
-      </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3022,7 +3022,7 @@
         <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -3197,7 +3197,7 @@
         <v>45018.1875</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
         <v>39</v>
@@ -3289,7 +3289,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3375,7 +3375,7 @@
         <v>45024.1875</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -3820,7 +3820,7 @@
         <v>45031.08333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
         <v>32</v>
@@ -3912,7 +3912,7 @@
         <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4354,10 +4354,10 @@
         <v>45038.08333333334</v>
       </c>
       <c r="F44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s">
         <v>31</v>
-      </c>
-      <c r="G44" t="s">
-        <v>30</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4891,7 +4891,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5158,7 +5158,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5425,7 +5425,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5778,7 +5778,7 @@
         <v>45046.1875</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
         <v>37</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6149405</v>
+        <v>6149370</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45051.08333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K62">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L62">
+        <v>3.25</v>
+      </c>
+      <c r="M62">
+        <v>2.5</v>
+      </c>
+      <c r="N62">
+        <v>2.1</v>
+      </c>
+      <c r="O62">
         <v>3.4</v>
       </c>
-      <c r="M62">
-        <v>1.85</v>
-      </c>
-      <c r="N62">
-        <v>3.5</v>
-      </c>
-      <c r="O62">
-        <v>3.5</v>
-      </c>
       <c r="P62">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q62">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V62">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y62">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB62">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6149370</v>
+        <v>6149405</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,76 +6045,76 @@
         <v>45051.08333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K63">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L63">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M63">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N63">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="O63">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P63">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S63">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
         <v>2.5</v>
       </c>
       <c r="U63">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6137,7 +6137,7 @@
         <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6149837</v>
+        <v>6149406</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,40 +6579,40 @@
         <v>45055.3125</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L69">
         <v>3.2</v>
       </c>
       <c r="M69">
+        <v>2.15</v>
+      </c>
+      <c r="N69">
+        <v>3.25</v>
+      </c>
+      <c r="O69">
         <v>3.1</v>
       </c>
-      <c r="N69">
+      <c r="P69">
         <v>2.15</v>
       </c>
-      <c r="O69">
-        <v>3.2</v>
-      </c>
-      <c r="P69">
-        <v>3.2</v>
-      </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
         <v>1.925</v>
@@ -6624,31 +6624,31 @@
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6149406</v>
+        <v>6149837</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,40 +6668,40 @@
         <v>45055.3125</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K70">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L70">
         <v>3.2</v>
       </c>
       <c r="M70">
+        <v>3.1</v>
+      </c>
+      <c r="N70">
         <v>2.15</v>
       </c>
-      <c r="N70">
-        <v>3.25</v>
-      </c>
       <c r="O70">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
         <v>1.925</v>
@@ -6713,31 +6713,31 @@
         <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V70">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X70">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC70">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6149838</v>
+        <v>6149371</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K71">
+        <v>3.1</v>
+      </c>
+      <c r="L71">
+        <v>3</v>
+      </c>
+      <c r="M71">
         <v>2.2</v>
       </c>
-      <c r="L71">
-        <v>3.2</v>
-      </c>
-      <c r="M71">
-        <v>3.2</v>
-      </c>
       <c r="N71">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P71">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T71">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W71">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB71">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC71">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6149371</v>
+        <v>6149839</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>41</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>3.4</v>
+      </c>
+      <c r="M72">
+        <v>3.4</v>
+      </c>
+      <c r="N72">
+        <v>2.1</v>
+      </c>
+      <c r="O72">
+        <v>3.5</v>
+      </c>
+      <c r="P72">
+        <v>3.4</v>
+      </c>
+      <c r="Q72">
+        <v>-0.25</v>
+      </c>
+      <c r="R72">
+        <v>1.8</v>
+      </c>
+      <c r="S72">
+        <v>2.05</v>
+      </c>
+      <c r="T72">
+        <v>3</v>
+      </c>
+      <c r="U72">
+        <v>2.025</v>
+      </c>
+      <c r="V72">
+        <v>1.825</v>
+      </c>
+      <c r="W72">
+        <v>1.1</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
+        <v>-1</v>
+      </c>
+      <c r="Z72">
+        <v>0.8</v>
+      </c>
+      <c r="AA72">
+        <v>-1</v>
+      </c>
+      <c r="AB72">
         <v>0</v>
       </c>
-      <c r="I72">
-        <v>3</v>
-      </c>
-      <c r="J72" t="s">
-        <v>42</v>
-      </c>
-      <c r="K72">
-        <v>3.1</v>
-      </c>
-      <c r="L72">
-        <v>3</v>
-      </c>
-      <c r="M72">
-        <v>2.2</v>
-      </c>
-      <c r="N72">
-        <v>3</v>
-      </c>
-      <c r="O72">
-        <v>3</v>
-      </c>
-      <c r="P72">
-        <v>2.375</v>
-      </c>
-      <c r="Q72">
-        <v>0.25</v>
-      </c>
-      <c r="R72">
-        <v>1.775</v>
-      </c>
-      <c r="S72">
-        <v>2.1</v>
-      </c>
-      <c r="T72">
-        <v>2</v>
-      </c>
-      <c r="U72">
-        <v>1.8</v>
-      </c>
-      <c r="V72">
-        <v>2.05</v>
-      </c>
-      <c r="W72">
-        <v>-1</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>1.375</v>
-      </c>
-      <c r="Z72">
-        <v>-1</v>
-      </c>
-      <c r="AA72">
-        <v>1.1</v>
-      </c>
-      <c r="AB72">
-        <v>0.8</v>
-      </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6149839</v>
+        <v>6149838</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,58 +6935,58 @@
         <v>45056.3125</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H73">
         <v>2</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>41</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L73">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N73">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P73">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W73">
-        <v>1.1</v>
+        <v>1.45</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -6995,16 +6995,16 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC73">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7205,7 +7205,7 @@
         <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -7647,7 +7647,7 @@
         <v>45066.25</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -7914,7 +7914,7 @@
         <v>45067.25</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
         <v>29</v>
@@ -8095,7 +8095,7 @@
         <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8270,7 +8270,7 @@
         <v>45074.1875</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>39</v>
@@ -8715,7 +8715,7 @@
         <v>45080.25</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
         <v>36</v>
@@ -9074,7 +9074,7 @@
         <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6149854</v>
+        <v>6149376</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,58 +9338,58 @@
         <v>45084.29166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>41</v>
       </c>
       <c r="K100">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L100">
+        <v>3.5</v>
+      </c>
+      <c r="M100">
+        <v>4.2</v>
+      </c>
+      <c r="N100">
+        <v>2.05</v>
+      </c>
+      <c r="O100">
+        <v>3.3</v>
+      </c>
+      <c r="P100">
         <v>3.4</v>
       </c>
-      <c r="M100">
-        <v>3.8</v>
-      </c>
-      <c r="N100">
+      <c r="Q100">
+        <v>-0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.825</v>
+      </c>
+      <c r="S100">
+        <v>2.025</v>
+      </c>
+      <c r="T100">
+        <v>2.25</v>
+      </c>
+      <c r="U100">
         <v>1.85</v>
       </c>
-      <c r="O100">
-        <v>3.6</v>
-      </c>
-      <c r="P100">
-        <v>4.2</v>
-      </c>
-      <c r="Q100">
-        <v>-0.5</v>
-      </c>
-      <c r="R100">
-        <v>1.9</v>
-      </c>
-      <c r="S100">
-        <v>1.95</v>
-      </c>
-      <c r="T100">
-        <v>2.5</v>
-      </c>
-      <c r="U100">
-        <v>2.025</v>
-      </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9398,16 +9398,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6149376</v>
+        <v>6149854</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,58 +9427,58 @@
         <v>45084.29166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
         <v>41</v>
       </c>
       <c r="K101">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
+        <v>3.8</v>
+      </c>
+      <c r="N101">
+        <v>1.85</v>
+      </c>
+      <c r="O101">
+        <v>3.6</v>
+      </c>
+      <c r="P101">
         <v>4.2</v>
       </c>
-      <c r="N101">
-        <v>2.05</v>
-      </c>
-      <c r="O101">
-        <v>3.3</v>
-      </c>
-      <c r="P101">
-        <v>3.4</v>
-      </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
+        <v>1.9</v>
+      </c>
+      <c r="S101">
+        <v>1.95</v>
+      </c>
+      <c r="T101">
+        <v>2.5</v>
+      </c>
+      <c r="U101">
+        <v>2.025</v>
+      </c>
+      <c r="V101">
         <v>1.825</v>
       </c>
-      <c r="S101">
-        <v>2.025</v>
-      </c>
-      <c r="T101">
-        <v>2.25</v>
-      </c>
-      <c r="U101">
-        <v>1.85</v>
-      </c>
-      <c r="V101">
-        <v>2</v>
-      </c>
       <c r="W101">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9487,16 +9487,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC101">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9519,7 +9519,7 @@
         <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -10050,7 +10050,7 @@
         <v>45088.25</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>33</v>
@@ -10139,7 +10139,7 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
         <v>35</v>
@@ -10228,10 +10228,10 @@
         <v>45101.1875</v>
       </c>
       <c r="F110" t="s">
+        <v>31</v>
+      </c>
+      <c r="G110" t="s">
         <v>30</v>
-      </c>
-      <c r="G110" t="s">
-        <v>31</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10854,7 +10854,7 @@
         <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10940,7 +10940,7 @@
         <v>45108.3125</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
         <v>34</v>
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6149867</v>
+        <v>6149414</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,76 +11296,76 @@
         <v>45114.3125</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K122">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L122">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
+        <v>3.2</v>
+      </c>
+      <c r="N122">
+        <v>2.3</v>
+      </c>
+      <c r="O122">
+        <v>3.3</v>
+      </c>
+      <c r="P122">
+        <v>3</v>
+      </c>
+      <c r="Q122">
+        <v>-0.25</v>
+      </c>
+      <c r="R122">
+        <v>2.05</v>
+      </c>
+      <c r="S122">
+        <v>1.8</v>
+      </c>
+      <c r="T122">
         <v>2.5</v>
       </c>
-      <c r="N122">
-        <v>3.3</v>
-      </c>
-      <c r="O122">
-        <v>3.1</v>
-      </c>
-      <c r="P122">
-        <v>2.2</v>
-      </c>
-      <c r="Q122">
-        <v>0.25</v>
-      </c>
-      <c r="R122">
+      <c r="U122">
+        <v>1.9</v>
+      </c>
+      <c r="V122">
         <v>1.95</v>
       </c>
-      <c r="S122">
-        <v>1.9</v>
-      </c>
-      <c r="T122">
-        <v>2.25</v>
-      </c>
-      <c r="U122">
-        <v>2</v>
-      </c>
-      <c r="V122">
-        <v>1.85</v>
-      </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z122">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB122">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC122">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6149414</v>
+        <v>6149867</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,76 +11385,76 @@
         <v>45114.3125</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H123">
         <v>1</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K123">
+        <v>2.75</v>
+      </c>
+      <c r="L123">
+        <v>3.1</v>
+      </c>
+      <c r="M123">
+        <v>2.5</v>
+      </c>
+      <c r="N123">
+        <v>3.3</v>
+      </c>
+      <c r="O123">
+        <v>3.1</v>
+      </c>
+      <c r="P123">
+        <v>2.2</v>
+      </c>
+      <c r="Q123">
+        <v>0.25</v>
+      </c>
+      <c r="R123">
+        <v>1.95</v>
+      </c>
+      <c r="S123">
+        <v>1.9</v>
+      </c>
+      <c r="T123">
+        <v>2.25</v>
+      </c>
+      <c r="U123">
+        <v>2</v>
+      </c>
+      <c r="V123">
+        <v>1.85</v>
+      </c>
+      <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
         <v>2.1</v>
       </c>
-      <c r="L123">
-        <v>3.4</v>
-      </c>
-      <c r="M123">
-        <v>3.2</v>
-      </c>
-      <c r="N123">
-        <v>2.3</v>
-      </c>
-      <c r="O123">
-        <v>3.3</v>
-      </c>
-      <c r="P123">
-        <v>3</v>
-      </c>
-      <c r="Q123">
-        <v>-0.25</v>
-      </c>
-      <c r="R123">
-        <v>2.05</v>
-      </c>
-      <c r="S123">
-        <v>1.8</v>
-      </c>
-      <c r="T123">
-        <v>2.5</v>
-      </c>
-      <c r="U123">
-        <v>1.9</v>
-      </c>
-      <c r="V123">
-        <v>1.95</v>
-      </c>
-      <c r="W123">
-        <v>-1</v>
-      </c>
-      <c r="X123">
-        <v>-1</v>
-      </c>
       <c r="Y123">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA123">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB123">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11655,7 +11655,7 @@
         <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11744,7 +11744,7 @@
         <v>34</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6149871</v>
+        <v>6149872</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,73 +12100,73 @@
         <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K131">
+        <v>1.55</v>
+      </c>
+      <c r="L131">
+        <v>3.75</v>
+      </c>
+      <c r="M131">
+        <v>5.25</v>
+      </c>
+      <c r="N131">
+        <v>1.55</v>
+      </c>
+      <c r="O131">
         <v>4</v>
       </c>
-      <c r="L131">
-        <v>3.3</v>
-      </c>
-      <c r="M131">
-        <v>1.909</v>
-      </c>
-      <c r="N131">
-        <v>4.5</v>
-      </c>
-      <c r="O131">
-        <v>3.3</v>
-      </c>
       <c r="P131">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R131">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X131">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC131">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6149872</v>
+        <v>6149871</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,73 +12278,73 @@
         <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H133">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K133">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="L133">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M133">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="N133">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="O133">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P133">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="Q133">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R133">
+        <v>2.025</v>
+      </c>
+      <c r="S133">
+        <v>1.825</v>
+      </c>
+      <c r="T133">
+        <v>2.25</v>
+      </c>
+      <c r="U133">
         <v>1.925</v>
       </c>
-      <c r="S133">
+      <c r="V133">
         <v>1.925</v>
       </c>
-      <c r="T133">
-        <v>3</v>
-      </c>
-      <c r="U133">
-        <v>1.9</v>
-      </c>
-      <c r="V133">
-        <v>1.95</v>
-      </c>
       <c r="W133">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA133">
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
         <v>29</v>
@@ -12456,7 +12456,7 @@
         <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6149486</v>
+        <v>6149383</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,10 +12898,10 @@
         <v>45128.3125</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -12913,43 +12913,43 @@
         <v>41</v>
       </c>
       <c r="K140">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M140">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N140">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O140">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P140">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S140">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T140">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>0.6499999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12958,16 +12958,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
       <c r="AA140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6149383</v>
+        <v>6149486</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,10 +12987,10 @@
         <v>45128.3125</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13002,43 +13002,43 @@
         <v>41</v>
       </c>
       <c r="K141">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="L141">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M141">
+        <v>4.75</v>
+      </c>
+      <c r="N141">
+        <v>1.65</v>
+      </c>
+      <c r="O141">
+        <v>4</v>
+      </c>
+      <c r="P141">
+        <v>4.75</v>
+      </c>
+      <c r="Q141">
+        <v>-0.75</v>
+      </c>
+      <c r="R141">
+        <v>1.825</v>
+      </c>
+      <c r="S141">
+        <v>2.025</v>
+      </c>
+      <c r="T141">
         <v>3</v>
       </c>
-      <c r="N141">
-        <v>2.4</v>
-      </c>
-      <c r="O141">
-        <v>3.2</v>
-      </c>
-      <c r="P141">
-        <v>2.8</v>
-      </c>
-      <c r="Q141">
-        <v>-0.25</v>
-      </c>
-      <c r="R141">
-        <v>2.05</v>
-      </c>
-      <c r="S141">
-        <v>1.75</v>
-      </c>
-      <c r="T141">
-        <v>2.5</v>
-      </c>
       <c r="U141">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>1.4</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13047,16 +13047,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13153,7 +13153,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6149877</v>
+        <v>6149878</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13165,40 +13165,40 @@
         <v>45129.3125</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
         <v>42</v>
       </c>
       <c r="K143">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L143">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M143">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N143">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O143">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P143">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
         <v>2</v>
@@ -13207,7 +13207,7 @@
         <v>1.85</v>
       </c>
       <c r="T143">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
         <v>1.8</v>
@@ -13222,7 +13222,7 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="Z143">
         <v>-1</v>
@@ -13231,10 +13231,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13242,7 +13242,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6149878</v>
+        <v>6149877</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13254,40 +13254,40 @@
         <v>45129.3125</v>
       </c>
       <c r="F144" t="s">
+        <v>39</v>
+      </c>
+      <c r="G144" t="s">
         <v>31</v>
       </c>
-      <c r="G144" t="s">
-        <v>35</v>
-      </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>42</v>
       </c>
       <c r="K144">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L144">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N144">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="O144">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P144">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R144">
         <v>2</v>
@@ -13296,7 +13296,7 @@
         <v>1.85</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U144">
         <v>1.8</v>
@@ -13311,7 +13311,7 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="Z144">
         <v>-1</v>
@@ -13320,10 +13320,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>45142.3125</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
         <v>33</v>
@@ -13610,7 +13610,7 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
         <v>36</v>
@@ -13969,7 +13969,7 @@
         <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14236,7 +14236,7 @@
         <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6149886</v>
+        <v>6149887</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,76 +14500,76 @@
         <v>45156.3125</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K158">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="L158">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M158">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N158">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O158">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P158">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="Q158">
         <v>0</v>
       </c>
       <c r="R158">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U158">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V158">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W158">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC158">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6149887</v>
+        <v>6149886</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,76 +14589,76 @@
         <v>45156.3125</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K159">
+        <v>2.9</v>
+      </c>
+      <c r="L159">
+        <v>3.25</v>
+      </c>
+      <c r="M159">
+        <v>2.2</v>
+      </c>
+      <c r="N159">
+        <v>2.75</v>
+      </c>
+      <c r="O159">
+        <v>3.2</v>
+      </c>
+      <c r="P159">
         <v>2.375</v>
-      </c>
-      <c r="L159">
-        <v>3</v>
-      </c>
-      <c r="M159">
-        <v>2.8</v>
-      </c>
-      <c r="N159">
-        <v>2.625</v>
-      </c>
-      <c r="O159">
-        <v>3</v>
-      </c>
-      <c r="P159">
-        <v>2.7</v>
       </c>
       <c r="Q159">
         <v>0</v>
       </c>
       <c r="R159">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S159">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T159">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V159">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X159">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA159">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>45157.3125</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G162" t="s">
         <v>37</v>
@@ -15390,7 +15390,7 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
         <v>29</v>
@@ -15482,7 +15482,7 @@
         <v>40</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H169">
         <v>4</v>
@@ -15746,10 +15746,10 @@
         <v>45171.1875</v>
       </c>
       <c r="F172" t="s">
+        <v>31</v>
+      </c>
+      <c r="G172" t="s">
         <v>30</v>
-      </c>
-      <c r="G172" t="s">
-        <v>31</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -16090,7 +16090,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6149898</v>
+        <v>6149389</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16102,73 +16102,73 @@
         <v>45185.08333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K176">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="L176">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M176">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="N176">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="O176">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P176">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R176">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T176">
         <v>2.5</v>
       </c>
       <c r="U176">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V176">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z176">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB176">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16179,7 +16179,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6149389</v>
+        <v>6149898</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16191,73 +16191,73 @@
         <v>45185.08333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K177">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="L177">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M177">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="N177">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P177">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q177">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T177">
         <v>2.5</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16458,7 +16458,7 @@
         <v>45186.08333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
         <v>40</v>
@@ -16547,7 +16547,7 @@
         <v>45186.1875</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16639,7 +16639,7 @@
         <v>34</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H182">
         <v>3</v>
@@ -16728,7 +16728,7 @@
         <v>32</v>
       </c>
       <c r="G183" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16802,7 +16802,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6323586</v>
+        <v>6323587</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16814,76 +16814,76 @@
         <v>45193.08333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G184" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
         <v>42</v>
       </c>
       <c r="K184">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M184">
+        <v>2.45</v>
+      </c>
+      <c r="N184">
+        <v>2.6</v>
+      </c>
+      <c r="O184">
+        <v>3.3</v>
+      </c>
+      <c r="P184">
+        <v>2.7</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <v>1.875</v>
+      </c>
+      <c r="S184">
+        <v>1.975</v>
+      </c>
+      <c r="T184">
+        <v>2.25</v>
+      </c>
+      <c r="U184">
+        <v>1.975</v>
+      </c>
+      <c r="V184">
+        <v>1.875</v>
+      </c>
+      <c r="W184">
+        <v>-1</v>
+      </c>
+      <c r="X184">
+        <v>-1</v>
+      </c>
+      <c r="Y184">
         <v>1.7</v>
       </c>
-      <c r="N184">
-        <v>4.75</v>
-      </c>
-      <c r="O184">
-        <v>4</v>
-      </c>
-      <c r="P184">
-        <v>1.666</v>
-      </c>
-      <c r="Q184">
-        <v>0.75</v>
-      </c>
-      <c r="R184">
-        <v>2.025</v>
-      </c>
-      <c r="S184">
-        <v>1.825</v>
-      </c>
-      <c r="T184">
-        <v>3.25</v>
-      </c>
-      <c r="U184">
-        <v>2.05</v>
-      </c>
-      <c r="V184">
-        <v>1.8</v>
-      </c>
-      <c r="W184">
-        <v>-1</v>
-      </c>
-      <c r="X184">
-        <v>-1</v>
-      </c>
-      <c r="Y184">
-        <v>0.6659999999999999</v>
-      </c>
       <c r="Z184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB184">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16891,7 +16891,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6323587</v>
+        <v>6323586</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16903,55 +16903,55 @@
         <v>45193.08333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J185" t="s">
         <v>42</v>
       </c>
       <c r="K185">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="L185">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M185">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="N185">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O185">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P185">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q185">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R185">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W185">
         <v>-1</v>
@@ -16960,19 +16960,19 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1.7</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA185">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC185">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17158,7 +17158,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6353260</v>
+        <v>6353261</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17170,76 +17170,76 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>43</v>
       </c>
       <c r="K188">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="L188">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M188">
+        <v>2</v>
+      </c>
+      <c r="N188">
+        <v>3.75</v>
+      </c>
+      <c r="O188">
+        <v>3.8</v>
+      </c>
+      <c r="P188">
+        <v>1.85</v>
+      </c>
+      <c r="Q188">
+        <v>0.5</v>
+      </c>
+      <c r="R188">
+        <v>2.025</v>
+      </c>
+      <c r="S188">
+        <v>1.825</v>
+      </c>
+      <c r="T188">
+        <v>2.75</v>
+      </c>
+      <c r="U188">
+        <v>1.825</v>
+      </c>
+      <c r="V188">
+        <v>2.025</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
         <v>2.8</v>
       </c>
-      <c r="N188">
-        <v>2.55</v>
-      </c>
-      <c r="O188">
-        <v>3.4</v>
-      </c>
-      <c r="P188">
-        <v>2.625</v>
-      </c>
-      <c r="Q188">
-        <v>0</v>
-      </c>
-      <c r="R188">
-        <v>1.825</v>
-      </c>
-      <c r="S188">
-        <v>2.025</v>
-      </c>
-      <c r="T188">
-        <v>2.5</v>
-      </c>
-      <c r="U188">
-        <v>2.025</v>
-      </c>
-      <c r="V188">
-        <v>1.825</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>2.4</v>
-      </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA188">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17247,7 +17247,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6353261</v>
+        <v>6353260</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17259,76 +17259,76 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
         <v>43</v>
       </c>
       <c r="K189">
+        <v>2.375</v>
+      </c>
+      <c r="L189">
+        <v>3.5</v>
+      </c>
+      <c r="M189">
+        <v>2.8</v>
+      </c>
+      <c r="N189">
+        <v>2.55</v>
+      </c>
+      <c r="O189">
         <v>3.4</v>
       </c>
-      <c r="L189">
-        <v>3.6</v>
-      </c>
-      <c r="M189">
-        <v>2</v>
-      </c>
-      <c r="N189">
-        <v>3.75</v>
-      </c>
-      <c r="O189">
-        <v>3.8</v>
-      </c>
       <c r="P189">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q189">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R189">
+        <v>1.825</v>
+      </c>
+      <c r="S189">
         <v>2.025</v>
       </c>
-      <c r="S189">
+      <c r="T189">
+        <v>2.5</v>
+      </c>
+      <c r="U189">
+        <v>2.025</v>
+      </c>
+      <c r="V189">
         <v>1.825</v>
       </c>
-      <c r="T189">
-        <v>2.75</v>
-      </c>
-      <c r="U189">
-        <v>1.825</v>
-      </c>
-      <c r="V189">
-        <v>2.025</v>
-      </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17440,7 +17440,7 @@
         <v>35</v>
       </c>
       <c r="G191" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H191">
         <v>2</v>
@@ -17692,7 +17692,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6387791</v>
+        <v>6384126</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17707,73 +17707,73 @@
         <v>31</v>
       </c>
       <c r="G194" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194">
         <v>0</v>
       </c>
-      <c r="I194">
-        <v>2</v>
-      </c>
       <c r="J194" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K194">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L194">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M194">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="N194">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O194">
         <v>3.3</v>
       </c>
       <c r="P194">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q194">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R194">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S194">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T194">
         <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V194">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA194">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17781,7 +17781,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6384125</v>
+        <v>6388625</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17793,61 +17793,61 @@
         <v>45207.125</v>
       </c>
       <c r="F195" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
         <v>43</v>
       </c>
       <c r="K195">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="L195">
         <v>3.75</v>
       </c>
       <c r="M195">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N195">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="O195">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P195">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q195">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R195">
+        <v>2.025</v>
+      </c>
+      <c r="S195">
+        <v>1.825</v>
+      </c>
+      <c r="T195">
+        <v>2.5</v>
+      </c>
+      <c r="U195">
+        <v>2</v>
+      </c>
+      <c r="V195">
         <v>1.85</v>
       </c>
-      <c r="S195">
-        <v>2</v>
-      </c>
-      <c r="T195">
-        <v>2.75</v>
-      </c>
-      <c r="U195">
-        <v>2.025</v>
-      </c>
-      <c r="V195">
-        <v>1.825</v>
-      </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y195">
         <v>-1</v>
@@ -17856,13 +17856,13 @@
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB195">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17870,7 +17870,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6384126</v>
+        <v>6387791</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17885,73 +17885,73 @@
         <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K196">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="L196">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M196">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="N196">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O196">
         <v>3.3</v>
       </c>
       <c r="P196">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="Q196">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R196">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S196">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T196">
         <v>2.5</v>
       </c>
       <c r="U196">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V196">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z196">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17959,7 +17959,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6384127</v>
+        <v>6384418</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17971,10 +17971,10 @@
         <v>45207.125</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G197" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -17986,43 +17986,43 @@
         <v>41</v>
       </c>
       <c r="K197">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L197">
         <v>3.4</v>
       </c>
       <c r="M197">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N197">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O197">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P197">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q197">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S197">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T197">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U197">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V197">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W197">
-        <v>1.6</v>
+        <v>0.95</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18031,7 +18031,7 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA197">
         <v>-1</v>
@@ -18040,7 +18040,7 @@
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18048,7 +18048,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6384418</v>
+        <v>6384127</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18060,10 +18060,10 @@
         <v>45207.125</v>
       </c>
       <c r="F198" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G198" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18075,43 +18075,43 @@
         <v>41</v>
       </c>
       <c r="K198">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L198">
         <v>3.4</v>
       </c>
       <c r="M198">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N198">
+        <v>2.6</v>
+      </c>
+      <c r="O198">
+        <v>3.3</v>
+      </c>
+      <c r="P198">
+        <v>2.625</v>
+      </c>
+      <c r="Q198">
+        <v>0</v>
+      </c>
+      <c r="R198">
+        <v>1.9</v>
+      </c>
+      <c r="S198">
         <v>1.95</v>
       </c>
-      <c r="O198">
-        <v>3.4</v>
-      </c>
-      <c r="P198">
-        <v>4</v>
-      </c>
-      <c r="Q198">
-        <v>-0.5</v>
-      </c>
-      <c r="R198">
-        <v>2</v>
-      </c>
-      <c r="S198">
-        <v>1.85</v>
-      </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V198">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W198">
-        <v>0.95</v>
+        <v>1.6</v>
       </c>
       <c r="X198">
         <v>-1</v>
@@ -18120,7 +18120,7 @@
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA198">
         <v>-1</v>
@@ -18129,7 +18129,7 @@
         <v>-1</v>
       </c>
       <c r="AC198">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18137,7 +18137,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6388625</v>
+        <v>6384125</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18149,61 +18149,61 @@
         <v>45207.125</v>
       </c>
       <c r="F199" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G199" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
         <v>43</v>
       </c>
       <c r="K199">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="L199">
         <v>3.75</v>
       </c>
       <c r="M199">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N199">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="O199">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P199">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q199">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R199">
+        <v>1.85</v>
+      </c>
+      <c r="S199">
+        <v>2</v>
+      </c>
+      <c r="T199">
+        <v>2.75</v>
+      </c>
+      <c r="U199">
         <v>2.025</v>
       </c>
-      <c r="S199">
+      <c r="V199">
         <v>1.825</v>
       </c>
-      <c r="T199">
-        <v>2.5</v>
-      </c>
-      <c r="U199">
-        <v>2</v>
-      </c>
-      <c r="V199">
-        <v>1.85</v>
-      </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Y199">
         <v>-1</v>
@@ -18212,13 +18212,13 @@
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC199">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18505,7 +18505,7 @@
         <v>45221.08333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G203" t="s">
         <v>39</v>
@@ -18597,7 +18597,7 @@
         <v>32</v>
       </c>
       <c r="G204" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -19027,7 +19027,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7334080</v>
+        <v>7333491</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19039,76 +19039,76 @@
         <v>45228.08333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G209" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H209">
         <v>2</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K209">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L209">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M209">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N209">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="O209">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P209">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="Q209">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R209">
+        <v>1.925</v>
+      </c>
+      <c r="S209">
+        <v>1.925</v>
+      </c>
+      <c r="T209">
+        <v>2.5</v>
+      </c>
+      <c r="U209">
+        <v>1.975</v>
+      </c>
+      <c r="V209">
         <v>1.875</v>
       </c>
-      <c r="S209">
-        <v>1.975</v>
-      </c>
-      <c r="T209">
-        <v>2.75</v>
-      </c>
-      <c r="U209">
-        <v>2</v>
-      </c>
-      <c r="V209">
-        <v>1.85</v>
-      </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X209">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA209">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19116,7 +19116,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7333491</v>
+        <v>7334080</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19128,76 +19128,76 @@
         <v>45228.08333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G210" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H210">
         <v>2</v>
       </c>
       <c r="I210">
+        <v>2</v>
+      </c>
+      <c r="J210" t="s">
+        <v>43</v>
+      </c>
+      <c r="K210">
+        <v>2.625</v>
+      </c>
+      <c r="L210">
+        <v>3.4</v>
+      </c>
+      <c r="M210">
+        <v>2.55</v>
+      </c>
+      <c r="N210">
+        <v>2.6</v>
+      </c>
+      <c r="O210">
+        <v>3.4</v>
+      </c>
+      <c r="P210">
+        <v>2.6</v>
+      </c>
+      <c r="Q210">
         <v>0</v>
       </c>
-      <c r="J210" t="s">
-        <v>41</v>
-      </c>
-      <c r="K210">
-        <v>1.909</v>
-      </c>
-      <c r="L210">
-        <v>3.5</v>
-      </c>
-      <c r="M210">
-        <v>4</v>
-      </c>
-      <c r="N210">
-        <v>1.727</v>
-      </c>
-      <c r="O210">
-        <v>3.75</v>
-      </c>
-      <c r="P210">
-        <v>5</v>
-      </c>
-      <c r="Q210">
-        <v>-0.75</v>
-      </c>
       <c r="R210">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S210">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U210">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V210">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W210">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC210">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19220,7 +19220,7 @@
         <v>36</v>
       </c>
       <c r="G211" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19487,7 +19487,7 @@
         <v>32</v>
       </c>
       <c r="G214" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19561,7 +19561,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7333492</v>
+        <v>7334084</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19573,76 +19573,76 @@
         <v>45242.08333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G215" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J215" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K215">
+        <v>2.15</v>
+      </c>
+      <c r="L215">
+        <v>3.5</v>
+      </c>
+      <c r="M215">
+        <v>3.2</v>
+      </c>
+      <c r="N215">
+        <v>2.55</v>
+      </c>
+      <c r="O215">
+        <v>3.4</v>
+      </c>
+      <c r="P215">
+        <v>2.625</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <v>1.875</v>
+      </c>
+      <c r="S215">
+        <v>1.975</v>
+      </c>
+      <c r="T215">
         <v>2.75</v>
       </c>
-      <c r="L215">
-        <v>3.2</v>
-      </c>
-      <c r="M215">
-        <v>2.6</v>
-      </c>
-      <c r="N215">
-        <v>3.2</v>
-      </c>
-      <c r="O215">
-        <v>3.25</v>
-      </c>
-      <c r="P215">
-        <v>2.25</v>
-      </c>
-      <c r="Q215">
-        <v>0.25</v>
-      </c>
-      <c r="R215">
-        <v>1.85</v>
-      </c>
-      <c r="S215">
-        <v>2</v>
-      </c>
-      <c r="T215">
-        <v>2.25</v>
-      </c>
       <c r="U215">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z215">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB215">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC215">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19650,7 +19650,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7334084</v>
+        <v>7333492</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19662,76 +19662,76 @@
         <v>45242.08333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G216" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K216">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L216">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M216">
+        <v>2.6</v>
+      </c>
+      <c r="N216">
         <v>3.2</v>
       </c>
-      <c r="N216">
-        <v>2.55</v>
-      </c>
       <c r="O216">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P216">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q216">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S216">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T216">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U216">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y216">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA216">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB216">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19917,7 +19917,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7334087</v>
+        <v>7333495</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19929,76 +19929,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G219" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H219">
+        <v>2</v>
+      </c>
+      <c r="I219">
         <v>0</v>
       </c>
-      <c r="I219">
-        <v>2</v>
-      </c>
       <c r="J219" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K219">
         <v>2.05</v>
       </c>
       <c r="L219">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M219">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N219">
         <v>2.05</v>
       </c>
       <c r="O219">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P219">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q219">
         <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S219">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T219">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U219">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V219">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W219">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA219">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC219">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20006,7 +20006,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7333495</v>
+        <v>7334087</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20018,76 +20018,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G220" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K220">
         <v>2.05</v>
       </c>
       <c r="L220">
+        <v>3.75</v>
+      </c>
+      <c r="M220">
         <v>3.25</v>
-      </c>
-      <c r="M220">
-        <v>3.2</v>
       </c>
       <c r="N220">
         <v>2.05</v>
       </c>
       <c r="O220">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P220">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q220">
         <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S220">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T220">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V220">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W220">
+        <v>-1</v>
+      </c>
+      <c r="X220">
+        <v>-1</v>
+      </c>
+      <c r="Y220">
+        <v>2.3</v>
+      </c>
+      <c r="Z220">
+        <v>-1</v>
+      </c>
+      <c r="AA220">
         <v>1.05</v>
       </c>
-      <c r="X220">
-        <v>-1</v>
-      </c>
-      <c r="Y220">
-        <v>-1</v>
-      </c>
-      <c r="Z220">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA220">
-        <v>-1</v>
-      </c>
       <c r="AB220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20095,7 +20095,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7333496</v>
+        <v>7334086</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20107,13 +20107,13 @@
         <v>45255.1875</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G221" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I221">
         <v>0</v>
@@ -20122,16 +20122,16 @@
         <v>41</v>
       </c>
       <c r="K221">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L221">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M221">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N221">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O221">
         <v>3.3</v>
@@ -20140,25 +20140,25 @@
         <v>3.6</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R221">
+        <v>2.05</v>
+      </c>
+      <c r="S221">
         <v>1.8</v>
-      </c>
-      <c r="S221">
-        <v>2.05</v>
       </c>
       <c r="T221">
         <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V221">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W221">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20167,16 +20167,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA221">
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC221">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20196,10 +20196,10 @@
         <v>45255.1875</v>
       </c>
       <c r="F222" t="s">
+        <v>30</v>
+      </c>
+      <c r="G222" t="s">
         <v>31</v>
-      </c>
-      <c r="G222" t="s">
-        <v>30</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -20273,7 +20273,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7334086</v>
+        <v>7333496</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20285,13 +20285,13 @@
         <v>45255.1875</v>
       </c>
       <c r="F223" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G223" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -20300,16 +20300,16 @@
         <v>41</v>
       </c>
       <c r="K223">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L223">
+        <v>3.4</v>
+      </c>
+      <c r="M223">
         <v>3.6</v>
       </c>
-      <c r="M223">
-        <v>3.3</v>
-      </c>
       <c r="N223">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O223">
         <v>3.3</v>
@@ -20318,25 +20318,25 @@
         <v>3.6</v>
       </c>
       <c r="Q223">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
+        <v>1.8</v>
+      </c>
+      <c r="S223">
         <v>2.05</v>
-      </c>
-      <c r="S223">
-        <v>1.8</v>
       </c>
       <c r="T223">
         <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V223">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W223">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -20345,16 +20345,16 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA223">
         <v>-1</v>
       </c>
       <c r="AB223">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20362,7 +20362,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7334090</v>
+        <v>7334089</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20374,49 +20374,49 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F224" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G224" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
         <v>43</v>
       </c>
       <c r="K224">
+        <v>2.35</v>
+      </c>
+      <c r="L224">
+        <v>3.75</v>
+      </c>
+      <c r="M224">
+        <v>2.7</v>
+      </c>
+      <c r="N224">
         <v>2.4</v>
       </c>
-      <c r="L224">
-        <v>3.3</v>
-      </c>
-      <c r="M224">
+      <c r="O224">
+        <v>3.5</v>
+      </c>
+      <c r="P224">
         <v>2.875</v>
       </c>
-      <c r="N224">
-        <v>2.5</v>
-      </c>
-      <c r="O224">
-        <v>3.25</v>
-      </c>
-      <c r="P224">
-        <v>2.8</v>
-      </c>
       <c r="Q224">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S224">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T224">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U224">
         <v>1.85</v>
@@ -20428,16 +20428,16 @@
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA224">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB224">
         <v>-1</v>
@@ -20451,7 +20451,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7334089</v>
+        <v>7334090</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20463,49 +20463,49 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G225" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
         <v>43</v>
       </c>
       <c r="K225">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="L225">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M225">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="N225">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O225">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P225">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q225">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R225">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S225">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U225">
         <v>1.85</v>
@@ -20517,16 +20517,16 @@
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA225">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB225">
         <v>-1</v>
@@ -20555,7 +20555,7 @@
         <v>34</v>
       </c>
       <c r="G226" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H226">
         <v>2</v>
@@ -20718,7 +20718,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7333499</v>
+        <v>7333498</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20730,76 +20730,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G228" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K228">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L228">
+        <v>3.4</v>
+      </c>
+      <c r="M228">
         <v>3.3</v>
       </c>
-      <c r="M228">
-        <v>2.7</v>
-      </c>
       <c r="N228">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="O228">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P228">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q228">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S228">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T228">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V228">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W228">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB228">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20807,7 +20807,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7333498</v>
+        <v>7333499</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20819,76 +20819,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G229" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H229">
+        <v>2</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229" t="s">
+        <v>41</v>
+      </c>
+      <c r="K229">
+        <v>2.55</v>
+      </c>
+      <c r="L229">
+        <v>3.3</v>
+      </c>
+      <c r="M229">
+        <v>2.7</v>
+      </c>
+      <c r="N229">
+        <v>2.8</v>
+      </c>
+      <c r="O229">
+        <v>3.3</v>
+      </c>
+      <c r="P229">
+        <v>2.45</v>
+      </c>
+      <c r="Q229">
         <v>0</v>
       </c>
-      <c r="I229">
-        <v>0</v>
-      </c>
-      <c r="J229" t="s">
-        <v>43</v>
-      </c>
-      <c r="K229">
-        <v>2</v>
-      </c>
-      <c r="L229">
-        <v>3.4</v>
-      </c>
-      <c r="M229">
-        <v>3.3</v>
-      </c>
-      <c r="N229">
+      <c r="R229">
+        <v>2.1</v>
+      </c>
+      <c r="S229">
+        <v>1.775</v>
+      </c>
+      <c r="T229">
+        <v>2.25</v>
+      </c>
+      <c r="U229">
+        <v>1.875</v>
+      </c>
+      <c r="V229">
+        <v>1.975</v>
+      </c>
+      <c r="W229">
         <v>1.8</v>
       </c>
-      <c r="O229">
-        <v>3.5</v>
-      </c>
-      <c r="P229">
-        <v>4</v>
-      </c>
-      <c r="Q229">
-        <v>-0.5</v>
-      </c>
-      <c r="R229">
-        <v>1.8</v>
-      </c>
-      <c r="S229">
-        <v>2.05</v>
-      </c>
-      <c r="T229">
-        <v>2.5</v>
-      </c>
-      <c r="U229">
-        <v>2.025</v>
-      </c>
-      <c r="V229">
-        <v>1.825</v>
-      </c>
-      <c r="W229">
-        <v>-1</v>
-      </c>
       <c r="X229">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA229">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC229">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/South Korea K League 1/South Korea K League 1.xlsx
+++ b/South Korea K League 1/South Korea K League 1.xlsx
@@ -106,10 +106,10 @@
     <t>Ulsan Hyundai</t>
   </si>
   <si>
-    <t>FC Seoul</t>
+    <t>Suwon Bluewings</t>
   </si>
   <si>
-    <t>Suwon Bluewings</t>
+    <t>FC Seoul</t>
   </si>
   <si>
     <t>Jeju United</t>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6149800</v>
+        <v>6149801</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,43 +708,43 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>2.15</v>
       </c>
       <c r="L3">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M3">
         <v>3.4</v>
       </c>
       <c r="N3">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O3">
         <v>3.1</v>
       </c>
       <c r="P3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q3">
         <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T3">
         <v>2</v>
@@ -756,25 +756,25 @@
         <v>2.05</v>
       </c>
       <c r="W3">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6149801</v>
+        <v>6149800</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,43 +797,43 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
         <v>2.15</v>
       </c>
       <c r="L4">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M4">
         <v>3.4</v>
       </c>
       <c r="N4">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O4">
         <v>3.1</v>
       </c>
       <c r="P4">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q4">
         <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
         <v>2</v>
@@ -845,25 +845,25 @@
         <v>2.05</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1598,7 +1598,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -1951,7 +1951,7 @@
         <v>44997.08333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>29</v>
@@ -2399,7 +2399,7 @@
         <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6149363</v>
+        <v>6149813</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U23">
+        <v>1.825</v>
+      </c>
+      <c r="V23">
         <v>2.025</v>
       </c>
-      <c r="V23">
-        <v>1.825</v>
-      </c>
       <c r="W23">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6149813</v>
+        <v>6149363</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L24">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R24">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S24">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
+        <v>2.025</v>
+      </c>
+      <c r="V24">
         <v>1.825</v>
       </c>
-      <c r="V24">
-        <v>2.025</v>
-      </c>
       <c r="W24">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA24">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
+        <v>-1</v>
+      </c>
+      <c r="AC24">
         <v>0.825</v>
-      </c>
-      <c r="AC24">
-        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6149398</v>
+        <v>6149814</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,19 +2841,19 @@
         <v>45017.1875</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K27">
         <v>2.2</v>
@@ -2865,52 +2865,52 @@
         <v>3.1</v>
       </c>
       <c r="N27">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O27">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P27">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
+        <v>1.95</v>
+      </c>
+      <c r="V27">
         <v>1.9</v>
       </c>
-      <c r="V27">
-        <v>1.95</v>
-      </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X27">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
+        <v>1.025</v>
+      </c>
+      <c r="AA27">
+        <v>-1</v>
+      </c>
+      <c r="AB27">
         <v>-0.5</v>
       </c>
-      <c r="AA27">
-        <v>0.4625</v>
-      </c>
-      <c r="AB27">
-        <v>-1</v>
-      </c>
       <c r="AC27">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6149814</v>
+        <v>6149398</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,19 +2930,19 @@
         <v>45017.1875</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>2.2</v>
@@ -2954,52 +2954,52 @@
         <v>3.1</v>
       </c>
       <c r="N28">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="O28">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P28">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
+        <v>1.9</v>
+      </c>
+      <c r="V28">
         <v>1.95</v>
       </c>
-      <c r="V28">
-        <v>1.9</v>
-      </c>
       <c r="W28">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3022,7 +3022,7 @@
         <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -3197,7 +3197,7 @@
         <v>45018.1875</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
         <v>39</v>
@@ -3289,7 +3289,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3375,7 +3375,7 @@
         <v>45024.1875</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -3820,7 +3820,7 @@
         <v>45031.08333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
         <v>32</v>
@@ -3912,7 +3912,7 @@
         <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -4354,10 +4354,10 @@
         <v>45038.08333333334</v>
       </c>
       <c r="F44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s">
         <v>30</v>
-      </c>
-      <c r="G44" t="s">
-        <v>31</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6149827</v>
+        <v>6149474</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,76 +4888,76 @@
         <v>45041.3125</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K50">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M50">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N50">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O50">
         <v>3.75</v>
       </c>
       <c r="P50">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q50">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
         <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z50">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA50">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6149474</v>
+        <v>6149827</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,76 +4977,76 @@
         <v>45041.3125</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>1</v>
-      </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K51">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N51">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="O51">
         <v>3.75</v>
       </c>
       <c r="P51">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q51">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R51">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
+        <v>0.4875</v>
+      </c>
+      <c r="AA51">
         <v>-0.5</v>
       </c>
-      <c r="AA51">
-        <v>0.475</v>
-      </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5158,7 +5158,7 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5425,7 +5425,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5778,7 +5778,7 @@
         <v>45046.1875</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
         <v>37</v>
@@ -5956,7 +5956,7 @@
         <v>45051.08333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
         <v>38</v>
@@ -6137,7 +6137,7 @@
         <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6149406</v>
+        <v>6149837</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,40 +6579,40 @@
         <v>45055.3125</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K69">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L69">
         <v>3.2</v>
       </c>
       <c r="M69">
+        <v>3.1</v>
+      </c>
+      <c r="N69">
         <v>2.15</v>
       </c>
-      <c r="N69">
-        <v>3.25</v>
-      </c>
       <c r="O69">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P69">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
         <v>1.925</v>
@@ -6624,31 +6624,31 @@
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X69">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC69">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6149837</v>
+        <v>6149406</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,40 +6668,40 @@
         <v>45055.3125</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L70">
         <v>3.2</v>
       </c>
       <c r="M70">
+        <v>2.15</v>
+      </c>
+      <c r="N70">
+        <v>3.25</v>
+      </c>
+      <c r="O70">
         <v>3.1</v>
       </c>
-      <c r="N70">
+      <c r="P70">
         <v>2.15</v>
       </c>
-      <c r="O70">
-        <v>3.2</v>
-      </c>
-      <c r="P70">
-        <v>3.2</v>
-      </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
         <v>1.925</v>
@@ -6713,31 +6713,31 @@
         <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W70">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6149371</v>
+        <v>6149838</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
         <v>0</v>
       </c>
-      <c r="I71">
-        <v>3</v>
-      </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L71">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O71">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P71">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="Q71">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T71">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6149839</v>
+        <v>6149371</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L72">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M72">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72">
+        <v>3</v>
+      </c>
+      <c r="P72">
+        <v>2.375</v>
+      </c>
+      <c r="Q72">
+        <v>0.25</v>
+      </c>
+      <c r="R72">
+        <v>1.775</v>
+      </c>
+      <c r="S72">
         <v>2.1</v>
       </c>
-      <c r="O72">
-        <v>3.5</v>
-      </c>
-      <c r="P72">
-        <v>3.4</v>
-      </c>
-      <c r="Q72">
-        <v>-0.25</v>
-      </c>
-      <c r="R72">
+      <c r="T72">
+        <v>2</v>
+      </c>
+      <c r="U72">
         <v>1.8</v>
       </c>
-      <c r="S72">
+      <c r="V72">
         <v>2.05</v>
       </c>
-      <c r="T72">
-        <v>3</v>
-      </c>
-      <c r="U72">
-        <v>2.025</v>
-      </c>
-      <c r="V72">
-        <v>1.825</v>
-      </c>
       <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
+        <v>1.375</v>
+      </c>
+      <c r="Z72">
+        <v>-1</v>
+      </c>
+      <c r="AA72">
         <v>1.1</v>
       </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>-1</v>
-      </c>
-      <c r="Z72">
+      <c r="AB72">
         <v>0.8</v>
       </c>
-      <c r="AA72">
-        <v>-1</v>
-      </c>
-      <c r="AB72">
-        <v>0</v>
-      </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6149838</v>
+        <v>6149839</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>2</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
         <v>41</v>
       </c>
       <c r="K73">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N73">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O73">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q73">
+        <v>-0.25</v>
+      </c>
+      <c r="R73">
+        <v>1.8</v>
+      </c>
+      <c r="S73">
+        <v>2.05</v>
+      </c>
+      <c r="T73">
+        <v>3</v>
+      </c>
+      <c r="U73">
+        <v>2.025</v>
+      </c>
+      <c r="V73">
+        <v>1.825</v>
+      </c>
+      <c r="W73">
+        <v>1.1</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
+        <v>0.8</v>
+      </c>
+      <c r="AA73">
+        <v>-1</v>
+      </c>
+      <c r="AB73">
         <v>0</v>
       </c>
-      <c r="R73">
-        <v>1.85</v>
-      </c>
-      <c r="S73">
-        <v>2</v>
-      </c>
-      <c r="T73">
-        <v>2.25</v>
-      </c>
-      <c r="U73">
-        <v>1.85</v>
-      </c>
-      <c r="V73">
-        <v>2</v>
-      </c>
-      <c r="W73">
-        <v>1.45</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>-1</v>
-      </c>
-      <c r="Z73">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
-      <c r="AB73">
-        <v>-0.5</v>
-      </c>
       <c r="AC73">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7205,7 +7205,7 @@
         <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -7647,7 +7647,7 @@
         <v>45066.25</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -7914,7 +7914,7 @@
         <v>45067.25</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
         <v>29</v>
@@ -8095,7 +8095,7 @@
         <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8270,7 +8270,7 @@
         <v>45074.1875</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
         <v>39</v>
@@ -8715,7 +8715,7 @@
         <v>45080.25</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
         <v>36</v>
@@ -9074,7 +9074,7 @@
         <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6149376</v>
+        <v>6149854</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,58 +9338,58 @@
         <v>45084.29166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>41</v>
       </c>
       <c r="K100">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M100">
+        <v>3.8</v>
+      </c>
+      <c r="N100">
+        <v>1.85</v>
+      </c>
+      <c r="O100">
+        <v>3.6</v>
+      </c>
+      <c r="P100">
         <v>4.2</v>
       </c>
-      <c r="N100">
-        <v>2.05</v>
-      </c>
-      <c r="O100">
-        <v>3.3</v>
-      </c>
-      <c r="P100">
-        <v>3.4</v>
-      </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
+        <v>1.9</v>
+      </c>
+      <c r="S100">
+        <v>1.95</v>
+      </c>
+      <c r="T100">
+        <v>2.5</v>
+      </c>
+      <c r="U100">
+        <v>2.025</v>
+      </c>
+      <c r="V100">
         <v>1.825</v>
       </c>
-      <c r="S100">
-        <v>2.025</v>
-      </c>
-      <c r="T100">
-        <v>2.25</v>
-      </c>
-      <c r="U100">
-        <v>1.85</v>
-      </c>
-      <c r="V100">
-        <v>2</v>
-      </c>
       <c r="W100">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9398,16 +9398,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6149854</v>
+        <v>6149376</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,58 +9427,58 @@
         <v>45084.29166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>41</v>
       </c>
       <c r="K101">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L101">
+        <v>3.5</v>
+      </c>
+      <c r="M101">
+        <v>4.2</v>
+      </c>
+      <c r="N101">
+        <v>2.05</v>
+      </c>
+      <c r="O101">
+        <v>3.3</v>
+      </c>
+      <c r="P101">
         <v>3.4</v>
       </c>
-      <c r="M101">
-        <v>3.8</v>
-      </c>
-      <c r="N101">
+      <c r="Q101">
+        <v>-0.25</v>
+      </c>
+      <c r="R101">
+        <v>1.825</v>
+      </c>
+      <c r="S101">
+        <v>2.025</v>
+      </c>
+      <c r="T101">
+        <v>2.25</v>
+      </c>
+      <c r="U101">
         <v>1.85</v>
       </c>
-      <c r="O101">
-        <v>3.6</v>
-      </c>
-      <c r="P101">
-        <v>4.2</v>
-      </c>
-      <c r="Q101">
-        <v>-0.5</v>
-      </c>
-      <c r="R101">
-        <v>1.9</v>
-      </c>
-      <c r="S101">
-        <v>1.95</v>
-      </c>
-      <c r="T101">
-        <v>2.5</v>
-      </c>
-      <c r="U101">
-        <v>2.025</v>
-      </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W101">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9487,16 +9487,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9519,7 +9519,7 @@
         <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -10050,7 +10050,7 @@
         <v>45088.25</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>33</v>
@@ -10139,7 +10139,7 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
         <v>35</v>
@@ -10228,10 +10228,10 @@
         <v>45101.1875</v>
       </c>
       <c r="F110" t="s">
+        <v>30</v>
+      </c>
+      <c r="G110" t="s">
         <v>31</v>
-      </c>
-      <c r="G110" t="s">
-        <v>30</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10854,7 +10854,7 @@
         <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10940,7 +10940,7 @@
         <v>45108.3125</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
         <v>34</v>
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6149414</v>
+        <v>6149867</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,76 +11296,76 @@
         <v>45114.3125</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K122">
+        <v>2.75</v>
+      </c>
+      <c r="L122">
+        <v>3.1</v>
+      </c>
+      <c r="M122">
+        <v>2.5</v>
+      </c>
+      <c r="N122">
+        <v>3.3</v>
+      </c>
+      <c r="O122">
+        <v>3.1</v>
+      </c>
+      <c r="P122">
+        <v>2.2</v>
+      </c>
+      <c r="Q122">
+        <v>0.25</v>
+      </c>
+      <c r="R122">
+        <v>1.95</v>
+      </c>
+      <c r="S122">
+        <v>1.9</v>
+      </c>
+      <c r="T122">
+        <v>2.25</v>
+      </c>
+      <c r="U122">
+        <v>2</v>
+      </c>
+      <c r="V122">
+        <v>1.85</v>
+      </c>
+      <c r="W122">
+        <v>-1</v>
+      </c>
+      <c r="X122">
         <v>2.1</v>
       </c>
-      <c r="L122">
-        <v>3.4</v>
-      </c>
-      <c r="M122">
-        <v>3.2</v>
-      </c>
-      <c r="N122">
-        <v>2.3</v>
-      </c>
-      <c r="O122">
-        <v>3.3</v>
-      </c>
-      <c r="P122">
-        <v>3</v>
-      </c>
-      <c r="Q122">
-        <v>-0.25</v>
-      </c>
-      <c r="R122">
-        <v>2.05</v>
-      </c>
-      <c r="S122">
-        <v>1.8</v>
-      </c>
-      <c r="T122">
-        <v>2.5</v>
-      </c>
-      <c r="U122">
-        <v>1.9</v>
-      </c>
-      <c r="V122">
-        <v>1.95</v>
-      </c>
-      <c r="W122">
-        <v>-1</v>
-      </c>
-      <c r="X122">
-        <v>-1</v>
-      </c>
       <c r="Y122">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA122">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB122">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6149867</v>
+        <v>6149414</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,76 +11385,76 @@
         <v>45114.3125</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H123">
         <v>1</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K123">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L123">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
+        <v>3.2</v>
+      </c>
+      <c r="N123">
+        <v>2.3</v>
+      </c>
+      <c r="O123">
+        <v>3.3</v>
+      </c>
+      <c r="P123">
+        <v>3</v>
+      </c>
+      <c r="Q123">
+        <v>-0.25</v>
+      </c>
+      <c r="R123">
+        <v>2.05</v>
+      </c>
+      <c r="S123">
+        <v>1.8</v>
+      </c>
+      <c r="T123">
         <v>2.5</v>
       </c>
-      <c r="N123">
-        <v>3.3</v>
-      </c>
-      <c r="O123">
-        <v>3.1</v>
-      </c>
-      <c r="P123">
-        <v>2.2</v>
-      </c>
-      <c r="Q123">
-        <v>0.25</v>
-      </c>
-      <c r="R123">
+      <c r="U123">
+        <v>1.9</v>
+      </c>
+      <c r="V123">
         <v>1.95</v>
       </c>
-      <c r="S123">
-        <v>1.9</v>
-      </c>
-      <c r="T123">
-        <v>2.25</v>
-      </c>
-      <c r="U123">
-        <v>2</v>
-      </c>
-      <c r="V123">
-        <v>1.85</v>
-      </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z123">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB123">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC123">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11655,7 +11655,7 @@
         <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11744,7 +11744,7 @@
         <v>34</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6149872</v>
+        <v>6149871</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,73 +12100,73 @@
         <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H131">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K131">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M131">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="N131">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="O131">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="Q131">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
+        <v>2.025</v>
+      </c>
+      <c r="S131">
+        <v>1.825</v>
+      </c>
+      <c r="T131">
+        <v>2.25</v>
+      </c>
+      <c r="U131">
         <v>1.925</v>
       </c>
-      <c r="S131">
+      <c r="V131">
         <v>1.925</v>
       </c>
-      <c r="T131">
-        <v>3</v>
-      </c>
-      <c r="U131">
-        <v>1.9</v>
-      </c>
-      <c r="V131">
-        <v>1.95</v>
-      </c>
       <c r="W131">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6149871</v>
+        <v>6149872</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,73 +12278,73 @@
         <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K133">
+        <v>1.55</v>
+      </c>
+      <c r="L133">
+        <v>3.75</v>
+      </c>
+      <c r="M133">
+        <v>5.25</v>
+      </c>
+      <c r="N133">
+        <v>1.55</v>
+      </c>
+      <c r="O133">
         <v>4</v>
       </c>
-      <c r="L133">
-        <v>3.3</v>
-      </c>
-      <c r="M133">
-        <v>1.909</v>
-      </c>
-      <c r="N133">
-        <v>4.5</v>
-      </c>
-      <c r="O133">
-        <v>3.3</v>
-      </c>
       <c r="P133">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R133">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X133">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA133">
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC133">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
         <v>29</v>
@@ -12456,7 +12456,7 @@
         <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6149383</v>
+        <v>6149486</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,10 +12898,10 @@
         <v>45128.3125</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -12913,43 +12913,43 @@
         <v>41</v>
       </c>
       <c r="K140">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="L140">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M140">
+        <v>4.75</v>
+      </c>
+      <c r="N140">
+        <v>1.65</v>
+      </c>
+      <c r="O140">
+        <v>4</v>
+      </c>
+      <c r="P140">
+        <v>4.75</v>
+      </c>
+      <c r="Q140">
+        <v>-0.75</v>
+      </c>
+      <c r="R140">
+        <v>1.825</v>
+      </c>
+      <c r="S140">
+        <v>2.025</v>
+      </c>
+      <c r="T140">
         <v>3</v>
       </c>
-      <c r="N140">
-        <v>2.4</v>
-      </c>
-      <c r="O140">
-        <v>3.2</v>
-      </c>
-      <c r="P140">
-        <v>2.8</v>
-      </c>
-      <c r="Q140">
-        <v>-0.25</v>
-      </c>
-      <c r="R140">
-        <v>2.05</v>
-      </c>
-      <c r="S140">
-        <v>1.75</v>
-      </c>
-      <c r="T140">
-        <v>2.5</v>
-      </c>
       <c r="U140">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W140">
-        <v>1.4</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12958,16 +12958,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6149486</v>
+        <v>6149383</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,10 +12987,10 @@
         <v>45128.3125</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13002,43 +13002,43 @@
         <v>41</v>
       </c>
       <c r="K141">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M141">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N141">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O141">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P141">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T141">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
-        <v>0.6499999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13047,16 +13047,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
       <c r="AA141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC141">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>45129.3125</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
         <v>35</v>
@@ -13257,7 +13257,7 @@
         <v>39</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -13521,7 +13521,7 @@
         <v>45142.3125</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
         <v>33</v>
@@ -13610,7 +13610,7 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G148" t="s">
         <v>36</v>
@@ -13969,7 +13969,7 @@
         <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14236,7 +14236,7 @@
         <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -14589,7 +14589,7 @@
         <v>45156.3125</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
         <v>32</v>
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6149888</v>
+        <v>6149386</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,76 +14678,76 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G160" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H160">
         <v>1</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K160">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L160">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M160">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="N160">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O160">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P160">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q160">
         <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S160">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T160">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V160">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA160">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14755,7 +14755,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6149386</v>
+        <v>6149888</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14767,76 +14767,76 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G161" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K161">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L161">
+        <v>3.25</v>
+      </c>
+      <c r="M161">
+        <v>2.875</v>
+      </c>
+      <c r="N161">
+        <v>2</v>
+      </c>
+      <c r="O161">
         <v>3.4</v>
       </c>
-      <c r="M161">
-        <v>3.4</v>
-      </c>
-      <c r="N161">
-        <v>2.15</v>
-      </c>
-      <c r="O161">
-        <v>3.3</v>
-      </c>
       <c r="P161">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q161">
         <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S161">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V161">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W161">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC161">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>45157.3125</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G162" t="s">
         <v>37</v>
@@ -15390,7 +15390,7 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
         <v>29</v>
@@ -15482,7 +15482,7 @@
         <v>40</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H169">
         <v>4</v>
@@ -15746,10 +15746,10 @@
         <v>45171.1875</v>
       </c>
       <c r="F172" t="s">
+        <v>30</v>
+      </c>
+      <c r="G172" t="s">
         <v>31</v>
-      </c>
-      <c r="G172" t="s">
-        <v>30</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -16090,7 +16090,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6149389</v>
+        <v>6149898</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16102,73 +16102,73 @@
         <v>45185.08333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G176" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K176">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="L176">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M176">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="N176">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P176">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q176">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S176">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T176">
         <v>2.5</v>
       </c>
       <c r="U176">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V176">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA176">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16179,7 +16179,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6149898</v>
+        <v>6149389</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16191,73 +16191,73 @@
         <v>45185.08333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J177" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K177">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="L177">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M177">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="N177">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="O177">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R177">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
         <v>2.5</v>
       </c>
       <c r="U177">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V177">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z177">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB177">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16458,7 +16458,7 @@
         <v>45186.08333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
         <v>40</v>
@@ -16547,7 +16547,7 @@
         <v>45186.1875</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16639,7 +16639,7 @@
         <v>34</v>
       </c>
       <c r="G182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H182">
         <v>3</v>
@@ -16728,7 +16728,7 @@
         <v>32</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16802,7 +16802,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6323587</v>
+        <v>6323586</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16814,55 +16814,55 @@
         <v>45193.08333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G184" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J184" t="s">
         <v>42</v>
       </c>
       <c r="K184">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="L184">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M184">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="N184">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O184">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P184">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S184">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T184">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U184">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V184">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W184">
         <v>-1</v>
@@ -16871,19 +16871,19 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1.7</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA184">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC184">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16891,7 +16891,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6323586</v>
+        <v>6323587</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16903,76 +16903,76 @@
         <v>45193.08333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G185" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
         <v>42</v>
       </c>
       <c r="K185">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="L185">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M185">
+        <v>2.45</v>
+      </c>
+      <c r="N185">
+        <v>2.6</v>
+      </c>
+      <c r="O185">
+        <v>3.3</v>
+      </c>
+      <c r="P185">
+        <v>2.7</v>
+      </c>
+      <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185">
+        <v>1.875</v>
+      </c>
+      <c r="S185">
+        <v>1.975</v>
+      </c>
+      <c r="T185">
+        <v>2.25</v>
+      </c>
+      <c r="U185">
+        <v>1.975</v>
+      </c>
+      <c r="V185">
+        <v>1.875</v>
+      </c>
+      <c r="W185">
+        <v>-1</v>
+      </c>
+      <c r="X185">
+        <v>-1</v>
+      </c>
+      <c r="Y185">
         <v>1.7</v>
       </c>
-      <c r="N185">
-        <v>4.75</v>
-      </c>
-      <c r="O185">
-        <v>4</v>
-      </c>
-      <c r="P185">
-        <v>1.666</v>
-      </c>
-      <c r="Q185">
-        <v>0.75</v>
-      </c>
-      <c r="R185">
-        <v>2.025</v>
-      </c>
-      <c r="S185">
-        <v>1.825</v>
-      </c>
-      <c r="T185">
-        <v>3.25</v>
-      </c>
-      <c r="U185">
-        <v>2.05</v>
-      </c>
-      <c r="V185">
-        <v>1.8</v>
-      </c>
-      <c r="W185">
-        <v>-1</v>
-      </c>
-      <c r="X185">
-        <v>-1</v>
-      </c>
-      <c r="Y185">
-        <v>0.6659999999999999</v>
-      </c>
       <c r="Z185">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB185">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17158,7 +17158,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6353261</v>
+        <v>6353260</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17170,76 +17170,76 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>43</v>
       </c>
       <c r="K188">
+        <v>2.375</v>
+      </c>
+      <c r="L188">
+        <v>3.5</v>
+      </c>
+      <c r="M188">
+        <v>2.8</v>
+      </c>
+      <c r="N188">
+        <v>2.55</v>
+      </c>
+      <c r="O188">
         <v>3.4</v>
       </c>
-      <c r="L188">
-        <v>3.6</v>
-      </c>
-      <c r="M188">
-        <v>2</v>
-      </c>
-      <c r="N188">
-        <v>3.75</v>
-      </c>
-      <c r="O188">
-        <v>3.8</v>
-      </c>
       <c r="P188">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q188">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R188">
+        <v>1.825</v>
+      </c>
+      <c r="S188">
         <v>2.025</v>
       </c>
-      <c r="S188">
+      <c r="T188">
+        <v>2.5</v>
+      </c>
+      <c r="U188">
+        <v>2.025</v>
+      </c>
+      <c r="V188">
         <v>1.825</v>
       </c>
-      <c r="T188">
-        <v>2.75</v>
-      </c>
-      <c r="U188">
-        <v>1.825</v>
-      </c>
-      <c r="V188">
-        <v>2.025</v>
-      </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17247,7 +17247,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6353260</v>
+        <v>6353261</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17259,76 +17259,76 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>43</v>
       </c>
       <c r="K189">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="L189">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M189">
+        <v>2</v>
+      </c>
+      <c r="N189">
+        <v>3.75</v>
+      </c>
+      <c r="O189">
+        <v>3.8</v>
+      </c>
+      <c r="P189">
+        <v>1.85</v>
+      </c>
+      <c r="Q189">
+        <v>0.5</v>
+      </c>
+      <c r="R189">
+        <v>2.025</v>
+      </c>
+      <c r="S189">
+        <v>1.825</v>
+      </c>
+      <c r="T189">
+        <v>2.75</v>
+      </c>
+      <c r="U189">
+        <v>1.825</v>
+      </c>
+      <c r="V189">
+        <v>2.025</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
         <v>2.8</v>
       </c>
-      <c r="N189">
-        <v>2.55</v>
-      </c>
-      <c r="O189">
-        <v>3.4</v>
-      </c>
-      <c r="P189">
-        <v>2.625</v>
-      </c>
-      <c r="Q189">
-        <v>0</v>
-      </c>
-      <c r="R189">
-        <v>1.825</v>
-      </c>
-      <c r="S189">
-        <v>2.025</v>
-      </c>
-      <c r="T189">
-        <v>2.5</v>
-      </c>
-      <c r="U189">
-        <v>2.025</v>
-      </c>
-      <c r="V189">
-        <v>1.825</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>2.4</v>
-      </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA189">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17440,7 +17440,7 @@
         <v>35</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H191">
         <v>2</v>
@@ -17692,7 +17692,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6384126</v>
+        <v>6384127</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17704,10 +17704,10 @@
         <v>45207.125</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H194">
         <v>1</v>
@@ -17719,43 +17719,43 @@
         <v>41</v>
       </c>
       <c r="K194">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="L194">
         <v>3.4</v>
       </c>
       <c r="M194">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="N194">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="O194">
         <v>3.3</v>
       </c>
       <c r="P194">
+        <v>2.625</v>
+      </c>
+      <c r="Q194">
+        <v>0</v>
+      </c>
+      <c r="R194">
+        <v>1.9</v>
+      </c>
+      <c r="S194">
         <v>1.95</v>
       </c>
-      <c r="Q194">
-        <v>0.5</v>
-      </c>
-      <c r="R194">
+      <c r="T194">
+        <v>2.75</v>
+      </c>
+      <c r="U194">
+        <v>1.975</v>
+      </c>
+      <c r="V194">
         <v>1.875</v>
       </c>
-      <c r="S194">
-        <v>1.975</v>
-      </c>
-      <c r="T194">
-        <v>2.5</v>
-      </c>
-      <c r="U194">
-        <v>2.1</v>
-      </c>
-      <c r="V194">
-        <v>1.775</v>
-      </c>
       <c r="W194">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="X194">
         <v>-1</v>
@@ -17764,16 +17764,16 @@
         <v>-1</v>
       </c>
       <c r="Z194">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA194">
+        <v>-1</v>
+      </c>
+      <c r="AB194">
+        <v>-1</v>
+      </c>
+      <c r="AC194">
         <v>0.875</v>
-      </c>
-      <c r="AA194">
-        <v>-1</v>
-      </c>
-      <c r="AB194">
-        <v>-1</v>
-      </c>
-      <c r="AC194">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17870,7 +17870,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6387791</v>
+        <v>6384418</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17882,76 +17882,76 @@
         <v>45207.125</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196">
         <v>0</v>
       </c>
-      <c r="I196">
-        <v>2</v>
-      </c>
       <c r="J196" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K196">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L196">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M196">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N196">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O196">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P196">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q196">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R196">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S196">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T196">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA196">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17959,7 +17959,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6384418</v>
+        <v>6384126</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17971,10 +17971,10 @@
         <v>45207.125</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G197" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -17986,43 +17986,43 @@
         <v>41</v>
       </c>
       <c r="K197">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="L197">
         <v>3.4</v>
       </c>
       <c r="M197">
+        <v>1.909</v>
+      </c>
+      <c r="N197">
         <v>4</v>
       </c>
-      <c r="N197">
+      <c r="O197">
+        <v>3.3</v>
+      </c>
+      <c r="P197">
         <v>1.95</v>
       </c>
-      <c r="O197">
-        <v>3.4</v>
-      </c>
-      <c r="P197">
-        <v>4</v>
-      </c>
       <c r="Q197">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R197">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S197">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T197">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U197">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V197">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W197">
-        <v>0.95</v>
+        <v>3</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18031,7 +18031,7 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA197">
         <v>-1</v>
@@ -18040,7 +18040,7 @@
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18048,7 +18048,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6384127</v>
+        <v>6384125</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18060,76 +18060,76 @@
         <v>45207.125</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K198">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L198">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M198">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N198">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O198">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P198">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="Q198">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R198">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S198">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T198">
         <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V198">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W198">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC198">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18137,7 +18137,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6384125</v>
+        <v>6387791</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18149,76 +18149,76 @@
         <v>45207.125</v>
       </c>
       <c r="F199" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199">
         <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K199">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L199">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M199">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="N199">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="O199">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P199">
-        <v>5.25</v>
+        <v>2.8</v>
       </c>
       <c r="Q199">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R199">
+        <v>1.775</v>
+      </c>
+      <c r="S199">
+        <v>2.1</v>
+      </c>
+      <c r="T199">
+        <v>2.5</v>
+      </c>
+      <c r="U199">
         <v>1.85</v>
       </c>
-      <c r="S199">
-        <v>2</v>
-      </c>
-      <c r="T199">
-        <v>2.75</v>
-      </c>
-      <c r="U199">
-        <v>2.025</v>
-      </c>
       <c r="V199">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z199">
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AB199">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18493,7 +18493,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7334076</v>
+        <v>7334077</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18505,76 +18505,76 @@
         <v>45221.08333333334</v>
       </c>
       <c r="F203" t="s">
+        <v>32</v>
+      </c>
+      <c r="G203" t="s">
         <v>30</v>
       </c>
-      <c r="G203" t="s">
-        <v>39</v>
-      </c>
       <c r="H203">
         <v>2</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
         <v>41</v>
       </c>
       <c r="K203">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L203">
         <v>3.5</v>
       </c>
       <c r="M203">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N203">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O203">
         <v>3.5</v>
       </c>
       <c r="P203">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q203">
         <v>-0.5</v>
       </c>
       <c r="R203">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S203">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U203">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V203">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W203">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X203">
+        <v>-1</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA203">
+        <v>-1</v>
+      </c>
+      <c r="AB203">
+        <v>-1</v>
+      </c>
+      <c r="AC203">
         <v>0.8</v>
-      </c>
-      <c r="X203">
-        <v>-1</v>
-      </c>
-      <c r="Y203">
-        <v>-1</v>
-      </c>
-      <c r="Z203">
-        <v>0.875</v>
-      </c>
-      <c r="AA203">
-        <v>-1</v>
-      </c>
-      <c r="AB203">
-        <v>0.825</v>
-      </c>
-      <c r="AC203">
-        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18582,7 +18582,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7334077</v>
+        <v>7334076</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18594,58 +18594,58 @@
         <v>45221.08333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G204" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
         <v>41</v>
       </c>
       <c r="K204">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L204">
         <v>3.5</v>
       </c>
       <c r="M204">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N204">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O204">
         <v>3.5</v>
       </c>
       <c r="P204">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q204">
         <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S204">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T204">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U204">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V204">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W204">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18654,16 +18654,16 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA204">
         <v>-1</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC204">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -19128,7 +19128,7 @@
         <v>45228.08333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G210" t="s">
         <v>34</v>
@@ -19220,7 +19220,7 @@
         <v>36</v>
       </c>
       <c r="G211" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19383,7 +19383,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7334075</v>
+        <v>7334083</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19395,76 +19395,76 @@
         <v>45241.1875</v>
       </c>
       <c r="F213" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G213" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
         <v>43</v>
       </c>
       <c r="K213">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L213">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M213">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N213">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O213">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P213">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="Q213">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R213">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S213">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T213">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V213">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB213">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19472,7 +19472,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7334083</v>
+        <v>7334075</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19484,76 +19484,76 @@
         <v>45241.1875</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G214" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
         <v>43</v>
       </c>
       <c r="K214">
+        <v>2.625</v>
+      </c>
+      <c r="L214">
+        <v>3.2</v>
+      </c>
+      <c r="M214">
         <v>2.7</v>
       </c>
-      <c r="L214">
-        <v>3.3</v>
-      </c>
-      <c r="M214">
-        <v>2.55</v>
-      </c>
       <c r="N214">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O214">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P214">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="Q214">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R214">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S214">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T214">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U214">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V214">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA214">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC214">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19561,7 +19561,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7334084</v>
+        <v>7333492</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19573,76 +19573,76 @@
         <v>45242.08333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G215" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K215">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L215">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M215">
+        <v>2.6</v>
+      </c>
+      <c r="N215">
         <v>3.2</v>
       </c>
-      <c r="N215">
-        <v>2.55</v>
-      </c>
       <c r="O215">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P215">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q215">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S215">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T215">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y215">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA215">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB215">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19650,7 +19650,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7333492</v>
+        <v>7334084</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19662,76 +19662,76 @@
         <v>45242.08333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G216" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K216">
+        <v>2.15</v>
+      </c>
+      <c r="L216">
+        <v>3.5</v>
+      </c>
+      <c r="M216">
+        <v>3.2</v>
+      </c>
+      <c r="N216">
+        <v>2.55</v>
+      </c>
+      <c r="O216">
+        <v>3.4</v>
+      </c>
+      <c r="P216">
+        <v>2.625</v>
+      </c>
+      <c r="Q216">
+        <v>0</v>
+      </c>
+      <c r="R216">
+        <v>1.875</v>
+      </c>
+      <c r="S216">
+        <v>1.975</v>
+      </c>
+      <c r="T216">
         <v>2.75</v>
       </c>
-      <c r="L216">
-        <v>3.2</v>
-      </c>
-      <c r="M216">
-        <v>2.6</v>
-      </c>
-      <c r="N216">
-        <v>3.2</v>
-      </c>
-      <c r="O216">
-        <v>3.25</v>
-      </c>
-      <c r="P216">
-        <v>2.25</v>
-      </c>
-      <c r="Q216">
-        <v>0.25</v>
-      </c>
-      <c r="R216">
-        <v>1.85</v>
-      </c>
-      <c r="S216">
-        <v>2</v>
-      </c>
-      <c r="T216">
-        <v>2.25</v>
-      </c>
       <c r="U216">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V216">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z216">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB216">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC216">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19917,7 +19917,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7333495</v>
+        <v>7334087</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19929,76 +19929,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G219" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K219">
         <v>2.05</v>
       </c>
       <c r="L219">
+        <v>3.75</v>
+      </c>
+      <c r="M219">
         <v>3.25</v>
-      </c>
-      <c r="M219">
-        <v>3.2</v>
       </c>
       <c r="N219">
         <v>2.05</v>
       </c>
       <c r="O219">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P219">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q219">
         <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S219">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T219">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U219">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V219">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W219">
+        <v>-1</v>
+      </c>
+      <c r="X219">
+        <v>-1</v>
+      </c>
+      <c r="Y219">
+        <v>2.3</v>
+      </c>
+      <c r="Z219">
+        <v>-1</v>
+      </c>
+      <c r="AA219">
         <v>1.05</v>
       </c>
-      <c r="X219">
-        <v>-1</v>
-      </c>
-      <c r="Y219">
-        <v>-1</v>
-      </c>
-      <c r="Z219">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA219">
-        <v>-1</v>
-      </c>
       <c r="AB219">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20006,7 +20006,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7334087</v>
+        <v>7333495</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20018,76 +20018,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G220" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H220">
+        <v>2</v>
+      </c>
+      <c r="I220">
         <v>0</v>
       </c>
-      <c r="I220">
-        <v>2</v>
-      </c>
       <c r="J220" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K220">
         <v>2.05</v>
       </c>
       <c r="L220">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M220">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N220">
         <v>2.05</v>
       </c>
       <c r="O220">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P220">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q220">
         <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S220">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T220">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U220">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V220">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA220">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC220">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20184,7 +20184,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7334085</v>
+        <v>7333496</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20196,76 +20196,76 @@
         <v>45255.1875</v>
       </c>
       <c r="F222" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G222" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H222">
+        <v>1</v>
+      </c>
+      <c r="I222">
         <v>0</v>
       </c>
-      <c r="I222">
-        <v>1</v>
-      </c>
       <c r="J222" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K222">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M222">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N222">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O222">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P222">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q222">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R222">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S222">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T222">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U222">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V222">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA222">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
         <v>-1</v>
       </c>
       <c r="AC222">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20273,7 +20273,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7333496</v>
+        <v>7334085</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20285,76 +20285,76 @@
         <v>45255.1875</v>
       </c>
       <c r="F223" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G223" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K223">
+        <v>1.65</v>
+      </c>
+      <c r="L223">
+        <v>4</v>
+      </c>
+      <c r="M223">
+        <v>5</v>
+      </c>
+      <c r="N223">
+        <v>1.727</v>
+      </c>
+      <c r="O223">
+        <v>3.8</v>
+      </c>
+      <c r="P223">
+        <v>4.2</v>
+      </c>
+      <c r="Q223">
+        <v>-0.75</v>
+      </c>
+      <c r="R223">
+        <v>2</v>
+      </c>
+      <c r="S223">
         <v>1.85</v>
       </c>
-      <c r="L223">
-        <v>3.4</v>
-      </c>
-      <c r="M223">
-        <v>3.6</v>
-      </c>
-      <c r="N223">
-        <v>2.1</v>
-      </c>
-      <c r="O223">
-        <v>3.3</v>
-      </c>
-      <c r="P223">
-        <v>3.6</v>
-      </c>
-      <c r="Q223">
-        <v>-0.25</v>
-      </c>
-      <c r="R223">
-        <v>1.8</v>
-      </c>
-      <c r="S223">
-        <v>2.05</v>
-      </c>
       <c r="T223">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V223">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W223">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z223">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB223">
         <v>-1</v>
       </c>
       <c r="AC223">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20451,7 +20451,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7334090</v>
+        <v>7334088</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20463,76 +20463,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F225" t="s">
+        <v>34</v>
+      </c>
+      <c r="G225" t="s">
         <v>31</v>
       </c>
-      <c r="G225" t="s">
-        <v>39</v>
-      </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J225" t="s">
         <v>43</v>
       </c>
       <c r="K225">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L225">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M225">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N225">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="O225">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P225">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q225">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R225">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S225">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T225">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U225">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V225">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA225">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC225">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20540,7 +20540,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7334088</v>
+        <v>7334090</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20552,76 +20552,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G226" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
         <v>43</v>
       </c>
       <c r="K226">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L226">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M226">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N226">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O226">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P226">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q226">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R226">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S226">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T226">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U226">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V226">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA226">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB226">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20629,7 +20629,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7333497</v>
+        <v>7333498</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20641,76 +20641,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F227" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G227" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227">
         <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K227">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L227">
+        <v>3.4</v>
+      </c>
+      <c r="M227">
+        <v>3.3</v>
+      </c>
+      <c r="N227">
+        <v>1.8</v>
+      </c>
+      <c r="O227">
         <v>3.5</v>
       </c>
-      <c r="M227">
-        <v>2.9</v>
-      </c>
-      <c r="N227">
-        <v>2.6</v>
-      </c>
-      <c r="O227">
-        <v>3.4</v>
-      </c>
       <c r="P227">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q227">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R227">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S227">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T227">
         <v>2.5</v>
       </c>
       <c r="U227">
+        <v>2.025</v>
+      </c>
+      <c r="V227">
         <v>1.825</v>
       </c>
-      <c r="V227">
-        <v>2.025</v>
-      </c>
       <c r="W227">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB227">
         <v>-1</v>
       </c>
       <c r="AC227">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20718,7 +20718,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7333498</v>
+        <v>7333497</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20730,76 +20730,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G228" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I228">
         <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K228">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L228">
+        <v>3.5</v>
+      </c>
+      <c r="M228">
+        <v>2.9</v>
+      </c>
+      <c r="N228">
+        <v>2.6</v>
+      </c>
+      <c r="O228">
         <v>3.4</v>
       </c>
-      <c r="M228">
-        <v>3.3</v>
-      </c>
-      <c r="N228">
-        <v>1.8</v>
-      </c>
-      <c r="O228">
-        <v>3.5</v>
-      </c>
       <c r="P228">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q228">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R228">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S228">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T228">
         <v>2.5</v>
       </c>
       <c r="U228">
+        <v>1.825</v>
+      </c>
+      <c r="V228">
         <v>2.025</v>
       </c>
-      <c r="V228">
-        <v>1.825</v>
-      </c>
       <c r="W228">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X228">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA228">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
         <v>-1</v>
       </c>
       <c r="AC228">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="229" spans="1:29">

--- a/South Korea K League 1/South Korea K League 1.xlsx
+++ b/South Korea K League 1/South Korea K League 1.xlsx
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6149807</v>
+        <v>6149808</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,37 +1684,37 @@
         <v>44996.08333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="L14">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N14">
         <v>3.6</v>
       </c>
       <c r="O14">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P14">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q14">
         <v>0.25</v>
@@ -1723,10 +1723,10 @@
         <v>2.05</v>
       </c>
       <c r="S14">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T14">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
         <v>1.925</v>
@@ -1735,25 +1735,25 @@
         <v>1.925</v>
       </c>
       <c r="W14">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1.05</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
         <v>0.925</v>
-      </c>
-      <c r="AC14">
-        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6149808</v>
+        <v>6149807</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,37 +1773,37 @@
         <v>44996.08333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N15">
         <v>3.6</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P15">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q15">
         <v>0.25</v>
@@ -1812,10 +1812,10 @@
         <v>2.05</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
         <v>1.925</v>
@@ -1824,25 +1824,25 @@
         <v>1.925</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X15">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.5249999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC15">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6149810</v>
+        <v>6149811</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L20">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M20">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="N20">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="O20">
         <v>3.1</v>
       </c>
       <c r="P20">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
+        <v>2.025</v>
+      </c>
+      <c r="V20">
+        <v>1.825</v>
+      </c>
+      <c r="W20">
         <v>1.75</v>
       </c>
-      <c r="V20">
-        <v>2.05</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
       <c r="X20">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6149811</v>
+        <v>6149810</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,76 +2307,76 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L21">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M21">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N21">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="O21">
         <v>3.1</v>
       </c>
       <c r="P21">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q21">
+        <v>-0.5</v>
+      </c>
+      <c r="R21">
+        <v>1.875</v>
+      </c>
+      <c r="S21">
+        <v>1.975</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>1.75</v>
+      </c>
+      <c r="V21">
+        <v>2.05</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
+        <v>2.1</v>
+      </c>
+      <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB21">
         <v>0</v>
       </c>
-      <c r="R21">
-        <v>2.075</v>
-      </c>
-      <c r="S21">
-        <v>1.725</v>
-      </c>
-      <c r="T21">
-        <v>2.25</v>
-      </c>
-      <c r="U21">
-        <v>2.025</v>
-      </c>
-      <c r="V21">
-        <v>1.825</v>
-      </c>
-      <c r="W21">
-        <v>1.75</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
-      <c r="Z21">
-        <v>1.075</v>
-      </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
-      <c r="AB21">
-        <v>1.025</v>
-      </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6149473</v>
+        <v>6149402</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45038.1875</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K45">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M45">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O45">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P45">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S45">
+        <v>2.05</v>
+      </c>
+      <c r="T45">
+        <v>2.5</v>
+      </c>
+      <c r="U45">
         <v>1.85</v>
       </c>
-      <c r="T45">
-        <v>2.25</v>
-      </c>
-      <c r="U45">
-        <v>1.95</v>
-      </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X45">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6149402</v>
+        <v>6149473</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,76 +4532,76 @@
         <v>45038.1875</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K46">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L46">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
+        <v>3.8</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
         <v>3.1</v>
       </c>
-      <c r="N46">
-        <v>2.5</v>
-      </c>
-      <c r="O46">
-        <v>3.4</v>
-      </c>
       <c r="P46">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6149828</v>
+        <v>6149829</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,76 +5066,76 @@
         <v>45042.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52">
+        <v>3.1</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <v>2.4</v>
+      </c>
+      <c r="N52">
+        <v>2.9</v>
+      </c>
+      <c r="O52">
+        <v>3.1</v>
+      </c>
+      <c r="P52">
+        <v>2.55</v>
+      </c>
+      <c r="Q52">
         <v>0</v>
       </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
-        <v>42</v>
-      </c>
-      <c r="K52">
-        <v>2.5</v>
-      </c>
-      <c r="L52">
-        <v>3.1</v>
-      </c>
-      <c r="M52">
-        <v>2.875</v>
-      </c>
-      <c r="N52">
-        <v>2.2</v>
-      </c>
-      <c r="O52">
-        <v>3.4</v>
-      </c>
-      <c r="P52">
-        <v>3.1</v>
-      </c>
-      <c r="Q52">
-        <v>-0.25</v>
-      </c>
       <c r="R52">
+        <v>2.1</v>
+      </c>
+      <c r="S52">
+        <v>1.775</v>
+      </c>
+      <c r="T52">
+        <v>2</v>
+      </c>
+      <c r="U52">
+        <v>1.8</v>
+      </c>
+      <c r="V52">
+        <v>2.05</v>
+      </c>
+      <c r="W52">
         <v>1.9</v>
       </c>
-      <c r="S52">
-        <v>1.95</v>
-      </c>
-      <c r="T52">
-        <v>2.5</v>
-      </c>
-      <c r="U52">
-        <v>1.95</v>
-      </c>
-      <c r="V52">
-        <v>1.9</v>
-      </c>
-      <c r="W52">
-        <v>-1</v>
-      </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6149829</v>
+        <v>6149828</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,76 +5155,76 @@
         <v>45042.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K53">
+        <v>2.5</v>
+      </c>
+      <c r="L53">
         <v>3.1</v>
       </c>
-      <c r="L53">
-        <v>3</v>
-      </c>
       <c r="M53">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="N53">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O53">
+        <v>3.4</v>
+      </c>
+      <c r="P53">
         <v>3.1</v>
       </c>
-      <c r="P53">
-        <v>2.55</v>
-      </c>
       <c r="Q53">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
+        <v>1.9</v>
+      </c>
+      <c r="S53">
+        <v>1.95</v>
+      </c>
+      <c r="T53">
+        <v>2.5</v>
+      </c>
+      <c r="U53">
+        <v>1.95</v>
+      </c>
+      <c r="V53">
+        <v>1.9</v>
+      </c>
+      <c r="W53">
+        <v>-1</v>
+      </c>
+      <c r="X53">
+        <v>-1</v>
+      </c>
+      <c r="Y53">
         <v>2.1</v>
       </c>
-      <c r="S53">
-        <v>1.775</v>
-      </c>
-      <c r="T53">
-        <v>2</v>
-      </c>
-      <c r="U53">
-        <v>1.8</v>
-      </c>
-      <c r="V53">
-        <v>2.05</v>
-      </c>
-      <c r="W53">
-        <v>1.9</v>
-      </c>
-      <c r="X53">
-        <v>-1</v>
-      </c>
-      <c r="Y53">
-        <v>-1</v>
-      </c>
       <c r="Z53">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB53">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6149403</v>
+        <v>6149368</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45042.3125</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K54">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L54">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N54">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O54">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6149368</v>
+        <v>6149403</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45042.3125</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K55">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L55">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M55">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N55">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P55">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q55">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R55">
+        <v>1.825</v>
+      </c>
+      <c r="S55">
+        <v>2.025</v>
+      </c>
+      <c r="T55">
+        <v>2.75</v>
+      </c>
+      <c r="U55">
+        <v>2</v>
+      </c>
+      <c r="V55">
         <v>1.85</v>
       </c>
-      <c r="S55">
-        <v>2</v>
-      </c>
-      <c r="T55">
-        <v>2.5</v>
-      </c>
-      <c r="U55">
-        <v>1.9</v>
-      </c>
-      <c r="V55">
-        <v>1.95</v>
-      </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y55">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB55">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6149837</v>
+        <v>6149406</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,40 +6579,40 @@
         <v>45055.3125</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L69">
         <v>3.2</v>
       </c>
       <c r="M69">
+        <v>2.15</v>
+      </c>
+      <c r="N69">
+        <v>3.25</v>
+      </c>
+      <c r="O69">
         <v>3.1</v>
       </c>
-      <c r="N69">
+      <c r="P69">
         <v>2.15</v>
       </c>
-      <c r="O69">
-        <v>3.2</v>
-      </c>
-      <c r="P69">
-        <v>3.2</v>
-      </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
         <v>1.925</v>
@@ -6624,31 +6624,31 @@
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6149406</v>
+        <v>6149837</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,40 +6668,40 @@
         <v>45055.3125</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K70">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L70">
         <v>3.2</v>
       </c>
       <c r="M70">
+        <v>3.1</v>
+      </c>
+      <c r="N70">
         <v>2.15</v>
       </c>
-      <c r="N70">
-        <v>3.25</v>
-      </c>
       <c r="O70">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
         <v>1.925</v>
@@ -6713,31 +6713,31 @@
         <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V70">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X70">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC70">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6149838</v>
+        <v>6149839</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>2</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="s">
         <v>41</v>
       </c>
       <c r="K71">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L71">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M71">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N71">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O71">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P71">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q71">
+        <v>-0.25</v>
+      </c>
+      <c r="R71">
+        <v>1.8</v>
+      </c>
+      <c r="S71">
+        <v>2.05</v>
+      </c>
+      <c r="T71">
+        <v>3</v>
+      </c>
+      <c r="U71">
+        <v>2.025</v>
+      </c>
+      <c r="V71">
+        <v>1.825</v>
+      </c>
+      <c r="W71">
+        <v>1.1</v>
+      </c>
+      <c r="X71">
+        <v>-1</v>
+      </c>
+      <c r="Y71">
+        <v>-1</v>
+      </c>
+      <c r="Z71">
+        <v>0.8</v>
+      </c>
+      <c r="AA71">
+        <v>-1</v>
+      </c>
+      <c r="AB71">
         <v>0</v>
       </c>
-      <c r="R71">
-        <v>1.85</v>
-      </c>
-      <c r="S71">
-        <v>2</v>
-      </c>
-      <c r="T71">
-        <v>2.25</v>
-      </c>
-      <c r="U71">
-        <v>1.85</v>
-      </c>
-      <c r="V71">
-        <v>2</v>
-      </c>
-      <c r="W71">
-        <v>1.45</v>
-      </c>
-      <c r="X71">
-        <v>-1</v>
-      </c>
-      <c r="Y71">
-        <v>-1</v>
-      </c>
-      <c r="Z71">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA71">
-        <v>-1</v>
-      </c>
-      <c r="AB71">
-        <v>-0.5</v>
-      </c>
       <c r="AC71">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6149371</v>
+        <v>6149838</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72">
         <v>0</v>
       </c>
-      <c r="I72">
-        <v>3</v>
-      </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K72">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L72">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M72">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N72">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O72">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P72">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T72">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6149839</v>
+        <v>6149371</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L73">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73">
+        <v>3</v>
+      </c>
+      <c r="P73">
+        <v>2.375</v>
+      </c>
+      <c r="Q73">
+        <v>0.25</v>
+      </c>
+      <c r="R73">
+        <v>1.775</v>
+      </c>
+      <c r="S73">
         <v>2.1</v>
       </c>
-      <c r="O73">
-        <v>3.5</v>
-      </c>
-      <c r="P73">
-        <v>3.4</v>
-      </c>
-      <c r="Q73">
-        <v>-0.25</v>
-      </c>
-      <c r="R73">
+      <c r="T73">
+        <v>2</v>
+      </c>
+      <c r="U73">
         <v>1.8</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>2.05</v>
       </c>
-      <c r="T73">
-        <v>3</v>
-      </c>
-      <c r="U73">
-        <v>2.025</v>
-      </c>
-      <c r="V73">
-        <v>1.825</v>
-      </c>
       <c r="W73">
+        <v>-1</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>1.375</v>
+      </c>
+      <c r="Z73">
+        <v>-1</v>
+      </c>
+      <c r="AA73">
         <v>1.1</v>
       </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>-1</v>
-      </c>
-      <c r="Z73">
+      <c r="AB73">
         <v>0.8</v>
       </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
-      <c r="AB73">
-        <v>0</v>
-      </c>
       <c r="AC73">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6149854</v>
+        <v>6149376</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,58 +9338,58 @@
         <v>45084.29166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>41</v>
       </c>
       <c r="K100">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L100">
+        <v>3.5</v>
+      </c>
+      <c r="M100">
+        <v>4.2</v>
+      </c>
+      <c r="N100">
+        <v>2.05</v>
+      </c>
+      <c r="O100">
+        <v>3.3</v>
+      </c>
+      <c r="P100">
         <v>3.4</v>
       </c>
-      <c r="M100">
-        <v>3.8</v>
-      </c>
-      <c r="N100">
+      <c r="Q100">
+        <v>-0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.825</v>
+      </c>
+      <c r="S100">
+        <v>2.025</v>
+      </c>
+      <c r="T100">
+        <v>2.25</v>
+      </c>
+      <c r="U100">
         <v>1.85</v>
       </c>
-      <c r="O100">
-        <v>3.6</v>
-      </c>
-      <c r="P100">
-        <v>4.2</v>
-      </c>
-      <c r="Q100">
-        <v>-0.5</v>
-      </c>
-      <c r="R100">
-        <v>1.9</v>
-      </c>
-      <c r="S100">
-        <v>1.95</v>
-      </c>
-      <c r="T100">
-        <v>2.5</v>
-      </c>
-      <c r="U100">
-        <v>2.025</v>
-      </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9398,16 +9398,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6149376</v>
+        <v>6149854</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,58 +9427,58 @@
         <v>45084.29166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
         <v>41</v>
       </c>
       <c r="K101">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
+        <v>3.8</v>
+      </c>
+      <c r="N101">
+        <v>1.85</v>
+      </c>
+      <c r="O101">
+        <v>3.6</v>
+      </c>
+      <c r="P101">
         <v>4.2</v>
       </c>
-      <c r="N101">
-        <v>2.05</v>
-      </c>
-      <c r="O101">
-        <v>3.3</v>
-      </c>
-      <c r="P101">
-        <v>3.4</v>
-      </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
+        <v>1.9</v>
+      </c>
+      <c r="S101">
+        <v>1.95</v>
+      </c>
+      <c r="T101">
+        <v>2.5</v>
+      </c>
+      <c r="U101">
+        <v>2.025</v>
+      </c>
+      <c r="V101">
         <v>1.825</v>
       </c>
-      <c r="S101">
-        <v>2.025</v>
-      </c>
-      <c r="T101">
-        <v>2.25</v>
-      </c>
-      <c r="U101">
-        <v>1.85</v>
-      </c>
-      <c r="V101">
-        <v>2</v>
-      </c>
       <c r="W101">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9487,16 +9487,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC101">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6149855</v>
+        <v>6149856</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,76 +9516,76 @@
         <v>45084.3125</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K102">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L102">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M102">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="N102">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O102">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P102">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V102">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z102">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC102">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6149856</v>
+        <v>6149855</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45084.3125</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L103">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="N103">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P103">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
+        <v>2.025</v>
+      </c>
+      <c r="T103">
+        <v>2.25</v>
+      </c>
+      <c r="U103">
+        <v>1.825</v>
+      </c>
+      <c r="V103">
+        <v>2.025</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
         <v>2.1</v>
       </c>
-      <c r="T103">
-        <v>2.5</v>
-      </c>
-      <c r="U103">
-        <v>1.95</v>
-      </c>
-      <c r="V103">
-        <v>1.9</v>
-      </c>
-      <c r="W103">
-        <v>-1</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
       <c r="Y103">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA103">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6149871</v>
+        <v>6149381</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,55 +12097,55 @@
         <v>45119.3125</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
         <v>43</v>
       </c>
       <c r="K131">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L131">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M131">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="N131">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="O131">
         <v>3.3</v>
       </c>
       <c r="P131">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T131">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
         <v>-1</v>
@@ -12157,16 +12157,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>1.025</v>
+        <v>0.4875</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB131">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC131">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6149381</v>
+        <v>6149871</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,55 +12186,55 @@
         <v>45119.3125</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
         <v>43</v>
       </c>
       <c r="K132">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L132">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M132">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N132">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="O132">
         <v>3.3</v>
       </c>
       <c r="P132">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="Q132">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S132">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
         <v>-1</v>
@@ -12246,16 +12246,16 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AA132">
+        <v>-1</v>
+      </c>
+      <c r="AB132">
         <v>-0.5</v>
       </c>
-      <c r="AB132">
-        <v>1</v>
-      </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -13153,7 +13153,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6149878</v>
+        <v>6149877</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13165,40 +13165,40 @@
         <v>45129.3125</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
         <v>42</v>
       </c>
       <c r="K143">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L143">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N143">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="O143">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P143">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R143">
         <v>2</v>
@@ -13207,7 +13207,7 @@
         <v>1.85</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U143">
         <v>1.8</v>
@@ -13222,7 +13222,7 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="Z143">
         <v>-1</v>
@@ -13231,10 +13231,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC143">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13242,7 +13242,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6149877</v>
+        <v>6149878</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13254,40 +13254,40 @@
         <v>45129.3125</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
         <v>42</v>
       </c>
       <c r="K144">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L144">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M144">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N144">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O144">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P144">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
         <v>2</v>
@@ -13296,7 +13296,7 @@
         <v>1.85</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
         <v>1.8</v>
@@ -13311,7 +13311,7 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="Z144">
         <v>-1</v>
@@ -13320,10 +13320,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6149879</v>
+        <v>6149880</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,73 +13432,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146" t="s">
+        <v>43</v>
+      </c>
+      <c r="K146">
+        <v>2.5</v>
+      </c>
+      <c r="L146">
+        <v>3.2</v>
+      </c>
+      <c r="M146">
+        <v>2.8</v>
+      </c>
+      <c r="N146">
+        <v>2.625</v>
+      </c>
+      <c r="O146">
+        <v>3.3</v>
+      </c>
+      <c r="P146">
+        <v>2.6</v>
+      </c>
+      <c r="Q146">
         <v>0</v>
       </c>
-      <c r="J146" t="s">
-        <v>41</v>
-      </c>
-      <c r="K146">
-        <v>2.15</v>
-      </c>
-      <c r="L146">
-        <v>3.3</v>
-      </c>
-      <c r="M146">
-        <v>3.4</v>
-      </c>
-      <c r="N146">
-        <v>2.2</v>
-      </c>
-      <c r="O146">
-        <v>3</v>
-      </c>
-      <c r="P146">
-        <v>3.6</v>
-      </c>
-      <c r="Q146">
-        <v>-0.25</v>
-      </c>
       <c r="R146">
+        <v>1.95</v>
+      </c>
+      <c r="S146">
         <v>1.9</v>
-      </c>
-      <c r="S146">
-        <v>1.95</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W146">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6149880</v>
+        <v>6149879</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,73 +13521,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K147">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L147">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M147">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N147">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O147">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P147">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
+        <v>1.9</v>
+      </c>
+      <c r="S147">
         <v>1.95</v>
-      </c>
-      <c r="S147">
-        <v>1.9</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V147">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X147">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6149386</v>
+        <v>6149888</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,76 +14678,76 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G160" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H160">
         <v>1</v>
       </c>
       <c r="I160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K160">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L160">
+        <v>3.25</v>
+      </c>
+      <c r="M160">
+        <v>2.875</v>
+      </c>
+      <c r="N160">
+        <v>2</v>
+      </c>
+      <c r="O160">
         <v>3.4</v>
       </c>
-      <c r="M160">
-        <v>3.4</v>
-      </c>
-      <c r="N160">
-        <v>2.15</v>
-      </c>
-      <c r="O160">
-        <v>3.3</v>
-      </c>
       <c r="P160">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q160">
         <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S160">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T160">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U160">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V160">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z160">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA160">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC160">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14755,7 +14755,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6149888</v>
+        <v>6149386</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14767,76 +14767,76 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="I161">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K161">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L161">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M161">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="N161">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O161">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P161">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q161">
         <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S161">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T161">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U161">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V161">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W161">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA161">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -17692,7 +17692,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6384127</v>
+        <v>6388625</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17704,76 +17704,76 @@
         <v>45207.125</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G194" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194">
         <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K194">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="L194">
+        <v>3.75</v>
+      </c>
+      <c r="M194">
+        <v>4.333</v>
+      </c>
+      <c r="N194">
+        <v>2</v>
+      </c>
+      <c r="O194">
         <v>3.4</v>
       </c>
-      <c r="M194">
-        <v>2.875</v>
-      </c>
-      <c r="N194">
-        <v>2.6</v>
-      </c>
-      <c r="O194">
-        <v>3.3</v>
-      </c>
       <c r="P194">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="Q194">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R194">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S194">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T194">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V194">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W194">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17781,7 +17781,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6388625</v>
+        <v>6384126</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17793,76 +17793,76 @@
         <v>45207.125</v>
       </c>
       <c r="F195" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G195" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195">
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K195">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="L195">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M195">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N195">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O195">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P195">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q195">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R195">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S195">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T195">
         <v>2.5</v>
       </c>
       <c r="U195">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V195">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X195">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA195">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
         <v>-1</v>
       </c>
       <c r="AC195">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17870,7 +17870,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6384418</v>
+        <v>6384127</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17882,10 +17882,10 @@
         <v>45207.125</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17897,43 +17897,43 @@
         <v>41</v>
       </c>
       <c r="K196">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L196">
         <v>3.4</v>
       </c>
       <c r="M196">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N196">
+        <v>2.6</v>
+      </c>
+      <c r="O196">
+        <v>3.3</v>
+      </c>
+      <c r="P196">
+        <v>2.625</v>
+      </c>
+      <c r="Q196">
+        <v>0</v>
+      </c>
+      <c r="R196">
+        <v>1.9</v>
+      </c>
+      <c r="S196">
         <v>1.95</v>
       </c>
-      <c r="O196">
-        <v>3.4</v>
-      </c>
-      <c r="P196">
-        <v>4</v>
-      </c>
-      <c r="Q196">
-        <v>-0.5</v>
-      </c>
-      <c r="R196">
-        <v>2</v>
-      </c>
-      <c r="S196">
-        <v>1.85</v>
-      </c>
       <c r="T196">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V196">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W196">
-        <v>0.95</v>
+        <v>1.6</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17942,7 +17942,7 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA196">
         <v>-1</v>
@@ -17951,7 +17951,7 @@
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17959,7 +17959,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6384126</v>
+        <v>6387791</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17971,76 +17971,76 @@
         <v>45207.125</v>
       </c>
       <c r="F197" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G197" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K197">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="L197">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M197">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="N197">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O197">
         <v>3.3</v>
       </c>
       <c r="P197">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="Q197">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R197">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S197">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T197">
         <v>2.5</v>
       </c>
       <c r="U197">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V197">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W197">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z197">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB197">
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18137,7 +18137,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6387791</v>
+        <v>6384418</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18149,76 +18149,76 @@
         <v>45207.125</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G199" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199">
         <v>0</v>
       </c>
-      <c r="I199">
-        <v>2</v>
-      </c>
       <c r="J199" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K199">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L199">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M199">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N199">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O199">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P199">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q199">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S199">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="T199">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U199">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V199">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA199">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18493,7 +18493,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7334077</v>
+        <v>7334076</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18505,58 +18505,58 @@
         <v>45221.08333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G203" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H203">
         <v>2</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
         <v>41</v>
       </c>
       <c r="K203">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L203">
         <v>3.5</v>
       </c>
       <c r="M203">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N203">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O203">
         <v>3.5</v>
       </c>
       <c r="P203">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q203">
         <v>-0.5</v>
       </c>
       <c r="R203">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S203">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T203">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U203">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V203">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W203">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18565,16 +18565,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA203">
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC203">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18582,7 +18582,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7334076</v>
+        <v>7334077</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18594,76 +18594,76 @@
         <v>45221.08333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G204" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
         <v>41</v>
       </c>
       <c r="K204">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L204">
         <v>3.5</v>
       </c>
       <c r="M204">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N204">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O204">
         <v>3.5</v>
       </c>
       <c r="P204">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q204">
         <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S204">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T204">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U204">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V204">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W204">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X204">
+        <v>-1</v>
+      </c>
+      <c r="Y204">
+        <v>-1</v>
+      </c>
+      <c r="Z204">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA204">
+        <v>-1</v>
+      </c>
+      <c r="AB204">
+        <v>-1</v>
+      </c>
+      <c r="AC204">
         <v>0.8</v>
-      </c>
-      <c r="X204">
-        <v>-1</v>
-      </c>
-      <c r="Y204">
-        <v>-1</v>
-      </c>
-      <c r="Z204">
-        <v>0.875</v>
-      </c>
-      <c r="AA204">
-        <v>-1</v>
-      </c>
-      <c r="AB204">
-        <v>0.825</v>
-      </c>
-      <c r="AC204">
-        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18849,7 +18849,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7333490</v>
+        <v>7334079</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18861,76 +18861,76 @@
         <v>45227.1875</v>
       </c>
       <c r="F207" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G207" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207" t="s">
+        <v>43</v>
+      </c>
+      <c r="K207">
+        <v>2.625</v>
+      </c>
+      <c r="L207">
+        <v>3.2</v>
+      </c>
+      <c r="M207">
+        <v>2.7</v>
+      </c>
+      <c r="N207">
+        <v>2.8</v>
+      </c>
+      <c r="O207">
+        <v>3.1</v>
+      </c>
+      <c r="P207">
+        <v>2.6</v>
+      </c>
+      <c r="Q207">
         <v>0</v>
       </c>
-      <c r="I207">
-        <v>2</v>
-      </c>
-      <c r="J207" t="s">
-        <v>42</v>
-      </c>
-      <c r="K207">
-        <v>2.15</v>
-      </c>
-      <c r="L207">
-        <v>3.25</v>
-      </c>
-      <c r="M207">
-        <v>3.4</v>
-      </c>
-      <c r="N207">
-        <v>1.6</v>
-      </c>
-      <c r="O207">
-        <v>3.75</v>
-      </c>
-      <c r="P207">
-        <v>5.75</v>
-      </c>
-      <c r="Q207">
-        <v>-0.75</v>
-      </c>
       <c r="R207">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S207">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T207">
         <v>2.25</v>
       </c>
       <c r="U207">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V207">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y207">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA207">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB207">
         <v>-0.5</v>
       </c>
       <c r="AC207">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18938,7 +18938,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7334079</v>
+        <v>7333490</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18950,76 +18950,76 @@
         <v>45227.1875</v>
       </c>
       <c r="F208" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G208" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K208">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L208">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M208">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="N208">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="O208">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P208">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R208">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S208">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T208">
         <v>2.25</v>
       </c>
       <c r="U208">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V208">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB208">
         <v>-0.5</v>
       </c>
       <c r="AC208">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19383,7 +19383,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7334083</v>
+        <v>7334075</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19395,76 +19395,76 @@
         <v>45241.1875</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
         <v>43</v>
       </c>
       <c r="K213">
+        <v>2.625</v>
+      </c>
+      <c r="L213">
+        <v>3.2</v>
+      </c>
+      <c r="M213">
         <v>2.7</v>
       </c>
-      <c r="L213">
-        <v>3.3</v>
-      </c>
-      <c r="M213">
-        <v>2.55</v>
-      </c>
       <c r="N213">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O213">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P213">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="Q213">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R213">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S213">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T213">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V213">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA213">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC213">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19472,7 +19472,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7334075</v>
+        <v>7334083</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19484,76 +19484,76 @@
         <v>45241.1875</v>
       </c>
       <c r="F214" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
         <v>43</v>
       </c>
       <c r="K214">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L214">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M214">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N214">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O214">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P214">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R214">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S214">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T214">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U214">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA214">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB214">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -20184,7 +20184,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7333496</v>
+        <v>7334085</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20196,76 +20196,76 @@
         <v>45255.1875</v>
       </c>
       <c r="F222" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G222" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K222">
+        <v>1.65</v>
+      </c>
+      <c r="L222">
+        <v>4</v>
+      </c>
+      <c r="M222">
+        <v>5</v>
+      </c>
+      <c r="N222">
+        <v>1.727</v>
+      </c>
+      <c r="O222">
+        <v>3.8</v>
+      </c>
+      <c r="P222">
+        <v>4.2</v>
+      </c>
+      <c r="Q222">
+        <v>-0.75</v>
+      </c>
+      <c r="R222">
+        <v>2</v>
+      </c>
+      <c r="S222">
         <v>1.85</v>
       </c>
-      <c r="L222">
-        <v>3.4</v>
-      </c>
-      <c r="M222">
-        <v>3.6</v>
-      </c>
-      <c r="N222">
-        <v>2.1</v>
-      </c>
-      <c r="O222">
-        <v>3.3</v>
-      </c>
-      <c r="P222">
-        <v>3.6</v>
-      </c>
-      <c r="Q222">
-        <v>-0.25</v>
-      </c>
-      <c r="R222">
-        <v>1.8</v>
-      </c>
-      <c r="S222">
-        <v>2.05</v>
-      </c>
       <c r="T222">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U222">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V222">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W222">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z222">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB222">
         <v>-1</v>
       </c>
       <c r="AC222">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20273,7 +20273,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7334085</v>
+        <v>7333496</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20285,76 +20285,76 @@
         <v>45255.1875</v>
       </c>
       <c r="F223" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G223" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="I223">
         <v>0</v>
       </c>
-      <c r="I223">
-        <v>1</v>
-      </c>
       <c r="J223" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K223">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M223">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N223">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O223">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P223">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q223">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S223">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T223">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V223">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA223">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
         <v>-1</v>
       </c>
       <c r="AC223">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20629,7 +20629,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7333498</v>
+        <v>7333499</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20641,76 +20641,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F227" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G227" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H227">
+        <v>2</v>
+      </c>
+      <c r="I227">
+        <v>1</v>
+      </c>
+      <c r="J227" t="s">
+        <v>41</v>
+      </c>
+      <c r="K227">
+        <v>2.55</v>
+      </c>
+      <c r="L227">
+        <v>3.3</v>
+      </c>
+      <c r="M227">
+        <v>2.7</v>
+      </c>
+      <c r="N227">
+        <v>2.8</v>
+      </c>
+      <c r="O227">
+        <v>3.3</v>
+      </c>
+      <c r="P227">
+        <v>2.45</v>
+      </c>
+      <c r="Q227">
         <v>0</v>
       </c>
-      <c r="I227">
-        <v>0</v>
-      </c>
-      <c r="J227" t="s">
-        <v>43</v>
-      </c>
-      <c r="K227">
-        <v>2</v>
-      </c>
-      <c r="L227">
-        <v>3.4</v>
-      </c>
-      <c r="M227">
-        <v>3.3</v>
-      </c>
-      <c r="N227">
+      <c r="R227">
+        <v>2.1</v>
+      </c>
+      <c r="S227">
+        <v>1.775</v>
+      </c>
+      <c r="T227">
+        <v>2.25</v>
+      </c>
+      <c r="U227">
+        <v>1.875</v>
+      </c>
+      <c r="V227">
+        <v>1.975</v>
+      </c>
+      <c r="W227">
         <v>1.8</v>
       </c>
-      <c r="O227">
-        <v>3.5</v>
-      </c>
-      <c r="P227">
-        <v>4</v>
-      </c>
-      <c r="Q227">
-        <v>-0.5</v>
-      </c>
-      <c r="R227">
-        <v>1.8</v>
-      </c>
-      <c r="S227">
-        <v>2.05</v>
-      </c>
-      <c r="T227">
-        <v>2.5</v>
-      </c>
-      <c r="U227">
-        <v>2.025</v>
-      </c>
-      <c r="V227">
-        <v>1.825</v>
-      </c>
-      <c r="W227">
-        <v>-1</v>
-      </c>
       <c r="X227">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA227">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC227">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20807,7 +20807,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7333499</v>
+        <v>7333498</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20819,76 +20819,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G229" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K229">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L229">
+        <v>3.4</v>
+      </c>
+      <c r="M229">
         <v>3.3</v>
       </c>
-      <c r="M229">
-        <v>2.7</v>
-      </c>
       <c r="N229">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="O229">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P229">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q229">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R229">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S229">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V229">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W229">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X229">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA229">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB229">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
   </sheetData>

--- a/South Korea K League 1/South Korea K League 1.xlsx
+++ b/South Korea K League 1/South Korea K League 1.xlsx
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6149811</v>
+        <v>6149810</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L20">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M20">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N20">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="O20">
         <v>3.1</v>
       </c>
       <c r="P20">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q20">
+        <v>-0.5</v>
+      </c>
+      <c r="R20">
+        <v>1.875</v>
+      </c>
+      <c r="S20">
+        <v>1.975</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>1.75</v>
+      </c>
+      <c r="V20">
+        <v>2.05</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
+        <v>2.1</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB20">
         <v>0</v>
       </c>
-      <c r="R20">
-        <v>2.075</v>
-      </c>
-      <c r="S20">
-        <v>1.725</v>
-      </c>
-      <c r="T20">
-        <v>2.25</v>
-      </c>
-      <c r="U20">
-        <v>2.025</v>
-      </c>
-      <c r="V20">
-        <v>1.825</v>
-      </c>
-      <c r="W20">
-        <v>1.75</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
-      <c r="Z20">
-        <v>1.075</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>1.025</v>
-      </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6149810</v>
+        <v>6149811</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,76 +2307,76 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L21">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M21">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="N21">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="O21">
         <v>3.1</v>
       </c>
       <c r="P21">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
+        <v>2.025</v>
+      </c>
+      <c r="V21">
+        <v>1.825</v>
+      </c>
+      <c r="W21">
         <v>1.75</v>
       </c>
-      <c r="V21">
-        <v>2.05</v>
-      </c>
-      <c r="W21">
-        <v>-1</v>
-      </c>
       <c r="X21">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC21">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6149813</v>
+        <v>6149363</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R23">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
+        <v>2.025</v>
+      </c>
+      <c r="V23">
         <v>1.825</v>
       </c>
-      <c r="V23">
-        <v>2.025</v>
-      </c>
       <c r="W23">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
+        <v>-1</v>
+      </c>
+      <c r="AC23">
         <v>0.825</v>
-      </c>
-      <c r="AC23">
-        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6149363</v>
+        <v>6149813</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
+        <v>1.825</v>
+      </c>
+      <c r="V24">
         <v>2.025</v>
       </c>
-      <c r="V24">
-        <v>1.825</v>
-      </c>
       <c r="W24">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6149814</v>
+        <v>6149398</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,19 +2841,19 @@
         <v>45017.1875</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K27">
         <v>2.2</v>
@@ -2865,52 +2865,52 @@
         <v>3.1</v>
       </c>
       <c r="N27">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="O27">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P27">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
+        <v>1.9</v>
+      </c>
+      <c r="V27">
         <v>1.95</v>
       </c>
-      <c r="V27">
-        <v>1.9</v>
-      </c>
       <c r="W27">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6149398</v>
+        <v>6149814</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,19 +2930,19 @@
         <v>45017.1875</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28">
         <v>2.2</v>
@@ -2954,52 +2954,52 @@
         <v>3.1</v>
       </c>
       <c r="N28">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O28">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S28">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
+        <v>1.95</v>
+      </c>
+      <c r="V28">
         <v>1.9</v>
       </c>
-      <c r="V28">
-        <v>1.95</v>
-      </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X28">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
+        <v>1.025</v>
+      </c>
+      <c r="AA28">
+        <v>-1</v>
+      </c>
+      <c r="AB28">
         <v>-0.5</v>
       </c>
-      <c r="AA28">
-        <v>0.4625</v>
-      </c>
-      <c r="AB28">
-        <v>-1</v>
-      </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6149406</v>
+        <v>6149837</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,40 +6579,40 @@
         <v>45055.3125</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K69">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L69">
         <v>3.2</v>
       </c>
       <c r="M69">
+        <v>3.1</v>
+      </c>
+      <c r="N69">
         <v>2.15</v>
       </c>
-      <c r="N69">
-        <v>3.25</v>
-      </c>
       <c r="O69">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P69">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
         <v>1.925</v>
@@ -6624,31 +6624,31 @@
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X69">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC69">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6149837</v>
+        <v>6149406</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,40 +6668,40 @@
         <v>45055.3125</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L70">
         <v>3.2</v>
       </c>
       <c r="M70">
+        <v>2.15</v>
+      </c>
+      <c r="N70">
+        <v>3.25</v>
+      </c>
+      <c r="O70">
         <v>3.1</v>
       </c>
-      <c r="N70">
+      <c r="P70">
         <v>2.15</v>
       </c>
-      <c r="O70">
-        <v>3.2</v>
-      </c>
-      <c r="P70">
-        <v>3.2</v>
-      </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
         <v>1.925</v>
@@ -6713,31 +6713,31 @@
         <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W70">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6149867</v>
+        <v>6149414</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,76 +11296,76 @@
         <v>45114.3125</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K122">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L122">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
+        <v>3.2</v>
+      </c>
+      <c r="N122">
+        <v>2.3</v>
+      </c>
+      <c r="O122">
+        <v>3.3</v>
+      </c>
+      <c r="P122">
+        <v>3</v>
+      </c>
+      <c r="Q122">
+        <v>-0.25</v>
+      </c>
+      <c r="R122">
+        <v>2.05</v>
+      </c>
+      <c r="S122">
+        <v>1.8</v>
+      </c>
+      <c r="T122">
         <v>2.5</v>
       </c>
-      <c r="N122">
-        <v>3.3</v>
-      </c>
-      <c r="O122">
-        <v>3.1</v>
-      </c>
-      <c r="P122">
-        <v>2.2</v>
-      </c>
-      <c r="Q122">
-        <v>0.25</v>
-      </c>
-      <c r="R122">
+      <c r="U122">
+        <v>1.9</v>
+      </c>
+      <c r="V122">
         <v>1.95</v>
       </c>
-      <c r="S122">
-        <v>1.9</v>
-      </c>
-      <c r="T122">
-        <v>2.25</v>
-      </c>
-      <c r="U122">
-        <v>2</v>
-      </c>
-      <c r="V122">
-        <v>1.85</v>
-      </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z122">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB122">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC122">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6149414</v>
+        <v>6149867</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,76 +11385,76 @@
         <v>45114.3125</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H123">
         <v>1</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K123">
+        <v>2.75</v>
+      </c>
+      <c r="L123">
+        <v>3.1</v>
+      </c>
+      <c r="M123">
+        <v>2.5</v>
+      </c>
+      <c r="N123">
+        <v>3.3</v>
+      </c>
+      <c r="O123">
+        <v>3.1</v>
+      </c>
+      <c r="P123">
+        <v>2.2</v>
+      </c>
+      <c r="Q123">
+        <v>0.25</v>
+      </c>
+      <c r="R123">
+        <v>1.95</v>
+      </c>
+      <c r="S123">
+        <v>1.9</v>
+      </c>
+      <c r="T123">
+        <v>2.25</v>
+      </c>
+      <c r="U123">
+        <v>2</v>
+      </c>
+      <c r="V123">
+        <v>1.85</v>
+      </c>
+      <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
         <v>2.1</v>
       </c>
-      <c r="L123">
-        <v>3.4</v>
-      </c>
-      <c r="M123">
-        <v>3.2</v>
-      </c>
-      <c r="N123">
-        <v>2.3</v>
-      </c>
-      <c r="O123">
-        <v>3.3</v>
-      </c>
-      <c r="P123">
-        <v>3</v>
-      </c>
-      <c r="Q123">
-        <v>-0.25</v>
-      </c>
-      <c r="R123">
-        <v>2.05</v>
-      </c>
-      <c r="S123">
-        <v>1.8</v>
-      </c>
-      <c r="T123">
-        <v>2.5</v>
-      </c>
-      <c r="U123">
-        <v>1.9</v>
-      </c>
-      <c r="V123">
-        <v>1.95</v>
-      </c>
-      <c r="W123">
-        <v>-1</v>
-      </c>
-      <c r="X123">
-        <v>-1</v>
-      </c>
       <c r="Y123">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA123">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB123">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6149381</v>
+        <v>6149872</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,73 +12097,73 @@
         <v>45119.3125</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I131">
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K131">
-        <v>3.4</v>
+        <v>1.55</v>
       </c>
       <c r="L131">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="N131">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P131">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S131">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X131">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AA131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6149872</v>
+        <v>6149381</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,73 +12275,73 @@
         <v>45119.3125</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H133">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I133">
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K133">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="L133">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M133">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="N133">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="O133">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P133">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q133">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T133">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W133">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6149486</v>
+        <v>6149383</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,10 +12898,10 @@
         <v>45128.3125</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -12913,43 +12913,43 @@
         <v>41</v>
       </c>
       <c r="K140">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M140">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N140">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O140">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P140">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S140">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T140">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>0.6499999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12958,16 +12958,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
       <c r="AA140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6149383</v>
+        <v>6149486</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,10 +12987,10 @@
         <v>45128.3125</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13002,43 +13002,43 @@
         <v>41</v>
       </c>
       <c r="K141">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="L141">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M141">
+        <v>4.75</v>
+      </c>
+      <c r="N141">
+        <v>1.65</v>
+      </c>
+      <c r="O141">
+        <v>4</v>
+      </c>
+      <c r="P141">
+        <v>4.75</v>
+      </c>
+      <c r="Q141">
+        <v>-0.75</v>
+      </c>
+      <c r="R141">
+        <v>1.825</v>
+      </c>
+      <c r="S141">
+        <v>2.025</v>
+      </c>
+      <c r="T141">
         <v>3</v>
       </c>
-      <c r="N141">
-        <v>2.4</v>
-      </c>
-      <c r="O141">
-        <v>3.2</v>
-      </c>
-      <c r="P141">
-        <v>2.8</v>
-      </c>
-      <c r="Q141">
-        <v>-0.25</v>
-      </c>
-      <c r="R141">
-        <v>2.05</v>
-      </c>
-      <c r="S141">
-        <v>1.75</v>
-      </c>
-      <c r="T141">
-        <v>2.5</v>
-      </c>
       <c r="U141">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>1.4</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13047,16 +13047,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6149880</v>
+        <v>6149879</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,73 +13432,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K146">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L146">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M146">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N146">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O146">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P146">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
+        <v>1.9</v>
+      </c>
+      <c r="S146">
         <v>1.95</v>
-      </c>
-      <c r="S146">
-        <v>1.9</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V146">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X146">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6149879</v>
+        <v>6149880</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,73 +13521,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147" t="s">
+        <v>43</v>
+      </c>
+      <c r="K147">
+        <v>2.5</v>
+      </c>
+      <c r="L147">
+        <v>3.2</v>
+      </c>
+      <c r="M147">
+        <v>2.8</v>
+      </c>
+      <c r="N147">
+        <v>2.625</v>
+      </c>
+      <c r="O147">
+        <v>3.3</v>
+      </c>
+      <c r="P147">
+        <v>2.6</v>
+      </c>
+      <c r="Q147">
         <v>0</v>
       </c>
-      <c r="J147" t="s">
-        <v>41</v>
-      </c>
-      <c r="K147">
-        <v>2.15</v>
-      </c>
-      <c r="L147">
-        <v>3.3</v>
-      </c>
-      <c r="M147">
-        <v>3.4</v>
-      </c>
-      <c r="N147">
-        <v>2.2</v>
-      </c>
-      <c r="O147">
-        <v>3</v>
-      </c>
-      <c r="P147">
-        <v>3.6</v>
-      </c>
-      <c r="Q147">
-        <v>-0.25</v>
-      </c>
       <c r="R147">
+        <v>1.95</v>
+      </c>
+      <c r="S147">
         <v>1.9</v>
-      </c>
-      <c r="S147">
-        <v>1.95</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W147">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6149887</v>
+        <v>6149886</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,76 +14500,76 @@
         <v>45156.3125</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K158">
+        <v>2.9</v>
+      </c>
+      <c r="L158">
+        <v>3.25</v>
+      </c>
+      <c r="M158">
+        <v>2.2</v>
+      </c>
+      <c r="N158">
+        <v>2.75</v>
+      </c>
+      <c r="O158">
+        <v>3.2</v>
+      </c>
+      <c r="P158">
         <v>2.375</v>
-      </c>
-      <c r="L158">
-        <v>3</v>
-      </c>
-      <c r="M158">
-        <v>2.8</v>
-      </c>
-      <c r="N158">
-        <v>2.625</v>
-      </c>
-      <c r="O158">
-        <v>3</v>
-      </c>
-      <c r="P158">
-        <v>2.7</v>
       </c>
       <c r="Q158">
         <v>0</v>
       </c>
       <c r="R158">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S158">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T158">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V158">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X158">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA158">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6149886</v>
+        <v>6149887</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,76 +14589,76 @@
         <v>45156.3125</v>
       </c>
       <c r="F159" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K159">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="L159">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M159">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N159">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O159">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P159">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="Q159">
         <v>0</v>
       </c>
       <c r="R159">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S159">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U159">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V159">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W159">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC159">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -17692,7 +17692,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6388625</v>
+        <v>6387791</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17704,76 +17704,76 @@
         <v>45207.125</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G194" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H194">
         <v>0</v>
       </c>
       <c r="I194">
+        <v>2</v>
+      </c>
+      <c r="J194" t="s">
+        <v>42</v>
+      </c>
+      <c r="K194">
+        <v>2.375</v>
+      </c>
+      <c r="L194">
+        <v>3.3</v>
+      </c>
+      <c r="M194">
+        <v>2.875</v>
+      </c>
+      <c r="N194">
+        <v>2.4</v>
+      </c>
+      <c r="O194">
+        <v>3.3</v>
+      </c>
+      <c r="P194">
+        <v>2.8</v>
+      </c>
+      <c r="Q194">
         <v>0</v>
       </c>
-      <c r="J194" t="s">
-        <v>43</v>
-      </c>
-      <c r="K194">
-        <v>1.75</v>
-      </c>
-      <c r="L194">
-        <v>3.75</v>
-      </c>
-      <c r="M194">
-        <v>4.333</v>
-      </c>
-      <c r="N194">
-        <v>2</v>
-      </c>
-      <c r="O194">
-        <v>3.4</v>
-      </c>
-      <c r="P194">
-        <v>3.5</v>
-      </c>
-      <c r="Q194">
-        <v>-0.5</v>
-      </c>
       <c r="R194">
-        <v>2.025</v>
+        <v>1.775</v>
       </c>
       <c r="S194">
-        <v>1.825</v>
+        <v>2.1</v>
       </c>
       <c r="T194">
         <v>2.5</v>
       </c>
       <c r="U194">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V194">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W194">
         <v>-1</v>
       </c>
       <c r="X194">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z194">
         <v>-1</v>
       </c>
       <c r="AA194">
-        <v>0.825</v>
+        <v>1.1</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17781,7 +17781,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6384126</v>
+        <v>6384127</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17793,10 +17793,10 @@
         <v>45207.125</v>
       </c>
       <c r="F195" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G195" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17808,43 +17808,43 @@
         <v>41</v>
       </c>
       <c r="K195">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="L195">
         <v>3.4</v>
       </c>
       <c r="M195">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="N195">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="O195">
         <v>3.3</v>
       </c>
       <c r="P195">
+        <v>2.625</v>
+      </c>
+      <c r="Q195">
+        <v>0</v>
+      </c>
+      <c r="R195">
+        <v>1.9</v>
+      </c>
+      <c r="S195">
         <v>1.95</v>
       </c>
-      <c r="Q195">
-        <v>0.5</v>
-      </c>
-      <c r="R195">
+      <c r="T195">
+        <v>2.75</v>
+      </c>
+      <c r="U195">
+        <v>1.975</v>
+      </c>
+      <c r="V195">
         <v>1.875</v>
       </c>
-      <c r="S195">
-        <v>1.975</v>
-      </c>
-      <c r="T195">
-        <v>2.5</v>
-      </c>
-      <c r="U195">
-        <v>2.1</v>
-      </c>
-      <c r="V195">
-        <v>1.775</v>
-      </c>
       <c r="W195">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17853,16 +17853,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA195">
+        <v>-1</v>
+      </c>
+      <c r="AB195">
+        <v>-1</v>
+      </c>
+      <c r="AC195">
         <v>0.875</v>
-      </c>
-      <c r="AA195">
-        <v>-1</v>
-      </c>
-      <c r="AB195">
-        <v>-1</v>
-      </c>
-      <c r="AC195">
-        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17870,7 +17870,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6384127</v>
+        <v>6388625</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17882,76 +17882,76 @@
         <v>45207.125</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G196" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196">
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K196">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="L196">
+        <v>3.75</v>
+      </c>
+      <c r="M196">
+        <v>4.333</v>
+      </c>
+      <c r="N196">
+        <v>2</v>
+      </c>
+      <c r="O196">
         <v>3.4</v>
       </c>
-      <c r="M196">
-        <v>2.875</v>
-      </c>
-      <c r="N196">
-        <v>2.6</v>
-      </c>
-      <c r="O196">
-        <v>3.3</v>
-      </c>
       <c r="P196">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="Q196">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R196">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S196">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T196">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U196">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V196">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W196">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X196">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17959,7 +17959,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6387791</v>
+        <v>6384126</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17971,76 +17971,76 @@
         <v>45207.125</v>
       </c>
       <c r="F197" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G197" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H197">
+        <v>1</v>
+      </c>
+      <c r="I197">
         <v>0</v>
       </c>
-      <c r="I197">
-        <v>2</v>
-      </c>
       <c r="J197" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K197">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L197">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M197">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="N197">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O197">
         <v>3.3</v>
       </c>
       <c r="P197">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q197">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R197">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S197">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T197">
         <v>2.5</v>
       </c>
       <c r="U197">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V197">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X197">
         <v>-1</v>
       </c>
       <c r="Y197">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA197">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18048,7 +18048,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6384125</v>
+        <v>6384418</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18060,76 +18060,76 @@
         <v>45207.125</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K198">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L198">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M198">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N198">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O198">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P198">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q198">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R198">
+        <v>2</v>
+      </c>
+      <c r="S198">
         <v>1.85</v>
       </c>
-      <c r="S198">
-        <v>2</v>
-      </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U198">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V198">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X198">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA198">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18137,7 +18137,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6384418</v>
+        <v>6384125</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18149,76 +18149,76 @@
         <v>45207.125</v>
       </c>
       <c r="F199" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G199" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K199">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L199">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M199">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N199">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="O199">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P199">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q199">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S199">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T199">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V199">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W199">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC199">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -20095,7 +20095,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7334086</v>
+        <v>7333496</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20107,13 +20107,13 @@
         <v>45255.1875</v>
       </c>
       <c r="F221" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G221" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221">
         <v>0</v>
@@ -20122,16 +20122,16 @@
         <v>41</v>
       </c>
       <c r="K221">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L221">
+        <v>3.4</v>
+      </c>
+      <c r="M221">
         <v>3.6</v>
       </c>
-      <c r="M221">
-        <v>3.3</v>
-      </c>
       <c r="N221">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O221">
         <v>3.3</v>
@@ -20140,25 +20140,25 @@
         <v>3.6</v>
       </c>
       <c r="Q221">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
+        <v>1.8</v>
+      </c>
+      <c r="S221">
         <v>2.05</v>
-      </c>
-      <c r="S221">
-        <v>1.8</v>
       </c>
       <c r="T221">
         <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V221">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W221">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20167,16 +20167,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA221">
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20273,7 +20273,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7333496</v>
+        <v>7334086</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20285,13 +20285,13 @@
         <v>45255.1875</v>
       </c>
       <c r="F223" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G223" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -20300,16 +20300,16 @@
         <v>41</v>
       </c>
       <c r="K223">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L223">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M223">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N223">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O223">
         <v>3.3</v>
@@ -20318,25 +20318,25 @@
         <v>3.6</v>
       </c>
       <c r="Q223">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
+        <v>2.05</v>
+      </c>
+      <c r="S223">
         <v>1.8</v>
-      </c>
-      <c r="S223">
-        <v>2.05</v>
       </c>
       <c r="T223">
         <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V223">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W223">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -20345,16 +20345,16 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA223">
         <v>-1</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC223">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20629,7 +20629,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7333499</v>
+        <v>7333498</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20641,76 +20641,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F227" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G227" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K227">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L227">
+        <v>3.4</v>
+      </c>
+      <c r="M227">
         <v>3.3</v>
       </c>
-      <c r="M227">
-        <v>2.7</v>
-      </c>
       <c r="N227">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="O227">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P227">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q227">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R227">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S227">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T227">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V227">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W227">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB227">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20807,7 +20807,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7333498</v>
+        <v>7333499</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20819,76 +20819,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G229" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H229">
+        <v>2</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229" t="s">
+        <v>41</v>
+      </c>
+      <c r="K229">
+        <v>2.55</v>
+      </c>
+      <c r="L229">
+        <v>3.3</v>
+      </c>
+      <c r="M229">
+        <v>2.7</v>
+      </c>
+      <c r="N229">
+        <v>2.8</v>
+      </c>
+      <c r="O229">
+        <v>3.3</v>
+      </c>
+      <c r="P229">
+        <v>2.45</v>
+      </c>
+      <c r="Q229">
         <v>0</v>
       </c>
-      <c r="I229">
-        <v>0</v>
-      </c>
-      <c r="J229" t="s">
-        <v>43</v>
-      </c>
-      <c r="K229">
-        <v>2</v>
-      </c>
-      <c r="L229">
-        <v>3.4</v>
-      </c>
-      <c r="M229">
-        <v>3.3</v>
-      </c>
-      <c r="N229">
+      <c r="R229">
+        <v>2.1</v>
+      </c>
+      <c r="S229">
+        <v>1.775</v>
+      </c>
+      <c r="T229">
+        <v>2.25</v>
+      </c>
+      <c r="U229">
+        <v>1.875</v>
+      </c>
+      <c r="V229">
+        <v>1.975</v>
+      </c>
+      <c r="W229">
         <v>1.8</v>
       </c>
-      <c r="O229">
-        <v>3.5</v>
-      </c>
-      <c r="P229">
-        <v>4</v>
-      </c>
-      <c r="Q229">
-        <v>-0.5</v>
-      </c>
-      <c r="R229">
-        <v>1.8</v>
-      </c>
-      <c r="S229">
-        <v>2.05</v>
-      </c>
-      <c r="T229">
-        <v>2.5</v>
-      </c>
-      <c r="U229">
-        <v>2.025</v>
-      </c>
-      <c r="V229">
-        <v>1.825</v>
-      </c>
-      <c r="W229">
-        <v>-1</v>
-      </c>
       <c r="X229">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y229">
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA229">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC229">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/South Korea K League 1/South Korea K League 1.xlsx
+++ b/South Korea K League 1/South Korea K League 1.xlsx
@@ -130,10 +130,10 @@
     <t>Daegu FC</t>
   </si>
   <si>
-    <t>Jeonbuk Motors</t>
+    <t>Gangwon FC</t>
   </si>
   <si>
-    <t>Gangwon FC</t>
+    <t>Jeonbuk Motors</t>
   </si>
   <si>
     <t>Gwangju FC</t>
@@ -619,7 +619,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6149361</v>
+        <v>6149467</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1420,43 +1420,43 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="N11">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="O11">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P11">
-        <v>5.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R11">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S11">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T11">
         <v>2.25</v>
@@ -1471,22 +1471,22 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6149467</v>
+        <v>6149361</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,43 +1509,43 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12">
+        <v>1.85</v>
+      </c>
+      <c r="L12">
+        <v>3.3</v>
+      </c>
+      <c r="M12">
         <v>4</v>
       </c>
-      <c r="L12">
-        <v>3.6</v>
-      </c>
-      <c r="M12">
-        <v>1.8</v>
-      </c>
       <c r="N12">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="O12">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P12">
-        <v>1.833</v>
+        <v>5.5</v>
       </c>
       <c r="Q12">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S12">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T12">
         <v>2.25</v>
@@ -1560,22 +1560,22 @@
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y12">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>44996.1875</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
         <v>37</v>
@@ -2040,7 +2040,7 @@
         <v>44997.1875</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
         <v>40</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6149810</v>
+        <v>6149811</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L20">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M20">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="N20">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="O20">
         <v>3.1</v>
       </c>
       <c r="P20">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
+        <v>2.025</v>
+      </c>
+      <c r="V20">
+        <v>1.825</v>
+      </c>
+      <c r="W20">
         <v>1.75</v>
       </c>
-      <c r="V20">
-        <v>2.05</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
       <c r="X20">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6149811</v>
+        <v>6149810</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,76 +2307,76 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L21">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M21">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N21">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="O21">
         <v>3.1</v>
       </c>
       <c r="P21">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q21">
+        <v>-0.5</v>
+      </c>
+      <c r="R21">
+        <v>1.875</v>
+      </c>
+      <c r="S21">
+        <v>1.975</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>1.75</v>
+      </c>
+      <c r="V21">
+        <v>2.05</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
+        <v>2.1</v>
+      </c>
+      <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB21">
         <v>0</v>
       </c>
-      <c r="R21">
-        <v>2.075</v>
-      </c>
-      <c r="S21">
-        <v>1.725</v>
-      </c>
-      <c r="T21">
-        <v>2.25</v>
-      </c>
-      <c r="U21">
-        <v>2.025</v>
-      </c>
-      <c r="V21">
-        <v>1.825</v>
-      </c>
-      <c r="W21">
-        <v>1.75</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
-      <c r="Z21">
-        <v>1.075</v>
-      </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
-      <c r="AB21">
-        <v>1.025</v>
-      </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6149363</v>
+        <v>6149813</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U23">
+        <v>1.825</v>
+      </c>
+      <c r="V23">
         <v>2.025</v>
       </c>
-      <c r="V23">
-        <v>1.825</v>
-      </c>
       <c r="W23">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6149813</v>
+        <v>6149363</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L24">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R24">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S24">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
+        <v>2.025</v>
+      </c>
+      <c r="V24">
         <v>1.825</v>
       </c>
-      <c r="V24">
-        <v>2.025</v>
-      </c>
       <c r="W24">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA24">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
+        <v>-1</v>
+      </c>
+      <c r="AC24">
         <v>0.825</v>
-      </c>
-      <c r="AC24">
-        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>45017.08333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -3200,7 +3200,7 @@
         <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3642,7 +3642,7 @@
         <v>45025.1875</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
         <v>35</v>
@@ -3731,7 +3731,7 @@
         <v>45025.29166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
         <v>32</v>
@@ -4001,7 +4001,7 @@
         <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4087,7 +4087,7 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G41" t="s">
         <v>35</v>
@@ -4713,7 +4713,7 @@
         <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -5066,7 +5066,7 @@
         <v>45042.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G52" t="s">
         <v>31</v>
@@ -5244,7 +5244,7 @@
         <v>45042.3125</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
         <v>34</v>
@@ -5511,10 +5511,10 @@
         <v>45045.1875</v>
       </c>
       <c r="F57" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" t="s">
         <v>38</v>
-      </c>
-      <c r="G57" t="s">
-        <v>39</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5959,7 +5959,7 @@
         <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6315,7 +6315,7 @@
         <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6493,7 +6493,7 @@
         <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6149837</v>
+        <v>6149406</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,40 +6579,40 @@
         <v>45055.3125</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L69">
         <v>3.2</v>
       </c>
       <c r="M69">
+        <v>2.15</v>
+      </c>
+      <c r="N69">
+        <v>3.25</v>
+      </c>
+      <c r="O69">
         <v>3.1</v>
       </c>
-      <c r="N69">
+      <c r="P69">
         <v>2.15</v>
       </c>
-      <c r="O69">
-        <v>3.2</v>
-      </c>
-      <c r="P69">
-        <v>3.2</v>
-      </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
         <v>1.925</v>
@@ -6624,31 +6624,31 @@
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6149406</v>
+        <v>6149837</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,40 +6668,40 @@
         <v>45055.3125</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K70">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L70">
         <v>3.2</v>
       </c>
       <c r="M70">
+        <v>3.1</v>
+      </c>
+      <c r="N70">
         <v>2.15</v>
       </c>
-      <c r="N70">
-        <v>3.25</v>
-      </c>
       <c r="O70">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
         <v>1.925</v>
@@ -6713,31 +6713,31 @@
         <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V70">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X70">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC70">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6149839</v>
+        <v>6149371</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L71">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M71">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71">
+        <v>3</v>
+      </c>
+      <c r="P71">
+        <v>2.375</v>
+      </c>
+      <c r="Q71">
+        <v>0.25</v>
+      </c>
+      <c r="R71">
+        <v>1.775</v>
+      </c>
+      <c r="S71">
         <v>2.1</v>
       </c>
-      <c r="O71">
-        <v>3.5</v>
-      </c>
-      <c r="P71">
-        <v>3.4</v>
-      </c>
-      <c r="Q71">
-        <v>-0.25</v>
-      </c>
-      <c r="R71">
+      <c r="T71">
+        <v>2</v>
+      </c>
+      <c r="U71">
         <v>1.8</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>2.05</v>
       </c>
-      <c r="T71">
-        <v>3</v>
-      </c>
-      <c r="U71">
-        <v>2.025</v>
-      </c>
-      <c r="V71">
-        <v>1.825</v>
-      </c>
       <c r="W71">
+        <v>-1</v>
+      </c>
+      <c r="X71">
+        <v>-1</v>
+      </c>
+      <c r="Y71">
+        <v>1.375</v>
+      </c>
+      <c r="Z71">
+        <v>-1</v>
+      </c>
+      <c r="AA71">
         <v>1.1</v>
       </c>
-      <c r="X71">
-        <v>-1</v>
-      </c>
-      <c r="Y71">
-        <v>-1</v>
-      </c>
-      <c r="Z71">
+      <c r="AB71">
         <v>0.8</v>
       </c>
-      <c r="AA71">
-        <v>-1</v>
-      </c>
-      <c r="AB71">
-        <v>0</v>
-      </c>
       <c r="AC71">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6149371</v>
+        <v>6149839</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>41</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>3.4</v>
+      </c>
+      <c r="M73">
+        <v>3.4</v>
+      </c>
+      <c r="N73">
+        <v>2.1</v>
+      </c>
+      <c r="O73">
+        <v>3.5</v>
+      </c>
+      <c r="P73">
+        <v>3.4</v>
+      </c>
+      <c r="Q73">
+        <v>-0.25</v>
+      </c>
+      <c r="R73">
+        <v>1.8</v>
+      </c>
+      <c r="S73">
+        <v>2.05</v>
+      </c>
+      <c r="T73">
+        <v>3</v>
+      </c>
+      <c r="U73">
+        <v>2.025</v>
+      </c>
+      <c r="V73">
+        <v>1.825</v>
+      </c>
+      <c r="W73">
+        <v>1.1</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
+        <v>0.8</v>
+      </c>
+      <c r="AA73">
+        <v>-1</v>
+      </c>
+      <c r="AB73">
         <v>0</v>
       </c>
-      <c r="I73">
-        <v>3</v>
-      </c>
-      <c r="J73" t="s">
-        <v>42</v>
-      </c>
-      <c r="K73">
-        <v>3.1</v>
-      </c>
-      <c r="L73">
-        <v>3</v>
-      </c>
-      <c r="M73">
-        <v>2.2</v>
-      </c>
-      <c r="N73">
-        <v>3</v>
-      </c>
-      <c r="O73">
-        <v>3</v>
-      </c>
-      <c r="P73">
-        <v>2.375</v>
-      </c>
-      <c r="Q73">
-        <v>0.25</v>
-      </c>
-      <c r="R73">
-        <v>1.775</v>
-      </c>
-      <c r="S73">
-        <v>2.1</v>
-      </c>
-      <c r="T73">
-        <v>2</v>
-      </c>
-      <c r="U73">
-        <v>1.8</v>
-      </c>
-      <c r="V73">
-        <v>2.05</v>
-      </c>
-      <c r="W73">
-        <v>-1</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>1.375</v>
-      </c>
-      <c r="Z73">
-        <v>-1</v>
-      </c>
-      <c r="AA73">
-        <v>1.1</v>
-      </c>
-      <c r="AB73">
-        <v>0.8</v>
-      </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>45059.29166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
         <v>30</v>
@@ -7383,7 +7383,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7825,7 +7825,7 @@
         <v>45067.1875</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G83" t="s">
         <v>33</v>
@@ -8003,7 +8003,7 @@
         <v>45067.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
         <v>36</v>
@@ -8273,7 +8273,7 @@
         <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8540,7 +8540,7 @@
         <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8626,7 +8626,7 @@
         <v>45080.1875</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
         <v>29</v>
@@ -8807,7 +8807,7 @@
         <v>32</v>
       </c>
       <c r="G94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -9338,7 +9338,7 @@
         <v>45084.29166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
         <v>37</v>
@@ -9516,7 +9516,7 @@
         <v>45084.3125</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G102" t="s">
         <v>34</v>
@@ -9961,10 +9961,10 @@
         <v>45088.1875</v>
       </c>
       <c r="F107" t="s">
+        <v>38</v>
+      </c>
+      <c r="G107" t="s">
         <v>39</v>
-      </c>
-      <c r="G107" t="s">
-        <v>38</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10409,7 +10409,7 @@
         <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10676,7 +10676,7 @@
         <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10762,7 +10762,7 @@
         <v>45108.25</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
         <v>32</v>
@@ -11210,7 +11210,7 @@
         <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6149414</v>
+        <v>6149867</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,76 +11296,76 @@
         <v>45114.3125</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K122">
+        <v>2.75</v>
+      </c>
+      <c r="L122">
+        <v>3.1</v>
+      </c>
+      <c r="M122">
+        <v>2.5</v>
+      </c>
+      <c r="N122">
+        <v>3.3</v>
+      </c>
+      <c r="O122">
+        <v>3.1</v>
+      </c>
+      <c r="P122">
+        <v>2.2</v>
+      </c>
+      <c r="Q122">
+        <v>0.25</v>
+      </c>
+      <c r="R122">
+        <v>1.95</v>
+      </c>
+      <c r="S122">
+        <v>1.9</v>
+      </c>
+      <c r="T122">
+        <v>2.25</v>
+      </c>
+      <c r="U122">
+        <v>2</v>
+      </c>
+      <c r="V122">
+        <v>1.85</v>
+      </c>
+      <c r="W122">
+        <v>-1</v>
+      </c>
+      <c r="X122">
         <v>2.1</v>
       </c>
-      <c r="L122">
-        <v>3.4</v>
-      </c>
-      <c r="M122">
-        <v>3.2</v>
-      </c>
-      <c r="N122">
-        <v>2.3</v>
-      </c>
-      <c r="O122">
-        <v>3.3</v>
-      </c>
-      <c r="P122">
-        <v>3</v>
-      </c>
-      <c r="Q122">
-        <v>-0.25</v>
-      </c>
-      <c r="R122">
-        <v>2.05</v>
-      </c>
-      <c r="S122">
-        <v>1.8</v>
-      </c>
-      <c r="T122">
-        <v>2.5</v>
-      </c>
-      <c r="U122">
-        <v>1.9</v>
-      </c>
-      <c r="V122">
-        <v>1.95</v>
-      </c>
-      <c r="W122">
-        <v>-1</v>
-      </c>
-      <c r="X122">
-        <v>-1</v>
-      </c>
       <c r="Y122">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA122">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB122">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6149867</v>
+        <v>6149414</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,76 +11385,76 @@
         <v>45114.3125</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H123">
         <v>1</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K123">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L123">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
+        <v>3.2</v>
+      </c>
+      <c r="N123">
+        <v>2.3</v>
+      </c>
+      <c r="O123">
+        <v>3.3</v>
+      </c>
+      <c r="P123">
+        <v>3</v>
+      </c>
+      <c r="Q123">
+        <v>-0.25</v>
+      </c>
+      <c r="R123">
+        <v>2.05</v>
+      </c>
+      <c r="S123">
+        <v>1.8</v>
+      </c>
+      <c r="T123">
         <v>2.5</v>
       </c>
-      <c r="N123">
-        <v>3.3</v>
-      </c>
-      <c r="O123">
-        <v>3.1</v>
-      </c>
-      <c r="P123">
-        <v>2.2</v>
-      </c>
-      <c r="Q123">
-        <v>0.25</v>
-      </c>
-      <c r="R123">
+      <c r="U123">
+        <v>1.9</v>
+      </c>
+      <c r="V123">
         <v>1.95</v>
       </c>
-      <c r="S123">
-        <v>1.9</v>
-      </c>
-      <c r="T123">
-        <v>2.25</v>
-      </c>
-      <c r="U123">
-        <v>2</v>
-      </c>
-      <c r="V123">
-        <v>1.85</v>
-      </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z123">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB123">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC123">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>45115.3125</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G126" t="s">
         <v>31</v>
@@ -11833,7 +11833,7 @@
         <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -12278,7 +12278,7 @@
         <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12453,7 +12453,7 @@
         <v>45122.3125</v>
       </c>
       <c r="F135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G135" t="s">
         <v>31</v>
@@ -12631,7 +12631,7 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G137" t="s">
         <v>36</v>
@@ -12901,7 +12901,7 @@
         <v>33</v>
       </c>
       <c r="G140" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -13165,7 +13165,7 @@
         <v>45129.3125</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
         <v>30</v>
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6149879</v>
+        <v>6149880</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,73 +13432,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146" t="s">
+        <v>43</v>
+      </c>
+      <c r="K146">
+        <v>2.5</v>
+      </c>
+      <c r="L146">
+        <v>3.2</v>
+      </c>
+      <c r="M146">
+        <v>2.8</v>
+      </c>
+      <c r="N146">
+        <v>2.625</v>
+      </c>
+      <c r="O146">
+        <v>3.3</v>
+      </c>
+      <c r="P146">
+        <v>2.6</v>
+      </c>
+      <c r="Q146">
         <v>0</v>
       </c>
-      <c r="J146" t="s">
-        <v>41</v>
-      </c>
-      <c r="K146">
-        <v>2.15</v>
-      </c>
-      <c r="L146">
-        <v>3.3</v>
-      </c>
-      <c r="M146">
-        <v>3.4</v>
-      </c>
-      <c r="N146">
-        <v>2.2</v>
-      </c>
-      <c r="O146">
-        <v>3</v>
-      </c>
-      <c r="P146">
-        <v>3.6</v>
-      </c>
-      <c r="Q146">
-        <v>-0.25</v>
-      </c>
       <c r="R146">
+        <v>1.95</v>
+      </c>
+      <c r="S146">
         <v>1.9</v>
-      </c>
-      <c r="S146">
-        <v>1.95</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W146">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6149880</v>
+        <v>6149879</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,73 +13521,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K147">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L147">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M147">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N147">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O147">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P147">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
+        <v>1.9</v>
+      </c>
+      <c r="S147">
         <v>1.95</v>
-      </c>
-      <c r="S147">
-        <v>1.9</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V147">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X147">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13788,7 +13788,7 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F150" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G150" t="s">
         <v>35</v>
@@ -13880,7 +13880,7 @@
         <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13966,7 +13966,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G152" t="s">
         <v>30</v>
@@ -14055,7 +14055,7 @@
         <v>45150.3125</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G153" t="s">
         <v>29</v>
@@ -14678,7 +14678,7 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G160" t="s">
         <v>36</v>
@@ -14770,7 +14770,7 @@
         <v>29</v>
       </c>
       <c r="G161" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -15123,7 +15123,7 @@
         <v>45163.3125</v>
       </c>
       <c r="F165" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G165" t="s">
         <v>34</v>
@@ -15301,7 +15301,7 @@
         <v>45164.3125</v>
       </c>
       <c r="F167" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G167" t="s">
         <v>33</v>
@@ -15660,7 +15660,7 @@
         <v>37</v>
       </c>
       <c r="G171" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -16016,7 +16016,7 @@
         <v>32</v>
       </c>
       <c r="G175" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16191,10 +16191,10 @@
         <v>45185.08333333334</v>
       </c>
       <c r="F177" t="s">
+        <v>39</v>
+      </c>
+      <c r="G177" t="s">
         <v>38</v>
-      </c>
-      <c r="G177" t="s">
-        <v>39</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16906,7 +16906,7 @@
         <v>40</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -16992,7 +16992,7 @@
         <v>45193.1875</v>
       </c>
       <c r="F186" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G186" t="s">
         <v>35</v>
@@ -17158,7 +17158,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6353260</v>
+        <v>6353261</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17170,76 +17170,76 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>43</v>
       </c>
       <c r="K188">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="L188">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M188">
+        <v>2</v>
+      </c>
+      <c r="N188">
+        <v>3.75</v>
+      </c>
+      <c r="O188">
+        <v>3.8</v>
+      </c>
+      <c r="P188">
+        <v>1.85</v>
+      </c>
+      <c r="Q188">
+        <v>0.5</v>
+      </c>
+      <c r="R188">
+        <v>2.025</v>
+      </c>
+      <c r="S188">
+        <v>1.825</v>
+      </c>
+      <c r="T188">
+        <v>2.75</v>
+      </c>
+      <c r="U188">
+        <v>1.825</v>
+      </c>
+      <c r="V188">
+        <v>2.025</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
         <v>2.8</v>
       </c>
-      <c r="N188">
-        <v>2.55</v>
-      </c>
-      <c r="O188">
-        <v>3.4</v>
-      </c>
-      <c r="P188">
-        <v>2.625</v>
-      </c>
-      <c r="Q188">
-        <v>0</v>
-      </c>
-      <c r="R188">
-        <v>1.825</v>
-      </c>
-      <c r="S188">
-        <v>2.025</v>
-      </c>
-      <c r="T188">
-        <v>2.5</v>
-      </c>
-      <c r="U188">
-        <v>2.025</v>
-      </c>
-      <c r="V188">
-        <v>1.825</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>2.4</v>
-      </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA188">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17247,7 +17247,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6353261</v>
+        <v>6353260</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17259,76 +17259,76 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
         <v>43</v>
       </c>
       <c r="K189">
+        <v>2.375</v>
+      </c>
+      <c r="L189">
+        <v>3.5</v>
+      </c>
+      <c r="M189">
+        <v>2.8</v>
+      </c>
+      <c r="N189">
+        <v>2.55</v>
+      </c>
+      <c r="O189">
         <v>3.4</v>
       </c>
-      <c r="L189">
-        <v>3.6</v>
-      </c>
-      <c r="M189">
-        <v>2</v>
-      </c>
-      <c r="N189">
-        <v>3.75</v>
-      </c>
-      <c r="O189">
-        <v>3.8</v>
-      </c>
       <c r="P189">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q189">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R189">
+        <v>1.825</v>
+      </c>
+      <c r="S189">
         <v>2.025</v>
       </c>
-      <c r="S189">
+      <c r="T189">
+        <v>2.5</v>
+      </c>
+      <c r="U189">
+        <v>2.025</v>
+      </c>
+      <c r="V189">
         <v>1.825</v>
       </c>
-      <c r="T189">
-        <v>2.75</v>
-      </c>
-      <c r="U189">
-        <v>1.825</v>
-      </c>
-      <c r="V189">
-        <v>2.025</v>
-      </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17348,7 +17348,7 @@
         <v>45199.1875</v>
       </c>
       <c r="F190" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G190" t="s">
         <v>37</v>
@@ -17526,7 +17526,7 @@
         <v>45200.08333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G192" t="s">
         <v>34</v>
@@ -17707,7 +17707,7 @@
         <v>31</v>
       </c>
       <c r="G194" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -17781,7 +17781,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6384127</v>
+        <v>6388625</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17793,76 +17793,76 @@
         <v>45207.125</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195">
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K195">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="L195">
+        <v>3.75</v>
+      </c>
+      <c r="M195">
+        <v>4.333</v>
+      </c>
+      <c r="N195">
+        <v>2</v>
+      </c>
+      <c r="O195">
         <v>3.4</v>
       </c>
-      <c r="M195">
-        <v>2.875</v>
-      </c>
-      <c r="N195">
-        <v>2.6</v>
-      </c>
-      <c r="O195">
-        <v>3.3</v>
-      </c>
       <c r="P195">
-        <v>2.625</v>
+        <v>3.5</v>
       </c>
       <c r="Q195">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R195">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S195">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T195">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U195">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V195">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W195">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X195">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB195">
         <v>-1</v>
       </c>
       <c r="AC195">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17870,7 +17870,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6388625</v>
+        <v>6384127</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17882,76 +17882,76 @@
         <v>45207.125</v>
       </c>
       <c r="F196" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196">
         <v>0</v>
       </c>
       <c r="J196" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K196">
-        <v>1.75</v>
+        <v>2.375</v>
       </c>
       <c r="L196">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M196">
-        <v>4.333</v>
+        <v>2.875</v>
       </c>
       <c r="N196">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="O196">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P196">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q196">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R196">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S196">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T196">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V196">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X196">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y196">
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA196">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18048,7 +18048,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6384418</v>
+        <v>6384125</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18060,76 +18060,76 @@
         <v>45207.125</v>
       </c>
       <c r="F198" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K198">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L198">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M198">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="N198">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="O198">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P198">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q198">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S198">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T198">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V198">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W198">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC198">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18137,7 +18137,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6384125</v>
+        <v>6384418</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18149,76 +18149,76 @@
         <v>45207.125</v>
       </c>
       <c r="F199" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K199">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L199">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M199">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N199">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O199">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P199">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q199">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
+        <v>2</v>
+      </c>
+      <c r="S199">
         <v>1.85</v>
       </c>
-      <c r="S199">
-        <v>2</v>
-      </c>
       <c r="T199">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U199">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V199">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X199">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA199">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18419,7 +18419,7 @@
         <v>37</v>
       </c>
       <c r="G202" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18508,7 +18508,7 @@
         <v>31</v>
       </c>
       <c r="G203" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18772,7 +18772,7 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G206" t="s">
         <v>33</v>
@@ -18861,7 +18861,7 @@
         <v>45227.1875</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G207" t="s">
         <v>32</v>
@@ -19309,7 +19309,7 @@
         <v>34</v>
       </c>
       <c r="G212" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -19576,7 +19576,7 @@
         <v>35</v>
       </c>
       <c r="G215" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H215">
         <v>1</v>
@@ -20018,7 +20018,7 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G220" t="s">
         <v>40</v>
@@ -20285,7 +20285,7 @@
         <v>45255.1875</v>
       </c>
       <c r="F223" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G223" t="s">
         <v>36</v>
@@ -20362,7 +20362,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7334089</v>
+        <v>7334090</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20374,49 +20374,49 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F224" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G224" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" t="s">
         <v>43</v>
       </c>
       <c r="K224">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="L224">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M224">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="N224">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O224">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P224">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q224">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R224">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S224">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="T224">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U224">
         <v>1.85</v>
@@ -20428,16 +20428,16 @@
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA224">
-        <v>0.375</v>
+        <v>-0</v>
       </c>
       <c r="AB224">
         <v>-1</v>
@@ -20451,7 +20451,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7334088</v>
+        <v>7334089</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20463,61 +20463,61 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G225" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J225" t="s">
         <v>43</v>
       </c>
       <c r="K225">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="L225">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M225">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="N225">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O225">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P225">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q225">
         <v>-0.25</v>
       </c>
       <c r="R225">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S225">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T225">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U225">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V225">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y225">
         <v>-1</v>
@@ -20526,13 +20526,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA225">
-        <v>0.4875</v>
+        <v>0.375</v>
       </c>
       <c r="AB225">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20540,7 +20540,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7334090</v>
+        <v>7334088</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20552,76 +20552,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G226" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
         <v>43</v>
       </c>
       <c r="K226">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L226">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M226">
-        <v>2.875</v>
+        <v>2.375</v>
       </c>
       <c r="N226">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="O226">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P226">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q226">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R226">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S226">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T226">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U226">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V226">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA226">
-        <v>-0</v>
+        <v>0.4875</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC226">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20733,7 +20733,7 @@
         <v>29</v>
       </c>
       <c r="G228" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H228">
         <v>1</v>

--- a/South Korea K League 1/South Korea K League 1.xlsx
+++ b/South Korea K League 1/South Korea K League 1.xlsx
@@ -121,10 +121,10 @@
     <t>Daejeon Hana Citizen</t>
   </si>
   <si>
-    <t>Incheon Utd</t>
+    <t>Suwon FC</t>
   </si>
   <si>
-    <t>Suwon FC</t>
+    <t>Incheon Utd</t>
   </si>
   <si>
     <t>Daegu FC</t>
@@ -797,7 +797,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6149804</v>
+        <v>6149805</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,70 +1153,70 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M8">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="N8">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6149805</v>
+        <v>6149804</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,70 +1242,70 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9">
+        <v>2.3</v>
+      </c>
+      <c r="L9">
         <v>3.2</v>
       </c>
-      <c r="L9">
-        <v>3.3</v>
-      </c>
       <c r="M9">
+        <v>2.875</v>
+      </c>
+      <c r="N9">
+        <v>2.3</v>
+      </c>
+      <c r="O9">
+        <v>3.2</v>
+      </c>
+      <c r="P9">
+        <v>2.875</v>
+      </c>
+      <c r="Q9">
+        <v>-0.25</v>
+      </c>
+      <c r="R9">
         <v>2.1</v>
       </c>
-      <c r="N9">
-        <v>3.25</v>
-      </c>
-      <c r="O9">
-        <v>3.4</v>
-      </c>
-      <c r="P9">
-        <v>2.1</v>
-      </c>
-      <c r="Q9">
-        <v>0.25</v>
-      </c>
-      <c r="R9">
-        <v>1.95</v>
-      </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y9">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB9">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1773,7 +1773,7 @@
         <v>44996.08333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
         <v>30</v>
@@ -2129,7 +2129,7 @@
         <v>44997.1875</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
         <v>32</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6149811</v>
+        <v>6149810</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L20">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M20">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N20">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="O20">
         <v>3.1</v>
       </c>
       <c r="P20">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q20">
+        <v>-0.5</v>
+      </c>
+      <c r="R20">
+        <v>1.875</v>
+      </c>
+      <c r="S20">
+        <v>1.975</v>
+      </c>
+      <c r="T20">
+        <v>2</v>
+      </c>
+      <c r="U20">
+        <v>1.75</v>
+      </c>
+      <c r="V20">
+        <v>2.05</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
+        <v>2.1</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB20">
         <v>0</v>
       </c>
-      <c r="R20">
-        <v>2.075</v>
-      </c>
-      <c r="S20">
-        <v>1.725</v>
-      </c>
-      <c r="T20">
-        <v>2.25</v>
-      </c>
-      <c r="U20">
-        <v>2.025</v>
-      </c>
-      <c r="V20">
-        <v>1.825</v>
-      </c>
-      <c r="W20">
-        <v>1.75</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
-      <c r="Z20">
-        <v>1.075</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>1.025</v>
-      </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6149810</v>
+        <v>6149811</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,76 +2307,76 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L21">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M21">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="N21">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="O21">
         <v>3.1</v>
       </c>
       <c r="P21">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
+        <v>2.025</v>
+      </c>
+      <c r="V21">
+        <v>1.825</v>
+      </c>
+      <c r="W21">
         <v>1.75</v>
       </c>
-      <c r="V21">
-        <v>2.05</v>
-      </c>
-      <c r="W21">
-        <v>-1</v>
-      </c>
       <c r="X21">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA21">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC21">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6149813</v>
+        <v>6149363</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R23">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
+        <v>2.025</v>
+      </c>
+      <c r="V23">
         <v>1.825</v>
       </c>
-      <c r="V23">
-        <v>2.025</v>
-      </c>
       <c r="W23">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
+        <v>-1</v>
+      </c>
+      <c r="AC23">
         <v>0.825</v>
-      </c>
-      <c r="AC23">
-        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6149363</v>
+        <v>6149813</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
+        <v>1.825</v>
+      </c>
+      <c r="V24">
         <v>2.025</v>
       </c>
-      <c r="V24">
-        <v>1.825</v>
-      </c>
       <c r="W24">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2666,7 +2666,7 @@
         <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6149398</v>
+        <v>6149814</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,19 +2841,19 @@
         <v>45017.1875</v>
       </c>
       <c r="F27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
         <v>35</v>
       </c>
-      <c r="G27" t="s">
-        <v>37</v>
-      </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K27">
         <v>2.2</v>
@@ -2865,52 +2865,52 @@
         <v>3.1</v>
       </c>
       <c r="N27">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O27">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P27">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
+        <v>1.95</v>
+      </c>
+      <c r="V27">
         <v>1.9</v>
       </c>
-      <c r="V27">
-        <v>1.95</v>
-      </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X27">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
+        <v>1.025</v>
+      </c>
+      <c r="AA27">
+        <v>-1</v>
+      </c>
+      <c r="AB27">
         <v>-0.5</v>
       </c>
-      <c r="AA27">
-        <v>0.4625</v>
-      </c>
-      <c r="AB27">
-        <v>-1</v>
-      </c>
       <c r="AC27">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6149814</v>
+        <v>6149398</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,19 +2930,19 @@
         <v>45017.1875</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>2.2</v>
@@ -2954,52 +2954,52 @@
         <v>3.1</v>
       </c>
       <c r="N28">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="O28">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P28">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
+        <v>1.9</v>
+      </c>
+      <c r="V28">
         <v>1.95</v>
       </c>
-      <c r="V28">
-        <v>1.9</v>
-      </c>
       <c r="W28">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>45025.125</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
         <v>34</v>
@@ -3645,7 +3645,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3998,7 +3998,7 @@
         <v>45031.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
         <v>39</v>
@@ -4090,7 +4090,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6149402</v>
+        <v>6149473</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45038.1875</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L45">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
+        <v>3.8</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
         <v>3.1</v>
       </c>
-      <c r="N45">
-        <v>2.5</v>
-      </c>
-      <c r="O45">
-        <v>3.4</v>
-      </c>
       <c r="P45">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6149473</v>
+        <v>6149402</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,76 +4532,76 @@
         <v>45038.1875</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K46">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L46">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M46">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O46">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q46">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S46">
+        <v>2.05</v>
+      </c>
+      <c r="T46">
+        <v>2.5</v>
+      </c>
+      <c r="U46">
         <v>1.85</v>
       </c>
-      <c r="T46">
-        <v>2.25</v>
-      </c>
-      <c r="U46">
-        <v>1.95</v>
-      </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X46">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,10 +4621,10 @@
         <v>45038.29166666666</v>
       </c>
       <c r="F47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" t="s">
         <v>35</v>
-      </c>
-      <c r="G47" t="s">
-        <v>36</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4888,7 +4888,7 @@
         <v>45041.3125</v>
       </c>
       <c r="F50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G50" t="s">
         <v>29</v>
@@ -5333,7 +5333,7 @@
         <v>45042.3125</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>37</v>
@@ -5422,7 +5422,7 @@
         <v>45045.08333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
         <v>31</v>
@@ -5692,7 +5692,7 @@
         <v>33</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -6134,7 +6134,7 @@
         <v>45051.1875</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
         <v>30</v>
@@ -6312,7 +6312,7 @@
         <v>45052.1875</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
         <v>38</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6149406</v>
+        <v>6149837</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,40 +6579,40 @@
         <v>45055.3125</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K69">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L69">
         <v>3.2</v>
       </c>
       <c r="M69">
+        <v>3.1</v>
+      </c>
+      <c r="N69">
         <v>2.15</v>
       </c>
-      <c r="N69">
-        <v>3.25</v>
-      </c>
       <c r="O69">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P69">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
         <v>1.925</v>
@@ -6624,31 +6624,31 @@
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X69">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC69">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6149837</v>
+        <v>6149406</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,40 +6668,40 @@
         <v>45055.3125</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L70">
         <v>3.2</v>
       </c>
       <c r="M70">
+        <v>2.15</v>
+      </c>
+      <c r="N70">
+        <v>3.25</v>
+      </c>
+      <c r="O70">
         <v>3.1</v>
       </c>
-      <c r="N70">
+      <c r="P70">
         <v>2.15</v>
       </c>
-      <c r="O70">
-        <v>3.2</v>
-      </c>
-      <c r="P70">
-        <v>3.2</v>
-      </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
         <v>1.925</v>
@@ -6713,31 +6713,31 @@
         <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W70">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6149838</v>
+        <v>6149839</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,7 +6846,7 @@
         <v>45056.3125</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
         <v>35</v>
@@ -6855,67 +6855,67 @@
         <v>2</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
         <v>41</v>
       </c>
       <c r="K72">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L72">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M72">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N72">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O72">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P72">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q72">
+        <v>-0.25</v>
+      </c>
+      <c r="R72">
+        <v>1.8</v>
+      </c>
+      <c r="S72">
+        <v>2.05</v>
+      </c>
+      <c r="T72">
+        <v>3</v>
+      </c>
+      <c r="U72">
+        <v>2.025</v>
+      </c>
+      <c r="V72">
+        <v>1.825</v>
+      </c>
+      <c r="W72">
+        <v>1.1</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
+        <v>-1</v>
+      </c>
+      <c r="Z72">
+        <v>0.8</v>
+      </c>
+      <c r="AA72">
+        <v>-1</v>
+      </c>
+      <c r="AB72">
         <v>0</v>
       </c>
-      <c r="R72">
-        <v>1.85</v>
-      </c>
-      <c r="S72">
-        <v>2</v>
-      </c>
-      <c r="T72">
-        <v>2.25</v>
-      </c>
-      <c r="U72">
-        <v>1.85</v>
-      </c>
-      <c r="V72">
-        <v>2</v>
-      </c>
-      <c r="W72">
-        <v>1.45</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>-1</v>
-      </c>
-      <c r="Z72">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA72">
-        <v>-1</v>
-      </c>
-      <c r="AB72">
-        <v>-0.5</v>
-      </c>
       <c r="AC72">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6149839</v>
+        <v>6149838</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,7 +6935,7 @@
         <v>45056.3125</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
         <v>36</v>
@@ -6944,49 +6944,49 @@
         <v>2</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>41</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L73">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N73">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O73">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P73">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W73">
-        <v>1.1</v>
+        <v>1.45</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -6995,16 +6995,16 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC73">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>45060.1875</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
         <v>39</v>
@@ -7469,7 +7469,7 @@
         <v>45060.29166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
         <v>32</v>
@@ -7558,7 +7558,7 @@
         <v>45066.1875</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
         <v>40</v>
@@ -8006,7 +8006,7 @@
         <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8184,7 +8184,7 @@
         <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8359,7 +8359,7 @@
         <v>45074.25</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
         <v>40</v>
@@ -8718,7 +8718,7 @@
         <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8985,7 +8985,7 @@
         <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9160,7 +9160,7 @@
         <v>45083.1875</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
         <v>29</v>
@@ -9605,7 +9605,7 @@
         <v>45084.3125</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
         <v>31</v>
@@ -9697,7 +9697,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -10142,7 +10142,7 @@
         <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>45102.1875</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
         <v>33</v>
@@ -10673,7 +10673,7 @@
         <v>45102.29166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
         <v>38</v>
@@ -11121,7 +11121,7 @@
         <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11207,7 +11207,7 @@
         <v>45109.33333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
         <v>38</v>
@@ -11563,10 +11563,10 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F125" t="s">
+        <v>35</v>
+      </c>
+      <c r="G125" t="s">
         <v>36</v>
-      </c>
-      <c r="G125" t="s">
-        <v>35</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -12011,7 +12011,7 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6149872</v>
+        <v>6149381</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,73 +12097,73 @@
         <v>45119.3125</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H131">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I131">
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K131">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M131">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="N131">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="O131">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q131">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V131">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB131">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6149381</v>
+        <v>6149872</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,73 +12275,73 @@
         <v>45119.3125</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I133">
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K133">
-        <v>3.4</v>
+        <v>1.55</v>
       </c>
       <c r="L133">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M133">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="N133">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="O133">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P133">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U133">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X133">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AA133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12634,7 +12634,7 @@
         <v>39</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12809,7 +12809,7 @@
         <v>45123.33333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
         <v>34</v>
@@ -13076,7 +13076,7 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
         <v>40</v>
@@ -13257,7 +13257,7 @@
         <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6149880</v>
+        <v>6149879</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,73 +13432,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K146">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L146">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M146">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N146">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O146">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P146">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
+        <v>1.9</v>
+      </c>
+      <c r="S146">
         <v>1.95</v>
-      </c>
-      <c r="S146">
-        <v>1.9</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V146">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X146">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6149879</v>
+        <v>6149880</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,73 +13521,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147" t="s">
+        <v>43</v>
+      </c>
+      <c r="K147">
+        <v>2.5</v>
+      </c>
+      <c r="L147">
+        <v>3.2</v>
+      </c>
+      <c r="M147">
+        <v>2.8</v>
+      </c>
+      <c r="N147">
+        <v>2.625</v>
+      </c>
+      <c r="O147">
+        <v>3.3</v>
+      </c>
+      <c r="P147">
+        <v>2.6</v>
+      </c>
+      <c r="Q147">
         <v>0</v>
       </c>
-      <c r="J147" t="s">
-        <v>41</v>
-      </c>
-      <c r="K147">
-        <v>2.15</v>
-      </c>
-      <c r="L147">
-        <v>3.3</v>
-      </c>
-      <c r="M147">
-        <v>3.4</v>
-      </c>
-      <c r="N147">
-        <v>2.2</v>
-      </c>
-      <c r="O147">
-        <v>3</v>
-      </c>
-      <c r="P147">
-        <v>3.6</v>
-      </c>
-      <c r="Q147">
-        <v>-0.25</v>
-      </c>
       <c r="R147">
+        <v>1.95</v>
+      </c>
+      <c r="S147">
         <v>1.9</v>
-      </c>
-      <c r="S147">
-        <v>1.95</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W147">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13613,7 +13613,7 @@
         <v>30</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13791,7 +13791,7 @@
         <v>39</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -14147,7 +14147,7 @@
         <v>32</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H154">
         <v>3</v>
@@ -14322,7 +14322,7 @@
         <v>45151.3125</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G156" t="s">
         <v>37</v>
@@ -14589,7 +14589,7 @@
         <v>45156.3125</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G159" t="s">
         <v>40</v>
@@ -14681,7 +14681,7 @@
         <v>38</v>
       </c>
       <c r="G160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -15034,10 +15034,10 @@
         <v>45163.29166666666</v>
       </c>
       <c r="F164" t="s">
+        <v>35</v>
+      </c>
+      <c r="G164" t="s">
         <v>36</v>
-      </c>
-      <c r="G164" t="s">
-        <v>35</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15571,7 +15571,7 @@
         <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15835,7 +15835,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
         <v>33</v>
@@ -16090,7 +16090,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6149898</v>
+        <v>6149389</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16102,73 +16102,73 @@
         <v>45185.08333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G176" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J176" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K176">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="L176">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M176">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="N176">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="O176">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P176">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q176">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R176">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S176">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T176">
         <v>2.5</v>
       </c>
       <c r="U176">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V176">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W176">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z176">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB176">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16179,7 +16179,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6149389</v>
+        <v>6149898</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16191,73 +16191,73 @@
         <v>45185.08333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K177">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="L177">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M177">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="N177">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O177">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P177">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q177">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R177">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S177">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T177">
         <v>2.5</v>
       </c>
       <c r="U177">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V177">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W177">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA177">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16283,7 +16283,7 @@
         <v>33</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16802,7 +16802,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6323586</v>
+        <v>6323587</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16814,76 +16814,76 @@
         <v>45193.08333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G184" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
         <v>42</v>
       </c>
       <c r="K184">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M184">
+        <v>2.45</v>
+      </c>
+      <c r="N184">
+        <v>2.6</v>
+      </c>
+      <c r="O184">
+        <v>3.3</v>
+      </c>
+      <c r="P184">
+        <v>2.7</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <v>1.875</v>
+      </c>
+      <c r="S184">
+        <v>1.975</v>
+      </c>
+      <c r="T184">
+        <v>2.25</v>
+      </c>
+      <c r="U184">
+        <v>1.975</v>
+      </c>
+      <c r="V184">
+        <v>1.875</v>
+      </c>
+      <c r="W184">
+        <v>-1</v>
+      </c>
+      <c r="X184">
+        <v>-1</v>
+      </c>
+      <c r="Y184">
         <v>1.7</v>
       </c>
-      <c r="N184">
-        <v>4.75</v>
-      </c>
-      <c r="O184">
-        <v>4</v>
-      </c>
-      <c r="P184">
-        <v>1.666</v>
-      </c>
-      <c r="Q184">
-        <v>0.75</v>
-      </c>
-      <c r="R184">
-        <v>2.025</v>
-      </c>
-      <c r="S184">
-        <v>1.825</v>
-      </c>
-      <c r="T184">
-        <v>3.25</v>
-      </c>
-      <c r="U184">
-        <v>2.05</v>
-      </c>
-      <c r="V184">
-        <v>1.8</v>
-      </c>
-      <c r="W184">
-        <v>-1</v>
-      </c>
-      <c r="X184">
-        <v>-1</v>
-      </c>
-      <c r="Y184">
-        <v>0.6659999999999999</v>
-      </c>
       <c r="Z184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB184">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16891,7 +16891,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6323587</v>
+        <v>6323586</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16903,55 +16903,55 @@
         <v>45193.08333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G185" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J185" t="s">
         <v>42</v>
       </c>
       <c r="K185">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="L185">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M185">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="N185">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O185">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P185">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q185">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R185">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W185">
         <v>-1</v>
@@ -16960,19 +16960,19 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1.7</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA185">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC185">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16995,7 +16995,7 @@
         <v>38</v>
       </c>
       <c r="G186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17170,7 +17170,7 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
         <v>31</v>
@@ -17437,7 +17437,7 @@
         <v>45199.29166666666</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G191" t="s">
         <v>30</v>
@@ -17692,7 +17692,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6387791</v>
+        <v>6384126</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17704,76 +17704,76 @@
         <v>45207.125</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G194" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194">
         <v>0</v>
       </c>
-      <c r="I194">
-        <v>2</v>
-      </c>
       <c r="J194" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K194">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L194">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M194">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="N194">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O194">
         <v>3.3</v>
       </c>
       <c r="P194">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q194">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R194">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S194">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T194">
         <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V194">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA194">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17781,7 +17781,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6388625</v>
+        <v>6384125</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17793,61 +17793,61 @@
         <v>45207.125</v>
       </c>
       <c r="F195" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G195" t="s">
         <v>35</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
         <v>43</v>
       </c>
       <c r="K195">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="L195">
         <v>3.75</v>
       </c>
       <c r="M195">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N195">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="O195">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P195">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q195">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R195">
+        <v>1.85</v>
+      </c>
+      <c r="S195">
+        <v>2</v>
+      </c>
+      <c r="T195">
+        <v>2.75</v>
+      </c>
+      <c r="U195">
         <v>2.025</v>
       </c>
-      <c r="S195">
+      <c r="V195">
         <v>1.825</v>
       </c>
-      <c r="T195">
-        <v>2.5</v>
-      </c>
-      <c r="U195">
-        <v>2</v>
-      </c>
-      <c r="V195">
-        <v>1.85</v>
-      </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Y195">
         <v>-1</v>
@@ -17856,13 +17856,13 @@
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC195">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17870,7 +17870,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6384127</v>
+        <v>6384418</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17882,10 +17882,10 @@
         <v>45207.125</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H196">
         <v>1</v>
@@ -17897,43 +17897,43 @@
         <v>41</v>
       </c>
       <c r="K196">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L196">
         <v>3.4</v>
       </c>
       <c r="M196">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N196">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="O196">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P196">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="Q196">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R196">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S196">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T196">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U196">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V196">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W196">
-        <v>1.6</v>
+        <v>0.95</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17942,7 +17942,7 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AA196">
         <v>-1</v>
@@ -17951,7 +17951,7 @@
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17959,7 +17959,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6384126</v>
+        <v>6388625</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17971,76 +17971,76 @@
         <v>45207.125</v>
       </c>
       <c r="F197" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G197" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197">
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K197">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="L197">
+        <v>3.75</v>
+      </c>
+      <c r="M197">
+        <v>4.333</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197">
         <v>3.4</v>
       </c>
-      <c r="M197">
-        <v>1.909</v>
-      </c>
-      <c r="N197">
-        <v>4</v>
-      </c>
-      <c r="O197">
-        <v>3.3</v>
-      </c>
       <c r="P197">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="Q197">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S197">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T197">
         <v>2.5</v>
       </c>
       <c r="U197">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V197">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W197">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X197">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB197">
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18048,7 +18048,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6384125</v>
+        <v>6384127</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18060,76 +18060,76 @@
         <v>45207.125</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K198">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="L198">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M198">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="N198">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="O198">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P198">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q198">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R198">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S198">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T198">
         <v>2.75</v>
       </c>
       <c r="U198">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V198">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X198">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA198">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18137,7 +18137,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6384418</v>
+        <v>6387791</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18149,76 +18149,76 @@
         <v>45207.125</v>
       </c>
       <c r="F199" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G199" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199" t="s">
+        <v>42</v>
+      </c>
+      <c r="K199">
+        <v>2.375</v>
+      </c>
+      <c r="L199">
+        <v>3.3</v>
+      </c>
+      <c r="M199">
+        <v>2.875</v>
+      </c>
+      <c r="N199">
+        <v>2.4</v>
+      </c>
+      <c r="O199">
+        <v>3.3</v>
+      </c>
+      <c r="P199">
+        <v>2.8</v>
+      </c>
+      <c r="Q199">
         <v>0</v>
       </c>
-      <c r="J199" t="s">
-        <v>41</v>
-      </c>
-      <c r="K199">
-        <v>1.909</v>
-      </c>
-      <c r="L199">
-        <v>3.4</v>
-      </c>
-      <c r="M199">
-        <v>4</v>
-      </c>
-      <c r="N199">
-        <v>1.95</v>
-      </c>
-      <c r="O199">
-        <v>3.4</v>
-      </c>
-      <c r="P199">
-        <v>4</v>
-      </c>
-      <c r="Q199">
-        <v>-0.5</v>
-      </c>
       <c r="R199">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S199">
+        <v>2.1</v>
+      </c>
+      <c r="T199">
+        <v>2.5</v>
+      </c>
+      <c r="U199">
         <v>1.85</v>
       </c>
-      <c r="T199">
-        <v>2.25</v>
-      </c>
-      <c r="U199">
-        <v>1.925</v>
-      </c>
       <c r="V199">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W199">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z199">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18241,7 +18241,7 @@
         <v>33</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18686,7 +18686,7 @@
         <v>34</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18953,7 +18953,7 @@
         <v>40</v>
       </c>
       <c r="G208" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -19027,7 +19027,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7333491</v>
+        <v>7334080</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19039,76 +19039,76 @@
         <v>45228.08333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G209" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H209">
         <v>2</v>
       </c>
       <c r="I209">
+        <v>2</v>
+      </c>
+      <c r="J209" t="s">
+        <v>43</v>
+      </c>
+      <c r="K209">
+        <v>2.625</v>
+      </c>
+      <c r="L209">
+        <v>3.4</v>
+      </c>
+      <c r="M209">
+        <v>2.55</v>
+      </c>
+      <c r="N209">
+        <v>2.6</v>
+      </c>
+      <c r="O209">
+        <v>3.4</v>
+      </c>
+      <c r="P209">
+        <v>2.6</v>
+      </c>
+      <c r="Q209">
         <v>0</v>
       </c>
-      <c r="J209" t="s">
-        <v>41</v>
-      </c>
-      <c r="K209">
-        <v>1.909</v>
-      </c>
-      <c r="L209">
-        <v>3.5</v>
-      </c>
-      <c r="M209">
-        <v>4</v>
-      </c>
-      <c r="N209">
-        <v>1.727</v>
-      </c>
-      <c r="O209">
-        <v>3.75</v>
-      </c>
-      <c r="P209">
-        <v>5</v>
-      </c>
-      <c r="Q209">
-        <v>-0.75</v>
-      </c>
       <c r="R209">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S209">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T209">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U209">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V209">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W209">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA209">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC209">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19116,7 +19116,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7334080</v>
+        <v>7333491</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19128,76 +19128,76 @@
         <v>45228.08333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G210" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H210">
         <v>2</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K210">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L210">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M210">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N210">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="O210">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P210">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="Q210">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R210">
+        <v>1.925</v>
+      </c>
+      <c r="S210">
+        <v>1.925</v>
+      </c>
+      <c r="T210">
+        <v>2.5</v>
+      </c>
+      <c r="U210">
+        <v>1.975</v>
+      </c>
+      <c r="V210">
         <v>1.875</v>
       </c>
-      <c r="S210">
-        <v>1.975</v>
-      </c>
-      <c r="T210">
-        <v>2.75</v>
-      </c>
-      <c r="U210">
-        <v>2</v>
-      </c>
-      <c r="V210">
-        <v>1.85</v>
-      </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X210">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA210">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19217,7 +19217,7 @@
         <v>45228.1875</v>
       </c>
       <c r="F211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G211" t="s">
         <v>31</v>
@@ -19383,7 +19383,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7334075</v>
+        <v>7334083</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19395,76 +19395,76 @@
         <v>45241.1875</v>
       </c>
       <c r="F213" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G213" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="s">
         <v>43</v>
       </c>
       <c r="K213">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L213">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M213">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N213">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O213">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P213">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="Q213">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R213">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S213">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T213">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U213">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V213">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA213">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB213">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC213">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19472,7 +19472,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7334083</v>
+        <v>7334075</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19484,76 +19484,76 @@
         <v>45241.1875</v>
       </c>
       <c r="F214" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G214" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" t="s">
         <v>43</v>
       </c>
       <c r="K214">
+        <v>2.625</v>
+      </c>
+      <c r="L214">
+        <v>3.2</v>
+      </c>
+      <c r="M214">
         <v>2.7</v>
       </c>
-      <c r="L214">
-        <v>3.3</v>
-      </c>
-      <c r="M214">
-        <v>2.55</v>
-      </c>
       <c r="N214">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O214">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P214">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="Q214">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R214">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S214">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T214">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U214">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V214">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA214">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB214">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC214">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19573,7 +19573,7 @@
         <v>45242.08333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G215" t="s">
         <v>39</v>
@@ -19662,7 +19662,7 @@
         <v>45242.08333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G216" t="s">
         <v>30</v>
@@ -19840,7 +19840,7 @@
         <v>45254.3125</v>
       </c>
       <c r="F218" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G218" t="s">
         <v>29</v>
@@ -19917,7 +19917,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7334087</v>
+        <v>7333495</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19929,76 +19929,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G219" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H219">
+        <v>2</v>
+      </c>
+      <c r="I219">
         <v>0</v>
       </c>
-      <c r="I219">
-        <v>2</v>
-      </c>
       <c r="J219" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K219">
         <v>2.05</v>
       </c>
       <c r="L219">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M219">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N219">
         <v>2.05</v>
       </c>
       <c r="O219">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P219">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q219">
         <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S219">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T219">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U219">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V219">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W219">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA219">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC219">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20006,7 +20006,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7333495</v>
+        <v>7334087</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20018,76 +20018,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G220" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K220">
         <v>2.05</v>
       </c>
       <c r="L220">
+        <v>3.75</v>
+      </c>
+      <c r="M220">
         <v>3.25</v>
-      </c>
-      <c r="M220">
-        <v>3.2</v>
       </c>
       <c r="N220">
         <v>2.05</v>
       </c>
       <c r="O220">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P220">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q220">
         <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S220">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T220">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V220">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W220">
+        <v>-1</v>
+      </c>
+      <c r="X220">
+        <v>-1</v>
+      </c>
+      <c r="Y220">
+        <v>2.3</v>
+      </c>
+      <c r="Z220">
+        <v>-1</v>
+      </c>
+      <c r="AA220">
         <v>1.05</v>
       </c>
-      <c r="X220">
-        <v>-1</v>
-      </c>
-      <c r="Y220">
-        <v>-1</v>
-      </c>
-      <c r="Z220">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA220">
-        <v>-1</v>
-      </c>
       <c r="AB220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20095,7 +20095,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7333496</v>
+        <v>7334085</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20107,76 +20107,76 @@
         <v>45255.1875</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G221" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K221">
+        <v>1.65</v>
+      </c>
+      <c r="L221">
+        <v>4</v>
+      </c>
+      <c r="M221">
+        <v>5</v>
+      </c>
+      <c r="N221">
+        <v>1.727</v>
+      </c>
+      <c r="O221">
+        <v>3.8</v>
+      </c>
+      <c r="P221">
+        <v>4.2</v>
+      </c>
+      <c r="Q221">
+        <v>-0.75</v>
+      </c>
+      <c r="R221">
+        <v>2</v>
+      </c>
+      <c r="S221">
         <v>1.85</v>
       </c>
-      <c r="L221">
-        <v>3.4</v>
-      </c>
-      <c r="M221">
-        <v>3.6</v>
-      </c>
-      <c r="N221">
-        <v>2.1</v>
-      </c>
-      <c r="O221">
-        <v>3.3</v>
-      </c>
-      <c r="P221">
-        <v>3.6</v>
-      </c>
-      <c r="Q221">
-        <v>-0.25</v>
-      </c>
-      <c r="R221">
-        <v>1.8</v>
-      </c>
-      <c r="S221">
-        <v>2.05</v>
-      </c>
       <c r="T221">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U221">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V221">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W221">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z221">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA221">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB221">
         <v>-1</v>
       </c>
       <c r="AC221">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20184,7 +20184,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7334085</v>
+        <v>7334086</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20196,76 +20196,76 @@
         <v>45255.1875</v>
       </c>
       <c r="F222" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G222" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H222">
+        <v>2</v>
+      </c>
+      <c r="I222">
         <v>0</v>
       </c>
-      <c r="I222">
-        <v>1</v>
-      </c>
       <c r="J222" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K222">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M222">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="N222">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O222">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P222">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q222">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R222">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S222">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T222">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U222">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V222">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA222">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC222">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20273,7 +20273,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7334086</v>
+        <v>7333496</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20285,13 +20285,13 @@
         <v>45255.1875</v>
       </c>
       <c r="F223" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G223" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -20300,16 +20300,16 @@
         <v>41</v>
       </c>
       <c r="K223">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L223">
+        <v>3.4</v>
+      </c>
+      <c r="M223">
         <v>3.6</v>
       </c>
-      <c r="M223">
-        <v>3.3</v>
-      </c>
       <c r="N223">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O223">
         <v>3.3</v>
@@ -20318,25 +20318,25 @@
         <v>3.6</v>
       </c>
       <c r="Q223">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
+        <v>1.8</v>
+      </c>
+      <c r="S223">
         <v>2.05</v>
-      </c>
-      <c r="S223">
-        <v>1.8</v>
       </c>
       <c r="T223">
         <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V223">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W223">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -20345,16 +20345,16 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA223">
         <v>-1</v>
       </c>
       <c r="AB223">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20362,7 +20362,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7334090</v>
+        <v>7334089</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20374,49 +20374,49 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F224" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G224" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
         <v>43</v>
       </c>
       <c r="K224">
+        <v>2.35</v>
+      </c>
+      <c r="L224">
+        <v>3.75</v>
+      </c>
+      <c r="M224">
+        <v>2.7</v>
+      </c>
+      <c r="N224">
         <v>2.4</v>
       </c>
-      <c r="L224">
-        <v>3.3</v>
-      </c>
-      <c r="M224">
+      <c r="O224">
+        <v>3.5</v>
+      </c>
+      <c r="P224">
         <v>2.875</v>
       </c>
-      <c r="N224">
-        <v>2.5</v>
-      </c>
-      <c r="O224">
-        <v>3.25</v>
-      </c>
-      <c r="P224">
-        <v>2.8</v>
-      </c>
       <c r="Q224">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S224">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T224">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U224">
         <v>1.85</v>
@@ -20428,16 +20428,16 @@
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA224">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB224">
         <v>-1</v>
@@ -20451,7 +20451,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7334089</v>
+        <v>7334088</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20463,61 +20463,61 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G225" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J225" t="s">
         <v>43</v>
       </c>
       <c r="K225">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="L225">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M225">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="N225">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O225">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P225">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q225">
         <v>-0.25</v>
       </c>
       <c r="R225">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S225">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T225">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U225">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V225">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y225">
         <v>-1</v>
@@ -20526,13 +20526,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA225">
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC225">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20540,7 +20540,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7334088</v>
+        <v>7334090</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20552,76 +20552,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G226" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
         <v>43</v>
       </c>
       <c r="K226">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L226">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M226">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N226">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O226">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P226">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q226">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R226">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S226">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T226">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U226">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V226">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA226">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB226">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20718,7 +20718,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7333497</v>
+        <v>7333499</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20730,58 +20730,58 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G228" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" t="s">
         <v>41</v>
       </c>
       <c r="K228">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L228">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M228">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N228">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O228">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P228">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q228">
         <v>0</v>
       </c>
       <c r="R228">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S228">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T228">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U228">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V228">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W228">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="X228">
         <v>-1</v>
@@ -20790,16 +20790,16 @@
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC228">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20807,7 +20807,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7333499</v>
+        <v>7333497</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20819,58 +20819,58 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G229" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
         <v>41</v>
       </c>
       <c r="K229">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L229">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M229">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N229">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O229">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P229">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="Q229">
         <v>0</v>
       </c>
       <c r="R229">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S229">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V229">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W229">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20879,16 +20879,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
   </sheetData>

--- a/South Korea K League 1/South Korea K League 1.xlsx
+++ b/South Korea K League 1/South Korea K League 1.xlsx
@@ -106,10 +106,10 @@
     <t>Ulsan Hyundai</t>
   </si>
   <si>
-    <t>Suwon Bluewings</t>
+    <t>FC Seoul</t>
   </si>
   <si>
-    <t>FC Seoul</t>
+    <t>Suwon Bluewings</t>
   </si>
   <si>
     <t>Jeju United</t>
@@ -121,10 +121,10 @@
     <t>Daejeon Hana Citizen</t>
   </si>
   <si>
-    <t>Suwon FC</t>
+    <t>Incheon Utd</t>
   </si>
   <si>
-    <t>Incheon Utd</t>
+    <t>Suwon FC</t>
   </si>
   <si>
     <t>Daegu FC</t>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6149801</v>
+        <v>6149800</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,43 +708,43 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>2.15</v>
       </c>
       <c r="L3">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M3">
         <v>3.4</v>
       </c>
       <c r="N3">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O3">
         <v>3.1</v>
       </c>
       <c r="P3">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q3">
         <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
         <v>2</v>
@@ -756,25 +756,25 @@
         <v>2.05</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC3">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6149800</v>
+        <v>6149801</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,43 +797,43 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>2.15</v>
       </c>
       <c r="L4">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M4">
         <v>3.4</v>
       </c>
       <c r="N4">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O4">
         <v>3.1</v>
       </c>
       <c r="P4">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q4">
         <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T4">
         <v>2</v>
@@ -845,25 +845,25 @@
         <v>2.05</v>
       </c>
       <c r="W4">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6149805</v>
+        <v>6149804</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,70 +1153,70 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8">
+        <v>2.3</v>
+      </c>
+      <c r="L8">
         <v>3.2</v>
       </c>
-      <c r="L8">
-        <v>3.3</v>
-      </c>
       <c r="M8">
+        <v>2.875</v>
+      </c>
+      <c r="N8">
+        <v>2.3</v>
+      </c>
+      <c r="O8">
+        <v>3.2</v>
+      </c>
+      <c r="P8">
+        <v>2.875</v>
+      </c>
+      <c r="Q8">
+        <v>-0.25</v>
+      </c>
+      <c r="R8">
         <v>2.1</v>
       </c>
-      <c r="N8">
-        <v>3.25</v>
-      </c>
-      <c r="O8">
-        <v>3.4</v>
-      </c>
-      <c r="P8">
-        <v>2.1</v>
-      </c>
-      <c r="Q8">
-        <v>0.25</v>
-      </c>
-      <c r="R8">
-        <v>1.95</v>
-      </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y8">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB8">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6149804</v>
+        <v>6149805</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,70 +1242,70 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M9">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="N9">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O9">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1509,7 +1509,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1598,7 +1598,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>44996.08333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1951,7 +1951,7 @@
         <v>44997.08333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>29</v>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6149362</v>
+        <v>6149809</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,13 +2040,13 @@
         <v>44997.1875</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2055,43 +2055,43 @@
         <v>41</v>
       </c>
       <c r="K18">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="L18">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M18">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="N18">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T18">
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W18">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2100,16 +2100,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6149809</v>
+        <v>6149362</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,13 +2129,13 @@
         <v>44997.1875</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2144,43 +2144,43 @@
         <v>41</v>
       </c>
       <c r="K19">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="L19">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M19">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="N19">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O19">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P19">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S19">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2189,16 +2189,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC19">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6149810</v>
+        <v>6149811</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L20">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M20">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="N20">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="O20">
         <v>3.1</v>
       </c>
       <c r="P20">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.875</v>
+        <v>2.075</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.725</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
+        <v>2.025</v>
+      </c>
+      <c r="V20">
+        <v>1.825</v>
+      </c>
+      <c r="W20">
         <v>1.75</v>
       </c>
-      <c r="V20">
-        <v>2.05</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
       <c r="X20">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>1.075</v>
       </c>
       <c r="AA20">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6149811</v>
+        <v>6149810</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,76 +2307,76 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L21">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M21">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="N21">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="O21">
         <v>3.1</v>
       </c>
       <c r="P21">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="Q21">
+        <v>-0.5</v>
+      </c>
+      <c r="R21">
+        <v>1.875</v>
+      </c>
+      <c r="S21">
+        <v>1.975</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>1.75</v>
+      </c>
+      <c r="V21">
+        <v>2.05</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
+        <v>2.1</v>
+      </c>
+      <c r="Y21">
+        <v>-1</v>
+      </c>
+      <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB21">
         <v>0</v>
       </c>
-      <c r="R21">
-        <v>2.075</v>
-      </c>
-      <c r="S21">
-        <v>1.725</v>
-      </c>
-      <c r="T21">
-        <v>2.25</v>
-      </c>
-      <c r="U21">
-        <v>2.025</v>
-      </c>
-      <c r="V21">
-        <v>1.825</v>
-      </c>
-      <c r="W21">
-        <v>1.75</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
-      <c r="Z21">
-        <v>1.075</v>
-      </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
-      <c r="AB21">
-        <v>1.025</v>
-      </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2399,7 +2399,7 @@
         <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6149363</v>
+        <v>6149813</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U23">
+        <v>1.825</v>
+      </c>
+      <c r="V23">
         <v>2.025</v>
       </c>
-      <c r="V23">
-        <v>1.825</v>
-      </c>
       <c r="W23">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6149813</v>
+        <v>6149363</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L24">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R24">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S24">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
+        <v>2.025</v>
+      </c>
+      <c r="V24">
         <v>1.825</v>
       </c>
-      <c r="V24">
-        <v>2.025</v>
-      </c>
       <c r="W24">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA24">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
+        <v>-1</v>
+      </c>
+      <c r="AC24">
         <v>0.825</v>
-      </c>
-      <c r="AC24">
-        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2666,7 +2666,7 @@
         <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6149814</v>
+        <v>6149398</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,19 +2841,19 @@
         <v>45017.1875</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K27">
         <v>2.2</v>
@@ -2865,52 +2865,52 @@
         <v>3.1</v>
       </c>
       <c r="N27">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="O27">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P27">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
+        <v>1.9</v>
+      </c>
+      <c r="V27">
         <v>1.95</v>
       </c>
-      <c r="V27">
-        <v>1.9</v>
-      </c>
       <c r="W27">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6149398</v>
+        <v>6149814</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,19 +2930,19 @@
         <v>45017.1875</v>
       </c>
       <c r="F28" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" t="s">
         <v>36</v>
       </c>
-      <c r="G28" t="s">
-        <v>37</v>
-      </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28">
         <v>2.2</v>
@@ -2954,52 +2954,52 @@
         <v>3.1</v>
       </c>
       <c r="N28">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O28">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S28">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
+        <v>1.95</v>
+      </c>
+      <c r="V28">
         <v>1.9</v>
       </c>
-      <c r="V28">
-        <v>1.95</v>
-      </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X28">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
+        <v>1.025</v>
+      </c>
+      <c r="AA28">
+        <v>-1</v>
+      </c>
+      <c r="AB28">
         <v>-0.5</v>
       </c>
-      <c r="AA28">
-        <v>0.4625</v>
-      </c>
-      <c r="AB28">
-        <v>-1</v>
-      </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3022,7 +3022,7 @@
         <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -3197,7 +3197,7 @@
         <v>45018.1875</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
         <v>38</v>
@@ -3289,7 +3289,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3375,7 +3375,7 @@
         <v>45024.1875</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -3553,7 +3553,7 @@
         <v>45025.125</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
         <v>34</v>
@@ -3645,7 +3645,7 @@
         <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3820,7 +3820,7 @@
         <v>45031.08333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
         <v>32</v>
@@ -3912,7 +3912,7 @@
         <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3998,7 +3998,7 @@
         <v>45031.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
         <v>39</v>
@@ -4090,7 +4090,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4354,10 +4354,10 @@
         <v>45038.08333333334</v>
       </c>
       <c r="F44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s">
         <v>31</v>
-      </c>
-      <c r="G44" t="s">
-        <v>30</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4621,10 +4621,10 @@
         <v>45038.29166666666</v>
       </c>
       <c r="F47" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" t="s">
         <v>36</v>
-      </c>
-      <c r="G47" t="s">
-        <v>35</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6149474</v>
+        <v>6149827</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,76 +4888,76 @@
         <v>45041.3125</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
         <v>0</v>
       </c>
-      <c r="I50">
-        <v>1</v>
-      </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K50">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="L50">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N50">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="O50">
         <v>3.75</v>
       </c>
       <c r="P50">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q50">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R50">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T50">
         <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
+        <v>0.4875</v>
+      </c>
+      <c r="AA50">
         <v>-0.5</v>
       </c>
-      <c r="AA50">
-        <v>0.475</v>
-      </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6149827</v>
+        <v>6149474</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,76 +4977,76 @@
         <v>45041.3125</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K51">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M51">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N51">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O51">
         <v>3.75</v>
       </c>
       <c r="P51">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q51">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S51">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V51">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W51">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z51">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA51">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5069,7 +5069,7 @@
         <v>38</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6149368</v>
+        <v>6149403</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45042.3125</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K54">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L54">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M54">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N54">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R54">
+        <v>1.825</v>
+      </c>
+      <c r="S54">
+        <v>2.025</v>
+      </c>
+      <c r="T54">
+        <v>2.75</v>
+      </c>
+      <c r="U54">
+        <v>2</v>
+      </c>
+      <c r="V54">
         <v>1.85</v>
       </c>
-      <c r="S54">
-        <v>2</v>
-      </c>
-      <c r="T54">
-        <v>2.5</v>
-      </c>
-      <c r="U54">
-        <v>1.9</v>
-      </c>
-      <c r="V54">
-        <v>1.95</v>
-      </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y54">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6149403</v>
+        <v>6149368</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45042.3125</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K55">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L55">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M55">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N55">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O55">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P55">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R55">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T55">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5422,10 +5422,10 @@
         <v>45045.08333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5692,7 +5692,7 @@
         <v>33</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5778,7 +5778,7 @@
         <v>45046.1875</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
         <v>37</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6149370</v>
+        <v>6149405</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45051.08333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K62">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L62">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M62">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N62">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="O62">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R62">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S62">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6149405</v>
+        <v>6149370</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,76 +6045,76 @@
         <v>45051.08333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L63">
+        <v>3.25</v>
+      </c>
+      <c r="M63">
+        <v>2.5</v>
+      </c>
+      <c r="N63">
+        <v>2.1</v>
+      </c>
+      <c r="O63">
         <v>3.4</v>
       </c>
-      <c r="M63">
-        <v>1.85</v>
-      </c>
-      <c r="N63">
-        <v>3.5</v>
-      </c>
-      <c r="O63">
-        <v>3.5</v>
-      </c>
       <c r="P63">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T63">
         <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V63">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y63">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,10 +6134,10 @@
         <v>45051.1875</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6312,7 +6312,7 @@
         <v>45052.1875</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
         <v>38</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6149837</v>
+        <v>6149406</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,40 +6579,40 @@
         <v>45055.3125</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L69">
         <v>3.2</v>
       </c>
       <c r="M69">
+        <v>2.15</v>
+      </c>
+      <c r="N69">
+        <v>3.25</v>
+      </c>
+      <c r="O69">
         <v>3.1</v>
       </c>
-      <c r="N69">
+      <c r="P69">
         <v>2.15</v>
       </c>
-      <c r="O69">
-        <v>3.2</v>
-      </c>
-      <c r="P69">
-        <v>3.2</v>
-      </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
         <v>1.925</v>
@@ -6624,31 +6624,31 @@
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6149406</v>
+        <v>6149837</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,40 +6668,40 @@
         <v>45055.3125</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K70">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L70">
         <v>3.2</v>
       </c>
       <c r="M70">
+        <v>3.1</v>
+      </c>
+      <c r="N70">
         <v>2.15</v>
       </c>
-      <c r="N70">
-        <v>3.25</v>
-      </c>
       <c r="O70">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
         <v>1.925</v>
@@ -6713,31 +6713,31 @@
         <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V70">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X70">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC70">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6149371</v>
+        <v>6149838</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
         <v>0</v>
       </c>
-      <c r="I71">
-        <v>3</v>
-      </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L71">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O71">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P71">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="Q71">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T71">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6149839</v>
+        <v>6149371</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L72">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M72">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72">
+        <v>3</v>
+      </c>
+      <c r="P72">
+        <v>2.375</v>
+      </c>
+      <c r="Q72">
+        <v>0.25</v>
+      </c>
+      <c r="R72">
+        <v>1.775</v>
+      </c>
+      <c r="S72">
         <v>2.1</v>
       </c>
-      <c r="O72">
-        <v>3.5</v>
-      </c>
-      <c r="P72">
-        <v>3.4</v>
-      </c>
-      <c r="Q72">
-        <v>-0.25</v>
-      </c>
-      <c r="R72">
+      <c r="T72">
+        <v>2</v>
+      </c>
+      <c r="U72">
         <v>1.8</v>
       </c>
-      <c r="S72">
+      <c r="V72">
         <v>2.05</v>
       </c>
-      <c r="T72">
-        <v>3</v>
-      </c>
-      <c r="U72">
-        <v>2.025</v>
-      </c>
-      <c r="V72">
-        <v>1.825</v>
-      </c>
       <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
+        <v>1.375</v>
+      </c>
+      <c r="Z72">
+        <v>-1</v>
+      </c>
+      <c r="AA72">
         <v>1.1</v>
       </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>-1</v>
-      </c>
-      <c r="Z72">
+      <c r="AB72">
         <v>0.8</v>
       </c>
-      <c r="AA72">
-        <v>-1</v>
-      </c>
-      <c r="AB72">
-        <v>0</v>
-      </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6149838</v>
+        <v>6149839</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,7 +6935,7 @@
         <v>45056.3125</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
         <v>36</v>
@@ -6944,67 +6944,67 @@
         <v>2</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
         <v>41</v>
       </c>
       <c r="K73">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N73">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O73">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P73">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q73">
+        <v>-0.25</v>
+      </c>
+      <c r="R73">
+        <v>1.8</v>
+      </c>
+      <c r="S73">
+        <v>2.05</v>
+      </c>
+      <c r="T73">
+        <v>3</v>
+      </c>
+      <c r="U73">
+        <v>2.025</v>
+      </c>
+      <c r="V73">
+        <v>1.825</v>
+      </c>
+      <c r="W73">
+        <v>1.1</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
+        <v>0.8</v>
+      </c>
+      <c r="AA73">
+        <v>-1</v>
+      </c>
+      <c r="AB73">
         <v>0</v>
       </c>
-      <c r="R73">
-        <v>1.85</v>
-      </c>
-      <c r="S73">
-        <v>2</v>
-      </c>
-      <c r="T73">
-        <v>2.25</v>
-      </c>
-      <c r="U73">
-        <v>1.85</v>
-      </c>
-      <c r="V73">
-        <v>2</v>
-      </c>
-      <c r="W73">
-        <v>1.45</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>-1</v>
-      </c>
-      <c r="Z73">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
-      <c r="AB73">
-        <v>-0.5</v>
-      </c>
       <c r="AC73">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7205,7 +7205,7 @@
         <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -7380,7 +7380,7 @@
         <v>45060.1875</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
         <v>39</v>
@@ -7469,7 +7469,7 @@
         <v>45060.29166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
         <v>32</v>
@@ -7558,7 +7558,7 @@
         <v>45066.1875</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
         <v>40</v>
@@ -7647,7 +7647,7 @@
         <v>45066.25</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -7914,7 +7914,7 @@
         <v>45067.25</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
         <v>29</v>
@@ -8006,7 +8006,7 @@
         <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8095,7 +8095,7 @@
         <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8184,7 +8184,7 @@
         <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8270,7 +8270,7 @@
         <v>45074.1875</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>38</v>
@@ -8359,7 +8359,7 @@
         <v>45074.25</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
         <v>40</v>
@@ -8715,10 +8715,10 @@
         <v>45080.25</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8985,7 +8985,7 @@
         <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9074,7 +9074,7 @@
         <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9160,7 +9160,7 @@
         <v>45083.1875</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
         <v>29</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6149376</v>
+        <v>6149854</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,58 +9338,58 @@
         <v>45084.29166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>41</v>
       </c>
       <c r="K100">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M100">
+        <v>3.8</v>
+      </c>
+      <c r="N100">
+        <v>1.85</v>
+      </c>
+      <c r="O100">
+        <v>3.6</v>
+      </c>
+      <c r="P100">
         <v>4.2</v>
       </c>
-      <c r="N100">
-        <v>2.05</v>
-      </c>
-      <c r="O100">
-        <v>3.3</v>
-      </c>
-      <c r="P100">
-        <v>3.4</v>
-      </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
+        <v>1.9</v>
+      </c>
+      <c r="S100">
+        <v>1.95</v>
+      </c>
+      <c r="T100">
+        <v>2.5</v>
+      </c>
+      <c r="U100">
+        <v>2.025</v>
+      </c>
+      <c r="V100">
         <v>1.825</v>
       </c>
-      <c r="S100">
-        <v>2.025</v>
-      </c>
-      <c r="T100">
-        <v>2.25</v>
-      </c>
-      <c r="U100">
-        <v>1.85</v>
-      </c>
-      <c r="V100">
-        <v>2</v>
-      </c>
       <c r="W100">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9398,16 +9398,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6149854</v>
+        <v>6149376</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,58 +9427,58 @@
         <v>45084.29166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>41</v>
       </c>
       <c r="K101">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L101">
+        <v>3.5</v>
+      </c>
+      <c r="M101">
+        <v>4.2</v>
+      </c>
+      <c r="N101">
+        <v>2.05</v>
+      </c>
+      <c r="O101">
+        <v>3.3</v>
+      </c>
+      <c r="P101">
         <v>3.4</v>
       </c>
-      <c r="M101">
-        <v>3.8</v>
-      </c>
-      <c r="N101">
+      <c r="Q101">
+        <v>-0.25</v>
+      </c>
+      <c r="R101">
+        <v>1.825</v>
+      </c>
+      <c r="S101">
+        <v>2.025</v>
+      </c>
+      <c r="T101">
+        <v>2.25</v>
+      </c>
+      <c r="U101">
         <v>1.85</v>
       </c>
-      <c r="O101">
-        <v>3.6</v>
-      </c>
-      <c r="P101">
-        <v>4.2</v>
-      </c>
-      <c r="Q101">
-        <v>-0.5</v>
-      </c>
-      <c r="R101">
-        <v>1.9</v>
-      </c>
-      <c r="S101">
-        <v>1.95</v>
-      </c>
-      <c r="T101">
-        <v>2.5</v>
-      </c>
-      <c r="U101">
-        <v>2.025</v>
-      </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W101">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9487,16 +9487,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6149856</v>
+        <v>6149855</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,76 +9516,76 @@
         <v>45084.3125</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K102">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L102">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M102">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="N102">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O102">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P102">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S102">
+        <v>2.025</v>
+      </c>
+      <c r="T102">
+        <v>2.25</v>
+      </c>
+      <c r="U102">
+        <v>1.825</v>
+      </c>
+      <c r="V102">
+        <v>2.025</v>
+      </c>
+      <c r="W102">
+        <v>-1</v>
+      </c>
+      <c r="X102">
         <v>2.1</v>
       </c>
-      <c r="T102">
-        <v>2.5</v>
-      </c>
-      <c r="U102">
-        <v>1.95</v>
-      </c>
-      <c r="V102">
-        <v>1.9</v>
-      </c>
-      <c r="W102">
-        <v>-1</v>
-      </c>
-      <c r="X102">
-        <v>-1</v>
-      </c>
       <c r="Y102">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA102">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6149855</v>
+        <v>6149856</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45084.3125</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K103">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="N103">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O103">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V103">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z103">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC103">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -10050,7 +10050,7 @@
         <v>45088.25</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>33</v>
@@ -10139,10 +10139,10 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10228,10 +10228,10 @@
         <v>45101.1875</v>
       </c>
       <c r="F110" t="s">
+        <v>31</v>
+      </c>
+      <c r="G110" t="s">
         <v>30</v>
-      </c>
-      <c r="G110" t="s">
-        <v>31</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>45102.1875</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
         <v>33</v>
@@ -10673,7 +10673,7 @@
         <v>45102.29166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
         <v>38</v>
@@ -10854,7 +10854,7 @@
         <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10940,7 +10940,7 @@
         <v>45108.3125</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
         <v>34</v>
@@ -11121,7 +11121,7 @@
         <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11207,7 +11207,7 @@
         <v>45109.33333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
         <v>38</v>
@@ -11563,10 +11563,10 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F125" t="s">
+        <v>36</v>
+      </c>
+      <c r="G125" t="s">
         <v>35</v>
-      </c>
-      <c r="G125" t="s">
-        <v>36</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11655,7 +11655,7 @@
         <v>39</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11744,7 +11744,7 @@
         <v>34</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12011,7 +12011,7 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6149381</v>
+        <v>6149872</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,73 +12097,73 @@
         <v>45119.3125</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I131">
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K131">
-        <v>3.4</v>
+        <v>1.55</v>
       </c>
       <c r="L131">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>2.05</v>
+        <v>5.25</v>
       </c>
       <c r="N131">
-        <v>3.25</v>
+        <v>1.55</v>
       </c>
       <c r="O131">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P131">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S131">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X131">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.4875</v>
+        <v>0.925</v>
       </c>
       <c r="AA131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12186,7 +12186,7 @@
         <v>45119.3125</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
         <v>33</v>
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6149872</v>
+        <v>6149381</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,73 +12275,73 @@
         <v>45119.3125</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H133">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I133">
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K133">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="L133">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M133">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="N133">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="O133">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P133">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q133">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T133">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W133">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12364,7 +12364,7 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
         <v>29</v>
@@ -12456,7 +12456,7 @@
         <v>38</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12634,7 +12634,7 @@
         <v>39</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12809,7 +12809,7 @@
         <v>45123.33333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
         <v>34</v>
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6149383</v>
+        <v>6149486</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,10 +12898,10 @@
         <v>45128.3125</v>
       </c>
       <c r="F140" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -12913,43 +12913,43 @@
         <v>41</v>
       </c>
       <c r="K140">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="L140">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M140">
+        <v>4.75</v>
+      </c>
+      <c r="N140">
+        <v>1.65</v>
+      </c>
+      <c r="O140">
+        <v>4</v>
+      </c>
+      <c r="P140">
+        <v>4.75</v>
+      </c>
+      <c r="Q140">
+        <v>-0.75</v>
+      </c>
+      <c r="R140">
+        <v>1.825</v>
+      </c>
+      <c r="S140">
+        <v>2.025</v>
+      </c>
+      <c r="T140">
         <v>3</v>
       </c>
-      <c r="N140">
-        <v>2.4</v>
-      </c>
-      <c r="O140">
-        <v>3.2</v>
-      </c>
-      <c r="P140">
-        <v>2.8</v>
-      </c>
-      <c r="Q140">
-        <v>-0.25</v>
-      </c>
-      <c r="R140">
-        <v>2.05</v>
-      </c>
-      <c r="S140">
-        <v>1.75</v>
-      </c>
-      <c r="T140">
-        <v>2.5</v>
-      </c>
       <c r="U140">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V140">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W140">
-        <v>1.4</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12958,16 +12958,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AA140">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC140">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6149486</v>
+        <v>6149383</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,10 +12987,10 @@
         <v>45128.3125</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13002,43 +13002,43 @@
         <v>41</v>
       </c>
       <c r="K141">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M141">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N141">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O141">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P141">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q141">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R141">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S141">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T141">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U141">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V141">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
-        <v>0.6499999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13047,16 +13047,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
       <c r="AA141">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC141">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13076,7 +13076,7 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
         <v>40</v>
@@ -13153,7 +13153,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6149877</v>
+        <v>6149878</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13165,40 +13165,40 @@
         <v>45129.3125</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J143" t="s">
         <v>42</v>
       </c>
       <c r="K143">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L143">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M143">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N143">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O143">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P143">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
         <v>2</v>
@@ -13207,7 +13207,7 @@
         <v>1.85</v>
       </c>
       <c r="T143">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
         <v>1.8</v>
@@ -13222,7 +13222,7 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="Z143">
         <v>-1</v>
@@ -13231,10 +13231,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13242,7 +13242,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6149878</v>
+        <v>6149877</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13254,40 +13254,40 @@
         <v>45129.3125</v>
       </c>
       <c r="F144" t="s">
+        <v>38</v>
+      </c>
+      <c r="G144" t="s">
         <v>31</v>
       </c>
-      <c r="G144" t="s">
-        <v>36</v>
-      </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>42</v>
       </c>
       <c r="K144">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L144">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N144">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="O144">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P144">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R144">
         <v>2</v>
@@ -13296,7 +13296,7 @@
         <v>1.85</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U144">
         <v>1.8</v>
@@ -13311,7 +13311,7 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="Z144">
         <v>-1</v>
@@ -13320,10 +13320,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6149879</v>
+        <v>6149880</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,73 +13432,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146" t="s">
+        <v>43</v>
+      </c>
+      <c r="K146">
+        <v>2.5</v>
+      </c>
+      <c r="L146">
+        <v>3.2</v>
+      </c>
+      <c r="M146">
+        <v>2.8</v>
+      </c>
+      <c r="N146">
+        <v>2.625</v>
+      </c>
+      <c r="O146">
+        <v>3.3</v>
+      </c>
+      <c r="P146">
+        <v>2.6</v>
+      </c>
+      <c r="Q146">
         <v>0</v>
       </c>
-      <c r="J146" t="s">
-        <v>41</v>
-      </c>
-      <c r="K146">
-        <v>2.15</v>
-      </c>
-      <c r="L146">
-        <v>3.3</v>
-      </c>
-      <c r="M146">
-        <v>3.4</v>
-      </c>
-      <c r="N146">
-        <v>2.2</v>
-      </c>
-      <c r="O146">
-        <v>3</v>
-      </c>
-      <c r="P146">
-        <v>3.6</v>
-      </c>
-      <c r="Q146">
-        <v>-0.25</v>
-      </c>
       <c r="R146">
+        <v>1.95</v>
+      </c>
+      <c r="S146">
         <v>1.9</v>
-      </c>
-      <c r="S146">
-        <v>1.95</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W146">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6149880</v>
+        <v>6149879</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,73 +13521,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K147">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L147">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M147">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N147">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O147">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P147">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
+        <v>1.9</v>
+      </c>
+      <c r="S147">
         <v>1.95</v>
-      </c>
-      <c r="S147">
-        <v>1.9</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V147">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X147">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13610,10 +13610,10 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13791,7 +13791,7 @@
         <v>39</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13969,7 +13969,7 @@
         <v>39</v>
       </c>
       <c r="G152" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14147,7 +14147,7 @@
         <v>32</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>3</v>
@@ -14236,7 +14236,7 @@
         <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -14322,7 +14322,7 @@
         <v>45151.3125</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G156" t="s">
         <v>37</v>
@@ -14500,7 +14500,7 @@
         <v>45156.3125</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G158" t="s">
         <v>32</v>
@@ -14589,7 +14589,7 @@
         <v>45156.3125</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
         <v>40</v>
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6149888</v>
+        <v>6149386</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,76 +14678,76 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F160" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H160">
         <v>1</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K160">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L160">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M160">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="N160">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="O160">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P160">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q160">
         <v>-0.25</v>
       </c>
       <c r="R160">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S160">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T160">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U160">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V160">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA160">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14755,7 +14755,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6149386</v>
+        <v>6149888</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14767,76 +14767,76 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G161" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="I161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K161">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L161">
+        <v>3.25</v>
+      </c>
+      <c r="M161">
+        <v>2.875</v>
+      </c>
+      <c r="N161">
+        <v>2</v>
+      </c>
+      <c r="O161">
         <v>3.4</v>
       </c>
-      <c r="M161">
-        <v>3.4</v>
-      </c>
-      <c r="N161">
-        <v>2.15</v>
-      </c>
-      <c r="O161">
-        <v>3.3</v>
-      </c>
       <c r="P161">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q161">
         <v>-0.25</v>
       </c>
       <c r="R161">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="S161">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T161">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U161">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V161">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W161">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X161">
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z161">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA161">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB161">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC161">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14856,7 +14856,7 @@
         <v>45157.3125</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G162" t="s">
         <v>37</v>
@@ -15034,10 +15034,10 @@
         <v>45163.29166666666</v>
       </c>
       <c r="F164" t="s">
+        <v>36</v>
+      </c>
+      <c r="G164" t="s">
         <v>35</v>
-      </c>
-      <c r="G164" t="s">
-        <v>36</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15390,7 +15390,7 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
         <v>29</v>
@@ -15482,7 +15482,7 @@
         <v>40</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H169">
         <v>4</v>
@@ -15571,7 +15571,7 @@
         <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15746,10 +15746,10 @@
         <v>45171.1875</v>
       </c>
       <c r="F172" t="s">
+        <v>31</v>
+      </c>
+      <c r="G172" t="s">
         <v>30</v>
-      </c>
-      <c r="G172" t="s">
-        <v>31</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -15835,7 +15835,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G173" t="s">
         <v>33</v>
@@ -16191,7 +16191,7 @@
         <v>45185.08333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G177" t="s">
         <v>32</v>
@@ -16283,7 +16283,7 @@
         <v>33</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16458,7 +16458,7 @@
         <v>45186.08333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
         <v>40</v>
@@ -16547,7 +16547,7 @@
         <v>45186.1875</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16639,7 +16639,7 @@
         <v>34</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H182">
         <v>3</v>
@@ -16728,7 +16728,7 @@
         <v>32</v>
       </c>
       <c r="G183" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16903,7 +16903,7 @@
         <v>45193.08333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G185" t="s">
         <v>29</v>
@@ -16995,7 +16995,7 @@
         <v>38</v>
       </c>
       <c r="G186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17170,10 +17170,10 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H188">
         <v>1</v>
@@ -17437,10 +17437,10 @@
         <v>45199.29166666666</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G191" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H191">
         <v>2</v>
@@ -17692,7 +17692,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6384126</v>
+        <v>6388625</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17704,76 +17704,76 @@
         <v>45207.125</v>
       </c>
       <c r="F194" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G194" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194">
         <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K194">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="L194">
+        <v>3.75</v>
+      </c>
+      <c r="M194">
+        <v>4.333</v>
+      </c>
+      <c r="N194">
+        <v>2</v>
+      </c>
+      <c r="O194">
         <v>3.4</v>
       </c>
-      <c r="M194">
-        <v>1.909</v>
-      </c>
-      <c r="N194">
-        <v>4</v>
-      </c>
-      <c r="O194">
-        <v>3.3</v>
-      </c>
       <c r="P194">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="Q194">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R194">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S194">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T194">
         <v>2.5</v>
       </c>
       <c r="U194">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V194">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W194">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17781,7 +17781,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6384125</v>
+        <v>6384418</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17793,76 +17793,76 @@
         <v>45207.125</v>
       </c>
       <c r="F195" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G195" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K195">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L195">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M195">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N195">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O195">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P195">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q195">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R195">
+        <v>2</v>
+      </c>
+      <c r="S195">
         <v>1.85</v>
       </c>
-      <c r="S195">
-        <v>2</v>
-      </c>
       <c r="T195">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U195">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V195">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X195">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA195">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17870,7 +17870,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6384418</v>
+        <v>6387791</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17882,76 +17882,76 @@
         <v>45207.125</v>
       </c>
       <c r="F196" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196">
+        <v>2</v>
+      </c>
+      <c r="J196" t="s">
+        <v>42</v>
+      </c>
+      <c r="K196">
+        <v>2.375</v>
+      </c>
+      <c r="L196">
+        <v>3.3</v>
+      </c>
+      <c r="M196">
+        <v>2.875</v>
+      </c>
+      <c r="N196">
+        <v>2.4</v>
+      </c>
+      <c r="O196">
+        <v>3.3</v>
+      </c>
+      <c r="P196">
+        <v>2.8</v>
+      </c>
+      <c r="Q196">
         <v>0</v>
       </c>
-      <c r="J196" t="s">
-        <v>41</v>
-      </c>
-      <c r="K196">
-        <v>1.909</v>
-      </c>
-      <c r="L196">
-        <v>3.4</v>
-      </c>
-      <c r="M196">
-        <v>4</v>
-      </c>
-      <c r="N196">
-        <v>1.95</v>
-      </c>
-      <c r="O196">
-        <v>3.4</v>
-      </c>
-      <c r="P196">
-        <v>4</v>
-      </c>
-      <c r="Q196">
-        <v>-0.5</v>
-      </c>
       <c r="R196">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S196">
+        <v>2.1</v>
+      </c>
+      <c r="T196">
+        <v>2.5</v>
+      </c>
+      <c r="U196">
         <v>1.85</v>
       </c>
-      <c r="T196">
-        <v>2.25</v>
-      </c>
-      <c r="U196">
-        <v>1.925</v>
-      </c>
       <c r="V196">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z196">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17959,7 +17959,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6388625</v>
+        <v>6384126</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17971,76 +17971,76 @@
         <v>45207.125</v>
       </c>
       <c r="F197" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G197" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197">
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K197">
-        <v>1.75</v>
+        <v>4</v>
       </c>
       <c r="L197">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M197">
-        <v>4.333</v>
+        <v>1.909</v>
       </c>
       <c r="N197">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O197">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P197">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q197">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R197">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S197">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T197">
         <v>2.5</v>
       </c>
       <c r="U197">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V197">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W197">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X197">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA197">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB197">
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18137,7 +18137,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6387791</v>
+        <v>6384125</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18149,76 +18149,76 @@
         <v>45207.125</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G199" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199">
         <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K199">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L199">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M199">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N199">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O199">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P199">
+        <v>5.25</v>
+      </c>
+      <c r="Q199">
+        <v>-0.75</v>
+      </c>
+      <c r="R199">
+        <v>1.85</v>
+      </c>
+      <c r="S199">
+        <v>2</v>
+      </c>
+      <c r="T199">
+        <v>2.75</v>
+      </c>
+      <c r="U199">
+        <v>2.025</v>
+      </c>
+      <c r="V199">
+        <v>1.825</v>
+      </c>
+      <c r="W199">
+        <v>-1</v>
+      </c>
+      <c r="X199">
         <v>2.8</v>
       </c>
-      <c r="Q199">
-        <v>0</v>
-      </c>
-      <c r="R199">
-        <v>1.775</v>
-      </c>
-      <c r="S199">
-        <v>2.1</v>
-      </c>
-      <c r="T199">
-        <v>2.5</v>
-      </c>
-      <c r="U199">
-        <v>1.85</v>
-      </c>
-      <c r="V199">
-        <v>2</v>
-      </c>
-      <c r="W199">
-        <v>-1</v>
-      </c>
-      <c r="X199">
-        <v>-1</v>
-      </c>
       <c r="Y199">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC199">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18241,7 +18241,7 @@
         <v>33</v>
       </c>
       <c r="G200" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18493,7 +18493,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7334076</v>
+        <v>7334077</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18505,76 +18505,76 @@
         <v>45221.08333333334</v>
       </c>
       <c r="F203" t="s">
+        <v>32</v>
+      </c>
+      <c r="G203" t="s">
         <v>31</v>
       </c>
-      <c r="G203" t="s">
-        <v>38</v>
-      </c>
       <c r="H203">
         <v>2</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
         <v>41</v>
       </c>
       <c r="K203">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L203">
         <v>3.5</v>
       </c>
       <c r="M203">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N203">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O203">
         <v>3.5</v>
       </c>
       <c r="P203">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q203">
         <v>-0.5</v>
       </c>
       <c r="R203">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S203">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U203">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V203">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W203">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X203">
+        <v>-1</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA203">
+        <v>-1</v>
+      </c>
+      <c r="AB203">
+        <v>-1</v>
+      </c>
+      <c r="AC203">
         <v>0.8</v>
-      </c>
-      <c r="X203">
-        <v>-1</v>
-      </c>
-      <c r="Y203">
-        <v>-1</v>
-      </c>
-      <c r="Z203">
-        <v>0.875</v>
-      </c>
-      <c r="AA203">
-        <v>-1</v>
-      </c>
-      <c r="AB203">
-        <v>0.825</v>
-      </c>
-      <c r="AC203">
-        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18582,7 +18582,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7334077</v>
+        <v>7334076</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18594,58 +18594,58 @@
         <v>45221.08333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G204" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
         <v>41</v>
       </c>
       <c r="K204">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L204">
         <v>3.5</v>
       </c>
       <c r="M204">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N204">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O204">
         <v>3.5</v>
       </c>
       <c r="P204">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q204">
         <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S204">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T204">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U204">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V204">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W204">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18654,16 +18654,16 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA204">
         <v>-1</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC204">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18686,7 +18686,7 @@
         <v>34</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18849,7 +18849,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7334079</v>
+        <v>7333490</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18861,76 +18861,76 @@
         <v>45227.1875</v>
       </c>
       <c r="F207" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G207" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K207">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L207">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M207">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="N207">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="O207">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P207">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q207">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R207">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S207">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T207">
         <v>2.25</v>
       </c>
       <c r="U207">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V207">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB207">
         <v>-0.5</v>
       </c>
       <c r="AC207">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18938,7 +18938,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7333490</v>
+        <v>7334079</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18950,76 +18950,76 @@
         <v>45227.1875</v>
       </c>
       <c r="F208" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G208" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208" t="s">
+        <v>43</v>
+      </c>
+      <c r="K208">
+        <v>2.625</v>
+      </c>
+      <c r="L208">
+        <v>3.2</v>
+      </c>
+      <c r="M208">
+        <v>2.7</v>
+      </c>
+      <c r="N208">
+        <v>2.8</v>
+      </c>
+      <c r="O208">
+        <v>3.1</v>
+      </c>
+      <c r="P208">
+        <v>2.6</v>
+      </c>
+      <c r="Q208">
         <v>0</v>
       </c>
-      <c r="I208">
-        <v>2</v>
-      </c>
-      <c r="J208" t="s">
-        <v>42</v>
-      </c>
-      <c r="K208">
-        <v>2.15</v>
-      </c>
-      <c r="L208">
-        <v>3.25</v>
-      </c>
-      <c r="M208">
-        <v>3.4</v>
-      </c>
-      <c r="N208">
-        <v>1.6</v>
-      </c>
-      <c r="O208">
-        <v>3.75</v>
-      </c>
-      <c r="P208">
-        <v>5.75</v>
-      </c>
-      <c r="Q208">
-        <v>-0.75</v>
-      </c>
       <c r="R208">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S208">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T208">
         <v>2.25</v>
       </c>
       <c r="U208">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V208">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y208">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA208">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB208">
         <v>-0.5</v>
       </c>
       <c r="AC208">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19027,7 +19027,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>7334080</v>
+        <v>7333491</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19039,76 +19039,76 @@
         <v>45228.08333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G209" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H209">
         <v>2</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K209">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="L209">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M209">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="N209">
-        <v>2.6</v>
+        <v>1.727</v>
       </c>
       <c r="O209">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P209">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="Q209">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R209">
+        <v>1.925</v>
+      </c>
+      <c r="S209">
+        <v>1.925</v>
+      </c>
+      <c r="T209">
+        <v>2.5</v>
+      </c>
+      <c r="U209">
+        <v>1.975</v>
+      </c>
+      <c r="V209">
         <v>1.875</v>
       </c>
-      <c r="S209">
-        <v>1.975</v>
-      </c>
-      <c r="T209">
-        <v>2.75</v>
-      </c>
-      <c r="U209">
-        <v>2</v>
-      </c>
-      <c r="V209">
-        <v>1.85</v>
-      </c>
       <c r="W209">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X209">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA209">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB209">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19116,7 +19116,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>7333491</v>
+        <v>7334080</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19128,76 +19128,76 @@
         <v>45228.08333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G210" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H210">
         <v>2</v>
       </c>
       <c r="I210">
+        <v>2</v>
+      </c>
+      <c r="J210" t="s">
+        <v>43</v>
+      </c>
+      <c r="K210">
+        <v>2.625</v>
+      </c>
+      <c r="L210">
+        <v>3.4</v>
+      </c>
+      <c r="M210">
+        <v>2.55</v>
+      </c>
+      <c r="N210">
+        <v>2.6</v>
+      </c>
+      <c r="O210">
+        <v>3.4</v>
+      </c>
+      <c r="P210">
+        <v>2.6</v>
+      </c>
+      <c r="Q210">
         <v>0</v>
       </c>
-      <c r="J210" t="s">
-        <v>41</v>
-      </c>
-      <c r="K210">
-        <v>1.909</v>
-      </c>
-      <c r="L210">
-        <v>3.5</v>
-      </c>
-      <c r="M210">
-        <v>4</v>
-      </c>
-      <c r="N210">
-        <v>1.727</v>
-      </c>
-      <c r="O210">
-        <v>3.75</v>
-      </c>
-      <c r="P210">
-        <v>5</v>
-      </c>
-      <c r="Q210">
-        <v>-0.75</v>
-      </c>
       <c r="R210">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S210">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U210">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V210">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W210">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC210">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19217,10 +19217,10 @@
         <v>45228.1875</v>
       </c>
       <c r="F211" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G211" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19398,7 +19398,7 @@
         <v>32</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -19561,7 +19561,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7333492</v>
+        <v>7334084</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19576,73 +19576,73 @@
         <v>36</v>
       </c>
       <c r="G215" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J215" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K215">
+        <v>2.15</v>
+      </c>
+      <c r="L215">
+        <v>3.5</v>
+      </c>
+      <c r="M215">
+        <v>3.2</v>
+      </c>
+      <c r="N215">
+        <v>2.55</v>
+      </c>
+      <c r="O215">
+        <v>3.4</v>
+      </c>
+      <c r="P215">
+        <v>2.625</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <v>1.875</v>
+      </c>
+      <c r="S215">
+        <v>1.975</v>
+      </c>
+      <c r="T215">
         <v>2.75</v>
       </c>
-      <c r="L215">
-        <v>3.2</v>
-      </c>
-      <c r="M215">
-        <v>2.6</v>
-      </c>
-      <c r="N215">
-        <v>3.2</v>
-      </c>
-      <c r="O215">
-        <v>3.25</v>
-      </c>
-      <c r="P215">
-        <v>2.25</v>
-      </c>
-      <c r="Q215">
-        <v>0.25</v>
-      </c>
-      <c r="R215">
-        <v>1.85</v>
-      </c>
-      <c r="S215">
-        <v>2</v>
-      </c>
-      <c r="T215">
-        <v>2.25</v>
-      </c>
       <c r="U215">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z215">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB215">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC215">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19650,7 +19650,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7334084</v>
+        <v>7333492</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19665,73 +19665,73 @@
         <v>35</v>
       </c>
       <c r="G216" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K216">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L216">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M216">
+        <v>2.6</v>
+      </c>
+      <c r="N216">
         <v>3.2</v>
       </c>
-      <c r="N216">
-        <v>2.55</v>
-      </c>
       <c r="O216">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P216">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q216">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S216">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T216">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U216">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y216">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA216">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB216">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19840,7 +19840,7 @@
         <v>45254.3125</v>
       </c>
       <c r="F218" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G218" t="s">
         <v>29</v>
@@ -19917,7 +19917,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7333495</v>
+        <v>7334087</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19929,76 +19929,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G219" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K219">
         <v>2.05</v>
       </c>
       <c r="L219">
+        <v>3.75</v>
+      </c>
+      <c r="M219">
         <v>3.25</v>
-      </c>
-      <c r="M219">
-        <v>3.2</v>
       </c>
       <c r="N219">
         <v>2.05</v>
       </c>
       <c r="O219">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P219">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q219">
         <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S219">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T219">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U219">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V219">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W219">
+        <v>-1</v>
+      </c>
+      <c r="X219">
+        <v>-1</v>
+      </c>
+      <c r="Y219">
+        <v>2.3</v>
+      </c>
+      <c r="Z219">
+        <v>-1</v>
+      </c>
+      <c r="AA219">
         <v>1.05</v>
       </c>
-      <c r="X219">
-        <v>-1</v>
-      </c>
-      <c r="Y219">
-        <v>-1</v>
-      </c>
-      <c r="Z219">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA219">
-        <v>-1</v>
-      </c>
       <c r="AB219">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC219">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20006,7 +20006,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7334087</v>
+        <v>7333495</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20018,76 +20018,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G220" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H220">
+        <v>2</v>
+      </c>
+      <c r="I220">
         <v>0</v>
       </c>
-      <c r="I220">
-        <v>2</v>
-      </c>
       <c r="J220" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K220">
         <v>2.05</v>
       </c>
       <c r="L220">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M220">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N220">
         <v>2.05</v>
       </c>
       <c r="O220">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P220">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q220">
         <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S220">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T220">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U220">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V220">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W220">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X220">
         <v>-1</v>
       </c>
       <c r="Y220">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA220">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB220">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC220">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20107,10 +20107,10 @@
         <v>45255.1875</v>
       </c>
       <c r="F221" t="s">
+        <v>30</v>
+      </c>
+      <c r="G221" t="s">
         <v>31</v>
-      </c>
-      <c r="G221" t="s">
-        <v>30</v>
       </c>
       <c r="H221">
         <v>0</v>
@@ -20199,7 +20199,7 @@
         <v>38</v>
       </c>
       <c r="G222" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H222">
         <v>2</v>
@@ -20374,7 +20374,7 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F224" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G224" t="s">
         <v>32</v>
@@ -20466,7 +20466,7 @@
         <v>34</v>
       </c>
       <c r="G225" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H225">
         <v>2</v>
@@ -20552,7 +20552,7 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G226" t="s">
         <v>38</v>
@@ -20629,7 +20629,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7333498</v>
+        <v>7333497</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20641,76 +20641,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F227" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G227" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I227">
         <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K227">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L227">
+        <v>3.5</v>
+      </c>
+      <c r="M227">
+        <v>2.9</v>
+      </c>
+      <c r="N227">
+        <v>2.6</v>
+      </c>
+      <c r="O227">
         <v>3.4</v>
       </c>
-      <c r="M227">
-        <v>3.3</v>
-      </c>
-      <c r="N227">
-        <v>1.8</v>
-      </c>
-      <c r="O227">
-        <v>3.5</v>
-      </c>
       <c r="P227">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q227">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R227">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S227">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T227">
         <v>2.5</v>
       </c>
       <c r="U227">
+        <v>1.825</v>
+      </c>
+      <c r="V227">
         <v>2.025</v>
       </c>
-      <c r="V227">
-        <v>1.825</v>
-      </c>
       <c r="W227">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X227">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA227">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB227">
         <v>-1</v>
       </c>
       <c r="AC227">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20718,7 +20718,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7333499</v>
+        <v>7333498</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20730,76 +20730,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G228" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K228">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L228">
+        <v>3.4</v>
+      </c>
+      <c r="M228">
         <v>3.3</v>
       </c>
-      <c r="M228">
-        <v>2.7</v>
-      </c>
       <c r="N228">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="O228">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P228">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="Q228">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R228">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S228">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T228">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V228">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W228">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="X228">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA228">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB228">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20807,7 +20807,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7333497</v>
+        <v>7333499</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20819,58 +20819,58 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G229" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
         <v>41</v>
       </c>
       <c r="K229">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L229">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M229">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N229">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O229">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P229">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q229">
         <v>0</v>
       </c>
       <c r="R229">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S229">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T229">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V229">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W229">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20879,16 +20879,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC229">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/South Korea K League 1/South Korea K League 1.xlsx
+++ b/South Korea K League 1/South Korea K League 1.xlsx
@@ -121,19 +121,19 @@
     <t>Daejeon Hana Citizen</t>
   </si>
   <si>
-    <t>Incheon Utd</t>
+    <t>Suwon FC</t>
   </si>
   <si>
-    <t>Suwon FC</t>
+    <t>Incheon Utd</t>
   </si>
   <si>
     <t>Daegu FC</t>
   </si>
   <si>
-    <t>Gangwon FC</t>
+    <t>Jeonbuk Motors</t>
   </si>
   <si>
-    <t>Jeonbuk Motors</t>
+    <t>Gangwon FC</t>
   </si>
   <si>
     <t>Gwangju FC</t>
@@ -619,7 +619,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -708,7 +708,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6149804</v>
+        <v>6149805</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,70 +1153,70 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M8">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="N8">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6149805</v>
+        <v>6149804</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,70 +1242,70 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9">
+        <v>2.3</v>
+      </c>
+      <c r="L9">
         <v>3.2</v>
       </c>
-      <c r="L9">
-        <v>3.3</v>
-      </c>
       <c r="M9">
+        <v>2.875</v>
+      </c>
+      <c r="N9">
+        <v>2.3</v>
+      </c>
+      <c r="O9">
+        <v>3.2</v>
+      </c>
+      <c r="P9">
+        <v>2.875</v>
+      </c>
+      <c r="Q9">
+        <v>-0.25</v>
+      </c>
+      <c r="R9">
         <v>2.1</v>
       </c>
-      <c r="N9">
-        <v>3.25</v>
-      </c>
-      <c r="O9">
-        <v>3.4</v>
-      </c>
-      <c r="P9">
-        <v>2.1</v>
-      </c>
-      <c r="Q9">
-        <v>0.25</v>
-      </c>
-      <c r="R9">
-        <v>1.95</v>
-      </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y9">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB9">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6149467</v>
+        <v>6149361</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1420,43 +1420,43 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11">
+        <v>1.85</v>
+      </c>
+      <c r="L11">
+        <v>3.3</v>
+      </c>
+      <c r="M11">
         <v>4</v>
       </c>
-      <c r="L11">
-        <v>3.6</v>
-      </c>
-      <c r="M11">
-        <v>1.8</v>
-      </c>
       <c r="N11">
-        <v>3.8</v>
+        <v>1.571</v>
       </c>
       <c r="O11">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P11">
-        <v>1.833</v>
+        <v>5.5</v>
       </c>
       <c r="Q11">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S11">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T11">
         <v>2.25</v>
@@ -1471,22 +1471,22 @@
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y11">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.8999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6149361</v>
+        <v>6149467</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1509,43 +1509,43 @@
         <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="L12">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="N12">
-        <v>1.571</v>
+        <v>3.8</v>
       </c>
       <c r="O12">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P12">
-        <v>5.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R12">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="S12">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T12">
         <v>2.25</v>
@@ -1560,22 +1560,22 @@
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>1.05</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>44996.08333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
@@ -1862,7 +1862,7 @@
         <v>44996.1875</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
         <v>37</v>
@@ -2040,7 +2040,7 @@
         <v>44997.1875</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
@@ -2129,7 +2129,7 @@
         <v>44997.1875</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
         <v>40</v>
@@ -2221,7 +2221,7 @@
         <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -2310,7 +2310,7 @@
         <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6149813</v>
+        <v>6149363</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R23">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
+        <v>2.025</v>
+      </c>
+      <c r="V23">
         <v>1.825</v>
       </c>
-      <c r="V23">
-        <v>2.025</v>
-      </c>
       <c r="W23">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
+        <v>-1</v>
+      </c>
+      <c r="AC23">
         <v>0.825</v>
-      </c>
-      <c r="AC23">
-        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6149363</v>
+        <v>6149813</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
+        <v>1.825</v>
+      </c>
+      <c r="V24">
         <v>2.025</v>
       </c>
-      <c r="V24">
-        <v>1.825</v>
-      </c>
       <c r="W24">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2666,7 +2666,7 @@
         <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2752,7 +2752,7 @@
         <v>45017.08333333334</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
         <v>33</v>
@@ -2841,7 +2841,7 @@
         <v>45017.1875</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -2933,7 +2933,7 @@
         <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3200,7 +3200,7 @@
         <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3553,7 +3553,7 @@
         <v>45025.125</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
         <v>34</v>
@@ -3642,10 +3642,10 @@
         <v>45025.1875</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3731,7 +3731,7 @@
         <v>45025.29166666666</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G37" t="s">
         <v>32</v>
@@ -3998,10 +3998,10 @@
         <v>45031.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4087,10 +4087,10 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4621,10 +4621,10 @@
         <v>45038.29166666666</v>
       </c>
       <c r="F47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" t="s">
         <v>35</v>
-      </c>
-      <c r="G47" t="s">
-        <v>36</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4713,7 +4713,7 @@
         <v>40</v>
       </c>
       <c r="G48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4802,7 +4802,7 @@
         <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>45041.3125</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
         <v>29</v>
@@ -5066,7 +5066,7 @@
         <v>45042.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
         <v>30</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6149403</v>
+        <v>6149368</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45042.3125</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K54">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L54">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M54">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N54">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O54">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T54">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6149368</v>
+        <v>6149403</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45042.3125</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K55">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L55">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M55">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N55">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P55">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q55">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R55">
+        <v>1.825</v>
+      </c>
+      <c r="S55">
+        <v>2.025</v>
+      </c>
+      <c r="T55">
+        <v>2.75</v>
+      </c>
+      <c r="U55">
+        <v>2</v>
+      </c>
+      <c r="V55">
         <v>1.85</v>
       </c>
-      <c r="S55">
-        <v>2</v>
-      </c>
-      <c r="T55">
-        <v>2.5</v>
-      </c>
-      <c r="U55">
-        <v>1.9</v>
-      </c>
-      <c r="V55">
-        <v>1.95</v>
-      </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y55">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB55">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5422,7 +5422,7 @@
         <v>45045.08333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>
@@ -5511,10 +5511,10 @@
         <v>45045.1875</v>
       </c>
       <c r="F57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" t="s">
         <v>39</v>
-      </c>
-      <c r="G57" t="s">
-        <v>38</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5692,7 +5692,7 @@
         <v>33</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6149405</v>
+        <v>6149370</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45051.08333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K62">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L62">
+        <v>3.25</v>
+      </c>
+      <c r="M62">
+        <v>2.5</v>
+      </c>
+      <c r="N62">
+        <v>2.1</v>
+      </c>
+      <c r="O62">
         <v>3.4</v>
       </c>
-      <c r="M62">
-        <v>1.85</v>
-      </c>
-      <c r="N62">
-        <v>3.5</v>
-      </c>
-      <c r="O62">
-        <v>3.5</v>
-      </c>
       <c r="P62">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q62">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V62">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y62">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB62">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6149370</v>
+        <v>6149405</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,76 +6045,76 @@
         <v>45051.08333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K63">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L63">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M63">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N63">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="O63">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P63">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S63">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
         <v>2.5</v>
       </c>
       <c r="U63">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>45051.1875</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
         <v>31</v>
@@ -6312,10 +6312,10 @@
         <v>45052.1875</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6493,7 +6493,7 @@
         <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6149406</v>
+        <v>6149837</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,40 +6579,40 @@
         <v>45055.3125</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K69">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L69">
         <v>3.2</v>
       </c>
       <c r="M69">
+        <v>3.1</v>
+      </c>
+      <c r="N69">
         <v>2.15</v>
       </c>
-      <c r="N69">
-        <v>3.25</v>
-      </c>
       <c r="O69">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P69">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
         <v>1.925</v>
@@ -6624,31 +6624,31 @@
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X69">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC69">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6149837</v>
+        <v>6149406</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,40 +6668,40 @@
         <v>45055.3125</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L70">
         <v>3.2</v>
       </c>
       <c r="M70">
+        <v>2.15</v>
+      </c>
+      <c r="N70">
+        <v>3.25</v>
+      </c>
+      <c r="O70">
         <v>3.1</v>
       </c>
-      <c r="N70">
+      <c r="P70">
         <v>2.15</v>
       </c>
-      <c r="O70">
-        <v>3.2</v>
-      </c>
-      <c r="P70">
-        <v>3.2</v>
-      </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
         <v>1.925</v>
@@ -6713,31 +6713,31 @@
         <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W70">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6760,7 +6760,7 @@
         <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6149371</v>
+        <v>6149839</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H72">
+        <v>2</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>41</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>3.4</v>
+      </c>
+      <c r="M72">
+        <v>3.4</v>
+      </c>
+      <c r="N72">
+        <v>2.1</v>
+      </c>
+      <c r="O72">
+        <v>3.5</v>
+      </c>
+      <c r="P72">
+        <v>3.4</v>
+      </c>
+      <c r="Q72">
+        <v>-0.25</v>
+      </c>
+      <c r="R72">
+        <v>1.8</v>
+      </c>
+      <c r="S72">
+        <v>2.05</v>
+      </c>
+      <c r="T72">
+        <v>3</v>
+      </c>
+      <c r="U72">
+        <v>2.025</v>
+      </c>
+      <c r="V72">
+        <v>1.825</v>
+      </c>
+      <c r="W72">
+        <v>1.1</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
+        <v>-1</v>
+      </c>
+      <c r="Z72">
+        <v>0.8</v>
+      </c>
+      <c r="AA72">
+        <v>-1</v>
+      </c>
+      <c r="AB72">
         <v>0</v>
       </c>
-      <c r="I72">
-        <v>3</v>
-      </c>
-      <c r="J72" t="s">
-        <v>42</v>
-      </c>
-      <c r="K72">
-        <v>3.1</v>
-      </c>
-      <c r="L72">
-        <v>3</v>
-      </c>
-      <c r="M72">
-        <v>2.2</v>
-      </c>
-      <c r="N72">
-        <v>3</v>
-      </c>
-      <c r="O72">
-        <v>3</v>
-      </c>
-      <c r="P72">
-        <v>2.375</v>
-      </c>
-      <c r="Q72">
-        <v>0.25</v>
-      </c>
-      <c r="R72">
-        <v>1.775</v>
-      </c>
-      <c r="S72">
-        <v>2.1</v>
-      </c>
-      <c r="T72">
-        <v>2</v>
-      </c>
-      <c r="U72">
-        <v>1.8</v>
-      </c>
-      <c r="V72">
-        <v>2.05</v>
-      </c>
-      <c r="W72">
-        <v>-1</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>1.375</v>
-      </c>
-      <c r="Z72">
-        <v>-1</v>
-      </c>
-      <c r="AA72">
-        <v>1.1</v>
-      </c>
-      <c r="AB72">
-        <v>0.8</v>
-      </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6149839</v>
+        <v>6149371</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L73">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73">
+        <v>3</v>
+      </c>
+      <c r="P73">
+        <v>2.375</v>
+      </c>
+      <c r="Q73">
+        <v>0.25</v>
+      </c>
+      <c r="R73">
+        <v>1.775</v>
+      </c>
+      <c r="S73">
         <v>2.1</v>
       </c>
-      <c r="O73">
-        <v>3.5</v>
-      </c>
-      <c r="P73">
-        <v>3.4</v>
-      </c>
-      <c r="Q73">
-        <v>-0.25</v>
-      </c>
-      <c r="R73">
+      <c r="T73">
+        <v>2</v>
+      </c>
+      <c r="U73">
         <v>1.8</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>2.05</v>
       </c>
-      <c r="T73">
-        <v>3</v>
-      </c>
-      <c r="U73">
-        <v>2.025</v>
-      </c>
-      <c r="V73">
-        <v>1.825</v>
-      </c>
       <c r="W73">
+        <v>-1</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>1.375</v>
+      </c>
+      <c r="Z73">
+        <v>-1</v>
+      </c>
+      <c r="AA73">
         <v>1.1</v>
       </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>-1</v>
-      </c>
-      <c r="Z73">
+      <c r="AB73">
         <v>0.8</v>
       </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
-      <c r="AB73">
-        <v>0</v>
-      </c>
       <c r="AC73">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7202,7 +7202,7 @@
         <v>45059.29166666666</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G76" t="s">
         <v>31</v>
@@ -7380,10 +7380,10 @@
         <v>45060.1875</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>45060.29166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
         <v>32</v>
@@ -7558,7 +7558,7 @@
         <v>45066.1875</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
         <v>40</v>
@@ -7825,7 +7825,7 @@
         <v>45067.1875</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G83" t="s">
         <v>33</v>
@@ -8003,10 +8003,10 @@
         <v>45067.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8184,7 +8184,7 @@
         <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8273,7 +8273,7 @@
         <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8359,7 +8359,7 @@
         <v>45074.25</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
         <v>40</v>
@@ -8540,7 +8540,7 @@
         <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8626,7 +8626,7 @@
         <v>45080.1875</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
         <v>29</v>
@@ -8718,7 +8718,7 @@
         <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8807,7 +8807,7 @@
         <v>32</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8985,7 +8985,7 @@
         <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9160,7 +9160,7 @@
         <v>45083.1875</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
         <v>29</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6149854</v>
+        <v>6149376</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,58 +9338,58 @@
         <v>45084.29166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>41</v>
       </c>
       <c r="K100">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L100">
+        <v>3.5</v>
+      </c>
+      <c r="M100">
+        <v>4.2</v>
+      </c>
+      <c r="N100">
+        <v>2.05</v>
+      </c>
+      <c r="O100">
+        <v>3.3</v>
+      </c>
+      <c r="P100">
         <v>3.4</v>
       </c>
-      <c r="M100">
-        <v>3.8</v>
-      </c>
-      <c r="N100">
+      <c r="Q100">
+        <v>-0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.825</v>
+      </c>
+      <c r="S100">
+        <v>2.025</v>
+      </c>
+      <c r="T100">
+        <v>2.25</v>
+      </c>
+      <c r="U100">
         <v>1.85</v>
       </c>
-      <c r="O100">
-        <v>3.6</v>
-      </c>
-      <c r="P100">
-        <v>4.2</v>
-      </c>
-      <c r="Q100">
-        <v>-0.5</v>
-      </c>
-      <c r="R100">
-        <v>1.9</v>
-      </c>
-      <c r="S100">
-        <v>1.95</v>
-      </c>
-      <c r="T100">
-        <v>2.5</v>
-      </c>
-      <c r="U100">
-        <v>2.025</v>
-      </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9398,16 +9398,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6149376</v>
+        <v>6149854</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,58 +9427,58 @@
         <v>45084.29166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
         <v>41</v>
       </c>
       <c r="K101">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
+        <v>3.8</v>
+      </c>
+      <c r="N101">
+        <v>1.85</v>
+      </c>
+      <c r="O101">
+        <v>3.6</v>
+      </c>
+      <c r="P101">
         <v>4.2</v>
       </c>
-      <c r="N101">
-        <v>2.05</v>
-      </c>
-      <c r="O101">
-        <v>3.3</v>
-      </c>
-      <c r="P101">
-        <v>3.4</v>
-      </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
+        <v>1.9</v>
+      </c>
+      <c r="S101">
+        <v>1.95</v>
+      </c>
+      <c r="T101">
+        <v>2.5</v>
+      </c>
+      <c r="U101">
+        <v>2.025</v>
+      </c>
+      <c r="V101">
         <v>1.825</v>
       </c>
-      <c r="S101">
-        <v>2.025</v>
-      </c>
-      <c r="T101">
-        <v>2.25</v>
-      </c>
-      <c r="U101">
-        <v>1.85</v>
-      </c>
-      <c r="V101">
-        <v>2</v>
-      </c>
       <c r="W101">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9487,16 +9487,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC101">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>45084.3125</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G102" t="s">
         <v>30</v>
@@ -9605,7 +9605,7 @@
         <v>45084.3125</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
         <v>34</v>
@@ -9697,7 +9697,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -9961,10 +9961,10 @@
         <v>45088.1875</v>
       </c>
       <c r="F107" t="s">
+        <v>39</v>
+      </c>
+      <c r="G107" t="s">
         <v>38</v>
-      </c>
-      <c r="G107" t="s">
-        <v>39</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -10142,7 +10142,7 @@
         <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10409,7 +10409,7 @@
         <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10584,7 +10584,7 @@
         <v>45102.1875</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
         <v>33</v>
@@ -10673,10 +10673,10 @@
         <v>45102.29166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10762,7 +10762,7 @@
         <v>45108.25</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
         <v>32</v>
@@ -11121,7 +11121,7 @@
         <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11207,10 +11207,10 @@
         <v>45109.33333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -11296,7 +11296,7 @@
         <v>45114.3125</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G122" t="s">
         <v>40</v>
@@ -11563,10 +11563,10 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F125" t="s">
+        <v>35</v>
+      </c>
+      <c r="G125" t="s">
         <v>36</v>
-      </c>
-      <c r="G125" t="s">
-        <v>35</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11652,7 +11652,7 @@
         <v>45115.3125</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G126" t="s">
         <v>30</v>
@@ -11833,7 +11833,7 @@
         <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -12011,7 +12011,7 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12100,7 +12100,7 @@
         <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H131">
         <v>7</v>
@@ -12278,7 +12278,7 @@
         <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -12453,7 +12453,7 @@
         <v>45122.3125</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G135" t="s">
         <v>30</v>
@@ -12631,10 +12631,10 @@
         <v>45123.29166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12809,7 +12809,7 @@
         <v>45123.33333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
         <v>34</v>
@@ -12990,7 +12990,7 @@
         <v>33</v>
       </c>
       <c r="G141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13076,7 +13076,7 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
         <v>40</v>
@@ -13168,7 +13168,7 @@
         <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13254,7 +13254,7 @@
         <v>45129.3125</v>
       </c>
       <c r="F144" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G144" t="s">
         <v>31</v>
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6149880</v>
+        <v>6149879</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,73 +13432,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K146">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L146">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M146">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N146">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O146">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P146">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
+        <v>1.9</v>
+      </c>
+      <c r="S146">
         <v>1.95</v>
-      </c>
-      <c r="S146">
-        <v>1.9</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V146">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X146">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6149879</v>
+        <v>6149880</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,73 +13521,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147" t="s">
+        <v>43</v>
+      </c>
+      <c r="K147">
+        <v>2.5</v>
+      </c>
+      <c r="L147">
+        <v>3.2</v>
+      </c>
+      <c r="M147">
+        <v>2.8</v>
+      </c>
+      <c r="N147">
+        <v>2.625</v>
+      </c>
+      <c r="O147">
+        <v>3.3</v>
+      </c>
+      <c r="P147">
+        <v>2.6</v>
+      </c>
+      <c r="Q147">
         <v>0</v>
       </c>
-      <c r="J147" t="s">
-        <v>41</v>
-      </c>
-      <c r="K147">
-        <v>2.15</v>
-      </c>
-      <c r="L147">
-        <v>3.3</v>
-      </c>
-      <c r="M147">
-        <v>3.4</v>
-      </c>
-      <c r="N147">
-        <v>2.2</v>
-      </c>
-      <c r="O147">
-        <v>3</v>
-      </c>
-      <c r="P147">
-        <v>3.6</v>
-      </c>
-      <c r="Q147">
-        <v>-0.25</v>
-      </c>
       <c r="R147">
+        <v>1.95</v>
+      </c>
+      <c r="S147">
         <v>1.9</v>
-      </c>
-      <c r="S147">
-        <v>1.95</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W147">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13613,7 +13613,7 @@
         <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13788,10 +13788,10 @@
         <v>45144.29166666666</v>
       </c>
       <c r="F150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13880,7 +13880,7 @@
         <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13966,7 +13966,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G152" t="s">
         <v>31</v>
@@ -14055,7 +14055,7 @@
         <v>45150.3125</v>
       </c>
       <c r="F153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G153" t="s">
         <v>29</v>
@@ -14147,7 +14147,7 @@
         <v>32</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H154">
         <v>3</v>
@@ -14322,7 +14322,7 @@
         <v>45151.3125</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G156" t="s">
         <v>37</v>
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6149886</v>
+        <v>6149887</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,76 +14500,76 @@
         <v>45156.3125</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K158">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="L158">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M158">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N158">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O158">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P158">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="Q158">
         <v>0</v>
       </c>
       <c r="R158">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T158">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U158">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V158">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W158">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB158">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC158">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6149887</v>
+        <v>6149886</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,76 +14589,76 @@
         <v>45156.3125</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G159" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K159">
+        <v>2.9</v>
+      </c>
+      <c r="L159">
+        <v>3.25</v>
+      </c>
+      <c r="M159">
+        <v>2.2</v>
+      </c>
+      <c r="N159">
+        <v>2.75</v>
+      </c>
+      <c r="O159">
+        <v>3.2</v>
+      </c>
+      <c r="P159">
         <v>2.375</v>
-      </c>
-      <c r="L159">
-        <v>3</v>
-      </c>
-      <c r="M159">
-        <v>2.8</v>
-      </c>
-      <c r="N159">
-        <v>2.625</v>
-      </c>
-      <c r="O159">
-        <v>3</v>
-      </c>
-      <c r="P159">
-        <v>2.7</v>
       </c>
       <c r="Q159">
         <v>0</v>
       </c>
       <c r="R159">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S159">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T159">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U159">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V159">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W159">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X159">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA159">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14681,7 +14681,7 @@
         <v>29</v>
       </c>
       <c r="G160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14767,10 +14767,10 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F161" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -15034,10 +15034,10 @@
         <v>45163.29166666666</v>
       </c>
       <c r="F164" t="s">
+        <v>35</v>
+      </c>
+      <c r="G164" t="s">
         <v>36</v>
-      </c>
-      <c r="G164" t="s">
-        <v>35</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15123,7 +15123,7 @@
         <v>45163.3125</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G165" t="s">
         <v>34</v>
@@ -15301,7 +15301,7 @@
         <v>45164.3125</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G167" t="s">
         <v>33</v>
@@ -15571,7 +15571,7 @@
         <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15660,7 +15660,7 @@
         <v>37</v>
       </c>
       <c r="G171" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H171">
         <v>1</v>
@@ -15835,7 +15835,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
         <v>33</v>
@@ -16016,7 +16016,7 @@
         <v>32</v>
       </c>
       <c r="G175" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16102,10 +16102,10 @@
         <v>45185.08333333334</v>
       </c>
       <c r="F176" t="s">
+        <v>38</v>
+      </c>
+      <c r="G176" t="s">
         <v>39</v>
-      </c>
-      <c r="G176" t="s">
-        <v>38</v>
       </c>
       <c r="H176">
         <v>1</v>
@@ -16191,7 +16191,7 @@
         <v>45185.08333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G177" t="s">
         <v>32</v>
@@ -16283,7 +16283,7 @@
         <v>33</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16802,7 +16802,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6323587</v>
+        <v>6323586</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16814,55 +16814,55 @@
         <v>45193.08333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G184" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J184" t="s">
         <v>42</v>
       </c>
       <c r="K184">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="L184">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M184">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="N184">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O184">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P184">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S184">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T184">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U184">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V184">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W184">
         <v>-1</v>
@@ -16871,19 +16871,19 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1.7</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA184">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC184">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16891,7 +16891,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6323586</v>
+        <v>6323587</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16903,76 +16903,76 @@
         <v>45193.08333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G185" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
         <v>42</v>
       </c>
       <c r="K185">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="L185">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M185">
+        <v>2.45</v>
+      </c>
+      <c r="N185">
+        <v>2.6</v>
+      </c>
+      <c r="O185">
+        <v>3.3</v>
+      </c>
+      <c r="P185">
+        <v>2.7</v>
+      </c>
+      <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185">
+        <v>1.875</v>
+      </c>
+      <c r="S185">
+        <v>1.975</v>
+      </c>
+      <c r="T185">
+        <v>2.25</v>
+      </c>
+      <c r="U185">
+        <v>1.975</v>
+      </c>
+      <c r="V185">
+        <v>1.875</v>
+      </c>
+      <c r="W185">
+        <v>-1</v>
+      </c>
+      <c r="X185">
+        <v>-1</v>
+      </c>
+      <c r="Y185">
         <v>1.7</v>
       </c>
-      <c r="N185">
-        <v>4.75</v>
-      </c>
-      <c r="O185">
-        <v>4</v>
-      </c>
-      <c r="P185">
-        <v>1.666</v>
-      </c>
-      <c r="Q185">
-        <v>0.75</v>
-      </c>
-      <c r="R185">
-        <v>2.025</v>
-      </c>
-      <c r="S185">
-        <v>1.825</v>
-      </c>
-      <c r="T185">
-        <v>3.25</v>
-      </c>
-      <c r="U185">
-        <v>2.05</v>
-      </c>
-      <c r="V185">
-        <v>1.8</v>
-      </c>
-      <c r="W185">
-        <v>-1</v>
-      </c>
-      <c r="X185">
-        <v>-1</v>
-      </c>
-      <c r="Y185">
-        <v>0.6659999999999999</v>
-      </c>
       <c r="Z185">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB185">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16992,10 +16992,10 @@
         <v>45193.1875</v>
       </c>
       <c r="F186" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17170,7 +17170,7 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G188" t="s">
         <v>30</v>
@@ -17348,7 +17348,7 @@
         <v>45199.1875</v>
       </c>
       <c r="F190" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G190" t="s">
         <v>37</v>
@@ -17437,7 +17437,7 @@
         <v>45199.29166666666</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G191" t="s">
         <v>31</v>
@@ -17526,7 +17526,7 @@
         <v>45200.08333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G192" t="s">
         <v>34</v>
@@ -17692,7 +17692,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6388625</v>
+        <v>6384125</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17704,61 +17704,61 @@
         <v>45207.125</v>
       </c>
       <c r="F194" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G194" t="s">
         <v>35</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
         <v>43</v>
       </c>
       <c r="K194">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="L194">
         <v>3.75</v>
       </c>
       <c r="M194">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N194">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="O194">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P194">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q194">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R194">
+        <v>1.85</v>
+      </c>
+      <c r="S194">
+        <v>2</v>
+      </c>
+      <c r="T194">
+        <v>2.75</v>
+      </c>
+      <c r="U194">
         <v>2.025</v>
       </c>
-      <c r="S194">
+      <c r="V194">
         <v>1.825</v>
       </c>
-      <c r="T194">
-        <v>2.5</v>
-      </c>
-      <c r="U194">
-        <v>2</v>
-      </c>
-      <c r="V194">
-        <v>1.85</v>
-      </c>
       <c r="W194">
         <v>-1</v>
       </c>
       <c r="X194">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Y194">
         <v>-1</v>
@@ -17767,13 +17767,13 @@
         <v>-1</v>
       </c>
       <c r="AA194">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC194">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17781,7 +17781,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6384418</v>
+        <v>6387791</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17793,76 +17793,76 @@
         <v>45207.125</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G195" t="s">
         <v>38</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195">
+        <v>2</v>
+      </c>
+      <c r="J195" t="s">
+        <v>42</v>
+      </c>
+      <c r="K195">
+        <v>2.375</v>
+      </c>
+      <c r="L195">
+        <v>3.3</v>
+      </c>
+      <c r="M195">
+        <v>2.875</v>
+      </c>
+      <c r="N195">
+        <v>2.4</v>
+      </c>
+      <c r="O195">
+        <v>3.3</v>
+      </c>
+      <c r="P195">
+        <v>2.8</v>
+      </c>
+      <c r="Q195">
         <v>0</v>
       </c>
-      <c r="J195" t="s">
-        <v>41</v>
-      </c>
-      <c r="K195">
-        <v>1.909</v>
-      </c>
-      <c r="L195">
-        <v>3.4</v>
-      </c>
-      <c r="M195">
-        <v>4</v>
-      </c>
-      <c r="N195">
-        <v>1.95</v>
-      </c>
-      <c r="O195">
-        <v>3.4</v>
-      </c>
-      <c r="P195">
-        <v>4</v>
-      </c>
-      <c r="Q195">
-        <v>-0.5</v>
-      </c>
       <c r="R195">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S195">
+        <v>2.1</v>
+      </c>
+      <c r="T195">
+        <v>2.5</v>
+      </c>
+      <c r="U195">
         <v>1.85</v>
       </c>
-      <c r="T195">
-        <v>2.25</v>
-      </c>
-      <c r="U195">
-        <v>1.925</v>
-      </c>
       <c r="V195">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z195">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB195">
         <v>-1</v>
       </c>
       <c r="AC195">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17870,7 +17870,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6387791</v>
+        <v>6384126</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17882,76 +17882,76 @@
         <v>45207.125</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G196" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196">
         <v>0</v>
       </c>
-      <c r="I196">
-        <v>2</v>
-      </c>
       <c r="J196" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K196">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L196">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M196">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="N196">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O196">
         <v>3.3</v>
       </c>
       <c r="P196">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q196">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R196">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S196">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T196">
         <v>2.5</v>
       </c>
       <c r="U196">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA196">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17959,7 +17959,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6384126</v>
+        <v>6384418</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17971,10 +17971,10 @@
         <v>45207.125</v>
       </c>
       <c r="F197" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G197" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -17986,43 +17986,43 @@
         <v>41</v>
       </c>
       <c r="K197">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="L197">
         <v>3.4</v>
       </c>
       <c r="M197">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N197">
+        <v>1.95</v>
+      </c>
+      <c r="O197">
+        <v>3.4</v>
+      </c>
+      <c r="P197">
         <v>4</v>
       </c>
-      <c r="O197">
-        <v>3.3</v>
-      </c>
-      <c r="P197">
-        <v>1.95</v>
-      </c>
       <c r="Q197">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S197">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T197">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U197">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V197">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W197">
-        <v>3</v>
+        <v>0.95</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18031,7 +18031,7 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA197">
         <v>-1</v>
@@ -18040,7 +18040,7 @@
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18137,7 +18137,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6384125</v>
+        <v>6388625</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18149,61 +18149,61 @@
         <v>45207.125</v>
       </c>
       <c r="F199" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G199" t="s">
         <v>36</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
         <v>43</v>
       </c>
       <c r="K199">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="L199">
         <v>3.75</v>
       </c>
       <c r="M199">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="N199">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="O199">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P199">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q199">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R199">
+        <v>2.025</v>
+      </c>
+      <c r="S199">
+        <v>1.825</v>
+      </c>
+      <c r="T199">
+        <v>2.5</v>
+      </c>
+      <c r="U199">
+        <v>2</v>
+      </c>
+      <c r="V199">
         <v>1.85</v>
       </c>
-      <c r="S199">
-        <v>2</v>
-      </c>
-      <c r="T199">
-        <v>2.75</v>
-      </c>
-      <c r="U199">
-        <v>2.025</v>
-      </c>
-      <c r="V199">
-        <v>1.825</v>
-      </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y199">
         <v>-1</v>
@@ -18212,13 +18212,13 @@
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB199">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18241,7 +18241,7 @@
         <v>33</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18419,7 +18419,7 @@
         <v>37</v>
       </c>
       <c r="G202" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H202">
         <v>1</v>
@@ -18597,7 +18597,7 @@
         <v>30</v>
       </c>
       <c r="G204" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H204">
         <v>2</v>
@@ -18686,7 +18686,7 @@
         <v>34</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18772,7 +18772,7 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G206" t="s">
         <v>33</v>
@@ -18864,7 +18864,7 @@
         <v>40</v>
       </c>
       <c r="G207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -18950,7 +18950,7 @@
         <v>45227.1875</v>
       </c>
       <c r="F208" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G208" t="s">
         <v>32</v>
@@ -19217,7 +19217,7 @@
         <v>45228.1875</v>
       </c>
       <c r="F211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G211" t="s">
         <v>30</v>
@@ -19309,7 +19309,7 @@
         <v>34</v>
       </c>
       <c r="G212" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -19561,7 +19561,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7334084</v>
+        <v>7333492</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19576,73 +19576,73 @@
         <v>36</v>
       </c>
       <c r="G215" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K215">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L215">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M215">
+        <v>2.6</v>
+      </c>
+      <c r="N215">
         <v>3.2</v>
       </c>
-      <c r="N215">
-        <v>2.55</v>
-      </c>
       <c r="O215">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P215">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q215">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S215">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T215">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y215">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA215">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB215">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19650,7 +19650,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7333492</v>
+        <v>7334084</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19665,73 +19665,73 @@
         <v>35</v>
       </c>
       <c r="G216" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K216">
+        <v>2.15</v>
+      </c>
+      <c r="L216">
+        <v>3.5</v>
+      </c>
+      <c r="M216">
+        <v>3.2</v>
+      </c>
+      <c r="N216">
+        <v>2.55</v>
+      </c>
+      <c r="O216">
+        <v>3.4</v>
+      </c>
+      <c r="P216">
+        <v>2.625</v>
+      </c>
+      <c r="Q216">
+        <v>0</v>
+      </c>
+      <c r="R216">
+        <v>1.875</v>
+      </c>
+      <c r="S216">
+        <v>1.975</v>
+      </c>
+      <c r="T216">
         <v>2.75</v>
       </c>
-      <c r="L216">
-        <v>3.2</v>
-      </c>
-      <c r="M216">
-        <v>2.6</v>
-      </c>
-      <c r="N216">
-        <v>3.2</v>
-      </c>
-      <c r="O216">
-        <v>3.25</v>
-      </c>
-      <c r="P216">
-        <v>2.25</v>
-      </c>
-      <c r="Q216">
-        <v>0.25</v>
-      </c>
-      <c r="R216">
-        <v>1.85</v>
-      </c>
-      <c r="S216">
-        <v>2</v>
-      </c>
-      <c r="T216">
-        <v>2.25</v>
-      </c>
       <c r="U216">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V216">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z216">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB216">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC216">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19840,7 +19840,7 @@
         <v>45254.3125</v>
       </c>
       <c r="F218" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G218" t="s">
         <v>29</v>
@@ -20018,7 +20018,7 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G220" t="s">
         <v>40</v>
@@ -20095,7 +20095,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7334085</v>
+        <v>7333496</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20107,76 +20107,76 @@
         <v>45255.1875</v>
       </c>
       <c r="F221" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G221" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221">
         <v>0</v>
       </c>
-      <c r="I221">
-        <v>1</v>
-      </c>
       <c r="J221" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K221">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="L221">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N221">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="O221">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P221">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q221">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S221">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V221">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W221">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X221">
         <v>-1</v>
       </c>
       <c r="Y221">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z221">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA221">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB221">
         <v>-1</v>
       </c>
       <c r="AC221">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20196,10 +20196,10 @@
         <v>45255.1875</v>
       </c>
       <c r="F222" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H222">
         <v>2</v>
@@ -20273,7 +20273,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7333496</v>
+        <v>7334085</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20285,76 +20285,76 @@
         <v>45255.1875</v>
       </c>
       <c r="F223" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G223" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K223">
+        <v>1.65</v>
+      </c>
+      <c r="L223">
+        <v>4</v>
+      </c>
+      <c r="M223">
+        <v>5</v>
+      </c>
+      <c r="N223">
+        <v>1.727</v>
+      </c>
+      <c r="O223">
+        <v>3.8</v>
+      </c>
+      <c r="P223">
+        <v>4.2</v>
+      </c>
+      <c r="Q223">
+        <v>-0.75</v>
+      </c>
+      <c r="R223">
+        <v>2</v>
+      </c>
+      <c r="S223">
         <v>1.85</v>
       </c>
-      <c r="L223">
-        <v>3.4</v>
-      </c>
-      <c r="M223">
-        <v>3.6</v>
-      </c>
-      <c r="N223">
-        <v>2.1</v>
-      </c>
-      <c r="O223">
-        <v>3.3</v>
-      </c>
-      <c r="P223">
-        <v>3.6</v>
-      </c>
-      <c r="Q223">
-        <v>-0.25</v>
-      </c>
-      <c r="R223">
-        <v>1.8</v>
-      </c>
-      <c r="S223">
-        <v>2.05</v>
-      </c>
       <c r="T223">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V223">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W223">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z223">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB223">
         <v>-1</v>
       </c>
       <c r="AC223">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20362,7 +20362,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7334089</v>
+        <v>7334088</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20374,61 +20374,61 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F224" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G224" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J224" t="s">
         <v>43</v>
       </c>
       <c r="K224">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="L224">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M224">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="N224">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O224">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P224">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q224">
         <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S224">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T224">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U224">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V224">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y224">
         <v>-1</v>
@@ -20437,13 +20437,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA224">
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC224">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20451,7 +20451,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7334088</v>
+        <v>7334090</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20463,76 +20463,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G225" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J225" t="s">
         <v>43</v>
       </c>
       <c r="K225">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L225">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M225">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N225">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O225">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P225">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q225">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R225">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S225">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T225">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U225">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V225">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W225">
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA225">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB225">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20540,7 +20540,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7334090</v>
+        <v>7334089</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20552,49 +20552,49 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G226" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" t="s">
         <v>43</v>
       </c>
       <c r="K226">
+        <v>2.35</v>
+      </c>
+      <c r="L226">
+        <v>3.75</v>
+      </c>
+      <c r="M226">
+        <v>2.7</v>
+      </c>
+      <c r="N226">
         <v>2.4</v>
       </c>
-      <c r="L226">
-        <v>3.3</v>
-      </c>
-      <c r="M226">
+      <c r="O226">
+        <v>3.5</v>
+      </c>
+      <c r="P226">
         <v>2.875</v>
       </c>
-      <c r="N226">
-        <v>2.5</v>
-      </c>
-      <c r="O226">
-        <v>3.25</v>
-      </c>
-      <c r="P226">
-        <v>2.8</v>
-      </c>
       <c r="Q226">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R226">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S226">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T226">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U226">
         <v>1.85</v>
@@ -20606,16 +20606,16 @@
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA226">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB226">
         <v>-1</v>
@@ -20629,7 +20629,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7333497</v>
+        <v>7333499</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20641,58 +20641,58 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F227" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G227" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" t="s">
         <v>41</v>
       </c>
       <c r="K227">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L227">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M227">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N227">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O227">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P227">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q227">
         <v>0</v>
       </c>
       <c r="R227">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S227">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T227">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U227">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V227">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W227">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="X227">
         <v>-1</v>
@@ -20701,16 +20701,16 @@
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AA227">
         <v>-1</v>
       </c>
       <c r="AB227">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC227">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20807,7 +20807,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7333499</v>
+        <v>7333497</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20819,58 +20819,58 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G229" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
         <v>41</v>
       </c>
       <c r="K229">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L229">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M229">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N229">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O229">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P229">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="Q229">
         <v>0</v>
       </c>
       <c r="R229">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S229">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V229">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W229">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20879,16 +20879,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC229">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
   </sheetData>

--- a/South Korea K League 1/South Korea K League 1.xlsx
+++ b/South Korea K League 1/South Korea K League 1.xlsx
@@ -121,10 +121,10 @@
     <t>Daejeon Hana Citizen</t>
   </si>
   <si>
-    <t>Suwon FC</t>
+    <t>Incheon Utd</t>
   </si>
   <si>
-    <t>Incheon Utd</t>
+    <t>Suwon FC</t>
   </si>
   <si>
     <t>Daegu FC</t>
@@ -708,7 +708,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6149805</v>
+        <v>6149804</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,70 +1153,70 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8">
+        <v>2.3</v>
+      </c>
+      <c r="L8">
         <v>3.2</v>
       </c>
-      <c r="L8">
-        <v>3.3</v>
-      </c>
       <c r="M8">
+        <v>2.875</v>
+      </c>
+      <c r="N8">
+        <v>2.3</v>
+      </c>
+      <c r="O8">
+        <v>3.2</v>
+      </c>
+      <c r="P8">
+        <v>2.875</v>
+      </c>
+      <c r="Q8">
+        <v>-0.25</v>
+      </c>
+      <c r="R8">
         <v>2.1</v>
       </c>
-      <c r="N8">
-        <v>3.25</v>
-      </c>
-      <c r="O8">
-        <v>3.4</v>
-      </c>
-      <c r="P8">
-        <v>2.1</v>
-      </c>
-      <c r="Q8">
-        <v>0.25</v>
-      </c>
-      <c r="R8">
-        <v>1.95</v>
-      </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y8">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB8">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6149804</v>
+        <v>6149805</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,70 +1242,70 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M9">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="N9">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O9">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1773,7 +1773,7 @@
         <v>44996.08333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
         <v>31</v>
@@ -2040,7 +2040,7 @@
         <v>44997.1875</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
@@ -2221,7 +2221,7 @@
         <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6149363</v>
+        <v>6149813</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K23">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="O23">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q23">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U23">
+        <v>1.825</v>
+      </c>
+      <c r="V23">
         <v>2.025</v>
       </c>
-      <c r="V23">
-        <v>1.825</v>
-      </c>
       <c r="W23">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC23">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6149813</v>
+        <v>6149363</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L24">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R24">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S24">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
+        <v>2.025</v>
+      </c>
+      <c r="V24">
         <v>1.825</v>
       </c>
-      <c r="V24">
-        <v>2.025</v>
-      </c>
       <c r="W24">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA24">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
+        <v>-1</v>
+      </c>
+      <c r="AC24">
         <v>0.825</v>
-      </c>
-      <c r="AC24">
-        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2666,7 +2666,7 @@
         <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6149398</v>
+        <v>6149814</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,19 +2841,19 @@
         <v>45017.1875</v>
       </c>
       <c r="F27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
         <v>36</v>
       </c>
-      <c r="G27" t="s">
-        <v>37</v>
-      </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K27">
         <v>2.2</v>
@@ -2865,52 +2865,52 @@
         <v>3.1</v>
       </c>
       <c r="N27">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O27">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P27">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
+        <v>1.95</v>
+      </c>
+      <c r="V27">
         <v>1.9</v>
       </c>
-      <c r="V27">
-        <v>1.95</v>
-      </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X27">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
+        <v>1.025</v>
+      </c>
+      <c r="AA27">
+        <v>-1</v>
+      </c>
+      <c r="AB27">
         <v>-0.5</v>
       </c>
-      <c r="AA27">
-        <v>0.4625</v>
-      </c>
-      <c r="AB27">
-        <v>-1</v>
-      </c>
       <c r="AC27">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6149814</v>
+        <v>6149398</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,19 +2930,19 @@
         <v>45017.1875</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>2.2</v>
@@ -2954,52 +2954,52 @@
         <v>3.1</v>
       </c>
       <c r="N28">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="O28">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P28">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
+        <v>1.9</v>
+      </c>
+      <c r="V28">
         <v>1.95</v>
       </c>
-      <c r="V28">
-        <v>1.9</v>
-      </c>
       <c r="W28">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>45025.125</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
         <v>34</v>
@@ -3645,7 +3645,7 @@
         <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3998,7 +3998,7 @@
         <v>45031.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
         <v>38</v>
@@ -4090,7 +4090,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6149473</v>
+        <v>6149402</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45038.1875</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K45">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M45">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O45">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P45">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q45">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S45">
+        <v>2.05</v>
+      </c>
+      <c r="T45">
+        <v>2.5</v>
+      </c>
+      <c r="U45">
         <v>1.85</v>
       </c>
-      <c r="T45">
-        <v>2.25</v>
-      </c>
-      <c r="U45">
-        <v>1.95</v>
-      </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X45">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6149402</v>
+        <v>6149473</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,76 +4532,76 @@
         <v>45038.1875</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K46">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L46">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
+        <v>3.8</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
         <v>3.1</v>
       </c>
-      <c r="N46">
-        <v>2.5</v>
-      </c>
-      <c r="O46">
-        <v>3.4</v>
-      </c>
       <c r="P46">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q46">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R46">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T46">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,10 +4621,10 @@
         <v>45038.29166666666</v>
       </c>
       <c r="F47" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" t="s">
         <v>36</v>
-      </c>
-      <c r="G47" t="s">
-        <v>35</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4977,7 +4977,7 @@
         <v>45041.3125</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
         <v>29</v>
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6149829</v>
+        <v>6149828</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,76 +5066,76 @@
         <v>45042.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G52" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K52">
+        <v>2.5</v>
+      </c>
+      <c r="L52">
         <v>3.1</v>
       </c>
-      <c r="L52">
-        <v>3</v>
-      </c>
       <c r="M52">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="N52">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O52">
+        <v>3.4</v>
+      </c>
+      <c r="P52">
         <v>3.1</v>
       </c>
-      <c r="P52">
-        <v>2.55</v>
-      </c>
       <c r="Q52">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R52">
+        <v>1.9</v>
+      </c>
+      <c r="S52">
+        <v>1.95</v>
+      </c>
+      <c r="T52">
+        <v>2.5</v>
+      </c>
+      <c r="U52">
+        <v>1.95</v>
+      </c>
+      <c r="V52">
+        <v>1.9</v>
+      </c>
+      <c r="W52">
+        <v>-1</v>
+      </c>
+      <c r="X52">
+        <v>-1</v>
+      </c>
+      <c r="Y52">
         <v>2.1</v>
       </c>
-      <c r="S52">
-        <v>1.775</v>
-      </c>
-      <c r="T52">
-        <v>2</v>
-      </c>
-      <c r="U52">
-        <v>1.8</v>
-      </c>
-      <c r="V52">
-        <v>2.05</v>
-      </c>
-      <c r="W52">
-        <v>1.9</v>
-      </c>
-      <c r="X52">
-        <v>-1</v>
-      </c>
-      <c r="Y52">
-        <v>-1</v>
-      </c>
       <c r="Z52">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB52">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6149828</v>
+        <v>6149829</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,76 +5155,76 @@
         <v>45042.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53" t="s">
+        <v>41</v>
+      </c>
+      <c r="K53">
+        <v>3.1</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>2.4</v>
+      </c>
+      <c r="N53">
+        <v>2.9</v>
+      </c>
+      <c r="O53">
+        <v>3.1</v>
+      </c>
+      <c r="P53">
+        <v>2.55</v>
+      </c>
+      <c r="Q53">
         <v>0</v>
       </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-      <c r="J53" t="s">
-        <v>42</v>
-      </c>
-      <c r="K53">
-        <v>2.5</v>
-      </c>
-      <c r="L53">
-        <v>3.1</v>
-      </c>
-      <c r="M53">
-        <v>2.875</v>
-      </c>
-      <c r="N53">
-        <v>2.2</v>
-      </c>
-      <c r="O53">
-        <v>3.4</v>
-      </c>
-      <c r="P53">
-        <v>3.1</v>
-      </c>
-      <c r="Q53">
-        <v>-0.25</v>
-      </c>
       <c r="R53">
+        <v>2.1</v>
+      </c>
+      <c r="S53">
+        <v>1.775</v>
+      </c>
+      <c r="T53">
+        <v>2</v>
+      </c>
+      <c r="U53">
+        <v>1.8</v>
+      </c>
+      <c r="V53">
+        <v>2.05</v>
+      </c>
+      <c r="W53">
         <v>1.9</v>
       </c>
-      <c r="S53">
-        <v>1.95</v>
-      </c>
-      <c r="T53">
-        <v>2.5</v>
-      </c>
-      <c r="U53">
-        <v>1.95</v>
-      </c>
-      <c r="V53">
-        <v>1.9</v>
-      </c>
-      <c r="W53">
-        <v>-1</v>
-      </c>
       <c r="X53">
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z53">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC53">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5333,7 +5333,7 @@
         <v>45042.3125</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
         <v>37</v>
@@ -5422,7 +5422,7 @@
         <v>45045.08333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
         <v>30</v>
@@ -5692,7 +5692,7 @@
         <v>33</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6149370</v>
+        <v>6149405</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45051.08333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K62">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L62">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M62">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N62">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="O62">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R62">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S62">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6149405</v>
+        <v>6149370</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,76 +6045,76 @@
         <v>45051.08333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L63">
+        <v>3.25</v>
+      </c>
+      <c r="M63">
+        <v>2.5</v>
+      </c>
+      <c r="N63">
+        <v>2.1</v>
+      </c>
+      <c r="O63">
         <v>3.4</v>
       </c>
-      <c r="M63">
-        <v>1.85</v>
-      </c>
-      <c r="N63">
-        <v>3.5</v>
-      </c>
-      <c r="O63">
-        <v>3.5</v>
-      </c>
       <c r="P63">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T63">
         <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V63">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y63">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>45051.1875</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
         <v>31</v>
@@ -6312,7 +6312,7 @@
         <v>45052.1875</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
         <v>39</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6149837</v>
+        <v>6149406</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,40 +6579,40 @@
         <v>45055.3125</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L69">
         <v>3.2</v>
       </c>
       <c r="M69">
+        <v>2.15</v>
+      </c>
+      <c r="N69">
+        <v>3.25</v>
+      </c>
+      <c r="O69">
         <v>3.1</v>
       </c>
-      <c r="N69">
+      <c r="P69">
         <v>2.15</v>
       </c>
-      <c r="O69">
-        <v>3.2</v>
-      </c>
-      <c r="P69">
-        <v>3.2</v>
-      </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
         <v>1.925</v>
@@ -6624,31 +6624,31 @@
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6149406</v>
+        <v>6149837</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,40 +6668,40 @@
         <v>45055.3125</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K70">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L70">
         <v>3.2</v>
       </c>
       <c r="M70">
+        <v>3.1</v>
+      </c>
+      <c r="N70">
         <v>2.15</v>
       </c>
-      <c r="N70">
-        <v>3.25</v>
-      </c>
       <c r="O70">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
         <v>1.925</v>
@@ -6713,31 +6713,31 @@
         <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V70">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X70">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC70">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6149838</v>
+        <v>6149371</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K71">
+        <v>3.1</v>
+      </c>
+      <c r="L71">
+        <v>3</v>
+      </c>
+      <c r="M71">
         <v>2.2</v>
       </c>
-      <c r="L71">
-        <v>3.2</v>
-      </c>
-      <c r="M71">
-        <v>3.2</v>
-      </c>
       <c r="N71">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P71">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T71">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W71">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB71">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC71">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6149839</v>
+        <v>6149838</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,7 +6846,7 @@
         <v>45056.3125</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
         <v>35</v>
@@ -6855,49 +6855,49 @@
         <v>2</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
         <v>41</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L72">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M72">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="N72">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O72">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P72">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q72">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V72">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W72">
-        <v>1.1</v>
+        <v>1.45</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6906,16 +6906,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC72">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6149371</v>
+        <v>6149839</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73" t="s">
+        <v>41</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>3.4</v>
+      </c>
+      <c r="M73">
+        <v>3.4</v>
+      </c>
+      <c r="N73">
+        <v>2.1</v>
+      </c>
+      <c r="O73">
+        <v>3.5</v>
+      </c>
+      <c r="P73">
+        <v>3.4</v>
+      </c>
+      <c r="Q73">
+        <v>-0.25</v>
+      </c>
+      <c r="R73">
+        <v>1.8</v>
+      </c>
+      <c r="S73">
+        <v>2.05</v>
+      </c>
+      <c r="T73">
+        <v>3</v>
+      </c>
+      <c r="U73">
+        <v>2.025</v>
+      </c>
+      <c r="V73">
+        <v>1.825</v>
+      </c>
+      <c r="W73">
+        <v>1.1</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
+        <v>0.8</v>
+      </c>
+      <c r="AA73">
+        <v>-1</v>
+      </c>
+      <c r="AB73">
         <v>0</v>
       </c>
-      <c r="I73">
-        <v>3</v>
-      </c>
-      <c r="J73" t="s">
-        <v>42</v>
-      </c>
-      <c r="K73">
-        <v>3.1</v>
-      </c>
-      <c r="L73">
-        <v>3</v>
-      </c>
-      <c r="M73">
-        <v>2.2</v>
-      </c>
-      <c r="N73">
-        <v>3</v>
-      </c>
-      <c r="O73">
-        <v>3</v>
-      </c>
-      <c r="P73">
-        <v>2.375</v>
-      </c>
-      <c r="Q73">
-        <v>0.25</v>
-      </c>
-      <c r="R73">
-        <v>1.775</v>
-      </c>
-      <c r="S73">
-        <v>2.1</v>
-      </c>
-      <c r="T73">
-        <v>2</v>
-      </c>
-      <c r="U73">
-        <v>1.8</v>
-      </c>
-      <c r="V73">
-        <v>2.05</v>
-      </c>
-      <c r="W73">
-        <v>-1</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>1.375</v>
-      </c>
-      <c r="Z73">
-        <v>-1</v>
-      </c>
-      <c r="AA73">
-        <v>1.1</v>
-      </c>
-      <c r="AB73">
-        <v>0.8</v>
-      </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7380,7 +7380,7 @@
         <v>45060.1875</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
         <v>38</v>
@@ -7469,7 +7469,7 @@
         <v>45060.29166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
         <v>32</v>
@@ -7558,7 +7558,7 @@
         <v>45066.1875</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
         <v>40</v>
@@ -8006,7 +8006,7 @@
         <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8184,7 +8184,7 @@
         <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8359,7 +8359,7 @@
         <v>45074.25</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
         <v>40</v>
@@ -8718,7 +8718,7 @@
         <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8985,7 +8985,7 @@
         <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9160,7 +9160,7 @@
         <v>45083.1875</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
         <v>29</v>
@@ -9516,7 +9516,7 @@
         <v>45084.3125</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
         <v>30</v>
@@ -9697,7 +9697,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -10142,7 +10142,7 @@
         <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>45102.1875</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
         <v>33</v>
@@ -10673,7 +10673,7 @@
         <v>45102.29166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
         <v>39</v>
@@ -11121,7 +11121,7 @@
         <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11207,7 +11207,7 @@
         <v>45109.33333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
         <v>39</v>
@@ -11563,10 +11563,10 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F125" t="s">
+        <v>36</v>
+      </c>
+      <c r="G125" t="s">
         <v>35</v>
-      </c>
-      <c r="G125" t="s">
-        <v>36</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -12011,7 +12011,7 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6149872</v>
+        <v>6149871</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45119.3125</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H131">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K131">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M131">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="N131">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="O131">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="Q131">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
+        <v>2.025</v>
+      </c>
+      <c r="S131">
+        <v>1.825</v>
+      </c>
+      <c r="T131">
+        <v>2.25</v>
+      </c>
+      <c r="U131">
         <v>1.925</v>
       </c>
-      <c r="S131">
+      <c r="V131">
         <v>1.925</v>
       </c>
-      <c r="T131">
-        <v>3</v>
-      </c>
-      <c r="U131">
-        <v>1.9</v>
-      </c>
-      <c r="V131">
-        <v>1.95</v>
-      </c>
       <c r="W131">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6149871</v>
+        <v>6149872</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,76 +12186,76 @@
         <v>45119.3125</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K132">
+        <v>1.55</v>
+      </c>
+      <c r="L132">
+        <v>3.75</v>
+      </c>
+      <c r="M132">
+        <v>5.25</v>
+      </c>
+      <c r="N132">
+        <v>1.55</v>
+      </c>
+      <c r="O132">
         <v>4</v>
       </c>
-      <c r="L132">
-        <v>3.3</v>
-      </c>
-      <c r="M132">
-        <v>1.909</v>
-      </c>
-      <c r="N132">
-        <v>4.5</v>
-      </c>
-      <c r="O132">
-        <v>3.3</v>
-      </c>
       <c r="P132">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="Q132">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R132">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S132">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T132">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X132">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA132">
         <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC132">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12634,7 +12634,7 @@
         <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12809,7 +12809,7 @@
         <v>45123.33333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
         <v>34</v>
@@ -13076,7 +13076,7 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
         <v>40</v>
@@ -13168,7 +13168,7 @@
         <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6149879</v>
+        <v>6149880</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,73 +13432,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146" t="s">
+        <v>43</v>
+      </c>
+      <c r="K146">
+        <v>2.5</v>
+      </c>
+      <c r="L146">
+        <v>3.2</v>
+      </c>
+      <c r="M146">
+        <v>2.8</v>
+      </c>
+      <c r="N146">
+        <v>2.625</v>
+      </c>
+      <c r="O146">
+        <v>3.3</v>
+      </c>
+      <c r="P146">
+        <v>2.6</v>
+      </c>
+      <c r="Q146">
         <v>0</v>
       </c>
-      <c r="J146" t="s">
-        <v>41</v>
-      </c>
-      <c r="K146">
-        <v>2.15</v>
-      </c>
-      <c r="L146">
-        <v>3.3</v>
-      </c>
-      <c r="M146">
-        <v>3.4</v>
-      </c>
-      <c r="N146">
-        <v>2.2</v>
-      </c>
-      <c r="O146">
-        <v>3</v>
-      </c>
-      <c r="P146">
-        <v>3.6</v>
-      </c>
-      <c r="Q146">
-        <v>-0.25</v>
-      </c>
       <c r="R146">
+        <v>1.95</v>
+      </c>
+      <c r="S146">
         <v>1.9</v>
-      </c>
-      <c r="S146">
-        <v>1.95</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W146">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6149880</v>
+        <v>6149879</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,73 +13521,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K147">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L147">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M147">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N147">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O147">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P147">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
+        <v>1.9</v>
+      </c>
+      <c r="S147">
         <v>1.95</v>
-      </c>
-      <c r="S147">
-        <v>1.9</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V147">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X147">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13613,7 +13613,7 @@
         <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13791,7 +13791,7 @@
         <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -14147,7 +14147,7 @@
         <v>32</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>3</v>
@@ -14322,7 +14322,7 @@
         <v>45151.3125</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G156" t="s">
         <v>37</v>
@@ -14500,7 +14500,7 @@
         <v>45156.3125</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
         <v>40</v>
@@ -14770,7 +14770,7 @@
         <v>39</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -15034,10 +15034,10 @@
         <v>45163.29166666666</v>
       </c>
       <c r="F164" t="s">
+        <v>36</v>
+      </c>
+      <c r="G164" t="s">
         <v>35</v>
-      </c>
-      <c r="G164" t="s">
-        <v>36</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15571,7 +15571,7 @@
         <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15835,7 +15835,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G173" t="s">
         <v>33</v>
@@ -16191,7 +16191,7 @@
         <v>45185.08333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G177" t="s">
         <v>32</v>
@@ -16283,7 +16283,7 @@
         <v>33</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16802,7 +16802,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6323586</v>
+        <v>6323587</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16814,76 +16814,76 @@
         <v>45193.08333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G184" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
         <v>42</v>
       </c>
       <c r="K184">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M184">
+        <v>2.45</v>
+      </c>
+      <c r="N184">
+        <v>2.6</v>
+      </c>
+      <c r="O184">
+        <v>3.3</v>
+      </c>
+      <c r="P184">
+        <v>2.7</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <v>1.875</v>
+      </c>
+      <c r="S184">
+        <v>1.975</v>
+      </c>
+      <c r="T184">
+        <v>2.25</v>
+      </c>
+      <c r="U184">
+        <v>1.975</v>
+      </c>
+      <c r="V184">
+        <v>1.875</v>
+      </c>
+      <c r="W184">
+        <v>-1</v>
+      </c>
+      <c r="X184">
+        <v>-1</v>
+      </c>
+      <c r="Y184">
         <v>1.7</v>
       </c>
-      <c r="N184">
-        <v>4.75</v>
-      </c>
-      <c r="O184">
-        <v>4</v>
-      </c>
-      <c r="P184">
-        <v>1.666</v>
-      </c>
-      <c r="Q184">
-        <v>0.75</v>
-      </c>
-      <c r="R184">
-        <v>2.025</v>
-      </c>
-      <c r="S184">
-        <v>1.825</v>
-      </c>
-      <c r="T184">
-        <v>3.25</v>
-      </c>
-      <c r="U184">
-        <v>2.05</v>
-      </c>
-      <c r="V184">
-        <v>1.8</v>
-      </c>
-      <c r="W184">
-        <v>-1</v>
-      </c>
-      <c r="X184">
-        <v>-1</v>
-      </c>
-      <c r="Y184">
-        <v>0.6659999999999999</v>
-      </c>
       <c r="Z184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB184">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16891,7 +16891,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6323587</v>
+        <v>6323586</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16903,55 +16903,55 @@
         <v>45193.08333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J185" t="s">
         <v>42</v>
       </c>
       <c r="K185">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="L185">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M185">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="N185">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O185">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P185">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q185">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R185">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W185">
         <v>-1</v>
@@ -16960,19 +16960,19 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1.7</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA185">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC185">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16995,7 +16995,7 @@
         <v>39</v>
       </c>
       <c r="G186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17158,7 +17158,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6353261</v>
+        <v>6353260</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17170,76 +17170,76 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>43</v>
       </c>
       <c r="K188">
+        <v>2.375</v>
+      </c>
+      <c r="L188">
+        <v>3.5</v>
+      </c>
+      <c r="M188">
+        <v>2.8</v>
+      </c>
+      <c r="N188">
+        <v>2.55</v>
+      </c>
+      <c r="O188">
         <v>3.4</v>
       </c>
-      <c r="L188">
-        <v>3.6</v>
-      </c>
-      <c r="M188">
-        <v>2</v>
-      </c>
-      <c r="N188">
-        <v>3.75</v>
-      </c>
-      <c r="O188">
-        <v>3.8</v>
-      </c>
       <c r="P188">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q188">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R188">
+        <v>1.825</v>
+      </c>
+      <c r="S188">
         <v>2.025</v>
       </c>
-      <c r="S188">
+      <c r="T188">
+        <v>2.5</v>
+      </c>
+      <c r="U188">
+        <v>2.025</v>
+      </c>
+      <c r="V188">
         <v>1.825</v>
       </c>
-      <c r="T188">
-        <v>2.75</v>
-      </c>
-      <c r="U188">
-        <v>1.825</v>
-      </c>
-      <c r="V188">
-        <v>2.025</v>
-      </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17247,7 +17247,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6353260</v>
+        <v>6353261</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17259,76 +17259,76 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>43</v>
       </c>
       <c r="K189">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="L189">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M189">
+        <v>2</v>
+      </c>
+      <c r="N189">
+        <v>3.75</v>
+      </c>
+      <c r="O189">
+        <v>3.8</v>
+      </c>
+      <c r="P189">
+        <v>1.85</v>
+      </c>
+      <c r="Q189">
+        <v>0.5</v>
+      </c>
+      <c r="R189">
+        <v>2.025</v>
+      </c>
+      <c r="S189">
+        <v>1.825</v>
+      </c>
+      <c r="T189">
+        <v>2.75</v>
+      </c>
+      <c r="U189">
+        <v>1.825</v>
+      </c>
+      <c r="V189">
+        <v>2.025</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
         <v>2.8</v>
       </c>
-      <c r="N189">
-        <v>2.55</v>
-      </c>
-      <c r="O189">
-        <v>3.4</v>
-      </c>
-      <c r="P189">
-        <v>2.625</v>
-      </c>
-      <c r="Q189">
-        <v>0</v>
-      </c>
-      <c r="R189">
-        <v>1.825</v>
-      </c>
-      <c r="S189">
-        <v>2.025</v>
-      </c>
-      <c r="T189">
-        <v>2.5</v>
-      </c>
-      <c r="U189">
-        <v>2.025</v>
-      </c>
-      <c r="V189">
-        <v>1.825</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>2.4</v>
-      </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA189">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17437,7 +17437,7 @@
         <v>45199.29166666666</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G191" t="s">
         <v>31</v>
@@ -17692,7 +17692,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6384125</v>
+        <v>6384126</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17704,76 +17704,76 @@
         <v>45207.125</v>
       </c>
       <c r="F194" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G194" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J194" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K194">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="L194">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M194">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="N194">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="O194">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P194">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q194">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R194">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S194">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T194">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U194">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="V194">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X194">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA194">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC194">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17781,7 +17781,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6387791</v>
+        <v>6388625</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17793,76 +17793,76 @@
         <v>45207.125</v>
       </c>
       <c r="F195" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H195">
         <v>0</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K195">
-        <v>2.375</v>
+        <v>1.75</v>
       </c>
       <c r="L195">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M195">
-        <v>2.875</v>
+        <v>4.333</v>
       </c>
       <c r="N195">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O195">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P195">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q195">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R195">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="S195">
-        <v>2.1</v>
+        <v>1.825</v>
       </c>
       <c r="T195">
         <v>2.5</v>
       </c>
       <c r="U195">
+        <v>2</v>
+      </c>
+      <c r="V195">
         <v>1.85</v>
       </c>
-      <c r="V195">
-        <v>2</v>
-      </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y195">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z195">
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>1.1</v>
+        <v>0.825</v>
       </c>
       <c r="AB195">
         <v>-1</v>
       </c>
       <c r="AC195">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17870,7 +17870,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6384126</v>
+        <v>6387791</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17882,76 +17882,76 @@
         <v>45207.125</v>
       </c>
       <c r="F196" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K196">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="L196">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M196">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="N196">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O196">
         <v>3.3</v>
       </c>
       <c r="P196">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="Q196">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R196">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S196">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T196">
         <v>2.5</v>
       </c>
       <c r="U196">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V196">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z196">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA196">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17959,7 +17959,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6384418</v>
+        <v>6384127</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17971,10 +17971,10 @@
         <v>45207.125</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G197" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -17986,43 +17986,43 @@
         <v>41</v>
       </c>
       <c r="K197">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L197">
         <v>3.4</v>
       </c>
       <c r="M197">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N197">
+        <v>2.6</v>
+      </c>
+      <c r="O197">
+        <v>3.3</v>
+      </c>
+      <c r="P197">
+        <v>2.625</v>
+      </c>
+      <c r="Q197">
+        <v>0</v>
+      </c>
+      <c r="R197">
+        <v>1.9</v>
+      </c>
+      <c r="S197">
         <v>1.95</v>
       </c>
-      <c r="O197">
-        <v>3.4</v>
-      </c>
-      <c r="P197">
-        <v>4</v>
-      </c>
-      <c r="Q197">
-        <v>-0.5</v>
-      </c>
-      <c r="R197">
-        <v>2</v>
-      </c>
-      <c r="S197">
-        <v>1.85</v>
-      </c>
       <c r="T197">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U197">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V197">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W197">
-        <v>0.95</v>
+        <v>1.6</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18031,7 +18031,7 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA197">
         <v>-1</v>
@@ -18040,7 +18040,7 @@
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18048,7 +18048,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6384127</v>
+        <v>6384125</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18060,76 +18060,76 @@
         <v>45207.125</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K198">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L198">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M198">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N198">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O198">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P198">
-        <v>2.625</v>
+        <v>5.25</v>
       </c>
       <c r="Q198">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R198">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S198">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T198">
         <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V198">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W198">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X198">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA198">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB198">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC198">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18137,7 +18137,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6388625</v>
+        <v>6384418</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18149,76 +18149,76 @@
         <v>45207.125</v>
       </c>
       <c r="F199" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G199" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I199">
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K199">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L199">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M199">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N199">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O199">
         <v>3.4</v>
       </c>
       <c r="P199">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q199">
         <v>-0.5</v>
       </c>
       <c r="R199">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S199">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T199">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U199">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V199">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X199">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA199">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18241,7 +18241,7 @@
         <v>33</v>
       </c>
       <c r="G200" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18493,7 +18493,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7334077</v>
+        <v>7334076</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18505,58 +18505,58 @@
         <v>45221.08333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G203" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H203">
         <v>2</v>
       </c>
       <c r="I203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
         <v>41</v>
       </c>
       <c r="K203">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L203">
         <v>3.5</v>
       </c>
       <c r="M203">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N203">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O203">
         <v>3.5</v>
       </c>
       <c r="P203">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q203">
         <v>-0.5</v>
       </c>
       <c r="R203">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S203">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T203">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U203">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V203">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W203">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18565,16 +18565,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA203">
         <v>-1</v>
       </c>
       <c r="AB203">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC203">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18582,7 +18582,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7334076</v>
+        <v>7334077</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18594,76 +18594,76 @@
         <v>45221.08333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G204" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
         <v>41</v>
       </c>
       <c r="K204">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L204">
         <v>3.5</v>
       </c>
       <c r="M204">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N204">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O204">
         <v>3.5</v>
       </c>
       <c r="P204">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q204">
         <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S204">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T204">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U204">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V204">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W204">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X204">
+        <v>-1</v>
+      </c>
+      <c r="Y204">
+        <v>-1</v>
+      </c>
+      <c r="Z204">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA204">
+        <v>-1</v>
+      </c>
+      <c r="AB204">
+        <v>-1</v>
+      </c>
+      <c r="AC204">
         <v>0.8</v>
-      </c>
-      <c r="X204">
-        <v>-1</v>
-      </c>
-      <c r="Y204">
-        <v>-1</v>
-      </c>
-      <c r="Z204">
-        <v>0.875</v>
-      </c>
-      <c r="AA204">
-        <v>-1</v>
-      </c>
-      <c r="AB204">
-        <v>0.825</v>
-      </c>
-      <c r="AC204">
-        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18686,7 +18686,7 @@
         <v>34</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18849,7 +18849,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7333490</v>
+        <v>7334079</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18861,76 +18861,76 @@
         <v>45227.1875</v>
       </c>
       <c r="F207" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G207" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207" t="s">
+        <v>43</v>
+      </c>
+      <c r="K207">
+        <v>2.625</v>
+      </c>
+      <c r="L207">
+        <v>3.2</v>
+      </c>
+      <c r="M207">
+        <v>2.7</v>
+      </c>
+      <c r="N207">
+        <v>2.8</v>
+      </c>
+      <c r="O207">
+        <v>3.1</v>
+      </c>
+      <c r="P207">
+        <v>2.6</v>
+      </c>
+      <c r="Q207">
         <v>0</v>
       </c>
-      <c r="I207">
-        <v>2</v>
-      </c>
-      <c r="J207" t="s">
-        <v>42</v>
-      </c>
-      <c r="K207">
-        <v>2.15</v>
-      </c>
-      <c r="L207">
-        <v>3.25</v>
-      </c>
-      <c r="M207">
-        <v>3.4</v>
-      </c>
-      <c r="N207">
-        <v>1.6</v>
-      </c>
-      <c r="O207">
-        <v>3.75</v>
-      </c>
-      <c r="P207">
-        <v>5.75</v>
-      </c>
-      <c r="Q207">
-        <v>-0.75</v>
-      </c>
       <c r="R207">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S207">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T207">
         <v>2.25</v>
       </c>
       <c r="U207">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V207">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y207">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA207">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB207">
         <v>-0.5</v>
       </c>
       <c r="AC207">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18938,7 +18938,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7334079</v>
+        <v>7333490</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18950,76 +18950,76 @@
         <v>45227.1875</v>
       </c>
       <c r="F208" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G208" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K208">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L208">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M208">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="N208">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="O208">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P208">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R208">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S208">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T208">
         <v>2.25</v>
       </c>
       <c r="U208">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V208">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB208">
         <v>-0.5</v>
       </c>
       <c r="AC208">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19217,7 +19217,7 @@
         <v>45228.1875</v>
       </c>
       <c r="F211" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G211" t="s">
         <v>30</v>
@@ -19573,7 +19573,7 @@
         <v>45242.08333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G215" t="s">
         <v>38</v>
@@ -19662,7 +19662,7 @@
         <v>45242.08333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G216" t="s">
         <v>31</v>
@@ -19840,7 +19840,7 @@
         <v>45254.3125</v>
       </c>
       <c r="F218" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G218" t="s">
         <v>29</v>
@@ -20184,7 +20184,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7334086</v>
+        <v>7334085</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20196,76 +20196,76 @@
         <v>45255.1875</v>
       </c>
       <c r="F222" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G222" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K222">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="L222">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M222">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="N222">
-        <v>2.05</v>
+        <v>1.727</v>
       </c>
       <c r="O222">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P222">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q222">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R222">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S222">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T222">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U222">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V222">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W222">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z222">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA222">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB222">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC222">
-        <v>0.5125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20273,7 +20273,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7334085</v>
+        <v>7334086</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20285,76 +20285,76 @@
         <v>45255.1875</v>
       </c>
       <c r="F223" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G223" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H223">
+        <v>2</v>
+      </c>
+      <c r="I223">
         <v>0</v>
       </c>
-      <c r="I223">
-        <v>1</v>
-      </c>
       <c r="J223" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K223">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M223">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="N223">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O223">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P223">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q223">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R223">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S223">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T223">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V223">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W223">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA223">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB223">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC223">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20362,7 +20362,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7334088</v>
+        <v>7334089</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20374,61 +20374,61 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F224" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G224" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J224" t="s">
         <v>43</v>
       </c>
       <c r="K224">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="L224">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M224">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="N224">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="O224">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P224">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q224">
         <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S224">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T224">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U224">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V224">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y224">
         <v>-1</v>
@@ -20437,13 +20437,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA224">
-        <v>0.4875</v>
+        <v>0.375</v>
       </c>
       <c r="AB224">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20540,7 +20540,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7334089</v>
+        <v>7334088</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20552,61 +20552,61 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G226" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
         <v>43</v>
       </c>
       <c r="K226">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="L226">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M226">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="N226">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O226">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P226">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q226">
         <v>-0.25</v>
       </c>
       <c r="R226">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S226">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T226">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U226">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V226">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y226">
         <v>-1</v>
@@ -20615,13 +20615,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA226">
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="AB226">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC226">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20629,7 +20629,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7333499</v>
+        <v>7333497</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20641,58 +20641,58 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F227" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G227" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" t="s">
         <v>41</v>
       </c>
       <c r="K227">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L227">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M227">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N227">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O227">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P227">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="Q227">
         <v>0</v>
       </c>
       <c r="R227">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S227">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T227">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U227">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V227">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W227">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="X227">
         <v>-1</v>
@@ -20701,16 +20701,16 @@
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AA227">
         <v>-1</v>
       </c>
       <c r="AB227">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC227">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20807,7 +20807,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7333497</v>
+        <v>7333499</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20819,58 +20819,58 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G229" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
         <v>41</v>
       </c>
       <c r="K229">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L229">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M229">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N229">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O229">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P229">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q229">
         <v>0</v>
       </c>
       <c r="R229">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S229">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T229">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V229">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W229">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20879,16 +20879,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC229">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/South Korea K League 1/South Korea K League 1.xlsx
+++ b/South Korea K League 1/South Korea K League 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC229"/>
+  <dimension ref="A1:AC231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6149809</v>
+        <v>6149362</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,13 +2040,13 @@
         <v>44997.1875</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -2055,43 +2055,43 @@
         <v>41</v>
       </c>
       <c r="K18">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="L18">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M18">
-        <v>2.5</v>
+        <v>5.75</v>
       </c>
       <c r="N18">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O18">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S18">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T18">
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2100,16 +2100,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6149362</v>
+        <v>6149809</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,13 +2129,13 @@
         <v>44997.1875</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2144,43 +2144,43 @@
         <v>41</v>
       </c>
       <c r="K19">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="L19">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M19">
-        <v>5.75</v>
+        <v>2.5</v>
       </c>
       <c r="N19">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O19">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S19">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W19">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2189,16 +2189,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6149814</v>
+        <v>6149398</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,19 +2841,19 @@
         <v>45017.1875</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K27">
         <v>2.2</v>
@@ -2865,52 +2865,52 @@
         <v>3.1</v>
       </c>
       <c r="N27">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="O27">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P27">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q27">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
+        <v>1.9</v>
+      </c>
+      <c r="V27">
         <v>1.95</v>
       </c>
-      <c r="V27">
-        <v>1.9</v>
-      </c>
       <c r="W27">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6149398</v>
+        <v>6149814</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,19 +2930,19 @@
         <v>45017.1875</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28">
         <v>2.2</v>
@@ -2954,52 +2954,52 @@
         <v>3.1</v>
       </c>
       <c r="N28">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O28">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P28">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q28">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S28">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
+        <v>1.95</v>
+      </c>
+      <c r="V28">
         <v>1.9</v>
       </c>
-      <c r="V28">
-        <v>1.95</v>
-      </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X28">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
+        <v>1.025</v>
+      </c>
+      <c r="AA28">
+        <v>-1</v>
+      </c>
+      <c r="AB28">
         <v>-0.5</v>
       </c>
-      <c r="AA28">
-        <v>0.4625</v>
-      </c>
-      <c r="AB28">
-        <v>-1</v>
-      </c>
       <c r="AC28">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6149402</v>
+        <v>6149473</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45038.1875</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L45">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
+        <v>3.8</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45">
         <v>3.1</v>
       </c>
-      <c r="N45">
-        <v>2.5</v>
-      </c>
-      <c r="O45">
-        <v>3.4</v>
-      </c>
       <c r="P45">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S45">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC45">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6149473</v>
+        <v>6149402</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,76 +4532,76 @@
         <v>45038.1875</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K46">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L46">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M46">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="N46">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="O46">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q46">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S46">
+        <v>2.05</v>
+      </c>
+      <c r="T46">
+        <v>2.5</v>
+      </c>
+      <c r="U46">
         <v>1.85</v>
       </c>
-      <c r="T46">
-        <v>2.25</v>
-      </c>
-      <c r="U46">
-        <v>1.95</v>
-      </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="X46">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6149368</v>
+        <v>6149403</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45042.3125</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K54">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L54">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M54">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N54">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R54">
+        <v>1.825</v>
+      </c>
+      <c r="S54">
+        <v>2.025</v>
+      </c>
+      <c r="T54">
+        <v>2.75</v>
+      </c>
+      <c r="U54">
+        <v>2</v>
+      </c>
+      <c r="V54">
         <v>1.85</v>
       </c>
-      <c r="S54">
-        <v>2</v>
-      </c>
-      <c r="T54">
-        <v>2.5</v>
-      </c>
-      <c r="U54">
-        <v>1.9</v>
-      </c>
-      <c r="V54">
-        <v>1.95</v>
-      </c>
       <c r="W54">
         <v>-1</v>
       </c>
       <c r="X54">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y54">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6149403</v>
+        <v>6149368</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45042.3125</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K55">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L55">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M55">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="N55">
-        <v>2.45</v>
+        <v>1.833</v>
       </c>
       <c r="O55">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P55">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R55">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T55">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA55">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC55">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6149405</v>
+        <v>6149370</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45051.08333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K62">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L62">
+        <v>3.25</v>
+      </c>
+      <c r="M62">
+        <v>2.5</v>
+      </c>
+      <c r="N62">
+        <v>2.1</v>
+      </c>
+      <c r="O62">
         <v>3.4</v>
       </c>
-      <c r="M62">
-        <v>1.85</v>
-      </c>
-      <c r="N62">
-        <v>3.5</v>
-      </c>
-      <c r="O62">
-        <v>3.5</v>
-      </c>
       <c r="P62">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q62">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S62">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V62">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y62">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB62">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6149370</v>
+        <v>6149405</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,76 +6045,76 @@
         <v>45051.08333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K63">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L63">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M63">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N63">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="O63">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P63">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S63">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T63">
         <v>2.5</v>
       </c>
       <c r="U63">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC63">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6149371</v>
+        <v>6149838</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="I71">
         <v>0</v>
       </c>
-      <c r="I71">
-        <v>3</v>
-      </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L71">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M71">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O71">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P71">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="Q71">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S71">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T71">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA71">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6149838</v>
+        <v>6149839</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H72">
         <v>2</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
         <v>41</v>
       </c>
       <c r="K72">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L72">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M72">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="N72">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O72">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P72">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="Q72">
+        <v>-0.25</v>
+      </c>
+      <c r="R72">
+        <v>1.8</v>
+      </c>
+      <c r="S72">
+        <v>2.05</v>
+      </c>
+      <c r="T72">
+        <v>3</v>
+      </c>
+      <c r="U72">
+        <v>2.025</v>
+      </c>
+      <c r="V72">
+        <v>1.825</v>
+      </c>
+      <c r="W72">
+        <v>1.1</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
+        <v>-1</v>
+      </c>
+      <c r="Z72">
+        <v>0.8</v>
+      </c>
+      <c r="AA72">
+        <v>-1</v>
+      </c>
+      <c r="AB72">
         <v>0</v>
       </c>
-      <c r="R72">
-        <v>1.85</v>
-      </c>
-      <c r="S72">
-        <v>2</v>
-      </c>
-      <c r="T72">
-        <v>2.25</v>
-      </c>
-      <c r="U72">
-        <v>1.85</v>
-      </c>
-      <c r="V72">
-        <v>2</v>
-      </c>
-      <c r="W72">
-        <v>1.45</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>-1</v>
-      </c>
-      <c r="Z72">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA72">
-        <v>-1</v>
-      </c>
-      <c r="AB72">
-        <v>-0.5</v>
-      </c>
       <c r="AC72">
-        <v>0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6149839</v>
+        <v>6149371</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L73">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73">
+        <v>3</v>
+      </c>
+      <c r="P73">
+        <v>2.375</v>
+      </c>
+      <c r="Q73">
+        <v>0.25</v>
+      </c>
+      <c r="R73">
+        <v>1.775</v>
+      </c>
+      <c r="S73">
         <v>2.1</v>
       </c>
-      <c r="O73">
-        <v>3.5</v>
-      </c>
-      <c r="P73">
-        <v>3.4</v>
-      </c>
-      <c r="Q73">
-        <v>-0.25</v>
-      </c>
-      <c r="R73">
+      <c r="T73">
+        <v>2</v>
+      </c>
+      <c r="U73">
         <v>1.8</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>2.05</v>
       </c>
-      <c r="T73">
-        <v>3</v>
-      </c>
-      <c r="U73">
-        <v>2.025</v>
-      </c>
-      <c r="V73">
-        <v>1.825</v>
-      </c>
       <c r="W73">
+        <v>-1</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>1.375</v>
+      </c>
+      <c r="Z73">
+        <v>-1</v>
+      </c>
+      <c r="AA73">
         <v>1.1</v>
       </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>-1</v>
-      </c>
-      <c r="Z73">
+      <c r="AB73">
         <v>0.8</v>
       </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
-      <c r="AB73">
-        <v>0</v>
-      </c>
       <c r="AC73">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6149376</v>
+        <v>6149854</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,58 +9338,58 @@
         <v>45084.29166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>41</v>
       </c>
       <c r="K100">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M100">
+        <v>3.8</v>
+      </c>
+      <c r="N100">
+        <v>1.85</v>
+      </c>
+      <c r="O100">
+        <v>3.6</v>
+      </c>
+      <c r="P100">
         <v>4.2</v>
       </c>
-      <c r="N100">
-        <v>2.05</v>
-      </c>
-      <c r="O100">
-        <v>3.3</v>
-      </c>
-      <c r="P100">
-        <v>3.4</v>
-      </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
+        <v>1.9</v>
+      </c>
+      <c r="S100">
+        <v>1.95</v>
+      </c>
+      <c r="T100">
+        <v>2.5</v>
+      </c>
+      <c r="U100">
+        <v>2.025</v>
+      </c>
+      <c r="V100">
         <v>1.825</v>
       </c>
-      <c r="S100">
-        <v>2.025</v>
-      </c>
-      <c r="T100">
-        <v>2.25</v>
-      </c>
-      <c r="U100">
-        <v>1.85</v>
-      </c>
-      <c r="V100">
-        <v>2</v>
-      </c>
       <c r="W100">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9398,16 +9398,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6149854</v>
+        <v>6149376</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,58 +9427,58 @@
         <v>45084.29166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>41</v>
       </c>
       <c r="K101">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L101">
+        <v>3.5</v>
+      </c>
+      <c r="M101">
+        <v>4.2</v>
+      </c>
+      <c r="N101">
+        <v>2.05</v>
+      </c>
+      <c r="O101">
+        <v>3.3</v>
+      </c>
+      <c r="P101">
         <v>3.4</v>
       </c>
-      <c r="M101">
-        <v>3.8</v>
-      </c>
-      <c r="N101">
+      <c r="Q101">
+        <v>-0.25</v>
+      </c>
+      <c r="R101">
+        <v>1.825</v>
+      </c>
+      <c r="S101">
+        <v>2.025</v>
+      </c>
+      <c r="T101">
+        <v>2.25</v>
+      </c>
+      <c r="U101">
         <v>1.85</v>
       </c>
-      <c r="O101">
-        <v>3.6</v>
-      </c>
-      <c r="P101">
-        <v>4.2</v>
-      </c>
-      <c r="Q101">
-        <v>-0.5</v>
-      </c>
-      <c r="R101">
-        <v>1.9</v>
-      </c>
-      <c r="S101">
-        <v>1.95</v>
-      </c>
-      <c r="T101">
-        <v>2.5</v>
-      </c>
-      <c r="U101">
-        <v>2.025</v>
-      </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W101">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9487,16 +9487,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6149867</v>
+        <v>6149414</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,76 +11296,76 @@
         <v>45114.3125</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K122">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L122">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M122">
+        <v>3.2</v>
+      </c>
+      <c r="N122">
+        <v>2.3</v>
+      </c>
+      <c r="O122">
+        <v>3.3</v>
+      </c>
+      <c r="P122">
+        <v>3</v>
+      </c>
+      <c r="Q122">
+        <v>-0.25</v>
+      </c>
+      <c r="R122">
+        <v>2.05</v>
+      </c>
+      <c r="S122">
+        <v>1.8</v>
+      </c>
+      <c r="T122">
         <v>2.5</v>
       </c>
-      <c r="N122">
-        <v>3.3</v>
-      </c>
-      <c r="O122">
-        <v>3.1</v>
-      </c>
-      <c r="P122">
-        <v>2.2</v>
-      </c>
-      <c r="Q122">
-        <v>0.25</v>
-      </c>
-      <c r="R122">
+      <c r="U122">
+        <v>1.9</v>
+      </c>
+      <c r="V122">
         <v>1.95</v>
       </c>
-      <c r="S122">
-        <v>1.9</v>
-      </c>
-      <c r="T122">
-        <v>2.25</v>
-      </c>
-      <c r="U122">
-        <v>2</v>
-      </c>
-      <c r="V122">
-        <v>1.85</v>
-      </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z122">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB122">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC122">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6149414</v>
+        <v>6149867</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,76 +11385,76 @@
         <v>45114.3125</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H123">
         <v>1</v>
       </c>
       <c r="I123">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K123">
+        <v>2.75</v>
+      </c>
+      <c r="L123">
+        <v>3.1</v>
+      </c>
+      <c r="M123">
+        <v>2.5</v>
+      </c>
+      <c r="N123">
+        <v>3.3</v>
+      </c>
+      <c r="O123">
+        <v>3.1</v>
+      </c>
+      <c r="P123">
+        <v>2.2</v>
+      </c>
+      <c r="Q123">
+        <v>0.25</v>
+      </c>
+      <c r="R123">
+        <v>1.95</v>
+      </c>
+      <c r="S123">
+        <v>1.9</v>
+      </c>
+      <c r="T123">
+        <v>2.25</v>
+      </c>
+      <c r="U123">
+        <v>2</v>
+      </c>
+      <c r="V123">
+        <v>1.85</v>
+      </c>
+      <c r="W123">
+        <v>-1</v>
+      </c>
+      <c r="X123">
         <v>2.1</v>
       </c>
-      <c r="L123">
-        <v>3.4</v>
-      </c>
-      <c r="M123">
-        <v>3.2</v>
-      </c>
-      <c r="N123">
-        <v>2.3</v>
-      </c>
-      <c r="O123">
-        <v>3.3</v>
-      </c>
-      <c r="P123">
-        <v>3</v>
-      </c>
-      <c r="Q123">
-        <v>-0.25</v>
-      </c>
-      <c r="R123">
-        <v>2.05</v>
-      </c>
-      <c r="S123">
-        <v>1.8</v>
-      </c>
-      <c r="T123">
-        <v>2.5</v>
-      </c>
-      <c r="U123">
-        <v>1.9</v>
-      </c>
-      <c r="V123">
-        <v>1.95</v>
-      </c>
-      <c r="W123">
-        <v>-1</v>
-      </c>
-      <c r="X123">
-        <v>-1</v>
-      </c>
       <c r="Y123">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA123">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB123">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6149871</v>
+        <v>6149872</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45119.3125</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K131">
+        <v>1.55</v>
+      </c>
+      <c r="L131">
+        <v>3.75</v>
+      </c>
+      <c r="M131">
+        <v>5.25</v>
+      </c>
+      <c r="N131">
+        <v>1.55</v>
+      </c>
+      <c r="O131">
         <v>4</v>
       </c>
-      <c r="L131">
-        <v>3.3</v>
-      </c>
-      <c r="M131">
-        <v>1.909</v>
-      </c>
-      <c r="N131">
-        <v>4.5</v>
-      </c>
-      <c r="O131">
-        <v>3.3</v>
-      </c>
       <c r="P131">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R131">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X131">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC131">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6149872</v>
+        <v>6149381</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,73 +12186,73 @@
         <v>45119.3125</v>
       </c>
       <c r="F132" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H132">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I132">
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K132">
-        <v>1.55</v>
+        <v>3.4</v>
       </c>
       <c r="L132">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M132">
-        <v>5.25</v>
+        <v>2.05</v>
       </c>
       <c r="N132">
-        <v>1.55</v>
+        <v>3.25</v>
       </c>
       <c r="O132">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P132">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q132">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T132">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V132">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W132">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB132">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6149381</v>
+        <v>6149871</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,55 +12275,55 @@
         <v>45119.3125</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
         <v>43</v>
       </c>
       <c r="K133">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L133">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M133">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="N133">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="O133">
         <v>3.3</v>
       </c>
       <c r="P133">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="Q133">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S133">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T133">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U133">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12335,16 +12335,16 @@
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.4875</v>
+        <v>1.025</v>
       </c>
       <c r="AA133">
+        <v>-1</v>
+      </c>
+      <c r="AB133">
         <v>-0.5</v>
       </c>
-      <c r="AB133">
-        <v>1</v>
-      </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6149887</v>
+        <v>6149886</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,76 +14500,76 @@
         <v>45156.3125</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G158" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K158">
+        <v>2.9</v>
+      </c>
+      <c r="L158">
+        <v>3.25</v>
+      </c>
+      <c r="M158">
+        <v>2.2</v>
+      </c>
+      <c r="N158">
+        <v>2.75</v>
+      </c>
+      <c r="O158">
+        <v>3.2</v>
+      </c>
+      <c r="P158">
         <v>2.375</v>
-      </c>
-      <c r="L158">
-        <v>3</v>
-      </c>
-      <c r="M158">
-        <v>2.8</v>
-      </c>
-      <c r="N158">
-        <v>2.625</v>
-      </c>
-      <c r="O158">
-        <v>3</v>
-      </c>
-      <c r="P158">
-        <v>2.7</v>
       </c>
       <c r="Q158">
         <v>0</v>
       </c>
       <c r="R158">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="S158">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T158">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U158">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V158">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="X158">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA158">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6149886</v>
+        <v>6149887</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,76 +14589,76 @@
         <v>45156.3125</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K159">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="L159">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M159">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N159">
-        <v>2.75</v>
+        <v>2.625</v>
       </c>
       <c r="O159">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P159">
-        <v>2.375</v>
+        <v>2.7</v>
       </c>
       <c r="Q159">
         <v>0</v>
       </c>
       <c r="R159">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="S159">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T159">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U159">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V159">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W159">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC159">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -16802,7 +16802,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6323587</v>
+        <v>6323586</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16814,55 +16814,55 @@
         <v>45193.08333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G184" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J184" t="s">
         <v>42</v>
       </c>
       <c r="K184">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="L184">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M184">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="N184">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O184">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P184">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q184">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R184">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S184">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T184">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U184">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V184">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W184">
         <v>-1</v>
@@ -16871,19 +16871,19 @@
         <v>-1</v>
       </c>
       <c r="Y184">
-        <v>1.7</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA184">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC184">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16891,7 +16891,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6323586</v>
+        <v>6323587</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16903,76 +16903,76 @@
         <v>45193.08333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G185" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
         <v>42</v>
       </c>
       <c r="K185">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="L185">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M185">
+        <v>2.45</v>
+      </c>
+      <c r="N185">
+        <v>2.6</v>
+      </c>
+      <c r="O185">
+        <v>3.3</v>
+      </c>
+      <c r="P185">
+        <v>2.7</v>
+      </c>
+      <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="R185">
+        <v>1.875</v>
+      </c>
+      <c r="S185">
+        <v>1.975</v>
+      </c>
+      <c r="T185">
+        <v>2.25</v>
+      </c>
+      <c r="U185">
+        <v>1.975</v>
+      </c>
+      <c r="V185">
+        <v>1.875</v>
+      </c>
+      <c r="W185">
+        <v>-1</v>
+      </c>
+      <c r="X185">
+        <v>-1</v>
+      </c>
+      <c r="Y185">
         <v>1.7</v>
       </c>
-      <c r="N185">
-        <v>4.75</v>
-      </c>
-      <c r="O185">
-        <v>4</v>
-      </c>
-      <c r="P185">
-        <v>1.666</v>
-      </c>
-      <c r="Q185">
-        <v>0.75</v>
-      </c>
-      <c r="R185">
-        <v>2.025</v>
-      </c>
-      <c r="S185">
-        <v>1.825</v>
-      </c>
-      <c r="T185">
-        <v>3.25</v>
-      </c>
-      <c r="U185">
-        <v>2.05</v>
-      </c>
-      <c r="V185">
-        <v>1.8</v>
-      </c>
-      <c r="W185">
-        <v>-1</v>
-      </c>
-      <c r="X185">
-        <v>-1</v>
-      </c>
-      <c r="Y185">
-        <v>0.6659999999999999</v>
-      </c>
       <c r="Z185">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB185">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -17158,7 +17158,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6353260</v>
+        <v>6353261</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17170,76 +17170,76 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G188" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>43</v>
       </c>
       <c r="K188">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="L188">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M188">
+        <v>2</v>
+      </c>
+      <c r="N188">
+        <v>3.75</v>
+      </c>
+      <c r="O188">
+        <v>3.8</v>
+      </c>
+      <c r="P188">
+        <v>1.85</v>
+      </c>
+      <c r="Q188">
+        <v>0.5</v>
+      </c>
+      <c r="R188">
+        <v>2.025</v>
+      </c>
+      <c r="S188">
+        <v>1.825</v>
+      </c>
+      <c r="T188">
+        <v>2.75</v>
+      </c>
+      <c r="U188">
+        <v>1.825</v>
+      </c>
+      <c r="V188">
+        <v>2.025</v>
+      </c>
+      <c r="W188">
+        <v>-1</v>
+      </c>
+      <c r="X188">
         <v>2.8</v>
       </c>
-      <c r="N188">
-        <v>2.55</v>
-      </c>
-      <c r="O188">
-        <v>3.4</v>
-      </c>
-      <c r="P188">
-        <v>2.625</v>
-      </c>
-      <c r="Q188">
-        <v>0</v>
-      </c>
-      <c r="R188">
-        <v>1.825</v>
-      </c>
-      <c r="S188">
-        <v>2.025</v>
-      </c>
-      <c r="T188">
-        <v>2.5</v>
-      </c>
-      <c r="U188">
-        <v>2.025</v>
-      </c>
-      <c r="V188">
-        <v>1.825</v>
-      </c>
-      <c r="W188">
-        <v>-1</v>
-      </c>
-      <c r="X188">
-        <v>2.4</v>
-      </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA188">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17247,7 +17247,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6353261</v>
+        <v>6353260</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17259,76 +17259,76 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J189" t="s">
         <v>43</v>
       </c>
       <c r="K189">
+        <v>2.375</v>
+      </c>
+      <c r="L189">
+        <v>3.5</v>
+      </c>
+      <c r="M189">
+        <v>2.8</v>
+      </c>
+      <c r="N189">
+        <v>2.55</v>
+      </c>
+      <c r="O189">
         <v>3.4</v>
       </c>
-      <c r="L189">
-        <v>3.6</v>
-      </c>
-      <c r="M189">
-        <v>2</v>
-      </c>
-      <c r="N189">
-        <v>3.75</v>
-      </c>
-      <c r="O189">
-        <v>3.8</v>
-      </c>
       <c r="P189">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q189">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R189">
+        <v>1.825</v>
+      </c>
+      <c r="S189">
         <v>2.025</v>
       </c>
-      <c r="S189">
+      <c r="T189">
+        <v>2.5</v>
+      </c>
+      <c r="U189">
+        <v>2.025</v>
+      </c>
+      <c r="V189">
         <v>1.825</v>
       </c>
-      <c r="T189">
-        <v>2.75</v>
-      </c>
-      <c r="U189">
-        <v>1.825</v>
-      </c>
-      <c r="V189">
-        <v>2.025</v>
-      </c>
       <c r="W189">
         <v>-1</v>
       </c>
       <c r="X189">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA189">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17692,7 +17692,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6384126</v>
+        <v>6387791</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17704,76 +17704,76 @@
         <v>45207.125</v>
       </c>
       <c r="F194" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G194" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K194">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="L194">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M194">
-        <v>1.909</v>
+        <v>2.875</v>
       </c>
       <c r="N194">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="O194">
         <v>3.3</v>
       </c>
       <c r="P194">
-        <v>1.95</v>
+        <v>2.8</v>
       </c>
       <c r="Q194">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R194">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S194">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T194">
         <v>2.5</v>
       </c>
       <c r="U194">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="V194">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W194">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z194">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>0.7749999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17781,7 +17781,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6388625</v>
+        <v>6384418</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17793,76 +17793,76 @@
         <v>45207.125</v>
       </c>
       <c r="F195" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G195" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I195">
         <v>0</v>
       </c>
       <c r="J195" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K195">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L195">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M195">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N195">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O195">
         <v>3.4</v>
       </c>
       <c r="P195">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q195">
         <v>-0.5</v>
       </c>
       <c r="R195">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S195">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U195">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V195">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W195">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X195">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA195">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB195">
         <v>-1</v>
       </c>
       <c r="AC195">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17870,7 +17870,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6387791</v>
+        <v>6384127</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17882,76 +17882,76 @@
         <v>45207.125</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G196" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196">
         <v>0</v>
       </c>
-      <c r="I196">
-        <v>2</v>
-      </c>
       <c r="J196" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K196">
         <v>2.375</v>
       </c>
       <c r="L196">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M196">
         <v>2.875</v>
       </c>
       <c r="N196">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O196">
         <v>3.3</v>
       </c>
       <c r="P196">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q196">
         <v>0</v>
       </c>
       <c r="R196">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S196">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T196">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V196">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W196">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X196">
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z196">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA196">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB196">
         <v>-1</v>
       </c>
       <c r="AC196">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17959,7 +17959,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6384127</v>
+        <v>6384126</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17971,10 +17971,10 @@
         <v>45207.125</v>
       </c>
       <c r="F197" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G197" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H197">
         <v>1</v>
@@ -17986,43 +17986,43 @@
         <v>41</v>
       </c>
       <c r="K197">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L197">
         <v>3.4</v>
       </c>
       <c r="M197">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="N197">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="O197">
         <v>3.3</v>
       </c>
       <c r="P197">
-        <v>2.625</v>
+        <v>1.95</v>
       </c>
       <c r="Q197">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R197">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S197">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T197">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U197">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V197">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W197">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="X197">
         <v>-1</v>
@@ -18031,7 +18031,7 @@
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA197">
         <v>-1</v>
@@ -18040,7 +18040,7 @@
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18137,7 +18137,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6384418</v>
+        <v>6388625</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18149,76 +18149,76 @@
         <v>45207.125</v>
       </c>
       <c r="F199" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G199" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199">
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K199">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L199">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M199">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N199">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O199">
         <v>3.4</v>
       </c>
       <c r="P199">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q199">
         <v>-0.5</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S199">
+        <v>1.825</v>
+      </c>
+      <c r="T199">
+        <v>2.5</v>
+      </c>
+      <c r="U199">
+        <v>2</v>
+      </c>
+      <c r="V199">
         <v>1.85</v>
       </c>
-      <c r="T199">
-        <v>2.25</v>
-      </c>
-      <c r="U199">
-        <v>1.925</v>
-      </c>
-      <c r="V199">
-        <v>1.925</v>
-      </c>
       <c r="W199">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X199">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y199">
         <v>-1</v>
       </c>
       <c r="Z199">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA199">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB199">
         <v>-1</v>
       </c>
       <c r="AC199">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18849,7 +18849,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7334079</v>
+        <v>7333490</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18861,76 +18861,76 @@
         <v>45227.1875</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G207" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K207">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L207">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M207">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="N207">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="O207">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P207">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q207">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R207">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S207">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T207">
         <v>2.25</v>
       </c>
       <c r="U207">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V207">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB207">
         <v>-0.5</v>
       </c>
       <c r="AC207">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18938,7 +18938,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7333490</v>
+        <v>7334079</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18950,76 +18950,76 @@
         <v>45227.1875</v>
       </c>
       <c r="F208" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G208" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H208">
+        <v>1</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="J208" t="s">
+        <v>43</v>
+      </c>
+      <c r="K208">
+        <v>2.625</v>
+      </c>
+      <c r="L208">
+        <v>3.2</v>
+      </c>
+      <c r="M208">
+        <v>2.7</v>
+      </c>
+      <c r="N208">
+        <v>2.8</v>
+      </c>
+      <c r="O208">
+        <v>3.1</v>
+      </c>
+      <c r="P208">
+        <v>2.6</v>
+      </c>
+      <c r="Q208">
         <v>0</v>
       </c>
-      <c r="I208">
-        <v>2</v>
-      </c>
-      <c r="J208" t="s">
-        <v>42</v>
-      </c>
-      <c r="K208">
-        <v>2.15</v>
-      </c>
-      <c r="L208">
-        <v>3.25</v>
-      </c>
-      <c r="M208">
-        <v>3.4</v>
-      </c>
-      <c r="N208">
-        <v>1.6</v>
-      </c>
-      <c r="O208">
-        <v>3.75</v>
-      </c>
-      <c r="P208">
-        <v>5.75</v>
-      </c>
-      <c r="Q208">
-        <v>-0.75</v>
-      </c>
       <c r="R208">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S208">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T208">
         <v>2.25</v>
       </c>
       <c r="U208">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V208">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y208">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA208">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB208">
         <v>-0.5</v>
       </c>
       <c r="AC208">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19383,7 +19383,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7334083</v>
+        <v>7334075</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19395,76 +19395,76 @@
         <v>45241.1875</v>
       </c>
       <c r="F213" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G213" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="s">
         <v>43</v>
       </c>
       <c r="K213">
+        <v>2.625</v>
+      </c>
+      <c r="L213">
+        <v>3.2</v>
+      </c>
+      <c r="M213">
         <v>2.7</v>
       </c>
-      <c r="L213">
-        <v>3.3</v>
-      </c>
-      <c r="M213">
-        <v>2.55</v>
-      </c>
       <c r="N213">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="O213">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P213">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="Q213">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R213">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S213">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T213">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U213">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V213">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W213">
         <v>-1</v>
       </c>
       <c r="X213">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Y213">
         <v>-1</v>
       </c>
       <c r="Z213">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA213">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB213">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC213">
-        <v>1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="214" spans="1:29">
@@ -19472,7 +19472,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>7334075</v>
+        <v>7334083</v>
       </c>
       <c r="C214" t="s">
         <v>28</v>
@@ -19484,76 +19484,76 @@
         <v>45241.1875</v>
       </c>
       <c r="F214" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G214" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="s">
         <v>43</v>
       </c>
       <c r="K214">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="L214">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M214">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="N214">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="O214">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P214">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="Q214">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R214">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S214">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T214">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U214">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V214">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W214">
         <v>-1</v>
       </c>
       <c r="X214">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="Y214">
         <v>-1</v>
       </c>
       <c r="Z214">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA214">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB214">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC214">
-        <v>0.4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:29">
@@ -19561,7 +19561,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7333492</v>
+        <v>7334084</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19573,76 +19573,76 @@
         <v>45242.08333333334</v>
       </c>
       <c r="F215" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G215" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J215" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K215">
+        <v>2.15</v>
+      </c>
+      <c r="L215">
+        <v>3.5</v>
+      </c>
+      <c r="M215">
+        <v>3.2</v>
+      </c>
+      <c r="N215">
+        <v>2.55</v>
+      </c>
+      <c r="O215">
+        <v>3.4</v>
+      </c>
+      <c r="P215">
+        <v>2.625</v>
+      </c>
+      <c r="Q215">
+        <v>0</v>
+      </c>
+      <c r="R215">
+        <v>1.875</v>
+      </c>
+      <c r="S215">
+        <v>1.975</v>
+      </c>
+      <c r="T215">
         <v>2.75</v>
       </c>
-      <c r="L215">
-        <v>3.2</v>
-      </c>
-      <c r="M215">
-        <v>2.6</v>
-      </c>
-      <c r="N215">
-        <v>3.2</v>
-      </c>
-      <c r="O215">
-        <v>3.25</v>
-      </c>
-      <c r="P215">
-        <v>2.25</v>
-      </c>
-      <c r="Q215">
-        <v>0.25</v>
-      </c>
-      <c r="R215">
-        <v>1.85</v>
-      </c>
-      <c r="S215">
-        <v>2</v>
-      </c>
-      <c r="T215">
-        <v>2.25</v>
-      </c>
       <c r="U215">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V215">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y215">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z215">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA215">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB215">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC215">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19650,7 +19650,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7334084</v>
+        <v>7333492</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19662,76 +19662,76 @@
         <v>45242.08333333334</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G216" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J216" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K216">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L216">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M216">
+        <v>2.6</v>
+      </c>
+      <c r="N216">
         <v>3.2</v>
       </c>
-      <c r="N216">
-        <v>2.55</v>
-      </c>
       <c r="O216">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P216">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q216">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R216">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S216">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T216">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U216">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V216">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y216">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z216">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA216">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB216">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC216">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -20095,7 +20095,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7333496</v>
+        <v>7334086</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20107,13 +20107,13 @@
         <v>45255.1875</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G221" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I221">
         <v>0</v>
@@ -20122,16 +20122,16 @@
         <v>41</v>
       </c>
       <c r="K221">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="L221">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M221">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N221">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="O221">
         <v>3.3</v>
@@ -20140,25 +20140,25 @@
         <v>3.6</v>
       </c>
       <c r="Q221">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R221">
+        <v>2.05</v>
+      </c>
+      <c r="S221">
         <v>1.8</v>
-      </c>
-      <c r="S221">
-        <v>2.05</v>
       </c>
       <c r="T221">
         <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V221">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W221">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20167,16 +20167,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA221">
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC221">
-        <v>0.875</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20273,7 +20273,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7334086</v>
+        <v>7333496</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20285,13 +20285,13 @@
         <v>45255.1875</v>
       </c>
       <c r="F223" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G223" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223">
         <v>0</v>
@@ -20300,16 +20300,16 @@
         <v>41</v>
       </c>
       <c r="K223">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L223">
+        <v>3.4</v>
+      </c>
+      <c r="M223">
         <v>3.6</v>
       </c>
-      <c r="M223">
-        <v>3.3</v>
-      </c>
       <c r="N223">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O223">
         <v>3.3</v>
@@ -20318,25 +20318,25 @@
         <v>3.6</v>
       </c>
       <c r="Q223">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R223">
+        <v>1.8</v>
+      </c>
+      <c r="S223">
         <v>2.05</v>
-      </c>
-      <c r="S223">
-        <v>1.8</v>
       </c>
       <c r="T223">
         <v>2.25</v>
       </c>
       <c r="U223">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V223">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W223">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="X223">
         <v>-1</v>
@@ -20345,16 +20345,16 @@
         <v>-1</v>
       </c>
       <c r="Z223">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA223">
         <v>-1</v>
       </c>
       <c r="AB223">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC223">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20362,7 +20362,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7334089</v>
+        <v>7334088</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20374,61 +20374,61 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F224" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G224" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J224" t="s">
         <v>43</v>
       </c>
       <c r="K224">
-        <v>2.35</v>
+        <v>2.75</v>
       </c>
       <c r="L224">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M224">
-        <v>2.7</v>
+        <v>2.375</v>
       </c>
       <c r="N224">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="O224">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P224">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q224">
         <v>-0.25</v>
       </c>
       <c r="R224">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S224">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T224">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U224">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V224">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W224">
         <v>-1</v>
       </c>
       <c r="X224">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y224">
         <v>-1</v>
@@ -20437,13 +20437,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA224">
-        <v>0.375</v>
+        <v>0.4875</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC224">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20451,7 +20451,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7334090</v>
+        <v>7334089</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20463,49 +20463,49 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G225" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I225">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" t="s">
         <v>43</v>
       </c>
       <c r="K225">
+        <v>2.35</v>
+      </c>
+      <c r="L225">
+        <v>3.75</v>
+      </c>
+      <c r="M225">
+        <v>2.7</v>
+      </c>
+      <c r="N225">
         <v>2.4</v>
       </c>
-      <c r="L225">
-        <v>3.3</v>
-      </c>
-      <c r="M225">
+      <c r="O225">
+        <v>3.5</v>
+      </c>
+      <c r="P225">
         <v>2.875</v>
       </c>
-      <c r="N225">
-        <v>2.5</v>
-      </c>
-      <c r="O225">
-        <v>3.25</v>
-      </c>
-      <c r="P225">
-        <v>2.8</v>
-      </c>
       <c r="Q225">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R225">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S225">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="T225">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U225">
         <v>1.85</v>
@@ -20517,16 +20517,16 @@
         <v>-1</v>
       </c>
       <c r="X225">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA225">
-        <v>-0</v>
+        <v>0.375</v>
       </c>
       <c r="AB225">
         <v>-1</v>
@@ -20540,7 +20540,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>7334088</v>
+        <v>7334090</v>
       </c>
       <c r="C226" t="s">
         <v>28</v>
@@ -20552,76 +20552,76 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G226" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J226" t="s">
         <v>43</v>
       </c>
       <c r="K226">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="L226">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M226">
-        <v>2.375</v>
+        <v>2.875</v>
       </c>
       <c r="N226">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O226">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P226">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q226">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R226">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S226">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="T226">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U226">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V226">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W226">
         <v>-1</v>
       </c>
       <c r="X226">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="Y226">
         <v>-1</v>
       </c>
       <c r="Z226">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA226">
-        <v>0.4875</v>
+        <v>-0</v>
       </c>
       <c r="AB226">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC226">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:29">
@@ -20629,7 +20629,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>7333497</v>
+        <v>7333498</v>
       </c>
       <c r="C227" t="s">
         <v>28</v>
@@ -20641,76 +20641,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F227" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G227" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227">
         <v>0</v>
       </c>
       <c r="J227" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K227">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L227">
+        <v>3.4</v>
+      </c>
+      <c r="M227">
+        <v>3.3</v>
+      </c>
+      <c r="N227">
+        <v>1.8</v>
+      </c>
+      <c r="O227">
         <v>3.5</v>
       </c>
-      <c r="M227">
-        <v>2.9</v>
-      </c>
-      <c r="N227">
-        <v>2.6</v>
-      </c>
-      <c r="O227">
-        <v>3.4</v>
-      </c>
       <c r="P227">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="Q227">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R227">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S227">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T227">
         <v>2.5</v>
       </c>
       <c r="U227">
+        <v>2.025</v>
+      </c>
+      <c r="V227">
         <v>1.825</v>
       </c>
-      <c r="V227">
-        <v>2.025</v>
-      </c>
       <c r="W227">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X227">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y227">
         <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB227">
         <v>-1</v>
       </c>
       <c r="AC227">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="228" spans="1:29">
@@ -20718,7 +20718,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7333498</v>
+        <v>7333499</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20730,76 +20730,76 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G228" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H228">
+        <v>2</v>
+      </c>
+      <c r="I228">
+        <v>1</v>
+      </c>
+      <c r="J228" t="s">
+        <v>41</v>
+      </c>
+      <c r="K228">
+        <v>2.55</v>
+      </c>
+      <c r="L228">
+        <v>3.3</v>
+      </c>
+      <c r="M228">
+        <v>2.7</v>
+      </c>
+      <c r="N228">
+        <v>2.8</v>
+      </c>
+      <c r="O228">
+        <v>3.3</v>
+      </c>
+      <c r="P228">
+        <v>2.45</v>
+      </c>
+      <c r="Q228">
         <v>0</v>
       </c>
-      <c r="I228">
-        <v>0</v>
-      </c>
-      <c r="J228" t="s">
-        <v>43</v>
-      </c>
-      <c r="K228">
-        <v>2</v>
-      </c>
-      <c r="L228">
-        <v>3.4</v>
-      </c>
-      <c r="M228">
-        <v>3.3</v>
-      </c>
-      <c r="N228">
+      <c r="R228">
+        <v>2.1</v>
+      </c>
+      <c r="S228">
+        <v>1.775</v>
+      </c>
+      <c r="T228">
+        <v>2.25</v>
+      </c>
+      <c r="U228">
+        <v>1.875</v>
+      </c>
+      <c r="V228">
+        <v>1.975</v>
+      </c>
+      <c r="W228">
         <v>1.8</v>
       </c>
-      <c r="O228">
-        <v>3.5</v>
-      </c>
-      <c r="P228">
-        <v>4</v>
-      </c>
-      <c r="Q228">
-        <v>-0.5</v>
-      </c>
-      <c r="R228">
-        <v>1.8</v>
-      </c>
-      <c r="S228">
-        <v>2.05</v>
-      </c>
-      <c r="T228">
-        <v>2.5</v>
-      </c>
-      <c r="U228">
-        <v>2.025</v>
-      </c>
-      <c r="V228">
-        <v>1.825</v>
-      </c>
-      <c r="W228">
-        <v>-1</v>
-      </c>
       <c r="X228">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y228">
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA228">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB228">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC228">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20807,7 +20807,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7333499</v>
+        <v>7333497</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20819,76 +20819,224 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G229" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J229" t="s">
         <v>41</v>
       </c>
       <c r="K229">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L229">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M229">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N229">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O229">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P229">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="Q229">
         <v>0</v>
       </c>
       <c r="R229">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S229">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T229">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U229">
+        <v>1.825</v>
+      </c>
+      <c r="V229">
+        <v>2.025</v>
+      </c>
+      <c r="W229">
+        <v>1.6</v>
+      </c>
+      <c r="X229">
+        <v>-1</v>
+      </c>
+      <c r="Y229">
+        <v>-1</v>
+      </c>
+      <c r="Z229">
+        <v>0.925</v>
+      </c>
+      <c r="AA229">
+        <v>-1</v>
+      </c>
+      <c r="AB229">
+        <v>-1</v>
+      </c>
+      <c r="AC229">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>7715257</v>
+      </c>
+      <c r="C230" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45352.08333333334</v>
+      </c>
+      <c r="F230" t="s">
+        <v>29</v>
+      </c>
+      <c r="G230" t="s">
+        <v>33</v>
+      </c>
+      <c r="K230">
+        <v>1.833</v>
+      </c>
+      <c r="L230">
+        <v>3.6</v>
+      </c>
+      <c r="M230">
+        <v>4</v>
+      </c>
+      <c r="N230">
+        <v>1.833</v>
+      </c>
+      <c r="O230">
+        <v>3.6</v>
+      </c>
+      <c r="P230">
+        <v>4</v>
+      </c>
+      <c r="Q230">
+        <v>-0.5</v>
+      </c>
+      <c r="R230">
+        <v>1.825</v>
+      </c>
+      <c r="S230">
+        <v>2.025</v>
+      </c>
+      <c r="T230">
+        <v>2.5</v>
+      </c>
+      <c r="U230">
         <v>1.875</v>
       </c>
-      <c r="V229">
+      <c r="V230">
         <v>1.975</v>
       </c>
-      <c r="W229">
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>7715258</v>
+      </c>
+      <c r="C231" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45352.1875</v>
+      </c>
+      <c r="F231" t="s">
+        <v>38</v>
+      </c>
+      <c r="G231" t="s">
+        <v>34</v>
+      </c>
+      <c r="K231">
         <v>1.8</v>
       </c>
-      <c r="X229">
-        <v>-1</v>
-      </c>
-      <c r="Y229">
-        <v>-1</v>
-      </c>
-      <c r="Z229">
-        <v>1.1</v>
-      </c>
-      <c r="AA229">
-        <v>-1</v>
-      </c>
-      <c r="AB229">
-        <v>0.875</v>
-      </c>
-      <c r="AC229">
-        <v>-1</v>
+      <c r="L231">
+        <v>3.75</v>
+      </c>
+      <c r="M231">
+        <v>4.2</v>
+      </c>
+      <c r="N231">
+        <v>1.8</v>
+      </c>
+      <c r="O231">
+        <v>3.75</v>
+      </c>
+      <c r="P231">
+        <v>4.2</v>
+      </c>
+      <c r="Q231">
+        <v>-0.75</v>
+      </c>
+      <c r="R231">
+        <v>2.025</v>
+      </c>
+      <c r="S231">
+        <v>1.825</v>
+      </c>
+      <c r="T231">
+        <v>2.5</v>
+      </c>
+      <c r="U231">
+        <v>1.85</v>
+      </c>
+      <c r="V231">
+        <v>2</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/South Korea K League 1/South Korea K League 1.xlsx
+++ b/South Korea K League 1/South Korea K League 1.xlsx
@@ -106,10 +106,10 @@
     <t>Ulsan Hyundai</t>
   </si>
   <si>
-    <t>FC Seoul</t>
+    <t>Suwon Bluewings</t>
   </si>
   <si>
-    <t>Suwon Bluewings</t>
+    <t>FC Seoul</t>
   </si>
   <si>
     <t>Jeju United</t>
@@ -121,10 +121,10 @@
     <t>Daejeon Hana Citizen</t>
   </si>
   <si>
-    <t>Incheon Utd</t>
+    <t>Suwon FC</t>
   </si>
   <si>
-    <t>Suwon FC</t>
+    <t>Incheon Utd</t>
   </si>
   <si>
     <t>Daegu FC</t>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6149800</v>
+        <v>6149801</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,43 +708,43 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>2.15</v>
       </c>
       <c r="L3">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M3">
         <v>3.4</v>
       </c>
       <c r="N3">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O3">
         <v>3.1</v>
       </c>
       <c r="P3">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q3">
         <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S3">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T3">
         <v>2</v>
@@ -756,25 +756,25 @@
         <v>2.05</v>
       </c>
       <c r="W3">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB3">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6149801</v>
+        <v>6149800</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,43 +797,43 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
         <v>2.15</v>
       </c>
       <c r="L4">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M4">
         <v>3.4</v>
       </c>
       <c r="N4">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O4">
         <v>3.1</v>
       </c>
       <c r="P4">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q4">
         <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T4">
         <v>2</v>
@@ -845,25 +845,25 @@
         <v>2.05</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6149804</v>
+        <v>6149805</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,70 +1153,70 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M8">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="N8">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T8">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z8">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB8">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6149805</v>
+        <v>6149804</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,70 +1242,70 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9">
+        <v>2.3</v>
+      </c>
+      <c r="L9">
         <v>3.2</v>
       </c>
-      <c r="L9">
-        <v>3.3</v>
-      </c>
       <c r="M9">
+        <v>2.875</v>
+      </c>
+      <c r="N9">
+        <v>2.3</v>
+      </c>
+      <c r="O9">
+        <v>3.2</v>
+      </c>
+      <c r="P9">
+        <v>2.875</v>
+      </c>
+      <c r="Q9">
+        <v>-0.25</v>
+      </c>
+      <c r="R9">
         <v>2.1</v>
       </c>
-      <c r="N9">
-        <v>3.25</v>
-      </c>
-      <c r="O9">
-        <v>3.4</v>
-      </c>
-      <c r="P9">
-        <v>2.1</v>
-      </c>
-      <c r="Q9">
-        <v>0.25</v>
-      </c>
-      <c r="R9">
-        <v>1.95</v>
-      </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y9">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA9">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB9">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1598,7 +1598,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>44996.08333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1951,7 +1951,7 @@
         <v>44997.08333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
         <v>29</v>
@@ -2129,7 +2129,7 @@
         <v>44997.1875</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
         <v>32</v>
@@ -2221,7 +2221,7 @@
         <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -2399,7 +2399,7 @@
         <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2473,7 +2473,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6149813</v>
+        <v>6149363</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2485,76 +2485,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P23">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q23">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R23">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
+        <v>2.025</v>
+      </c>
+      <c r="V23">
         <v>1.825</v>
       </c>
-      <c r="V23">
-        <v>2.025</v>
-      </c>
       <c r="W23">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA23">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
+        <v>-1</v>
+      </c>
+      <c r="AC23">
         <v>0.825</v>
-      </c>
-      <c r="AC23">
-        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6149363</v>
+        <v>6149813</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K24">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="O24">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S24">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
+        <v>1.825</v>
+      </c>
+      <c r="V24">
         <v>2.025</v>
       </c>
-      <c r="V24">
-        <v>1.825</v>
-      </c>
       <c r="W24">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC24">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2666,7 +2666,7 @@
         <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2841,7 +2841,7 @@
         <v>45017.1875</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -2933,7 +2933,7 @@
         <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3022,7 +3022,7 @@
         <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -3197,7 +3197,7 @@
         <v>45018.1875</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
         <v>39</v>
@@ -3289,7 +3289,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3375,7 +3375,7 @@
         <v>45024.1875</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -3553,7 +3553,7 @@
         <v>45025.125</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G35" t="s">
         <v>34</v>
@@ -3645,7 +3645,7 @@
         <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3820,7 +3820,7 @@
         <v>45031.08333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
         <v>32</v>
@@ -3912,7 +3912,7 @@
         <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3998,7 +3998,7 @@
         <v>45031.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
         <v>38</v>
@@ -4090,7 +4090,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4354,10 +4354,10 @@
         <v>45038.08333333334</v>
       </c>
       <c r="F44" t="s">
+        <v>31</v>
+      </c>
+      <c r="G44" t="s">
         <v>30</v>
-      </c>
-      <c r="G44" t="s">
-        <v>31</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4621,10 +4621,10 @@
         <v>45038.29166666666</v>
       </c>
       <c r="F47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" t="s">
         <v>35</v>
-      </c>
-      <c r="G47" t="s">
-        <v>36</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4891,7 +4891,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4977,7 +4977,7 @@
         <v>45041.3125</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
         <v>29</v>
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6149828</v>
+        <v>6149829</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,76 +5066,76 @@
         <v>45042.29166666666</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52">
+        <v>3.1</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <v>2.4</v>
+      </c>
+      <c r="N52">
+        <v>2.9</v>
+      </c>
+      <c r="O52">
+        <v>3.1</v>
+      </c>
+      <c r="P52">
+        <v>2.55</v>
+      </c>
+      <c r="Q52">
         <v>0</v>
       </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52" t="s">
-        <v>42</v>
-      </c>
-      <c r="K52">
-        <v>2.5</v>
-      </c>
-      <c r="L52">
-        <v>3.1</v>
-      </c>
-      <c r="M52">
-        <v>2.875</v>
-      </c>
-      <c r="N52">
-        <v>2.2</v>
-      </c>
-      <c r="O52">
-        <v>3.4</v>
-      </c>
-      <c r="P52">
-        <v>3.1</v>
-      </c>
-      <c r="Q52">
-        <v>-0.25</v>
-      </c>
       <c r="R52">
+        <v>2.1</v>
+      </c>
+      <c r="S52">
+        <v>1.775</v>
+      </c>
+      <c r="T52">
+        <v>2</v>
+      </c>
+      <c r="U52">
+        <v>1.8</v>
+      </c>
+      <c r="V52">
+        <v>2.05</v>
+      </c>
+      <c r="W52">
         <v>1.9</v>
       </c>
-      <c r="S52">
-        <v>1.95</v>
-      </c>
-      <c r="T52">
-        <v>2.5</v>
-      </c>
-      <c r="U52">
-        <v>1.95</v>
-      </c>
-      <c r="V52">
-        <v>1.9</v>
-      </c>
-      <c r="W52">
-        <v>-1</v>
-      </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA52">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC52">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6149829</v>
+        <v>6149828</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,76 +5155,76 @@
         <v>45042.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K53">
+        <v>2.5</v>
+      </c>
+      <c r="L53">
         <v>3.1</v>
       </c>
-      <c r="L53">
-        <v>3</v>
-      </c>
       <c r="M53">
-        <v>2.4</v>
+        <v>2.875</v>
       </c>
       <c r="N53">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="O53">
+        <v>3.4</v>
+      </c>
+      <c r="P53">
         <v>3.1</v>
       </c>
-      <c r="P53">
-        <v>2.55</v>
-      </c>
       <c r="Q53">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
+        <v>1.9</v>
+      </c>
+      <c r="S53">
+        <v>1.95</v>
+      </c>
+      <c r="T53">
+        <v>2.5</v>
+      </c>
+      <c r="U53">
+        <v>1.95</v>
+      </c>
+      <c r="V53">
+        <v>1.9</v>
+      </c>
+      <c r="W53">
+        <v>-1</v>
+      </c>
+      <c r="X53">
+        <v>-1</v>
+      </c>
+      <c r="Y53">
         <v>2.1</v>
       </c>
-      <c r="S53">
-        <v>1.775</v>
-      </c>
-      <c r="T53">
-        <v>2</v>
-      </c>
-      <c r="U53">
-        <v>1.8</v>
-      </c>
-      <c r="V53">
-        <v>2.05</v>
-      </c>
-      <c r="W53">
-        <v>1.9</v>
-      </c>
-      <c r="X53">
-        <v>-1</v>
-      </c>
-      <c r="Y53">
-        <v>-1</v>
-      </c>
       <c r="Z53">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB53">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5244,7 +5244,7 @@
         <v>45042.3125</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
         <v>37</v>
@@ -5422,10 +5422,10 @@
         <v>45045.08333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5692,7 +5692,7 @@
         <v>33</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5778,7 +5778,7 @@
         <v>45046.1875</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
         <v>37</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6149370</v>
+        <v>6149405</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45051.08333333334</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K62">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="L62">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M62">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N62">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="O62">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>3.1</v>
+        <v>1.909</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R62">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S62">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T62">
         <v>2.5</v>
       </c>
       <c r="U62">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V62">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6149405</v>
+        <v>6149370</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,76 +6045,76 @@
         <v>45051.08333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="L63">
+        <v>3.25</v>
+      </c>
+      <c r="M63">
+        <v>2.5</v>
+      </c>
+      <c r="N63">
+        <v>2.1</v>
+      </c>
+      <c r="O63">
         <v>3.4</v>
       </c>
-      <c r="M63">
-        <v>1.85</v>
-      </c>
-      <c r="N63">
-        <v>3.5</v>
-      </c>
-      <c r="O63">
-        <v>3.5</v>
-      </c>
       <c r="P63">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S63">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T63">
         <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V63">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y63">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AB63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,10 +6134,10 @@
         <v>45051.1875</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6312,7 +6312,7 @@
         <v>45052.1875</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
         <v>39</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6149406</v>
+        <v>6149837</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,40 +6579,40 @@
         <v>45055.3125</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K69">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L69">
         <v>3.2</v>
       </c>
       <c r="M69">
+        <v>3.1</v>
+      </c>
+      <c r="N69">
         <v>2.15</v>
       </c>
-      <c r="N69">
-        <v>3.25</v>
-      </c>
       <c r="O69">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P69">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
         <v>1.925</v>
@@ -6624,31 +6624,31 @@
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X69">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AA69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC69">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6149837</v>
+        <v>6149406</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,40 +6668,40 @@
         <v>45055.3125</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L70">
         <v>3.2</v>
       </c>
       <c r="M70">
+        <v>2.15</v>
+      </c>
+      <c r="N70">
+        <v>3.25</v>
+      </c>
+      <c r="O70">
         <v>3.1</v>
       </c>
-      <c r="N70">
+      <c r="P70">
         <v>2.15</v>
       </c>
-      <c r="O70">
-        <v>3.2</v>
-      </c>
-      <c r="P70">
-        <v>3.2</v>
-      </c>
       <c r="Q70">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
         <v>1.925</v>
@@ -6713,31 +6713,31 @@
         <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W70">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6149838</v>
+        <v>6149371</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,76 +6757,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K71">
+        <v>3.1</v>
+      </c>
+      <c r="L71">
+        <v>3</v>
+      </c>
+      <c r="M71">
         <v>2.2</v>
       </c>
-      <c r="L71">
-        <v>3.2</v>
-      </c>
-      <c r="M71">
-        <v>3.2</v>
-      </c>
       <c r="N71">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P71">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q71">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T71">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W71">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z71">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB71">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC71">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6849,7 +6849,7 @@
         <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6149371</v>
+        <v>6149838</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45056.3125</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
         <v>0</v>
       </c>
-      <c r="I73">
-        <v>3</v>
-      </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K73">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="L73">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M73">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="N73">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="O73">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P73">
-        <v>2.375</v>
+        <v>2.8</v>
       </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T73">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V73">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7205,7 +7205,7 @@
         <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -7380,7 +7380,7 @@
         <v>45060.1875</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
         <v>38</v>
@@ -7469,7 +7469,7 @@
         <v>45060.29166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
         <v>32</v>
@@ -7558,7 +7558,7 @@
         <v>45066.1875</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
         <v>40</v>
@@ -7647,7 +7647,7 @@
         <v>45066.25</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -7914,7 +7914,7 @@
         <v>45067.25</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
         <v>29</v>
@@ -8006,7 +8006,7 @@
         <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8095,7 +8095,7 @@
         <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8184,7 +8184,7 @@
         <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8270,7 +8270,7 @@
         <v>45074.1875</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
         <v>39</v>
@@ -8359,7 +8359,7 @@
         <v>45074.25</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
         <v>40</v>
@@ -8715,10 +8715,10 @@
         <v>45080.25</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8985,7 +8985,7 @@
         <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9074,7 +9074,7 @@
         <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9160,7 +9160,7 @@
         <v>45083.1875</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
         <v>29</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6149854</v>
+        <v>6149376</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,58 +9338,58 @@
         <v>45084.29166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>41</v>
       </c>
       <c r="K100">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L100">
+        <v>3.5</v>
+      </c>
+      <c r="M100">
+        <v>4.2</v>
+      </c>
+      <c r="N100">
+        <v>2.05</v>
+      </c>
+      <c r="O100">
+        <v>3.3</v>
+      </c>
+      <c r="P100">
         <v>3.4</v>
       </c>
-      <c r="M100">
-        <v>3.8</v>
-      </c>
-      <c r="N100">
+      <c r="Q100">
+        <v>-0.25</v>
+      </c>
+      <c r="R100">
+        <v>1.825</v>
+      </c>
+      <c r="S100">
+        <v>2.025</v>
+      </c>
+      <c r="T100">
+        <v>2.25</v>
+      </c>
+      <c r="U100">
         <v>1.85</v>
       </c>
-      <c r="O100">
-        <v>3.6</v>
-      </c>
-      <c r="P100">
-        <v>4.2</v>
-      </c>
-      <c r="Q100">
-        <v>-0.5</v>
-      </c>
-      <c r="R100">
-        <v>1.9</v>
-      </c>
-      <c r="S100">
-        <v>1.95</v>
-      </c>
-      <c r="T100">
-        <v>2.5</v>
-      </c>
-      <c r="U100">
-        <v>2.025</v>
-      </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W100">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9398,16 +9398,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6149376</v>
+        <v>6149854</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,58 +9427,58 @@
         <v>45084.29166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
         <v>41</v>
       </c>
       <c r="K101">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
+        <v>3.8</v>
+      </c>
+      <c r="N101">
+        <v>1.85</v>
+      </c>
+      <c r="O101">
+        <v>3.6</v>
+      </c>
+      <c r="P101">
         <v>4.2</v>
       </c>
-      <c r="N101">
-        <v>2.05</v>
-      </c>
-      <c r="O101">
-        <v>3.3</v>
-      </c>
-      <c r="P101">
-        <v>3.4</v>
-      </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R101">
+        <v>1.9</v>
+      </c>
+      <c r="S101">
+        <v>1.95</v>
+      </c>
+      <c r="T101">
+        <v>2.5</v>
+      </c>
+      <c r="U101">
+        <v>2.025</v>
+      </c>
+      <c r="V101">
         <v>1.825</v>
       </c>
-      <c r="S101">
-        <v>2.025</v>
-      </c>
-      <c r="T101">
-        <v>2.25</v>
-      </c>
-      <c r="U101">
-        <v>1.85</v>
-      </c>
-      <c r="V101">
-        <v>2</v>
-      </c>
       <c r="W101">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9487,16 +9487,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC101">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6149855</v>
+        <v>6149856</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,76 +9516,76 @@
         <v>45084.3125</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K102">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L102">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M102">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="N102">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O102">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P102">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V102">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y102">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z102">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC102">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6149856</v>
+        <v>6149855</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45084.3125</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L103">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="N103">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O103">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P103">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S103">
+        <v>2.025</v>
+      </c>
+      <c r="T103">
+        <v>2.25</v>
+      </c>
+      <c r="U103">
+        <v>1.825</v>
+      </c>
+      <c r="V103">
+        <v>2.025</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
         <v>2.1</v>
       </c>
-      <c r="T103">
-        <v>2.5</v>
-      </c>
-      <c r="U103">
-        <v>1.95</v>
-      </c>
-      <c r="V103">
-        <v>1.9</v>
-      </c>
-      <c r="W103">
-        <v>-1</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
       <c r="Y103">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA103">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -10050,7 +10050,7 @@
         <v>45088.25</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
         <v>33</v>
@@ -10139,10 +10139,10 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10228,10 +10228,10 @@
         <v>45101.1875</v>
       </c>
       <c r="F110" t="s">
+        <v>30</v>
+      </c>
+      <c r="G110" t="s">
         <v>31</v>
-      </c>
-      <c r="G110" t="s">
-        <v>30</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>45102.1875</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
         <v>33</v>
@@ -10673,7 +10673,7 @@
         <v>45102.29166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G115" t="s">
         <v>39</v>
@@ -10854,7 +10854,7 @@
         <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10940,7 +10940,7 @@
         <v>45108.3125</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
         <v>34</v>
@@ -11121,7 +11121,7 @@
         <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11207,7 +11207,7 @@
         <v>45109.33333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
         <v>39</v>
@@ -11563,10 +11563,10 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F125" t="s">
+        <v>35</v>
+      </c>
+      <c r="G125" t="s">
         <v>36</v>
-      </c>
-      <c r="G125" t="s">
-        <v>35</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11655,7 +11655,7 @@
         <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11744,7 +11744,7 @@
         <v>34</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12011,7 +12011,7 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6149872</v>
+        <v>6149871</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,73 +12100,73 @@
         <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H131">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K131">
-        <v>1.55</v>
+        <v>4</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M131">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="N131">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="O131">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P131">
-        <v>5</v>
+        <v>1.833</v>
       </c>
       <c r="Q131">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
+        <v>2.025</v>
+      </c>
+      <c r="S131">
+        <v>1.825</v>
+      </c>
+      <c r="T131">
+        <v>2.25</v>
+      </c>
+      <c r="U131">
         <v>1.925</v>
       </c>
-      <c r="S131">
+      <c r="V131">
         <v>1.925</v>
       </c>
-      <c r="T131">
-        <v>3</v>
-      </c>
-      <c r="U131">
-        <v>1.9</v>
-      </c>
-      <c r="V131">
-        <v>1.95</v>
-      </c>
       <c r="W131">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6149871</v>
+        <v>6149872</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,73 +12278,73 @@
         <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K133">
+        <v>1.55</v>
+      </c>
+      <c r="L133">
+        <v>3.75</v>
+      </c>
+      <c r="M133">
+        <v>5.25</v>
+      </c>
+      <c r="N133">
+        <v>1.55</v>
+      </c>
+      <c r="O133">
         <v>4</v>
       </c>
-      <c r="L133">
-        <v>3.3</v>
-      </c>
-      <c r="M133">
-        <v>1.909</v>
-      </c>
-      <c r="N133">
-        <v>4.5</v>
-      </c>
-      <c r="O133">
-        <v>3.3</v>
-      </c>
       <c r="P133">
-        <v>1.833</v>
+        <v>5</v>
       </c>
       <c r="Q133">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R133">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T133">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X133">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA133">
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC133">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12364,7 +12364,7 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
         <v>29</v>
@@ -12456,7 +12456,7 @@
         <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12634,7 +12634,7 @@
         <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12809,7 +12809,7 @@
         <v>45123.33333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
         <v>34</v>
@@ -13076,7 +13076,7 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G142" t="s">
         <v>40</v>
@@ -13153,7 +13153,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6149878</v>
+        <v>6149877</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13165,40 +13165,40 @@
         <v>45129.3125</v>
       </c>
       <c r="F143" t="s">
+        <v>39</v>
+      </c>
+      <c r="G143" t="s">
         <v>30</v>
       </c>
-      <c r="G143" t="s">
-        <v>35</v>
-      </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
         <v>42</v>
       </c>
       <c r="K143">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L143">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N143">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="O143">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P143">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R143">
         <v>2</v>
@@ -13207,7 +13207,7 @@
         <v>1.85</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U143">
         <v>1.8</v>
@@ -13222,7 +13222,7 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="Z143">
         <v>-1</v>
@@ -13231,10 +13231,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC143">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13242,7 +13242,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6149877</v>
+        <v>6149878</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13254,40 +13254,40 @@
         <v>45129.3125</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J144" t="s">
         <v>42</v>
       </c>
       <c r="K144">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L144">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M144">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N144">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O144">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P144">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R144">
         <v>2</v>
@@ -13296,7 +13296,7 @@
         <v>1.85</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
         <v>1.8</v>
@@ -13311,7 +13311,7 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="Z144">
         <v>-1</v>
@@ -13320,10 +13320,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6149880</v>
+        <v>6149879</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,73 +13432,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K146">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L146">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M146">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N146">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O146">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P146">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q146">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R146">
+        <v>1.9</v>
+      </c>
+      <c r="S146">
         <v>1.95</v>
-      </c>
-      <c r="S146">
-        <v>1.9</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V146">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X146">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA146">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6149879</v>
+        <v>6149880</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,73 +13521,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F147" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147" t="s">
+        <v>43</v>
+      </c>
+      <c r="K147">
+        <v>2.5</v>
+      </c>
+      <c r="L147">
+        <v>3.2</v>
+      </c>
+      <c r="M147">
+        <v>2.8</v>
+      </c>
+      <c r="N147">
+        <v>2.625</v>
+      </c>
+      <c r="O147">
+        <v>3.3</v>
+      </c>
+      <c r="P147">
+        <v>2.6</v>
+      </c>
+      <c r="Q147">
         <v>0</v>
       </c>
-      <c r="J147" t="s">
-        <v>41</v>
-      </c>
-      <c r="K147">
-        <v>2.15</v>
-      </c>
-      <c r="L147">
-        <v>3.3</v>
-      </c>
-      <c r="M147">
-        <v>3.4</v>
-      </c>
-      <c r="N147">
-        <v>2.2</v>
-      </c>
-      <c r="O147">
-        <v>3</v>
-      </c>
-      <c r="P147">
-        <v>3.6</v>
-      </c>
-      <c r="Q147">
-        <v>-0.25</v>
-      </c>
       <c r="R147">
+        <v>1.95</v>
+      </c>
+      <c r="S147">
         <v>1.9</v>
-      </c>
-      <c r="S147">
-        <v>1.95</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V147">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W147">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB147">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13610,10 +13610,10 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13791,7 +13791,7 @@
         <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13969,7 +13969,7 @@
         <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14147,7 +14147,7 @@
         <v>32</v>
       </c>
       <c r="G154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H154">
         <v>3</v>
@@ -14236,7 +14236,7 @@
         <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -14322,7 +14322,7 @@
         <v>45151.3125</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G156" t="s">
         <v>37</v>
@@ -14500,7 +14500,7 @@
         <v>45156.3125</v>
       </c>
       <c r="F158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G158" t="s">
         <v>32</v>
@@ -14589,7 +14589,7 @@
         <v>45156.3125</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G159" t="s">
         <v>40</v>
@@ -14770,7 +14770,7 @@
         <v>39</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14856,7 +14856,7 @@
         <v>45157.3125</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G162" t="s">
         <v>37</v>
@@ -15034,10 +15034,10 @@
         <v>45163.29166666666</v>
       </c>
       <c r="F164" t="s">
+        <v>35</v>
+      </c>
+      <c r="G164" t="s">
         <v>36</v>
-      </c>
-      <c r="G164" t="s">
-        <v>35</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15390,7 +15390,7 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
         <v>29</v>
@@ -15482,7 +15482,7 @@
         <v>40</v>
       </c>
       <c r="G169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H169">
         <v>4</v>
@@ -15571,7 +15571,7 @@
         <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15746,10 +15746,10 @@
         <v>45171.1875</v>
       </c>
       <c r="F172" t="s">
+        <v>30</v>
+      </c>
+      <c r="G172" t="s">
         <v>31</v>
-      </c>
-      <c r="G172" t="s">
-        <v>30</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -15835,7 +15835,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F173" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G173" t="s">
         <v>33</v>
@@ -16090,7 +16090,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6149389</v>
+        <v>6149898</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16102,73 +16102,73 @@
         <v>45185.08333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J176" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K176">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="L176">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M176">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="N176">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P176">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q176">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R176">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S176">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T176">
         <v>2.5</v>
       </c>
       <c r="U176">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V176">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W176">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA176">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16179,7 +16179,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6149898</v>
+        <v>6149389</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16191,73 +16191,73 @@
         <v>45185.08333333334</v>
       </c>
       <c r="F177" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G177" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J177" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K177">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="L177">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M177">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="N177">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="O177">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q177">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R177">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S177">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
         <v>2.5</v>
       </c>
       <c r="U177">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V177">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W177">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z177">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB177">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16283,7 +16283,7 @@
         <v>33</v>
       </c>
       <c r="G178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16458,7 +16458,7 @@
         <v>45186.08333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G180" t="s">
         <v>40</v>
@@ -16547,7 +16547,7 @@
         <v>45186.1875</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16639,7 +16639,7 @@
         <v>34</v>
       </c>
       <c r="G182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H182">
         <v>3</v>
@@ -16728,7 +16728,7 @@
         <v>32</v>
       </c>
       <c r="G183" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16814,7 +16814,7 @@
         <v>45193.08333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G184" t="s">
         <v>29</v>
@@ -16995,7 +16995,7 @@
         <v>39</v>
       </c>
       <c r="G186" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17158,7 +17158,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6353261</v>
+        <v>6353260</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17170,76 +17170,76 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G188" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>43</v>
       </c>
       <c r="K188">
+        <v>2.375</v>
+      </c>
+      <c r="L188">
+        <v>3.5</v>
+      </c>
+      <c r="M188">
+        <v>2.8</v>
+      </c>
+      <c r="N188">
+        <v>2.55</v>
+      </c>
+      <c r="O188">
         <v>3.4</v>
       </c>
-      <c r="L188">
-        <v>3.6</v>
-      </c>
-      <c r="M188">
-        <v>2</v>
-      </c>
-      <c r="N188">
-        <v>3.75</v>
-      </c>
-      <c r="O188">
-        <v>3.8</v>
-      </c>
       <c r="P188">
-        <v>1.85</v>
+        <v>2.625</v>
       </c>
       <c r="Q188">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R188">
+        <v>1.825</v>
+      </c>
+      <c r="S188">
         <v>2.025</v>
       </c>
-      <c r="S188">
+      <c r="T188">
+        <v>2.5</v>
+      </c>
+      <c r="U188">
+        <v>2.025</v>
+      </c>
+      <c r="V188">
         <v>1.825</v>
       </c>
-      <c r="T188">
-        <v>2.75</v>
-      </c>
-      <c r="U188">
-        <v>1.825</v>
-      </c>
-      <c r="V188">
-        <v>2.025</v>
-      </c>
       <c r="W188">
         <v>-1</v>
       </c>
       <c r="X188">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="Y188">
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA188">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB188">
         <v>-1</v>
       </c>
       <c r="AC188">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17247,7 +17247,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6353260</v>
+        <v>6353261</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17259,76 +17259,76 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>43</v>
       </c>
       <c r="K189">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="L189">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M189">
+        <v>2</v>
+      </c>
+      <c r="N189">
+        <v>3.75</v>
+      </c>
+      <c r="O189">
+        <v>3.8</v>
+      </c>
+      <c r="P189">
+        <v>1.85</v>
+      </c>
+      <c r="Q189">
+        <v>0.5</v>
+      </c>
+      <c r="R189">
+        <v>2.025</v>
+      </c>
+      <c r="S189">
+        <v>1.825</v>
+      </c>
+      <c r="T189">
+        <v>2.75</v>
+      </c>
+      <c r="U189">
+        <v>1.825</v>
+      </c>
+      <c r="V189">
+        <v>2.025</v>
+      </c>
+      <c r="W189">
+        <v>-1</v>
+      </c>
+      <c r="X189">
         <v>2.8</v>
       </c>
-      <c r="N189">
-        <v>2.55</v>
-      </c>
-      <c r="O189">
-        <v>3.4</v>
-      </c>
-      <c r="P189">
-        <v>2.625</v>
-      </c>
-      <c r="Q189">
-        <v>0</v>
-      </c>
-      <c r="R189">
-        <v>1.825</v>
-      </c>
-      <c r="S189">
-        <v>2.025</v>
-      </c>
-      <c r="T189">
-        <v>2.5</v>
-      </c>
-      <c r="U189">
-        <v>2.025</v>
-      </c>
-      <c r="V189">
-        <v>1.825</v>
-      </c>
-      <c r="W189">
-        <v>-1</v>
-      </c>
-      <c r="X189">
-        <v>2.4</v>
-      </c>
       <c r="Y189">
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA189">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB189">
         <v>-1</v>
       </c>
       <c r="AC189">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17437,10 +17437,10 @@
         <v>45199.29166666666</v>
       </c>
       <c r="F191" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H191">
         <v>2</v>
@@ -17692,7 +17692,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6387791</v>
+        <v>6384126</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17707,73 +17707,73 @@
         <v>30</v>
       </c>
       <c r="G194" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H194">
+        <v>1</v>
+      </c>
+      <c r="I194">
         <v>0</v>
       </c>
-      <c r="I194">
-        <v>2</v>
-      </c>
       <c r="J194" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K194">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="L194">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M194">
-        <v>2.875</v>
+        <v>1.909</v>
       </c>
       <c r="N194">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="O194">
         <v>3.3</v>
       </c>
       <c r="P194">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="Q194">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R194">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S194">
-        <v>2.1</v>
+        <v>1.975</v>
       </c>
       <c r="T194">
         <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="V194">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X194">
         <v>-1</v>
       </c>
       <c r="Y194">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA194">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
         <v>-1</v>
       </c>
       <c r="AC194">
-        <v>1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17781,7 +17781,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6384418</v>
+        <v>6387791</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17793,76 +17793,76 @@
         <v>45207.125</v>
       </c>
       <c r="F195" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G195" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195">
+        <v>2</v>
+      </c>
+      <c r="J195" t="s">
+        <v>42</v>
+      </c>
+      <c r="K195">
+        <v>2.375</v>
+      </c>
+      <c r="L195">
+        <v>3.3</v>
+      </c>
+      <c r="M195">
+        <v>2.875</v>
+      </c>
+      <c r="N195">
+        <v>2.4</v>
+      </c>
+      <c r="O195">
+        <v>3.3</v>
+      </c>
+      <c r="P195">
+        <v>2.8</v>
+      </c>
+      <c r="Q195">
         <v>0</v>
       </c>
-      <c r="J195" t="s">
-        <v>41</v>
-      </c>
-      <c r="K195">
-        <v>1.909</v>
-      </c>
-      <c r="L195">
-        <v>3.4</v>
-      </c>
-      <c r="M195">
-        <v>4</v>
-      </c>
-      <c r="N195">
-        <v>1.95</v>
-      </c>
-      <c r="O195">
-        <v>3.4</v>
-      </c>
-      <c r="P195">
-        <v>4</v>
-      </c>
-      <c r="Q195">
-        <v>-0.5</v>
-      </c>
       <c r="R195">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S195">
+        <v>2.1</v>
+      </c>
+      <c r="T195">
+        <v>2.5</v>
+      </c>
+      <c r="U195">
         <v>1.85</v>
       </c>
-      <c r="T195">
-        <v>2.25</v>
-      </c>
-      <c r="U195">
-        <v>1.925</v>
-      </c>
       <c r="V195">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X195">
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z195">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB195">
         <v>-1</v>
       </c>
       <c r="AC195">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17959,7 +17959,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>6384126</v>
+        <v>6388625</v>
       </c>
       <c r="C197" t="s">
         <v>28</v>
@@ -17971,76 +17971,76 @@
         <v>45207.125</v>
       </c>
       <c r="F197" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G197" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197">
         <v>0</v>
       </c>
       <c r="J197" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K197">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="L197">
+        <v>3.75</v>
+      </c>
+      <c r="M197">
+        <v>4.333</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197">
         <v>3.4</v>
       </c>
-      <c r="M197">
-        <v>1.909</v>
-      </c>
-      <c r="N197">
-        <v>4</v>
-      </c>
-      <c r="O197">
-        <v>3.3</v>
-      </c>
       <c r="P197">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="Q197">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R197">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S197">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T197">
         <v>2.5</v>
       </c>
       <c r="U197">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V197">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W197">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X197">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y197">
         <v>-1</v>
       </c>
       <c r="Z197">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA197">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB197">
         <v>-1</v>
       </c>
       <c r="AC197">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="198" spans="1:29">
@@ -18048,7 +18048,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>6384125</v>
+        <v>6384418</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18060,76 +18060,76 @@
         <v>45207.125</v>
       </c>
       <c r="F198" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G198" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K198">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L198">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M198">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N198">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="O198">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P198">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q198">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R198">
+        <v>2</v>
+      </c>
+      <c r="S198">
         <v>1.85</v>
       </c>
-      <c r="S198">
-        <v>2</v>
-      </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U198">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V198">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X198">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y198">
         <v>-1</v>
       </c>
       <c r="Z198">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA198">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB198">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18137,7 +18137,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>6388625</v>
+        <v>6384125</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18149,61 +18149,61 @@
         <v>45207.125</v>
       </c>
       <c r="F199" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G199" t="s">
         <v>35</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
         <v>43</v>
       </c>
       <c r="K199">
-        <v>1.75</v>
+        <v>1.666</v>
       </c>
       <c r="L199">
         <v>3.75</v>
       </c>
       <c r="M199">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="N199">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="O199">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P199">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q199">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R199">
+        <v>1.85</v>
+      </c>
+      <c r="S199">
+        <v>2</v>
+      </c>
+      <c r="T199">
+        <v>2.75</v>
+      </c>
+      <c r="U199">
         <v>2.025</v>
       </c>
-      <c r="S199">
+      <c r="V199">
         <v>1.825</v>
       </c>
-      <c r="T199">
-        <v>2.5</v>
-      </c>
-      <c r="U199">
-        <v>2</v>
-      </c>
-      <c r="V199">
-        <v>1.85</v>
-      </c>
       <c r="W199">
         <v>-1</v>
       </c>
       <c r="X199">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Y199">
         <v>-1</v>
@@ -18212,13 +18212,13 @@
         <v>-1</v>
       </c>
       <c r="AA199">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB199">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC199">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18241,7 +18241,7 @@
         <v>33</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H200">
         <v>1</v>
@@ -18493,7 +18493,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7334076</v>
+        <v>7334077</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18505,76 +18505,76 @@
         <v>45221.08333333334</v>
       </c>
       <c r="F203" t="s">
+        <v>32</v>
+      </c>
+      <c r="G203" t="s">
         <v>30</v>
       </c>
-      <c r="G203" t="s">
-        <v>39</v>
-      </c>
       <c r="H203">
         <v>2</v>
       </c>
       <c r="I203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="s">
         <v>41</v>
       </c>
       <c r="K203">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="L203">
         <v>3.5</v>
       </c>
       <c r="M203">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N203">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="O203">
         <v>3.5</v>
       </c>
       <c r="P203">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q203">
         <v>-0.5</v>
       </c>
       <c r="R203">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S203">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T203">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U203">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V203">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W203">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X203">
+        <v>-1</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA203">
+        <v>-1</v>
+      </c>
+      <c r="AB203">
+        <v>-1</v>
+      </c>
+      <c r="AC203">
         <v>0.8</v>
-      </c>
-      <c r="X203">
-        <v>-1</v>
-      </c>
-      <c r="Y203">
-        <v>-1</v>
-      </c>
-      <c r="Z203">
-        <v>0.875</v>
-      </c>
-      <c r="AA203">
-        <v>-1</v>
-      </c>
-      <c r="AB203">
-        <v>0.825</v>
-      </c>
-      <c r="AC203">
-        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18582,7 +18582,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>7334077</v>
+        <v>7334076</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18594,58 +18594,58 @@
         <v>45221.08333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G204" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
         <v>41</v>
       </c>
       <c r="K204">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="L204">
         <v>3.5</v>
       </c>
       <c r="M204">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N204">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O204">
         <v>3.5</v>
       </c>
       <c r="P204">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q204">
         <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S204">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T204">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U204">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V204">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W204">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X204">
         <v>-1</v>
@@ -18654,16 +18654,16 @@
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA204">
         <v>-1</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC204">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18686,7 +18686,7 @@
         <v>34</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H205">
         <v>1</v>
@@ -18849,7 +18849,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>7333490</v>
+        <v>7334079</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18861,76 +18861,76 @@
         <v>45227.1875</v>
       </c>
       <c r="F207" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G207" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207" t="s">
+        <v>43</v>
+      </c>
+      <c r="K207">
+        <v>2.625</v>
+      </c>
+      <c r="L207">
+        <v>3.2</v>
+      </c>
+      <c r="M207">
+        <v>2.7</v>
+      </c>
+      <c r="N207">
+        <v>2.8</v>
+      </c>
+      <c r="O207">
+        <v>3.1</v>
+      </c>
+      <c r="P207">
+        <v>2.6</v>
+      </c>
+      <c r="Q207">
         <v>0</v>
       </c>
-      <c r="I207">
-        <v>2</v>
-      </c>
-      <c r="J207" t="s">
-        <v>42</v>
-      </c>
-      <c r="K207">
-        <v>2.15</v>
-      </c>
-      <c r="L207">
-        <v>3.25</v>
-      </c>
-      <c r="M207">
-        <v>3.4</v>
-      </c>
-      <c r="N207">
-        <v>1.6</v>
-      </c>
-      <c r="O207">
-        <v>3.75</v>
-      </c>
-      <c r="P207">
-        <v>5.75</v>
-      </c>
-      <c r="Q207">
-        <v>-0.75</v>
-      </c>
       <c r="R207">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S207">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T207">
         <v>2.25</v>
       </c>
       <c r="U207">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V207">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y207">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA207">
-        <v>1.05</v>
+        <v>-0</v>
       </c>
       <c r="AB207">
         <v>-0.5</v>
       </c>
       <c r="AC207">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18938,7 +18938,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>7334079</v>
+        <v>7333490</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18950,76 +18950,76 @@
         <v>45227.1875</v>
       </c>
       <c r="F208" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G208" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K208">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L208">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M208">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="N208">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="O208">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P208">
-        <v>2.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R208">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S208">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T208">
         <v>2.25</v>
       </c>
       <c r="U208">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V208">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-0</v>
+        <v>1.05</v>
       </c>
       <c r="AB208">
         <v>-0.5</v>
       </c>
       <c r="AC208">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19128,7 +19128,7 @@
         <v>45228.08333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G210" t="s">
         <v>34</v>
@@ -19217,10 +19217,10 @@
         <v>45228.1875</v>
       </c>
       <c r="F211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G211" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H211">
         <v>3</v>
@@ -19487,7 +19487,7 @@
         <v>32</v>
       </c>
       <c r="G214" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -19561,7 +19561,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>7334084</v>
+        <v>7333492</v>
       </c>
       <c r="C215" t="s">
         <v>28</v>
@@ -19576,73 +19576,73 @@
         <v>36</v>
       </c>
       <c r="G215" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J215" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K215">
-        <v>2.15</v>
+        <v>2.75</v>
       </c>
       <c r="L215">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M215">
+        <v>2.6</v>
+      </c>
+      <c r="N215">
         <v>3.2</v>
       </c>
-      <c r="N215">
-        <v>2.55</v>
-      </c>
       <c r="O215">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P215">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="Q215">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R215">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S215">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T215">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U215">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V215">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W215">
         <v>-1</v>
       </c>
       <c r="X215">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y215">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z215">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA215">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB215">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC215">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="216" spans="1:29">
@@ -19650,7 +19650,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>7333492</v>
+        <v>7334084</v>
       </c>
       <c r="C216" t="s">
         <v>28</v>
@@ -19665,73 +19665,73 @@
         <v>35</v>
       </c>
       <c r="G216" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J216" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K216">
+        <v>2.15</v>
+      </c>
+      <c r="L216">
+        <v>3.5</v>
+      </c>
+      <c r="M216">
+        <v>3.2</v>
+      </c>
+      <c r="N216">
+        <v>2.55</v>
+      </c>
+      <c r="O216">
+        <v>3.4</v>
+      </c>
+      <c r="P216">
+        <v>2.625</v>
+      </c>
+      <c r="Q216">
+        <v>0</v>
+      </c>
+      <c r="R216">
+        <v>1.875</v>
+      </c>
+      <c r="S216">
+        <v>1.975</v>
+      </c>
+      <c r="T216">
         <v>2.75</v>
       </c>
-      <c r="L216">
-        <v>3.2</v>
-      </c>
-      <c r="M216">
-        <v>2.6</v>
-      </c>
-      <c r="N216">
-        <v>3.2</v>
-      </c>
-      <c r="O216">
-        <v>3.25</v>
-      </c>
-      <c r="P216">
-        <v>2.25</v>
-      </c>
-      <c r="Q216">
-        <v>0.25</v>
-      </c>
-      <c r="R216">
-        <v>1.85</v>
-      </c>
-      <c r="S216">
-        <v>2</v>
-      </c>
-      <c r="T216">
-        <v>2.25</v>
-      </c>
       <c r="U216">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V216">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W216">
         <v>-1</v>
       </c>
       <c r="X216">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y216">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z216">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA216">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB216">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC216">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="217" spans="1:29">
@@ -19840,7 +19840,7 @@
         <v>45254.3125</v>
       </c>
       <c r="F218" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G218" t="s">
         <v>29</v>
@@ -19917,7 +19917,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7334087</v>
+        <v>7333495</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19929,76 +19929,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F219" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G219" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H219">
+        <v>2</v>
+      </c>
+      <c r="I219">
         <v>0</v>
       </c>
-      <c r="I219">
-        <v>2</v>
-      </c>
       <c r="J219" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K219">
         <v>2.05</v>
       </c>
       <c r="L219">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M219">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="N219">
         <v>2.05</v>
       </c>
       <c r="O219">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P219">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q219">
         <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S219">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="T219">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U219">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V219">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W219">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X219">
         <v>-1</v>
       </c>
       <c r="Y219">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA219">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB219">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC219">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -20006,7 +20006,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7333495</v>
+        <v>7334087</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -20018,76 +20018,76 @@
         <v>45255.08333333334</v>
       </c>
       <c r="F220" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G220" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K220">
         <v>2.05</v>
       </c>
       <c r="L220">
+        <v>3.75</v>
+      </c>
+      <c r="M220">
         <v>3.25</v>
-      </c>
-      <c r="M220">
-        <v>3.2</v>
       </c>
       <c r="N220">
         <v>2.05</v>
       </c>
       <c r="O220">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P220">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q220">
         <v>-0.25</v>
       </c>
       <c r="R220">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S220">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T220">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V220">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W220">
+        <v>-1</v>
+      </c>
+      <c r="X220">
+        <v>-1</v>
+      </c>
+      <c r="Y220">
+        <v>2.3</v>
+      </c>
+      <c r="Z220">
+        <v>-1</v>
+      </c>
+      <c r="AA220">
         <v>1.05</v>
       </c>
-      <c r="X220">
-        <v>-1</v>
-      </c>
-      <c r="Y220">
-        <v>-1</v>
-      </c>
-      <c r="Z220">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AA220">
-        <v>-1</v>
-      </c>
       <c r="AB220">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC220">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="221" spans="1:29">
@@ -20095,7 +20095,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7334086</v>
+        <v>7333496</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20107,13 +20107,13 @@
         <v>45255.1875</v>
       </c>
       <c r="F221" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G221" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221">
         <v>0</v>
@@ -20122,16 +20122,16 @@
         <v>41</v>
       </c>
       <c r="K221">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="L221">
+        <v>3.4</v>
+      </c>
+      <c r="M221">
         <v>3.6</v>
       </c>
-      <c r="M221">
-        <v>3.3</v>
-      </c>
       <c r="N221">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O221">
         <v>3.3</v>
@@ -20140,25 +20140,25 @@
         <v>3.6</v>
       </c>
       <c r="Q221">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R221">
+        <v>1.8</v>
+      </c>
+      <c r="S221">
         <v>2.05</v>
-      </c>
-      <c r="S221">
-        <v>1.8</v>
       </c>
       <c r="T221">
         <v>2.25</v>
       </c>
       <c r="U221">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V221">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W221">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="X221">
         <v>-1</v>
@@ -20167,16 +20167,16 @@
         <v>-1</v>
       </c>
       <c r="Z221">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA221">
         <v>-1</v>
       </c>
       <c r="AB221">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC221">
-        <v>0.5125</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="222" spans="1:29">
@@ -20184,7 +20184,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>7334085</v>
+        <v>7334086</v>
       </c>
       <c r="C222" t="s">
         <v>28</v>
@@ -20196,76 +20196,76 @@
         <v>45255.1875</v>
       </c>
       <c r="F222" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G222" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H222">
+        <v>2</v>
+      </c>
+      <c r="I222">
         <v>0</v>
       </c>
-      <c r="I222">
-        <v>1</v>
-      </c>
       <c r="J222" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K222">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M222">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="N222">
-        <v>1.727</v>
+        <v>2.05</v>
       </c>
       <c r="O222">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P222">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q222">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R222">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S222">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T222">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U222">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V222">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W222">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X222">
         <v>-1</v>
       </c>
       <c r="Y222">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z222">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA222">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB222">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC222">
-        <v>0.8999999999999999</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="223" spans="1:29">
@@ -20273,7 +20273,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7333496</v>
+        <v>7334085</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20285,76 +20285,76 @@
         <v>45255.1875</v>
       </c>
       <c r="F223" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G223" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K223">
+        <v>1.65</v>
+      </c>
+      <c r="L223">
+        <v>4</v>
+      </c>
+      <c r="M223">
+        <v>5</v>
+      </c>
+      <c r="N223">
+        <v>1.727</v>
+      </c>
+      <c r="O223">
+        <v>3.8</v>
+      </c>
+      <c r="P223">
+        <v>4.2</v>
+      </c>
+      <c r="Q223">
+        <v>-0.75</v>
+      </c>
+      <c r="R223">
+        <v>2</v>
+      </c>
+      <c r="S223">
         <v>1.85</v>
       </c>
-      <c r="L223">
-        <v>3.4</v>
-      </c>
-      <c r="M223">
-        <v>3.6</v>
-      </c>
-      <c r="N223">
-        <v>2.1</v>
-      </c>
-      <c r="O223">
-        <v>3.3</v>
-      </c>
-      <c r="P223">
-        <v>3.6</v>
-      </c>
-      <c r="Q223">
-        <v>-0.25</v>
-      </c>
-      <c r="R223">
-        <v>1.8</v>
-      </c>
-      <c r="S223">
-        <v>2.05</v>
-      </c>
       <c r="T223">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U223">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V223">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W223">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X223">
         <v>-1</v>
       </c>
       <c r="Y223">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z223">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB223">
         <v>-1</v>
       </c>
       <c r="AC223">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20377,7 +20377,7 @@
         <v>34</v>
       </c>
       <c r="G224" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H224">
         <v>2</v>
@@ -20463,7 +20463,7 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G225" t="s">
         <v>32</v>
@@ -20552,7 +20552,7 @@
         <v>45262.08333333334</v>
       </c>
       <c r="F226" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G226" t="s">
         <v>39</v>
@@ -20718,7 +20718,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>7333499</v>
+        <v>7333497</v>
       </c>
       <c r="C228" t="s">
         <v>28</v>
@@ -20730,58 +20730,58 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F228" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G228" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" t="s">
         <v>41</v>
       </c>
       <c r="K228">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L228">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M228">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="N228">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O228">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P228">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="Q228">
         <v>0</v>
       </c>
       <c r="R228">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S228">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T228">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U228">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V228">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W228">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="X228">
         <v>-1</v>
@@ -20790,16 +20790,16 @@
         <v>-1</v>
       </c>
       <c r="Z228">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AA228">
         <v>-1</v>
       </c>
       <c r="AB228">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC228">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="229" spans="1:29">
@@ -20807,7 +20807,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>7333497</v>
+        <v>7333499</v>
       </c>
       <c r="C229" t="s">
         <v>28</v>
@@ -20819,58 +20819,58 @@
         <v>45263.08333333334</v>
       </c>
       <c r="F229" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G229" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J229" t="s">
         <v>41</v>
       </c>
       <c r="K229">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L229">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M229">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="N229">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O229">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P229">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q229">
         <v>0</v>
       </c>
       <c r="R229">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S229">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T229">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U229">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V229">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W229">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="X229">
         <v>-1</v>
@@ -20879,16 +20879,16 @@
         <v>-1</v>
       </c>
       <c r="Z229">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AA229">
         <v>-1</v>
       </c>
       <c r="AB229">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC229">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="230" spans="1:29">

--- a/South Korea K League 1/South Korea K League 1.xlsx
+++ b/South Korea K League 1/South Korea K League 1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -106,10 +106,10 @@
     <t>Ulsan Hyundai</t>
   </si>
   <si>
-    <t>Suwon Bluewings</t>
+    <t>FC Seoul</t>
   </si>
   <si>
-    <t>FC Seoul</t>
+    <t>Suwon Bluewings</t>
   </si>
   <si>
     <t>Jeju United</t>
@@ -121,10 +121,10 @@
     <t>Daejeon Hana Citizen</t>
   </si>
   <si>
-    <t>Suwon FC</t>
+    <t>Incheon Utd</t>
   </si>
   <si>
-    <t>Incheon Utd</t>
+    <t>Suwon FC</t>
   </si>
   <si>
     <t>Daegu FC</t>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC231"/>
+  <dimension ref="A1:AC234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6149801</v>
+        <v>6149800</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,43 +708,43 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>2.15</v>
       </c>
       <c r="L3">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M3">
         <v>3.4</v>
       </c>
       <c r="N3">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O3">
         <v>3.1</v>
       </c>
       <c r="P3">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q3">
         <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S3">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T3">
         <v>2</v>
@@ -756,25 +756,25 @@
         <v>2.05</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC3">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6149800</v>
+        <v>6149801</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,43 +797,43 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>2.15</v>
       </c>
       <c r="L4">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M4">
         <v>3.4</v>
       </c>
       <c r="N4">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O4">
         <v>3.1</v>
       </c>
       <c r="P4">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q4">
         <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S4">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T4">
         <v>2</v>
@@ -845,25 +845,25 @@
         <v>2.05</v>
       </c>
       <c r="W4">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6149805</v>
+        <v>6149804</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,70 +1153,70 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8">
+        <v>2.3</v>
+      </c>
+      <c r="L8">
         <v>3.2</v>
       </c>
-      <c r="L8">
-        <v>3.3</v>
-      </c>
       <c r="M8">
+        <v>2.875</v>
+      </c>
+      <c r="N8">
+        <v>2.3</v>
+      </c>
+      <c r="O8">
+        <v>3.2</v>
+      </c>
+      <c r="P8">
+        <v>2.875</v>
+      </c>
+      <c r="Q8">
+        <v>-0.25</v>
+      </c>
+      <c r="R8">
         <v>2.1</v>
       </c>
-      <c r="N8">
-        <v>3.25</v>
-      </c>
-      <c r="O8">
-        <v>3.4</v>
-      </c>
-      <c r="P8">
-        <v>2.1</v>
-      </c>
-      <c r="Q8">
-        <v>0.25</v>
-      </c>
-      <c r="R8">
-        <v>1.95</v>
-      </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T8">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V8">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y8">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA8">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="AB8">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6149804</v>
+        <v>6149805</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1242,70 +1242,70 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="L9">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M9">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="N9">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="O9">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>2.875</v>
+        <v>2.1</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S9">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T9">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z9">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB9">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1598,7 +1598,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6149808</v>
+        <v>6149807</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,37 +1684,37 @@
         <v>44996.08333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="L14">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M14">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N14">
         <v>3.6</v>
       </c>
       <c r="O14">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P14">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q14">
         <v>0.25</v>
@@ -1723,10 +1723,10 @@
         <v>2.05</v>
       </c>
       <c r="S14">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
         <v>1.925</v>
@@ -1735,25 +1735,25 @@
         <v>1.925</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X14">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.5249999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC14">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6149807</v>
+        <v>6149808</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,37 +1773,37 @@
         <v>44996.08333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="L15">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N15">
         <v>3.6</v>
       </c>
       <c r="O15">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q15">
         <v>0.25</v>
@@ -1812,10 +1812,10 @@
         <v>2.05</v>
       </c>
       <c r="S15">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T15">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U15">
         <v>1.925</v>
@@ -1824,25 +1824,25 @@
         <v>1.925</v>
       </c>
       <c r="W15">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1.05</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
         <v>0.925</v>
-      </c>
-      <c r="AC15">
-        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>44997.08333333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
         <v>29</v>
@@ -2129,7 +2129,7 @@
         <v>44997.1875</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
         <v>32</v>
@@ -2221,7 +2221,7 @@
         <v>40</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>5</v>
@@ -2399,7 +2399,7 @@
         <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2574,7 +2574,7 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
         <v>34</v>
@@ -2666,7 +2666,7 @@
         <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6149398</v>
+        <v>6149814</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,19 +2841,19 @@
         <v>45017.1875</v>
       </c>
       <c r="F27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" t="s">
         <v>36</v>
       </c>
-      <c r="G27" t="s">
-        <v>37</v>
-      </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K27">
         <v>2.2</v>
@@ -2865,52 +2865,52 @@
         <v>3.1</v>
       </c>
       <c r="N27">
-        <v>2.2</v>
+        <v>1.727</v>
       </c>
       <c r="O27">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P27">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T27">
         <v>2.25</v>
       </c>
       <c r="U27">
+        <v>1.95</v>
+      </c>
+      <c r="V27">
         <v>1.9</v>
       </c>
-      <c r="V27">
-        <v>1.95</v>
-      </c>
       <c r="W27">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X27">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
+        <v>1.025</v>
+      </c>
+      <c r="AA27">
+        <v>-1</v>
+      </c>
+      <c r="AB27">
         <v>-0.5</v>
       </c>
-      <c r="AA27">
-        <v>0.4625</v>
-      </c>
-      <c r="AB27">
-        <v>-1</v>
-      </c>
       <c r="AC27">
-        <v>0.95</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6149814</v>
+        <v>6149398</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,19 +2930,19 @@
         <v>45017.1875</v>
       </c>
       <c r="F28" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K28">
         <v>2.2</v>
@@ -2954,52 +2954,52 @@
         <v>3.1</v>
       </c>
       <c r="N28">
-        <v>1.727</v>
+        <v>2.2</v>
       </c>
       <c r="O28">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P28">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q28">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T28">
         <v>2.25</v>
       </c>
       <c r="U28">
+        <v>1.9</v>
+      </c>
+      <c r="V28">
         <v>1.95</v>
       </c>
-      <c r="V28">
-        <v>1.9</v>
-      </c>
       <c r="W28">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.45</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3022,7 +3022,7 @@
         <v>34</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>3</v>
@@ -3197,7 +3197,7 @@
         <v>45018.1875</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
         <v>39</v>
@@ -3289,7 +3289,7 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3375,7 +3375,7 @@
         <v>45024.1875</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -3553,7 +3553,7 @@
         <v>45025.125</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
         <v>34</v>
@@ -3645,7 +3645,7 @@
         <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3820,7 +3820,7 @@
         <v>45031.08333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
         <v>32</v>
@@ -3912,7 +3912,7 @@
         <v>33</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -3998,7 +3998,7 @@
         <v>45031.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
         <v>38</v>
@@ -4090,7 +4090,7 @@
         <v>39</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4354,10 +4354,10 @@
         <v>45038.08333333334</v>
       </c>
       <c r="F44" t="s">
+        <v>30</v>
+      </c>
+      <c r="G44" t="s">
         <v>31</v>
-      </c>
-      <c r="G44" t="s">
-        <v>30</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4621,10 +4621,10 @@
         <v>45038.29166666666</v>
       </c>
       <c r="F47" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" t="s">
         <v>36</v>
-      </c>
-      <c r="G47" t="s">
-        <v>35</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6149827</v>
+        <v>6149474</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,76 +4888,76 @@
         <v>45041.3125</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
       <c r="J50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K50">
-        <v>1.85</v>
+        <v>3.75</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M50">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="N50">
-        <v>1.727</v>
+        <v>4.5</v>
       </c>
       <c r="O50">
         <v>3.75</v>
       </c>
       <c r="P50">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q50">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S50">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
         <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W50">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="Z50">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA50">
-        <v>-0.5</v>
+        <v>0.475</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6149474</v>
+        <v>6149827</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,76 +4977,76 @@
         <v>45041.3125</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K51">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="N51">
-        <v>4.5</v>
+        <v>1.727</v>
       </c>
       <c r="O51">
         <v>3.75</v>
       </c>
       <c r="P51">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q51">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R51">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S51">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
+        <v>0.4875</v>
+      </c>
+      <c r="AA51">
         <v>-0.5</v>
       </c>
-      <c r="AA51">
-        <v>0.475</v>
-      </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5069,7 +5069,7 @@
         <v>39</v>
       </c>
       <c r="G52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6149403</v>
+        <v>6149368</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,76 +5244,76 @@
         <v>45042.3125</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54" t="s">
+        <v>42</v>
+      </c>
+      <c r="K54">
+        <v>1.8</v>
+      </c>
+      <c r="L54">
+        <v>3.6</v>
+      </c>
+      <c r="M54">
+        <v>4</v>
+      </c>
+      <c r="N54">
+        <v>1.833</v>
+      </c>
+      <c r="O54">
+        <v>3.5</v>
+      </c>
+      <c r="P54">
+        <v>4</v>
+      </c>
+      <c r="Q54">
+        <v>-0.5</v>
+      </c>
+      <c r="R54">
+        <v>1.85</v>
+      </c>
+      <c r="S54">
+        <v>2</v>
+      </c>
+      <c r="T54">
+        <v>2.5</v>
+      </c>
+      <c r="U54">
+        <v>1.9</v>
+      </c>
+      <c r="V54">
+        <v>1.95</v>
+      </c>
+      <c r="W54">
+        <v>-1</v>
+      </c>
+      <c r="X54">
+        <v>-1</v>
+      </c>
+      <c r="Y54">
+        <v>3</v>
+      </c>
+      <c r="Z54">
+        <v>-1</v>
+      </c>
+      <c r="AA54">
         <v>1</v>
       </c>
-      <c r="J54" t="s">
-        <v>43</v>
-      </c>
-      <c r="K54">
-        <v>2.55</v>
-      </c>
-      <c r="L54">
-        <v>3.3</v>
-      </c>
-      <c r="M54">
-        <v>2.625</v>
-      </c>
-      <c r="N54">
-        <v>2.45</v>
-      </c>
-      <c r="O54">
-        <v>3.3</v>
-      </c>
-      <c r="P54">
-        <v>2.7</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="R54">
-        <v>1.825</v>
-      </c>
-      <c r="S54">
-        <v>2.025</v>
-      </c>
-      <c r="T54">
-        <v>2.75</v>
-      </c>
-      <c r="U54">
-        <v>2</v>
-      </c>
-      <c r="V54">
-        <v>1.85</v>
-      </c>
-      <c r="W54">
-        <v>-1</v>
-      </c>
-      <c r="X54">
-        <v>2.3</v>
-      </c>
-      <c r="Y54">
-        <v>-1</v>
-      </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>-0</v>
-      </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6149368</v>
+        <v>6149403</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,76 +5333,76 @@
         <v>45042.3125</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H55">
         <v>1</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K55">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L55">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M55">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="N55">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O55">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P55">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="Q55">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R55">
+        <v>1.825</v>
+      </c>
+      <c r="S55">
+        <v>2.025</v>
+      </c>
+      <c r="T55">
+        <v>2.75</v>
+      </c>
+      <c r="U55">
+        <v>2</v>
+      </c>
+      <c r="V55">
         <v>1.85</v>
       </c>
-      <c r="S55">
-        <v>2</v>
-      </c>
-      <c r="T55">
-        <v>2.5</v>
-      </c>
-      <c r="U55">
-        <v>1.9</v>
-      </c>
-      <c r="V55">
-        <v>1.95</v>
-      </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y55">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z55">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB55">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5422,10 +5422,10 @@
         <v>45045.08333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -5692,7 +5692,7 @@
         <v>33</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5778,7 +5778,7 @@
         <v>45046.1875</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
         <v>37</v>
@@ -6045,7 +6045,7 @@
         <v>45051.08333333334</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
         <v>38</v>
@@ -6134,10 +6134,10 @@
         <v>45051.1875</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -6312,7 +6312,7 @@
         <v>45052.1875</v>
       </c>
       <c r="F66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
         <v>39</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6149837</v>
+        <v>6149406</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,40 +6579,40 @@
         <v>45055.3125</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="L69">
         <v>3.2</v>
       </c>
       <c r="M69">
+        <v>2.15</v>
+      </c>
+      <c r="N69">
+        <v>3.25</v>
+      </c>
+      <c r="O69">
         <v>3.1</v>
       </c>
-      <c r="N69">
+      <c r="P69">
         <v>2.15</v>
       </c>
-      <c r="O69">
-        <v>3.2</v>
-      </c>
-      <c r="P69">
-        <v>3.2</v>
-      </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
         <v>1.925</v>
@@ -6624,31 +6624,31 @@
         <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB69">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6149406</v>
+        <v>6149837</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,40 +6668,40 @@
         <v>45055.3125</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K70">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="L70">
         <v>3.2</v>
       </c>
       <c r="M70">
+        <v>3.1</v>
+      </c>
+      <c r="N70">
         <v>2.15</v>
       </c>
-      <c r="N70">
-        <v>3.25</v>
-      </c>
       <c r="O70">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P70">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R70">
         <v>1.925</v>
@@ -6713,31 +6713,31 @@
         <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V70">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X70">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC70">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6757,7 +6757,7 @@
         <v>45056.3125</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
         <v>38</v>
@@ -6849,7 +6849,7 @@
         <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6938,7 +6938,7 @@
         <v>32</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7205,7 +7205,7 @@
         <v>39</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -7380,7 +7380,7 @@
         <v>45060.1875</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
         <v>38</v>
@@ -7469,7 +7469,7 @@
         <v>45060.29166666666</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
         <v>32</v>
@@ -7558,7 +7558,7 @@
         <v>45066.1875</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
         <v>40</v>
@@ -7647,7 +7647,7 @@
         <v>45066.25</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -7914,7 +7914,7 @@
         <v>45067.25</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
         <v>29</v>
@@ -8006,7 +8006,7 @@
         <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8095,7 +8095,7 @@
         <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8184,7 +8184,7 @@
         <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8270,7 +8270,7 @@
         <v>45074.1875</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
         <v>39</v>
@@ -8359,7 +8359,7 @@
         <v>45074.25</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
         <v>40</v>
@@ -8715,10 +8715,10 @@
         <v>45080.25</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -8985,7 +8985,7 @@
         <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -9074,7 +9074,7 @@
         <v>37</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9160,7 +9160,7 @@
         <v>45083.1875</v>
       </c>
       <c r="F98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
         <v>29</v>
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6149376</v>
+        <v>6149854</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,58 +9338,58 @@
         <v>45084.29166666666</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
         <v>1</v>
-      </c>
-      <c r="I100">
-        <v>0</v>
       </c>
       <c r="J100" t="s">
         <v>41</v>
       </c>
       <c r="K100">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M100">
+        <v>3.8</v>
+      </c>
+      <c r="N100">
+        <v>1.85</v>
+      </c>
+      <c r="O100">
+        <v>3.6</v>
+      </c>
+      <c r="P100">
         <v>4.2</v>
       </c>
-      <c r="N100">
-        <v>2.05</v>
-      </c>
-      <c r="O100">
-        <v>3.3</v>
-      </c>
-      <c r="P100">
-        <v>3.4</v>
-      </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R100">
+        <v>1.9</v>
+      </c>
+      <c r="S100">
+        <v>1.95</v>
+      </c>
+      <c r="T100">
+        <v>2.5</v>
+      </c>
+      <c r="U100">
+        <v>2.025</v>
+      </c>
+      <c r="V100">
         <v>1.825</v>
       </c>
-      <c r="S100">
-        <v>2.025</v>
-      </c>
-      <c r="T100">
-        <v>2.25</v>
-      </c>
-      <c r="U100">
-        <v>1.85</v>
-      </c>
-      <c r="V100">
-        <v>2</v>
-      </c>
       <c r="W100">
-        <v>1.05</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9398,16 +9398,16 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC100">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6149854</v>
+        <v>6149376</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,58 +9427,58 @@
         <v>45084.29166666666</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>41</v>
       </c>
       <c r="K101">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="L101">
+        <v>3.5</v>
+      </c>
+      <c r="M101">
+        <v>4.2</v>
+      </c>
+      <c r="N101">
+        <v>2.05</v>
+      </c>
+      <c r="O101">
+        <v>3.3</v>
+      </c>
+      <c r="P101">
         <v>3.4</v>
       </c>
-      <c r="M101">
-        <v>3.8</v>
-      </c>
-      <c r="N101">
+      <c r="Q101">
+        <v>-0.25</v>
+      </c>
+      <c r="R101">
+        <v>1.825</v>
+      </c>
+      <c r="S101">
+        <v>2.025</v>
+      </c>
+      <c r="T101">
+        <v>2.25</v>
+      </c>
+      <c r="U101">
         <v>1.85</v>
       </c>
-      <c r="O101">
-        <v>3.6</v>
-      </c>
-      <c r="P101">
-        <v>4.2</v>
-      </c>
-      <c r="Q101">
-        <v>-0.5</v>
-      </c>
-      <c r="R101">
-        <v>1.9</v>
-      </c>
-      <c r="S101">
-        <v>1.95</v>
-      </c>
-      <c r="T101">
-        <v>2.5</v>
-      </c>
-      <c r="U101">
-        <v>2.025</v>
-      </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W101">
-        <v>0.8500000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="X101">
         <v>-1</v>
@@ -9487,16 +9487,16 @@
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA101">
         <v>-1</v>
       </c>
       <c r="AB101">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6149856</v>
+        <v>6149855</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,76 +9516,76 @@
         <v>45084.3125</v>
       </c>
       <c r="F102" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>1</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K102">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="L102">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M102">
-        <v>2.875</v>
+        <v>2.625</v>
       </c>
       <c r="N102">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O102">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P102">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S102">
+        <v>2.025</v>
+      </c>
+      <c r="T102">
+        <v>2.25</v>
+      </c>
+      <c r="U102">
+        <v>1.825</v>
+      </c>
+      <c r="V102">
+        <v>2.025</v>
+      </c>
+      <c r="W102">
+        <v>-1</v>
+      </c>
+      <c r="X102">
         <v>2.1</v>
       </c>
-      <c r="T102">
-        <v>2.5</v>
-      </c>
-      <c r="U102">
-        <v>1.95</v>
-      </c>
-      <c r="V102">
-        <v>1.9</v>
-      </c>
-      <c r="W102">
-        <v>-1</v>
-      </c>
-      <c r="X102">
-        <v>-1</v>
-      </c>
       <c r="Y102">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA102">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB102">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6149855</v>
+        <v>6149856</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45084.3125</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K103">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="N103">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="O103">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P103">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="T103">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V103">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z103">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>1.1</v>
       </c>
       <c r="AB103">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC103">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H104">
         <v>3</v>
@@ -10050,7 +10050,7 @@
         <v>45088.25</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>33</v>
@@ -10139,10 +10139,10 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10228,10 +10228,10 @@
         <v>45101.1875</v>
       </c>
       <c r="F110" t="s">
+        <v>31</v>
+      </c>
+      <c r="G110" t="s">
         <v>30</v>
-      </c>
-      <c r="G110" t="s">
-        <v>31</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>45102.1875</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
         <v>33</v>
@@ -10673,7 +10673,7 @@
         <v>45102.29166666666</v>
       </c>
       <c r="F115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
         <v>39</v>
@@ -10854,7 +10854,7 @@
         <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10940,7 +10940,7 @@
         <v>45108.3125</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
         <v>34</v>
@@ -11121,7 +11121,7 @@
         <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -11207,7 +11207,7 @@
         <v>45109.33333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
         <v>39</v>
@@ -11563,10 +11563,10 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F125" t="s">
+        <v>36</v>
+      </c>
+      <c r="G125" t="s">
         <v>35</v>
-      </c>
-      <c r="G125" t="s">
-        <v>36</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11655,7 +11655,7 @@
         <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -11744,7 +11744,7 @@
         <v>34</v>
       </c>
       <c r="G127" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -12011,7 +12011,7 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12097,7 +12097,7 @@
         <v>45119.3125</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
         <v>33</v>
@@ -12275,10 +12275,10 @@
         <v>45119.3125</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H133">
         <v>7</v>
@@ -12364,7 +12364,7 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
         <v>29</v>
@@ -12456,7 +12456,7 @@
         <v>39</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -12634,7 +12634,7 @@
         <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12809,7 +12809,7 @@
         <v>45123.33333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
         <v>34</v>
@@ -12886,7 +12886,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6149486</v>
+        <v>6149383</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12898,10 +12898,10 @@
         <v>45128.3125</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -12913,43 +12913,43 @@
         <v>41</v>
       </c>
       <c r="K140">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M140">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N140">
-        <v>1.65</v>
+        <v>2.4</v>
       </c>
       <c r="O140">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P140">
-        <v>4.75</v>
+        <v>2.8</v>
       </c>
       <c r="Q140">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S140">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="T140">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U140">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W140">
-        <v>0.6499999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12958,16 +12958,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.4125</v>
+        <v>1.05</v>
       </c>
       <c r="AA140">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC140">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6149383</v>
+        <v>6149486</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,10 +12987,10 @@
         <v>45128.3125</v>
       </c>
       <c r="F141" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13002,43 +13002,43 @@
         <v>41</v>
       </c>
       <c r="K141">
-        <v>2.25</v>
+        <v>1.65</v>
       </c>
       <c r="L141">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M141">
+        <v>4.75</v>
+      </c>
+      <c r="N141">
+        <v>1.65</v>
+      </c>
+      <c r="O141">
+        <v>4</v>
+      </c>
+      <c r="P141">
+        <v>4.75</v>
+      </c>
+      <c r="Q141">
+        <v>-0.75</v>
+      </c>
+      <c r="R141">
+        <v>1.825</v>
+      </c>
+      <c r="S141">
+        <v>2.025</v>
+      </c>
+      <c r="T141">
         <v>3</v>
       </c>
-      <c r="N141">
-        <v>2.4</v>
-      </c>
-      <c r="O141">
-        <v>3.2</v>
-      </c>
-      <c r="P141">
-        <v>2.8</v>
-      </c>
-      <c r="Q141">
-        <v>-0.25</v>
-      </c>
-      <c r="R141">
-        <v>2.05</v>
-      </c>
-      <c r="S141">
-        <v>1.75</v>
-      </c>
-      <c r="T141">
-        <v>2.5</v>
-      </c>
       <c r="U141">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V141">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W141">
-        <v>1.4</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X141">
         <v>-1</v>
@@ -13047,16 +13047,16 @@
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>1.05</v>
+        <v>0.4125</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13076,7 +13076,7 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G142" t="s">
         <v>40</v>
@@ -13153,7 +13153,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6149877</v>
+        <v>6149878</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13165,40 +13165,40 @@
         <v>45129.3125</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
         <v>1</v>
-      </c>
-      <c r="I143">
-        <v>2</v>
       </c>
       <c r="J143" t="s">
         <v>42</v>
       </c>
       <c r="K143">
-        <v>2.375</v>
+        <v>2.1</v>
       </c>
       <c r="L143">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M143">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="N143">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="O143">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P143">
-        <v>2.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
         <v>2</v>
@@ -13207,7 +13207,7 @@
         <v>1.85</v>
       </c>
       <c r="T143">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
         <v>1.8</v>
@@ -13222,7 +13222,7 @@
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>1.55</v>
+        <v>2.6</v>
       </c>
       <c r="Z143">
         <v>-1</v>
@@ -13231,10 +13231,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB143">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13242,7 +13242,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6149878</v>
+        <v>6149877</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13254,40 +13254,40 @@
         <v>45129.3125</v>
       </c>
       <c r="F144" t="s">
+        <v>39</v>
+      </c>
+      <c r="G144" t="s">
         <v>31</v>
       </c>
-      <c r="G144" t="s">
-        <v>36</v>
-      </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>42</v>
       </c>
       <c r="K144">
-        <v>2.1</v>
+        <v>2.375</v>
       </c>
       <c r="L144">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M144">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="N144">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="O144">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P144">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q144">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R144">
         <v>2</v>
@@ -13296,7 +13296,7 @@
         <v>1.85</v>
       </c>
       <c r="T144">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U144">
         <v>1.8</v>
@@ -13311,7 +13311,7 @@
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>2.6</v>
+        <v>1.55</v>
       </c>
       <c r="Z144">
         <v>-1</v>
@@ -13320,10 +13320,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC144">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13420,7 +13420,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6149879</v>
+        <v>6149880</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13432,73 +13432,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F146" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K146">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="L146">
+        <v>3.2</v>
+      </c>
+      <c r="M146">
+        <v>2.8</v>
+      </c>
+      <c r="N146">
+        <v>2.625</v>
+      </c>
+      <c r="O146">
         <v>3.3</v>
       </c>
-      <c r="M146">
-        <v>3.4</v>
-      </c>
-      <c r="N146">
-        <v>2.2</v>
-      </c>
-      <c r="O146">
-        <v>3</v>
-      </c>
       <c r="P146">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="Q146">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R146">
+        <v>1.95</v>
+      </c>
+      <c r="S146">
         <v>1.9</v>
-      </c>
-      <c r="S146">
-        <v>1.95</v>
       </c>
       <c r="T146">
         <v>2.25</v>
       </c>
       <c r="U146">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V146">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W146">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB146">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC146">
         <v>-1</v>
@@ -13509,7 +13509,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6149880</v>
+        <v>6149879</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13521,73 +13521,73 @@
         <v>45142.3125</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K147">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="L147">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M147">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N147">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="O147">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P147">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R147">
+        <v>1.9</v>
+      </c>
+      <c r="S147">
         <v>1.95</v>
-      </c>
-      <c r="S147">
-        <v>1.9</v>
       </c>
       <c r="T147">
         <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V147">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X147">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA147">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC147">
         <v>-1</v>
@@ -13610,10 +13610,10 @@
         <v>45143.29166666666</v>
       </c>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -13791,7 +13791,7 @@
         <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -13969,7 +13969,7 @@
         <v>38</v>
       </c>
       <c r="G152" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14147,7 +14147,7 @@
         <v>32</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>3</v>
@@ -14236,7 +14236,7 @@
         <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -14322,7 +14322,7 @@
         <v>45151.3125</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G156" t="s">
         <v>37</v>
@@ -14500,7 +14500,7 @@
         <v>45156.3125</v>
       </c>
       <c r="F158" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G158" t="s">
         <v>32</v>
@@ -14589,7 +14589,7 @@
         <v>45156.3125</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
         <v>40</v>
@@ -14770,7 +14770,7 @@
         <v>39</v>
       </c>
       <c r="G161" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14856,7 +14856,7 @@
         <v>45157.3125</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G162" t="s">
         <v>37</v>
@@ -15034,10 +15034,10 @@
         <v>45163.29166666666</v>
       </c>
       <c r="F164" t="s">
+        <v>36</v>
+      </c>
+      <c r="G164" t="s">
         <v>35</v>
-      </c>
-      <c r="G164" t="s">
-        <v>36</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15390,7 +15390,7 @@
         <v>45165.29166666666</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G168" t="s">
         <v>29</v>
@@ -15482,7 +15482,7 @@
         <v>40</v>
       </c>
       <c r="G169" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H169">
         <v>4</v>
@@ -15571,7 +15571,7 @@
         <v>34</v>
       </c>
       <c r="G170" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -15746,10 +15746,10 @@
         <v>45171.1875</v>
       </c>
       <c r="F172" t="s">
+        <v>31</v>
+      </c>
+      <c r="G172" t="s">
         <v>30</v>
-      </c>
-      <c r="G172" t="s">
-        <v>31</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -15835,7 +15835,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G173" t="s">
         <v>33</v>
@@ -16102,7 +16102,7 @@
         <v>45185.08333333334</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G176" t="s">
         <v>32</v>
@@ -16283,7 +16283,7 @@
         <v>33</v>
       </c>
       <c r="G178" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16458,7 +16458,7 @@
         <v>45186.08333333334</v>
       </c>
       <c r="F180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
         <v>40</v>
@@ -16547,7 +16547,7 @@
         <v>45186.1875</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G181" t="s">
         <v>37</v>
@@ -16639,7 +16639,7 @@
         <v>34</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H182">
         <v>3</v>
@@ -16728,7 +16728,7 @@
         <v>32</v>
       </c>
       <c r="G183" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H183">
         <v>1</v>
@@ -16802,7 +16802,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>6323586</v>
+        <v>6323587</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16814,76 +16814,76 @@
         <v>45193.08333333334</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G184" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J184" t="s">
         <v>42</v>
       </c>
       <c r="K184">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M184">
+        <v>2.45</v>
+      </c>
+      <c r="N184">
+        <v>2.6</v>
+      </c>
+      <c r="O184">
+        <v>3.3</v>
+      </c>
+      <c r="P184">
+        <v>2.7</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <v>1.875</v>
+      </c>
+      <c r="S184">
+        <v>1.975</v>
+      </c>
+      <c r="T184">
+        <v>2.25</v>
+      </c>
+      <c r="U184">
+        <v>1.975</v>
+      </c>
+      <c r="V184">
+        <v>1.875</v>
+      </c>
+      <c r="W184">
+        <v>-1</v>
+      </c>
+      <c r="X184">
+        <v>-1</v>
+      </c>
+      <c r="Y184">
         <v>1.7</v>
       </c>
-      <c r="N184">
-        <v>4.75</v>
-      </c>
-      <c r="O184">
-        <v>4</v>
-      </c>
-      <c r="P184">
-        <v>1.666</v>
-      </c>
-      <c r="Q184">
-        <v>0.75</v>
-      </c>
-      <c r="R184">
-        <v>2.025</v>
-      </c>
-      <c r="S184">
-        <v>1.825</v>
-      </c>
-      <c r="T184">
-        <v>3.25</v>
-      </c>
-      <c r="U184">
-        <v>2.05</v>
-      </c>
-      <c r="V184">
-        <v>1.8</v>
-      </c>
-      <c r="W184">
-        <v>-1</v>
-      </c>
-      <c r="X184">
-        <v>-1</v>
-      </c>
-      <c r="Y184">
-        <v>0.6659999999999999</v>
-      </c>
       <c r="Z184">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB184">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC184">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16891,7 +16891,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>6323587</v>
+        <v>6323586</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16903,55 +16903,55 @@
         <v>45193.08333333334</v>
       </c>
       <c r="F185" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G185" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J185" t="s">
         <v>42</v>
       </c>
       <c r="K185">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="L185">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M185">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="N185">
-        <v>2.6</v>
+        <v>4.75</v>
       </c>
       <c r="O185">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P185">
-        <v>2.7</v>
+        <v>1.666</v>
       </c>
       <c r="Q185">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R185">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S185">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U185">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V185">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W185">
         <v>-1</v>
@@ -16960,19 +16960,19 @@
         <v>-1</v>
       </c>
       <c r="Y185">
-        <v>1.7</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z185">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA185">
-        <v>0.9750000000000001</v>
+        <v>0.4125</v>
       </c>
       <c r="AB185">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC185">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16995,7 +16995,7 @@
         <v>39</v>
       </c>
       <c r="G186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H186">
         <v>1</v>
@@ -17259,10 +17259,10 @@
         <v>45199.08333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H189">
         <v>1</v>
@@ -17437,10 +17437,10 @@
         <v>45199.29166666666</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G191" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H191">
         <v>2</v>
@@ -17704,7 +17704,7 @@
         <v>45207.125</v>
       </c>
       <c r="F194" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G194" t="s">
         <v>33</v>
@@ -17781,7 +17781,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6387791</v>
+        <v>6384125</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17793,76 +17793,76 @@
         <v>45207.125</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G195" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195">
         <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K195">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="L195">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M195">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="N195">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="O195">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P195">
+        <v>5.25</v>
+      </c>
+      <c r="Q195">
+        <v>-0.75</v>
+      </c>
+      <c r="R195">
+        <v>1.85</v>
+      </c>
+      <c r="S195">
+        <v>2</v>
+      </c>
+      <c r="T195">
+        <v>2.75</v>
+      </c>
+      <c r="U195">
+        <v>2.025</v>
+      </c>
+      <c r="V195">
+        <v>1.825</v>
+      </c>
+      <c r="W195">
+        <v>-1</v>
+      </c>
+      <c r="X195">
         <v>2.8</v>
       </c>
-      <c r="Q195">
-        <v>0</v>
-      </c>
-      <c r="R195">
-        <v>1.775</v>
-      </c>
-      <c r="S195">
-        <v>2.1</v>
-      </c>
-      <c r="T195">
-        <v>2.5</v>
-      </c>
-      <c r="U195">
-        <v>1.85</v>
-      </c>
-      <c r="V195">
-        <v>2</v>
-      </c>
-      <c r="W195">
-        <v>-1</v>
-      </c>
-      <c r="X195">
-        <v>-1</v